--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\EMPLEO IMSS\Históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Servicios sociales y comunales</t>
   </si>
   <si>
-    <t>Enero 1998-mayo 2021</t>
-  </si>
-  <si>
     <t>Trabajadores asegurados registrados al IMSS en el estado de Jalisco</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
       </rPr>
       <t xml:space="preserve"> Instituto de Información Estadística y Geográfica, con datos del IMSS.</t>
     </r>
+  </si>
+  <si>
+    <t>Enero 1998-junio 2021</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,32 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -846,9 +870,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -858,32 +879,11 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="36" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="36" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="36" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1207,10 +1207,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AFL27"/>
+  <dimension ref="A1:AFO27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AFK24" sqref="AFK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1354,19 +1355,19 @@
     <col min="469" max="469" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="470" max="470" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="471" max="471" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="844" width="8.85546875" style="1" customWidth="1"/>
-    <col min="845" max="16384" width="11.42578125" style="1"/>
+    <col min="472" max="847" width="8.85546875" style="1" customWidth="1"/>
+    <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+    <row r="1" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1374,2321 +1375,2329 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="4" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="21">
         <v>1998</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="19">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="23"/>
+      <c r="AL5" s="21">
         <v>1999</v>
       </c>
-      <c r="AM5" s="14"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="14"/>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="14"/>
-      <c r="AT5" s="14"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="14"/>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="14"/>
-      <c r="BB5" s="14"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="14"/>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14"/>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="15"/>
-      <c r="BV5" s="19">
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="22"/>
+      <c r="AU5" s="22"/>
+      <c r="AV5" s="22"/>
+      <c r="AW5" s="22"/>
+      <c r="AX5" s="22"/>
+      <c r="AY5" s="22"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="22"/>
+      <c r="BM5" s="22"/>
+      <c r="BN5" s="22"/>
+      <c r="BO5" s="22"/>
+      <c r="BP5" s="22"/>
+      <c r="BQ5" s="22"/>
+      <c r="BR5" s="22"/>
+      <c r="BS5" s="22"/>
+      <c r="BT5" s="22"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="21">
         <v>2000</v>
       </c>
-      <c r="BW5" s="14"/>
-      <c r="BX5" s="14"/>
-      <c r="BY5" s="14"/>
-      <c r="BZ5" s="14"/>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14"/>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="14"/>
-      <c r="CE5" s="14"/>
-      <c r="CF5" s="14"/>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14"/>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="14"/>
-      <c r="CK5" s="14"/>
-      <c r="CL5" s="14"/>
-      <c r="CM5" s="14"/>
-      <c r="CN5" s="14"/>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14"/>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="14"/>
-      <c r="CS5" s="14"/>
-      <c r="CT5" s="14"/>
-      <c r="CU5" s="14"/>
-      <c r="CV5" s="14"/>
-      <c r="CW5" s="14"/>
-      <c r="CX5" s="14"/>
-      <c r="CY5" s="14"/>
-      <c r="CZ5" s="14"/>
-      <c r="DA5" s="14"/>
-      <c r="DB5" s="14"/>
-      <c r="DC5" s="14"/>
-      <c r="DD5" s="14"/>
-      <c r="DE5" s="15"/>
-      <c r="DF5" s="19">
+      <c r="BW5" s="22"/>
+      <c r="BX5" s="22"/>
+      <c r="BY5" s="22"/>
+      <c r="BZ5" s="22"/>
+      <c r="CA5" s="22"/>
+      <c r="CB5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="22"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="22"/>
+      <c r="CG5" s="22"/>
+      <c r="CH5" s="22"/>
+      <c r="CI5" s="22"/>
+      <c r="CJ5" s="22"/>
+      <c r="CK5" s="22"/>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="22"/>
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
+      <c r="CS5" s="22"/>
+      <c r="CT5" s="22"/>
+      <c r="CU5" s="22"/>
+      <c r="CV5" s="22"/>
+      <c r="CW5" s="22"/>
+      <c r="CX5" s="22"/>
+      <c r="CY5" s="22"/>
+      <c r="CZ5" s="22"/>
+      <c r="DA5" s="22"/>
+      <c r="DB5" s="22"/>
+      <c r="DC5" s="22"/>
+      <c r="DD5" s="22"/>
+      <c r="DE5" s="23"/>
+      <c r="DF5" s="21">
         <v>2001</v>
       </c>
-      <c r="DG5" s="14"/>
-      <c r="DH5" s="14"/>
-      <c r="DI5" s="14"/>
-      <c r="DJ5" s="14"/>
-      <c r="DK5" s="14"/>
-      <c r="DL5" s="14"/>
-      <c r="DM5" s="14"/>
-      <c r="DN5" s="14"/>
-      <c r="DO5" s="14"/>
-      <c r="DP5" s="14"/>
-      <c r="DQ5" s="14"/>
-      <c r="DR5" s="14"/>
-      <c r="DS5" s="14"/>
-      <c r="DT5" s="14"/>
-      <c r="DU5" s="14"/>
-      <c r="DV5" s="14"/>
-      <c r="DW5" s="14"/>
-      <c r="DX5" s="14"/>
-      <c r="DY5" s="14"/>
-      <c r="DZ5" s="14"/>
-      <c r="EA5" s="14"/>
-      <c r="EB5" s="14"/>
-      <c r="EC5" s="14"/>
-      <c r="ED5" s="14"/>
-      <c r="EE5" s="14"/>
-      <c r="EF5" s="14"/>
-      <c r="EG5" s="14"/>
-      <c r="EH5" s="14"/>
-      <c r="EI5" s="14"/>
-      <c r="EJ5" s="14"/>
-      <c r="EK5" s="14"/>
-      <c r="EL5" s="14"/>
-      <c r="EM5" s="14"/>
-      <c r="EN5" s="14"/>
-      <c r="EO5" s="15"/>
-      <c r="EP5" s="19">
+      <c r="DG5" s="22"/>
+      <c r="DH5" s="22"/>
+      <c r="DI5" s="22"/>
+      <c r="DJ5" s="22"/>
+      <c r="DK5" s="22"/>
+      <c r="DL5" s="22"/>
+      <c r="DM5" s="22"/>
+      <c r="DN5" s="22"/>
+      <c r="DO5" s="22"/>
+      <c r="DP5" s="22"/>
+      <c r="DQ5" s="22"/>
+      <c r="DR5" s="22"/>
+      <c r="DS5" s="22"/>
+      <c r="DT5" s="22"/>
+      <c r="DU5" s="22"/>
+      <c r="DV5" s="22"/>
+      <c r="DW5" s="22"/>
+      <c r="DX5" s="22"/>
+      <c r="DY5" s="22"/>
+      <c r="DZ5" s="22"/>
+      <c r="EA5" s="22"/>
+      <c r="EB5" s="22"/>
+      <c r="EC5" s="22"/>
+      <c r="ED5" s="22"/>
+      <c r="EE5" s="22"/>
+      <c r="EF5" s="22"/>
+      <c r="EG5" s="22"/>
+      <c r="EH5" s="22"/>
+      <c r="EI5" s="22"/>
+      <c r="EJ5" s="22"/>
+      <c r="EK5" s="22"/>
+      <c r="EL5" s="22"/>
+      <c r="EM5" s="22"/>
+      <c r="EN5" s="22"/>
+      <c r="EO5" s="23"/>
+      <c r="EP5" s="21">
         <v>2002</v>
       </c>
-      <c r="EQ5" s="14"/>
-      <c r="ER5" s="14"/>
-      <c r="ES5" s="14"/>
-      <c r="ET5" s="14"/>
-      <c r="EU5" s="14"/>
-      <c r="EV5" s="14"/>
-      <c r="EW5" s="14"/>
-      <c r="EX5" s="14"/>
-      <c r="EY5" s="14"/>
-      <c r="EZ5" s="14"/>
-      <c r="FA5" s="14"/>
-      <c r="FB5" s="14"/>
-      <c r="FC5" s="14"/>
-      <c r="FD5" s="14"/>
-      <c r="FE5" s="14"/>
-      <c r="FF5" s="14"/>
-      <c r="FG5" s="14"/>
-      <c r="FH5" s="14"/>
-      <c r="FI5" s="14"/>
-      <c r="FJ5" s="14"/>
-      <c r="FK5" s="14"/>
-      <c r="FL5" s="14"/>
-      <c r="FM5" s="14"/>
-      <c r="FN5" s="14"/>
-      <c r="FO5" s="14"/>
-      <c r="FP5" s="14"/>
-      <c r="FQ5" s="14"/>
-      <c r="FR5" s="14"/>
-      <c r="FS5" s="14"/>
-      <c r="FT5" s="14"/>
-      <c r="FU5" s="14"/>
-      <c r="FV5" s="14"/>
-      <c r="FW5" s="14"/>
-      <c r="FX5" s="14"/>
-      <c r="FY5" s="15"/>
-      <c r="FZ5" s="19">
+      <c r="EQ5" s="22"/>
+      <c r="ER5" s="22"/>
+      <c r="ES5" s="22"/>
+      <c r="ET5" s="22"/>
+      <c r="EU5" s="22"/>
+      <c r="EV5" s="22"/>
+      <c r="EW5" s="22"/>
+      <c r="EX5" s="22"/>
+      <c r="EY5" s="22"/>
+      <c r="EZ5" s="22"/>
+      <c r="FA5" s="22"/>
+      <c r="FB5" s="22"/>
+      <c r="FC5" s="22"/>
+      <c r="FD5" s="22"/>
+      <c r="FE5" s="22"/>
+      <c r="FF5" s="22"/>
+      <c r="FG5" s="22"/>
+      <c r="FH5" s="22"/>
+      <c r="FI5" s="22"/>
+      <c r="FJ5" s="22"/>
+      <c r="FK5" s="22"/>
+      <c r="FL5" s="22"/>
+      <c r="FM5" s="22"/>
+      <c r="FN5" s="22"/>
+      <c r="FO5" s="22"/>
+      <c r="FP5" s="22"/>
+      <c r="FQ5" s="22"/>
+      <c r="FR5" s="22"/>
+      <c r="FS5" s="22"/>
+      <c r="FT5" s="22"/>
+      <c r="FU5" s="22"/>
+      <c r="FV5" s="22"/>
+      <c r="FW5" s="22"/>
+      <c r="FX5" s="22"/>
+      <c r="FY5" s="23"/>
+      <c r="FZ5" s="21">
         <v>2003</v>
       </c>
-      <c r="GA5" s="14"/>
-      <c r="GB5" s="14"/>
-      <c r="GC5" s="14"/>
-      <c r="GD5" s="14"/>
-      <c r="GE5" s="14"/>
-      <c r="GF5" s="14"/>
-      <c r="GG5" s="14"/>
-      <c r="GH5" s="14"/>
-      <c r="GI5" s="14"/>
-      <c r="GJ5" s="14"/>
-      <c r="GK5" s="14"/>
-      <c r="GL5" s="14"/>
-      <c r="GM5" s="14"/>
-      <c r="GN5" s="14"/>
-      <c r="GO5" s="14"/>
-      <c r="GP5" s="14"/>
-      <c r="GQ5" s="14"/>
-      <c r="GR5" s="14"/>
-      <c r="GS5" s="14"/>
-      <c r="GT5" s="14"/>
-      <c r="GU5" s="14"/>
-      <c r="GV5" s="14"/>
-      <c r="GW5" s="14"/>
-      <c r="GX5" s="14"/>
-      <c r="GY5" s="14"/>
-      <c r="GZ5" s="14"/>
-      <c r="HA5" s="14"/>
-      <c r="HB5" s="14"/>
-      <c r="HC5" s="14"/>
-      <c r="HD5" s="14"/>
-      <c r="HE5" s="14"/>
-      <c r="HF5" s="14"/>
-      <c r="HG5" s="14"/>
-      <c r="HH5" s="14"/>
-      <c r="HI5" s="15"/>
-      <c r="HJ5" s="19">
+      <c r="GA5" s="22"/>
+      <c r="GB5" s="22"/>
+      <c r="GC5" s="22"/>
+      <c r="GD5" s="22"/>
+      <c r="GE5" s="22"/>
+      <c r="GF5" s="22"/>
+      <c r="GG5" s="22"/>
+      <c r="GH5" s="22"/>
+      <c r="GI5" s="22"/>
+      <c r="GJ5" s="22"/>
+      <c r="GK5" s="22"/>
+      <c r="GL5" s="22"/>
+      <c r="GM5" s="22"/>
+      <c r="GN5" s="22"/>
+      <c r="GO5" s="22"/>
+      <c r="GP5" s="22"/>
+      <c r="GQ5" s="22"/>
+      <c r="GR5" s="22"/>
+      <c r="GS5" s="22"/>
+      <c r="GT5" s="22"/>
+      <c r="GU5" s="22"/>
+      <c r="GV5" s="22"/>
+      <c r="GW5" s="22"/>
+      <c r="GX5" s="22"/>
+      <c r="GY5" s="22"/>
+      <c r="GZ5" s="22"/>
+      <c r="HA5" s="22"/>
+      <c r="HB5" s="22"/>
+      <c r="HC5" s="22"/>
+      <c r="HD5" s="22"/>
+      <c r="HE5" s="22"/>
+      <c r="HF5" s="22"/>
+      <c r="HG5" s="22"/>
+      <c r="HH5" s="22"/>
+      <c r="HI5" s="23"/>
+      <c r="HJ5" s="21">
         <v>2004</v>
       </c>
-      <c r="HK5" s="14"/>
-      <c r="HL5" s="14"/>
-      <c r="HM5" s="14"/>
-      <c r="HN5" s="14"/>
-      <c r="HO5" s="14"/>
-      <c r="HP5" s="14"/>
-      <c r="HQ5" s="14"/>
-      <c r="HR5" s="14"/>
-      <c r="HS5" s="14"/>
-      <c r="HT5" s="14"/>
-      <c r="HU5" s="14"/>
-      <c r="HV5" s="14"/>
-      <c r="HW5" s="14"/>
-      <c r="HX5" s="14"/>
-      <c r="HY5" s="14"/>
-      <c r="HZ5" s="14"/>
-      <c r="IA5" s="14"/>
-      <c r="IB5" s="14"/>
-      <c r="IC5" s="14"/>
-      <c r="ID5" s="14"/>
-      <c r="IE5" s="14"/>
-      <c r="IF5" s="14"/>
-      <c r="IG5" s="14"/>
-      <c r="IH5" s="14"/>
-      <c r="II5" s="14"/>
-      <c r="IJ5" s="14"/>
-      <c r="IK5" s="14"/>
-      <c r="IL5" s="14"/>
-      <c r="IM5" s="14"/>
-      <c r="IN5" s="14"/>
-      <c r="IO5" s="14"/>
-      <c r="IP5" s="14"/>
-      <c r="IQ5" s="14"/>
-      <c r="IR5" s="14"/>
-      <c r="IS5" s="15"/>
-      <c r="IT5" s="19">
+      <c r="HK5" s="22"/>
+      <c r="HL5" s="22"/>
+      <c r="HM5" s="22"/>
+      <c r="HN5" s="22"/>
+      <c r="HO5" s="22"/>
+      <c r="HP5" s="22"/>
+      <c r="HQ5" s="22"/>
+      <c r="HR5" s="22"/>
+      <c r="HS5" s="22"/>
+      <c r="HT5" s="22"/>
+      <c r="HU5" s="22"/>
+      <c r="HV5" s="22"/>
+      <c r="HW5" s="22"/>
+      <c r="HX5" s="22"/>
+      <c r="HY5" s="22"/>
+      <c r="HZ5" s="22"/>
+      <c r="IA5" s="22"/>
+      <c r="IB5" s="22"/>
+      <c r="IC5" s="22"/>
+      <c r="ID5" s="22"/>
+      <c r="IE5" s="22"/>
+      <c r="IF5" s="22"/>
+      <c r="IG5" s="22"/>
+      <c r="IH5" s="22"/>
+      <c r="II5" s="22"/>
+      <c r="IJ5" s="22"/>
+      <c r="IK5" s="22"/>
+      <c r="IL5" s="22"/>
+      <c r="IM5" s="22"/>
+      <c r="IN5" s="22"/>
+      <c r="IO5" s="22"/>
+      <c r="IP5" s="22"/>
+      <c r="IQ5" s="22"/>
+      <c r="IR5" s="22"/>
+      <c r="IS5" s="23"/>
+      <c r="IT5" s="21">
         <v>2005</v>
       </c>
-      <c r="IU5" s="14"/>
-      <c r="IV5" s="14"/>
-      <c r="IW5" s="14"/>
-      <c r="IX5" s="14"/>
-      <c r="IY5" s="14"/>
-      <c r="IZ5" s="14"/>
-      <c r="JA5" s="14"/>
-      <c r="JB5" s="14"/>
-      <c r="JC5" s="14"/>
-      <c r="JD5" s="14"/>
-      <c r="JE5" s="14"/>
-      <c r="JF5" s="14"/>
-      <c r="JG5" s="14"/>
-      <c r="JH5" s="14"/>
-      <c r="JI5" s="14"/>
-      <c r="JJ5" s="14"/>
-      <c r="JK5" s="14"/>
-      <c r="JL5" s="14"/>
-      <c r="JM5" s="14"/>
-      <c r="JN5" s="14"/>
-      <c r="JO5" s="14"/>
-      <c r="JP5" s="14"/>
-      <c r="JQ5" s="14"/>
-      <c r="JR5" s="14"/>
-      <c r="JS5" s="14"/>
-      <c r="JT5" s="14"/>
-      <c r="JU5" s="14"/>
-      <c r="JV5" s="14"/>
-      <c r="JW5" s="14"/>
-      <c r="JX5" s="14"/>
-      <c r="JY5" s="14"/>
-      <c r="JZ5" s="14"/>
-      <c r="KA5" s="14"/>
-      <c r="KB5" s="14"/>
-      <c r="KC5" s="15"/>
-      <c r="KD5" s="19">
+      <c r="IU5" s="22"/>
+      <c r="IV5" s="22"/>
+      <c r="IW5" s="22"/>
+      <c r="IX5" s="22"/>
+      <c r="IY5" s="22"/>
+      <c r="IZ5" s="22"/>
+      <c r="JA5" s="22"/>
+      <c r="JB5" s="22"/>
+      <c r="JC5" s="22"/>
+      <c r="JD5" s="22"/>
+      <c r="JE5" s="22"/>
+      <c r="JF5" s="22"/>
+      <c r="JG5" s="22"/>
+      <c r="JH5" s="22"/>
+      <c r="JI5" s="22"/>
+      <c r="JJ5" s="22"/>
+      <c r="JK5" s="22"/>
+      <c r="JL5" s="22"/>
+      <c r="JM5" s="22"/>
+      <c r="JN5" s="22"/>
+      <c r="JO5" s="22"/>
+      <c r="JP5" s="22"/>
+      <c r="JQ5" s="22"/>
+      <c r="JR5" s="22"/>
+      <c r="JS5" s="22"/>
+      <c r="JT5" s="22"/>
+      <c r="JU5" s="22"/>
+      <c r="JV5" s="22"/>
+      <c r="JW5" s="22"/>
+      <c r="JX5" s="22"/>
+      <c r="JY5" s="22"/>
+      <c r="JZ5" s="22"/>
+      <c r="KA5" s="22"/>
+      <c r="KB5" s="22"/>
+      <c r="KC5" s="23"/>
+      <c r="KD5" s="21">
         <v>2006</v>
       </c>
-      <c r="KE5" s="14"/>
-      <c r="KF5" s="14"/>
-      <c r="KG5" s="14"/>
-      <c r="KH5" s="14"/>
-      <c r="KI5" s="14"/>
-      <c r="KJ5" s="14"/>
-      <c r="KK5" s="14"/>
-      <c r="KL5" s="14"/>
-      <c r="KM5" s="14"/>
-      <c r="KN5" s="14"/>
-      <c r="KO5" s="14"/>
-      <c r="KP5" s="14"/>
-      <c r="KQ5" s="14"/>
-      <c r="KR5" s="14"/>
-      <c r="KS5" s="14"/>
-      <c r="KT5" s="14"/>
-      <c r="KU5" s="14"/>
-      <c r="KV5" s="14"/>
-      <c r="KW5" s="14"/>
-      <c r="KX5" s="14"/>
-      <c r="KY5" s="14"/>
-      <c r="KZ5" s="14"/>
-      <c r="LA5" s="14"/>
-      <c r="LB5" s="14"/>
-      <c r="LC5" s="14"/>
-      <c r="LD5" s="14"/>
-      <c r="LE5" s="14"/>
-      <c r="LF5" s="14"/>
-      <c r="LG5" s="14"/>
-      <c r="LH5" s="14"/>
-      <c r="LI5" s="14"/>
-      <c r="LJ5" s="14"/>
-      <c r="LK5" s="14"/>
-      <c r="LL5" s="14"/>
-      <c r="LM5" s="15"/>
-      <c r="LN5" s="19">
+      <c r="KE5" s="22"/>
+      <c r="KF5" s="22"/>
+      <c r="KG5" s="22"/>
+      <c r="KH5" s="22"/>
+      <c r="KI5" s="22"/>
+      <c r="KJ5" s="22"/>
+      <c r="KK5" s="22"/>
+      <c r="KL5" s="22"/>
+      <c r="KM5" s="22"/>
+      <c r="KN5" s="22"/>
+      <c r="KO5" s="22"/>
+      <c r="KP5" s="22"/>
+      <c r="KQ5" s="22"/>
+      <c r="KR5" s="22"/>
+      <c r="KS5" s="22"/>
+      <c r="KT5" s="22"/>
+      <c r="KU5" s="22"/>
+      <c r="KV5" s="22"/>
+      <c r="KW5" s="22"/>
+      <c r="KX5" s="22"/>
+      <c r="KY5" s="22"/>
+      <c r="KZ5" s="22"/>
+      <c r="LA5" s="22"/>
+      <c r="LB5" s="22"/>
+      <c r="LC5" s="22"/>
+      <c r="LD5" s="22"/>
+      <c r="LE5" s="22"/>
+      <c r="LF5" s="22"/>
+      <c r="LG5" s="22"/>
+      <c r="LH5" s="22"/>
+      <c r="LI5" s="22"/>
+      <c r="LJ5" s="22"/>
+      <c r="LK5" s="22"/>
+      <c r="LL5" s="22"/>
+      <c r="LM5" s="23"/>
+      <c r="LN5" s="21">
         <v>2007</v>
       </c>
-      <c r="LO5" s="14"/>
-      <c r="LP5" s="14"/>
-      <c r="LQ5" s="14"/>
-      <c r="LR5" s="14"/>
-      <c r="LS5" s="14"/>
-      <c r="LT5" s="14"/>
-      <c r="LU5" s="14"/>
-      <c r="LV5" s="14"/>
-      <c r="LW5" s="14"/>
-      <c r="LX5" s="14"/>
-      <c r="LY5" s="14"/>
-      <c r="LZ5" s="14"/>
-      <c r="MA5" s="14"/>
-      <c r="MB5" s="14"/>
-      <c r="MC5" s="14"/>
-      <c r="MD5" s="14"/>
-      <c r="ME5" s="14"/>
-      <c r="MF5" s="14"/>
-      <c r="MG5" s="14"/>
-      <c r="MH5" s="14"/>
-      <c r="MI5" s="14"/>
-      <c r="MJ5" s="14"/>
-      <c r="MK5" s="14"/>
-      <c r="ML5" s="14"/>
-      <c r="MM5" s="14"/>
-      <c r="MN5" s="14"/>
-      <c r="MO5" s="14"/>
-      <c r="MP5" s="14"/>
-      <c r="MQ5" s="14"/>
-      <c r="MR5" s="14"/>
-      <c r="MS5" s="14"/>
-      <c r="MT5" s="14"/>
-      <c r="MU5" s="14"/>
-      <c r="MV5" s="14"/>
-      <c r="MW5" s="15"/>
-      <c r="MX5" s="19">
+      <c r="LO5" s="22"/>
+      <c r="LP5" s="22"/>
+      <c r="LQ5" s="22"/>
+      <c r="LR5" s="22"/>
+      <c r="LS5" s="22"/>
+      <c r="LT5" s="22"/>
+      <c r="LU5" s="22"/>
+      <c r="LV5" s="22"/>
+      <c r="LW5" s="22"/>
+      <c r="LX5" s="22"/>
+      <c r="LY5" s="22"/>
+      <c r="LZ5" s="22"/>
+      <c r="MA5" s="22"/>
+      <c r="MB5" s="22"/>
+      <c r="MC5" s="22"/>
+      <c r="MD5" s="22"/>
+      <c r="ME5" s="22"/>
+      <c r="MF5" s="22"/>
+      <c r="MG5" s="22"/>
+      <c r="MH5" s="22"/>
+      <c r="MI5" s="22"/>
+      <c r="MJ5" s="22"/>
+      <c r="MK5" s="22"/>
+      <c r="ML5" s="22"/>
+      <c r="MM5" s="22"/>
+      <c r="MN5" s="22"/>
+      <c r="MO5" s="22"/>
+      <c r="MP5" s="22"/>
+      <c r="MQ5" s="22"/>
+      <c r="MR5" s="22"/>
+      <c r="MS5" s="22"/>
+      <c r="MT5" s="22"/>
+      <c r="MU5" s="22"/>
+      <c r="MV5" s="22"/>
+      <c r="MW5" s="23"/>
+      <c r="MX5" s="21">
         <v>2008</v>
       </c>
-      <c r="MY5" s="14"/>
-      <c r="MZ5" s="14"/>
-      <c r="NA5" s="14"/>
-      <c r="NB5" s="14"/>
-      <c r="NC5" s="14"/>
-      <c r="ND5" s="14"/>
-      <c r="NE5" s="14"/>
-      <c r="NF5" s="14"/>
-      <c r="NG5" s="14"/>
-      <c r="NH5" s="14"/>
-      <c r="NI5" s="14"/>
-      <c r="NJ5" s="14"/>
-      <c r="NK5" s="14"/>
-      <c r="NL5" s="14"/>
-      <c r="NM5" s="14"/>
-      <c r="NN5" s="14"/>
-      <c r="NO5" s="14"/>
-      <c r="NP5" s="14"/>
-      <c r="NQ5" s="14"/>
-      <c r="NR5" s="14"/>
-      <c r="NS5" s="14"/>
-      <c r="NT5" s="14"/>
-      <c r="NU5" s="14"/>
-      <c r="NV5" s="14"/>
-      <c r="NW5" s="14"/>
-      <c r="NX5" s="14"/>
-      <c r="NY5" s="14"/>
-      <c r="NZ5" s="14"/>
-      <c r="OA5" s="14"/>
-      <c r="OB5" s="14"/>
-      <c r="OC5" s="14"/>
-      <c r="OD5" s="14"/>
-      <c r="OE5" s="14"/>
-      <c r="OF5" s="14"/>
-      <c r="OG5" s="15"/>
-      <c r="OH5" s="14">
+      <c r="MY5" s="22"/>
+      <c r="MZ5" s="22"/>
+      <c r="NA5" s="22"/>
+      <c r="NB5" s="22"/>
+      <c r="NC5" s="22"/>
+      <c r="ND5" s="22"/>
+      <c r="NE5" s="22"/>
+      <c r="NF5" s="22"/>
+      <c r="NG5" s="22"/>
+      <c r="NH5" s="22"/>
+      <c r="NI5" s="22"/>
+      <c r="NJ5" s="22"/>
+      <c r="NK5" s="22"/>
+      <c r="NL5" s="22"/>
+      <c r="NM5" s="22"/>
+      <c r="NN5" s="22"/>
+      <c r="NO5" s="22"/>
+      <c r="NP5" s="22"/>
+      <c r="NQ5" s="22"/>
+      <c r="NR5" s="22"/>
+      <c r="NS5" s="22"/>
+      <c r="NT5" s="22"/>
+      <c r="NU5" s="22"/>
+      <c r="NV5" s="22"/>
+      <c r="NW5" s="22"/>
+      <c r="NX5" s="22"/>
+      <c r="NY5" s="22"/>
+      <c r="NZ5" s="22"/>
+      <c r="OA5" s="22"/>
+      <c r="OB5" s="22"/>
+      <c r="OC5" s="22"/>
+      <c r="OD5" s="22"/>
+      <c r="OE5" s="22"/>
+      <c r="OF5" s="22"/>
+      <c r="OG5" s="23"/>
+      <c r="OH5" s="22">
         <v>2009</v>
       </c>
-      <c r="OI5" s="14"/>
-      <c r="OJ5" s="14"/>
-      <c r="OK5" s="14"/>
-      <c r="OL5" s="14"/>
-      <c r="OM5" s="14"/>
-      <c r="ON5" s="14"/>
-      <c r="OO5" s="14"/>
-      <c r="OP5" s="14"/>
-      <c r="OQ5" s="14"/>
-      <c r="OR5" s="14"/>
-      <c r="OS5" s="14"/>
-      <c r="OT5" s="14"/>
-      <c r="OU5" s="14"/>
-      <c r="OV5" s="14"/>
-      <c r="OW5" s="14"/>
-      <c r="OX5" s="14"/>
-      <c r="OY5" s="14"/>
-      <c r="OZ5" s="14"/>
-      <c r="PA5" s="14"/>
-      <c r="PB5" s="14"/>
-      <c r="PC5" s="14"/>
-      <c r="PD5" s="14"/>
-      <c r="PE5" s="14"/>
-      <c r="PF5" s="14"/>
-      <c r="PG5" s="14"/>
-      <c r="PH5" s="14"/>
-      <c r="PI5" s="14"/>
-      <c r="PJ5" s="14"/>
-      <c r="PK5" s="14"/>
-      <c r="PL5" s="14"/>
-      <c r="PM5" s="14"/>
-      <c r="PN5" s="14"/>
-      <c r="PO5" s="14"/>
-      <c r="PP5" s="14"/>
-      <c r="PQ5" s="14"/>
-      <c r="PR5" s="19">
+      <c r="OI5" s="22"/>
+      <c r="OJ5" s="22"/>
+      <c r="OK5" s="22"/>
+      <c r="OL5" s="22"/>
+      <c r="OM5" s="22"/>
+      <c r="ON5" s="22"/>
+      <c r="OO5" s="22"/>
+      <c r="OP5" s="22"/>
+      <c r="OQ5" s="22"/>
+      <c r="OR5" s="22"/>
+      <c r="OS5" s="22"/>
+      <c r="OT5" s="22"/>
+      <c r="OU5" s="22"/>
+      <c r="OV5" s="22"/>
+      <c r="OW5" s="22"/>
+      <c r="OX5" s="22"/>
+      <c r="OY5" s="22"/>
+      <c r="OZ5" s="22"/>
+      <c r="PA5" s="22"/>
+      <c r="PB5" s="22"/>
+      <c r="PC5" s="22"/>
+      <c r="PD5" s="22"/>
+      <c r="PE5" s="22"/>
+      <c r="PF5" s="22"/>
+      <c r="PG5" s="22"/>
+      <c r="PH5" s="22"/>
+      <c r="PI5" s="22"/>
+      <c r="PJ5" s="22"/>
+      <c r="PK5" s="22"/>
+      <c r="PL5" s="22"/>
+      <c r="PM5" s="22"/>
+      <c r="PN5" s="22"/>
+      <c r="PO5" s="22"/>
+      <c r="PP5" s="22"/>
+      <c r="PQ5" s="22"/>
+      <c r="PR5" s="21">
         <v>2010</v>
       </c>
-      <c r="PS5" s="14"/>
-      <c r="PT5" s="14"/>
-      <c r="PU5" s="14"/>
-      <c r="PV5" s="14"/>
-      <c r="PW5" s="14"/>
-      <c r="PX5" s="14"/>
-      <c r="PY5" s="14"/>
-      <c r="PZ5" s="14"/>
-      <c r="QA5" s="14"/>
-      <c r="QB5" s="14"/>
-      <c r="QC5" s="14"/>
-      <c r="QD5" s="14"/>
-      <c r="QE5" s="14"/>
-      <c r="QF5" s="14"/>
-      <c r="QG5" s="14"/>
-      <c r="QH5" s="14"/>
-      <c r="QI5" s="14"/>
-      <c r="QJ5" s="14"/>
-      <c r="QK5" s="14"/>
-      <c r="QL5" s="14"/>
-      <c r="QM5" s="14"/>
-      <c r="QN5" s="14"/>
-      <c r="QO5" s="14"/>
-      <c r="QP5" s="14"/>
-      <c r="QQ5" s="14"/>
-      <c r="QR5" s="14"/>
-      <c r="QS5" s="14"/>
-      <c r="QT5" s="14"/>
-      <c r="QU5" s="14"/>
-      <c r="QV5" s="14"/>
-      <c r="QW5" s="14"/>
-      <c r="QX5" s="14"/>
-      <c r="QY5" s="14"/>
-      <c r="QZ5" s="14"/>
-      <c r="RA5" s="15"/>
-      <c r="RB5" s="19">
+      <c r="PS5" s="22"/>
+      <c r="PT5" s="22"/>
+      <c r="PU5" s="22"/>
+      <c r="PV5" s="22"/>
+      <c r="PW5" s="22"/>
+      <c r="PX5" s="22"/>
+      <c r="PY5" s="22"/>
+      <c r="PZ5" s="22"/>
+      <c r="QA5" s="22"/>
+      <c r="QB5" s="22"/>
+      <c r="QC5" s="22"/>
+      <c r="QD5" s="22"/>
+      <c r="QE5" s="22"/>
+      <c r="QF5" s="22"/>
+      <c r="QG5" s="22"/>
+      <c r="QH5" s="22"/>
+      <c r="QI5" s="22"/>
+      <c r="QJ5" s="22"/>
+      <c r="QK5" s="22"/>
+      <c r="QL5" s="22"/>
+      <c r="QM5" s="22"/>
+      <c r="QN5" s="22"/>
+      <c r="QO5" s="22"/>
+      <c r="QP5" s="22"/>
+      <c r="QQ5" s="22"/>
+      <c r="QR5" s="22"/>
+      <c r="QS5" s="22"/>
+      <c r="QT5" s="22"/>
+      <c r="QU5" s="22"/>
+      <c r="QV5" s="22"/>
+      <c r="QW5" s="22"/>
+      <c r="QX5" s="22"/>
+      <c r="QY5" s="22"/>
+      <c r="QZ5" s="22"/>
+      <c r="RA5" s="23"/>
+      <c r="RB5" s="21">
         <v>2011</v>
       </c>
-      <c r="RC5" s="14"/>
-      <c r="RD5" s="14"/>
-      <c r="RE5" s="14"/>
-      <c r="RF5" s="14"/>
-      <c r="RG5" s="14"/>
-      <c r="RH5" s="14"/>
-      <c r="RI5" s="14"/>
-      <c r="RJ5" s="14"/>
-      <c r="RK5" s="14"/>
-      <c r="RL5" s="14"/>
-      <c r="RM5" s="14"/>
-      <c r="RN5" s="14"/>
-      <c r="RO5" s="14"/>
-      <c r="RP5" s="14"/>
-      <c r="RQ5" s="14"/>
-      <c r="RR5" s="14"/>
-      <c r="RS5" s="14"/>
-      <c r="RT5" s="14"/>
-      <c r="RU5" s="14"/>
-      <c r="RV5" s="14"/>
-      <c r="RW5" s="14"/>
-      <c r="RX5" s="14"/>
-      <c r="RY5" s="14"/>
-      <c r="RZ5" s="14"/>
-      <c r="SA5" s="14"/>
-      <c r="SB5" s="14"/>
-      <c r="SC5" s="14"/>
-      <c r="SD5" s="14"/>
-      <c r="SE5" s="14"/>
-      <c r="SF5" s="14"/>
-      <c r="SG5" s="14"/>
-      <c r="SH5" s="14"/>
-      <c r="SI5" s="14"/>
-      <c r="SJ5" s="14"/>
-      <c r="SK5" s="15"/>
-      <c r="SL5" s="19">
+      <c r="RC5" s="22"/>
+      <c r="RD5" s="22"/>
+      <c r="RE5" s="22"/>
+      <c r="RF5" s="22"/>
+      <c r="RG5" s="22"/>
+      <c r="RH5" s="22"/>
+      <c r="RI5" s="22"/>
+      <c r="RJ5" s="22"/>
+      <c r="RK5" s="22"/>
+      <c r="RL5" s="22"/>
+      <c r="RM5" s="22"/>
+      <c r="RN5" s="22"/>
+      <c r="RO5" s="22"/>
+      <c r="RP5" s="22"/>
+      <c r="RQ5" s="22"/>
+      <c r="RR5" s="22"/>
+      <c r="RS5" s="22"/>
+      <c r="RT5" s="22"/>
+      <c r="RU5" s="22"/>
+      <c r="RV5" s="22"/>
+      <c r="RW5" s="22"/>
+      <c r="RX5" s="22"/>
+      <c r="RY5" s="22"/>
+      <c r="RZ5" s="22"/>
+      <c r="SA5" s="22"/>
+      <c r="SB5" s="22"/>
+      <c r="SC5" s="22"/>
+      <c r="SD5" s="22"/>
+      <c r="SE5" s="22"/>
+      <c r="SF5" s="22"/>
+      <c r="SG5" s="22"/>
+      <c r="SH5" s="22"/>
+      <c r="SI5" s="22"/>
+      <c r="SJ5" s="22"/>
+      <c r="SK5" s="23"/>
+      <c r="SL5" s="21">
         <v>2012</v>
       </c>
-      <c r="SM5" s="14"/>
-      <c r="SN5" s="14"/>
-      <c r="SO5" s="14"/>
-      <c r="SP5" s="14"/>
-      <c r="SQ5" s="14"/>
-      <c r="SR5" s="14"/>
-      <c r="SS5" s="14"/>
-      <c r="ST5" s="14"/>
-      <c r="SU5" s="14"/>
-      <c r="SV5" s="14"/>
-      <c r="SW5" s="14"/>
-      <c r="SX5" s="14"/>
-      <c r="SY5" s="14"/>
-      <c r="SZ5" s="14"/>
-      <c r="TA5" s="14"/>
-      <c r="TB5" s="14"/>
-      <c r="TC5" s="14"/>
-      <c r="TD5" s="14"/>
-      <c r="TE5" s="14"/>
-      <c r="TF5" s="14"/>
-      <c r="TG5" s="14"/>
-      <c r="TH5" s="14"/>
-      <c r="TI5" s="14"/>
-      <c r="TJ5" s="14"/>
-      <c r="TK5" s="14"/>
-      <c r="TL5" s="14"/>
-      <c r="TM5" s="14"/>
-      <c r="TN5" s="14"/>
-      <c r="TO5" s="14"/>
-      <c r="TP5" s="14"/>
-      <c r="TQ5" s="14"/>
-      <c r="TR5" s="14"/>
-      <c r="TS5" s="14"/>
-      <c r="TT5" s="14"/>
-      <c r="TU5" s="15"/>
-      <c r="TV5" s="19">
+      <c r="SM5" s="22"/>
+      <c r="SN5" s="22"/>
+      <c r="SO5" s="22"/>
+      <c r="SP5" s="22"/>
+      <c r="SQ5" s="22"/>
+      <c r="SR5" s="22"/>
+      <c r="SS5" s="22"/>
+      <c r="ST5" s="22"/>
+      <c r="SU5" s="22"/>
+      <c r="SV5" s="22"/>
+      <c r="SW5" s="22"/>
+      <c r="SX5" s="22"/>
+      <c r="SY5" s="22"/>
+      <c r="SZ5" s="22"/>
+      <c r="TA5" s="22"/>
+      <c r="TB5" s="22"/>
+      <c r="TC5" s="22"/>
+      <c r="TD5" s="22"/>
+      <c r="TE5" s="22"/>
+      <c r="TF5" s="22"/>
+      <c r="TG5" s="22"/>
+      <c r="TH5" s="22"/>
+      <c r="TI5" s="22"/>
+      <c r="TJ5" s="22"/>
+      <c r="TK5" s="22"/>
+      <c r="TL5" s="22"/>
+      <c r="TM5" s="22"/>
+      <c r="TN5" s="22"/>
+      <c r="TO5" s="22"/>
+      <c r="TP5" s="22"/>
+      <c r="TQ5" s="22"/>
+      <c r="TR5" s="22"/>
+      <c r="TS5" s="22"/>
+      <c r="TT5" s="22"/>
+      <c r="TU5" s="23"/>
+      <c r="TV5" s="21">
         <v>2013</v>
       </c>
-      <c r="TW5" s="14"/>
-      <c r="TX5" s="14"/>
-      <c r="TY5" s="14"/>
-      <c r="TZ5" s="14"/>
-      <c r="UA5" s="14"/>
-      <c r="UB5" s="14"/>
-      <c r="UC5" s="14"/>
-      <c r="UD5" s="14"/>
-      <c r="UE5" s="14"/>
-      <c r="UF5" s="14"/>
-      <c r="UG5" s="14"/>
-      <c r="UH5" s="14"/>
-      <c r="UI5" s="14"/>
-      <c r="UJ5" s="14"/>
-      <c r="UK5" s="14"/>
-      <c r="UL5" s="14"/>
-      <c r="UM5" s="14"/>
-      <c r="UN5" s="14"/>
-      <c r="UO5" s="14"/>
-      <c r="UP5" s="14"/>
-      <c r="UQ5" s="14"/>
-      <c r="UR5" s="14"/>
-      <c r="US5" s="14"/>
-      <c r="UT5" s="14"/>
-      <c r="UU5" s="14"/>
-      <c r="UV5" s="14"/>
-      <c r="UW5" s="14"/>
-      <c r="UX5" s="14"/>
-      <c r="UY5" s="14"/>
-      <c r="UZ5" s="14"/>
-      <c r="VA5" s="14"/>
-      <c r="VB5" s="14"/>
-      <c r="VC5" s="14"/>
-      <c r="VD5" s="14"/>
-      <c r="VE5" s="15"/>
-      <c r="VF5" s="19">
+      <c r="TW5" s="22"/>
+      <c r="TX5" s="22"/>
+      <c r="TY5" s="22"/>
+      <c r="TZ5" s="22"/>
+      <c r="UA5" s="22"/>
+      <c r="UB5" s="22"/>
+      <c r="UC5" s="22"/>
+      <c r="UD5" s="22"/>
+      <c r="UE5" s="22"/>
+      <c r="UF5" s="22"/>
+      <c r="UG5" s="22"/>
+      <c r="UH5" s="22"/>
+      <c r="UI5" s="22"/>
+      <c r="UJ5" s="22"/>
+      <c r="UK5" s="22"/>
+      <c r="UL5" s="22"/>
+      <c r="UM5" s="22"/>
+      <c r="UN5" s="22"/>
+      <c r="UO5" s="22"/>
+      <c r="UP5" s="22"/>
+      <c r="UQ5" s="22"/>
+      <c r="UR5" s="22"/>
+      <c r="US5" s="22"/>
+      <c r="UT5" s="22"/>
+      <c r="UU5" s="22"/>
+      <c r="UV5" s="22"/>
+      <c r="UW5" s="22"/>
+      <c r="UX5" s="22"/>
+      <c r="UY5" s="22"/>
+      <c r="UZ5" s="22"/>
+      <c r="VA5" s="22"/>
+      <c r="VB5" s="22"/>
+      <c r="VC5" s="22"/>
+      <c r="VD5" s="22"/>
+      <c r="VE5" s="23"/>
+      <c r="VF5" s="21">
         <v>2014</v>
       </c>
-      <c r="VG5" s="14"/>
-      <c r="VH5" s="14"/>
-      <c r="VI5" s="14"/>
-      <c r="VJ5" s="14"/>
-      <c r="VK5" s="14"/>
-      <c r="VL5" s="14"/>
-      <c r="VM5" s="14"/>
-      <c r="VN5" s="14"/>
-      <c r="VO5" s="14"/>
-      <c r="VP5" s="14"/>
-      <c r="VQ5" s="14"/>
-      <c r="VR5" s="14"/>
-      <c r="VS5" s="14"/>
-      <c r="VT5" s="14"/>
-      <c r="VU5" s="14"/>
-      <c r="VV5" s="14"/>
-      <c r="VW5" s="14"/>
-      <c r="VX5" s="14"/>
-      <c r="VY5" s="14"/>
-      <c r="VZ5" s="14"/>
-      <c r="WA5" s="14"/>
-      <c r="WB5" s="14"/>
-      <c r="WC5" s="14"/>
-      <c r="WD5" s="14"/>
-      <c r="WE5" s="14"/>
-      <c r="WF5" s="14"/>
-      <c r="WG5" s="14"/>
-      <c r="WH5" s="14"/>
-      <c r="WI5" s="14"/>
-      <c r="WJ5" s="14"/>
-      <c r="WK5" s="14"/>
-      <c r="WL5" s="14"/>
-      <c r="WM5" s="14"/>
-      <c r="WN5" s="14"/>
-      <c r="WO5" s="15"/>
-      <c r="WP5" s="19">
+      <c r="VG5" s="22"/>
+      <c r="VH5" s="22"/>
+      <c r="VI5" s="22"/>
+      <c r="VJ5" s="22"/>
+      <c r="VK5" s="22"/>
+      <c r="VL5" s="22"/>
+      <c r="VM5" s="22"/>
+      <c r="VN5" s="22"/>
+      <c r="VO5" s="22"/>
+      <c r="VP5" s="22"/>
+      <c r="VQ5" s="22"/>
+      <c r="VR5" s="22"/>
+      <c r="VS5" s="22"/>
+      <c r="VT5" s="22"/>
+      <c r="VU5" s="22"/>
+      <c r="VV5" s="22"/>
+      <c r="VW5" s="22"/>
+      <c r="VX5" s="22"/>
+      <c r="VY5" s="22"/>
+      <c r="VZ5" s="22"/>
+      <c r="WA5" s="22"/>
+      <c r="WB5" s="22"/>
+      <c r="WC5" s="22"/>
+      <c r="WD5" s="22"/>
+      <c r="WE5" s="22"/>
+      <c r="WF5" s="22"/>
+      <c r="WG5" s="22"/>
+      <c r="WH5" s="22"/>
+      <c r="WI5" s="22"/>
+      <c r="WJ5" s="22"/>
+      <c r="WK5" s="22"/>
+      <c r="WL5" s="22"/>
+      <c r="WM5" s="22"/>
+      <c r="WN5" s="22"/>
+      <c r="WO5" s="23"/>
+      <c r="WP5" s="21">
         <v>2015</v>
       </c>
-      <c r="WQ5" s="14"/>
-      <c r="WR5" s="14"/>
-      <c r="WS5" s="14"/>
-      <c r="WT5" s="14"/>
-      <c r="WU5" s="14"/>
-      <c r="WV5" s="14"/>
-      <c r="WW5" s="14"/>
-      <c r="WX5" s="14"/>
-      <c r="WY5" s="14"/>
-      <c r="WZ5" s="14"/>
-      <c r="XA5" s="14"/>
-      <c r="XB5" s="14"/>
-      <c r="XC5" s="14"/>
-      <c r="XD5" s="14"/>
-      <c r="XE5" s="14"/>
-      <c r="XF5" s="14"/>
-      <c r="XG5" s="14"/>
-      <c r="XH5" s="14"/>
-      <c r="XI5" s="14"/>
-      <c r="XJ5" s="14"/>
-      <c r="XK5" s="14"/>
-      <c r="XL5" s="14"/>
-      <c r="XM5" s="14"/>
-      <c r="XN5" s="14"/>
-      <c r="XO5" s="14"/>
-      <c r="XP5" s="14"/>
-      <c r="XQ5" s="14"/>
-      <c r="XR5" s="14"/>
-      <c r="XS5" s="14"/>
-      <c r="XT5" s="14"/>
-      <c r="XU5" s="14"/>
-      <c r="XV5" s="14"/>
-      <c r="XW5" s="14"/>
-      <c r="XX5" s="14"/>
-      <c r="XY5" s="15"/>
-      <c r="XZ5" s="19">
+      <c r="WQ5" s="22"/>
+      <c r="WR5" s="22"/>
+      <c r="WS5" s="22"/>
+      <c r="WT5" s="22"/>
+      <c r="WU5" s="22"/>
+      <c r="WV5" s="22"/>
+      <c r="WW5" s="22"/>
+      <c r="WX5" s="22"/>
+      <c r="WY5" s="22"/>
+      <c r="WZ5" s="22"/>
+      <c r="XA5" s="22"/>
+      <c r="XB5" s="22"/>
+      <c r="XC5" s="22"/>
+      <c r="XD5" s="22"/>
+      <c r="XE5" s="22"/>
+      <c r="XF5" s="22"/>
+      <c r="XG5" s="22"/>
+      <c r="XH5" s="22"/>
+      <c r="XI5" s="22"/>
+      <c r="XJ5" s="22"/>
+      <c r="XK5" s="22"/>
+      <c r="XL5" s="22"/>
+      <c r="XM5" s="22"/>
+      <c r="XN5" s="22"/>
+      <c r="XO5" s="22"/>
+      <c r="XP5" s="22"/>
+      <c r="XQ5" s="22"/>
+      <c r="XR5" s="22"/>
+      <c r="XS5" s="22"/>
+      <c r="XT5" s="22"/>
+      <c r="XU5" s="22"/>
+      <c r="XV5" s="22"/>
+      <c r="XW5" s="22"/>
+      <c r="XX5" s="22"/>
+      <c r="XY5" s="23"/>
+      <c r="XZ5" s="21">
         <v>2016</v>
       </c>
-      <c r="YA5" s="14"/>
-      <c r="YB5" s="14"/>
-      <c r="YC5" s="14"/>
-      <c r="YD5" s="14"/>
-      <c r="YE5" s="14"/>
-      <c r="YF5" s="14"/>
-      <c r="YG5" s="14"/>
-      <c r="YH5" s="14"/>
-      <c r="YI5" s="14"/>
-      <c r="YJ5" s="14"/>
-      <c r="YK5" s="14"/>
-      <c r="YL5" s="14"/>
-      <c r="YM5" s="14"/>
-      <c r="YN5" s="14"/>
-      <c r="YO5" s="14"/>
-      <c r="YP5" s="14"/>
-      <c r="YQ5" s="14"/>
-      <c r="YR5" s="14"/>
-      <c r="YS5" s="14"/>
-      <c r="YT5" s="14"/>
-      <c r="YU5" s="14"/>
-      <c r="YV5" s="14"/>
-      <c r="YW5" s="14"/>
-      <c r="YX5" s="14"/>
-      <c r="YY5" s="14"/>
-      <c r="YZ5" s="14"/>
-      <c r="ZA5" s="14"/>
-      <c r="ZB5" s="14"/>
-      <c r="ZC5" s="14"/>
-      <c r="ZD5" s="14"/>
-      <c r="ZE5" s="14"/>
-      <c r="ZF5" s="14"/>
-      <c r="ZG5" s="14"/>
-      <c r="ZH5" s="14"/>
-      <c r="ZI5" s="15"/>
-      <c r="ZJ5" s="19">
+      <c r="YA5" s="22"/>
+      <c r="YB5" s="22"/>
+      <c r="YC5" s="22"/>
+      <c r="YD5" s="22"/>
+      <c r="YE5" s="22"/>
+      <c r="YF5" s="22"/>
+      <c r="YG5" s="22"/>
+      <c r="YH5" s="22"/>
+      <c r="YI5" s="22"/>
+      <c r="YJ5" s="22"/>
+      <c r="YK5" s="22"/>
+      <c r="YL5" s="22"/>
+      <c r="YM5" s="22"/>
+      <c r="YN5" s="22"/>
+      <c r="YO5" s="22"/>
+      <c r="YP5" s="22"/>
+      <c r="YQ5" s="22"/>
+      <c r="YR5" s="22"/>
+      <c r="YS5" s="22"/>
+      <c r="YT5" s="22"/>
+      <c r="YU5" s="22"/>
+      <c r="YV5" s="22"/>
+      <c r="YW5" s="22"/>
+      <c r="YX5" s="22"/>
+      <c r="YY5" s="22"/>
+      <c r="YZ5" s="22"/>
+      <c r="ZA5" s="22"/>
+      <c r="ZB5" s="22"/>
+      <c r="ZC5" s="22"/>
+      <c r="ZD5" s="22"/>
+      <c r="ZE5" s="22"/>
+      <c r="ZF5" s="22"/>
+      <c r="ZG5" s="22"/>
+      <c r="ZH5" s="22"/>
+      <c r="ZI5" s="23"/>
+      <c r="ZJ5" s="21">
         <v>2017</v>
       </c>
-      <c r="ZK5" s="14"/>
-      <c r="ZL5" s="14"/>
-      <c r="ZM5" s="14"/>
-      <c r="ZN5" s="14"/>
-      <c r="ZO5" s="14"/>
-      <c r="ZP5" s="14"/>
-      <c r="ZQ5" s="14"/>
-      <c r="ZR5" s="14"/>
-      <c r="ZS5" s="14"/>
-      <c r="ZT5" s="14"/>
-      <c r="ZU5" s="14"/>
-      <c r="ZV5" s="14"/>
-      <c r="ZW5" s="14"/>
-      <c r="ZX5" s="14"/>
-      <c r="ZY5" s="14"/>
-      <c r="ZZ5" s="14"/>
-      <c r="AAA5" s="14"/>
-      <c r="AAB5" s="14"/>
-      <c r="AAC5" s="14"/>
-      <c r="AAD5" s="14"/>
-      <c r="AAE5" s="14"/>
-      <c r="AAF5" s="14"/>
-      <c r="AAG5" s="14"/>
-      <c r="AAH5" s="14"/>
-      <c r="AAI5" s="14"/>
-      <c r="AAJ5" s="14"/>
-      <c r="AAK5" s="14"/>
-      <c r="AAL5" s="14"/>
-      <c r="AAM5" s="14"/>
-      <c r="AAN5" s="14"/>
-      <c r="AAO5" s="14"/>
-      <c r="AAP5" s="14"/>
-      <c r="AAQ5" s="14"/>
-      <c r="AAR5" s="14"/>
-      <c r="AAS5" s="15"/>
-      <c r="AAT5" s="19">
+      <c r="ZK5" s="22"/>
+      <c r="ZL5" s="22"/>
+      <c r="ZM5" s="22"/>
+      <c r="ZN5" s="22"/>
+      <c r="ZO5" s="22"/>
+      <c r="ZP5" s="22"/>
+      <c r="ZQ5" s="22"/>
+      <c r="ZR5" s="22"/>
+      <c r="ZS5" s="22"/>
+      <c r="ZT5" s="22"/>
+      <c r="ZU5" s="22"/>
+      <c r="ZV5" s="22"/>
+      <c r="ZW5" s="22"/>
+      <c r="ZX5" s="22"/>
+      <c r="ZY5" s="22"/>
+      <c r="ZZ5" s="22"/>
+      <c r="AAA5" s="22"/>
+      <c r="AAB5" s="22"/>
+      <c r="AAC5" s="22"/>
+      <c r="AAD5" s="22"/>
+      <c r="AAE5" s="22"/>
+      <c r="AAF5" s="22"/>
+      <c r="AAG5" s="22"/>
+      <c r="AAH5" s="22"/>
+      <c r="AAI5" s="22"/>
+      <c r="AAJ5" s="22"/>
+      <c r="AAK5" s="22"/>
+      <c r="AAL5" s="22"/>
+      <c r="AAM5" s="22"/>
+      <c r="AAN5" s="22"/>
+      <c r="AAO5" s="22"/>
+      <c r="AAP5" s="22"/>
+      <c r="AAQ5" s="22"/>
+      <c r="AAR5" s="22"/>
+      <c r="AAS5" s="23"/>
+      <c r="AAT5" s="21">
         <v>2018</v>
       </c>
-      <c r="AAU5" s="14"/>
-      <c r="AAV5" s="14"/>
-      <c r="AAW5" s="14"/>
-      <c r="AAX5" s="14"/>
-      <c r="AAY5" s="14"/>
-      <c r="AAZ5" s="14"/>
-      <c r="ABA5" s="14"/>
-      <c r="ABB5" s="14"/>
-      <c r="ABC5" s="14"/>
-      <c r="ABD5" s="14"/>
-      <c r="ABE5" s="14"/>
-      <c r="ABF5" s="14"/>
-      <c r="ABG5" s="14"/>
-      <c r="ABH5" s="14"/>
-      <c r="ABI5" s="14"/>
-      <c r="ABJ5" s="14"/>
-      <c r="ABK5" s="14"/>
-      <c r="ABL5" s="14"/>
-      <c r="ABM5" s="14"/>
-      <c r="ABN5" s="14"/>
-      <c r="ABO5" s="14"/>
-      <c r="ABP5" s="14"/>
-      <c r="ABQ5" s="14"/>
-      <c r="ABR5" s="14"/>
-      <c r="ABS5" s="14"/>
-      <c r="ABT5" s="14"/>
-      <c r="ABU5" s="14"/>
-      <c r="ABV5" s="14"/>
-      <c r="ABW5" s="14"/>
-      <c r="ABX5" s="14"/>
-      <c r="ABY5" s="14"/>
-      <c r="ABZ5" s="14"/>
-      <c r="ACA5" s="14"/>
-      <c r="ACB5" s="14"/>
-      <c r="ACC5" s="15"/>
-      <c r="ACD5" s="19">
+      <c r="AAU5" s="22"/>
+      <c r="AAV5" s="22"/>
+      <c r="AAW5" s="22"/>
+      <c r="AAX5" s="22"/>
+      <c r="AAY5" s="22"/>
+      <c r="AAZ5" s="22"/>
+      <c r="ABA5" s="22"/>
+      <c r="ABB5" s="22"/>
+      <c r="ABC5" s="22"/>
+      <c r="ABD5" s="22"/>
+      <c r="ABE5" s="22"/>
+      <c r="ABF5" s="22"/>
+      <c r="ABG5" s="22"/>
+      <c r="ABH5" s="22"/>
+      <c r="ABI5" s="22"/>
+      <c r="ABJ5" s="22"/>
+      <c r="ABK5" s="22"/>
+      <c r="ABL5" s="22"/>
+      <c r="ABM5" s="22"/>
+      <c r="ABN5" s="22"/>
+      <c r="ABO5" s="22"/>
+      <c r="ABP5" s="22"/>
+      <c r="ABQ5" s="22"/>
+      <c r="ABR5" s="22"/>
+      <c r="ABS5" s="22"/>
+      <c r="ABT5" s="22"/>
+      <c r="ABU5" s="22"/>
+      <c r="ABV5" s="22"/>
+      <c r="ABW5" s="22"/>
+      <c r="ABX5" s="22"/>
+      <c r="ABY5" s="22"/>
+      <c r="ABZ5" s="22"/>
+      <c r="ACA5" s="22"/>
+      <c r="ACB5" s="22"/>
+      <c r="ACC5" s="23"/>
+      <c r="ACD5" s="21">
         <v>2019</v>
       </c>
-      <c r="ACE5" s="14"/>
-      <c r="ACF5" s="14"/>
-      <c r="ACG5" s="14"/>
-      <c r="ACH5" s="14"/>
-      <c r="ACI5" s="14"/>
-      <c r="ACJ5" s="14"/>
-      <c r="ACK5" s="14"/>
-      <c r="ACL5" s="14"/>
-      <c r="ACM5" s="14"/>
-      <c r="ACN5" s="14"/>
-      <c r="ACO5" s="14"/>
-      <c r="ACP5" s="14"/>
-      <c r="ACQ5" s="14"/>
-      <c r="ACR5" s="14"/>
-      <c r="ACS5" s="14"/>
-      <c r="ACT5" s="14"/>
-      <c r="ACU5" s="14"/>
-      <c r="ACV5" s="14"/>
-      <c r="ACW5" s="14"/>
-      <c r="ACX5" s="14"/>
-      <c r="ACY5" s="14"/>
-      <c r="ACZ5" s="14"/>
-      <c r="ADA5" s="14"/>
-      <c r="ADB5" s="14"/>
-      <c r="ADC5" s="14"/>
-      <c r="ADD5" s="14"/>
-      <c r="ADE5" s="14"/>
-      <c r="ADF5" s="14"/>
-      <c r="ADG5" s="14"/>
-      <c r="ADH5" s="14"/>
-      <c r="ADI5" s="14"/>
-      <c r="ADJ5" s="14"/>
-      <c r="ADK5" s="14"/>
-      <c r="ADL5" s="14"/>
-      <c r="ADM5" s="15"/>
-      <c r="ADN5" s="19">
+      <c r="ACE5" s="22"/>
+      <c r="ACF5" s="22"/>
+      <c r="ACG5" s="22"/>
+      <c r="ACH5" s="22"/>
+      <c r="ACI5" s="22"/>
+      <c r="ACJ5" s="22"/>
+      <c r="ACK5" s="22"/>
+      <c r="ACL5" s="22"/>
+      <c r="ACM5" s="22"/>
+      <c r="ACN5" s="22"/>
+      <c r="ACO5" s="22"/>
+      <c r="ACP5" s="22"/>
+      <c r="ACQ5" s="22"/>
+      <c r="ACR5" s="22"/>
+      <c r="ACS5" s="22"/>
+      <c r="ACT5" s="22"/>
+      <c r="ACU5" s="22"/>
+      <c r="ACV5" s="22"/>
+      <c r="ACW5" s="22"/>
+      <c r="ACX5" s="22"/>
+      <c r="ACY5" s="22"/>
+      <c r="ACZ5" s="22"/>
+      <c r="ADA5" s="22"/>
+      <c r="ADB5" s="22"/>
+      <c r="ADC5" s="22"/>
+      <c r="ADD5" s="22"/>
+      <c r="ADE5" s="22"/>
+      <c r="ADF5" s="22"/>
+      <c r="ADG5" s="22"/>
+      <c r="ADH5" s="22"/>
+      <c r="ADI5" s="22"/>
+      <c r="ADJ5" s="22"/>
+      <c r="ADK5" s="22"/>
+      <c r="ADL5" s="22"/>
+      <c r="ADM5" s="23"/>
+      <c r="ADN5" s="21">
         <v>2020</v>
       </c>
-      <c r="ADO5" s="14"/>
-      <c r="ADP5" s="14"/>
-      <c r="ADQ5" s="14"/>
-      <c r="ADR5" s="14"/>
-      <c r="ADS5" s="14"/>
-      <c r="ADT5" s="14"/>
-      <c r="ADU5" s="14"/>
-      <c r="ADV5" s="14"/>
-      <c r="ADW5" s="14"/>
-      <c r="ADX5" s="14"/>
-      <c r="ADY5" s="14"/>
-      <c r="ADZ5" s="14"/>
-      <c r="AEA5" s="14"/>
-      <c r="AEB5" s="14"/>
-      <c r="AEC5" s="14"/>
-      <c r="AED5" s="14"/>
-      <c r="AEE5" s="14"/>
-      <c r="AEF5" s="14"/>
-      <c r="AEG5" s="14"/>
-      <c r="AEH5" s="14"/>
-      <c r="AEI5" s="14"/>
-      <c r="AEJ5" s="14"/>
-      <c r="AEK5" s="14"/>
-      <c r="AEL5" s="14"/>
-      <c r="AEM5" s="14"/>
-      <c r="AEN5" s="14"/>
-      <c r="AEO5" s="14"/>
-      <c r="AEP5" s="14"/>
-      <c r="AEQ5" s="14"/>
-      <c r="AER5" s="14"/>
-      <c r="AES5" s="14"/>
-      <c r="AET5" s="14"/>
-      <c r="AEU5" s="14"/>
-      <c r="AEV5" s="14"/>
-      <c r="AEW5" s="15"/>
-      <c r="AEX5" s="19">
+      <c r="ADO5" s="22"/>
+      <c r="ADP5" s="22"/>
+      <c r="ADQ5" s="22"/>
+      <c r="ADR5" s="22"/>
+      <c r="ADS5" s="22"/>
+      <c r="ADT5" s="22"/>
+      <c r="ADU5" s="22"/>
+      <c r="ADV5" s="22"/>
+      <c r="ADW5" s="22"/>
+      <c r="ADX5" s="22"/>
+      <c r="ADY5" s="22"/>
+      <c r="ADZ5" s="22"/>
+      <c r="AEA5" s="22"/>
+      <c r="AEB5" s="22"/>
+      <c r="AEC5" s="22"/>
+      <c r="AED5" s="22"/>
+      <c r="AEE5" s="22"/>
+      <c r="AEF5" s="22"/>
+      <c r="AEG5" s="22"/>
+      <c r="AEH5" s="22"/>
+      <c r="AEI5" s="22"/>
+      <c r="AEJ5" s="22"/>
+      <c r="AEK5" s="22"/>
+      <c r="AEL5" s="22"/>
+      <c r="AEM5" s="22"/>
+      <c r="AEN5" s="22"/>
+      <c r="AEO5" s="22"/>
+      <c r="AEP5" s="22"/>
+      <c r="AEQ5" s="22"/>
+      <c r="AER5" s="22"/>
+      <c r="AES5" s="22"/>
+      <c r="AET5" s="22"/>
+      <c r="AEU5" s="22"/>
+      <c r="AEV5" s="22"/>
+      <c r="AEW5" s="23"/>
+      <c r="AEX5" s="21">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="14"/>
-      <c r="AEZ5" s="14"/>
-      <c r="AFA5" s="14"/>
-      <c r="AFB5" s="14"/>
-      <c r="AFC5" s="14"/>
-      <c r="AFD5" s="14"/>
-      <c r="AFE5" s="14"/>
-      <c r="AFF5" s="14"/>
-      <c r="AFG5" s="14"/>
-      <c r="AFH5" s="14"/>
-      <c r="AFI5" s="14"/>
-      <c r="AFJ5" s="14"/>
-      <c r="AFK5" s="14"/>
-      <c r="AFL5" s="15"/>
+      <c r="AEY5" s="22"/>
+      <c r="AEZ5" s="22"/>
+      <c r="AFA5" s="22"/>
+      <c r="AFB5" s="22"/>
+      <c r="AFC5" s="22"/>
+      <c r="AFD5" s="22"/>
+      <c r="AFE5" s="22"/>
+      <c r="AFF5" s="22"/>
+      <c r="AFG5" s="22"/>
+      <c r="AFH5" s="22"/>
+      <c r="AFI5" s="22"/>
+      <c r="AFJ5" s="22"/>
+      <c r="AFK5" s="22"/>
+      <c r="AFL5" s="22"/>
+      <c r="AFM5" s="22"/>
+      <c r="AFN5" s="22"/>
+      <c r="AFO5" s="23"/>
     </row>
-    <row r="6" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="19" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="19" t="s">
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="19" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="19" t="s">
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="19" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="19" t="s">
+      <c r="X6" s="22"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="19" t="s">
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="19" t="s">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="19" t="s">
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="19" t="s">
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="14"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="19" t="s">
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="14"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="19" t="s">
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="23"/>
+      <c r="AR6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="19" t="s">
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="14"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="19" t="s">
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="19" t="s">
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="BB6" s="14"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="19" t="s">
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="19" t="s">
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="19" t="s">
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="14"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="19" t="s">
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="BN6" s="14"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="20" t="s">
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="20"/>
-      <c r="BR6" s="20"/>
-      <c r="BS6" s="19" t="s">
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
+      <c r="BS6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BT6" s="14"/>
-      <c r="BU6" s="15"/>
-      <c r="BV6" s="22" t="s">
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="23"/>
+      <c r="BV6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="20"/>
-      <c r="BX6" s="20"/>
-      <c r="BY6" s="19" t="s">
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
+      <c r="BY6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="BZ6" s="14"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="19" t="s">
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="23"/>
+      <c r="CB6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CC6" s="14"/>
-      <c r="CD6" s="15"/>
-      <c r="CE6" s="14" t="s">
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CF6" s="14"/>
-      <c r="CG6" s="15"/>
-      <c r="CH6" s="19" t="s">
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="23"/>
+      <c r="CH6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="14"/>
-      <c r="CJ6" s="15"/>
-      <c r="CK6" s="19" t="s">
+      <c r="CI6" s="22"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="14"/>
-      <c r="CM6" s="15"/>
-      <c r="CN6" s="19" t="s">
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="CO6" s="14"/>
-      <c r="CP6" s="15"/>
-      <c r="CQ6" s="19" t="s">
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="CR6" s="14"/>
-      <c r="CS6" s="15"/>
-      <c r="CT6" s="19" t="s">
+      <c r="CR6" s="22"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="CU6" s="14"/>
-      <c r="CV6" s="15"/>
-      <c r="CW6" s="19" t="s">
+      <c r="CU6" s="22"/>
+      <c r="CV6" s="23"/>
+      <c r="CW6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="CX6" s="14"/>
-      <c r="CY6" s="15"/>
-      <c r="CZ6" s="19" t="s">
+      <c r="CX6" s="22"/>
+      <c r="CY6" s="23"/>
+      <c r="CZ6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="DA6" s="14"/>
-      <c r="DB6" s="15"/>
-      <c r="DC6" s="20" t="s">
+      <c r="DA6" s="22"/>
+      <c r="DB6" s="23"/>
+      <c r="DC6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="20"/>
-      <c r="DE6" s="21"/>
-      <c r="DF6" s="19" t="s">
+      <c r="DD6" s="27"/>
+      <c r="DE6" s="28"/>
+      <c r="DF6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="DG6" s="14"/>
-      <c r="DH6" s="15"/>
-      <c r="DI6" s="19" t="s">
+      <c r="DG6" s="22"/>
+      <c r="DH6" s="23"/>
+      <c r="DI6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="DJ6" s="14"/>
-      <c r="DK6" s="15"/>
-      <c r="DL6" s="19" t="s">
+      <c r="DJ6" s="22"/>
+      <c r="DK6" s="23"/>
+      <c r="DL6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="DM6" s="14"/>
-      <c r="DN6" s="15"/>
-      <c r="DO6" s="19" t="s">
+      <c r="DM6" s="22"/>
+      <c r="DN6" s="23"/>
+      <c r="DO6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="DP6" s="14"/>
-      <c r="DQ6" s="15"/>
-      <c r="DR6" s="19" t="s">
+      <c r="DP6" s="22"/>
+      <c r="DQ6" s="23"/>
+      <c r="DR6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="DS6" s="14"/>
-      <c r="DT6" s="15"/>
-      <c r="DU6" s="19" t="s">
+      <c r="DS6" s="22"/>
+      <c r="DT6" s="23"/>
+      <c r="DU6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="DV6" s="14"/>
-      <c r="DW6" s="15"/>
-      <c r="DX6" s="14" t="s">
+      <c r="DV6" s="22"/>
+      <c r="DW6" s="23"/>
+      <c r="DX6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="DY6" s="14"/>
-      <c r="DZ6" s="15"/>
-      <c r="EA6" s="14" t="s">
+      <c r="DY6" s="22"/>
+      <c r="DZ6" s="23"/>
+      <c r="EA6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="EB6" s="14"/>
-      <c r="EC6" s="15"/>
-      <c r="ED6" s="14" t="s">
+      <c r="EB6" s="22"/>
+      <c r="EC6" s="23"/>
+      <c r="ED6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="EE6" s="14"/>
-      <c r="EF6" s="15"/>
-      <c r="EG6" s="14" t="s">
+      <c r="EE6" s="22"/>
+      <c r="EF6" s="23"/>
+      <c r="EG6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="EH6" s="14"/>
-      <c r="EI6" s="15"/>
-      <c r="EJ6" s="14" t="s">
+      <c r="EH6" s="22"/>
+      <c r="EI6" s="23"/>
+      <c r="EJ6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="EK6" s="14"/>
-      <c r="EL6" s="15"/>
-      <c r="EM6" s="20" t="s">
+      <c r="EK6" s="22"/>
+      <c r="EL6" s="23"/>
+      <c r="EM6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="20"/>
-      <c r="EO6" s="21"/>
-      <c r="EP6" s="14" t="s">
+      <c r="EN6" s="27"/>
+      <c r="EO6" s="28"/>
+      <c r="EP6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="EQ6" s="14"/>
-      <c r="ER6" s="15"/>
-      <c r="ES6" s="14" t="s">
+      <c r="EQ6" s="22"/>
+      <c r="ER6" s="23"/>
+      <c r="ES6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="ET6" s="14"/>
-      <c r="EU6" s="15"/>
-      <c r="EV6" s="14" t="s">
+      <c r="ET6" s="22"/>
+      <c r="EU6" s="23"/>
+      <c r="EV6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="EW6" s="14"/>
-      <c r="EX6" s="15"/>
-      <c r="EY6" s="14" t="s">
+      <c r="EW6" s="22"/>
+      <c r="EX6" s="23"/>
+      <c r="EY6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="EZ6" s="14"/>
-      <c r="FA6" s="15"/>
-      <c r="FB6" s="14" t="s">
+      <c r="EZ6" s="22"/>
+      <c r="FA6" s="23"/>
+      <c r="FB6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="FC6" s="14"/>
-      <c r="FD6" s="15"/>
-      <c r="FE6" s="14" t="s">
+      <c r="FC6" s="22"/>
+      <c r="FD6" s="23"/>
+      <c r="FE6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="FF6" s="14"/>
-      <c r="FG6" s="15"/>
-      <c r="FH6" s="14" t="s">
+      <c r="FF6" s="22"/>
+      <c r="FG6" s="23"/>
+      <c r="FH6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="FI6" s="14"/>
-      <c r="FJ6" s="15"/>
-      <c r="FK6" s="14" t="s">
+      <c r="FI6" s="22"/>
+      <c r="FJ6" s="23"/>
+      <c r="FK6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="FL6" s="14"/>
-      <c r="FM6" s="15"/>
-      <c r="FN6" s="14" t="s">
+      <c r="FL6" s="22"/>
+      <c r="FM6" s="23"/>
+      <c r="FN6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="FO6" s="14"/>
-      <c r="FP6" s="15"/>
-      <c r="FQ6" s="14" t="s">
+      <c r="FO6" s="22"/>
+      <c r="FP6" s="23"/>
+      <c r="FQ6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="FR6" s="14"/>
-      <c r="FS6" s="15"/>
-      <c r="FT6" s="14" t="s">
+      <c r="FR6" s="22"/>
+      <c r="FS6" s="23"/>
+      <c r="FT6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="FU6" s="14"/>
-      <c r="FV6" s="15"/>
-      <c r="FW6" s="14" t="s">
+      <c r="FU6" s="22"/>
+      <c r="FV6" s="23"/>
+      <c r="FW6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="FX6" s="14"/>
-      <c r="FY6" s="15"/>
-      <c r="FZ6" s="14" t="s">
+      <c r="FX6" s="22"/>
+      <c r="FY6" s="23"/>
+      <c r="FZ6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="GA6" s="14"/>
-      <c r="GB6" s="15"/>
-      <c r="GC6" s="14" t="s">
+      <c r="GA6" s="22"/>
+      <c r="GB6" s="23"/>
+      <c r="GC6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="GD6" s="14"/>
-      <c r="GE6" s="15"/>
-      <c r="GF6" s="14" t="s">
+      <c r="GD6" s="22"/>
+      <c r="GE6" s="23"/>
+      <c r="GF6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="GG6" s="14"/>
-      <c r="GH6" s="15"/>
-      <c r="GI6" s="14" t="s">
+      <c r="GG6" s="22"/>
+      <c r="GH6" s="23"/>
+      <c r="GI6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="GJ6" s="14"/>
-      <c r="GK6" s="15"/>
-      <c r="GL6" s="14" t="s">
+      <c r="GJ6" s="22"/>
+      <c r="GK6" s="23"/>
+      <c r="GL6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="GM6" s="14"/>
-      <c r="GN6" s="15"/>
-      <c r="GO6" s="14" t="s">
+      <c r="GM6" s="22"/>
+      <c r="GN6" s="23"/>
+      <c r="GO6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="GP6" s="14"/>
-      <c r="GQ6" s="15"/>
-      <c r="GR6" s="14" t="s">
+      <c r="GP6" s="22"/>
+      <c r="GQ6" s="23"/>
+      <c r="GR6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="GS6" s="14"/>
-      <c r="GT6" s="15"/>
-      <c r="GU6" s="14" t="s">
+      <c r="GS6" s="22"/>
+      <c r="GT6" s="23"/>
+      <c r="GU6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="GV6" s="14"/>
-      <c r="GW6" s="15"/>
-      <c r="GX6" s="14" t="s">
+      <c r="GV6" s="22"/>
+      <c r="GW6" s="23"/>
+      <c r="GX6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="GY6" s="14"/>
-      <c r="GZ6" s="15"/>
-      <c r="HA6" s="14" t="s">
+      <c r="GY6" s="22"/>
+      <c r="GZ6" s="23"/>
+      <c r="HA6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="HB6" s="14"/>
-      <c r="HC6" s="15"/>
-      <c r="HD6" s="14" t="s">
+      <c r="HB6" s="22"/>
+      <c r="HC6" s="23"/>
+      <c r="HD6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="HE6" s="14"/>
-      <c r="HF6" s="15"/>
-      <c r="HG6" s="14" t="s">
+      <c r="HE6" s="22"/>
+      <c r="HF6" s="23"/>
+      <c r="HG6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="HH6" s="14"/>
-      <c r="HI6" s="14"/>
-      <c r="HJ6" s="19" t="s">
+      <c r="HH6" s="22"/>
+      <c r="HI6" s="22"/>
+      <c r="HJ6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="HK6" s="14"/>
-      <c r="HL6" s="15"/>
-      <c r="HM6" s="19" t="s">
+      <c r="HK6" s="22"/>
+      <c r="HL6" s="23"/>
+      <c r="HM6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="HN6" s="14"/>
-      <c r="HO6" s="15"/>
-      <c r="HP6" s="19" t="s">
+      <c r="HN6" s="22"/>
+      <c r="HO6" s="23"/>
+      <c r="HP6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="HQ6" s="14"/>
-      <c r="HR6" s="15"/>
-      <c r="HS6" s="19" t="s">
+      <c r="HQ6" s="22"/>
+      <c r="HR6" s="23"/>
+      <c r="HS6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="HT6" s="14"/>
-      <c r="HU6" s="15"/>
-      <c r="HV6" s="19" t="s">
+      <c r="HT6" s="22"/>
+      <c r="HU6" s="23"/>
+      <c r="HV6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="HW6" s="14"/>
-      <c r="HX6" s="15"/>
-      <c r="HY6" s="19" t="s">
+      <c r="HW6" s="22"/>
+      <c r="HX6" s="23"/>
+      <c r="HY6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="HZ6" s="14"/>
-      <c r="IA6" s="15"/>
-      <c r="IB6" s="19" t="s">
+      <c r="HZ6" s="22"/>
+      <c r="IA6" s="23"/>
+      <c r="IB6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="IC6" s="14"/>
-      <c r="ID6" s="15"/>
-      <c r="IE6" s="19" t="s">
+      <c r="IC6" s="22"/>
+      <c r="ID6" s="23"/>
+      <c r="IE6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="IF6" s="14"/>
-      <c r="IG6" s="15"/>
-      <c r="IH6" s="19" t="s">
+      <c r="IF6" s="22"/>
+      <c r="IG6" s="23"/>
+      <c r="IH6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="II6" s="14"/>
-      <c r="IJ6" s="15"/>
-      <c r="IK6" s="19" t="s">
+      <c r="II6" s="22"/>
+      <c r="IJ6" s="23"/>
+      <c r="IK6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="IL6" s="14"/>
-      <c r="IM6" s="15"/>
-      <c r="IN6" s="19" t="s">
+      <c r="IL6" s="22"/>
+      <c r="IM6" s="23"/>
+      <c r="IN6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="IO6" s="14"/>
-      <c r="IP6" s="15"/>
-      <c r="IQ6" s="19" t="s">
+      <c r="IO6" s="22"/>
+      <c r="IP6" s="23"/>
+      <c r="IQ6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="IR6" s="14"/>
-      <c r="IS6" s="14"/>
-      <c r="IT6" s="19" t="s">
+      <c r="IR6" s="22"/>
+      <c r="IS6" s="22"/>
+      <c r="IT6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="IU6" s="14"/>
-      <c r="IV6" s="15"/>
-      <c r="IW6" s="19" t="s">
+      <c r="IU6" s="22"/>
+      <c r="IV6" s="23"/>
+      <c r="IW6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="IX6" s="14"/>
-      <c r="IY6" s="15"/>
-      <c r="IZ6" s="14" t="s">
+      <c r="IX6" s="22"/>
+      <c r="IY6" s="23"/>
+      <c r="IZ6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="JA6" s="14"/>
-      <c r="JB6" s="15"/>
-      <c r="JC6" s="14" t="s">
+      <c r="JA6" s="22"/>
+      <c r="JB6" s="23"/>
+      <c r="JC6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="JD6" s="14"/>
-      <c r="JE6" s="15"/>
-      <c r="JF6" s="14" t="s">
+      <c r="JD6" s="22"/>
+      <c r="JE6" s="23"/>
+      <c r="JF6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="JG6" s="14"/>
-      <c r="JH6" s="15"/>
-      <c r="JI6" s="14" t="s">
+      <c r="JG6" s="22"/>
+      <c r="JH6" s="23"/>
+      <c r="JI6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="JJ6" s="14"/>
-      <c r="JK6" s="15"/>
-      <c r="JL6" s="14" t="s">
+      <c r="JJ6" s="22"/>
+      <c r="JK6" s="23"/>
+      <c r="JL6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="JM6" s="14"/>
-      <c r="JN6" s="15"/>
-      <c r="JO6" s="20" t="s">
+      <c r="JM6" s="22"/>
+      <c r="JN6" s="23"/>
+      <c r="JO6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="20"/>
-      <c r="JQ6" s="21"/>
-      <c r="JR6" s="20" t="s">
+      <c r="JP6" s="27"/>
+      <c r="JQ6" s="28"/>
+      <c r="JR6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="20"/>
-      <c r="JT6" s="21"/>
-      <c r="JU6" s="20" t="s">
+      <c r="JS6" s="27"/>
+      <c r="JT6" s="28"/>
+      <c r="JU6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="20"/>
-      <c r="JW6" s="21"/>
-      <c r="JX6" s="20" t="s">
+      <c r="JV6" s="27"/>
+      <c r="JW6" s="28"/>
+      <c r="JX6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="20"/>
-      <c r="JZ6" s="21"/>
-      <c r="KA6" s="20" t="s">
+      <c r="JY6" s="27"/>
+      <c r="JZ6" s="28"/>
+      <c r="KA6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="20"/>
-      <c r="KC6" s="21"/>
-      <c r="KD6" s="14" t="s">
+      <c r="KB6" s="27"/>
+      <c r="KC6" s="28"/>
+      <c r="KD6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="KE6" s="14"/>
-      <c r="KF6" s="15"/>
-      <c r="KG6" s="14" t="s">
+      <c r="KE6" s="22"/>
+      <c r="KF6" s="23"/>
+      <c r="KG6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="KH6" s="14"/>
-      <c r="KI6" s="15"/>
-      <c r="KJ6" s="14" t="s">
+      <c r="KH6" s="22"/>
+      <c r="KI6" s="23"/>
+      <c r="KJ6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="KK6" s="14"/>
-      <c r="KL6" s="15"/>
-      <c r="KM6" s="14" t="s">
+      <c r="KK6" s="22"/>
+      <c r="KL6" s="23"/>
+      <c r="KM6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="KN6" s="14"/>
-      <c r="KO6" s="15"/>
-      <c r="KP6" s="14" t="s">
+      <c r="KN6" s="22"/>
+      <c r="KO6" s="23"/>
+      <c r="KP6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="14"/>
-      <c r="KR6" s="15"/>
-      <c r="KS6" s="14" t="s">
+      <c r="KQ6" s="22"/>
+      <c r="KR6" s="23"/>
+      <c r="KS6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="KT6" s="14"/>
-      <c r="KU6" s="15"/>
-      <c r="KV6" s="14" t="s">
+      <c r="KT6" s="22"/>
+      <c r="KU6" s="23"/>
+      <c r="KV6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="14"/>
-      <c r="KX6" s="15"/>
-      <c r="KY6" s="14" t="s">
+      <c r="KW6" s="22"/>
+      <c r="KX6" s="23"/>
+      <c r="KY6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="KZ6" s="14"/>
-      <c r="LA6" s="15"/>
-      <c r="LB6" s="14" t="s">
+      <c r="KZ6" s="22"/>
+      <c r="LA6" s="23"/>
+      <c r="LB6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="LC6" s="14"/>
-      <c r="LD6" s="15"/>
-      <c r="LE6" s="14" t="s">
+      <c r="LC6" s="22"/>
+      <c r="LD6" s="23"/>
+      <c r="LE6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="LF6" s="14"/>
-      <c r="LG6" s="15"/>
-      <c r="LH6" s="14" t="s">
+      <c r="LF6" s="22"/>
+      <c r="LG6" s="23"/>
+      <c r="LH6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="LI6" s="14"/>
-      <c r="LJ6" s="15"/>
-      <c r="LK6" s="14" t="s">
+      <c r="LI6" s="22"/>
+      <c r="LJ6" s="23"/>
+      <c r="LK6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="LL6" s="14"/>
-      <c r="LM6" s="15"/>
-      <c r="LN6" s="19" t="s">
+      <c r="LL6" s="22"/>
+      <c r="LM6" s="23"/>
+      <c r="LN6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="LO6" s="14"/>
-      <c r="LP6" s="15"/>
-      <c r="LQ6" s="14" t="s">
+      <c r="LO6" s="22"/>
+      <c r="LP6" s="23"/>
+      <c r="LQ6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="LR6" s="14"/>
-      <c r="LS6" s="15"/>
-      <c r="LT6" s="14" t="s">
+      <c r="LR6" s="22"/>
+      <c r="LS6" s="23"/>
+      <c r="LT6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="LU6" s="14"/>
-      <c r="LV6" s="15"/>
-      <c r="LW6" s="14" t="s">
+      <c r="LU6" s="22"/>
+      <c r="LV6" s="23"/>
+      <c r="LW6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="LX6" s="14"/>
-      <c r="LY6" s="15"/>
-      <c r="LZ6" s="14" t="s">
+      <c r="LX6" s="22"/>
+      <c r="LY6" s="23"/>
+      <c r="LZ6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="MA6" s="14"/>
-      <c r="MB6" s="15"/>
-      <c r="MC6" s="14" t="s">
+      <c r="MA6" s="22"/>
+      <c r="MB6" s="23"/>
+      <c r="MC6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="MD6" s="14"/>
-      <c r="ME6" s="15"/>
-      <c r="MF6" s="14" t="s">
+      <c r="MD6" s="22"/>
+      <c r="ME6" s="23"/>
+      <c r="MF6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="MG6" s="14"/>
-      <c r="MH6" s="15"/>
-      <c r="MI6" s="14" t="s">
+      <c r="MG6" s="22"/>
+      <c r="MH6" s="23"/>
+      <c r="MI6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="MJ6" s="14"/>
-      <c r="MK6" s="15"/>
-      <c r="ML6" s="14" t="s">
+      <c r="MJ6" s="22"/>
+      <c r="MK6" s="23"/>
+      <c r="ML6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="MM6" s="14"/>
-      <c r="MN6" s="15"/>
-      <c r="MO6" s="14" t="s">
+      <c r="MM6" s="22"/>
+      <c r="MN6" s="23"/>
+      <c r="MO6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="MP6" s="14"/>
-      <c r="MQ6" s="15"/>
-      <c r="MR6" s="14" t="s">
+      <c r="MP6" s="22"/>
+      <c r="MQ6" s="23"/>
+      <c r="MR6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="MS6" s="14"/>
-      <c r="MT6" s="15"/>
-      <c r="MU6" s="14" t="s">
+      <c r="MS6" s="22"/>
+      <c r="MT6" s="23"/>
+      <c r="MU6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="MV6" s="14"/>
-      <c r="MW6" s="15"/>
-      <c r="MX6" s="14" t="s">
+      <c r="MV6" s="22"/>
+      <c r="MW6" s="23"/>
+      <c r="MX6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="MY6" s="14"/>
-      <c r="MZ6" s="15"/>
-      <c r="NA6" s="14" t="s">
+      <c r="MY6" s="22"/>
+      <c r="MZ6" s="23"/>
+      <c r="NA6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="NB6" s="14"/>
-      <c r="NC6" s="15"/>
-      <c r="ND6" s="14" t="s">
+      <c r="NB6" s="22"/>
+      <c r="NC6" s="23"/>
+      <c r="ND6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="NE6" s="14"/>
-      <c r="NF6" s="15"/>
-      <c r="NG6" s="14" t="s">
+      <c r="NE6" s="22"/>
+      <c r="NF6" s="23"/>
+      <c r="NG6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="NH6" s="14"/>
-      <c r="NI6" s="15"/>
-      <c r="NJ6" s="14" t="s">
+      <c r="NH6" s="22"/>
+      <c r="NI6" s="23"/>
+      <c r="NJ6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="NK6" s="14"/>
-      <c r="NL6" s="15"/>
-      <c r="NM6" s="14" t="s">
+      <c r="NK6" s="22"/>
+      <c r="NL6" s="23"/>
+      <c r="NM6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="NN6" s="14"/>
-      <c r="NO6" s="15"/>
-      <c r="NP6" s="14" t="s">
+      <c r="NN6" s="22"/>
+      <c r="NO6" s="23"/>
+      <c r="NP6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="NQ6" s="14"/>
-      <c r="NR6" s="15"/>
-      <c r="NS6" s="14" t="s">
+      <c r="NQ6" s="22"/>
+      <c r="NR6" s="23"/>
+      <c r="NS6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="NT6" s="14"/>
-      <c r="NU6" s="15"/>
-      <c r="NV6" s="14" t="s">
+      <c r="NT6" s="22"/>
+      <c r="NU6" s="23"/>
+      <c r="NV6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="NW6" s="14"/>
-      <c r="NX6" s="15"/>
-      <c r="NY6" s="14" t="s">
+      <c r="NW6" s="22"/>
+      <c r="NX6" s="23"/>
+      <c r="NY6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="NZ6" s="14"/>
-      <c r="OA6" s="15"/>
-      <c r="OB6" s="14" t="s">
+      <c r="NZ6" s="22"/>
+      <c r="OA6" s="23"/>
+      <c r="OB6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="OC6" s="14"/>
-      <c r="OD6" s="15"/>
-      <c r="OE6" s="14" t="s">
+      <c r="OC6" s="22"/>
+      <c r="OD6" s="23"/>
+      <c r="OE6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="OF6" s="14"/>
-      <c r="OG6" s="15"/>
-      <c r="OH6" s="14" t="s">
+      <c r="OF6" s="22"/>
+      <c r="OG6" s="23"/>
+      <c r="OH6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="OI6" s="14"/>
-      <c r="OJ6" s="15"/>
-      <c r="OK6" s="14" t="s">
+      <c r="OI6" s="22"/>
+      <c r="OJ6" s="23"/>
+      <c r="OK6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="OL6" s="14"/>
-      <c r="OM6" s="15"/>
-      <c r="ON6" s="14" t="s">
+      <c r="OL6" s="22"/>
+      <c r="OM6" s="23"/>
+      <c r="ON6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="OO6" s="14"/>
-      <c r="OP6" s="15"/>
-      <c r="OQ6" s="14" t="s">
+      <c r="OO6" s="22"/>
+      <c r="OP6" s="23"/>
+      <c r="OQ6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="OR6" s="14"/>
-      <c r="OS6" s="15"/>
-      <c r="OT6" s="14" t="s">
+      <c r="OR6" s="22"/>
+      <c r="OS6" s="23"/>
+      <c r="OT6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="OU6" s="14"/>
-      <c r="OV6" s="15"/>
-      <c r="OW6" s="14" t="s">
+      <c r="OU6" s="22"/>
+      <c r="OV6" s="23"/>
+      <c r="OW6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="OX6" s="14"/>
-      <c r="OY6" s="15"/>
-      <c r="OZ6" s="14" t="s">
+      <c r="OX6" s="22"/>
+      <c r="OY6" s="23"/>
+      <c r="OZ6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="PA6" s="14"/>
-      <c r="PB6" s="15"/>
-      <c r="PC6" s="20" t="s">
+      <c r="PA6" s="22"/>
+      <c r="PB6" s="23"/>
+      <c r="PC6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="20"/>
-      <c r="PE6" s="20"/>
-      <c r="PF6" s="20" t="s">
+      <c r="PD6" s="27"/>
+      <c r="PE6" s="27"/>
+      <c r="PF6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="20"/>
-      <c r="PH6" s="20"/>
-      <c r="PI6" s="20" t="s">
+      <c r="PG6" s="27"/>
+      <c r="PH6" s="27"/>
+      <c r="PI6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="20"/>
-      <c r="PK6" s="20"/>
-      <c r="PL6" s="20" t="s">
+      <c r="PJ6" s="27"/>
+      <c r="PK6" s="27"/>
+      <c r="PL6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="20"/>
-      <c r="PN6" s="20"/>
-      <c r="PO6" s="20" t="s">
+      <c r="PM6" s="27"/>
+      <c r="PN6" s="27"/>
+      <c r="PO6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="20"/>
-      <c r="PQ6" s="20"/>
-      <c r="PR6" s="14" t="s">
+      <c r="PP6" s="27"/>
+      <c r="PQ6" s="27"/>
+      <c r="PR6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="PS6" s="14"/>
-      <c r="PT6" s="15"/>
-      <c r="PU6" s="14" t="s">
+      <c r="PS6" s="22"/>
+      <c r="PT6" s="23"/>
+      <c r="PU6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="PV6" s="14"/>
-      <c r="PW6" s="15"/>
-      <c r="PX6" s="14" t="s">
+      <c r="PV6" s="22"/>
+      <c r="PW6" s="23"/>
+      <c r="PX6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="PY6" s="14"/>
-      <c r="PZ6" s="15"/>
-      <c r="QA6" s="14" t="s">
+      <c r="PY6" s="22"/>
+      <c r="PZ6" s="23"/>
+      <c r="QA6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="QB6" s="14"/>
-      <c r="QC6" s="15"/>
-      <c r="QD6" s="14" t="s">
+      <c r="QB6" s="22"/>
+      <c r="QC6" s="23"/>
+      <c r="QD6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="QE6" s="14"/>
-      <c r="QF6" s="15"/>
-      <c r="QG6" s="14" t="s">
+      <c r="QE6" s="22"/>
+      <c r="QF6" s="23"/>
+      <c r="QG6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="QH6" s="14"/>
-      <c r="QI6" s="15"/>
-      <c r="QJ6" s="14" t="s">
+      <c r="QH6" s="22"/>
+      <c r="QI6" s="23"/>
+      <c r="QJ6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="QK6" s="14"/>
-      <c r="QL6" s="15"/>
-      <c r="QM6" s="14" t="s">
+      <c r="QK6" s="22"/>
+      <c r="QL6" s="23"/>
+      <c r="QM6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="QN6" s="14"/>
-      <c r="QO6" s="15"/>
-      <c r="QP6" s="14" t="s">
+      <c r="QN6" s="22"/>
+      <c r="QO6" s="23"/>
+      <c r="QP6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="QQ6" s="14"/>
-      <c r="QR6" s="15"/>
-      <c r="QS6" s="14" t="s">
+      <c r="QQ6" s="22"/>
+      <c r="QR6" s="23"/>
+      <c r="QS6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="QT6" s="14"/>
-      <c r="QU6" s="15"/>
-      <c r="QV6" s="14" t="s">
+      <c r="QT6" s="22"/>
+      <c r="QU6" s="23"/>
+      <c r="QV6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="QW6" s="14"/>
-      <c r="QX6" s="15"/>
-      <c r="QY6" s="14" t="s">
+      <c r="QW6" s="22"/>
+      <c r="QX6" s="23"/>
+      <c r="QY6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="QZ6" s="14"/>
-      <c r="RA6" s="15"/>
-      <c r="RB6" s="14" t="s">
+      <c r="QZ6" s="22"/>
+      <c r="RA6" s="23"/>
+      <c r="RB6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="RC6" s="14"/>
-      <c r="RD6" s="15"/>
-      <c r="RE6" s="14" t="s">
+      <c r="RC6" s="22"/>
+      <c r="RD6" s="23"/>
+      <c r="RE6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="RF6" s="14"/>
-      <c r="RG6" s="15"/>
-      <c r="RH6" s="14" t="s">
+      <c r="RF6" s="22"/>
+      <c r="RG6" s="23"/>
+      <c r="RH6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="RI6" s="14"/>
-      <c r="RJ6" s="15"/>
-      <c r="RK6" s="14" t="s">
+      <c r="RI6" s="22"/>
+      <c r="RJ6" s="23"/>
+      <c r="RK6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="RL6" s="14"/>
-      <c r="RM6" s="15"/>
-      <c r="RN6" s="14" t="s">
+      <c r="RL6" s="22"/>
+      <c r="RM6" s="23"/>
+      <c r="RN6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="RO6" s="14"/>
-      <c r="RP6" s="15"/>
-      <c r="RQ6" s="14" t="s">
+      <c r="RO6" s="22"/>
+      <c r="RP6" s="23"/>
+      <c r="RQ6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="RR6" s="14"/>
-      <c r="RS6" s="15"/>
-      <c r="RT6" s="14" t="s">
+      <c r="RR6" s="22"/>
+      <c r="RS6" s="23"/>
+      <c r="RT6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="RU6" s="14"/>
-      <c r="RV6" s="15"/>
-      <c r="RW6" s="14" t="s">
+      <c r="RU6" s="22"/>
+      <c r="RV6" s="23"/>
+      <c r="RW6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="RX6" s="14"/>
-      <c r="RY6" s="15"/>
-      <c r="RZ6" s="14" t="s">
+      <c r="RX6" s="22"/>
+      <c r="RY6" s="23"/>
+      <c r="RZ6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="SA6" s="14"/>
-      <c r="SB6" s="15"/>
-      <c r="SC6" s="14" t="s">
+      <c r="SA6" s="22"/>
+      <c r="SB6" s="23"/>
+      <c r="SC6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="SD6" s="14"/>
-      <c r="SE6" s="15"/>
-      <c r="SF6" s="14" t="s">
+      <c r="SD6" s="22"/>
+      <c r="SE6" s="23"/>
+      <c r="SF6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="SG6" s="14"/>
-      <c r="SH6" s="15"/>
-      <c r="SI6" s="14" t="s">
+      <c r="SG6" s="22"/>
+      <c r="SH6" s="23"/>
+      <c r="SI6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="SJ6" s="14"/>
-      <c r="SK6" s="15"/>
-      <c r="SL6" s="14" t="s">
+      <c r="SJ6" s="22"/>
+      <c r="SK6" s="23"/>
+      <c r="SL6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="SM6" s="14"/>
-      <c r="SN6" s="15"/>
-      <c r="SO6" s="14" t="s">
+      <c r="SM6" s="22"/>
+      <c r="SN6" s="23"/>
+      <c r="SO6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="SP6" s="14"/>
-      <c r="SQ6" s="15"/>
-      <c r="SR6" s="14" t="s">
+      <c r="SP6" s="22"/>
+      <c r="SQ6" s="23"/>
+      <c r="SR6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="SS6" s="14"/>
-      <c r="ST6" s="15"/>
-      <c r="SU6" s="14" t="s">
+      <c r="SS6" s="22"/>
+      <c r="ST6" s="23"/>
+      <c r="SU6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="SV6" s="14"/>
-      <c r="SW6" s="15"/>
-      <c r="SX6" s="14" t="s">
+      <c r="SV6" s="22"/>
+      <c r="SW6" s="23"/>
+      <c r="SX6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="SY6" s="14"/>
-      <c r="SZ6" s="15"/>
-      <c r="TA6" s="14" t="s">
+      <c r="SY6" s="22"/>
+      <c r="SZ6" s="23"/>
+      <c r="TA6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="TB6" s="14"/>
-      <c r="TC6" s="15"/>
-      <c r="TD6" s="14" t="s">
+      <c r="TB6" s="22"/>
+      <c r="TC6" s="23"/>
+      <c r="TD6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="TE6" s="14"/>
-      <c r="TF6" s="15"/>
-      <c r="TG6" s="14" t="s">
+      <c r="TE6" s="22"/>
+      <c r="TF6" s="23"/>
+      <c r="TG6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="TH6" s="14"/>
-      <c r="TI6" s="15"/>
-      <c r="TJ6" s="14" t="s">
+      <c r="TH6" s="22"/>
+      <c r="TI6" s="23"/>
+      <c r="TJ6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="TK6" s="14"/>
-      <c r="TL6" s="15"/>
-      <c r="TM6" s="14" t="s">
+      <c r="TK6" s="22"/>
+      <c r="TL6" s="23"/>
+      <c r="TM6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="TN6" s="14"/>
-      <c r="TO6" s="15"/>
-      <c r="TP6" s="14" t="s">
+      <c r="TN6" s="22"/>
+      <c r="TO6" s="23"/>
+      <c r="TP6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="TQ6" s="14"/>
-      <c r="TR6" s="15"/>
-      <c r="TS6" s="14" t="s">
+      <c r="TQ6" s="22"/>
+      <c r="TR6" s="23"/>
+      <c r="TS6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="TT6" s="14"/>
-      <c r="TU6" s="15"/>
-      <c r="TV6" s="14" t="s">
+      <c r="TT6" s="22"/>
+      <c r="TU6" s="23"/>
+      <c r="TV6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="TW6" s="14"/>
-      <c r="TX6" s="15"/>
-      <c r="TY6" s="14" t="s">
+      <c r="TW6" s="22"/>
+      <c r="TX6" s="23"/>
+      <c r="TY6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="TZ6" s="14"/>
-      <c r="UA6" s="15"/>
-      <c r="UB6" s="14" t="s">
+      <c r="TZ6" s="22"/>
+      <c r="UA6" s="23"/>
+      <c r="UB6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="UC6" s="14"/>
-      <c r="UD6" s="15"/>
-      <c r="UE6" s="14" t="s">
+      <c r="UC6" s="22"/>
+      <c r="UD6" s="23"/>
+      <c r="UE6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="UF6" s="14"/>
-      <c r="UG6" s="15"/>
-      <c r="UH6" s="14" t="s">
+      <c r="UF6" s="22"/>
+      <c r="UG6" s="23"/>
+      <c r="UH6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="UI6" s="14"/>
-      <c r="UJ6" s="15"/>
-      <c r="UK6" s="14" t="s">
+      <c r="UI6" s="22"/>
+      <c r="UJ6" s="23"/>
+      <c r="UK6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="UL6" s="14"/>
-      <c r="UM6" s="15"/>
-      <c r="UN6" s="14" t="s">
+      <c r="UL6" s="22"/>
+      <c r="UM6" s="23"/>
+      <c r="UN6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="UO6" s="14"/>
-      <c r="UP6" s="15"/>
-      <c r="UQ6" s="14" t="s">
+      <c r="UO6" s="22"/>
+      <c r="UP6" s="23"/>
+      <c r="UQ6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="UR6" s="14"/>
-      <c r="US6" s="15"/>
-      <c r="UT6" s="14" t="s">
+      <c r="UR6" s="22"/>
+      <c r="US6" s="23"/>
+      <c r="UT6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="UU6" s="14"/>
-      <c r="UV6" s="15"/>
-      <c r="UW6" s="14" t="s">
+      <c r="UU6" s="22"/>
+      <c r="UV6" s="23"/>
+      <c r="UW6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="UX6" s="14"/>
-      <c r="UY6" s="15"/>
-      <c r="UZ6" s="14" t="s">
+      <c r="UX6" s="22"/>
+      <c r="UY6" s="23"/>
+      <c r="UZ6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="VA6" s="14"/>
-      <c r="VB6" s="15"/>
-      <c r="VC6" s="14" t="s">
+      <c r="VA6" s="22"/>
+      <c r="VB6" s="23"/>
+      <c r="VC6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="VD6" s="14"/>
-      <c r="VE6" s="15"/>
-      <c r="VF6" s="14" t="s">
+      <c r="VD6" s="22"/>
+      <c r="VE6" s="23"/>
+      <c r="VF6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="VG6" s="14"/>
-      <c r="VH6" s="15"/>
-      <c r="VI6" s="14" t="s">
+      <c r="VG6" s="22"/>
+      <c r="VH6" s="23"/>
+      <c r="VI6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="VJ6" s="14"/>
-      <c r="VK6" s="15"/>
-      <c r="VL6" s="14" t="s">
+      <c r="VJ6" s="22"/>
+      <c r="VK6" s="23"/>
+      <c r="VL6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="VM6" s="14"/>
-      <c r="VN6" s="15"/>
-      <c r="VO6" s="14" t="s">
+      <c r="VM6" s="22"/>
+      <c r="VN6" s="23"/>
+      <c r="VO6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="VP6" s="14"/>
-      <c r="VQ6" s="15"/>
-      <c r="VR6" s="14" t="s">
+      <c r="VP6" s="22"/>
+      <c r="VQ6" s="23"/>
+      <c r="VR6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="VS6" s="14"/>
-      <c r="VT6" s="15"/>
-      <c r="VU6" s="14" t="s">
+      <c r="VS6" s="22"/>
+      <c r="VT6" s="23"/>
+      <c r="VU6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="VV6" s="14"/>
-      <c r="VW6" s="15"/>
-      <c r="VX6" s="14" t="s">
+      <c r="VV6" s="22"/>
+      <c r="VW6" s="23"/>
+      <c r="VX6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="VY6" s="14"/>
-      <c r="VZ6" s="15"/>
-      <c r="WA6" s="14" t="s">
+      <c r="VY6" s="22"/>
+      <c r="VZ6" s="23"/>
+      <c r="WA6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="WB6" s="14"/>
-      <c r="WC6" s="15"/>
-      <c r="WD6" s="14" t="s">
+      <c r="WB6" s="22"/>
+      <c r="WC6" s="23"/>
+      <c r="WD6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="WE6" s="14"/>
-      <c r="WF6" s="15"/>
-      <c r="WG6" s="14" t="s">
+      <c r="WE6" s="22"/>
+      <c r="WF6" s="23"/>
+      <c r="WG6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="WH6" s="14"/>
-      <c r="WI6" s="15"/>
-      <c r="WJ6" s="14" t="s">
+      <c r="WH6" s="22"/>
+      <c r="WI6" s="23"/>
+      <c r="WJ6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="WK6" s="14"/>
-      <c r="WL6" s="15"/>
-      <c r="WM6" s="14" t="s">
+      <c r="WK6" s="22"/>
+      <c r="WL6" s="23"/>
+      <c r="WM6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="WN6" s="14"/>
-      <c r="WO6" s="15"/>
-      <c r="WP6" s="14" t="s">
+      <c r="WN6" s="22"/>
+      <c r="WO6" s="23"/>
+      <c r="WP6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="WQ6" s="14"/>
-      <c r="WR6" s="15"/>
-      <c r="WS6" s="14" t="s">
+      <c r="WQ6" s="22"/>
+      <c r="WR6" s="23"/>
+      <c r="WS6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="WT6" s="14"/>
-      <c r="WU6" s="15"/>
-      <c r="WV6" s="14" t="s">
+      <c r="WT6" s="22"/>
+      <c r="WU6" s="23"/>
+      <c r="WV6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="WW6" s="14"/>
-      <c r="WX6" s="15"/>
-      <c r="WY6" s="14" t="s">
+      <c r="WW6" s="22"/>
+      <c r="WX6" s="23"/>
+      <c r="WY6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="WZ6" s="14"/>
-      <c r="XA6" s="15"/>
-      <c r="XB6" s="14" t="s">
+      <c r="WZ6" s="22"/>
+      <c r="XA6" s="23"/>
+      <c r="XB6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="XC6" s="14"/>
-      <c r="XD6" s="15"/>
-      <c r="XE6" s="14" t="s">
+      <c r="XC6" s="22"/>
+      <c r="XD6" s="23"/>
+      <c r="XE6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="XF6" s="14"/>
-      <c r="XG6" s="15"/>
-      <c r="XH6" s="14" t="s">
+      <c r="XF6" s="22"/>
+      <c r="XG6" s="23"/>
+      <c r="XH6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="XI6" s="14"/>
-      <c r="XJ6" s="15"/>
-      <c r="XK6" s="14" t="s">
+      <c r="XI6" s="22"/>
+      <c r="XJ6" s="23"/>
+      <c r="XK6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="XL6" s="14"/>
-      <c r="XM6" s="15"/>
-      <c r="XN6" s="14" t="s">
+      <c r="XL6" s="22"/>
+      <c r="XM6" s="23"/>
+      <c r="XN6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="XO6" s="14"/>
-      <c r="XP6" s="15"/>
-      <c r="XQ6" s="14" t="s">
+      <c r="XO6" s="22"/>
+      <c r="XP6" s="23"/>
+      <c r="XQ6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="XR6" s="14"/>
-      <c r="XS6" s="15"/>
-      <c r="XT6" s="14" t="s">
+      <c r="XR6" s="22"/>
+      <c r="XS6" s="23"/>
+      <c r="XT6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="XU6" s="14"/>
-      <c r="XV6" s="15"/>
-      <c r="XW6" s="14" t="s">
+      <c r="XU6" s="22"/>
+      <c r="XV6" s="23"/>
+      <c r="XW6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="XX6" s="14"/>
-      <c r="XY6" s="15"/>
-      <c r="XZ6" s="14" t="s">
+      <c r="XX6" s="22"/>
+      <c r="XY6" s="23"/>
+      <c r="XZ6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="YA6" s="14"/>
-      <c r="YB6" s="15"/>
-      <c r="YC6" s="14" t="s">
+      <c r="YA6" s="22"/>
+      <c r="YB6" s="23"/>
+      <c r="YC6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="YD6" s="14"/>
-      <c r="YE6" s="15"/>
-      <c r="YF6" s="14" t="s">
+      <c r="YD6" s="22"/>
+      <c r="YE6" s="23"/>
+      <c r="YF6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="YG6" s="14"/>
-      <c r="YH6" s="15"/>
-      <c r="YI6" s="14" t="s">
+      <c r="YG6" s="22"/>
+      <c r="YH6" s="23"/>
+      <c r="YI6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="YJ6" s="14"/>
-      <c r="YK6" s="15"/>
-      <c r="YL6" s="14" t="s">
+      <c r="YJ6" s="22"/>
+      <c r="YK6" s="23"/>
+      <c r="YL6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="YM6" s="14"/>
-      <c r="YN6" s="15"/>
-      <c r="YO6" s="14" t="s">
+      <c r="YM6" s="22"/>
+      <c r="YN6" s="23"/>
+      <c r="YO6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="YP6" s="14"/>
-      <c r="YQ6" s="15"/>
-      <c r="YR6" s="14" t="s">
+      <c r="YP6" s="22"/>
+      <c r="YQ6" s="23"/>
+      <c r="YR6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="YS6" s="14"/>
-      <c r="YT6" s="15"/>
-      <c r="YU6" s="14" t="s">
+      <c r="YS6" s="22"/>
+      <c r="YT6" s="23"/>
+      <c r="YU6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="YV6" s="14"/>
-      <c r="YW6" s="15"/>
-      <c r="YX6" s="14" t="s">
+      <c r="YV6" s="22"/>
+      <c r="YW6" s="23"/>
+      <c r="YX6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="YY6" s="14"/>
-      <c r="YZ6" s="15"/>
-      <c r="ZA6" s="14" t="s">
+      <c r="YY6" s="22"/>
+      <c r="YZ6" s="23"/>
+      <c r="ZA6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="ZB6" s="14"/>
-      <c r="ZC6" s="15"/>
-      <c r="ZD6" s="14" t="s">
+      <c r="ZB6" s="22"/>
+      <c r="ZC6" s="23"/>
+      <c r="ZD6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="ZE6" s="14"/>
-      <c r="ZF6" s="15"/>
-      <c r="ZG6" s="14" t="s">
+      <c r="ZE6" s="22"/>
+      <c r="ZF6" s="23"/>
+      <c r="ZG6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="ZH6" s="14"/>
-      <c r="ZI6" s="15"/>
-      <c r="ZJ6" s="14" t="s">
+      <c r="ZH6" s="22"/>
+      <c r="ZI6" s="23"/>
+      <c r="ZJ6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="ZK6" s="14"/>
-      <c r="ZL6" s="15"/>
-      <c r="ZM6" s="14" t="s">
+      <c r="ZK6" s="22"/>
+      <c r="ZL6" s="23"/>
+      <c r="ZM6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="ZN6" s="14"/>
-      <c r="ZO6" s="15"/>
-      <c r="ZP6" s="14" t="s">
+      <c r="ZN6" s="22"/>
+      <c r="ZO6" s="23"/>
+      <c r="ZP6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="ZQ6" s="14"/>
-      <c r="ZR6" s="15"/>
-      <c r="ZS6" s="14" t="s">
+      <c r="ZQ6" s="22"/>
+      <c r="ZR6" s="23"/>
+      <c r="ZS6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="ZT6" s="14"/>
-      <c r="ZU6" s="15"/>
-      <c r="ZV6" s="14" t="s">
+      <c r="ZT6" s="22"/>
+      <c r="ZU6" s="23"/>
+      <c r="ZV6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="ZW6" s="14"/>
-      <c r="ZX6" s="15"/>
-      <c r="ZY6" s="14" t="s">
+      <c r="ZW6" s="22"/>
+      <c r="ZX6" s="23"/>
+      <c r="ZY6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="ZZ6" s="14"/>
-      <c r="AAA6" s="15"/>
-      <c r="AAB6" s="14" t="s">
+      <c r="ZZ6" s="22"/>
+      <c r="AAA6" s="23"/>
+      <c r="AAB6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AAC6" s="14"/>
-      <c r="AAD6" s="15"/>
-      <c r="AAE6" s="14" t="s">
+      <c r="AAC6" s="22"/>
+      <c r="AAD6" s="23"/>
+      <c r="AAE6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AAF6" s="14"/>
-      <c r="AAG6" s="15"/>
-      <c r="AAH6" s="14" t="s">
+      <c r="AAF6" s="22"/>
+      <c r="AAG6" s="23"/>
+      <c r="AAH6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AAI6" s="14"/>
-      <c r="AAJ6" s="15"/>
-      <c r="AAK6" s="14" t="s">
+      <c r="AAI6" s="22"/>
+      <c r="AAJ6" s="23"/>
+      <c r="AAK6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AAL6" s="14"/>
-      <c r="AAM6" s="15"/>
-      <c r="AAN6" s="14" t="s">
+      <c r="AAL6" s="22"/>
+      <c r="AAM6" s="23"/>
+      <c r="AAN6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AAO6" s="14"/>
-      <c r="AAP6" s="15"/>
-      <c r="AAQ6" s="14" t="s">
+      <c r="AAO6" s="22"/>
+      <c r="AAP6" s="23"/>
+      <c r="AAQ6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AAR6" s="14"/>
-      <c r="AAS6" s="15"/>
-      <c r="AAT6" s="14" t="s">
+      <c r="AAR6" s="22"/>
+      <c r="AAS6" s="23"/>
+      <c r="AAT6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AAU6" s="14"/>
-      <c r="AAV6" s="15"/>
-      <c r="AAW6" s="14" t="s">
+      <c r="AAU6" s="22"/>
+      <c r="AAV6" s="23"/>
+      <c r="AAW6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AAX6" s="14"/>
-      <c r="AAY6" s="15"/>
-      <c r="AAZ6" s="14" t="s">
+      <c r="AAX6" s="22"/>
+      <c r="AAY6" s="23"/>
+      <c r="AAZ6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="ABA6" s="14"/>
-      <c r="ABB6" s="15"/>
-      <c r="ABC6" s="14" t="s">
+      <c r="ABA6" s="22"/>
+      <c r="ABB6" s="23"/>
+      <c r="ABC6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="ABD6" s="14"/>
-      <c r="ABE6" s="15"/>
-      <c r="ABF6" s="14" t="s">
+      <c r="ABD6" s="22"/>
+      <c r="ABE6" s="23"/>
+      <c r="ABF6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="ABG6" s="14"/>
-      <c r="ABH6" s="15"/>
-      <c r="ABI6" s="14" t="s">
+      <c r="ABG6" s="22"/>
+      <c r="ABH6" s="23"/>
+      <c r="ABI6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="ABJ6" s="14"/>
-      <c r="ABK6" s="15"/>
-      <c r="ABL6" s="14" t="s">
+      <c r="ABJ6" s="22"/>
+      <c r="ABK6" s="23"/>
+      <c r="ABL6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="ABM6" s="14"/>
-      <c r="ABN6" s="15"/>
-      <c r="ABO6" s="14" t="s">
+      <c r="ABM6" s="22"/>
+      <c r="ABN6" s="23"/>
+      <c r="ABO6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="ABP6" s="14"/>
-      <c r="ABQ6" s="15"/>
-      <c r="ABR6" s="14" t="s">
+      <c r="ABP6" s="22"/>
+      <c r="ABQ6" s="23"/>
+      <c r="ABR6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="ABS6" s="14"/>
-      <c r="ABT6" s="15"/>
-      <c r="ABU6" s="14" t="s">
+      <c r="ABS6" s="22"/>
+      <c r="ABT6" s="23"/>
+      <c r="ABU6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="ABV6" s="14"/>
-      <c r="ABW6" s="15"/>
-      <c r="ABX6" s="14" t="s">
+      <c r="ABV6" s="22"/>
+      <c r="ABW6" s="23"/>
+      <c r="ABX6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="ABY6" s="14"/>
-      <c r="ABZ6" s="15"/>
-      <c r="ACA6" s="14" t="s">
+      <c r="ABY6" s="22"/>
+      <c r="ABZ6" s="23"/>
+      <c r="ACA6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="ACB6" s="14"/>
-      <c r="ACC6" s="15"/>
-      <c r="ACD6" s="14" t="s">
+      <c r="ACB6" s="22"/>
+      <c r="ACC6" s="23"/>
+      <c r="ACD6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="ACE6" s="14"/>
-      <c r="ACF6" s="15"/>
-      <c r="ACG6" s="14" t="s">
+      <c r="ACE6" s="22"/>
+      <c r="ACF6" s="23"/>
+      <c r="ACG6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="ACH6" s="14"/>
-      <c r="ACI6" s="15"/>
-      <c r="ACJ6" s="14" t="s">
+      <c r="ACH6" s="22"/>
+      <c r="ACI6" s="23"/>
+      <c r="ACJ6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="ACK6" s="14"/>
-      <c r="ACL6" s="15"/>
-      <c r="ACM6" s="14" t="s">
+      <c r="ACK6" s="22"/>
+      <c r="ACL6" s="23"/>
+      <c r="ACM6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="ACN6" s="14"/>
-      <c r="ACO6" s="15"/>
-      <c r="ACP6" s="14" t="s">
+      <c r="ACN6" s="22"/>
+      <c r="ACO6" s="23"/>
+      <c r="ACP6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="ACQ6" s="14"/>
-      <c r="ACR6" s="15"/>
-      <c r="ACS6" s="14" t="s">
+      <c r="ACQ6" s="22"/>
+      <c r="ACR6" s="23"/>
+      <c r="ACS6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="ACT6" s="14"/>
-      <c r="ACU6" s="15"/>
-      <c r="ACV6" s="14" t="s">
+      <c r="ACT6" s="22"/>
+      <c r="ACU6" s="23"/>
+      <c r="ACV6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="ACW6" s="14"/>
-      <c r="ACX6" s="15"/>
-      <c r="ACY6" s="14" t="s">
+      <c r="ACW6" s="22"/>
+      <c r="ACX6" s="23"/>
+      <c r="ACY6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="ACZ6" s="14"/>
-      <c r="ADA6" s="15"/>
-      <c r="ADB6" s="14" t="s">
+      <c r="ACZ6" s="22"/>
+      <c r="ADA6" s="23"/>
+      <c r="ADB6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="ADC6" s="14"/>
-      <c r="ADD6" s="15"/>
-      <c r="ADE6" s="14" t="s">
+      <c r="ADC6" s="22"/>
+      <c r="ADD6" s="23"/>
+      <c r="ADE6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="ADF6" s="14"/>
-      <c r="ADG6" s="15"/>
-      <c r="ADH6" s="14" t="s">
+      <c r="ADF6" s="22"/>
+      <c r="ADG6" s="23"/>
+      <c r="ADH6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="ADI6" s="14"/>
-      <c r="ADJ6" s="15"/>
-      <c r="ADK6" s="14" t="s">
+      <c r="ADI6" s="22"/>
+      <c r="ADJ6" s="23"/>
+      <c r="ADK6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="ADL6" s="14"/>
-      <c r="ADM6" s="15"/>
-      <c r="ADN6" s="14" t="s">
+      <c r="ADL6" s="22"/>
+      <c r="ADM6" s="23"/>
+      <c r="ADN6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="ADO6" s="14"/>
-      <c r="ADP6" s="15"/>
-      <c r="ADQ6" s="14" t="s">
+      <c r="ADO6" s="22"/>
+      <c r="ADP6" s="23"/>
+      <c r="ADQ6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="ADR6" s="14"/>
-      <c r="ADS6" s="15"/>
-      <c r="ADT6" s="14" t="s">
+      <c r="ADR6" s="22"/>
+      <c r="ADS6" s="23"/>
+      <c r="ADT6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="ADU6" s="14"/>
-      <c r="ADV6" s="15"/>
-      <c r="ADW6" s="14" t="s">
+      <c r="ADU6" s="22"/>
+      <c r="ADV6" s="23"/>
+      <c r="ADW6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="ADX6" s="14"/>
-      <c r="ADY6" s="15"/>
-      <c r="ADZ6" s="14" t="s">
+      <c r="ADX6" s="22"/>
+      <c r="ADY6" s="23"/>
+      <c r="ADZ6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AEA6" s="14"/>
-      <c r="AEB6" s="15"/>
-      <c r="AEC6" s="14" t="s">
+      <c r="AEA6" s="22"/>
+      <c r="AEB6" s="23"/>
+      <c r="AEC6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AED6" s="14"/>
-      <c r="AEE6" s="15"/>
-      <c r="AEF6" s="14" t="s">
+      <c r="AED6" s="22"/>
+      <c r="AEE6" s="23"/>
+      <c r="AEF6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="AEG6" s="14"/>
-      <c r="AEH6" s="15"/>
-      <c r="AEI6" s="14" t="s">
+      <c r="AEG6" s="22"/>
+      <c r="AEH6" s="23"/>
+      <c r="AEI6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AEJ6" s="14"/>
-      <c r="AEK6" s="15"/>
-      <c r="AEL6" s="14" t="s">
+      <c r="AEJ6" s="22"/>
+      <c r="AEK6" s="23"/>
+      <c r="AEL6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AEM6" s="14"/>
-      <c r="AEN6" s="15"/>
-      <c r="AEO6" s="14" t="s">
+      <c r="AEM6" s="22"/>
+      <c r="AEN6" s="23"/>
+      <c r="AEO6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="AEP6" s="14"/>
-      <c r="AEQ6" s="15"/>
-      <c r="AER6" s="14" t="s">
+      <c r="AEP6" s="22"/>
+      <c r="AEQ6" s="23"/>
+      <c r="AER6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="AES6" s="14"/>
-      <c r="AET6" s="15"/>
-      <c r="AEU6" s="14" t="s">
+      <c r="AES6" s="22"/>
+      <c r="AET6" s="23"/>
+      <c r="AEU6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AEV6" s="14"/>
-      <c r="AEW6" s="15"/>
-      <c r="AEX6" s="19" t="s">
+      <c r="AEV6" s="22"/>
+      <c r="AEW6" s="23"/>
+      <c r="AEX6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AEY6" s="14"/>
-      <c r="AEZ6" s="15"/>
-      <c r="AFA6" s="19" t="s">
+      <c r="AEY6" s="22"/>
+      <c r="AEZ6" s="23"/>
+      <c r="AFA6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AFB6" s="14"/>
-      <c r="AFC6" s="15"/>
-      <c r="AFD6" s="19" t="s">
+      <c r="AFB6" s="22"/>
+      <c r="AFC6" s="23"/>
+      <c r="AFD6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AFE6" s="14"/>
-      <c r="AFF6" s="15"/>
-      <c r="AFG6" s="19" t="s">
+      <c r="AFE6" s="22"/>
+      <c r="AFF6" s="23"/>
+      <c r="AFG6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AFH6" s="14"/>
-      <c r="AFI6" s="15"/>
-      <c r="AFJ6" s="19" t="s">
+      <c r="AFH6" s="22"/>
+      <c r="AFI6" s="23"/>
+      <c r="AFJ6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AFK6" s="14"/>
-      <c r="AFL6" s="15"/>
+      <c r="AFK6" s="22"/>
+      <c r="AFL6" s="23"/>
+      <c r="AFM6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AFN6" s="22"/>
+      <c r="AFO6" s="23"/>
     </row>
-    <row r="7" spans="1:844" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:847" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6218,8 +6227,17 @@
       <c r="AFL7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AFM7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AFN7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AFO7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8752,8 +8770,17 @@
       <c r="AFL8" s="5">
         <v>108441</v>
       </c>
+      <c r="AFM8" s="3">
+        <v>74063</v>
+      </c>
+      <c r="AFN8" s="4">
+        <v>33776</v>
+      </c>
+      <c r="AFO8" s="5">
+        <v>107839</v>
+      </c>
     </row>
-    <row r="9" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11286,8 +11313,17 @@
       <c r="AFL9" s="5">
         <v>369627</v>
       </c>
+      <c r="AFM9" s="3">
+        <v>216278</v>
+      </c>
+      <c r="AFN9" s="4">
+        <v>156113</v>
+      </c>
+      <c r="AFO9" s="5">
+        <v>372391</v>
+      </c>
     </row>
-    <row r="10" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -13820,8 +13856,17 @@
       <c r="AFL10" s="5">
         <v>138531</v>
       </c>
+      <c r="AFM10" s="3">
+        <v>120017</v>
+      </c>
+      <c r="AFN10" s="4">
+        <v>20908</v>
+      </c>
+      <c r="AFO10" s="5">
+        <v>140925</v>
+      </c>
     </row>
-    <row r="11" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16354,8 +16399,17 @@
       <c r="AFL11" s="5">
         <v>10007</v>
       </c>
+      <c r="AFM11" s="3">
+        <v>7619</v>
+      </c>
+      <c r="AFN11" s="4">
+        <v>2484</v>
+      </c>
+      <c r="AFO11" s="5">
+        <v>10103</v>
+      </c>
     </row>
-    <row r="12" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -18888,8 +18942,17 @@
       <c r="AFL12" s="5">
         <v>467355</v>
       </c>
+      <c r="AFM12" s="3">
+        <v>281038</v>
+      </c>
+      <c r="AFN12" s="4">
+        <v>183077</v>
+      </c>
+      <c r="AFO12" s="5">
+        <v>464115</v>
+      </c>
     </row>
-    <row r="13" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21422,8 +21485,17 @@
       <c r="AFL13" s="5">
         <v>2465</v>
       </c>
+      <c r="AFM13" s="3">
+        <v>2113</v>
+      </c>
+      <c r="AFN13" s="4">
+        <v>307</v>
+      </c>
+      <c r="AFO13" s="5">
+        <v>2420</v>
+      </c>
     </row>
-    <row r="14" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -23956,8 +24028,17 @@
       <c r="AFL14" s="5">
         <v>352955</v>
       </c>
+      <c r="AFM14" s="3">
+        <v>201994</v>
+      </c>
+      <c r="AFN14" s="4">
+        <v>157770</v>
+      </c>
+      <c r="AFO14" s="5">
+        <v>359764</v>
+      </c>
     </row>
-    <row r="15" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26490,8 +26571,17 @@
       <c r="AFL15" s="5">
         <v>276827</v>
       </c>
+      <c r="AFM15" s="3">
+        <v>124547</v>
+      </c>
+      <c r="AFN15" s="4">
+        <v>149134</v>
+      </c>
+      <c r="AFO15" s="5">
+        <v>273681</v>
+      </c>
     </row>
-    <row r="16" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -26972,13 +27062,13 @@
       <c r="FD16" s="5">
         <v>51301</v>
       </c>
-      <c r="FE16" s="28">
+      <c r="FE16" s="17">
         <v>42385</v>
       </c>
-      <c r="FF16" s="28">
+      <c r="FF16" s="17">
         <v>8113</v>
       </c>
-      <c r="FG16" s="29">
+      <c r="FG16" s="18">
         <v>50498</v>
       </c>
       <c r="FH16" s="4">
@@ -27017,13 +27107,13 @@
       <c r="FS16" s="5">
         <v>51421</v>
       </c>
-      <c r="FT16" s="28">
+      <c r="FT16" s="17">
         <v>43030</v>
       </c>
-      <c r="FU16" s="28">
+      <c r="FU16" s="17">
         <v>8544</v>
       </c>
-      <c r="FV16" s="29">
+      <c r="FV16" s="18">
         <v>51574</v>
       </c>
       <c r="FW16" s="4">
@@ -27233,22 +27323,22 @@
       <c r="IM16" s="5">
         <v>51398</v>
       </c>
-      <c r="IN16" s="30">
+      <c r="IN16" s="19">
         <v>43097</v>
       </c>
-      <c r="IO16" s="28">
+      <c r="IO16" s="17">
         <v>8545</v>
       </c>
-      <c r="IP16" s="29">
+      <c r="IP16" s="18">
         <v>51642</v>
       </c>
-      <c r="IQ16" s="30">
+      <c r="IQ16" s="19">
         <v>42929</v>
       </c>
-      <c r="IR16" s="28">
+      <c r="IR16" s="17">
         <v>8458</v>
       </c>
-      <c r="IS16" s="28">
+      <c r="IS16" s="17">
         <v>51387</v>
       </c>
       <c r="IT16" s="3">
@@ -27944,13 +28034,13 @@
       <c r="RP16" s="5">
         <v>57741</v>
       </c>
-      <c r="RQ16" s="28">
+      <c r="RQ16" s="17">
         <v>47413</v>
       </c>
-      <c r="RR16" s="28">
+      <c r="RR16" s="17">
         <v>10426</v>
       </c>
-      <c r="RS16" s="29">
+      <c r="RS16" s="18">
         <v>57839</v>
       </c>
       <c r="RT16" s="4">
@@ -28277,13 +28367,13 @@
       <c r="VW16" s="5">
         <v>64066</v>
       </c>
-      <c r="VX16" s="28">
+      <c r="VX16" s="17">
         <v>51867</v>
       </c>
-      <c r="VY16" s="28">
+      <c r="VY16" s="17">
         <v>12510</v>
       </c>
-      <c r="VZ16" s="29">
+      <c r="VZ16" s="18">
         <v>64377</v>
       </c>
       <c r="WA16" s="4">
@@ -28376,13 +28466,13 @@
       <c r="XD16" s="5">
         <v>68845</v>
       </c>
-      <c r="XE16" s="28">
+      <c r="XE16" s="17">
         <v>55094</v>
       </c>
-      <c r="XF16" s="28">
+      <c r="XF16" s="17">
         <v>13755</v>
       </c>
-      <c r="XG16" s="29">
+      <c r="XG16" s="18">
         <v>68849</v>
       </c>
       <c r="XH16" s="4">
@@ -28439,13 +28529,13 @@
       <c r="XY16" s="5">
         <v>70979</v>
       </c>
-      <c r="XZ16" s="28">
+      <c r="XZ16" s="17">
         <v>56557</v>
       </c>
-      <c r="YA16" s="28">
+      <c r="YA16" s="17">
         <v>14768</v>
       </c>
-      <c r="YB16" s="29">
+      <c r="YB16" s="18">
         <v>71325</v>
       </c>
       <c r="YC16" s="4">
@@ -28475,13 +28565,13 @@
       <c r="YK16" s="5">
         <v>71943</v>
       </c>
-      <c r="YL16" s="28">
+      <c r="YL16" s="17">
         <v>56820</v>
       </c>
-      <c r="YM16" s="28">
+      <c r="YM16" s="17">
         <v>14660</v>
       </c>
-      <c r="YN16" s="29">
+      <c r="YN16" s="18">
         <v>71480</v>
       </c>
       <c r="YO16" s="4">
@@ -28574,13 +28664,13 @@
       <c r="ZR16" s="5">
         <v>74891</v>
       </c>
-      <c r="ZS16" s="28">
+      <c r="ZS16" s="17">
         <v>60330</v>
       </c>
-      <c r="ZT16" s="28">
+      <c r="ZT16" s="17">
         <v>15397</v>
       </c>
-      <c r="ZU16" s="29">
+      <c r="ZU16" s="18">
         <v>75727</v>
       </c>
       <c r="ZV16" s="4">
@@ -29024,2556 +29114,2574 @@
       <c r="AFL16" s="5">
         <v>89399</v>
       </c>
+      <c r="AFM16" s="3">
+        <v>69580</v>
+      </c>
+      <c r="AFN16" s="4">
+        <v>19967</v>
+      </c>
+      <c r="AFO16" s="5">
+        <v>89547</v>
+      </c>
     </row>
-    <row r="17" spans="1:844" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="14">
         <v>567422</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="15">
         <v>302008</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="16">
         <v>869430</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="14">
         <v>572970</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="15">
         <v>303651</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="16">
         <v>876621</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="14">
         <v>580230</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="15">
         <v>306557</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="16">
         <v>886787</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="14">
         <v>583124</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="15">
         <v>306947</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="16">
         <v>890071</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="14">
         <v>581472</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="15">
         <v>306549</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="16">
         <v>888021</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="14">
         <v>583338</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="15">
         <v>309667</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="16">
         <v>893005</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="14">
         <v>590538</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17" s="15">
         <v>312084</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V17" s="16">
         <v>902622</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="14">
         <v>593964</v>
       </c>
-      <c r="X17" s="25">
+      <c r="X17" s="15">
         <v>313908</v>
       </c>
-      <c r="Y17" s="26">
+      <c r="Y17" s="16">
         <v>907872</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17" s="14">
         <v>599279</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="AA17" s="15">
         <v>317721</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AB17" s="16">
         <v>917000</v>
       </c>
-      <c r="AC17" s="24">
+      <c r="AC17" s="14">
         <v>605848</v>
       </c>
-      <c r="AD17" s="25">
+      <c r="AD17" s="15">
         <v>322574</v>
       </c>
-      <c r="AE17" s="26">
+      <c r="AE17" s="16">
         <v>928422</v>
       </c>
-      <c r="AF17" s="24">
+      <c r="AF17" s="14">
         <v>610650</v>
       </c>
-      <c r="AG17" s="25">
+      <c r="AG17" s="15">
         <v>323134</v>
       </c>
-      <c r="AH17" s="26">
+      <c r="AH17" s="16">
         <v>933784</v>
       </c>
-      <c r="AI17" s="24">
+      <c r="AI17" s="14">
         <v>606240</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AJ17" s="15">
         <v>320050</v>
       </c>
-      <c r="AK17" s="26">
+      <c r="AK17" s="16">
         <v>926290</v>
       </c>
-      <c r="AL17" s="24">
+      <c r="AL17" s="14">
         <v>608228</v>
       </c>
-      <c r="AM17" s="25">
+      <c r="AM17" s="15">
         <v>318653</v>
       </c>
-      <c r="AN17" s="26">
+      <c r="AN17" s="16">
         <v>926881</v>
       </c>
-      <c r="AO17" s="24">
+      <c r="AO17" s="14">
         <v>614274</v>
       </c>
-      <c r="AP17" s="25">
+      <c r="AP17" s="15">
         <v>321942</v>
       </c>
-      <c r="AQ17" s="26">
+      <c r="AQ17" s="16">
         <v>936216</v>
       </c>
-      <c r="AR17" s="24">
+      <c r="AR17" s="14">
         <v>620549</v>
       </c>
-      <c r="AS17" s="25">
+      <c r="AS17" s="15">
         <v>326159</v>
       </c>
-      <c r="AT17" s="26">
+      <c r="AT17" s="16">
         <v>946708</v>
       </c>
-      <c r="AU17" s="24">
+      <c r="AU17" s="14">
         <v>623608</v>
       </c>
-      <c r="AV17" s="25">
+      <c r="AV17" s="15">
         <v>327874</v>
       </c>
-      <c r="AW17" s="26">
+      <c r="AW17" s="16">
         <v>951482</v>
       </c>
-      <c r="AX17" s="24">
+      <c r="AX17" s="14">
         <v>624860</v>
       </c>
-      <c r="AY17" s="25">
+      <c r="AY17" s="15">
         <v>330124</v>
       </c>
-      <c r="AZ17" s="26">
+      <c r="AZ17" s="16">
         <v>954984</v>
       </c>
-      <c r="BA17" s="24">
+      <c r="BA17" s="14">
         <v>624513</v>
       </c>
-      <c r="BB17" s="25">
+      <c r="BB17" s="15">
         <v>332724</v>
       </c>
-      <c r="BC17" s="26">
+      <c r="BC17" s="16">
         <v>957237</v>
       </c>
-      <c r="BD17" s="24">
+      <c r="BD17" s="14">
         <v>624273</v>
       </c>
-      <c r="BE17" s="25">
+      <c r="BE17" s="15">
         <v>334716</v>
       </c>
-      <c r="BF17" s="26">
+      <c r="BF17" s="16">
         <v>958989</v>
       </c>
-      <c r="BG17" s="24">
+      <c r="BG17" s="14">
         <v>628452</v>
       </c>
-      <c r="BH17" s="25">
+      <c r="BH17" s="15">
         <v>337540</v>
       </c>
-      <c r="BI17" s="26">
+      <c r="BI17" s="16">
         <v>965992</v>
       </c>
-      <c r="BJ17" s="24">
+      <c r="BJ17" s="14">
         <v>634060</v>
       </c>
-      <c r="BK17" s="25">
+      <c r="BK17" s="15">
         <v>341620</v>
       </c>
-      <c r="BL17" s="26">
+      <c r="BL17" s="16">
         <v>975680</v>
       </c>
-      <c r="BM17" s="24">
+      <c r="BM17" s="14">
         <v>638438</v>
       </c>
-      <c r="BN17" s="25">
+      <c r="BN17" s="15">
         <v>345093</v>
       </c>
-      <c r="BO17" s="26">
+      <c r="BO17" s="16">
         <v>983531</v>
       </c>
-      <c r="BP17" s="25">
+      <c r="BP17" s="15">
         <v>646747</v>
       </c>
-      <c r="BQ17" s="25">
+      <c r="BQ17" s="15">
         <v>350406</v>
       </c>
-      <c r="BR17" s="25">
+      <c r="BR17" s="15">
         <v>997153</v>
       </c>
-      <c r="BS17" s="24">
+      <c r="BS17" s="14">
         <v>640866</v>
       </c>
-      <c r="BT17" s="25">
+      <c r="BT17" s="15">
         <v>345255</v>
       </c>
-      <c r="BU17" s="26">
+      <c r="BU17" s="16">
         <v>986121</v>
       </c>
-      <c r="BV17" s="24">
+      <c r="BV17" s="14">
         <v>642375</v>
       </c>
-      <c r="BW17" s="25">
+      <c r="BW17" s="15">
         <v>344434</v>
       </c>
-      <c r="BX17" s="25">
+      <c r="BX17" s="15">
         <v>986809</v>
       </c>
-      <c r="BY17" s="24">
+      <c r="BY17" s="14">
         <v>647515</v>
       </c>
-      <c r="BZ17" s="25">
+      <c r="BZ17" s="15">
         <v>348317</v>
       </c>
-      <c r="CA17" s="26">
+      <c r="CA17" s="16">
         <v>995832</v>
       </c>
-      <c r="CB17" s="24">
+      <c r="CB17" s="14">
         <v>649962</v>
       </c>
-      <c r="CC17" s="25">
+      <c r="CC17" s="15">
         <v>351107</v>
       </c>
-      <c r="CD17" s="26">
+      <c r="CD17" s="16">
         <v>1001069</v>
       </c>
-      <c r="CE17" s="25">
+      <c r="CE17" s="15">
         <v>648429</v>
       </c>
-      <c r="CF17" s="25">
+      <c r="CF17" s="15">
         <v>350974</v>
       </c>
-      <c r="CG17" s="26">
+      <c r="CG17" s="16">
         <v>999403</v>
       </c>
-      <c r="CH17" s="24">
+      <c r="CH17" s="14">
         <v>649058</v>
       </c>
-      <c r="CI17" s="25">
+      <c r="CI17" s="15">
         <v>353383</v>
       </c>
-      <c r="CJ17" s="26">
+      <c r="CJ17" s="16">
         <v>1002441</v>
       </c>
-      <c r="CK17" s="24">
+      <c r="CK17" s="14">
         <v>650291</v>
       </c>
-      <c r="CL17" s="25">
+      <c r="CL17" s="15">
         <v>355989</v>
       </c>
-      <c r="CM17" s="26">
+      <c r="CM17" s="16">
         <v>1006280</v>
       </c>
-      <c r="CN17" s="24">
+      <c r="CN17" s="14">
         <v>658234</v>
       </c>
-      <c r="CO17" s="25">
+      <c r="CO17" s="15">
         <v>361272</v>
       </c>
-      <c r="CP17" s="26">
+      <c r="CP17" s="16">
         <v>1019506</v>
       </c>
-      <c r="CQ17" s="24">
+      <c r="CQ17" s="14">
         <v>663986</v>
       </c>
-      <c r="CR17" s="25">
+      <c r="CR17" s="15">
         <v>364405</v>
       </c>
-      <c r="CS17" s="26">
+      <c r="CS17" s="16">
         <v>1028391</v>
       </c>
-      <c r="CT17" s="24">
+      <c r="CT17" s="14">
         <v>667140</v>
       </c>
-      <c r="CU17" s="25">
+      <c r="CU17" s="15">
         <v>367997</v>
       </c>
-      <c r="CV17" s="26">
+      <c r="CV17" s="16">
         <v>1035137</v>
       </c>
-      <c r="CW17" s="24">
+      <c r="CW17" s="14">
         <v>673149</v>
       </c>
-      <c r="CX17" s="25">
+      <c r="CX17" s="15">
         <v>373098</v>
       </c>
-      <c r="CY17" s="26">
+      <c r="CY17" s="16">
         <v>1046247</v>
       </c>
-      <c r="CZ17" s="24">
+      <c r="CZ17" s="14">
         <v>677195</v>
       </c>
-      <c r="DA17" s="25">
+      <c r="DA17" s="15">
         <v>377151</v>
       </c>
-      <c r="DB17" s="26">
+      <c r="DB17" s="16">
         <v>1054346</v>
       </c>
-      <c r="DC17" s="25">
+      <c r="DC17" s="15">
         <v>665124</v>
       </c>
-      <c r="DD17" s="25">
+      <c r="DD17" s="15">
         <v>369091</v>
       </c>
-      <c r="DE17" s="26">
+      <c r="DE17" s="16">
         <v>1034215</v>
       </c>
-      <c r="DF17" s="24">
+      <c r="DF17" s="14">
         <v>666904</v>
       </c>
-      <c r="DG17" s="25">
+      <c r="DG17" s="15">
         <v>367148</v>
       </c>
-      <c r="DH17" s="26">
+      <c r="DH17" s="16">
         <v>1034052</v>
       </c>
-      <c r="DI17" s="24">
+      <c r="DI17" s="14">
         <v>666880</v>
       </c>
-      <c r="DJ17" s="25">
+      <c r="DJ17" s="15">
         <v>366703</v>
       </c>
-      <c r="DK17" s="26">
+      <c r="DK17" s="16">
         <v>1033583</v>
       </c>
-      <c r="DL17" s="24">
+      <c r="DL17" s="14">
         <v>663057</v>
       </c>
-      <c r="DM17" s="25">
+      <c r="DM17" s="15">
         <v>363196</v>
       </c>
-      <c r="DN17" s="26">
+      <c r="DN17" s="16">
         <v>1026253</v>
       </c>
-      <c r="DO17" s="24">
+      <c r="DO17" s="14">
         <v>660270</v>
       </c>
-      <c r="DP17" s="25">
+      <c r="DP17" s="15">
         <v>361303</v>
       </c>
-      <c r="DQ17" s="26">
+      <c r="DQ17" s="16">
         <v>1021573</v>
       </c>
-      <c r="DR17" s="24">
+      <c r="DR17" s="14">
         <v>656992</v>
       </c>
-      <c r="DS17" s="25">
+      <c r="DS17" s="15">
         <v>360176</v>
       </c>
-      <c r="DT17" s="26">
+      <c r="DT17" s="16">
         <v>1017168</v>
       </c>
-      <c r="DU17" s="24">
+      <c r="DU17" s="14">
         <v>653030</v>
       </c>
-      <c r="DV17" s="25">
+      <c r="DV17" s="15">
         <v>359638</v>
       </c>
-      <c r="DW17" s="26">
+      <c r="DW17" s="16">
         <v>1012668</v>
       </c>
-      <c r="DX17" s="25">
+      <c r="DX17" s="15">
         <v>655167</v>
       </c>
-      <c r="DY17" s="25">
+      <c r="DY17" s="15">
         <v>360357</v>
       </c>
-      <c r="DZ17" s="26">
+      <c r="DZ17" s="16">
         <v>1015524</v>
       </c>
-      <c r="EA17" s="25">
+      <c r="EA17" s="15">
         <v>656160</v>
       </c>
-      <c r="EB17" s="25">
+      <c r="EB17" s="15">
         <v>361288</v>
       </c>
-      <c r="EC17" s="26">
+      <c r="EC17" s="16">
         <v>1017448</v>
       </c>
-      <c r="ED17" s="25">
+      <c r="ED17" s="15">
         <v>653759</v>
       </c>
-      <c r="EE17" s="25">
+      <c r="EE17" s="15">
         <v>361934</v>
       </c>
-      <c r="EF17" s="26">
+      <c r="EF17" s="16">
         <v>1015693</v>
       </c>
-      <c r="EG17" s="25">
+      <c r="EG17" s="15">
         <v>658171</v>
       </c>
-      <c r="EH17" s="25">
+      <c r="EH17" s="15">
         <v>365061</v>
       </c>
-      <c r="EI17" s="26">
+      <c r="EI17" s="16">
         <v>1023232</v>
       </c>
-      <c r="EJ17" s="25">
+      <c r="EJ17" s="15">
         <v>661755</v>
       </c>
-      <c r="EK17" s="25">
+      <c r="EK17" s="15">
         <v>366726</v>
       </c>
-      <c r="EL17" s="26">
+      <c r="EL17" s="16">
         <v>1028481</v>
       </c>
-      <c r="EM17" s="25">
+      <c r="EM17" s="15">
         <v>651073</v>
       </c>
-      <c r="EN17" s="25">
+      <c r="EN17" s="15">
         <v>360650</v>
       </c>
-      <c r="EO17" s="26">
+      <c r="EO17" s="16">
         <v>1011723</v>
       </c>
-      <c r="EP17" s="25">
+      <c r="EP17" s="15">
         <v>652925</v>
       </c>
-      <c r="EQ17" s="25">
+      <c r="EQ17" s="15">
         <v>358286</v>
       </c>
-      <c r="ER17" s="26">
+      <c r="ER17" s="16">
         <v>1011211</v>
       </c>
-      <c r="ES17" s="25">
+      <c r="ES17" s="15">
         <v>659195</v>
       </c>
-      <c r="ET17" s="25">
+      <c r="ET17" s="15">
         <v>362111</v>
       </c>
-      <c r="EU17" s="26">
+      <c r="EU17" s="16">
         <v>1021306</v>
       </c>
-      <c r="EV17" s="25">
+      <c r="EV17" s="15">
         <v>656348</v>
       </c>
-      <c r="EW17" s="25">
+      <c r="EW17" s="15">
         <v>361554</v>
       </c>
-      <c r="EX17" s="26">
+      <c r="EX17" s="16">
         <v>1017902</v>
       </c>
-      <c r="EY17" s="25">
+      <c r="EY17" s="15">
         <v>662060</v>
       </c>
-      <c r="EZ17" s="25">
+      <c r="EZ17" s="15">
         <v>363192</v>
       </c>
-      <c r="FA17" s="26">
+      <c r="FA17" s="16">
         <v>1025252</v>
       </c>
-      <c r="FB17" s="25">
+      <c r="FB17" s="15">
         <v>658013</v>
       </c>
-      <c r="FC17" s="25">
+      <c r="FC17" s="15">
         <v>362603</v>
       </c>
-      <c r="FD17" s="26">
+      <c r="FD17" s="16">
         <v>1020616</v>
       </c>
-      <c r="FE17" s="25">
+      <c r="FE17" s="15">
         <v>655541</v>
       </c>
-      <c r="FF17" s="25">
+      <c r="FF17" s="15">
         <v>361952</v>
       </c>
-      <c r="FG17" s="25">
+      <c r="FG17" s="15">
         <v>1017493</v>
       </c>
-      <c r="FH17" s="25">
+      <c r="FH17" s="15">
         <v>660343</v>
       </c>
-      <c r="FI17" s="25">
+      <c r="FI17" s="15">
         <v>363440</v>
       </c>
-      <c r="FJ17" s="26">
+      <c r="FJ17" s="16">
         <v>1023783</v>
       </c>
-      <c r="FK17" s="25">
+      <c r="FK17" s="15">
         <v>659637</v>
       </c>
-      <c r="FL17" s="25">
+      <c r="FL17" s="15">
         <v>363116</v>
       </c>
-      <c r="FM17" s="26">
+      <c r="FM17" s="16">
         <v>1022753</v>
       </c>
-      <c r="FN17" s="25">
+      <c r="FN17" s="15">
         <v>662235</v>
       </c>
-      <c r="FO17" s="25">
+      <c r="FO17" s="15">
         <v>367592</v>
       </c>
-      <c r="FP17" s="26">
+      <c r="FP17" s="16">
         <v>1029827</v>
       </c>
-      <c r="FQ17" s="25">
+      <c r="FQ17" s="15">
         <v>667698</v>
       </c>
-      <c r="FR17" s="25">
+      <c r="FR17" s="15">
         <v>371076</v>
       </c>
-      <c r="FS17" s="26">
+      <c r="FS17" s="16">
         <v>1038774</v>
       </c>
-      <c r="FT17" s="25">
+      <c r="FT17" s="15">
         <v>672371</v>
       </c>
-      <c r="FU17" s="25">
+      <c r="FU17" s="15">
         <v>374467</v>
       </c>
-      <c r="FV17" s="25">
+      <c r="FV17" s="15">
         <v>1046838</v>
       </c>
-      <c r="FW17" s="25">
+      <c r="FW17" s="15">
         <v>662187</v>
       </c>
-      <c r="FX17" s="25">
+      <c r="FX17" s="15">
         <v>367504</v>
       </c>
-      <c r="FY17" s="26">
+      <c r="FY17" s="16">
         <v>1029691</v>
       </c>
-      <c r="FZ17" s="25">
+      <c r="FZ17" s="15">
         <v>665669</v>
       </c>
-      <c r="GA17" s="25">
+      <c r="GA17" s="15">
         <v>365413</v>
       </c>
-      <c r="GB17" s="26">
+      <c r="GB17" s="16">
         <v>1031082</v>
       </c>
-      <c r="GC17" s="25">
+      <c r="GC17" s="15">
         <v>668558</v>
       </c>
-      <c r="GD17" s="25">
+      <c r="GD17" s="15">
         <v>366199</v>
       </c>
-      <c r="GE17" s="26">
+      <c r="GE17" s="16">
         <v>1034757</v>
       </c>
-      <c r="GF17" s="25">
+      <c r="GF17" s="15">
         <v>667741</v>
       </c>
-      <c r="GG17" s="25">
+      <c r="GG17" s="15">
         <v>366487</v>
       </c>
-      <c r="GH17" s="26">
+      <c r="GH17" s="16">
         <v>1034228</v>
       </c>
-      <c r="GI17" s="25">
+      <c r="GI17" s="15">
         <v>668794</v>
       </c>
-      <c r="GJ17" s="25">
+      <c r="GJ17" s="15">
         <v>365886</v>
       </c>
-      <c r="GK17" s="26">
+      <c r="GK17" s="16">
         <v>1034680</v>
       </c>
-      <c r="GL17" s="25">
+      <c r="GL17" s="15">
         <v>662405</v>
       </c>
-      <c r="GM17" s="25">
+      <c r="GM17" s="15">
         <v>364346</v>
       </c>
-      <c r="GN17" s="26">
+      <c r="GN17" s="16">
         <v>1026751</v>
       </c>
-      <c r="GO17" s="25">
+      <c r="GO17" s="15">
         <v>662001</v>
       </c>
-      <c r="GP17" s="25">
+      <c r="GP17" s="15">
         <v>363661</v>
       </c>
-      <c r="GQ17" s="26">
+      <c r="GQ17" s="16">
         <v>1025662</v>
       </c>
-      <c r="GR17" s="25">
+      <c r="GR17" s="15">
         <v>664042</v>
       </c>
-      <c r="GS17" s="25">
+      <c r="GS17" s="15">
         <v>364134</v>
       </c>
-      <c r="GT17" s="26">
+      <c r="GT17" s="16">
         <v>1028176</v>
       </c>
-      <c r="GU17" s="25">
+      <c r="GU17" s="15">
         <v>663410</v>
       </c>
-      <c r="GV17" s="25">
+      <c r="GV17" s="15">
         <v>364002</v>
       </c>
-      <c r="GW17" s="26">
+      <c r="GW17" s="16">
         <v>1027412</v>
       </c>
-      <c r="GX17" s="25">
+      <c r="GX17" s="15">
         <v>666622</v>
       </c>
-      <c r="GY17" s="25">
+      <c r="GY17" s="15">
         <v>368775</v>
       </c>
-      <c r="GZ17" s="26">
+      <c r="GZ17" s="16">
         <v>1035397</v>
       </c>
-      <c r="HA17" s="25">
+      <c r="HA17" s="15">
         <v>671514</v>
       </c>
-      <c r="HB17" s="25">
+      <c r="HB17" s="15">
         <v>373253</v>
       </c>
-      <c r="HC17" s="26">
+      <c r="HC17" s="16">
         <v>1044767</v>
       </c>
-      <c r="HD17" s="25">
+      <c r="HD17" s="15">
         <v>672069</v>
       </c>
-      <c r="HE17" s="25">
+      <c r="HE17" s="15">
         <v>375204</v>
       </c>
-      <c r="HF17" s="26">
+      <c r="HF17" s="16">
         <v>1047273</v>
       </c>
-      <c r="HG17" s="25">
+      <c r="HG17" s="15">
         <v>669169</v>
       </c>
-      <c r="HH17" s="25">
+      <c r="HH17" s="15">
         <v>372112</v>
       </c>
-      <c r="HI17" s="25">
+      <c r="HI17" s="15">
         <v>1041281</v>
       </c>
-      <c r="HJ17" s="24">
+      <c r="HJ17" s="14">
         <v>670015</v>
       </c>
-      <c r="HK17" s="25">
+      <c r="HK17" s="15">
         <v>370978</v>
       </c>
-      <c r="HL17" s="26">
+      <c r="HL17" s="16">
         <v>1040993</v>
       </c>
-      <c r="HM17" s="24">
+      <c r="HM17" s="14">
         <v>672047</v>
       </c>
-      <c r="HN17" s="25">
+      <c r="HN17" s="15">
         <v>373565</v>
       </c>
-      <c r="HO17" s="26">
+      <c r="HO17" s="16">
         <v>1045612</v>
       </c>
-      <c r="HP17" s="24">
+      <c r="HP17" s="14">
         <v>678814</v>
       </c>
-      <c r="HQ17" s="25">
+      <c r="HQ17" s="15">
         <v>377649</v>
       </c>
-      <c r="HR17" s="26">
+      <c r="HR17" s="16">
         <v>1056463</v>
       </c>
-      <c r="HS17" s="24">
+      <c r="HS17" s="14">
         <v>680280</v>
       </c>
-      <c r="HT17" s="25">
+      <c r="HT17" s="15">
         <v>377749</v>
       </c>
-      <c r="HU17" s="26">
+      <c r="HU17" s="16">
         <v>1058029</v>
       </c>
-      <c r="HV17" s="24">
+      <c r="HV17" s="14">
         <v>676482</v>
       </c>
-      <c r="HW17" s="25">
+      <c r="HW17" s="15">
         <v>377436</v>
       </c>
-      <c r="HX17" s="26">
+      <c r="HX17" s="16">
         <v>1053918</v>
       </c>
-      <c r="HY17" s="24">
+      <c r="HY17" s="14">
         <v>674620</v>
       </c>
-      <c r="HZ17" s="25">
+      <c r="HZ17" s="15">
         <v>378273</v>
       </c>
-      <c r="IA17" s="26">
+      <c r="IA17" s="16">
         <v>1052893</v>
       </c>
-      <c r="IB17" s="24">
+      <c r="IB17" s="14">
         <v>677055</v>
       </c>
-      <c r="IC17" s="25">
+      <c r="IC17" s="15">
         <v>379507</v>
       </c>
-      <c r="ID17" s="26">
+      <c r="ID17" s="16">
         <v>1056562</v>
       </c>
-      <c r="IE17" s="24">
+      <c r="IE17" s="14">
         <v>676663</v>
       </c>
-      <c r="IF17" s="25">
+      <c r="IF17" s="15">
         <v>379588</v>
       </c>
-      <c r="IG17" s="26">
+      <c r="IG17" s="16">
         <v>1056251</v>
       </c>
-      <c r="IH17" s="24">
+      <c r="IH17" s="14">
         <v>678477</v>
       </c>
-      <c r="II17" s="25">
+      <c r="II17" s="15">
         <v>382478</v>
       </c>
-      <c r="IJ17" s="26">
+      <c r="IJ17" s="16">
         <v>1060955</v>
       </c>
-      <c r="IK17" s="24">
+      <c r="IK17" s="14">
         <v>679477</v>
       </c>
-      <c r="IL17" s="25">
+      <c r="IL17" s="15">
         <v>384679</v>
       </c>
-      <c r="IM17" s="26">
+      <c r="IM17" s="16">
         <v>1064156</v>
       </c>
-      <c r="IN17" s="25">
+      <c r="IN17" s="15">
         <v>687009</v>
       </c>
-      <c r="IO17" s="25">
+      <c r="IO17" s="15">
         <v>388514</v>
       </c>
-      <c r="IP17" s="25">
+      <c r="IP17" s="15">
         <v>1075523</v>
       </c>
-      <c r="IQ17" s="25">
+      <c r="IQ17" s="15">
         <v>679224</v>
       </c>
-      <c r="IR17" s="25">
+      <c r="IR17" s="15">
         <v>383671</v>
       </c>
-      <c r="IS17" s="25">
+      <c r="IS17" s="15">
         <v>1062895</v>
       </c>
-      <c r="IT17" s="24">
+      <c r="IT17" s="14">
         <v>683944</v>
       </c>
-      <c r="IU17" s="25">
+      <c r="IU17" s="15">
         <v>383619</v>
       </c>
-      <c r="IV17" s="26">
+      <c r="IV17" s="16">
         <v>1067563</v>
       </c>
-      <c r="IW17" s="24">
+      <c r="IW17" s="14">
         <v>688848</v>
       </c>
-      <c r="IX17" s="25">
+      <c r="IX17" s="15">
         <v>384886</v>
       </c>
-      <c r="IY17" s="26">
+      <c r="IY17" s="16">
         <v>1073734</v>
       </c>
-      <c r="IZ17" s="25">
+      <c r="IZ17" s="15">
         <v>688758</v>
       </c>
-      <c r="JA17" s="25">
+      <c r="JA17" s="15">
         <v>385401</v>
       </c>
-      <c r="JB17" s="26">
+      <c r="JB17" s="16">
         <v>1074159</v>
       </c>
-      <c r="JC17" s="25">
+      <c r="JC17" s="15">
         <v>689262</v>
       </c>
-      <c r="JD17" s="25">
+      <c r="JD17" s="15">
         <v>385346</v>
       </c>
-      <c r="JE17" s="26">
+      <c r="JE17" s="16">
         <v>1074608</v>
       </c>
-      <c r="JF17" s="25">
+      <c r="JF17" s="15">
         <v>691113</v>
       </c>
-      <c r="JG17" s="25">
+      <c r="JG17" s="15">
         <v>385690</v>
       </c>
-      <c r="JH17" s="26">
+      <c r="JH17" s="16">
         <v>1076803</v>
       </c>
-      <c r="JI17" s="25">
+      <c r="JI17" s="15">
         <v>690487</v>
       </c>
-      <c r="JJ17" s="25">
+      <c r="JJ17" s="15">
         <v>387321</v>
       </c>
-      <c r="JK17" s="26">
+      <c r="JK17" s="16">
         <v>1077808</v>
       </c>
-      <c r="JL17" s="25">
+      <c r="JL17" s="15">
         <v>690364</v>
       </c>
-      <c r="JM17" s="25">
+      <c r="JM17" s="15">
         <v>386915</v>
       </c>
-      <c r="JN17" s="26">
+      <c r="JN17" s="16">
         <v>1077279</v>
       </c>
-      <c r="JO17" s="25">
+      <c r="JO17" s="15">
         <v>692240</v>
       </c>
-      <c r="JP17" s="25">
+      <c r="JP17" s="15">
         <v>386879</v>
       </c>
-      <c r="JQ17" s="26">
+      <c r="JQ17" s="16">
         <v>1079119</v>
       </c>
-      <c r="JR17" s="25">
+      <c r="JR17" s="15">
         <v>697561</v>
       </c>
-      <c r="JS17" s="25">
+      <c r="JS17" s="15">
         <v>391006</v>
       </c>
-      <c r="JT17" s="26">
+      <c r="JT17" s="16">
         <v>1088567</v>
       </c>
-      <c r="JU17" s="25">
+      <c r="JU17" s="15">
         <v>703043</v>
       </c>
-      <c r="JV17" s="25">
+      <c r="JV17" s="15">
         <v>396287</v>
       </c>
-      <c r="JW17" s="26">
+      <c r="JW17" s="16">
         <v>1099330</v>
       </c>
-      <c r="JX17" s="25">
+      <c r="JX17" s="15">
         <v>710631</v>
       </c>
-      <c r="JY17" s="25">
+      <c r="JY17" s="15">
         <v>402608</v>
       </c>
-      <c r="JZ17" s="25">
+      <c r="JZ17" s="15">
         <v>1113239</v>
       </c>
-      <c r="KA17" s="25">
+      <c r="KA17" s="15">
         <v>700000</v>
       </c>
-      <c r="KB17" s="25">
+      <c r="KB17" s="15">
         <v>395746</v>
       </c>
-      <c r="KC17" s="26">
+      <c r="KC17" s="16">
         <v>1095746</v>
       </c>
-      <c r="KD17" s="25">
+      <c r="KD17" s="15">
         <v>704923</v>
       </c>
-      <c r="KE17" s="25">
+      <c r="KE17" s="15">
         <v>396334</v>
       </c>
-      <c r="KF17" s="26">
+      <c r="KF17" s="16">
         <v>1101257</v>
       </c>
-      <c r="KG17" s="25">
+      <c r="KG17" s="15">
         <v>709496</v>
       </c>
-      <c r="KH17" s="25">
+      <c r="KH17" s="15">
         <v>399529</v>
       </c>
-      <c r="KI17" s="26">
+      <c r="KI17" s="16">
         <v>1109025</v>
       </c>
-      <c r="KJ17" s="25">
+      <c r="KJ17" s="15">
         <v>715920</v>
       </c>
-      <c r="KK17" s="25">
+      <c r="KK17" s="15">
         <v>403289</v>
       </c>
-      <c r="KL17" s="26">
+      <c r="KL17" s="16">
         <v>1119209</v>
       </c>
-      <c r="KM17" s="25">
+      <c r="KM17" s="15">
         <v>712141</v>
       </c>
-      <c r="KN17" s="25">
+      <c r="KN17" s="15">
         <v>404346</v>
       </c>
-      <c r="KO17" s="26">
+      <c r="KO17" s="16">
         <v>1116487</v>
       </c>
-      <c r="KP17" s="25">
+      <c r="KP17" s="15">
         <v>713964</v>
       </c>
-      <c r="KQ17" s="25">
+      <c r="KQ17" s="15">
         <v>407315</v>
       </c>
-      <c r="KR17" s="26">
+      <c r="KR17" s="16">
         <v>1121279</v>
       </c>
-      <c r="KS17" s="25">
+      <c r="KS17" s="15">
         <v>717912</v>
       </c>
-      <c r="KT17" s="25">
+      <c r="KT17" s="15">
         <v>411350</v>
       </c>
-      <c r="KU17" s="26">
+      <c r="KU17" s="16">
         <v>1129262</v>
       </c>
-      <c r="KV17" s="25">
+      <c r="KV17" s="15">
         <v>720399</v>
       </c>
-      <c r="KW17" s="25">
+      <c r="KW17" s="15">
         <v>411820</v>
       </c>
-      <c r="KX17" s="26">
+      <c r="KX17" s="16">
         <v>1132219</v>
       </c>
-      <c r="KY17" s="25">
+      <c r="KY17" s="15">
         <v>724729</v>
       </c>
-      <c r="KZ17" s="25">
+      <c r="KZ17" s="15">
         <v>413937</v>
       </c>
-      <c r="LA17" s="26">
+      <c r="LA17" s="16">
         <v>1138666</v>
       </c>
-      <c r="LB17" s="25">
+      <c r="LB17" s="15">
         <v>728857</v>
       </c>
-      <c r="LC17" s="25">
+      <c r="LC17" s="15">
         <v>418563</v>
       </c>
-      <c r="LD17" s="26">
+      <c r="LD17" s="16">
         <v>1147420</v>
       </c>
-      <c r="LE17" s="25">
+      <c r="LE17" s="15">
         <v>734705</v>
       </c>
-      <c r="LF17" s="25">
+      <c r="LF17" s="15">
         <v>423034</v>
       </c>
-      <c r="LG17" s="26">
+      <c r="LG17" s="16">
         <v>1157739</v>
       </c>
-      <c r="LH17" s="25">
+      <c r="LH17" s="15">
         <v>741332</v>
       </c>
-      <c r="LI17" s="25">
+      <c r="LI17" s="15">
         <v>427039</v>
       </c>
-      <c r="LJ17" s="26">
+      <c r="LJ17" s="16">
         <v>1168371</v>
       </c>
-      <c r="LK17" s="25">
+      <c r="LK17" s="15">
         <v>728264</v>
       </c>
-      <c r="LL17" s="25">
+      <c r="LL17" s="15">
         <v>418879</v>
       </c>
-      <c r="LM17" s="26">
+      <c r="LM17" s="16">
         <v>1147143</v>
       </c>
-      <c r="LN17" s="24">
+      <c r="LN17" s="14">
         <v>738309</v>
       </c>
-      <c r="LO17" s="25">
+      <c r="LO17" s="15">
         <v>421161</v>
       </c>
-      <c r="LP17" s="26">
+      <c r="LP17" s="16">
         <v>1159470</v>
       </c>
-      <c r="LQ17" s="25">
+      <c r="LQ17" s="15">
         <v>743777</v>
       </c>
-      <c r="LR17" s="25">
+      <c r="LR17" s="15">
         <v>423294</v>
       </c>
-      <c r="LS17" s="26">
+      <c r="LS17" s="16">
         <v>1167071</v>
       </c>
-      <c r="LT17" s="25">
+      <c r="LT17" s="15">
         <v>746837</v>
       </c>
-      <c r="LU17" s="25">
+      <c r="LU17" s="15">
         <v>426411</v>
       </c>
-      <c r="LV17" s="26">
+      <c r="LV17" s="16">
         <v>1173248</v>
       </c>
-      <c r="LW17" s="25">
+      <c r="LW17" s="15">
         <v>748845</v>
       </c>
-      <c r="LX17" s="25">
+      <c r="LX17" s="15">
         <v>426797</v>
       </c>
-      <c r="LY17" s="26">
+      <c r="LY17" s="16">
         <v>1175642</v>
       </c>
-      <c r="LZ17" s="25">
+      <c r="LZ17" s="15">
         <v>747944</v>
       </c>
-      <c r="MA17" s="25">
+      <c r="MA17" s="15">
         <v>429606</v>
       </c>
-      <c r="MB17" s="26">
+      <c r="MB17" s="16">
         <v>1177550</v>
       </c>
-      <c r="MC17" s="25">
+      <c r="MC17" s="15">
         <v>750444</v>
       </c>
-      <c r="MD17" s="25">
+      <c r="MD17" s="15">
         <v>430862</v>
       </c>
-      <c r="ME17" s="26">
+      <c r="ME17" s="16">
         <v>1181306</v>
       </c>
-      <c r="MF17" s="25">
+      <c r="MF17" s="15">
         <v>754721</v>
       </c>
-      <c r="MG17" s="25">
+      <c r="MG17" s="15">
         <v>431884</v>
       </c>
-      <c r="MH17" s="26">
+      <c r="MH17" s="16">
         <v>1186605</v>
       </c>
-      <c r="MI17" s="25">
+      <c r="MI17" s="15">
         <v>757657</v>
       </c>
-      <c r="MJ17" s="25">
+      <c r="MJ17" s="15">
         <v>433780</v>
       </c>
-      <c r="MK17" s="26">
+      <c r="MK17" s="16">
         <v>1191437</v>
       </c>
-      <c r="ML17" s="25">
+      <c r="ML17" s="15">
         <v>759367</v>
       </c>
-      <c r="MM17" s="25">
+      <c r="MM17" s="15">
         <v>437012</v>
       </c>
-      <c r="MN17" s="26">
+      <c r="MN17" s="16">
         <v>1196379</v>
       </c>
-      <c r="MO17" s="25">
+      <c r="MO17" s="15">
         <v>766965</v>
       </c>
-      <c r="MP17" s="25">
+      <c r="MP17" s="15">
         <v>443116</v>
       </c>
-      <c r="MQ17" s="26">
+      <c r="MQ17" s="16">
         <v>1210081</v>
       </c>
-      <c r="MR17" s="25">
+      <c r="MR17" s="15">
         <v>771943</v>
       </c>
-      <c r="MS17" s="25">
+      <c r="MS17" s="15">
         <v>447671</v>
       </c>
-      <c r="MT17" s="26">
+      <c r="MT17" s="16">
         <v>1219614</v>
       </c>
-      <c r="MU17" s="25">
+      <c r="MU17" s="15">
         <v>755758</v>
       </c>
-      <c r="MV17" s="25">
+      <c r="MV17" s="15">
         <v>438628</v>
       </c>
-      <c r="MW17" s="26">
+      <c r="MW17" s="16">
         <v>1194386</v>
       </c>
-      <c r="MX17" s="25">
+      <c r="MX17" s="15">
         <v>766644</v>
       </c>
-      <c r="MY17" s="25">
+      <c r="MY17" s="15">
         <v>439747</v>
       </c>
-      <c r="MZ17" s="26">
+      <c r="MZ17" s="16">
         <v>1206391</v>
       </c>
-      <c r="NA17" s="25">
+      <c r="NA17" s="15">
         <v>772151</v>
       </c>
-      <c r="NB17" s="25">
+      <c r="NB17" s="15">
         <v>441915</v>
       </c>
-      <c r="NC17" s="26">
+      <c r="NC17" s="16">
         <v>1214066</v>
       </c>
-      <c r="ND17" s="25">
+      <c r="ND17" s="15">
         <v>770968</v>
       </c>
-      <c r="NE17" s="25">
+      <c r="NE17" s="15">
         <v>443047</v>
       </c>
-      <c r="NF17" s="26">
+      <c r="NF17" s="16">
         <v>1214015</v>
       </c>
-      <c r="NG17" s="25">
+      <c r="NG17" s="15">
         <v>774405</v>
       </c>
-      <c r="NH17" s="25">
+      <c r="NH17" s="15">
         <v>444341</v>
       </c>
-      <c r="NI17" s="26">
+      <c r="NI17" s="16">
         <v>1218746</v>
       </c>
-      <c r="NJ17" s="25">
+      <c r="NJ17" s="15">
         <v>770593</v>
       </c>
-      <c r="NK17" s="25">
+      <c r="NK17" s="15">
         <v>445423</v>
       </c>
-      <c r="NL17" s="26">
+      <c r="NL17" s="16">
         <v>1216016</v>
       </c>
-      <c r="NM17" s="25">
+      <c r="NM17" s="15">
         <v>771247</v>
       </c>
-      <c r="NN17" s="25">
+      <c r="NN17" s="15">
         <v>448025</v>
       </c>
-      <c r="NO17" s="26">
+      <c r="NO17" s="16">
         <v>1219272</v>
       </c>
-      <c r="NP17" s="25">
+      <c r="NP17" s="15">
         <v>771688</v>
       </c>
-      <c r="NQ17" s="25">
+      <c r="NQ17" s="15">
         <v>448456</v>
       </c>
-      <c r="NR17" s="26">
+      <c r="NR17" s="16">
         <v>1220144</v>
       </c>
-      <c r="NS17" s="25">
+      <c r="NS17" s="15">
         <v>773808</v>
       </c>
-      <c r="NT17" s="25">
+      <c r="NT17" s="15">
         <v>449163</v>
       </c>
-      <c r="NU17" s="26">
+      <c r="NU17" s="16">
         <v>1222971</v>
       </c>
-      <c r="NV17" s="25">
+      <c r="NV17" s="15">
         <v>774801</v>
       </c>
-      <c r="NW17" s="25">
+      <c r="NW17" s="15">
         <v>451914</v>
       </c>
-      <c r="NX17" s="26">
+      <c r="NX17" s="16">
         <v>1226715</v>
       </c>
-      <c r="NY17" s="25">
+      <c r="NY17" s="15">
         <v>773972</v>
       </c>
-      <c r="NZ17" s="25">
+      <c r="NZ17" s="15">
         <v>454058</v>
       </c>
-      <c r="OA17" s="26">
+      <c r="OA17" s="16">
         <v>1228030</v>
       </c>
-      <c r="OB17" s="25">
+      <c r="OB17" s="15">
         <v>771086</v>
       </c>
-      <c r="OC17" s="25">
+      <c r="OC17" s="15">
         <v>454252</v>
       </c>
-      <c r="OD17" s="26">
+      <c r="OD17" s="16">
         <v>1225338</v>
       </c>
-      <c r="OE17" s="25">
+      <c r="OE17" s="15">
         <v>757973</v>
       </c>
-      <c r="OF17" s="25">
+      <c r="OF17" s="15">
         <v>446617</v>
       </c>
-      <c r="OG17" s="26">
+      <c r="OG17" s="16">
         <v>1204590</v>
       </c>
-      <c r="OH17" s="25">
+      <c r="OH17" s="15">
         <v>757059</v>
       </c>
-      <c r="OI17" s="25">
+      <c r="OI17" s="15">
         <v>443133</v>
       </c>
-      <c r="OJ17" s="26">
+      <c r="OJ17" s="16">
         <v>1200192</v>
       </c>
-      <c r="OK17" s="25">
+      <c r="OK17" s="15">
         <v>753771</v>
       </c>
-      <c r="OL17" s="25">
+      <c r="OL17" s="15">
         <v>440944</v>
       </c>
-      <c r="OM17" s="26">
+      <c r="OM17" s="16">
         <v>1194715</v>
       </c>
-      <c r="ON17" s="25">
+      <c r="ON17" s="15">
         <v>756290</v>
       </c>
-      <c r="OO17" s="25">
+      <c r="OO17" s="15">
         <v>442515</v>
       </c>
-      <c r="OP17" s="26">
+      <c r="OP17" s="16">
         <v>1198805</v>
       </c>
-      <c r="OQ17" s="25">
+      <c r="OQ17" s="15">
         <v>752250</v>
       </c>
-      <c r="OR17" s="25">
+      <c r="OR17" s="15">
         <v>441697</v>
       </c>
-      <c r="OS17" s="26">
+      <c r="OS17" s="16">
         <v>1193947</v>
       </c>
-      <c r="OT17" s="25">
+      <c r="OT17" s="15">
         <v>749115</v>
       </c>
-      <c r="OU17" s="25">
+      <c r="OU17" s="15">
         <v>441147</v>
       </c>
-      <c r="OV17" s="26">
+      <c r="OV17" s="16">
         <v>1190262</v>
       </c>
-      <c r="OW17" s="25">
+      <c r="OW17" s="15">
         <v>751390</v>
       </c>
-      <c r="OX17" s="25">
+      <c r="OX17" s="15">
         <v>443373</v>
       </c>
-      <c r="OY17" s="26">
+      <c r="OY17" s="16">
         <v>1194763</v>
       </c>
-      <c r="OZ17" s="25">
+      <c r="OZ17" s="15">
         <v>750174</v>
       </c>
-      <c r="PA17" s="25">
+      <c r="PA17" s="15">
         <v>448344</v>
       </c>
-      <c r="PB17" s="26">
+      <c r="PB17" s="16">
         <v>1198518</v>
       </c>
-      <c r="PC17" s="25">
+      <c r="PC17" s="15">
         <v>749857</v>
       </c>
-      <c r="PD17" s="25">
+      <c r="PD17" s="15">
         <v>449129</v>
       </c>
-      <c r="PE17" s="25">
+      <c r="PE17" s="15">
         <v>1198986</v>
       </c>
-      <c r="PF17" s="25">
+      <c r="PF17" s="15">
         <v>748596</v>
       </c>
-      <c r="PG17" s="25">
+      <c r="PG17" s="15">
         <v>449135</v>
       </c>
-      <c r="PH17" s="25">
+      <c r="PH17" s="15">
         <v>1197731</v>
       </c>
-      <c r="PI17" s="25">
+      <c r="PI17" s="15">
         <v>755439</v>
       </c>
-      <c r="PJ17" s="25">
+      <c r="PJ17" s="15">
         <v>455225</v>
       </c>
-      <c r="PK17" s="25">
+      <c r="PK17" s="15">
         <v>1210664</v>
       </c>
-      <c r="PL17" s="25">
+      <c r="PL17" s="15">
         <v>762054</v>
       </c>
-      <c r="PM17" s="25">
+      <c r="PM17" s="15">
         <v>459853</v>
       </c>
-      <c r="PN17" s="25">
+      <c r="PN17" s="15">
         <v>1221907</v>
       </c>
-      <c r="PO17" s="25">
+      <c r="PO17" s="15">
         <v>754315</v>
       </c>
-      <c r="PP17" s="25">
+      <c r="PP17" s="15">
         <v>453704</v>
       </c>
-      <c r="PQ17" s="25">
+      <c r="PQ17" s="15">
         <v>1208019</v>
       </c>
-      <c r="PR17" s="25">
+      <c r="PR17" s="15">
         <v>755618</v>
       </c>
-      <c r="PS17" s="25">
+      <c r="PS17" s="15">
         <v>452068</v>
       </c>
-      <c r="PT17" s="26">
+      <c r="PT17" s="16">
         <v>1207686</v>
       </c>
-      <c r="PU17" s="25">
+      <c r="PU17" s="15">
         <v>760800</v>
       </c>
-      <c r="PV17" s="25">
+      <c r="PV17" s="15">
         <v>454759</v>
       </c>
-      <c r="PW17" s="26">
+      <c r="PW17" s="16">
         <v>1215559</v>
       </c>
-      <c r="PX17" s="25">
+      <c r="PX17" s="15">
         <v>767065</v>
       </c>
-      <c r="PY17" s="25">
+      <c r="PY17" s="15">
         <v>459113</v>
       </c>
-      <c r="PZ17" s="26">
+      <c r="PZ17" s="16">
         <v>1226178</v>
       </c>
-      <c r="QA17" s="25">
+      <c r="QA17" s="15">
         <v>771646</v>
       </c>
-      <c r="QB17" s="25">
+      <c r="QB17" s="15">
         <v>460554</v>
       </c>
-      <c r="QC17" s="26">
+      <c r="QC17" s="16">
         <v>1232200</v>
       </c>
-      <c r="QD17" s="25">
+      <c r="QD17" s="15">
         <v>770278</v>
       </c>
-      <c r="QE17" s="25">
+      <c r="QE17" s="15">
         <v>462921</v>
       </c>
-      <c r="QF17" s="26">
+      <c r="QF17" s="16">
         <v>1233199</v>
       </c>
-      <c r="QG17" s="25">
+      <c r="QG17" s="15">
         <v>773605</v>
       </c>
-      <c r="QH17" s="25">
+      <c r="QH17" s="15">
         <v>462920</v>
       </c>
-      <c r="QI17" s="26">
+      <c r="QI17" s="16">
         <v>1236525</v>
       </c>
-      <c r="QJ17" s="25">
+      <c r="QJ17" s="15">
         <v>778503</v>
       </c>
-      <c r="QK17" s="25">
+      <c r="QK17" s="15">
         <v>464913</v>
       </c>
-      <c r="QL17" s="26">
+      <c r="QL17" s="16">
         <v>1243416</v>
       </c>
-      <c r="QM17" s="25">
+      <c r="QM17" s="15">
         <v>784065</v>
       </c>
-      <c r="QN17" s="25">
+      <c r="QN17" s="15">
         <v>467451</v>
       </c>
-      <c r="QO17" s="26">
+      <c r="QO17" s="16">
         <v>1251516</v>
       </c>
-      <c r="QP17" s="25">
+      <c r="QP17" s="15">
         <v>787106</v>
       </c>
-      <c r="QQ17" s="25">
+      <c r="QQ17" s="15">
         <v>469492</v>
       </c>
-      <c r="QR17" s="26">
+      <c r="QR17" s="16">
         <v>1256598</v>
       </c>
-      <c r="QS17" s="25">
+      <c r="QS17" s="15">
         <v>794006</v>
       </c>
-      <c r="QT17" s="25">
+      <c r="QT17" s="15">
         <v>474028</v>
       </c>
-      <c r="QU17" s="26">
+      <c r="QU17" s="16">
         <v>1268034</v>
       </c>
-      <c r="QV17" s="25">
+      <c r="QV17" s="15">
         <v>799285</v>
       </c>
-      <c r="QW17" s="25">
+      <c r="QW17" s="15">
         <v>478029</v>
       </c>
-      <c r="QX17" s="26">
+      <c r="QX17" s="16">
         <v>1277314</v>
       </c>
-      <c r="QY17" s="25">
+      <c r="QY17" s="15">
         <v>791788</v>
       </c>
-      <c r="QZ17" s="25">
+      <c r="QZ17" s="15">
         <v>471699</v>
       </c>
-      <c r="RA17" s="26">
+      <c r="RA17" s="16">
         <v>1263487</v>
       </c>
-      <c r="RB17" s="25">
+      <c r="RB17" s="15">
         <v>793505</v>
       </c>
-      <c r="RC17" s="25">
+      <c r="RC17" s="15">
         <v>471283</v>
       </c>
-      <c r="RD17" s="26">
+      <c r="RD17" s="16">
         <v>1264788</v>
       </c>
-      <c r="RE17" s="25">
+      <c r="RE17" s="15">
         <v>800281</v>
       </c>
-      <c r="RF17" s="25">
+      <c r="RF17" s="15">
         <v>474032</v>
       </c>
-      <c r="RG17" s="26">
+      <c r="RG17" s="16">
         <v>1274313</v>
       </c>
-      <c r="RH17" s="25">
+      <c r="RH17" s="15">
         <v>806262</v>
       </c>
-      <c r="RI17" s="25">
+      <c r="RI17" s="15">
         <v>475989</v>
       </c>
-      <c r="RJ17" s="26">
+      <c r="RJ17" s="16">
         <v>1282251</v>
       </c>
-      <c r="RK17" s="25">
+      <c r="RK17" s="15">
         <v>805622</v>
       </c>
-      <c r="RL17" s="25">
+      <c r="RL17" s="15">
         <v>478423</v>
       </c>
-      <c r="RM17" s="26">
+      <c r="RM17" s="16">
         <v>1284045</v>
       </c>
-      <c r="RN17" s="25">
+      <c r="RN17" s="15">
         <v>806849</v>
       </c>
-      <c r="RO17" s="25">
+      <c r="RO17" s="15">
         <v>478961</v>
       </c>
-      <c r="RP17" s="26">
+      <c r="RP17" s="16">
         <v>1285810</v>
       </c>
-      <c r="RQ17" s="25">
+      <c r="RQ17" s="15">
         <v>809591</v>
       </c>
-      <c r="RR17" s="25">
+      <c r="RR17" s="15">
         <v>479231</v>
       </c>
-      <c r="RS17" s="25">
+      <c r="RS17" s="15">
         <v>1288822</v>
       </c>
-      <c r="RT17" s="25">
+      <c r="RT17" s="15">
         <v>811954</v>
       </c>
-      <c r="RU17" s="25">
+      <c r="RU17" s="15">
         <v>482438</v>
       </c>
-      <c r="RV17" s="26">
+      <c r="RV17" s="16">
         <v>1294392</v>
       </c>
-      <c r="RW17" s="25">
+      <c r="RW17" s="15">
         <v>814529</v>
       </c>
-      <c r="RX17" s="25">
+      <c r="RX17" s="15">
         <v>484531</v>
       </c>
-      <c r="RY17" s="26">
+      <c r="RY17" s="16">
         <v>1299060</v>
       </c>
-      <c r="RZ17" s="25">
+      <c r="RZ17" s="15">
         <v>820001</v>
       </c>
-      <c r="SA17" s="25">
+      <c r="SA17" s="15">
         <v>487964</v>
       </c>
-      <c r="SB17" s="26">
+      <c r="SB17" s="16">
         <v>1307965</v>
       </c>
-      <c r="SC17" s="25">
+      <c r="SC17" s="15">
         <v>825121</v>
       </c>
-      <c r="SD17" s="25">
+      <c r="SD17" s="15">
         <v>492754</v>
       </c>
-      <c r="SE17" s="26">
+      <c r="SE17" s="16">
         <v>1317875</v>
       </c>
-      <c r="SF17" s="25">
+      <c r="SF17" s="15">
         <v>829644</v>
       </c>
-      <c r="SG17" s="25">
+      <c r="SG17" s="15">
         <v>495940</v>
       </c>
-      <c r="SH17" s="26">
+      <c r="SH17" s="16">
         <v>1325584</v>
       </c>
-      <c r="SI17" s="25">
+      <c r="SI17" s="15">
         <v>819880</v>
       </c>
-      <c r="SJ17" s="25">
+      <c r="SJ17" s="15">
         <v>488402</v>
       </c>
-      <c r="SK17" s="26">
+      <c r="SK17" s="16">
         <v>1308282</v>
       </c>
-      <c r="SL17" s="25">
+      <c r="SL17" s="15">
         <v>820385</v>
       </c>
-      <c r="SM17" s="25">
+      <c r="SM17" s="15">
         <v>487014</v>
       </c>
-      <c r="SN17" s="26">
+      <c r="SN17" s="16">
         <v>1307399</v>
       </c>
-      <c r="SO17" s="25">
+      <c r="SO17" s="15">
         <v>826162</v>
       </c>
-      <c r="SP17" s="25">
+      <c r="SP17" s="15">
         <v>490206</v>
       </c>
-      <c r="SQ17" s="26">
+      <c r="SQ17" s="16">
         <v>1316368</v>
       </c>
-      <c r="SR17" s="25">
+      <c r="SR17" s="15">
         <v>833971</v>
       </c>
-      <c r="SS17" s="25">
+      <c r="SS17" s="15">
         <v>493295</v>
       </c>
-      <c r="ST17" s="26">
+      <c r="ST17" s="16">
         <v>1327266</v>
       </c>
-      <c r="SU17" s="25">
+      <c r="SU17" s="15">
         <v>832524</v>
       </c>
-      <c r="SV17" s="25">
+      <c r="SV17" s="15">
         <v>493455</v>
       </c>
-      <c r="SW17" s="26">
+      <c r="SW17" s="16">
         <v>1325979</v>
       </c>
-      <c r="SX17" s="25">
+      <c r="SX17" s="15">
         <v>835819</v>
       </c>
-      <c r="SY17" s="25">
+      <c r="SY17" s="15">
         <v>489964</v>
       </c>
-      <c r="SZ17" s="26">
+      <c r="SZ17" s="16">
         <v>1325783</v>
       </c>
-      <c r="TA17" s="25">
+      <c r="TA17" s="15">
         <v>835932</v>
       </c>
-      <c r="TB17" s="25">
+      <c r="TB17" s="15">
         <v>492081</v>
       </c>
-      <c r="TC17" s="26">
+      <c r="TC17" s="16">
         <v>1328013</v>
       </c>
-      <c r="TD17" s="25">
+      <c r="TD17" s="15">
         <v>841239</v>
       </c>
-      <c r="TE17" s="25">
+      <c r="TE17" s="15">
         <v>492880</v>
       </c>
-      <c r="TF17" s="26">
+      <c r="TF17" s="16">
         <v>1334119</v>
       </c>
-      <c r="TG17" s="25">
+      <c r="TG17" s="15">
         <v>842185</v>
       </c>
-      <c r="TH17" s="25">
+      <c r="TH17" s="15">
         <v>493486</v>
       </c>
-      <c r="TI17" s="26">
+      <c r="TI17" s="16">
         <v>1335671</v>
       </c>
-      <c r="TJ17" s="25">
+      <c r="TJ17" s="15">
         <v>843468</v>
       </c>
-      <c r="TK17" s="25">
+      <c r="TK17" s="15">
         <v>496757</v>
       </c>
-      <c r="TL17" s="26">
+      <c r="TL17" s="16">
         <v>1340225</v>
       </c>
-      <c r="TM17" s="25">
+      <c r="TM17" s="15">
         <v>848926</v>
       </c>
-      <c r="TN17" s="25">
+      <c r="TN17" s="15">
         <v>500728</v>
       </c>
-      <c r="TO17" s="26">
+      <c r="TO17" s="16">
         <v>1349654</v>
       </c>
-      <c r="TP17" s="25">
+      <c r="TP17" s="15">
         <v>853539</v>
       </c>
-      <c r="TQ17" s="25">
+      <c r="TQ17" s="15">
         <v>505031</v>
       </c>
-      <c r="TR17" s="26">
+      <c r="TR17" s="16">
         <v>1358570</v>
       </c>
-      <c r="TS17" s="25">
+      <c r="TS17" s="15">
         <v>847613</v>
       </c>
-      <c r="TT17" s="25">
+      <c r="TT17" s="15">
         <v>502044</v>
       </c>
-      <c r="TU17" s="26">
+      <c r="TU17" s="16">
         <v>1349657</v>
       </c>
-      <c r="TV17" s="25">
+      <c r="TV17" s="15">
         <v>851400</v>
       </c>
-      <c r="TW17" s="25">
+      <c r="TW17" s="15">
         <v>501965</v>
       </c>
-      <c r="TX17" s="26">
+      <c r="TX17" s="16">
         <v>1353365</v>
       </c>
-      <c r="TY17" s="25">
+      <c r="TY17" s="15">
         <v>852373</v>
       </c>
-      <c r="TZ17" s="25">
+      <c r="TZ17" s="15">
         <v>509119</v>
       </c>
-      <c r="UA17" s="26">
+      <c r="UA17" s="16">
         <v>1361492</v>
       </c>
-      <c r="UB17" s="25">
+      <c r="UB17" s="15">
         <v>856394</v>
       </c>
-      <c r="UC17" s="25">
+      <c r="UC17" s="15">
         <v>512225</v>
       </c>
-      <c r="UD17" s="26">
+      <c r="UD17" s="16">
         <v>1368619</v>
       </c>
-      <c r="UE17" s="25">
+      <c r="UE17" s="15">
         <v>861070</v>
       </c>
-      <c r="UF17" s="25">
+      <c r="UF17" s="15">
         <v>513417</v>
       </c>
-      <c r="UG17" s="26">
+      <c r="UG17" s="16">
         <v>1374487</v>
       </c>
-      <c r="UH17" s="25">
+      <c r="UH17" s="15">
         <v>863211</v>
       </c>
-      <c r="UI17" s="25">
+      <c r="UI17" s="15">
         <v>515107</v>
       </c>
-      <c r="UJ17" s="26">
+      <c r="UJ17" s="16">
         <v>1378318</v>
       </c>
-      <c r="UK17" s="25">
+      <c r="UK17" s="15">
         <v>862897</v>
       </c>
-      <c r="UL17" s="25">
+      <c r="UL17" s="15">
         <v>517172</v>
       </c>
-      <c r="UM17" s="26">
+      <c r="UM17" s="16">
         <v>1380069</v>
       </c>
-      <c r="UN17" s="25">
+      <c r="UN17" s="15">
         <v>864594</v>
       </c>
-      <c r="UO17" s="25">
+      <c r="UO17" s="15">
         <v>518970</v>
       </c>
-      <c r="UP17" s="26">
+      <c r="UP17" s="16">
         <v>1383564</v>
       </c>
-      <c r="UQ17" s="25">
+      <c r="UQ17" s="15">
         <v>866979</v>
       </c>
-      <c r="UR17" s="25">
+      <c r="UR17" s="15">
         <v>520442</v>
       </c>
-      <c r="US17" s="26">
+      <c r="US17" s="16">
         <v>1387421</v>
       </c>
-      <c r="UT17" s="25">
+      <c r="UT17" s="15">
         <v>868303</v>
       </c>
-      <c r="UU17" s="25">
+      <c r="UU17" s="15">
         <v>522739</v>
       </c>
-      <c r="UV17" s="26">
+      <c r="UV17" s="16">
         <v>1391042</v>
       </c>
-      <c r="UW17" s="25">
+      <c r="UW17" s="15">
         <v>876934</v>
       </c>
-      <c r="UX17" s="25">
+      <c r="UX17" s="15">
         <v>526584</v>
       </c>
-      <c r="UY17" s="26">
+      <c r="UY17" s="16">
         <v>1403518</v>
       </c>
-      <c r="UZ17" s="25">
+      <c r="UZ17" s="15">
         <v>884857</v>
       </c>
-      <c r="VA17" s="25">
+      <c r="VA17" s="15">
         <v>525261</v>
       </c>
-      <c r="VB17" s="26">
+      <c r="VB17" s="16">
         <v>1410118</v>
       </c>
-      <c r="VC17" s="25">
+      <c r="VC17" s="15">
         <v>876691</v>
       </c>
-      <c r="VD17" s="25">
+      <c r="VD17" s="15">
         <v>520557</v>
       </c>
-      <c r="VE17" s="26">
+      <c r="VE17" s="16">
         <v>1397248</v>
       </c>
-      <c r="VF17" s="25">
+      <c r="VF17" s="15">
         <v>877132</v>
       </c>
-      <c r="VG17" s="25">
+      <c r="VG17" s="15">
         <v>519431</v>
       </c>
-      <c r="VH17" s="26">
+      <c r="VH17" s="16">
         <v>1396563</v>
       </c>
-      <c r="VI17" s="25">
+      <c r="VI17" s="15">
         <v>880619</v>
       </c>
-      <c r="VJ17" s="25">
+      <c r="VJ17" s="15">
         <v>521884</v>
       </c>
-      <c r="VK17" s="26">
+      <c r="VK17" s="16">
         <v>1402503</v>
       </c>
-      <c r="VL17" s="25">
+      <c r="VL17" s="15">
         <v>887920</v>
       </c>
-      <c r="VM17" s="25">
+      <c r="VM17" s="15">
         <v>525423</v>
       </c>
-      <c r="VN17" s="26">
+      <c r="VN17" s="16">
         <v>1413343</v>
       </c>
-      <c r="VO17" s="25">
+      <c r="VO17" s="15">
         <v>889228</v>
       </c>
-      <c r="VP17" s="25">
+      <c r="VP17" s="15">
         <v>526387</v>
       </c>
-      <c r="VQ17" s="26">
+      <c r="VQ17" s="16">
         <v>1415615</v>
       </c>
-      <c r="VR17" s="25">
+      <c r="VR17" s="15">
         <v>893771</v>
       </c>
-      <c r="VS17" s="25">
+      <c r="VS17" s="15">
         <v>527538</v>
       </c>
-      <c r="VT17" s="26">
+      <c r="VT17" s="16">
         <v>1421309</v>
       </c>
-      <c r="VU17" s="25">
+      <c r="VU17" s="15">
         <v>893247</v>
       </c>
-      <c r="VV17" s="25">
+      <c r="VV17" s="15">
         <v>530373</v>
       </c>
-      <c r="VW17" s="26">
+      <c r="VW17" s="16">
         <v>1423620</v>
       </c>
-      <c r="VX17" s="25">
+      <c r="VX17" s="15">
         <v>900946</v>
       </c>
-      <c r="VY17" s="25">
+      <c r="VY17" s="15">
         <v>532795</v>
       </c>
-      <c r="VZ17" s="25">
+      <c r="VZ17" s="15">
         <v>1433741</v>
       </c>
-      <c r="WA17" s="25">
+      <c r="WA17" s="15">
         <v>901438</v>
       </c>
-      <c r="WB17" s="25">
+      <c r="WB17" s="15">
         <v>533865</v>
       </c>
-      <c r="WC17" s="26">
+      <c r="WC17" s="16">
         <v>1435303</v>
       </c>
-      <c r="WD17" s="25">
+      <c r="WD17" s="15">
         <v>908348</v>
       </c>
-      <c r="WE17" s="25">
+      <c r="WE17" s="15">
         <v>538771</v>
       </c>
-      <c r="WF17" s="26">
+      <c r="WF17" s="16">
         <v>1447119</v>
       </c>
-      <c r="WG17" s="25">
+      <c r="WG17" s="15">
         <v>919682</v>
       </c>
-      <c r="WH17" s="25">
+      <c r="WH17" s="15">
         <v>543368</v>
       </c>
-      <c r="WI17" s="26">
+      <c r="WI17" s="16">
         <v>1463050</v>
       </c>
-      <c r="WJ17" s="25">
+      <c r="WJ17" s="15">
         <v>927812</v>
       </c>
-      <c r="WK17" s="25">
+      <c r="WK17" s="15">
         <v>549360</v>
       </c>
-      <c r="WL17" s="26">
+      <c r="WL17" s="16">
         <v>1477172</v>
       </c>
-      <c r="WM17" s="25">
+      <c r="WM17" s="15">
         <v>918757</v>
       </c>
-      <c r="WN17" s="25">
+      <c r="WN17" s="15">
         <v>544583</v>
       </c>
-      <c r="WO17" s="26">
+      <c r="WO17" s="16">
         <v>1463340</v>
       </c>
-      <c r="WP17" s="25">
+      <c r="WP17" s="15">
         <v>923952</v>
       </c>
-      <c r="WQ17" s="25">
+      <c r="WQ17" s="15">
         <v>542896</v>
       </c>
-      <c r="WR17" s="26">
+      <c r="WR17" s="16">
         <v>1466848</v>
       </c>
-      <c r="WS17" s="25">
+      <c r="WS17" s="15">
         <v>932840</v>
       </c>
-      <c r="WT17" s="25">
+      <c r="WT17" s="15">
         <v>546753</v>
       </c>
-      <c r="WU17" s="26">
+      <c r="WU17" s="16">
         <v>1479593</v>
       </c>
-      <c r="WV17" s="25">
+      <c r="WV17" s="15">
         <v>941893</v>
       </c>
-      <c r="WW17" s="25">
+      <c r="WW17" s="15">
         <v>551992</v>
       </c>
-      <c r="WX17" s="26">
+      <c r="WX17" s="16">
         <v>1493885</v>
       </c>
-      <c r="WY17" s="25">
+      <c r="WY17" s="15">
         <v>944094</v>
       </c>
-      <c r="WZ17" s="25">
+      <c r="WZ17" s="15">
         <v>552766</v>
       </c>
-      <c r="XA17" s="26">
+      <c r="XA17" s="16">
         <v>1496860</v>
       </c>
-      <c r="XB17" s="25">
+      <c r="XB17" s="15">
         <v>942557</v>
       </c>
-      <c r="XC17" s="25">
+      <c r="XC17" s="15">
         <v>554033</v>
       </c>
-      <c r="XD17" s="26">
+      <c r="XD17" s="16">
         <v>1496590</v>
       </c>
-      <c r="XE17" s="25">
+      <c r="XE17" s="15">
         <v>939076</v>
       </c>
-      <c r="XF17" s="25">
+      <c r="XF17" s="15">
         <v>555213</v>
       </c>
-      <c r="XG17" s="25">
+      <c r="XG17" s="15">
         <v>1494289</v>
       </c>
-      <c r="XH17" s="25">
+      <c r="XH17" s="15">
         <v>942716</v>
       </c>
-      <c r="XI17" s="25">
+      <c r="XI17" s="15">
         <v>556071</v>
       </c>
-      <c r="XJ17" s="26">
+      <c r="XJ17" s="16">
         <v>1498787</v>
       </c>
-      <c r="XK17" s="25">
+      <c r="XK17" s="15">
         <v>945891</v>
       </c>
-      <c r="XL17" s="25">
+      <c r="XL17" s="15">
         <v>559359</v>
       </c>
-      <c r="XM17" s="26">
+      <c r="XM17" s="16">
         <v>1505250</v>
       </c>
-      <c r="XN17" s="25">
+      <c r="XN17" s="15">
         <v>952916</v>
       </c>
-      <c r="XO17" s="25">
+      <c r="XO17" s="15">
         <v>564794</v>
       </c>
-      <c r="XP17" s="26">
+      <c r="XP17" s="16">
         <v>1517710</v>
       </c>
-      <c r="XQ17" s="25">
+      <c r="XQ17" s="15">
         <v>960657</v>
       </c>
-      <c r="XR17" s="25">
+      <c r="XR17" s="15">
         <v>569790</v>
       </c>
-      <c r="XS17" s="26">
+      <c r="XS17" s="16">
         <v>1530447</v>
       </c>
-      <c r="XT17" s="25">
+      <c r="XT17" s="15">
         <v>971759</v>
       </c>
-      <c r="XU17" s="25">
+      <c r="XU17" s="15">
         <v>577062</v>
       </c>
-      <c r="XV17" s="26">
+      <c r="XV17" s="16">
         <v>1548821</v>
       </c>
-      <c r="XW17" s="25">
+      <c r="XW17" s="15">
         <v>962448</v>
       </c>
-      <c r="XX17" s="25">
+      <c r="XX17" s="15">
         <v>572807</v>
       </c>
-      <c r="XY17" s="26">
+      <c r="XY17" s="16">
         <v>1535255</v>
       </c>
-      <c r="XZ17" s="25">
+      <c r="XZ17" s="15">
         <v>967443</v>
       </c>
-      <c r="YA17" s="25">
+      <c r="YA17" s="15">
         <v>571700</v>
       </c>
-      <c r="YB17" s="25">
+      <c r="YB17" s="15">
         <v>1539143</v>
       </c>
-      <c r="YC17" s="25">
+      <c r="YC17" s="15">
         <v>976042</v>
       </c>
-      <c r="YD17" s="25">
+      <c r="YD17" s="15">
         <v>576307</v>
       </c>
-      <c r="YE17" s="26">
+      <c r="YE17" s="16">
         <v>1552349</v>
       </c>
-      <c r="YF17" s="25">
+      <c r="YF17" s="15">
         <v>980098</v>
       </c>
-      <c r="YG17" s="25">
+      <c r="YG17" s="15">
         <v>579051</v>
       </c>
-      <c r="YH17" s="26">
+      <c r="YH17" s="16">
         <v>1559149</v>
       </c>
-      <c r="YI17" s="25">
+      <c r="YI17" s="15">
         <v>986337</v>
       </c>
-      <c r="YJ17" s="25">
+      <c r="YJ17" s="15">
         <v>583320</v>
       </c>
-      <c r="YK17" s="26">
+      <c r="YK17" s="16">
         <v>1569657</v>
       </c>
-      <c r="YL17" s="25">
+      <c r="YL17" s="15">
         <v>985192</v>
       </c>
-      <c r="YM17" s="25">
+      <c r="YM17" s="15">
         <v>586044</v>
       </c>
-      <c r="YN17" s="26">
+      <c r="YN17" s="16">
         <v>1571236</v>
       </c>
-      <c r="YO17" s="25">
+      <c r="YO17" s="15">
         <v>987205</v>
       </c>
-      <c r="YP17" s="25">
+      <c r="YP17" s="15">
         <v>589634</v>
       </c>
-      <c r="YQ17" s="26">
+      <c r="YQ17" s="16">
         <v>1576839</v>
       </c>
-      <c r="YR17" s="25">
+      <c r="YR17" s="15">
         <v>991025</v>
       </c>
-      <c r="YS17" s="25">
+      <c r="YS17" s="15">
         <v>591304</v>
       </c>
-      <c r="YT17" s="26">
+      <c r="YT17" s="16">
         <v>1582329</v>
       </c>
-      <c r="YU17" s="25">
+      <c r="YU17" s="15">
         <v>996386</v>
       </c>
-      <c r="YV17" s="25">
+      <c r="YV17" s="15">
         <v>595677</v>
       </c>
-      <c r="YW17" s="26">
+      <c r="YW17" s="16">
         <v>1592063</v>
       </c>
-      <c r="YX17" s="25">
+      <c r="YX17" s="15">
         <v>1006134</v>
       </c>
-      <c r="YY17" s="25">
+      <c r="YY17" s="15">
         <v>602489</v>
       </c>
-      <c r="YZ17" s="26">
+      <c r="YZ17" s="16">
         <v>1608623</v>
       </c>
-      <c r="ZA17" s="25">
+      <c r="ZA17" s="15">
         <v>1016604</v>
       </c>
-      <c r="ZB17" s="25">
+      <c r="ZB17" s="15">
         <v>610788</v>
       </c>
-      <c r="ZC17" s="26">
+      <c r="ZC17" s="16">
         <v>1627392</v>
       </c>
-      <c r="ZD17" s="25">
+      <c r="ZD17" s="15">
         <v>1025998</v>
       </c>
-      <c r="ZE17" s="25">
+      <c r="ZE17" s="15">
         <v>617347</v>
       </c>
-      <c r="ZF17" s="26">
+      <c r="ZF17" s="16">
         <v>1643345</v>
       </c>
-      <c r="ZG17" s="25">
+      <c r="ZG17" s="15">
         <v>1013302</v>
       </c>
-      <c r="ZH17" s="25">
+      <c r="ZH17" s="15">
         <v>610935</v>
       </c>
-      <c r="ZI17" s="26">
+      <c r="ZI17" s="16">
         <v>1624237</v>
       </c>
-      <c r="ZJ17" s="25">
+      <c r="ZJ17" s="15">
         <v>1022424</v>
       </c>
-      <c r="ZK17" s="25">
+      <c r="ZK17" s="15">
         <v>612588</v>
       </c>
-      <c r="ZL17" s="26">
+      <c r="ZL17" s="16">
         <v>1635012</v>
       </c>
-      <c r="ZM17" s="25">
+      <c r="ZM17" s="15">
         <v>1025488</v>
       </c>
-      <c r="ZN17" s="25">
+      <c r="ZN17" s="15">
         <v>614777</v>
       </c>
-      <c r="ZO17" s="26">
+      <c r="ZO17" s="16">
         <v>1640265</v>
       </c>
-      <c r="ZP17" s="25">
+      <c r="ZP17" s="15">
         <v>1038862</v>
       </c>
-      <c r="ZQ17" s="25">
+      <c r="ZQ17" s="15">
         <v>622774</v>
       </c>
-      <c r="ZR17" s="26">
+      <c r="ZR17" s="16">
         <v>1661636</v>
       </c>
-      <c r="ZS17" s="25">
+      <c r="ZS17" s="15">
         <v>1037091</v>
       </c>
-      <c r="ZT17" s="25">
+      <c r="ZT17" s="15">
         <v>625372</v>
       </c>
-      <c r="ZU17" s="26">
+      <c r="ZU17" s="16">
         <v>1662463</v>
       </c>
-      <c r="ZV17" s="25">
+      <c r="ZV17" s="15">
         <v>1036716</v>
       </c>
-      <c r="ZW17" s="25">
+      <c r="ZW17" s="15">
         <v>627899</v>
       </c>
-      <c r="ZX17" s="26">
+      <c r="ZX17" s="16">
         <v>1664615</v>
       </c>
-      <c r="ZY17" s="25">
+      <c r="ZY17" s="15">
         <v>1039557</v>
       </c>
-      <c r="ZZ17" s="25">
+      <c r="ZZ17" s="15">
         <v>633024</v>
       </c>
-      <c r="AAA17" s="26">
+      <c r="AAA17" s="16">
         <v>1672581</v>
       </c>
-      <c r="AAB17" s="25">
+      <c r="AAB17" s="15">
         <v>1041199</v>
       </c>
-      <c r="AAC17" s="25">
+      <c r="AAC17" s="15">
         <v>634022</v>
       </c>
-      <c r="AAD17" s="26">
+      <c r="AAD17" s="16">
         <v>1675221</v>
       </c>
-      <c r="AAE17" s="25">
+      <c r="AAE17" s="15">
         <v>1053565</v>
       </c>
-      <c r="AAF17" s="25">
+      <c r="AAF17" s="15">
         <v>641053</v>
       </c>
-      <c r="AAG17" s="26">
+      <c r="AAG17" s="16">
         <v>1694618</v>
       </c>
-      <c r="AAH17" s="25">
+      <c r="AAH17" s="15">
         <v>1061051</v>
       </c>
-      <c r="AAI17" s="25">
+      <c r="AAI17" s="15">
         <v>647931</v>
       </c>
-      <c r="AAJ17" s="26">
+      <c r="AAJ17" s="16">
         <v>1708982</v>
       </c>
-      <c r="AAK17" s="25">
+      <c r="AAK17" s="15">
         <v>1072989</v>
       </c>
-      <c r="AAL17" s="25">
+      <c r="AAL17" s="15">
         <v>655037</v>
       </c>
-      <c r="AAM17" s="26">
+      <c r="AAM17" s="16">
         <v>1728026</v>
       </c>
-      <c r="AAN17" s="25">
+      <c r="AAN17" s="15">
         <v>1079880</v>
       </c>
-      <c r="AAO17" s="25">
+      <c r="AAO17" s="15">
         <v>660133</v>
       </c>
-      <c r="AAP17" s="26">
+      <c r="AAP17" s="16">
         <v>1740013</v>
       </c>
-      <c r="AAQ17" s="25">
+      <c r="AAQ17" s="15">
         <v>1065077</v>
       </c>
-      <c r="AAR17" s="25">
+      <c r="AAR17" s="15">
         <v>652791</v>
       </c>
-      <c r="AAS17" s="26">
+      <c r="AAS17" s="16">
         <v>1717868</v>
       </c>
-      <c r="AAT17" s="25">
+      <c r="AAT17" s="15">
         <v>1071581</v>
       </c>
-      <c r="AAU17" s="25">
+      <c r="AAU17" s="15">
         <v>652410</v>
       </c>
-      <c r="AAV17" s="26">
+      <c r="AAV17" s="16">
         <v>1723991</v>
       </c>
-      <c r="AAW17" s="25">
+      <c r="AAW17" s="15">
         <v>1080670</v>
       </c>
-      <c r="AAX17" s="25">
+      <c r="AAX17" s="15">
         <v>658052</v>
       </c>
-      <c r="AAY17" s="26">
+      <c r="AAY17" s="16">
         <v>1738722</v>
       </c>
-      <c r="AAZ17" s="25">
+      <c r="AAZ17" s="15">
         <v>1081991</v>
       </c>
-      <c r="ABA17" s="25">
+      <c r="ABA17" s="15">
         <v>661813</v>
       </c>
-      <c r="ABB17" s="26">
+      <c r="ABB17" s="16">
         <v>1743804</v>
       </c>
-      <c r="ABC17" s="25">
+      <c r="ABC17" s="15">
         <v>1084513</v>
       </c>
-      <c r="ABD17" s="25">
+      <c r="ABD17" s="15">
         <v>664499</v>
       </c>
-      <c r="ABE17" s="26">
+      <c r="ABE17" s="16">
         <v>1749012</v>
       </c>
-      <c r="ABF17" s="25">
+      <c r="ABF17" s="15">
         <v>1084753</v>
       </c>
-      <c r="ABG17" s="25">
+      <c r="ABG17" s="15">
         <v>668170</v>
       </c>
-      <c r="ABH17" s="26">
+      <c r="ABH17" s="16">
         <v>1752923</v>
       </c>
-      <c r="ABI17" s="25">
+      <c r="ABI17" s="15">
         <v>1083626</v>
       </c>
-      <c r="ABJ17" s="25">
+      <c r="ABJ17" s="15">
         <v>672127</v>
       </c>
-      <c r="ABK17" s="26">
+      <c r="ABK17" s="16">
         <v>1755753</v>
       </c>
-      <c r="ABL17" s="25">
+      <c r="ABL17" s="15">
         <v>1080970</v>
       </c>
-      <c r="ABM17" s="25">
+      <c r="ABM17" s="15">
         <v>669480</v>
       </c>
-      <c r="ABN17" s="26">
+      <c r="ABN17" s="16">
         <v>1750450</v>
       </c>
-      <c r="ABO17" s="25">
+      <c r="ABO17" s="15">
         <v>1089755</v>
       </c>
-      <c r="ABP17" s="25">
+      <c r="ABP17" s="15">
         <v>676413</v>
       </c>
-      <c r="ABQ17" s="26">
+      <c r="ABQ17" s="16">
         <v>1766168</v>
       </c>
-      <c r="ABR17" s="25">
+      <c r="ABR17" s="15">
         <v>1092639</v>
       </c>
-      <c r="ABS17" s="25">
+      <c r="ABS17" s="15">
         <v>681433</v>
       </c>
-      <c r="ABT17" s="26">
+      <c r="ABT17" s="16">
         <v>1774072</v>
       </c>
-      <c r="ABU17" s="25">
+      <c r="ABU17" s="15">
         <v>1096789</v>
       </c>
-      <c r="ABV17" s="25">
+      <c r="ABV17" s="15">
         <v>686129</v>
       </c>
-      <c r="ABW17" s="26">
+      <c r="ABW17" s="16">
         <v>1782918</v>
       </c>
-      <c r="ABX17" s="25">
+      <c r="ABX17" s="15">
         <v>1099634</v>
       </c>
-      <c r="ABY17" s="25">
+      <c r="ABY17" s="15">
         <v>692402</v>
       </c>
-      <c r="ABZ17" s="26">
+      <c r="ABZ17" s="16">
         <v>1792036</v>
       </c>
-      <c r="ACA17" s="25">
+      <c r="ACA17" s="15">
         <v>1080828</v>
       </c>
-      <c r="ACB17" s="25">
+      <c r="ACB17" s="15">
         <v>680172</v>
       </c>
-      <c r="ACC17" s="26">
+      <c r="ACC17" s="16">
         <v>1761000</v>
       </c>
-      <c r="ACD17" s="25">
+      <c r="ACD17" s="15">
         <v>1094143</v>
       </c>
-      <c r="ACE17" s="25">
+      <c r="ACE17" s="15">
         <v>684427</v>
       </c>
-      <c r="ACF17" s="26">
+      <c r="ACF17" s="16">
         <v>1778570</v>
       </c>
-      <c r="ACG17" s="25">
+      <c r="ACG17" s="15">
         <v>1103516</v>
       </c>
-      <c r="ACH17" s="25">
+      <c r="ACH17" s="15">
         <v>688717</v>
       </c>
-      <c r="ACI17" s="26">
+      <c r="ACI17" s="16">
         <v>1792233</v>
       </c>
-      <c r="ACJ17" s="25">
+      <c r="ACJ17" s="15">
         <v>1105088</v>
       </c>
-      <c r="ACK17" s="25">
+      <c r="ACK17" s="15">
         <v>691056</v>
       </c>
-      <c r="ACL17" s="26">
+      <c r="ACL17" s="16">
         <v>1796144</v>
       </c>
-      <c r="ACM17" s="25">
+      <c r="ACM17" s="15">
         <v>1105480</v>
       </c>
-      <c r="ACN17" s="25">
+      <c r="ACN17" s="15">
         <v>693233</v>
       </c>
-      <c r="ACO17" s="26">
+      <c r="ACO17" s="16">
         <v>1798713</v>
       </c>
-      <c r="ACP17" s="25">
+      <c r="ACP17" s="15">
         <v>1102765</v>
       </c>
-      <c r="ACQ17" s="25">
+      <c r="ACQ17" s="15">
         <v>696096</v>
       </c>
-      <c r="ACR17" s="26">
+      <c r="ACR17" s="16">
         <v>1798861</v>
       </c>
-      <c r="ACS17" s="25">
+      <c r="ACS17" s="15">
         <v>1098703</v>
       </c>
-      <c r="ACT17" s="25">
+      <c r="ACT17" s="15">
         <v>697832</v>
       </c>
-      <c r="ACU17" s="26">
+      <c r="ACU17" s="16">
         <v>1796535</v>
       </c>
-      <c r="ACV17" s="25">
+      <c r="ACV17" s="15">
         <v>1095890</v>
       </c>
-      <c r="ACW17" s="25">
+      <c r="ACW17" s="15">
         <v>696229</v>
       </c>
-      <c r="ACX17" s="26">
+      <c r="ACX17" s="16">
         <v>1792119</v>
       </c>
-      <c r="ACY17" s="25">
+      <c r="ACY17" s="15">
         <v>1099348</v>
       </c>
-      <c r="ACZ17" s="25">
+      <c r="ACZ17" s="15">
         <v>700790</v>
       </c>
-      <c r="ADA17" s="26">
+      <c r="ADA17" s="16">
         <v>1800138</v>
       </c>
-      <c r="ADB17" s="25">
+      <c r="ADB17" s="15">
         <v>1106778</v>
       </c>
-      <c r="ADC17" s="25">
+      <c r="ADC17" s="15">
         <v>708837</v>
       </c>
-      <c r="ADD17" s="26">
+      <c r="ADD17" s="16">
         <v>1815615</v>
       </c>
-      <c r="ADE17" s="25">
+      <c r="ADE17" s="15">
         <v>1114770</v>
       </c>
-      <c r="ADF17" s="25">
+      <c r="ADF17" s="15">
         <v>713921</v>
       </c>
-      <c r="ADG17" s="26">
+      <c r="ADG17" s="16">
         <v>1828691</v>
       </c>
-      <c r="ADH17" s="25">
+      <c r="ADH17" s="15">
         <v>1120088</v>
       </c>
-      <c r="ADI17" s="25">
+      <c r="ADI17" s="15">
         <v>720062</v>
       </c>
-      <c r="ADJ17" s="26">
+      <c r="ADJ17" s="16">
         <v>1840150</v>
       </c>
-      <c r="ADK17" s="25">
+      <c r="ADK17" s="15">
         <v>1103060</v>
       </c>
-      <c r="ADL17" s="25">
+      <c r="ADL17" s="15">
         <v>709639</v>
       </c>
-      <c r="ADM17" s="26">
+      <c r="ADM17" s="16">
         <v>1812699</v>
       </c>
-      <c r="ADN17" s="25">
+      <c r="ADN17" s="15">
         <v>1112544</v>
       </c>
-      <c r="ADO17" s="25">
+      <c r="ADO17" s="15">
         <v>709749</v>
       </c>
-      <c r="ADP17" s="26">
+      <c r="ADP17" s="16">
         <v>1822293</v>
       </c>
-      <c r="ADQ17" s="25">
+      <c r="ADQ17" s="15">
         <v>1121238</v>
       </c>
-      <c r="ADR17" s="25">
+      <c r="ADR17" s="15">
         <v>716728</v>
       </c>
-      <c r="ADS17" s="26">
+      <c r="ADS17" s="16">
         <v>1837966</v>
       </c>
-      <c r="ADT17" s="25">
+      <c r="ADT17" s="15">
         <v>1116993</v>
       </c>
-      <c r="ADU17" s="25">
+      <c r="ADU17" s="15">
         <v>714947</v>
       </c>
-      <c r="ADV17" s="26">
+      <c r="ADV17" s="16">
         <v>1831940</v>
       </c>
-      <c r="ADW17" s="25">
+      <c r="ADW17" s="15">
         <v>1093067</v>
       </c>
-      <c r="ADX17" s="25">
+      <c r="ADX17" s="15">
         <v>700728</v>
       </c>
-      <c r="ADY17" s="26">
+      <c r="ADY17" s="16">
         <v>1793795</v>
       </c>
-      <c r="ADZ17" s="25">
+      <c r="ADZ17" s="15">
         <v>1079993</v>
       </c>
-      <c r="AEA17" s="25">
+      <c r="AEA17" s="15">
         <v>690331</v>
       </c>
-      <c r="AEB17" s="26">
+      <c r="AEB17" s="16">
         <v>1770324</v>
       </c>
-      <c r="AEC17" s="25">
+      <c r="AEC17" s="15">
         <v>1069919</v>
       </c>
-      <c r="AED17" s="25">
+      <c r="AED17" s="15">
         <v>685846</v>
       </c>
-      <c r="AEE17" s="26">
+      <c r="AEE17" s="16">
         <v>1755765</v>
       </c>
-      <c r="AEF17" s="25">
+      <c r="AEF17" s="15">
         <v>1060138</v>
       </c>
-      <c r="AEG17" s="25">
+      <c r="AEG17" s="15">
         <v>682497</v>
       </c>
-      <c r="AEH17" s="26">
+      <c r="AEH17" s="16">
         <v>1742635</v>
       </c>
-      <c r="AEI17" s="25">
+      <c r="AEI17" s="15">
         <v>1068525</v>
       </c>
-      <c r="AEJ17" s="25">
+      <c r="AEJ17" s="15">
         <v>689971</v>
       </c>
-      <c r="AEK17" s="26">
+      <c r="AEK17" s="16">
         <v>1758496</v>
       </c>
-      <c r="AEL17" s="25">
+      <c r="AEL17" s="15">
         <v>1073869</v>
       </c>
-      <c r="AEM17" s="25">
+      <c r="AEM17" s="15">
         <v>695792</v>
       </c>
-      <c r="AEN17" s="26">
+      <c r="AEN17" s="16">
         <v>1769661</v>
       </c>
-      <c r="AEO17" s="25">
+      <c r="AEO17" s="15">
         <v>1083214</v>
       </c>
-      <c r="AEP17" s="25">
+      <c r="AEP17" s="15">
         <v>705120</v>
       </c>
-      <c r="AEQ17" s="26">
+      <c r="AEQ17" s="16">
         <v>1788334</v>
       </c>
-      <c r="AER17" s="25">
+      <c r="AER17" s="15">
         <v>1093399</v>
       </c>
-      <c r="AES17" s="25">
+      <c r="AES17" s="15">
         <v>711870</v>
       </c>
-      <c r="AET17" s="26">
+      <c r="AET17" s="16">
         <v>1805269</v>
       </c>
-      <c r="AEU17" s="25">
+      <c r="AEU17" s="15">
         <v>1078035</v>
       </c>
-      <c r="AEV17" s="25">
+      <c r="AEV17" s="15">
         <v>702332</v>
       </c>
-      <c r="AEW17" s="26">
+      <c r="AEW17" s="16">
         <v>1780367</v>
       </c>
-      <c r="AEX17" s="24">
+      <c r="AEX17" s="14">
         <v>1082884</v>
       </c>
-      <c r="AEY17" s="25">
+      <c r="AEY17" s="15">
         <v>704238</v>
       </c>
-      <c r="AEZ17" s="26">
+      <c r="AEZ17" s="16">
         <v>1787122</v>
       </c>
-      <c r="AFA17" s="24">
+      <c r="AFA17" s="14">
         <v>1090641</v>
       </c>
-      <c r="AFB17" s="25">
+      <c r="AFB17" s="15">
         <v>710092</v>
       </c>
-      <c r="AFC17" s="26">
+      <c r="AFC17" s="16">
         <v>1800733</v>
       </c>
-      <c r="AFD17" s="24">
+      <c r="AFD17" s="14">
         <v>1090651</v>
       </c>
-      <c r="AFE17" s="25">
+      <c r="AFE17" s="15">
         <v>712968</v>
       </c>
-      <c r="AFF17" s="26">
+      <c r="AFF17" s="16">
         <v>1803619</v>
       </c>
-      <c r="AFG17" s="24">
+      <c r="AFG17" s="14">
         <v>1093892</v>
       </c>
-      <c r="AFH17" s="25">
+      <c r="AFH17" s="15">
         <v>716992</v>
       </c>
-      <c r="AFI17" s="26">
+      <c r="AFI17" s="16">
         <v>1810884</v>
       </c>
-      <c r="AFJ17" s="24">
+      <c r="AFJ17" s="14">
         <v>1094355</v>
       </c>
-      <c r="AFK17" s="25">
+      <c r="AFK17" s="15">
         <v>721252</v>
       </c>
-      <c r="AFL17" s="26">
+      <c r="AFL17" s="16">
         <v>1815607</v>
       </c>
+      <c r="AFM17" s="14">
+        <v>1097249</v>
+      </c>
+      <c r="AFN17" s="15">
+        <v>723536</v>
+      </c>
+      <c r="AFO17" s="16">
+        <v>1820785</v>
+      </c>
     </row>
-    <row r="19" spans="1:844" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+    <row r="19" spans="1:847" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
-    <row r="27" spans="1:844" x14ac:dyDescent="0.2">
-      <c r="IY27" s="31"/>
+    <row r="27" spans="1:847" x14ac:dyDescent="0.2">
+      <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="308">
+  <mergeCells count="309">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
@@ -31822,6 +31930,7 @@
     <mergeCell ref="AAK6:AAM6"/>
     <mergeCell ref="AAN6:AAP6"/>
     <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ADK6:ADM6"/>
     <mergeCell ref="ACD6:ACF6"/>
     <mergeCell ref="ACG6:ACI6"/>
     <mergeCell ref="ACJ6:ACL6"/>
@@ -31834,12 +31943,13 @@
     <mergeCell ref="ABU6:ABW6"/>
     <mergeCell ref="ABX6:ABZ6"/>
     <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
     <mergeCell ref="AEX6:AEZ6"/>
     <mergeCell ref="AFA6:AFC6"/>
     <mergeCell ref="AFD6:AFF6"/>
     <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AFM6:AFO6"/>
     <mergeCell ref="AEF6:AEH6"/>
     <mergeCell ref="AEI6:AEK6"/>
     <mergeCell ref="AEL6:AEN6"/>
@@ -31857,8 +31967,8 @@
     <mergeCell ref="ADB6:ADD6"/>
     <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="AEX5:AFL5"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AEX5:AFO5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="WP5:XY5"/>
     <mergeCell ref="XZ5:ZI5"/>
@@ -31881,7 +31991,6 @@
     <mergeCell ref="B5:AK5"/>
     <mergeCell ref="AL5:BU5"/>
     <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="DF5:EO5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-junio 2021</t>
+    <t>Enero 1998-julio  2021</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,6 +861,21 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,20 +885,8 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1207,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AFO27"/>
+  <dimension ref="A1:AFR27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFK24" sqref="AFK24"/>
+      <pane xSplit="1" topLeftCell="AEW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AFR20" sqref="AFR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,15 +1362,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1378,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1383,9 +1386,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+    <row r="4" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="21">
@@ -2262,29 +2265,32 @@
       <c r="AEU5" s="22"/>
       <c r="AEV5" s="22"/>
       <c r="AEW5" s="23"/>
-      <c r="AEX5" s="21">
+      <c r="AEX5" s="32">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="22"/>
-      <c r="AEZ5" s="22"/>
-      <c r="AFA5" s="22"/>
-      <c r="AFB5" s="22"/>
-      <c r="AFC5" s="22"/>
-      <c r="AFD5" s="22"/>
-      <c r="AFE5" s="22"/>
-      <c r="AFF5" s="22"/>
-      <c r="AFG5" s="22"/>
-      <c r="AFH5" s="22"/>
-      <c r="AFI5" s="22"/>
-      <c r="AFJ5" s="22"/>
-      <c r="AFK5" s="22"/>
-      <c r="AFL5" s="22"/>
-      <c r="AFM5" s="22"/>
-      <c r="AFN5" s="22"/>
-      <c r="AFO5" s="23"/>
+      <c r="AEY5" s="32"/>
+      <c r="AEZ5" s="32"/>
+      <c r="AFA5" s="32"/>
+      <c r="AFB5" s="32"/>
+      <c r="AFC5" s="32"/>
+      <c r="AFD5" s="32"/>
+      <c r="AFE5" s="32"/>
+      <c r="AFF5" s="32"/>
+      <c r="AFG5" s="32"/>
+      <c r="AFH5" s="32"/>
+      <c r="AFI5" s="32"/>
+      <c r="AFJ5" s="32"/>
+      <c r="AFK5" s="32"/>
+      <c r="AFL5" s="32"/>
+      <c r="AFM5" s="32"/>
+      <c r="AFN5" s="32"/>
+      <c r="AFO5" s="32"/>
+      <c r="AFP5" s="32"/>
+      <c r="AFQ5" s="32"/>
+      <c r="AFR5" s="32"/>
     </row>
-    <row r="6" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+    <row r="6" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2411,7 @@
       </c>
       <c r="BT6" s="22"/>
       <c r="BU6" s="23"/>
-      <c r="BV6" s="29" t="s">
+      <c r="BV6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="BW6" s="27"/>
@@ -3695,9 +3701,14 @@
       </c>
       <c r="AFN6" s="22"/>
       <c r="AFO6" s="23"/>
+      <c r="AFP6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AFQ6" s="22"/>
+      <c r="AFR6" s="23"/>
     </row>
-    <row r="7" spans="1:847" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:850" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6236,8 +6247,17 @@
       <c r="AFO7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AFP7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AFQ7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AFR7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8779,8 +8799,17 @@
       <c r="AFO8" s="5">
         <v>107839</v>
       </c>
+      <c r="AFP8" s="3">
+        <v>75473</v>
+      </c>
+      <c r="AFQ8" s="4">
+        <v>32673</v>
+      </c>
+      <c r="AFR8" s="5">
+        <v>108146</v>
+      </c>
     </row>
-    <row r="9" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11322,8 +11351,17 @@
       <c r="AFO9" s="5">
         <v>372391</v>
       </c>
+      <c r="AFP9" s="3">
+        <v>222863</v>
+      </c>
+      <c r="AFQ9" s="4">
+        <v>159189</v>
+      </c>
+      <c r="AFR9" s="5">
+        <v>382052</v>
+      </c>
     </row>
-    <row r="10" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -13865,8 +13903,17 @@
       <c r="AFO10" s="5">
         <v>140925</v>
       </c>
+      <c r="AFP10" s="3">
+        <v>116789</v>
+      </c>
+      <c r="AFQ10" s="4">
+        <v>20634</v>
+      </c>
+      <c r="AFR10" s="5">
+        <v>137423</v>
+      </c>
     </row>
-    <row r="11" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16408,8 +16455,17 @@
       <c r="AFO11" s="5">
         <v>10103</v>
       </c>
+      <c r="AFP11" s="3">
+        <v>7286</v>
+      </c>
+      <c r="AFQ11" s="4">
+        <v>2317</v>
+      </c>
+      <c r="AFR11" s="5">
+        <v>9603</v>
+      </c>
     </row>
-    <row r="12" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -18951,8 +19007,17 @@
       <c r="AFO12" s="5">
         <v>464115</v>
       </c>
+      <c r="AFP12" s="3">
+        <v>285123</v>
+      </c>
+      <c r="AFQ12" s="4">
+        <v>187883</v>
+      </c>
+      <c r="AFR12" s="5">
+        <v>473006</v>
+      </c>
     </row>
-    <row r="13" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21494,8 +21559,17 @@
       <c r="AFO13" s="5">
         <v>2420</v>
       </c>
+      <c r="AFP13" s="3">
+        <v>2258</v>
+      </c>
+      <c r="AFQ13" s="4">
+        <v>319</v>
+      </c>
+      <c r="AFR13" s="5">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="14" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24037,8 +24111,17 @@
       <c r="AFO14" s="5">
         <v>359764</v>
       </c>
+      <c r="AFP14" s="3">
+        <v>197426</v>
+      </c>
+      <c r="AFQ14" s="4">
+        <v>153829</v>
+      </c>
+      <c r="AFR14" s="5">
+        <v>351255</v>
+      </c>
     </row>
-    <row r="15" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26580,8 +26663,17 @@
       <c r="AFO15" s="5">
         <v>273681</v>
       </c>
+      <c r="AFP15" s="3">
+        <v>122361</v>
+      </c>
+      <c r="AFQ15" s="4">
+        <v>146897</v>
+      </c>
+      <c r="AFR15" s="5">
+        <v>269258</v>
+      </c>
     </row>
-    <row r="16" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29123,8 +29215,17 @@
       <c r="AFO16" s="5">
         <v>89547</v>
       </c>
+      <c r="AFP16" s="3">
+        <v>70816</v>
+      </c>
+      <c r="AFQ16" s="4">
+        <v>22439</v>
+      </c>
+      <c r="AFR16" s="5">
+        <v>93255</v>
+      </c>
     </row>
-    <row r="17" spans="1:847" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -31666,283 +31767,56 @@
       <c r="AFO17" s="16">
         <v>1820785</v>
       </c>
+      <c r="AFP17" s="14">
+        <v>1100395</v>
+      </c>
+      <c r="AFQ17" s="15">
+        <v>726180</v>
+      </c>
+      <c r="AFR17" s="16">
+        <v>1826575</v>
+      </c>
     </row>
-    <row r="19" spans="1:847" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:850" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
     </row>
-    <row r="27" spans="1:847" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:850" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="309">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
+  <mergeCells count="310">
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AEX5:AFR5"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="BV5:DE5"/>
     <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
     <mergeCell ref="AEX6:AEZ6"/>
@@ -31967,30 +31841,267 @@
     <mergeCell ref="ADB6:ADD6"/>
     <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="AEX5:AFO5"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-julio  2021</t>
+    <t>Enero 1998-agosto  2021</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -740,6 +740,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -788,7 +819,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,19 +892,7 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,8 +904,29 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1210,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AFR27"/>
+  <dimension ref="A1:AFU27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AEW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFR20" sqref="AFR20"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AFO30" sqref="AFO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1362,15 +1402,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1378,7 +1418,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1386,9 +1426,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+    <row r="4" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="21">
@@ -2265,32 +2305,35 @@
       <c r="AEU5" s="22"/>
       <c r="AEV5" s="22"/>
       <c r="AEW5" s="23"/>
-      <c r="AEX5" s="32">
+      <c r="AEX5" s="24">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="32"/>
-      <c r="AEZ5" s="32"/>
-      <c r="AFA5" s="32"/>
-      <c r="AFB5" s="32"/>
-      <c r="AFC5" s="32"/>
-      <c r="AFD5" s="32"/>
-      <c r="AFE5" s="32"/>
-      <c r="AFF5" s="32"/>
-      <c r="AFG5" s="32"/>
-      <c r="AFH5" s="32"/>
-      <c r="AFI5" s="32"/>
-      <c r="AFJ5" s="32"/>
-      <c r="AFK5" s="32"/>
-      <c r="AFL5" s="32"/>
-      <c r="AFM5" s="32"/>
-      <c r="AFN5" s="32"/>
-      <c r="AFO5" s="32"/>
-      <c r="AFP5" s="32"/>
-      <c r="AFQ5" s="32"/>
-      <c r="AFR5" s="32"/>
+      <c r="AEY5" s="24"/>
+      <c r="AEZ5" s="24"/>
+      <c r="AFA5" s="24"/>
+      <c r="AFB5" s="24"/>
+      <c r="AFC5" s="24"/>
+      <c r="AFD5" s="24"/>
+      <c r="AFE5" s="24"/>
+      <c r="AFF5" s="24"/>
+      <c r="AFG5" s="24"/>
+      <c r="AFH5" s="24"/>
+      <c r="AFI5" s="24"/>
+      <c r="AFJ5" s="24"/>
+      <c r="AFK5" s="24"/>
+      <c r="AFL5" s="24"/>
+      <c r="AFM5" s="24"/>
+      <c r="AFN5" s="24"/>
+      <c r="AFO5" s="24"/>
+      <c r="AFP5" s="24"/>
+      <c r="AFQ5" s="24"/>
+      <c r="AFR5" s="24"/>
+      <c r="AFS5" s="24"/>
+      <c r="AFT5" s="24"/>
+      <c r="AFU5" s="24"/>
     </row>
-    <row r="6" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
@@ -2401,21 +2444,21 @@
       </c>
       <c r="BN6" s="22"/>
       <c r="BO6" s="23"/>
-      <c r="BP6" s="27" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="22"/>
       <c r="BU6" s="23"/>
-      <c r="BV6" s="26" t="s">
+      <c r="BV6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="21" t="s">
         <v>8</v>
       </c>
@@ -2466,11 +2509,11 @@
       </c>
       <c r="DA6" s="22"/>
       <c r="DB6" s="23"/>
-      <c r="DC6" s="27" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="27"/>
-      <c r="DE6" s="28"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="21" t="s">
         <v>7</v>
       </c>
@@ -2526,11 +2569,11 @@
       </c>
       <c r="EK6" s="22"/>
       <c r="EL6" s="23"/>
-      <c r="EM6" s="27" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="27"/>
-      <c r="EO6" s="28"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="22" t="s">
         <v>7</v>
       </c>
@@ -2746,31 +2789,31 @@
       </c>
       <c r="JM6" s="22"/>
       <c r="JN6" s="23"/>
-      <c r="JO6" s="27" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="27"/>
-      <c r="JQ6" s="28"/>
-      <c r="JR6" s="27" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="27"/>
-      <c r="JT6" s="28"/>
-      <c r="JU6" s="27" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="27"/>
-      <c r="JW6" s="28"/>
-      <c r="JX6" s="27" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="27"/>
-      <c r="JZ6" s="28"/>
-      <c r="KA6" s="27" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="27"/>
-      <c r="KC6" s="28"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="22" t="s">
         <v>7</v>
       </c>
@@ -2986,31 +3029,31 @@
       </c>
       <c r="PA6" s="22"/>
       <c r="PB6" s="23"/>
-      <c r="PC6" s="27" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="27"/>
-      <c r="PE6" s="27"/>
-      <c r="PF6" s="27" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="27"/>
-      <c r="PH6" s="27"/>
-      <c r="PI6" s="27" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="27"/>
-      <c r="PK6" s="27"/>
-      <c r="PL6" s="27" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="27"/>
-      <c r="PN6" s="27"/>
-      <c r="PO6" s="27" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="27"/>
-      <c r="PQ6" s="27"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="22" t="s">
         <v>7</v>
       </c>
@@ -3706,9 +3749,14 @@
       </c>
       <c r="AFQ6" s="22"/>
       <c r="AFR6" s="23"/>
+      <c r="AFS6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="AFT6" s="22"/>
+      <c r="AFU6" s="23"/>
     </row>
-    <row r="7" spans="1:850" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:853" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6256,8 +6304,17 @@
       <c r="AFR7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AFS7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AFT7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AFU7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8808,8 +8865,17 @@
       <c r="AFR8" s="5">
         <v>108146</v>
       </c>
+      <c r="AFS8" s="33">
+        <v>78130</v>
+      </c>
+      <c r="AFT8" s="34">
+        <v>34482</v>
+      </c>
+      <c r="AFU8" s="35">
+        <v>112612</v>
+      </c>
     </row>
-    <row r="9" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11360,8 +11426,17 @@
       <c r="AFR9" s="5">
         <v>382052</v>
       </c>
+      <c r="AFS9" s="3">
+        <v>223033</v>
+      </c>
+      <c r="AFT9" s="4">
+        <v>159937</v>
+      </c>
+      <c r="AFU9" s="5">
+        <v>382970</v>
+      </c>
     </row>
-    <row r="10" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -13912,8 +13987,17 @@
       <c r="AFR10" s="5">
         <v>137423</v>
       </c>
+      <c r="AFS10" s="3">
+        <v>118700</v>
+      </c>
+      <c r="AFT10" s="4">
+        <v>20903</v>
+      </c>
+      <c r="AFU10" s="5">
+        <v>139603</v>
+      </c>
     </row>
-    <row r="11" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16464,8 +16548,17 @@
       <c r="AFR11" s="5">
         <v>9603</v>
       </c>
+      <c r="AFS11" s="3">
+        <v>7280</v>
+      </c>
+      <c r="AFT11" s="4">
+        <v>2332</v>
+      </c>
+      <c r="AFU11" s="5">
+        <v>9612</v>
+      </c>
     </row>
-    <row r="12" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19016,8 +19109,17 @@
       <c r="AFR12" s="5">
         <v>473006</v>
       </c>
+      <c r="AFS12" s="3">
+        <v>287595</v>
+      </c>
+      <c r="AFT12" s="4">
+        <v>189422</v>
+      </c>
+      <c r="AFU12" s="5">
+        <v>477017</v>
+      </c>
     </row>
-    <row r="13" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21568,8 +21670,17 @@
       <c r="AFR13" s="5">
         <v>2577</v>
       </c>
+      <c r="AFS13" s="3">
+        <v>2353</v>
+      </c>
+      <c r="AFT13" s="4">
+        <v>339</v>
+      </c>
+      <c r="AFU13" s="5">
+        <v>2692</v>
+      </c>
     </row>
-    <row r="14" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24120,8 +24231,17 @@
       <c r="AFR14" s="5">
         <v>351255</v>
       </c>
+      <c r="AFS14" s="3">
+        <v>195248</v>
+      </c>
+      <c r="AFT14" s="4">
+        <v>152423</v>
+      </c>
+      <c r="AFU14" s="5">
+        <v>347671</v>
+      </c>
     </row>
-    <row r="15" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26672,8 +26792,17 @@
       <c r="AFR15" s="5">
         <v>269258</v>
       </c>
+      <c r="AFS15" s="3">
+        <v>122947</v>
+      </c>
+      <c r="AFT15" s="4">
+        <v>148519</v>
+      </c>
+      <c r="AFU15" s="5">
+        <v>271466</v>
+      </c>
     </row>
-    <row r="16" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29224,8 +29353,17 @@
       <c r="AFR16" s="5">
         <v>93255</v>
       </c>
+      <c r="AFS16" s="3">
+        <v>71378</v>
+      </c>
+      <c r="AFT16" s="4">
+        <v>22954</v>
+      </c>
+      <c r="AFU16" s="5">
+        <v>94332</v>
+      </c>
     </row>
-    <row r="17" spans="1:850" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -31776,46 +31914,295 @@
       <c r="AFR17" s="16">
         <v>1826575</v>
       </c>
+      <c r="AFS17" s="14">
+        <v>1106664</v>
+      </c>
+      <c r="AFT17" s="15">
+        <v>731311</v>
+      </c>
+      <c r="AFU17" s="16">
+        <v>1837975</v>
+      </c>
     </row>
-    <row r="19" spans="1:850" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:853" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:850" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:853" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="310">
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AEX5:AFR5"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AL5:BU5"/>
+  <mergeCells count="311">
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AEX5:AFU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
     <mergeCell ref="BV5:DE5"/>
     <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
@@ -31840,268 +32227,29 @@
     <mergeCell ref="ACY6:ADA6"/>
     <mergeCell ref="ADB6:ADD6"/>
     <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AL5:BU5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-agosto  2021</t>
+    <t>Enero 1998-septiembre  2021</t>
   </si>
 </sst>
 </file>
@@ -883,6 +883,15 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -895,6 +904,21 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,30 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AFU27"/>
+  <dimension ref="A1:AFX27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFO30" sqref="AFO30"/>
+      <pane xSplit="1" topLeftCell="AFD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AFD29" sqref="AFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,15 +1402,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1426,2337 +1426,2345 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="4" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>1998</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="21">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="24">
         <v>1999</v>
       </c>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="22"/>
-      <c r="BR5" s="22"/>
-      <c r="BS5" s="22"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="23"/>
-      <c r="BV5" s="21">
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="25"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="25"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="25"/>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="24">
         <v>2000</v>
       </c>
-      <c r="BW5" s="22"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="22"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
-      <c r="CH5" s="22"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="22"/>
-      <c r="CK5" s="22"/>
-      <c r="CL5" s="22"/>
-      <c r="CM5" s="22"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
-      <c r="CS5" s="22"/>
-      <c r="CT5" s="22"/>
-      <c r="CU5" s="22"/>
-      <c r="CV5" s="22"/>
-      <c r="CW5" s="22"/>
-      <c r="CX5" s="22"/>
-      <c r="CY5" s="22"/>
-      <c r="CZ5" s="22"/>
-      <c r="DA5" s="22"/>
-      <c r="DB5" s="22"/>
-      <c r="DC5" s="22"/>
-      <c r="DD5" s="22"/>
-      <c r="DE5" s="23"/>
-      <c r="DF5" s="21">
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="25"/>
+      <c r="BY5" s="25"/>
+      <c r="BZ5" s="25"/>
+      <c r="CA5" s="25"/>
+      <c r="CB5" s="25"/>
+      <c r="CC5" s="25"/>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25"/>
+      <c r="CF5" s="25"/>
+      <c r="CG5" s="25"/>
+      <c r="CH5" s="25"/>
+      <c r="CI5" s="25"/>
+      <c r="CJ5" s="25"/>
+      <c r="CK5" s="25"/>
+      <c r="CL5" s="25"/>
+      <c r="CM5" s="25"/>
+      <c r="CN5" s="25"/>
+      <c r="CO5" s="25"/>
+      <c r="CP5" s="25"/>
+      <c r="CQ5" s="25"/>
+      <c r="CR5" s="25"/>
+      <c r="CS5" s="25"/>
+      <c r="CT5" s="25"/>
+      <c r="CU5" s="25"/>
+      <c r="CV5" s="25"/>
+      <c r="CW5" s="25"/>
+      <c r="CX5" s="25"/>
+      <c r="CY5" s="25"/>
+      <c r="CZ5" s="25"/>
+      <c r="DA5" s="25"/>
+      <c r="DB5" s="25"/>
+      <c r="DC5" s="25"/>
+      <c r="DD5" s="25"/>
+      <c r="DE5" s="26"/>
+      <c r="DF5" s="24">
         <v>2001</v>
       </c>
-      <c r="DG5" s="22"/>
-      <c r="DH5" s="22"/>
-      <c r="DI5" s="22"/>
-      <c r="DJ5" s="22"/>
-      <c r="DK5" s="22"/>
-      <c r="DL5" s="22"/>
-      <c r="DM5" s="22"/>
-      <c r="DN5" s="22"/>
-      <c r="DO5" s="22"/>
-      <c r="DP5" s="22"/>
-      <c r="DQ5" s="22"/>
-      <c r="DR5" s="22"/>
-      <c r="DS5" s="22"/>
-      <c r="DT5" s="22"/>
-      <c r="DU5" s="22"/>
-      <c r="DV5" s="22"/>
-      <c r="DW5" s="22"/>
-      <c r="DX5" s="22"/>
-      <c r="DY5" s="22"/>
-      <c r="DZ5" s="22"/>
-      <c r="EA5" s="22"/>
-      <c r="EB5" s="22"/>
-      <c r="EC5" s="22"/>
-      <c r="ED5" s="22"/>
-      <c r="EE5" s="22"/>
-      <c r="EF5" s="22"/>
-      <c r="EG5" s="22"/>
-      <c r="EH5" s="22"/>
-      <c r="EI5" s="22"/>
-      <c r="EJ5" s="22"/>
-      <c r="EK5" s="22"/>
-      <c r="EL5" s="22"/>
-      <c r="EM5" s="22"/>
-      <c r="EN5" s="22"/>
-      <c r="EO5" s="23"/>
-      <c r="EP5" s="21">
+      <c r="DG5" s="25"/>
+      <c r="DH5" s="25"/>
+      <c r="DI5" s="25"/>
+      <c r="DJ5" s="25"/>
+      <c r="DK5" s="25"/>
+      <c r="DL5" s="25"/>
+      <c r="DM5" s="25"/>
+      <c r="DN5" s="25"/>
+      <c r="DO5" s="25"/>
+      <c r="DP5" s="25"/>
+      <c r="DQ5" s="25"/>
+      <c r="DR5" s="25"/>
+      <c r="DS5" s="25"/>
+      <c r="DT5" s="25"/>
+      <c r="DU5" s="25"/>
+      <c r="DV5" s="25"/>
+      <c r="DW5" s="25"/>
+      <c r="DX5" s="25"/>
+      <c r="DY5" s="25"/>
+      <c r="DZ5" s="25"/>
+      <c r="EA5" s="25"/>
+      <c r="EB5" s="25"/>
+      <c r="EC5" s="25"/>
+      <c r="ED5" s="25"/>
+      <c r="EE5" s="25"/>
+      <c r="EF5" s="25"/>
+      <c r="EG5" s="25"/>
+      <c r="EH5" s="25"/>
+      <c r="EI5" s="25"/>
+      <c r="EJ5" s="25"/>
+      <c r="EK5" s="25"/>
+      <c r="EL5" s="25"/>
+      <c r="EM5" s="25"/>
+      <c r="EN5" s="25"/>
+      <c r="EO5" s="26"/>
+      <c r="EP5" s="24">
         <v>2002</v>
       </c>
-      <c r="EQ5" s="22"/>
-      <c r="ER5" s="22"/>
-      <c r="ES5" s="22"/>
-      <c r="ET5" s="22"/>
-      <c r="EU5" s="22"/>
-      <c r="EV5" s="22"/>
-      <c r="EW5" s="22"/>
-      <c r="EX5" s="22"/>
-      <c r="EY5" s="22"/>
-      <c r="EZ5" s="22"/>
-      <c r="FA5" s="22"/>
-      <c r="FB5" s="22"/>
-      <c r="FC5" s="22"/>
-      <c r="FD5" s="22"/>
-      <c r="FE5" s="22"/>
-      <c r="FF5" s="22"/>
-      <c r="FG5" s="22"/>
-      <c r="FH5" s="22"/>
-      <c r="FI5" s="22"/>
-      <c r="FJ5" s="22"/>
-      <c r="FK5" s="22"/>
-      <c r="FL5" s="22"/>
-      <c r="FM5" s="22"/>
-      <c r="FN5" s="22"/>
-      <c r="FO5" s="22"/>
-      <c r="FP5" s="22"/>
-      <c r="FQ5" s="22"/>
-      <c r="FR5" s="22"/>
-      <c r="FS5" s="22"/>
-      <c r="FT5" s="22"/>
-      <c r="FU5" s="22"/>
-      <c r="FV5" s="22"/>
-      <c r="FW5" s="22"/>
-      <c r="FX5" s="22"/>
-      <c r="FY5" s="23"/>
-      <c r="FZ5" s="21">
+      <c r="EQ5" s="25"/>
+      <c r="ER5" s="25"/>
+      <c r="ES5" s="25"/>
+      <c r="ET5" s="25"/>
+      <c r="EU5" s="25"/>
+      <c r="EV5" s="25"/>
+      <c r="EW5" s="25"/>
+      <c r="EX5" s="25"/>
+      <c r="EY5" s="25"/>
+      <c r="EZ5" s="25"/>
+      <c r="FA5" s="25"/>
+      <c r="FB5" s="25"/>
+      <c r="FC5" s="25"/>
+      <c r="FD5" s="25"/>
+      <c r="FE5" s="25"/>
+      <c r="FF5" s="25"/>
+      <c r="FG5" s="25"/>
+      <c r="FH5" s="25"/>
+      <c r="FI5" s="25"/>
+      <c r="FJ5" s="25"/>
+      <c r="FK5" s="25"/>
+      <c r="FL5" s="25"/>
+      <c r="FM5" s="25"/>
+      <c r="FN5" s="25"/>
+      <c r="FO5" s="25"/>
+      <c r="FP5" s="25"/>
+      <c r="FQ5" s="25"/>
+      <c r="FR5" s="25"/>
+      <c r="FS5" s="25"/>
+      <c r="FT5" s="25"/>
+      <c r="FU5" s="25"/>
+      <c r="FV5" s="25"/>
+      <c r="FW5" s="25"/>
+      <c r="FX5" s="25"/>
+      <c r="FY5" s="26"/>
+      <c r="FZ5" s="24">
         <v>2003</v>
       </c>
-      <c r="GA5" s="22"/>
-      <c r="GB5" s="22"/>
-      <c r="GC5" s="22"/>
-      <c r="GD5" s="22"/>
-      <c r="GE5" s="22"/>
-      <c r="GF5" s="22"/>
-      <c r="GG5" s="22"/>
-      <c r="GH5" s="22"/>
-      <c r="GI5" s="22"/>
-      <c r="GJ5" s="22"/>
-      <c r="GK5" s="22"/>
-      <c r="GL5" s="22"/>
-      <c r="GM5" s="22"/>
-      <c r="GN5" s="22"/>
-      <c r="GO5" s="22"/>
-      <c r="GP5" s="22"/>
-      <c r="GQ5" s="22"/>
-      <c r="GR5" s="22"/>
-      <c r="GS5" s="22"/>
-      <c r="GT5" s="22"/>
-      <c r="GU5" s="22"/>
-      <c r="GV5" s="22"/>
-      <c r="GW5" s="22"/>
-      <c r="GX5" s="22"/>
-      <c r="GY5" s="22"/>
-      <c r="GZ5" s="22"/>
-      <c r="HA5" s="22"/>
-      <c r="HB5" s="22"/>
-      <c r="HC5" s="22"/>
-      <c r="HD5" s="22"/>
-      <c r="HE5" s="22"/>
-      <c r="HF5" s="22"/>
-      <c r="HG5" s="22"/>
-      <c r="HH5" s="22"/>
-      <c r="HI5" s="23"/>
-      <c r="HJ5" s="21">
+      <c r="GA5" s="25"/>
+      <c r="GB5" s="25"/>
+      <c r="GC5" s="25"/>
+      <c r="GD5" s="25"/>
+      <c r="GE5" s="25"/>
+      <c r="GF5" s="25"/>
+      <c r="GG5" s="25"/>
+      <c r="GH5" s="25"/>
+      <c r="GI5" s="25"/>
+      <c r="GJ5" s="25"/>
+      <c r="GK5" s="25"/>
+      <c r="GL5" s="25"/>
+      <c r="GM5" s="25"/>
+      <c r="GN5" s="25"/>
+      <c r="GO5" s="25"/>
+      <c r="GP5" s="25"/>
+      <c r="GQ5" s="25"/>
+      <c r="GR5" s="25"/>
+      <c r="GS5" s="25"/>
+      <c r="GT5" s="25"/>
+      <c r="GU5" s="25"/>
+      <c r="GV5" s="25"/>
+      <c r="GW5" s="25"/>
+      <c r="GX5" s="25"/>
+      <c r="GY5" s="25"/>
+      <c r="GZ5" s="25"/>
+      <c r="HA5" s="25"/>
+      <c r="HB5" s="25"/>
+      <c r="HC5" s="25"/>
+      <c r="HD5" s="25"/>
+      <c r="HE5" s="25"/>
+      <c r="HF5" s="25"/>
+      <c r="HG5" s="25"/>
+      <c r="HH5" s="25"/>
+      <c r="HI5" s="26"/>
+      <c r="HJ5" s="24">
         <v>2004</v>
       </c>
-      <c r="HK5" s="22"/>
-      <c r="HL5" s="22"/>
-      <c r="HM5" s="22"/>
-      <c r="HN5" s="22"/>
-      <c r="HO5" s="22"/>
-      <c r="HP5" s="22"/>
-      <c r="HQ5" s="22"/>
-      <c r="HR5" s="22"/>
-      <c r="HS5" s="22"/>
-      <c r="HT5" s="22"/>
-      <c r="HU5" s="22"/>
-      <c r="HV5" s="22"/>
-      <c r="HW5" s="22"/>
-      <c r="HX5" s="22"/>
-      <c r="HY5" s="22"/>
-      <c r="HZ5" s="22"/>
-      <c r="IA5" s="22"/>
-      <c r="IB5" s="22"/>
-      <c r="IC5" s="22"/>
-      <c r="ID5" s="22"/>
-      <c r="IE5" s="22"/>
-      <c r="IF5" s="22"/>
-      <c r="IG5" s="22"/>
-      <c r="IH5" s="22"/>
-      <c r="II5" s="22"/>
-      <c r="IJ5" s="22"/>
-      <c r="IK5" s="22"/>
-      <c r="IL5" s="22"/>
-      <c r="IM5" s="22"/>
-      <c r="IN5" s="22"/>
-      <c r="IO5" s="22"/>
-      <c r="IP5" s="22"/>
-      <c r="IQ5" s="22"/>
-      <c r="IR5" s="22"/>
-      <c r="IS5" s="23"/>
-      <c r="IT5" s="21">
+      <c r="HK5" s="25"/>
+      <c r="HL5" s="25"/>
+      <c r="HM5" s="25"/>
+      <c r="HN5" s="25"/>
+      <c r="HO5" s="25"/>
+      <c r="HP5" s="25"/>
+      <c r="HQ5" s="25"/>
+      <c r="HR5" s="25"/>
+      <c r="HS5" s="25"/>
+      <c r="HT5" s="25"/>
+      <c r="HU5" s="25"/>
+      <c r="HV5" s="25"/>
+      <c r="HW5" s="25"/>
+      <c r="HX5" s="25"/>
+      <c r="HY5" s="25"/>
+      <c r="HZ5" s="25"/>
+      <c r="IA5" s="25"/>
+      <c r="IB5" s="25"/>
+      <c r="IC5" s="25"/>
+      <c r="ID5" s="25"/>
+      <c r="IE5" s="25"/>
+      <c r="IF5" s="25"/>
+      <c r="IG5" s="25"/>
+      <c r="IH5" s="25"/>
+      <c r="II5" s="25"/>
+      <c r="IJ5" s="25"/>
+      <c r="IK5" s="25"/>
+      <c r="IL5" s="25"/>
+      <c r="IM5" s="25"/>
+      <c r="IN5" s="25"/>
+      <c r="IO5" s="25"/>
+      <c r="IP5" s="25"/>
+      <c r="IQ5" s="25"/>
+      <c r="IR5" s="25"/>
+      <c r="IS5" s="26"/>
+      <c r="IT5" s="24">
         <v>2005</v>
       </c>
-      <c r="IU5" s="22"/>
-      <c r="IV5" s="22"/>
-      <c r="IW5" s="22"/>
-      <c r="IX5" s="22"/>
-      <c r="IY5" s="22"/>
-      <c r="IZ5" s="22"/>
-      <c r="JA5" s="22"/>
-      <c r="JB5" s="22"/>
-      <c r="JC5" s="22"/>
-      <c r="JD5" s="22"/>
-      <c r="JE5" s="22"/>
-      <c r="JF5" s="22"/>
-      <c r="JG5" s="22"/>
-      <c r="JH5" s="22"/>
-      <c r="JI5" s="22"/>
-      <c r="JJ5" s="22"/>
-      <c r="JK5" s="22"/>
-      <c r="JL5" s="22"/>
-      <c r="JM5" s="22"/>
-      <c r="JN5" s="22"/>
-      <c r="JO5" s="22"/>
-      <c r="JP5" s="22"/>
-      <c r="JQ5" s="22"/>
-      <c r="JR5" s="22"/>
-      <c r="JS5" s="22"/>
-      <c r="JT5" s="22"/>
-      <c r="JU5" s="22"/>
-      <c r="JV5" s="22"/>
-      <c r="JW5" s="22"/>
-      <c r="JX5" s="22"/>
-      <c r="JY5" s="22"/>
-      <c r="JZ5" s="22"/>
-      <c r="KA5" s="22"/>
-      <c r="KB5" s="22"/>
-      <c r="KC5" s="23"/>
-      <c r="KD5" s="21">
+      <c r="IU5" s="25"/>
+      <c r="IV5" s="25"/>
+      <c r="IW5" s="25"/>
+      <c r="IX5" s="25"/>
+      <c r="IY5" s="25"/>
+      <c r="IZ5" s="25"/>
+      <c r="JA5" s="25"/>
+      <c r="JB5" s="25"/>
+      <c r="JC5" s="25"/>
+      <c r="JD5" s="25"/>
+      <c r="JE5" s="25"/>
+      <c r="JF5" s="25"/>
+      <c r="JG5" s="25"/>
+      <c r="JH5" s="25"/>
+      <c r="JI5" s="25"/>
+      <c r="JJ5" s="25"/>
+      <c r="JK5" s="25"/>
+      <c r="JL5" s="25"/>
+      <c r="JM5" s="25"/>
+      <c r="JN5" s="25"/>
+      <c r="JO5" s="25"/>
+      <c r="JP5" s="25"/>
+      <c r="JQ5" s="25"/>
+      <c r="JR5" s="25"/>
+      <c r="JS5" s="25"/>
+      <c r="JT5" s="25"/>
+      <c r="JU5" s="25"/>
+      <c r="JV5" s="25"/>
+      <c r="JW5" s="25"/>
+      <c r="JX5" s="25"/>
+      <c r="JY5" s="25"/>
+      <c r="JZ5" s="25"/>
+      <c r="KA5" s="25"/>
+      <c r="KB5" s="25"/>
+      <c r="KC5" s="26"/>
+      <c r="KD5" s="24">
         <v>2006</v>
       </c>
-      <c r="KE5" s="22"/>
-      <c r="KF5" s="22"/>
-      <c r="KG5" s="22"/>
-      <c r="KH5" s="22"/>
-      <c r="KI5" s="22"/>
-      <c r="KJ5" s="22"/>
-      <c r="KK5" s="22"/>
-      <c r="KL5" s="22"/>
-      <c r="KM5" s="22"/>
-      <c r="KN5" s="22"/>
-      <c r="KO5" s="22"/>
-      <c r="KP5" s="22"/>
-      <c r="KQ5" s="22"/>
-      <c r="KR5" s="22"/>
-      <c r="KS5" s="22"/>
-      <c r="KT5" s="22"/>
-      <c r="KU5" s="22"/>
-      <c r="KV5" s="22"/>
-      <c r="KW5" s="22"/>
-      <c r="KX5" s="22"/>
-      <c r="KY5" s="22"/>
-      <c r="KZ5" s="22"/>
-      <c r="LA5" s="22"/>
-      <c r="LB5" s="22"/>
-      <c r="LC5" s="22"/>
-      <c r="LD5" s="22"/>
-      <c r="LE5" s="22"/>
-      <c r="LF5" s="22"/>
-      <c r="LG5" s="22"/>
-      <c r="LH5" s="22"/>
-      <c r="LI5" s="22"/>
-      <c r="LJ5" s="22"/>
-      <c r="LK5" s="22"/>
-      <c r="LL5" s="22"/>
-      <c r="LM5" s="23"/>
-      <c r="LN5" s="21">
+      <c r="KE5" s="25"/>
+      <c r="KF5" s="25"/>
+      <c r="KG5" s="25"/>
+      <c r="KH5" s="25"/>
+      <c r="KI5" s="25"/>
+      <c r="KJ5" s="25"/>
+      <c r="KK5" s="25"/>
+      <c r="KL5" s="25"/>
+      <c r="KM5" s="25"/>
+      <c r="KN5" s="25"/>
+      <c r="KO5" s="25"/>
+      <c r="KP5" s="25"/>
+      <c r="KQ5" s="25"/>
+      <c r="KR5" s="25"/>
+      <c r="KS5" s="25"/>
+      <c r="KT5" s="25"/>
+      <c r="KU5" s="25"/>
+      <c r="KV5" s="25"/>
+      <c r="KW5" s="25"/>
+      <c r="KX5" s="25"/>
+      <c r="KY5" s="25"/>
+      <c r="KZ5" s="25"/>
+      <c r="LA5" s="25"/>
+      <c r="LB5" s="25"/>
+      <c r="LC5" s="25"/>
+      <c r="LD5" s="25"/>
+      <c r="LE5" s="25"/>
+      <c r="LF5" s="25"/>
+      <c r="LG5" s="25"/>
+      <c r="LH5" s="25"/>
+      <c r="LI5" s="25"/>
+      <c r="LJ5" s="25"/>
+      <c r="LK5" s="25"/>
+      <c r="LL5" s="25"/>
+      <c r="LM5" s="26"/>
+      <c r="LN5" s="24">
         <v>2007</v>
       </c>
-      <c r="LO5" s="22"/>
-      <c r="LP5" s="22"/>
-      <c r="LQ5" s="22"/>
-      <c r="LR5" s="22"/>
-      <c r="LS5" s="22"/>
-      <c r="LT5" s="22"/>
-      <c r="LU5" s="22"/>
-      <c r="LV5" s="22"/>
-      <c r="LW5" s="22"/>
-      <c r="LX5" s="22"/>
-      <c r="LY5" s="22"/>
-      <c r="LZ5" s="22"/>
-      <c r="MA5" s="22"/>
-      <c r="MB5" s="22"/>
-      <c r="MC5" s="22"/>
-      <c r="MD5" s="22"/>
-      <c r="ME5" s="22"/>
-      <c r="MF5" s="22"/>
-      <c r="MG5" s="22"/>
-      <c r="MH5" s="22"/>
-      <c r="MI5" s="22"/>
-      <c r="MJ5" s="22"/>
-      <c r="MK5" s="22"/>
-      <c r="ML5" s="22"/>
-      <c r="MM5" s="22"/>
-      <c r="MN5" s="22"/>
-      <c r="MO5" s="22"/>
-      <c r="MP5" s="22"/>
-      <c r="MQ5" s="22"/>
-      <c r="MR5" s="22"/>
-      <c r="MS5" s="22"/>
-      <c r="MT5" s="22"/>
-      <c r="MU5" s="22"/>
-      <c r="MV5" s="22"/>
-      <c r="MW5" s="23"/>
-      <c r="MX5" s="21">
+      <c r="LO5" s="25"/>
+      <c r="LP5" s="25"/>
+      <c r="LQ5" s="25"/>
+      <c r="LR5" s="25"/>
+      <c r="LS5" s="25"/>
+      <c r="LT5" s="25"/>
+      <c r="LU5" s="25"/>
+      <c r="LV5" s="25"/>
+      <c r="LW5" s="25"/>
+      <c r="LX5" s="25"/>
+      <c r="LY5" s="25"/>
+      <c r="LZ5" s="25"/>
+      <c r="MA5" s="25"/>
+      <c r="MB5" s="25"/>
+      <c r="MC5" s="25"/>
+      <c r="MD5" s="25"/>
+      <c r="ME5" s="25"/>
+      <c r="MF5" s="25"/>
+      <c r="MG5" s="25"/>
+      <c r="MH5" s="25"/>
+      <c r="MI5" s="25"/>
+      <c r="MJ5" s="25"/>
+      <c r="MK5" s="25"/>
+      <c r="ML5" s="25"/>
+      <c r="MM5" s="25"/>
+      <c r="MN5" s="25"/>
+      <c r="MO5" s="25"/>
+      <c r="MP5" s="25"/>
+      <c r="MQ5" s="25"/>
+      <c r="MR5" s="25"/>
+      <c r="MS5" s="25"/>
+      <c r="MT5" s="25"/>
+      <c r="MU5" s="25"/>
+      <c r="MV5" s="25"/>
+      <c r="MW5" s="26"/>
+      <c r="MX5" s="24">
         <v>2008</v>
       </c>
-      <c r="MY5" s="22"/>
-      <c r="MZ5" s="22"/>
-      <c r="NA5" s="22"/>
-      <c r="NB5" s="22"/>
-      <c r="NC5" s="22"/>
-      <c r="ND5" s="22"/>
-      <c r="NE5" s="22"/>
-      <c r="NF5" s="22"/>
-      <c r="NG5" s="22"/>
-      <c r="NH5" s="22"/>
-      <c r="NI5" s="22"/>
-      <c r="NJ5" s="22"/>
-      <c r="NK5" s="22"/>
-      <c r="NL5" s="22"/>
-      <c r="NM5" s="22"/>
-      <c r="NN5" s="22"/>
-      <c r="NO5" s="22"/>
-      <c r="NP5" s="22"/>
-      <c r="NQ5" s="22"/>
-      <c r="NR5" s="22"/>
-      <c r="NS5" s="22"/>
-      <c r="NT5" s="22"/>
-      <c r="NU5" s="22"/>
-      <c r="NV5" s="22"/>
-      <c r="NW5" s="22"/>
-      <c r="NX5" s="22"/>
-      <c r="NY5" s="22"/>
-      <c r="NZ5" s="22"/>
-      <c r="OA5" s="22"/>
-      <c r="OB5" s="22"/>
-      <c r="OC5" s="22"/>
-      <c r="OD5" s="22"/>
-      <c r="OE5" s="22"/>
-      <c r="OF5" s="22"/>
-      <c r="OG5" s="23"/>
-      <c r="OH5" s="22">
+      <c r="MY5" s="25"/>
+      <c r="MZ5" s="25"/>
+      <c r="NA5" s="25"/>
+      <c r="NB5" s="25"/>
+      <c r="NC5" s="25"/>
+      <c r="ND5" s="25"/>
+      <c r="NE5" s="25"/>
+      <c r="NF5" s="25"/>
+      <c r="NG5" s="25"/>
+      <c r="NH5" s="25"/>
+      <c r="NI5" s="25"/>
+      <c r="NJ5" s="25"/>
+      <c r="NK5" s="25"/>
+      <c r="NL5" s="25"/>
+      <c r="NM5" s="25"/>
+      <c r="NN5" s="25"/>
+      <c r="NO5" s="25"/>
+      <c r="NP5" s="25"/>
+      <c r="NQ5" s="25"/>
+      <c r="NR5" s="25"/>
+      <c r="NS5" s="25"/>
+      <c r="NT5" s="25"/>
+      <c r="NU5" s="25"/>
+      <c r="NV5" s="25"/>
+      <c r="NW5" s="25"/>
+      <c r="NX5" s="25"/>
+      <c r="NY5" s="25"/>
+      <c r="NZ5" s="25"/>
+      <c r="OA5" s="25"/>
+      <c r="OB5" s="25"/>
+      <c r="OC5" s="25"/>
+      <c r="OD5" s="25"/>
+      <c r="OE5" s="25"/>
+      <c r="OF5" s="25"/>
+      <c r="OG5" s="26"/>
+      <c r="OH5" s="25">
         <v>2009</v>
       </c>
-      <c r="OI5" s="22"/>
-      <c r="OJ5" s="22"/>
-      <c r="OK5" s="22"/>
-      <c r="OL5" s="22"/>
-      <c r="OM5" s="22"/>
-      <c r="ON5" s="22"/>
-      <c r="OO5" s="22"/>
-      <c r="OP5" s="22"/>
-      <c r="OQ5" s="22"/>
-      <c r="OR5" s="22"/>
-      <c r="OS5" s="22"/>
-      <c r="OT5" s="22"/>
-      <c r="OU5" s="22"/>
-      <c r="OV5" s="22"/>
-      <c r="OW5" s="22"/>
-      <c r="OX5" s="22"/>
-      <c r="OY5" s="22"/>
-      <c r="OZ5" s="22"/>
-      <c r="PA5" s="22"/>
-      <c r="PB5" s="22"/>
-      <c r="PC5" s="22"/>
-      <c r="PD5" s="22"/>
-      <c r="PE5" s="22"/>
-      <c r="PF5" s="22"/>
-      <c r="PG5" s="22"/>
-      <c r="PH5" s="22"/>
-      <c r="PI5" s="22"/>
-      <c r="PJ5" s="22"/>
-      <c r="PK5" s="22"/>
-      <c r="PL5" s="22"/>
-      <c r="PM5" s="22"/>
-      <c r="PN5" s="22"/>
-      <c r="PO5" s="22"/>
-      <c r="PP5" s="22"/>
-      <c r="PQ5" s="22"/>
-      <c r="PR5" s="21">
+      <c r="OI5" s="25"/>
+      <c r="OJ5" s="25"/>
+      <c r="OK5" s="25"/>
+      <c r="OL5" s="25"/>
+      <c r="OM5" s="25"/>
+      <c r="ON5" s="25"/>
+      <c r="OO5" s="25"/>
+      <c r="OP5" s="25"/>
+      <c r="OQ5" s="25"/>
+      <c r="OR5" s="25"/>
+      <c r="OS5" s="25"/>
+      <c r="OT5" s="25"/>
+      <c r="OU5" s="25"/>
+      <c r="OV5" s="25"/>
+      <c r="OW5" s="25"/>
+      <c r="OX5" s="25"/>
+      <c r="OY5" s="25"/>
+      <c r="OZ5" s="25"/>
+      <c r="PA5" s="25"/>
+      <c r="PB5" s="25"/>
+      <c r="PC5" s="25"/>
+      <c r="PD5" s="25"/>
+      <c r="PE5" s="25"/>
+      <c r="PF5" s="25"/>
+      <c r="PG5" s="25"/>
+      <c r="PH5" s="25"/>
+      <c r="PI5" s="25"/>
+      <c r="PJ5" s="25"/>
+      <c r="PK5" s="25"/>
+      <c r="PL5" s="25"/>
+      <c r="PM5" s="25"/>
+      <c r="PN5" s="25"/>
+      <c r="PO5" s="25"/>
+      <c r="PP5" s="25"/>
+      <c r="PQ5" s="25"/>
+      <c r="PR5" s="24">
         <v>2010</v>
       </c>
-      <c r="PS5" s="22"/>
-      <c r="PT5" s="22"/>
-      <c r="PU5" s="22"/>
-      <c r="PV5" s="22"/>
-      <c r="PW5" s="22"/>
-      <c r="PX5" s="22"/>
-      <c r="PY5" s="22"/>
-      <c r="PZ5" s="22"/>
-      <c r="QA5" s="22"/>
-      <c r="QB5" s="22"/>
-      <c r="QC5" s="22"/>
-      <c r="QD5" s="22"/>
-      <c r="QE5" s="22"/>
-      <c r="QF5" s="22"/>
-      <c r="QG5" s="22"/>
-      <c r="QH5" s="22"/>
-      <c r="QI5" s="22"/>
-      <c r="QJ5" s="22"/>
-      <c r="QK5" s="22"/>
-      <c r="QL5" s="22"/>
-      <c r="QM5" s="22"/>
-      <c r="QN5" s="22"/>
-      <c r="QO5" s="22"/>
-      <c r="QP5" s="22"/>
-      <c r="QQ5" s="22"/>
-      <c r="QR5" s="22"/>
-      <c r="QS5" s="22"/>
-      <c r="QT5" s="22"/>
-      <c r="QU5" s="22"/>
-      <c r="QV5" s="22"/>
-      <c r="QW5" s="22"/>
-      <c r="QX5" s="22"/>
-      <c r="QY5" s="22"/>
-      <c r="QZ5" s="22"/>
-      <c r="RA5" s="23"/>
-      <c r="RB5" s="21">
+      <c r="PS5" s="25"/>
+      <c r="PT5" s="25"/>
+      <c r="PU5" s="25"/>
+      <c r="PV5" s="25"/>
+      <c r="PW5" s="25"/>
+      <c r="PX5" s="25"/>
+      <c r="PY5" s="25"/>
+      <c r="PZ5" s="25"/>
+      <c r="QA5" s="25"/>
+      <c r="QB5" s="25"/>
+      <c r="QC5" s="25"/>
+      <c r="QD5" s="25"/>
+      <c r="QE5" s="25"/>
+      <c r="QF5" s="25"/>
+      <c r="QG5" s="25"/>
+      <c r="QH5" s="25"/>
+      <c r="QI5" s="25"/>
+      <c r="QJ5" s="25"/>
+      <c r="QK5" s="25"/>
+      <c r="QL5" s="25"/>
+      <c r="QM5" s="25"/>
+      <c r="QN5" s="25"/>
+      <c r="QO5" s="25"/>
+      <c r="QP5" s="25"/>
+      <c r="QQ5" s="25"/>
+      <c r="QR5" s="25"/>
+      <c r="QS5" s="25"/>
+      <c r="QT5" s="25"/>
+      <c r="QU5" s="25"/>
+      <c r="QV5" s="25"/>
+      <c r="QW5" s="25"/>
+      <c r="QX5" s="25"/>
+      <c r="QY5" s="25"/>
+      <c r="QZ5" s="25"/>
+      <c r="RA5" s="26"/>
+      <c r="RB5" s="24">
         <v>2011</v>
       </c>
-      <c r="RC5" s="22"/>
-      <c r="RD5" s="22"/>
-      <c r="RE5" s="22"/>
-      <c r="RF5" s="22"/>
-      <c r="RG5" s="22"/>
-      <c r="RH5" s="22"/>
-      <c r="RI5" s="22"/>
-      <c r="RJ5" s="22"/>
-      <c r="RK5" s="22"/>
-      <c r="RL5" s="22"/>
-      <c r="RM5" s="22"/>
-      <c r="RN5" s="22"/>
-      <c r="RO5" s="22"/>
-      <c r="RP5" s="22"/>
-      <c r="RQ5" s="22"/>
-      <c r="RR5" s="22"/>
-      <c r="RS5" s="22"/>
-      <c r="RT5" s="22"/>
-      <c r="RU5" s="22"/>
-      <c r="RV5" s="22"/>
-      <c r="RW5" s="22"/>
-      <c r="RX5" s="22"/>
-      <c r="RY5" s="22"/>
-      <c r="RZ5" s="22"/>
-      <c r="SA5" s="22"/>
-      <c r="SB5" s="22"/>
-      <c r="SC5" s="22"/>
-      <c r="SD5" s="22"/>
-      <c r="SE5" s="22"/>
-      <c r="SF5" s="22"/>
-      <c r="SG5" s="22"/>
-      <c r="SH5" s="22"/>
-      <c r="SI5" s="22"/>
-      <c r="SJ5" s="22"/>
-      <c r="SK5" s="23"/>
-      <c r="SL5" s="21">
+      <c r="RC5" s="25"/>
+      <c r="RD5" s="25"/>
+      <c r="RE5" s="25"/>
+      <c r="RF5" s="25"/>
+      <c r="RG5" s="25"/>
+      <c r="RH5" s="25"/>
+      <c r="RI5" s="25"/>
+      <c r="RJ5" s="25"/>
+      <c r="RK5" s="25"/>
+      <c r="RL5" s="25"/>
+      <c r="RM5" s="25"/>
+      <c r="RN5" s="25"/>
+      <c r="RO5" s="25"/>
+      <c r="RP5" s="25"/>
+      <c r="RQ5" s="25"/>
+      <c r="RR5" s="25"/>
+      <c r="RS5" s="25"/>
+      <c r="RT5" s="25"/>
+      <c r="RU5" s="25"/>
+      <c r="RV5" s="25"/>
+      <c r="RW5" s="25"/>
+      <c r="RX5" s="25"/>
+      <c r="RY5" s="25"/>
+      <c r="RZ5" s="25"/>
+      <c r="SA5" s="25"/>
+      <c r="SB5" s="25"/>
+      <c r="SC5" s="25"/>
+      <c r="SD5" s="25"/>
+      <c r="SE5" s="25"/>
+      <c r="SF5" s="25"/>
+      <c r="SG5" s="25"/>
+      <c r="SH5" s="25"/>
+      <c r="SI5" s="25"/>
+      <c r="SJ5" s="25"/>
+      <c r="SK5" s="26"/>
+      <c r="SL5" s="24">
         <v>2012</v>
       </c>
-      <c r="SM5" s="22"/>
-      <c r="SN5" s="22"/>
-      <c r="SO5" s="22"/>
-      <c r="SP5" s="22"/>
-      <c r="SQ5" s="22"/>
-      <c r="SR5" s="22"/>
-      <c r="SS5" s="22"/>
-      <c r="ST5" s="22"/>
-      <c r="SU5" s="22"/>
-      <c r="SV5" s="22"/>
-      <c r="SW5" s="22"/>
-      <c r="SX5" s="22"/>
-      <c r="SY5" s="22"/>
-      <c r="SZ5" s="22"/>
-      <c r="TA5" s="22"/>
-      <c r="TB5" s="22"/>
-      <c r="TC5" s="22"/>
-      <c r="TD5" s="22"/>
-      <c r="TE5" s="22"/>
-      <c r="TF5" s="22"/>
-      <c r="TG5" s="22"/>
-      <c r="TH5" s="22"/>
-      <c r="TI5" s="22"/>
-      <c r="TJ5" s="22"/>
-      <c r="TK5" s="22"/>
-      <c r="TL5" s="22"/>
-      <c r="TM5" s="22"/>
-      <c r="TN5" s="22"/>
-      <c r="TO5" s="22"/>
-      <c r="TP5" s="22"/>
-      <c r="TQ5" s="22"/>
-      <c r="TR5" s="22"/>
-      <c r="TS5" s="22"/>
-      <c r="TT5" s="22"/>
-      <c r="TU5" s="23"/>
-      <c r="TV5" s="21">
+      <c r="SM5" s="25"/>
+      <c r="SN5" s="25"/>
+      <c r="SO5" s="25"/>
+      <c r="SP5" s="25"/>
+      <c r="SQ5" s="25"/>
+      <c r="SR5" s="25"/>
+      <c r="SS5" s="25"/>
+      <c r="ST5" s="25"/>
+      <c r="SU5" s="25"/>
+      <c r="SV5" s="25"/>
+      <c r="SW5" s="25"/>
+      <c r="SX5" s="25"/>
+      <c r="SY5" s="25"/>
+      <c r="SZ5" s="25"/>
+      <c r="TA5" s="25"/>
+      <c r="TB5" s="25"/>
+      <c r="TC5" s="25"/>
+      <c r="TD5" s="25"/>
+      <c r="TE5" s="25"/>
+      <c r="TF5" s="25"/>
+      <c r="TG5" s="25"/>
+      <c r="TH5" s="25"/>
+      <c r="TI5" s="25"/>
+      <c r="TJ5" s="25"/>
+      <c r="TK5" s="25"/>
+      <c r="TL5" s="25"/>
+      <c r="TM5" s="25"/>
+      <c r="TN5" s="25"/>
+      <c r="TO5" s="25"/>
+      <c r="TP5" s="25"/>
+      <c r="TQ5" s="25"/>
+      <c r="TR5" s="25"/>
+      <c r="TS5" s="25"/>
+      <c r="TT5" s="25"/>
+      <c r="TU5" s="26"/>
+      <c r="TV5" s="24">
         <v>2013</v>
       </c>
-      <c r="TW5" s="22"/>
-      <c r="TX5" s="22"/>
-      <c r="TY5" s="22"/>
-      <c r="TZ5" s="22"/>
-      <c r="UA5" s="22"/>
-      <c r="UB5" s="22"/>
-      <c r="UC5" s="22"/>
-      <c r="UD5" s="22"/>
-      <c r="UE5" s="22"/>
-      <c r="UF5" s="22"/>
-      <c r="UG5" s="22"/>
-      <c r="UH5" s="22"/>
-      <c r="UI5" s="22"/>
-      <c r="UJ5" s="22"/>
-      <c r="UK5" s="22"/>
-      <c r="UL5" s="22"/>
-      <c r="UM5" s="22"/>
-      <c r="UN5" s="22"/>
-      <c r="UO5" s="22"/>
-      <c r="UP5" s="22"/>
-      <c r="UQ5" s="22"/>
-      <c r="UR5" s="22"/>
-      <c r="US5" s="22"/>
-      <c r="UT5" s="22"/>
-      <c r="UU5" s="22"/>
-      <c r="UV5" s="22"/>
-      <c r="UW5" s="22"/>
-      <c r="UX5" s="22"/>
-      <c r="UY5" s="22"/>
-      <c r="UZ5" s="22"/>
-      <c r="VA5" s="22"/>
-      <c r="VB5" s="22"/>
-      <c r="VC5" s="22"/>
-      <c r="VD5" s="22"/>
-      <c r="VE5" s="23"/>
-      <c r="VF5" s="21">
+      <c r="TW5" s="25"/>
+      <c r="TX5" s="25"/>
+      <c r="TY5" s="25"/>
+      <c r="TZ5" s="25"/>
+      <c r="UA5" s="25"/>
+      <c r="UB5" s="25"/>
+      <c r="UC5" s="25"/>
+      <c r="UD5" s="25"/>
+      <c r="UE5" s="25"/>
+      <c r="UF5" s="25"/>
+      <c r="UG5" s="25"/>
+      <c r="UH5" s="25"/>
+      <c r="UI5" s="25"/>
+      <c r="UJ5" s="25"/>
+      <c r="UK5" s="25"/>
+      <c r="UL5" s="25"/>
+      <c r="UM5" s="25"/>
+      <c r="UN5" s="25"/>
+      <c r="UO5" s="25"/>
+      <c r="UP5" s="25"/>
+      <c r="UQ5" s="25"/>
+      <c r="UR5" s="25"/>
+      <c r="US5" s="25"/>
+      <c r="UT5" s="25"/>
+      <c r="UU5" s="25"/>
+      <c r="UV5" s="25"/>
+      <c r="UW5" s="25"/>
+      <c r="UX5" s="25"/>
+      <c r="UY5" s="25"/>
+      <c r="UZ5" s="25"/>
+      <c r="VA5" s="25"/>
+      <c r="VB5" s="25"/>
+      <c r="VC5" s="25"/>
+      <c r="VD5" s="25"/>
+      <c r="VE5" s="26"/>
+      <c r="VF5" s="24">
         <v>2014</v>
       </c>
-      <c r="VG5" s="22"/>
-      <c r="VH5" s="22"/>
-      <c r="VI5" s="22"/>
-      <c r="VJ5" s="22"/>
-      <c r="VK5" s="22"/>
-      <c r="VL5" s="22"/>
-      <c r="VM5" s="22"/>
-      <c r="VN5" s="22"/>
-      <c r="VO5" s="22"/>
-      <c r="VP5" s="22"/>
-      <c r="VQ5" s="22"/>
-      <c r="VR5" s="22"/>
-      <c r="VS5" s="22"/>
-      <c r="VT5" s="22"/>
-      <c r="VU5" s="22"/>
-      <c r="VV5" s="22"/>
-      <c r="VW5" s="22"/>
-      <c r="VX5" s="22"/>
-      <c r="VY5" s="22"/>
-      <c r="VZ5" s="22"/>
-      <c r="WA5" s="22"/>
-      <c r="WB5" s="22"/>
-      <c r="WC5" s="22"/>
-      <c r="WD5" s="22"/>
-      <c r="WE5" s="22"/>
-      <c r="WF5" s="22"/>
-      <c r="WG5" s="22"/>
-      <c r="WH5" s="22"/>
-      <c r="WI5" s="22"/>
-      <c r="WJ5" s="22"/>
-      <c r="WK5" s="22"/>
-      <c r="WL5" s="22"/>
-      <c r="WM5" s="22"/>
-      <c r="WN5" s="22"/>
-      <c r="WO5" s="23"/>
-      <c r="WP5" s="21">
+      <c r="VG5" s="25"/>
+      <c r="VH5" s="25"/>
+      <c r="VI5" s="25"/>
+      <c r="VJ5" s="25"/>
+      <c r="VK5" s="25"/>
+      <c r="VL5" s="25"/>
+      <c r="VM5" s="25"/>
+      <c r="VN5" s="25"/>
+      <c r="VO5" s="25"/>
+      <c r="VP5" s="25"/>
+      <c r="VQ5" s="25"/>
+      <c r="VR5" s="25"/>
+      <c r="VS5" s="25"/>
+      <c r="VT5" s="25"/>
+      <c r="VU5" s="25"/>
+      <c r="VV5" s="25"/>
+      <c r="VW5" s="25"/>
+      <c r="VX5" s="25"/>
+      <c r="VY5" s="25"/>
+      <c r="VZ5" s="25"/>
+      <c r="WA5" s="25"/>
+      <c r="WB5" s="25"/>
+      <c r="WC5" s="25"/>
+      <c r="WD5" s="25"/>
+      <c r="WE5" s="25"/>
+      <c r="WF5" s="25"/>
+      <c r="WG5" s="25"/>
+      <c r="WH5" s="25"/>
+      <c r="WI5" s="25"/>
+      <c r="WJ5" s="25"/>
+      <c r="WK5" s="25"/>
+      <c r="WL5" s="25"/>
+      <c r="WM5" s="25"/>
+      <c r="WN5" s="25"/>
+      <c r="WO5" s="26"/>
+      <c r="WP5" s="24">
         <v>2015</v>
       </c>
-      <c r="WQ5" s="22"/>
-      <c r="WR5" s="22"/>
-      <c r="WS5" s="22"/>
-      <c r="WT5" s="22"/>
-      <c r="WU5" s="22"/>
-      <c r="WV5" s="22"/>
-      <c r="WW5" s="22"/>
-      <c r="WX5" s="22"/>
-      <c r="WY5" s="22"/>
-      <c r="WZ5" s="22"/>
-      <c r="XA5" s="22"/>
-      <c r="XB5" s="22"/>
-      <c r="XC5" s="22"/>
-      <c r="XD5" s="22"/>
-      <c r="XE5" s="22"/>
-      <c r="XF5" s="22"/>
-      <c r="XG5" s="22"/>
-      <c r="XH5" s="22"/>
-      <c r="XI5" s="22"/>
-      <c r="XJ5" s="22"/>
-      <c r="XK5" s="22"/>
-      <c r="XL5" s="22"/>
-      <c r="XM5" s="22"/>
-      <c r="XN5" s="22"/>
-      <c r="XO5" s="22"/>
-      <c r="XP5" s="22"/>
-      <c r="XQ5" s="22"/>
-      <c r="XR5" s="22"/>
-      <c r="XS5" s="22"/>
-      <c r="XT5" s="22"/>
-      <c r="XU5" s="22"/>
-      <c r="XV5" s="22"/>
-      <c r="XW5" s="22"/>
-      <c r="XX5" s="22"/>
-      <c r="XY5" s="23"/>
-      <c r="XZ5" s="21">
+      <c r="WQ5" s="25"/>
+      <c r="WR5" s="25"/>
+      <c r="WS5" s="25"/>
+      <c r="WT5" s="25"/>
+      <c r="WU5" s="25"/>
+      <c r="WV5" s="25"/>
+      <c r="WW5" s="25"/>
+      <c r="WX5" s="25"/>
+      <c r="WY5" s="25"/>
+      <c r="WZ5" s="25"/>
+      <c r="XA5" s="25"/>
+      <c r="XB5" s="25"/>
+      <c r="XC5" s="25"/>
+      <c r="XD5" s="25"/>
+      <c r="XE5" s="25"/>
+      <c r="XF5" s="25"/>
+      <c r="XG5" s="25"/>
+      <c r="XH5" s="25"/>
+      <c r="XI5" s="25"/>
+      <c r="XJ5" s="25"/>
+      <c r="XK5" s="25"/>
+      <c r="XL5" s="25"/>
+      <c r="XM5" s="25"/>
+      <c r="XN5" s="25"/>
+      <c r="XO5" s="25"/>
+      <c r="XP5" s="25"/>
+      <c r="XQ5" s="25"/>
+      <c r="XR5" s="25"/>
+      <c r="XS5" s="25"/>
+      <c r="XT5" s="25"/>
+      <c r="XU5" s="25"/>
+      <c r="XV5" s="25"/>
+      <c r="XW5" s="25"/>
+      <c r="XX5" s="25"/>
+      <c r="XY5" s="26"/>
+      <c r="XZ5" s="24">
         <v>2016</v>
       </c>
-      <c r="YA5" s="22"/>
-      <c r="YB5" s="22"/>
-      <c r="YC5" s="22"/>
-      <c r="YD5" s="22"/>
-      <c r="YE5" s="22"/>
-      <c r="YF5" s="22"/>
-      <c r="YG5" s="22"/>
-      <c r="YH5" s="22"/>
-      <c r="YI5" s="22"/>
-      <c r="YJ5" s="22"/>
-      <c r="YK5" s="22"/>
-      <c r="YL5" s="22"/>
-      <c r="YM5" s="22"/>
-      <c r="YN5" s="22"/>
-      <c r="YO5" s="22"/>
-      <c r="YP5" s="22"/>
-      <c r="YQ5" s="22"/>
-      <c r="YR5" s="22"/>
-      <c r="YS5" s="22"/>
-      <c r="YT5" s="22"/>
-      <c r="YU5" s="22"/>
-      <c r="YV5" s="22"/>
-      <c r="YW5" s="22"/>
-      <c r="YX5" s="22"/>
-      <c r="YY5" s="22"/>
-      <c r="YZ5" s="22"/>
-      <c r="ZA5" s="22"/>
-      <c r="ZB5" s="22"/>
-      <c r="ZC5" s="22"/>
-      <c r="ZD5" s="22"/>
-      <c r="ZE5" s="22"/>
-      <c r="ZF5" s="22"/>
-      <c r="ZG5" s="22"/>
-      <c r="ZH5" s="22"/>
-      <c r="ZI5" s="23"/>
-      <c r="ZJ5" s="21">
+      <c r="YA5" s="25"/>
+      <c r="YB5" s="25"/>
+      <c r="YC5" s="25"/>
+      <c r="YD5" s="25"/>
+      <c r="YE5" s="25"/>
+      <c r="YF5" s="25"/>
+      <c r="YG5" s="25"/>
+      <c r="YH5" s="25"/>
+      <c r="YI5" s="25"/>
+      <c r="YJ5" s="25"/>
+      <c r="YK5" s="25"/>
+      <c r="YL5" s="25"/>
+      <c r="YM5" s="25"/>
+      <c r="YN5" s="25"/>
+      <c r="YO5" s="25"/>
+      <c r="YP5" s="25"/>
+      <c r="YQ5" s="25"/>
+      <c r="YR5" s="25"/>
+      <c r="YS5" s="25"/>
+      <c r="YT5" s="25"/>
+      <c r="YU5" s="25"/>
+      <c r="YV5" s="25"/>
+      <c r="YW5" s="25"/>
+      <c r="YX5" s="25"/>
+      <c r="YY5" s="25"/>
+      <c r="YZ5" s="25"/>
+      <c r="ZA5" s="25"/>
+      <c r="ZB5" s="25"/>
+      <c r="ZC5" s="25"/>
+      <c r="ZD5" s="25"/>
+      <c r="ZE5" s="25"/>
+      <c r="ZF5" s="25"/>
+      <c r="ZG5" s="25"/>
+      <c r="ZH5" s="25"/>
+      <c r="ZI5" s="26"/>
+      <c r="ZJ5" s="24">
         <v>2017</v>
       </c>
-      <c r="ZK5" s="22"/>
-      <c r="ZL5" s="22"/>
-      <c r="ZM5" s="22"/>
-      <c r="ZN5" s="22"/>
-      <c r="ZO5" s="22"/>
-      <c r="ZP5" s="22"/>
-      <c r="ZQ5" s="22"/>
-      <c r="ZR5" s="22"/>
-      <c r="ZS5" s="22"/>
-      <c r="ZT5" s="22"/>
-      <c r="ZU5" s="22"/>
-      <c r="ZV5" s="22"/>
-      <c r="ZW5" s="22"/>
-      <c r="ZX5" s="22"/>
-      <c r="ZY5" s="22"/>
-      <c r="ZZ5" s="22"/>
-      <c r="AAA5" s="22"/>
-      <c r="AAB5" s="22"/>
-      <c r="AAC5" s="22"/>
-      <c r="AAD5" s="22"/>
-      <c r="AAE5" s="22"/>
-      <c r="AAF5" s="22"/>
-      <c r="AAG5" s="22"/>
-      <c r="AAH5" s="22"/>
-      <c r="AAI5" s="22"/>
-      <c r="AAJ5" s="22"/>
-      <c r="AAK5" s="22"/>
-      <c r="AAL5" s="22"/>
-      <c r="AAM5" s="22"/>
-      <c r="AAN5" s="22"/>
-      <c r="AAO5" s="22"/>
-      <c r="AAP5" s="22"/>
-      <c r="AAQ5" s="22"/>
-      <c r="AAR5" s="22"/>
-      <c r="AAS5" s="23"/>
-      <c r="AAT5" s="21">
+      <c r="ZK5" s="25"/>
+      <c r="ZL5" s="25"/>
+      <c r="ZM5" s="25"/>
+      <c r="ZN5" s="25"/>
+      <c r="ZO5" s="25"/>
+      <c r="ZP5" s="25"/>
+      <c r="ZQ5" s="25"/>
+      <c r="ZR5" s="25"/>
+      <c r="ZS5" s="25"/>
+      <c r="ZT5" s="25"/>
+      <c r="ZU5" s="25"/>
+      <c r="ZV5" s="25"/>
+      <c r="ZW5" s="25"/>
+      <c r="ZX5" s="25"/>
+      <c r="ZY5" s="25"/>
+      <c r="ZZ5" s="25"/>
+      <c r="AAA5" s="25"/>
+      <c r="AAB5" s="25"/>
+      <c r="AAC5" s="25"/>
+      <c r="AAD5" s="25"/>
+      <c r="AAE5" s="25"/>
+      <c r="AAF5" s="25"/>
+      <c r="AAG5" s="25"/>
+      <c r="AAH5" s="25"/>
+      <c r="AAI5" s="25"/>
+      <c r="AAJ5" s="25"/>
+      <c r="AAK5" s="25"/>
+      <c r="AAL5" s="25"/>
+      <c r="AAM5" s="25"/>
+      <c r="AAN5" s="25"/>
+      <c r="AAO5" s="25"/>
+      <c r="AAP5" s="25"/>
+      <c r="AAQ5" s="25"/>
+      <c r="AAR5" s="25"/>
+      <c r="AAS5" s="26"/>
+      <c r="AAT5" s="24">
         <v>2018</v>
       </c>
-      <c r="AAU5" s="22"/>
-      <c r="AAV5" s="22"/>
-      <c r="AAW5" s="22"/>
-      <c r="AAX5" s="22"/>
-      <c r="AAY5" s="22"/>
-      <c r="AAZ5" s="22"/>
-      <c r="ABA5" s="22"/>
-      <c r="ABB5" s="22"/>
-      <c r="ABC5" s="22"/>
-      <c r="ABD5" s="22"/>
-      <c r="ABE5" s="22"/>
-      <c r="ABF5" s="22"/>
-      <c r="ABG5" s="22"/>
-      <c r="ABH5" s="22"/>
-      <c r="ABI5" s="22"/>
-      <c r="ABJ5" s="22"/>
-      <c r="ABK5" s="22"/>
-      <c r="ABL5" s="22"/>
-      <c r="ABM5" s="22"/>
-      <c r="ABN5" s="22"/>
-      <c r="ABO5" s="22"/>
-      <c r="ABP5" s="22"/>
-      <c r="ABQ5" s="22"/>
-      <c r="ABR5" s="22"/>
-      <c r="ABS5" s="22"/>
-      <c r="ABT5" s="22"/>
-      <c r="ABU5" s="22"/>
-      <c r="ABV5" s="22"/>
-      <c r="ABW5" s="22"/>
-      <c r="ABX5" s="22"/>
-      <c r="ABY5" s="22"/>
-      <c r="ABZ5" s="22"/>
-      <c r="ACA5" s="22"/>
-      <c r="ACB5" s="22"/>
-      <c r="ACC5" s="23"/>
-      <c r="ACD5" s="21">
+      <c r="AAU5" s="25"/>
+      <c r="AAV5" s="25"/>
+      <c r="AAW5" s="25"/>
+      <c r="AAX5" s="25"/>
+      <c r="AAY5" s="25"/>
+      <c r="AAZ5" s="25"/>
+      <c r="ABA5" s="25"/>
+      <c r="ABB5" s="25"/>
+      <c r="ABC5" s="25"/>
+      <c r="ABD5" s="25"/>
+      <c r="ABE5" s="25"/>
+      <c r="ABF5" s="25"/>
+      <c r="ABG5" s="25"/>
+      <c r="ABH5" s="25"/>
+      <c r="ABI5" s="25"/>
+      <c r="ABJ5" s="25"/>
+      <c r="ABK5" s="25"/>
+      <c r="ABL5" s="25"/>
+      <c r="ABM5" s="25"/>
+      <c r="ABN5" s="25"/>
+      <c r="ABO5" s="25"/>
+      <c r="ABP5" s="25"/>
+      <c r="ABQ5" s="25"/>
+      <c r="ABR5" s="25"/>
+      <c r="ABS5" s="25"/>
+      <c r="ABT5" s="25"/>
+      <c r="ABU5" s="25"/>
+      <c r="ABV5" s="25"/>
+      <c r="ABW5" s="25"/>
+      <c r="ABX5" s="25"/>
+      <c r="ABY5" s="25"/>
+      <c r="ABZ5" s="25"/>
+      <c r="ACA5" s="25"/>
+      <c r="ACB5" s="25"/>
+      <c r="ACC5" s="26"/>
+      <c r="ACD5" s="24">
         <v>2019</v>
       </c>
-      <c r="ACE5" s="22"/>
-      <c r="ACF5" s="22"/>
-      <c r="ACG5" s="22"/>
-      <c r="ACH5" s="22"/>
-      <c r="ACI5" s="22"/>
-      <c r="ACJ5" s="22"/>
-      <c r="ACK5" s="22"/>
-      <c r="ACL5" s="22"/>
-      <c r="ACM5" s="22"/>
-      <c r="ACN5" s="22"/>
-      <c r="ACO5" s="22"/>
-      <c r="ACP5" s="22"/>
-      <c r="ACQ5" s="22"/>
-      <c r="ACR5" s="22"/>
-      <c r="ACS5" s="22"/>
-      <c r="ACT5" s="22"/>
-      <c r="ACU5" s="22"/>
-      <c r="ACV5" s="22"/>
-      <c r="ACW5" s="22"/>
-      <c r="ACX5" s="22"/>
-      <c r="ACY5" s="22"/>
-      <c r="ACZ5" s="22"/>
-      <c r="ADA5" s="22"/>
-      <c r="ADB5" s="22"/>
-      <c r="ADC5" s="22"/>
-      <c r="ADD5" s="22"/>
-      <c r="ADE5" s="22"/>
-      <c r="ADF5" s="22"/>
-      <c r="ADG5" s="22"/>
-      <c r="ADH5" s="22"/>
-      <c r="ADI5" s="22"/>
-      <c r="ADJ5" s="22"/>
-      <c r="ADK5" s="22"/>
-      <c r="ADL5" s="22"/>
-      <c r="ADM5" s="23"/>
-      <c r="ADN5" s="21">
+      <c r="ACE5" s="25"/>
+      <c r="ACF5" s="25"/>
+      <c r="ACG5" s="25"/>
+      <c r="ACH5" s="25"/>
+      <c r="ACI5" s="25"/>
+      <c r="ACJ5" s="25"/>
+      <c r="ACK5" s="25"/>
+      <c r="ACL5" s="25"/>
+      <c r="ACM5" s="25"/>
+      <c r="ACN5" s="25"/>
+      <c r="ACO5" s="25"/>
+      <c r="ACP5" s="25"/>
+      <c r="ACQ5" s="25"/>
+      <c r="ACR5" s="25"/>
+      <c r="ACS5" s="25"/>
+      <c r="ACT5" s="25"/>
+      <c r="ACU5" s="25"/>
+      <c r="ACV5" s="25"/>
+      <c r="ACW5" s="25"/>
+      <c r="ACX5" s="25"/>
+      <c r="ACY5" s="25"/>
+      <c r="ACZ5" s="25"/>
+      <c r="ADA5" s="25"/>
+      <c r="ADB5" s="25"/>
+      <c r="ADC5" s="25"/>
+      <c r="ADD5" s="25"/>
+      <c r="ADE5" s="25"/>
+      <c r="ADF5" s="25"/>
+      <c r="ADG5" s="25"/>
+      <c r="ADH5" s="25"/>
+      <c r="ADI5" s="25"/>
+      <c r="ADJ5" s="25"/>
+      <c r="ADK5" s="25"/>
+      <c r="ADL5" s="25"/>
+      <c r="ADM5" s="26"/>
+      <c r="ADN5" s="24">
         <v>2020</v>
       </c>
-      <c r="ADO5" s="22"/>
-      <c r="ADP5" s="22"/>
-      <c r="ADQ5" s="22"/>
-      <c r="ADR5" s="22"/>
-      <c r="ADS5" s="22"/>
-      <c r="ADT5" s="22"/>
-      <c r="ADU5" s="22"/>
-      <c r="ADV5" s="22"/>
-      <c r="ADW5" s="22"/>
-      <c r="ADX5" s="22"/>
-      <c r="ADY5" s="22"/>
-      <c r="ADZ5" s="22"/>
-      <c r="AEA5" s="22"/>
-      <c r="AEB5" s="22"/>
-      <c r="AEC5" s="22"/>
-      <c r="AED5" s="22"/>
-      <c r="AEE5" s="22"/>
-      <c r="AEF5" s="22"/>
-      <c r="AEG5" s="22"/>
-      <c r="AEH5" s="22"/>
-      <c r="AEI5" s="22"/>
-      <c r="AEJ5" s="22"/>
-      <c r="AEK5" s="22"/>
-      <c r="AEL5" s="22"/>
-      <c r="AEM5" s="22"/>
-      <c r="AEN5" s="22"/>
-      <c r="AEO5" s="22"/>
-      <c r="AEP5" s="22"/>
-      <c r="AEQ5" s="22"/>
-      <c r="AER5" s="22"/>
-      <c r="AES5" s="22"/>
-      <c r="AET5" s="22"/>
-      <c r="AEU5" s="22"/>
-      <c r="AEV5" s="22"/>
-      <c r="AEW5" s="23"/>
-      <c r="AEX5" s="24">
+      <c r="ADO5" s="25"/>
+      <c r="ADP5" s="25"/>
+      <c r="ADQ5" s="25"/>
+      <c r="ADR5" s="25"/>
+      <c r="ADS5" s="25"/>
+      <c r="ADT5" s="25"/>
+      <c r="ADU5" s="25"/>
+      <c r="ADV5" s="25"/>
+      <c r="ADW5" s="25"/>
+      <c r="ADX5" s="25"/>
+      <c r="ADY5" s="25"/>
+      <c r="ADZ5" s="25"/>
+      <c r="AEA5" s="25"/>
+      <c r="AEB5" s="25"/>
+      <c r="AEC5" s="25"/>
+      <c r="AED5" s="25"/>
+      <c r="AEE5" s="25"/>
+      <c r="AEF5" s="25"/>
+      <c r="AEG5" s="25"/>
+      <c r="AEH5" s="25"/>
+      <c r="AEI5" s="25"/>
+      <c r="AEJ5" s="25"/>
+      <c r="AEK5" s="25"/>
+      <c r="AEL5" s="25"/>
+      <c r="AEM5" s="25"/>
+      <c r="AEN5" s="25"/>
+      <c r="AEO5" s="25"/>
+      <c r="AEP5" s="25"/>
+      <c r="AEQ5" s="25"/>
+      <c r="AER5" s="25"/>
+      <c r="AES5" s="25"/>
+      <c r="AET5" s="25"/>
+      <c r="AEU5" s="25"/>
+      <c r="AEV5" s="25"/>
+      <c r="AEW5" s="26"/>
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="24"/>
-      <c r="AEZ5" s="24"/>
-      <c r="AFA5" s="24"/>
-      <c r="AFB5" s="24"/>
-      <c r="AFC5" s="24"/>
-      <c r="AFD5" s="24"/>
-      <c r="AFE5" s="24"/>
-      <c r="AFF5" s="24"/>
-      <c r="AFG5" s="24"/>
-      <c r="AFH5" s="24"/>
-      <c r="AFI5" s="24"/>
-      <c r="AFJ5" s="24"/>
-      <c r="AFK5" s="24"/>
-      <c r="AFL5" s="24"/>
-      <c r="AFM5" s="24"/>
-      <c r="AFN5" s="24"/>
-      <c r="AFO5" s="24"/>
-      <c r="AFP5" s="24"/>
-      <c r="AFQ5" s="24"/>
-      <c r="AFR5" s="24"/>
-      <c r="AFS5" s="24"/>
-      <c r="AFT5" s="24"/>
-      <c r="AFU5" s="24"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
     </row>
-    <row r="6" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="21" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="21" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="21" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="21" t="s">
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21" t="s">
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="21" t="s">
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="21" t="s">
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="21" t="s">
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="21" t="s">
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="21" t="s">
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="21" t="s">
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="21" t="s">
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="21" t="s">
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="21" t="s">
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="23"/>
-      <c r="BD6" s="21" t="s">
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="21" t="s">
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="21" t="s">
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="21" t="s">
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="23"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
-      <c r="BS6" s="21" t="s">
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="31"/>
+      <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="BT6" s="22"/>
-      <c r="BU6" s="23"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="26"/>
       <c r="BV6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
-      <c r="BY6" s="21" t="s">
+      <c r="BW6" s="31"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="23"/>
-      <c r="CB6" s="21" t="s">
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="26"/>
+      <c r="CB6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="22" t="s">
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="26"/>
+      <c r="CE6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="23"/>
-      <c r="CH6" s="21" t="s">
+      <c r="CF6" s="25"/>
+      <c r="CG6" s="26"/>
+      <c r="CH6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="22"/>
-      <c r="CJ6" s="23"/>
-      <c r="CK6" s="21" t="s">
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="26"/>
+      <c r="CK6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="23"/>
-      <c r="CN6" s="21" t="s">
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="26"/>
+      <c r="CN6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="23"/>
-      <c r="CQ6" s="21" t="s">
+      <c r="CO6" s="25"/>
+      <c r="CP6" s="26"/>
+      <c r="CQ6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="CR6" s="22"/>
-      <c r="CS6" s="23"/>
-      <c r="CT6" s="21" t="s">
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="26"/>
+      <c r="CT6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="CU6" s="22"/>
-      <c r="CV6" s="23"/>
-      <c r="CW6" s="21" t="s">
+      <c r="CU6" s="25"/>
+      <c r="CV6" s="26"/>
+      <c r="CW6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="CX6" s="22"/>
-      <c r="CY6" s="23"/>
-      <c r="CZ6" s="21" t="s">
+      <c r="CX6" s="25"/>
+      <c r="CY6" s="26"/>
+      <c r="CZ6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="DA6" s="22"/>
-      <c r="DB6" s="23"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DA6" s="25"/>
+      <c r="DB6" s="26"/>
+      <c r="DC6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
-      <c r="DF6" s="21" t="s">
+      <c r="DD6" s="31"/>
+      <c r="DE6" s="32"/>
+      <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="DG6" s="22"/>
-      <c r="DH6" s="23"/>
-      <c r="DI6" s="21" t="s">
+      <c r="DG6" s="25"/>
+      <c r="DH6" s="26"/>
+      <c r="DI6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="DJ6" s="22"/>
-      <c r="DK6" s="23"/>
-      <c r="DL6" s="21" t="s">
+      <c r="DJ6" s="25"/>
+      <c r="DK6" s="26"/>
+      <c r="DL6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="DM6" s="22"/>
-      <c r="DN6" s="23"/>
-      <c r="DO6" s="21" t="s">
+      <c r="DM6" s="25"/>
+      <c r="DN6" s="26"/>
+      <c r="DO6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="DP6" s="22"/>
-      <c r="DQ6" s="23"/>
-      <c r="DR6" s="21" t="s">
+      <c r="DP6" s="25"/>
+      <c r="DQ6" s="26"/>
+      <c r="DR6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="DS6" s="22"/>
-      <c r="DT6" s="23"/>
-      <c r="DU6" s="21" t="s">
+      <c r="DS6" s="25"/>
+      <c r="DT6" s="26"/>
+      <c r="DU6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="DV6" s="22"/>
-      <c r="DW6" s="23"/>
-      <c r="DX6" s="22" t="s">
+      <c r="DV6" s="25"/>
+      <c r="DW6" s="26"/>
+      <c r="DX6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="DY6" s="22"/>
-      <c r="DZ6" s="23"/>
-      <c r="EA6" s="22" t="s">
+      <c r="DY6" s="25"/>
+      <c r="DZ6" s="26"/>
+      <c r="EA6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="EB6" s="22"/>
-      <c r="EC6" s="23"/>
-      <c r="ED6" s="22" t="s">
+      <c r="EB6" s="25"/>
+      <c r="EC6" s="26"/>
+      <c r="ED6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="EE6" s="22"/>
-      <c r="EF6" s="23"/>
-      <c r="EG6" s="22" t="s">
+      <c r="EE6" s="25"/>
+      <c r="EF6" s="26"/>
+      <c r="EG6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="EH6" s="22"/>
-      <c r="EI6" s="23"/>
-      <c r="EJ6" s="22" t="s">
+      <c r="EH6" s="25"/>
+      <c r="EI6" s="26"/>
+      <c r="EJ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="EK6" s="22"/>
-      <c r="EL6" s="23"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EK6" s="25"/>
+      <c r="EL6" s="26"/>
+      <c r="EM6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
-      <c r="EP6" s="22" t="s">
+      <c r="EN6" s="31"/>
+      <c r="EO6" s="32"/>
+      <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="EQ6" s="22"/>
-      <c r="ER6" s="23"/>
-      <c r="ES6" s="22" t="s">
+      <c r="EQ6" s="25"/>
+      <c r="ER6" s="26"/>
+      <c r="ES6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ET6" s="22"/>
-      <c r="EU6" s="23"/>
-      <c r="EV6" s="22" t="s">
+      <c r="ET6" s="25"/>
+      <c r="EU6" s="26"/>
+      <c r="EV6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="EW6" s="22"/>
-      <c r="EX6" s="23"/>
-      <c r="EY6" s="22" t="s">
+      <c r="EW6" s="25"/>
+      <c r="EX6" s="26"/>
+      <c r="EY6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="EZ6" s="22"/>
-      <c r="FA6" s="23"/>
-      <c r="FB6" s="22" t="s">
+      <c r="EZ6" s="25"/>
+      <c r="FA6" s="26"/>
+      <c r="FB6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="FC6" s="22"/>
-      <c r="FD6" s="23"/>
-      <c r="FE6" s="22" t="s">
+      <c r="FC6" s="25"/>
+      <c r="FD6" s="26"/>
+      <c r="FE6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="FF6" s="22"/>
-      <c r="FG6" s="23"/>
-      <c r="FH6" s="22" t="s">
+      <c r="FF6" s="25"/>
+      <c r="FG6" s="26"/>
+      <c r="FH6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="FI6" s="22"/>
-      <c r="FJ6" s="23"/>
-      <c r="FK6" s="22" t="s">
+      <c r="FI6" s="25"/>
+      <c r="FJ6" s="26"/>
+      <c r="FK6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FL6" s="22"/>
-      <c r="FM6" s="23"/>
-      <c r="FN6" s="22" t="s">
+      <c r="FL6" s="25"/>
+      <c r="FM6" s="26"/>
+      <c r="FN6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="FO6" s="22"/>
-      <c r="FP6" s="23"/>
-      <c r="FQ6" s="22" t="s">
+      <c r="FO6" s="25"/>
+      <c r="FP6" s="26"/>
+      <c r="FQ6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="FR6" s="22"/>
-      <c r="FS6" s="23"/>
-      <c r="FT6" s="22" t="s">
+      <c r="FR6" s="25"/>
+      <c r="FS6" s="26"/>
+      <c r="FT6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="FU6" s="22"/>
-      <c r="FV6" s="23"/>
-      <c r="FW6" s="22" t="s">
+      <c r="FU6" s="25"/>
+      <c r="FV6" s="26"/>
+      <c r="FW6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="FX6" s="22"/>
-      <c r="FY6" s="23"/>
-      <c r="FZ6" s="22" t="s">
+      <c r="FX6" s="25"/>
+      <c r="FY6" s="26"/>
+      <c r="FZ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="GA6" s="22"/>
-      <c r="GB6" s="23"/>
-      <c r="GC6" s="22" t="s">
+      <c r="GA6" s="25"/>
+      <c r="GB6" s="26"/>
+      <c r="GC6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="GD6" s="22"/>
-      <c r="GE6" s="23"/>
-      <c r="GF6" s="22" t="s">
+      <c r="GD6" s="25"/>
+      <c r="GE6" s="26"/>
+      <c r="GF6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="GG6" s="22"/>
-      <c r="GH6" s="23"/>
-      <c r="GI6" s="22" t="s">
+      <c r="GG6" s="25"/>
+      <c r="GH6" s="26"/>
+      <c r="GI6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="GJ6" s="22"/>
-      <c r="GK6" s="23"/>
-      <c r="GL6" s="22" t="s">
+      <c r="GJ6" s="25"/>
+      <c r="GK6" s="26"/>
+      <c r="GL6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="GM6" s="22"/>
-      <c r="GN6" s="23"/>
-      <c r="GO6" s="22" t="s">
+      <c r="GM6" s="25"/>
+      <c r="GN6" s="26"/>
+      <c r="GO6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="GP6" s="22"/>
-      <c r="GQ6" s="23"/>
-      <c r="GR6" s="22" t="s">
+      <c r="GP6" s="25"/>
+      <c r="GQ6" s="26"/>
+      <c r="GR6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="GS6" s="22"/>
-      <c r="GT6" s="23"/>
-      <c r="GU6" s="22" t="s">
+      <c r="GS6" s="25"/>
+      <c r="GT6" s="26"/>
+      <c r="GU6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="GV6" s="22"/>
-      <c r="GW6" s="23"/>
-      <c r="GX6" s="22" t="s">
+      <c r="GV6" s="25"/>
+      <c r="GW6" s="26"/>
+      <c r="GX6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="GY6" s="22"/>
-      <c r="GZ6" s="23"/>
-      <c r="HA6" s="22" t="s">
+      <c r="GY6" s="25"/>
+      <c r="GZ6" s="26"/>
+      <c r="HA6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="HB6" s="22"/>
-      <c r="HC6" s="23"/>
-      <c r="HD6" s="22" t="s">
+      <c r="HB6" s="25"/>
+      <c r="HC6" s="26"/>
+      <c r="HD6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="HE6" s="22"/>
-      <c r="HF6" s="23"/>
-      <c r="HG6" s="22" t="s">
+      <c r="HE6" s="25"/>
+      <c r="HF6" s="26"/>
+      <c r="HG6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="HH6" s="22"/>
-      <c r="HI6" s="22"/>
-      <c r="HJ6" s="21" t="s">
+      <c r="HH6" s="25"/>
+      <c r="HI6" s="25"/>
+      <c r="HJ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="HK6" s="22"/>
-      <c r="HL6" s="23"/>
-      <c r="HM6" s="21" t="s">
+      <c r="HK6" s="25"/>
+      <c r="HL6" s="26"/>
+      <c r="HM6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="HN6" s="22"/>
-      <c r="HO6" s="23"/>
-      <c r="HP6" s="21" t="s">
+      <c r="HN6" s="25"/>
+      <c r="HO6" s="26"/>
+      <c r="HP6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="HQ6" s="22"/>
-      <c r="HR6" s="23"/>
-      <c r="HS6" s="21" t="s">
+      <c r="HQ6" s="25"/>
+      <c r="HR6" s="26"/>
+      <c r="HS6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="HT6" s="22"/>
-      <c r="HU6" s="23"/>
-      <c r="HV6" s="21" t="s">
+      <c r="HT6" s="25"/>
+      <c r="HU6" s="26"/>
+      <c r="HV6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="HW6" s="22"/>
-      <c r="HX6" s="23"/>
-      <c r="HY6" s="21" t="s">
+      <c r="HW6" s="25"/>
+      <c r="HX6" s="26"/>
+      <c r="HY6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="HZ6" s="22"/>
-      <c r="IA6" s="23"/>
-      <c r="IB6" s="21" t="s">
+      <c r="HZ6" s="25"/>
+      <c r="IA6" s="26"/>
+      <c r="IB6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="IC6" s="22"/>
-      <c r="ID6" s="23"/>
-      <c r="IE6" s="21" t="s">
+      <c r="IC6" s="25"/>
+      <c r="ID6" s="26"/>
+      <c r="IE6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="IF6" s="22"/>
-      <c r="IG6" s="23"/>
-      <c r="IH6" s="21" t="s">
+      <c r="IF6" s="25"/>
+      <c r="IG6" s="26"/>
+      <c r="IH6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="II6" s="22"/>
-      <c r="IJ6" s="23"/>
-      <c r="IK6" s="21" t="s">
+      <c r="II6" s="25"/>
+      <c r="IJ6" s="26"/>
+      <c r="IK6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="IL6" s="22"/>
-      <c r="IM6" s="23"/>
-      <c r="IN6" s="21" t="s">
+      <c r="IL6" s="25"/>
+      <c r="IM6" s="26"/>
+      <c r="IN6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="IO6" s="22"/>
-      <c r="IP6" s="23"/>
-      <c r="IQ6" s="21" t="s">
+      <c r="IO6" s="25"/>
+      <c r="IP6" s="26"/>
+      <c r="IQ6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="IR6" s="22"/>
-      <c r="IS6" s="22"/>
-      <c r="IT6" s="21" t="s">
+      <c r="IR6" s="25"/>
+      <c r="IS6" s="25"/>
+      <c r="IT6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="IU6" s="22"/>
-      <c r="IV6" s="23"/>
-      <c r="IW6" s="21" t="s">
+      <c r="IU6" s="25"/>
+      <c r="IV6" s="26"/>
+      <c r="IW6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="IX6" s="22"/>
-      <c r="IY6" s="23"/>
-      <c r="IZ6" s="22" t="s">
+      <c r="IX6" s="25"/>
+      <c r="IY6" s="26"/>
+      <c r="IZ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="JA6" s="22"/>
-      <c r="JB6" s="23"/>
-      <c r="JC6" s="22" t="s">
+      <c r="JA6" s="25"/>
+      <c r="JB6" s="26"/>
+      <c r="JC6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="JD6" s="22"/>
-      <c r="JE6" s="23"/>
-      <c r="JF6" s="22" t="s">
+      <c r="JD6" s="25"/>
+      <c r="JE6" s="26"/>
+      <c r="JF6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="JG6" s="22"/>
-      <c r="JH6" s="23"/>
-      <c r="JI6" s="22" t="s">
+      <c r="JG6" s="25"/>
+      <c r="JH6" s="26"/>
+      <c r="JI6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="JJ6" s="22"/>
-      <c r="JK6" s="23"/>
-      <c r="JL6" s="22" t="s">
+      <c r="JJ6" s="25"/>
+      <c r="JK6" s="26"/>
+      <c r="JL6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="JM6" s="22"/>
-      <c r="JN6" s="23"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JM6" s="25"/>
+      <c r="JN6" s="26"/>
+      <c r="JO6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="31"/>
+      <c r="JQ6" s="32"/>
+      <c r="JR6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="31"/>
+      <c r="JT6" s="32"/>
+      <c r="JU6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="31"/>
+      <c r="JW6" s="32"/>
+      <c r="JX6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="31"/>
+      <c r="JZ6" s="32"/>
+      <c r="KA6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
-      <c r="KD6" s="22" t="s">
+      <c r="KB6" s="31"/>
+      <c r="KC6" s="32"/>
+      <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="KE6" s="22"/>
-      <c r="KF6" s="23"/>
-      <c r="KG6" s="22" t="s">
+      <c r="KE6" s="25"/>
+      <c r="KF6" s="26"/>
+      <c r="KG6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="KH6" s="22"/>
-      <c r="KI6" s="23"/>
-      <c r="KJ6" s="22" t="s">
+      <c r="KH6" s="25"/>
+      <c r="KI6" s="26"/>
+      <c r="KJ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="KK6" s="22"/>
-      <c r="KL6" s="23"/>
-      <c r="KM6" s="22" t="s">
+      <c r="KK6" s="25"/>
+      <c r="KL6" s="26"/>
+      <c r="KM6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="KN6" s="22"/>
-      <c r="KO6" s="23"/>
-      <c r="KP6" s="22" t="s">
+      <c r="KN6" s="25"/>
+      <c r="KO6" s="26"/>
+      <c r="KP6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="22"/>
-      <c r="KR6" s="23"/>
-      <c r="KS6" s="22" t="s">
+      <c r="KQ6" s="25"/>
+      <c r="KR6" s="26"/>
+      <c r="KS6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="KT6" s="22"/>
-      <c r="KU6" s="23"/>
-      <c r="KV6" s="22" t="s">
+      <c r="KT6" s="25"/>
+      <c r="KU6" s="26"/>
+      <c r="KV6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="22"/>
-      <c r="KX6" s="23"/>
-      <c r="KY6" s="22" t="s">
+      <c r="KW6" s="25"/>
+      <c r="KX6" s="26"/>
+      <c r="KY6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="KZ6" s="22"/>
-      <c r="LA6" s="23"/>
-      <c r="LB6" s="22" t="s">
+      <c r="KZ6" s="25"/>
+      <c r="LA6" s="26"/>
+      <c r="LB6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="LC6" s="22"/>
-      <c r="LD6" s="23"/>
-      <c r="LE6" s="22" t="s">
+      <c r="LC6" s="25"/>
+      <c r="LD6" s="26"/>
+      <c r="LE6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="LF6" s="22"/>
-      <c r="LG6" s="23"/>
-      <c r="LH6" s="22" t="s">
+      <c r="LF6" s="25"/>
+      <c r="LG6" s="26"/>
+      <c r="LH6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="LI6" s="22"/>
-      <c r="LJ6" s="23"/>
-      <c r="LK6" s="22" t="s">
+      <c r="LI6" s="25"/>
+      <c r="LJ6" s="26"/>
+      <c r="LK6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="LL6" s="22"/>
-      <c r="LM6" s="23"/>
-      <c r="LN6" s="21" t="s">
+      <c r="LL6" s="25"/>
+      <c r="LM6" s="26"/>
+      <c r="LN6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="LO6" s="22"/>
-      <c r="LP6" s="23"/>
-      <c r="LQ6" s="22" t="s">
+      <c r="LO6" s="25"/>
+      <c r="LP6" s="26"/>
+      <c r="LQ6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="LR6" s="22"/>
-      <c r="LS6" s="23"/>
-      <c r="LT6" s="22" t="s">
+      <c r="LR6" s="25"/>
+      <c r="LS6" s="26"/>
+      <c r="LT6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="LU6" s="22"/>
-      <c r="LV6" s="23"/>
-      <c r="LW6" s="22" t="s">
+      <c r="LU6" s="25"/>
+      <c r="LV6" s="26"/>
+      <c r="LW6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="LX6" s="22"/>
-      <c r="LY6" s="23"/>
-      <c r="LZ6" s="22" t="s">
+      <c r="LX6" s="25"/>
+      <c r="LY6" s="26"/>
+      <c r="LZ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="MA6" s="22"/>
-      <c r="MB6" s="23"/>
-      <c r="MC6" s="22" t="s">
+      <c r="MA6" s="25"/>
+      <c r="MB6" s="26"/>
+      <c r="MC6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="MD6" s="22"/>
-      <c r="ME6" s="23"/>
-      <c r="MF6" s="22" t="s">
+      <c r="MD6" s="25"/>
+      <c r="ME6" s="26"/>
+      <c r="MF6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="MG6" s="22"/>
-      <c r="MH6" s="23"/>
-      <c r="MI6" s="22" t="s">
+      <c r="MG6" s="25"/>
+      <c r="MH6" s="26"/>
+      <c r="MI6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="MJ6" s="22"/>
-      <c r="MK6" s="23"/>
-      <c r="ML6" s="22" t="s">
+      <c r="MJ6" s="25"/>
+      <c r="MK6" s="26"/>
+      <c r="ML6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="MM6" s="22"/>
-      <c r="MN6" s="23"/>
-      <c r="MO6" s="22" t="s">
+      <c r="MM6" s="25"/>
+      <c r="MN6" s="26"/>
+      <c r="MO6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="MP6" s="22"/>
-      <c r="MQ6" s="23"/>
-      <c r="MR6" s="22" t="s">
+      <c r="MP6" s="25"/>
+      <c r="MQ6" s="26"/>
+      <c r="MR6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="MS6" s="22"/>
-      <c r="MT6" s="23"/>
-      <c r="MU6" s="22" t="s">
+      <c r="MS6" s="25"/>
+      <c r="MT6" s="26"/>
+      <c r="MU6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="MV6" s="22"/>
-      <c r="MW6" s="23"/>
-      <c r="MX6" s="22" t="s">
+      <c r="MV6" s="25"/>
+      <c r="MW6" s="26"/>
+      <c r="MX6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="MY6" s="22"/>
-      <c r="MZ6" s="23"/>
-      <c r="NA6" s="22" t="s">
+      <c r="MY6" s="25"/>
+      <c r="MZ6" s="26"/>
+      <c r="NA6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="NB6" s="22"/>
-      <c r="NC6" s="23"/>
-      <c r="ND6" s="22" t="s">
+      <c r="NB6" s="25"/>
+      <c r="NC6" s="26"/>
+      <c r="ND6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="NE6" s="22"/>
-      <c r="NF6" s="23"/>
-      <c r="NG6" s="22" t="s">
+      <c r="NE6" s="25"/>
+      <c r="NF6" s="26"/>
+      <c r="NG6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="NH6" s="22"/>
-      <c r="NI6" s="23"/>
-      <c r="NJ6" s="22" t="s">
+      <c r="NH6" s="25"/>
+      <c r="NI6" s="26"/>
+      <c r="NJ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="NK6" s="22"/>
-      <c r="NL6" s="23"/>
-      <c r="NM6" s="22" t="s">
+      <c r="NK6" s="25"/>
+      <c r="NL6" s="26"/>
+      <c r="NM6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="NN6" s="22"/>
-      <c r="NO6" s="23"/>
-      <c r="NP6" s="22" t="s">
+      <c r="NN6" s="25"/>
+      <c r="NO6" s="26"/>
+      <c r="NP6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="NQ6" s="22"/>
-      <c r="NR6" s="23"/>
-      <c r="NS6" s="22" t="s">
+      <c r="NQ6" s="25"/>
+      <c r="NR6" s="26"/>
+      <c r="NS6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="NT6" s="22"/>
-      <c r="NU6" s="23"/>
-      <c r="NV6" s="22" t="s">
+      <c r="NT6" s="25"/>
+      <c r="NU6" s="26"/>
+      <c r="NV6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="NW6" s="22"/>
-      <c r="NX6" s="23"/>
-      <c r="NY6" s="22" t="s">
+      <c r="NW6" s="25"/>
+      <c r="NX6" s="26"/>
+      <c r="NY6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="NZ6" s="22"/>
-      <c r="OA6" s="23"/>
-      <c r="OB6" s="22" t="s">
+      <c r="NZ6" s="25"/>
+      <c r="OA6" s="26"/>
+      <c r="OB6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="OC6" s="22"/>
-      <c r="OD6" s="23"/>
-      <c r="OE6" s="22" t="s">
+      <c r="OC6" s="25"/>
+      <c r="OD6" s="26"/>
+      <c r="OE6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="OF6" s="22"/>
-      <c r="OG6" s="23"/>
-      <c r="OH6" s="22" t="s">
+      <c r="OF6" s="25"/>
+      <c r="OG6" s="26"/>
+      <c r="OH6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="OI6" s="22"/>
-      <c r="OJ6" s="23"/>
-      <c r="OK6" s="22" t="s">
+      <c r="OI6" s="25"/>
+      <c r="OJ6" s="26"/>
+      <c r="OK6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="OL6" s="22"/>
-      <c r="OM6" s="23"/>
-      <c r="ON6" s="22" t="s">
+      <c r="OL6" s="25"/>
+      <c r="OM6" s="26"/>
+      <c r="ON6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="OO6" s="22"/>
-      <c r="OP6" s="23"/>
-      <c r="OQ6" s="22" t="s">
+      <c r="OO6" s="25"/>
+      <c r="OP6" s="26"/>
+      <c r="OQ6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="OR6" s="22"/>
-      <c r="OS6" s="23"/>
-      <c r="OT6" s="22" t="s">
+      <c r="OR6" s="25"/>
+      <c r="OS6" s="26"/>
+      <c r="OT6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="OU6" s="22"/>
-      <c r="OV6" s="23"/>
-      <c r="OW6" s="22" t="s">
+      <c r="OU6" s="25"/>
+      <c r="OV6" s="26"/>
+      <c r="OW6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="OX6" s="22"/>
-      <c r="OY6" s="23"/>
-      <c r="OZ6" s="22" t="s">
+      <c r="OX6" s="25"/>
+      <c r="OY6" s="26"/>
+      <c r="OZ6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="PA6" s="22"/>
-      <c r="PB6" s="23"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PA6" s="25"/>
+      <c r="PB6" s="26"/>
+      <c r="PC6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="31"/>
+      <c r="PE6" s="31"/>
+      <c r="PF6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="31"/>
+      <c r="PH6" s="31"/>
+      <c r="PI6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="31"/>
+      <c r="PK6" s="31"/>
+      <c r="PL6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="31"/>
+      <c r="PN6" s="31"/>
+      <c r="PO6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
-      <c r="PR6" s="22" t="s">
+      <c r="PP6" s="31"/>
+      <c r="PQ6" s="31"/>
+      <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="PS6" s="22"/>
-      <c r="PT6" s="23"/>
-      <c r="PU6" s="22" t="s">
+      <c r="PS6" s="25"/>
+      <c r="PT6" s="26"/>
+      <c r="PU6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="PV6" s="22"/>
-      <c r="PW6" s="23"/>
-      <c r="PX6" s="22" t="s">
+      <c r="PV6" s="25"/>
+      <c r="PW6" s="26"/>
+      <c r="PX6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="PY6" s="22"/>
-      <c r="PZ6" s="23"/>
-      <c r="QA6" s="22" t="s">
+      <c r="PY6" s="25"/>
+      <c r="PZ6" s="26"/>
+      <c r="QA6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="QB6" s="22"/>
-      <c r="QC6" s="23"/>
-      <c r="QD6" s="22" t="s">
+      <c r="QB6" s="25"/>
+      <c r="QC6" s="26"/>
+      <c r="QD6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="QE6" s="22"/>
-      <c r="QF6" s="23"/>
-      <c r="QG6" s="22" t="s">
+      <c r="QE6" s="25"/>
+      <c r="QF6" s="26"/>
+      <c r="QG6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="QH6" s="22"/>
-      <c r="QI6" s="23"/>
-      <c r="QJ6" s="22" t="s">
+      <c r="QH6" s="25"/>
+      <c r="QI6" s="26"/>
+      <c r="QJ6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="QK6" s="22"/>
-      <c r="QL6" s="23"/>
-      <c r="QM6" s="22" t="s">
+      <c r="QK6" s="25"/>
+      <c r="QL6" s="26"/>
+      <c r="QM6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="QN6" s="22"/>
-      <c r="QO6" s="23"/>
-      <c r="QP6" s="22" t="s">
+      <c r="QN6" s="25"/>
+      <c r="QO6" s="26"/>
+      <c r="QP6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="QQ6" s="22"/>
-      <c r="QR6" s="23"/>
-      <c r="QS6" s="22" t="s">
+      <c r="QQ6" s="25"/>
+      <c r="QR6" s="26"/>
+      <c r="QS6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="QT6" s="22"/>
-      <c r="QU6" s="23"/>
-      <c r="QV6" s="22" t="s">
+      <c r="QT6" s="25"/>
+      <c r="QU6" s="26"/>
+      <c r="QV6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="QW6" s="22"/>
-      <c r="QX6" s="23"/>
-      <c r="QY6" s="22" t="s">
+      <c r="QW6" s="25"/>
+      <c r="QX6" s="26"/>
+      <c r="QY6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="QZ6" s="22"/>
-      <c r="RA6" s="23"/>
-      <c r="RB6" s="22" t="s">
+      <c r="QZ6" s="25"/>
+      <c r="RA6" s="26"/>
+      <c r="RB6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="RC6" s="22"/>
-      <c r="RD6" s="23"/>
-      <c r="RE6" s="22" t="s">
+      <c r="RC6" s="25"/>
+      <c r="RD6" s="26"/>
+      <c r="RE6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="RF6" s="22"/>
-      <c r="RG6" s="23"/>
-      <c r="RH6" s="22" t="s">
+      <c r="RF6" s="25"/>
+      <c r="RG6" s="26"/>
+      <c r="RH6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="RI6" s="22"/>
-      <c r="RJ6" s="23"/>
-      <c r="RK6" s="22" t="s">
+      <c r="RI6" s="25"/>
+      <c r="RJ6" s="26"/>
+      <c r="RK6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="RL6" s="22"/>
-      <c r="RM6" s="23"/>
-      <c r="RN6" s="22" t="s">
+      <c r="RL6" s="25"/>
+      <c r="RM6" s="26"/>
+      <c r="RN6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="RO6" s="22"/>
-      <c r="RP6" s="23"/>
-      <c r="RQ6" s="22" t="s">
+      <c r="RO6" s="25"/>
+      <c r="RP6" s="26"/>
+      <c r="RQ6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="RR6" s="22"/>
-      <c r="RS6" s="23"/>
-      <c r="RT6" s="22" t="s">
+      <c r="RR6" s="25"/>
+      <c r="RS6" s="26"/>
+      <c r="RT6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="RU6" s="22"/>
-      <c r="RV6" s="23"/>
-      <c r="RW6" s="22" t="s">
+      <c r="RU6" s="25"/>
+      <c r="RV6" s="26"/>
+      <c r="RW6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="RX6" s="22"/>
-      <c r="RY6" s="23"/>
-      <c r="RZ6" s="22" t="s">
+      <c r="RX6" s="25"/>
+      <c r="RY6" s="26"/>
+      <c r="RZ6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="SA6" s="22"/>
-      <c r="SB6" s="23"/>
-      <c r="SC6" s="22" t="s">
+      <c r="SA6" s="25"/>
+      <c r="SB6" s="26"/>
+      <c r="SC6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="SD6" s="22"/>
-      <c r="SE6" s="23"/>
-      <c r="SF6" s="22" t="s">
+      <c r="SD6" s="25"/>
+      <c r="SE6" s="26"/>
+      <c r="SF6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="SG6" s="22"/>
-      <c r="SH6" s="23"/>
-      <c r="SI6" s="22" t="s">
+      <c r="SG6" s="25"/>
+      <c r="SH6" s="26"/>
+      <c r="SI6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="SJ6" s="22"/>
-      <c r="SK6" s="23"/>
-      <c r="SL6" s="22" t="s">
+      <c r="SJ6" s="25"/>
+      <c r="SK6" s="26"/>
+      <c r="SL6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="SM6" s="22"/>
-      <c r="SN6" s="23"/>
-      <c r="SO6" s="22" t="s">
+      <c r="SM6" s="25"/>
+      <c r="SN6" s="26"/>
+      <c r="SO6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="SP6" s="22"/>
-      <c r="SQ6" s="23"/>
-      <c r="SR6" s="22" t="s">
+      <c r="SP6" s="25"/>
+      <c r="SQ6" s="26"/>
+      <c r="SR6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="SS6" s="22"/>
-      <c r="ST6" s="23"/>
-      <c r="SU6" s="22" t="s">
+      <c r="SS6" s="25"/>
+      <c r="ST6" s="26"/>
+      <c r="SU6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="SV6" s="22"/>
-      <c r="SW6" s="23"/>
-      <c r="SX6" s="22" t="s">
+      <c r="SV6" s="25"/>
+      <c r="SW6" s="26"/>
+      <c r="SX6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="SY6" s="22"/>
-      <c r="SZ6" s="23"/>
-      <c r="TA6" s="22" t="s">
+      <c r="SY6" s="25"/>
+      <c r="SZ6" s="26"/>
+      <c r="TA6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="TB6" s="22"/>
-      <c r="TC6" s="23"/>
-      <c r="TD6" s="22" t="s">
+      <c r="TB6" s="25"/>
+      <c r="TC6" s="26"/>
+      <c r="TD6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="TE6" s="22"/>
-      <c r="TF6" s="23"/>
-      <c r="TG6" s="22" t="s">
+      <c r="TE6" s="25"/>
+      <c r="TF6" s="26"/>
+      <c r="TG6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="TH6" s="22"/>
-      <c r="TI6" s="23"/>
-      <c r="TJ6" s="22" t="s">
+      <c r="TH6" s="25"/>
+      <c r="TI6" s="26"/>
+      <c r="TJ6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="TK6" s="22"/>
-      <c r="TL6" s="23"/>
-      <c r="TM6" s="22" t="s">
+      <c r="TK6" s="25"/>
+      <c r="TL6" s="26"/>
+      <c r="TM6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="TN6" s="22"/>
-      <c r="TO6" s="23"/>
-      <c r="TP6" s="22" t="s">
+      <c r="TN6" s="25"/>
+      <c r="TO6" s="26"/>
+      <c r="TP6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="TQ6" s="22"/>
-      <c r="TR6" s="23"/>
-      <c r="TS6" s="22" t="s">
+      <c r="TQ6" s="25"/>
+      <c r="TR6" s="26"/>
+      <c r="TS6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="TT6" s="22"/>
-      <c r="TU6" s="23"/>
-      <c r="TV6" s="22" t="s">
+      <c r="TT6" s="25"/>
+      <c r="TU6" s="26"/>
+      <c r="TV6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="TW6" s="22"/>
-      <c r="TX6" s="23"/>
-      <c r="TY6" s="22" t="s">
+      <c r="TW6" s="25"/>
+      <c r="TX6" s="26"/>
+      <c r="TY6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="TZ6" s="22"/>
-      <c r="UA6" s="23"/>
-      <c r="UB6" s="22" t="s">
+      <c r="TZ6" s="25"/>
+      <c r="UA6" s="26"/>
+      <c r="UB6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="UC6" s="22"/>
-      <c r="UD6" s="23"/>
-      <c r="UE6" s="22" t="s">
+      <c r="UC6" s="25"/>
+      <c r="UD6" s="26"/>
+      <c r="UE6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="UF6" s="22"/>
-      <c r="UG6" s="23"/>
-      <c r="UH6" s="22" t="s">
+      <c r="UF6" s="25"/>
+      <c r="UG6" s="26"/>
+      <c r="UH6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="UI6" s="22"/>
-      <c r="UJ6" s="23"/>
-      <c r="UK6" s="22" t="s">
+      <c r="UI6" s="25"/>
+      <c r="UJ6" s="26"/>
+      <c r="UK6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="UL6" s="22"/>
-      <c r="UM6" s="23"/>
-      <c r="UN6" s="22" t="s">
+      <c r="UL6" s="25"/>
+      <c r="UM6" s="26"/>
+      <c r="UN6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="UO6" s="22"/>
-      <c r="UP6" s="23"/>
-      <c r="UQ6" s="22" t="s">
+      <c r="UO6" s="25"/>
+      <c r="UP6" s="26"/>
+      <c r="UQ6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="UR6" s="22"/>
-      <c r="US6" s="23"/>
-      <c r="UT6" s="22" t="s">
+      <c r="UR6" s="25"/>
+      <c r="US6" s="26"/>
+      <c r="UT6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="UU6" s="22"/>
-      <c r="UV6" s="23"/>
-      <c r="UW6" s="22" t="s">
+      <c r="UU6" s="25"/>
+      <c r="UV6" s="26"/>
+      <c r="UW6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="UX6" s="22"/>
-      <c r="UY6" s="23"/>
-      <c r="UZ6" s="22" t="s">
+      <c r="UX6" s="25"/>
+      <c r="UY6" s="26"/>
+      <c r="UZ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="VA6" s="22"/>
-      <c r="VB6" s="23"/>
-      <c r="VC6" s="22" t="s">
+      <c r="VA6" s="25"/>
+      <c r="VB6" s="26"/>
+      <c r="VC6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="VD6" s="22"/>
-      <c r="VE6" s="23"/>
-      <c r="VF6" s="22" t="s">
+      <c r="VD6" s="25"/>
+      <c r="VE6" s="26"/>
+      <c r="VF6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="VG6" s="22"/>
-      <c r="VH6" s="23"/>
-      <c r="VI6" s="22" t="s">
+      <c r="VG6" s="25"/>
+      <c r="VH6" s="26"/>
+      <c r="VI6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="VJ6" s="22"/>
-      <c r="VK6" s="23"/>
-      <c r="VL6" s="22" t="s">
+      <c r="VJ6" s="25"/>
+      <c r="VK6" s="26"/>
+      <c r="VL6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="VM6" s="22"/>
-      <c r="VN6" s="23"/>
-      <c r="VO6" s="22" t="s">
+      <c r="VM6" s="25"/>
+      <c r="VN6" s="26"/>
+      <c r="VO6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="VP6" s="22"/>
-      <c r="VQ6" s="23"/>
-      <c r="VR6" s="22" t="s">
+      <c r="VP6" s="25"/>
+      <c r="VQ6" s="26"/>
+      <c r="VR6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="VS6" s="22"/>
-      <c r="VT6" s="23"/>
-      <c r="VU6" s="22" t="s">
+      <c r="VS6" s="25"/>
+      <c r="VT6" s="26"/>
+      <c r="VU6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="VV6" s="22"/>
-      <c r="VW6" s="23"/>
-      <c r="VX6" s="22" t="s">
+      <c r="VV6" s="25"/>
+      <c r="VW6" s="26"/>
+      <c r="VX6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="VY6" s="22"/>
-      <c r="VZ6" s="23"/>
-      <c r="WA6" s="22" t="s">
+      <c r="VY6" s="25"/>
+      <c r="VZ6" s="26"/>
+      <c r="WA6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="WB6" s="22"/>
-      <c r="WC6" s="23"/>
-      <c r="WD6" s="22" t="s">
+      <c r="WB6" s="25"/>
+      <c r="WC6" s="26"/>
+      <c r="WD6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="WE6" s="22"/>
-      <c r="WF6" s="23"/>
-      <c r="WG6" s="22" t="s">
+      <c r="WE6" s="25"/>
+      <c r="WF6" s="26"/>
+      <c r="WG6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="WH6" s="22"/>
-      <c r="WI6" s="23"/>
-      <c r="WJ6" s="22" t="s">
+      <c r="WH6" s="25"/>
+      <c r="WI6" s="26"/>
+      <c r="WJ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="WK6" s="22"/>
-      <c r="WL6" s="23"/>
-      <c r="WM6" s="22" t="s">
+      <c r="WK6" s="25"/>
+      <c r="WL6" s="26"/>
+      <c r="WM6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="WN6" s="22"/>
-      <c r="WO6" s="23"/>
-      <c r="WP6" s="22" t="s">
+      <c r="WN6" s="25"/>
+      <c r="WO6" s="26"/>
+      <c r="WP6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="WQ6" s="22"/>
-      <c r="WR6" s="23"/>
-      <c r="WS6" s="22" t="s">
+      <c r="WQ6" s="25"/>
+      <c r="WR6" s="26"/>
+      <c r="WS6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="WT6" s="22"/>
-      <c r="WU6" s="23"/>
-      <c r="WV6" s="22" t="s">
+      <c r="WT6" s="25"/>
+      <c r="WU6" s="26"/>
+      <c r="WV6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="WW6" s="22"/>
-      <c r="WX6" s="23"/>
-      <c r="WY6" s="22" t="s">
+      <c r="WW6" s="25"/>
+      <c r="WX6" s="26"/>
+      <c r="WY6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="WZ6" s="22"/>
-      <c r="XA6" s="23"/>
-      <c r="XB6" s="22" t="s">
+      <c r="WZ6" s="25"/>
+      <c r="XA6" s="26"/>
+      <c r="XB6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="XC6" s="22"/>
-      <c r="XD6" s="23"/>
-      <c r="XE6" s="22" t="s">
+      <c r="XC6" s="25"/>
+      <c r="XD6" s="26"/>
+      <c r="XE6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="XF6" s="22"/>
-      <c r="XG6" s="23"/>
-      <c r="XH6" s="22" t="s">
+      <c r="XF6" s="25"/>
+      <c r="XG6" s="26"/>
+      <c r="XH6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="XI6" s="22"/>
-      <c r="XJ6" s="23"/>
-      <c r="XK6" s="22" t="s">
+      <c r="XI6" s="25"/>
+      <c r="XJ6" s="26"/>
+      <c r="XK6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="XL6" s="22"/>
-      <c r="XM6" s="23"/>
-      <c r="XN6" s="22" t="s">
+      <c r="XL6" s="25"/>
+      <c r="XM6" s="26"/>
+      <c r="XN6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="XO6" s="22"/>
-      <c r="XP6" s="23"/>
-      <c r="XQ6" s="22" t="s">
+      <c r="XO6" s="25"/>
+      <c r="XP6" s="26"/>
+      <c r="XQ6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="XR6" s="22"/>
-      <c r="XS6" s="23"/>
-      <c r="XT6" s="22" t="s">
+      <c r="XR6" s="25"/>
+      <c r="XS6" s="26"/>
+      <c r="XT6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="XU6" s="22"/>
-      <c r="XV6" s="23"/>
-      <c r="XW6" s="22" t="s">
+      <c r="XU6" s="25"/>
+      <c r="XV6" s="26"/>
+      <c r="XW6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XX6" s="22"/>
-      <c r="XY6" s="23"/>
-      <c r="XZ6" s="22" t="s">
+      <c r="XX6" s="25"/>
+      <c r="XY6" s="26"/>
+      <c r="XZ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="YA6" s="22"/>
-      <c r="YB6" s="23"/>
-      <c r="YC6" s="22" t="s">
+      <c r="YA6" s="25"/>
+      <c r="YB6" s="26"/>
+      <c r="YC6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="YD6" s="22"/>
-      <c r="YE6" s="23"/>
-      <c r="YF6" s="22" t="s">
+      <c r="YD6" s="25"/>
+      <c r="YE6" s="26"/>
+      <c r="YF6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="YG6" s="22"/>
-      <c r="YH6" s="23"/>
-      <c r="YI6" s="22" t="s">
+      <c r="YG6" s="25"/>
+      <c r="YH6" s="26"/>
+      <c r="YI6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="YJ6" s="22"/>
-      <c r="YK6" s="23"/>
-      <c r="YL6" s="22" t="s">
+      <c r="YJ6" s="25"/>
+      <c r="YK6" s="26"/>
+      <c r="YL6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="YM6" s="22"/>
-      <c r="YN6" s="23"/>
-      <c r="YO6" s="22" t="s">
+      <c r="YM6" s="25"/>
+      <c r="YN6" s="26"/>
+      <c r="YO6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="YP6" s="22"/>
-      <c r="YQ6" s="23"/>
-      <c r="YR6" s="22" t="s">
+      <c r="YP6" s="25"/>
+      <c r="YQ6" s="26"/>
+      <c r="YR6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="YS6" s="22"/>
-      <c r="YT6" s="23"/>
-      <c r="YU6" s="22" t="s">
+      <c r="YS6" s="25"/>
+      <c r="YT6" s="26"/>
+      <c r="YU6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="YV6" s="22"/>
-      <c r="YW6" s="23"/>
-      <c r="YX6" s="22" t="s">
+      <c r="YV6" s="25"/>
+      <c r="YW6" s="26"/>
+      <c r="YX6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="YY6" s="22"/>
-      <c r="YZ6" s="23"/>
-      <c r="ZA6" s="22" t="s">
+      <c r="YY6" s="25"/>
+      <c r="YZ6" s="26"/>
+      <c r="ZA6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ZB6" s="22"/>
-      <c r="ZC6" s="23"/>
-      <c r="ZD6" s="22" t="s">
+      <c r="ZB6" s="25"/>
+      <c r="ZC6" s="26"/>
+      <c r="ZD6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ZE6" s="22"/>
-      <c r="ZF6" s="23"/>
-      <c r="ZG6" s="22" t="s">
+      <c r="ZE6" s="25"/>
+      <c r="ZF6" s="26"/>
+      <c r="ZG6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ZH6" s="22"/>
-      <c r="ZI6" s="23"/>
-      <c r="ZJ6" s="22" t="s">
+      <c r="ZH6" s="25"/>
+      <c r="ZI6" s="26"/>
+      <c r="ZJ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ZK6" s="22"/>
-      <c r="ZL6" s="23"/>
-      <c r="ZM6" s="22" t="s">
+      <c r="ZK6" s="25"/>
+      <c r="ZL6" s="26"/>
+      <c r="ZM6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ZN6" s="22"/>
-      <c r="ZO6" s="23"/>
-      <c r="ZP6" s="22" t="s">
+      <c r="ZN6" s="25"/>
+      <c r="ZO6" s="26"/>
+      <c r="ZP6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ZQ6" s="22"/>
-      <c r="ZR6" s="23"/>
-      <c r="ZS6" s="22" t="s">
+      <c r="ZQ6" s="25"/>
+      <c r="ZR6" s="26"/>
+      <c r="ZS6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ZT6" s="22"/>
-      <c r="ZU6" s="23"/>
-      <c r="ZV6" s="22" t="s">
+      <c r="ZT6" s="25"/>
+      <c r="ZU6" s="26"/>
+      <c r="ZV6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ZW6" s="22"/>
-      <c r="ZX6" s="23"/>
-      <c r="ZY6" s="22" t="s">
+      <c r="ZW6" s="25"/>
+      <c r="ZX6" s="26"/>
+      <c r="ZY6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ZZ6" s="22"/>
-      <c r="AAA6" s="23"/>
-      <c r="AAB6" s="22" t="s">
+      <c r="ZZ6" s="25"/>
+      <c r="AAA6" s="26"/>
+      <c r="AAB6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AAC6" s="22"/>
-      <c r="AAD6" s="23"/>
-      <c r="AAE6" s="22" t="s">
+      <c r="AAC6" s="25"/>
+      <c r="AAD6" s="26"/>
+      <c r="AAE6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AAF6" s="22"/>
-      <c r="AAG6" s="23"/>
-      <c r="AAH6" s="22" t="s">
+      <c r="AAF6" s="25"/>
+      <c r="AAG6" s="26"/>
+      <c r="AAH6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AAI6" s="22"/>
-      <c r="AAJ6" s="23"/>
-      <c r="AAK6" s="22" t="s">
+      <c r="AAI6" s="25"/>
+      <c r="AAJ6" s="26"/>
+      <c r="AAK6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AAL6" s="22"/>
-      <c r="AAM6" s="23"/>
-      <c r="AAN6" s="22" t="s">
+      <c r="AAL6" s="25"/>
+      <c r="AAM6" s="26"/>
+      <c r="AAN6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AAO6" s="22"/>
-      <c r="AAP6" s="23"/>
-      <c r="AAQ6" s="22" t="s">
+      <c r="AAO6" s="25"/>
+      <c r="AAP6" s="26"/>
+      <c r="AAQ6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AAR6" s="22"/>
-      <c r="AAS6" s="23"/>
-      <c r="AAT6" s="22" t="s">
+      <c r="AAR6" s="25"/>
+      <c r="AAS6" s="26"/>
+      <c r="AAT6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AAU6" s="22"/>
-      <c r="AAV6" s="23"/>
-      <c r="AAW6" s="22" t="s">
+      <c r="AAU6" s="25"/>
+      <c r="AAV6" s="26"/>
+      <c r="AAW6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AAX6" s="22"/>
-      <c r="AAY6" s="23"/>
-      <c r="AAZ6" s="22" t="s">
+      <c r="AAX6" s="25"/>
+      <c r="AAY6" s="26"/>
+      <c r="AAZ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ABA6" s="22"/>
-      <c r="ABB6" s="23"/>
-      <c r="ABC6" s="22" t="s">
+      <c r="ABA6" s="25"/>
+      <c r="ABB6" s="26"/>
+      <c r="ABC6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ABD6" s="22"/>
-      <c r="ABE6" s="23"/>
-      <c r="ABF6" s="22" t="s">
+      <c r="ABD6" s="25"/>
+      <c r="ABE6" s="26"/>
+      <c r="ABF6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ABG6" s="22"/>
-      <c r="ABH6" s="23"/>
-      <c r="ABI6" s="22" t="s">
+      <c r="ABG6" s="25"/>
+      <c r="ABH6" s="26"/>
+      <c r="ABI6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ABJ6" s="22"/>
-      <c r="ABK6" s="23"/>
-      <c r="ABL6" s="22" t="s">
+      <c r="ABJ6" s="25"/>
+      <c r="ABK6" s="26"/>
+      <c r="ABL6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="ABM6" s="22"/>
-      <c r="ABN6" s="23"/>
-      <c r="ABO6" s="22" t="s">
+      <c r="ABM6" s="25"/>
+      <c r="ABN6" s="26"/>
+      <c r="ABO6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="ABP6" s="22"/>
-      <c r="ABQ6" s="23"/>
-      <c r="ABR6" s="22" t="s">
+      <c r="ABP6" s="25"/>
+      <c r="ABQ6" s="26"/>
+      <c r="ABR6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="ABS6" s="22"/>
-      <c r="ABT6" s="23"/>
-      <c r="ABU6" s="22" t="s">
+      <c r="ABS6" s="25"/>
+      <c r="ABT6" s="26"/>
+      <c r="ABU6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ABV6" s="22"/>
-      <c r="ABW6" s="23"/>
-      <c r="ABX6" s="22" t="s">
+      <c r="ABV6" s="25"/>
+      <c r="ABW6" s="26"/>
+      <c r="ABX6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ABY6" s="22"/>
-      <c r="ABZ6" s="23"/>
-      <c r="ACA6" s="22" t="s">
+      <c r="ABY6" s="25"/>
+      <c r="ABZ6" s="26"/>
+      <c r="ACA6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ACB6" s="22"/>
-      <c r="ACC6" s="23"/>
-      <c r="ACD6" s="22" t="s">
+      <c r="ACB6" s="25"/>
+      <c r="ACC6" s="26"/>
+      <c r="ACD6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ACE6" s="22"/>
-      <c r="ACF6" s="23"/>
-      <c r="ACG6" s="22" t="s">
+      <c r="ACE6" s="25"/>
+      <c r="ACF6" s="26"/>
+      <c r="ACG6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ACH6" s="22"/>
-      <c r="ACI6" s="23"/>
-      <c r="ACJ6" s="22" t="s">
+      <c r="ACH6" s="25"/>
+      <c r="ACI6" s="26"/>
+      <c r="ACJ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ACK6" s="22"/>
-      <c r="ACL6" s="23"/>
-      <c r="ACM6" s="22" t="s">
+      <c r="ACK6" s="25"/>
+      <c r="ACL6" s="26"/>
+      <c r="ACM6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ACN6" s="22"/>
-      <c r="ACO6" s="23"/>
-      <c r="ACP6" s="22" t="s">
+      <c r="ACN6" s="25"/>
+      <c r="ACO6" s="26"/>
+      <c r="ACP6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ACQ6" s="22"/>
-      <c r="ACR6" s="23"/>
-      <c r="ACS6" s="22" t="s">
+      <c r="ACQ6" s="25"/>
+      <c r="ACR6" s="26"/>
+      <c r="ACS6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ACT6" s="22"/>
-      <c r="ACU6" s="23"/>
-      <c r="ACV6" s="22" t="s">
+      <c r="ACT6" s="25"/>
+      <c r="ACU6" s="26"/>
+      <c r="ACV6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="ACW6" s="22"/>
-      <c r="ACX6" s="23"/>
-      <c r="ACY6" s="22" t="s">
+      <c r="ACW6" s="25"/>
+      <c r="ACX6" s="26"/>
+      <c r="ACY6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="ACZ6" s="22"/>
-      <c r="ADA6" s="23"/>
-      <c r="ADB6" s="22" t="s">
+      <c r="ACZ6" s="25"/>
+      <c r="ADA6" s="26"/>
+      <c r="ADB6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="ADC6" s="22"/>
-      <c r="ADD6" s="23"/>
-      <c r="ADE6" s="22" t="s">
+      <c r="ADC6" s="25"/>
+      <c r="ADD6" s="26"/>
+      <c r="ADE6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ADF6" s="22"/>
-      <c r="ADG6" s="23"/>
-      <c r="ADH6" s="22" t="s">
+      <c r="ADF6" s="25"/>
+      <c r="ADG6" s="26"/>
+      <c r="ADH6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ADI6" s="22"/>
-      <c r="ADJ6" s="23"/>
-      <c r="ADK6" s="22" t="s">
+      <c r="ADI6" s="25"/>
+      <c r="ADJ6" s="26"/>
+      <c r="ADK6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ADL6" s="22"/>
-      <c r="ADM6" s="23"/>
-      <c r="ADN6" s="22" t="s">
+      <c r="ADL6" s="25"/>
+      <c r="ADM6" s="26"/>
+      <c r="ADN6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ADO6" s="22"/>
-      <c r="ADP6" s="23"/>
-      <c r="ADQ6" s="22" t="s">
+      <c r="ADO6" s="25"/>
+      <c r="ADP6" s="26"/>
+      <c r="ADQ6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ADR6" s="22"/>
-      <c r="ADS6" s="23"/>
-      <c r="ADT6" s="22" t="s">
+      <c r="ADR6" s="25"/>
+      <c r="ADS6" s="26"/>
+      <c r="ADT6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ADU6" s="22"/>
-      <c r="ADV6" s="23"/>
-      <c r="ADW6" s="22" t="s">
+      <c r="ADU6" s="25"/>
+      <c r="ADV6" s="26"/>
+      <c r="ADW6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ADX6" s="22"/>
-      <c r="ADY6" s="23"/>
-      <c r="ADZ6" s="22" t="s">
+      <c r="ADX6" s="25"/>
+      <c r="ADY6" s="26"/>
+      <c r="ADZ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AEA6" s="22"/>
-      <c r="AEB6" s="23"/>
-      <c r="AEC6" s="22" t="s">
+      <c r="AEA6" s="25"/>
+      <c r="AEB6" s="26"/>
+      <c r="AEC6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AED6" s="22"/>
-      <c r="AEE6" s="23"/>
-      <c r="AEF6" s="22" t="s">
+      <c r="AED6" s="25"/>
+      <c r="AEE6" s="26"/>
+      <c r="AEF6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AEG6" s="22"/>
-      <c r="AEH6" s="23"/>
-      <c r="AEI6" s="22" t="s">
+      <c r="AEG6" s="25"/>
+      <c r="AEH6" s="26"/>
+      <c r="AEI6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AEJ6" s="22"/>
-      <c r="AEK6" s="23"/>
-      <c r="AEL6" s="22" t="s">
+      <c r="AEJ6" s="25"/>
+      <c r="AEK6" s="26"/>
+      <c r="AEL6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AEM6" s="22"/>
-      <c r="AEN6" s="23"/>
-      <c r="AEO6" s="22" t="s">
+      <c r="AEM6" s="25"/>
+      <c r="AEN6" s="26"/>
+      <c r="AEO6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AEP6" s="22"/>
-      <c r="AEQ6" s="23"/>
-      <c r="AER6" s="22" t="s">
+      <c r="AEP6" s="25"/>
+      <c r="AEQ6" s="26"/>
+      <c r="AER6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AES6" s="22"/>
-      <c r="AET6" s="23"/>
-      <c r="AEU6" s="22" t="s">
+      <c r="AES6" s="25"/>
+      <c r="AET6" s="26"/>
+      <c r="AEU6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AEV6" s="22"/>
-      <c r="AEW6" s="23"/>
-      <c r="AEX6" s="21" t="s">
+      <c r="AEV6" s="25"/>
+      <c r="AEW6" s="26"/>
+      <c r="AEX6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AEY6" s="22"/>
-      <c r="AEZ6" s="23"/>
-      <c r="AFA6" s="21" t="s">
+      <c r="AEY6" s="25"/>
+      <c r="AEZ6" s="26"/>
+      <c r="AFA6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AFB6" s="22"/>
-      <c r="AFC6" s="23"/>
-      <c r="AFD6" s="21" t="s">
+      <c r="AFB6" s="25"/>
+      <c r="AFC6" s="26"/>
+      <c r="AFD6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AFE6" s="22"/>
-      <c r="AFF6" s="23"/>
-      <c r="AFG6" s="21" t="s">
+      <c r="AFE6" s="25"/>
+      <c r="AFF6" s="26"/>
+      <c r="AFG6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AFH6" s="22"/>
-      <c r="AFI6" s="23"/>
-      <c r="AFJ6" s="21" t="s">
+      <c r="AFH6" s="25"/>
+      <c r="AFI6" s="26"/>
+      <c r="AFJ6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AFK6" s="22"/>
-      <c r="AFL6" s="23"/>
-      <c r="AFM6" s="21" t="s">
+      <c r="AFK6" s="25"/>
+      <c r="AFL6" s="26"/>
+      <c r="AFM6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AFN6" s="22"/>
-      <c r="AFO6" s="23"/>
-      <c r="AFP6" s="21" t="s">
+      <c r="AFN6" s="25"/>
+      <c r="AFO6" s="26"/>
+      <c r="AFP6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AFQ6" s="22"/>
-      <c r="AFR6" s="23"/>
-      <c r="AFS6" s="21" t="s">
+      <c r="AFQ6" s="25"/>
+      <c r="AFR6" s="26"/>
+      <c r="AFS6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AFT6" s="22"/>
-      <c r="AFU6" s="23"/>
+      <c r="AFT6" s="25"/>
+      <c r="AFU6" s="26"/>
+      <c r="AFV6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AFW6" s="25"/>
+      <c r="AFX6" s="26"/>
     </row>
-    <row r="7" spans="1:853" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:856" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6304,17 +6312,26 @@
       <c r="AFR7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AFS7" s="8" t="s">
+      <c r="AFS7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AFT7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AFU7" s="10" t="s">
+      <c r="AFU7" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AFV7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AFW7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AFX7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8865,17 +8882,26 @@
       <c r="AFR8" s="5">
         <v>108146</v>
       </c>
-      <c r="AFS8" s="33">
+      <c r="AFS8" s="4">
         <v>78130</v>
       </c>
-      <c r="AFT8" s="34">
+      <c r="AFT8" s="4">
         <v>34482</v>
       </c>
-      <c r="AFU8" s="35">
+      <c r="AFU8" s="4">
         <v>112612</v>
       </c>
+      <c r="AFV8" s="21">
+        <v>80272</v>
+      </c>
+      <c r="AFW8" s="22">
+        <v>34774</v>
+      </c>
+      <c r="AFX8" s="23">
+        <v>115046</v>
+      </c>
     </row>
-    <row r="9" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11426,17 +11452,26 @@
       <c r="AFR9" s="5">
         <v>382052</v>
       </c>
-      <c r="AFS9" s="3">
+      <c r="AFS9" s="4">
         <v>223033</v>
       </c>
       <c r="AFT9" s="4">
         <v>159937</v>
       </c>
-      <c r="AFU9" s="5">
+      <c r="AFU9" s="4">
         <v>382970</v>
       </c>
+      <c r="AFV9" s="3">
+        <v>224327</v>
+      </c>
+      <c r="AFW9" s="4">
+        <v>161147</v>
+      </c>
+      <c r="AFX9" s="5">
+        <v>385474</v>
+      </c>
     </row>
-    <row r="10" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -13987,17 +14022,26 @@
       <c r="AFR10" s="5">
         <v>137423</v>
       </c>
-      <c r="AFS10" s="3">
+      <c r="AFS10" s="4">
         <v>118700</v>
       </c>
       <c r="AFT10" s="4">
         <v>20903</v>
       </c>
-      <c r="AFU10" s="5">
+      <c r="AFU10" s="4">
         <v>139603</v>
       </c>
+      <c r="AFV10" s="3">
+        <v>119764</v>
+      </c>
+      <c r="AFW10" s="4">
+        <v>21048</v>
+      </c>
+      <c r="AFX10" s="5">
+        <v>140812</v>
+      </c>
     </row>
-    <row r="11" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16548,17 +16592,26 @@
       <c r="AFR11" s="5">
         <v>9603</v>
       </c>
-      <c r="AFS11" s="3">
+      <c r="AFS11" s="4">
         <v>7280</v>
       </c>
       <c r="AFT11" s="4">
         <v>2332</v>
       </c>
-      <c r="AFU11" s="5">
+      <c r="AFU11" s="4">
         <v>9612</v>
       </c>
+      <c r="AFV11" s="3">
+        <v>7277</v>
+      </c>
+      <c r="AFW11" s="4">
+        <v>2285</v>
+      </c>
+      <c r="AFX11" s="5">
+        <v>9562</v>
+      </c>
     </row>
-    <row r="12" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19109,17 +19162,26 @@
       <c r="AFR12" s="5">
         <v>473006</v>
       </c>
-      <c r="AFS12" s="3">
+      <c r="AFS12" s="4">
         <v>287595</v>
       </c>
       <c r="AFT12" s="4">
         <v>189422</v>
       </c>
-      <c r="AFU12" s="5">
+      <c r="AFU12" s="4">
         <v>477017</v>
       </c>
+      <c r="AFV12" s="3">
+        <v>288412</v>
+      </c>
+      <c r="AFW12" s="4">
+        <v>191651</v>
+      </c>
+      <c r="AFX12" s="5">
+        <v>480063</v>
+      </c>
     </row>
-    <row r="13" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21670,17 +21732,26 @@
       <c r="AFR13" s="5">
         <v>2577</v>
       </c>
-      <c r="AFS13" s="3">
+      <c r="AFS13" s="4">
         <v>2353</v>
       </c>
       <c r="AFT13" s="4">
         <v>339</v>
       </c>
-      <c r="AFU13" s="5">
+      <c r="AFU13" s="4">
         <v>2692</v>
       </c>
+      <c r="AFV13" s="3">
+        <v>2302</v>
+      </c>
+      <c r="AFW13" s="4">
+        <v>338</v>
+      </c>
+      <c r="AFX13" s="5">
+        <v>2640</v>
+      </c>
     </row>
-    <row r="14" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24231,17 +24302,26 @@
       <c r="AFR14" s="5">
         <v>351255</v>
       </c>
-      <c r="AFS14" s="3">
+      <c r="AFS14" s="4">
         <v>195248</v>
       </c>
       <c r="AFT14" s="4">
         <v>152423</v>
       </c>
-      <c r="AFU14" s="5">
+      <c r="AFU14" s="4">
         <v>347671</v>
       </c>
+      <c r="AFV14" s="3">
+        <v>194011</v>
+      </c>
+      <c r="AFW14" s="4">
+        <v>151841</v>
+      </c>
+      <c r="AFX14" s="5">
+        <v>345852</v>
+      </c>
     </row>
-    <row r="15" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26792,17 +26872,26 @@
       <c r="AFR15" s="5">
         <v>269258</v>
       </c>
-      <c r="AFS15" s="3">
+      <c r="AFS15" s="4">
         <v>122947</v>
       </c>
       <c r="AFT15" s="4">
         <v>148519</v>
       </c>
-      <c r="AFU15" s="5">
+      <c r="AFU15" s="4">
         <v>271466</v>
       </c>
+      <c r="AFV15" s="3">
+        <v>123395</v>
+      </c>
+      <c r="AFW15" s="4">
+        <v>150612</v>
+      </c>
+      <c r="AFX15" s="5">
+        <v>274007</v>
+      </c>
     </row>
-    <row r="16" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29353,17 +29442,26 @@
       <c r="AFR16" s="5">
         <v>93255</v>
       </c>
-      <c r="AFS16" s="3">
+      <c r="AFS16" s="4">
         <v>71378</v>
       </c>
       <c r="AFT16" s="4">
         <v>22954</v>
       </c>
-      <c r="AFU16" s="5">
+      <c r="AFU16" s="4">
         <v>94332</v>
       </c>
+      <c r="AFV16" s="3">
+        <v>71395</v>
+      </c>
+      <c r="AFW16" s="4">
+        <v>22880</v>
+      </c>
+      <c r="AFX16" s="5">
+        <v>94275</v>
+      </c>
     </row>
-    <row r="17" spans="1:853" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -31914,295 +32012,64 @@
       <c r="AFR17" s="16">
         <v>1826575</v>
       </c>
-      <c r="AFS17" s="14">
+      <c r="AFS17" s="15">
         <v>1106664</v>
       </c>
       <c r="AFT17" s="15">
         <v>731311</v>
       </c>
-      <c r="AFU17" s="16">
+      <c r="AFU17" s="15">
         <v>1837975</v>
       </c>
+      <c r="AFV17" s="14">
+        <v>1111155</v>
+      </c>
+      <c r="AFW17" s="15">
+        <v>736576</v>
+      </c>
+      <c r="AFX17" s="16">
+        <v>1847731</v>
+      </c>
     </row>
-    <row r="19" spans="1:853" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:856" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
-    <row r="27" spans="1:853" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:856" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="311">
+  <mergeCells count="312">
     <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AEX5:AFU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AL5:BU5"/>
     <mergeCell ref="BV5:DE5"/>
     <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
@@ -32227,29 +32094,270 @@
     <mergeCell ref="ACY6:ADA6"/>
     <mergeCell ref="ADB6:ADD6"/>
     <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AEX5:AFX5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-septiembre  2021</t>
+    <t>Enero 1998-octubre  2021</t>
   </si>
 </sst>
 </file>
@@ -901,24 +901,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AFX27"/>
+  <dimension ref="A1:AGA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AFD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFD29" sqref="AFD29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AFU31" sqref="AFU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,15 +1402,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
-    <row r="2" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1426,9 +1426,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2305,38 +2305,41 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="AEX5" s="33">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
+      <c r="AEY5" s="33"/>
+      <c r="AEZ5" s="33"/>
+      <c r="AFA5" s="33"/>
+      <c r="AFB5" s="33"/>
+      <c r="AFC5" s="33"/>
+      <c r="AFD5" s="33"/>
+      <c r="AFE5" s="33"/>
+      <c r="AFF5" s="33"/>
+      <c r="AFG5" s="33"/>
+      <c r="AFH5" s="33"/>
+      <c r="AFI5" s="33"/>
+      <c r="AFJ5" s="33"/>
+      <c r="AFK5" s="33"/>
+      <c r="AFL5" s="33"/>
+      <c r="AFM5" s="33"/>
+      <c r="AFN5" s="33"/>
+      <c r="AFO5" s="33"/>
+      <c r="AFP5" s="33"/>
+      <c r="AFQ5" s="33"/>
+      <c r="AFR5" s="33"/>
+      <c r="AFS5" s="33"/>
+      <c r="AFT5" s="33"/>
+      <c r="AFU5" s="33"/>
+      <c r="AFV5" s="33"/>
+      <c r="AFW5" s="33"/>
+      <c r="AFX5" s="33"/>
+      <c r="AFY5" s="33"/>
+      <c r="AFZ5" s="33"/>
+      <c r="AGA5" s="33"/>
     </row>
-    <row r="6" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2447,21 +2450,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="31" t="s">
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="31"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="30" t="s">
+      <c r="BV6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="31"/>
-      <c r="BX6" s="31"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -2512,11 +2515,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="31" t="s">
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="31"/>
-      <c r="DE6" s="32"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2572,11 +2575,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="31" t="s">
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="31"/>
-      <c r="EO6" s="32"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -2792,31 +2795,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="31" t="s">
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="31"/>
-      <c r="JQ6" s="32"/>
-      <c r="JR6" s="31" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="31"/>
-      <c r="JT6" s="32"/>
-      <c r="JU6" s="31" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="31"/>
-      <c r="JW6" s="32"/>
-      <c r="JX6" s="31" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="31"/>
-      <c r="JZ6" s="32"/>
-      <c r="KA6" s="31" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="31"/>
-      <c r="KC6" s="32"/>
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3032,31 +3035,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="31" t="s">
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="31"/>
-      <c r="PE6" s="31"/>
-      <c r="PF6" s="31" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="31"/>
-      <c r="PH6" s="31"/>
-      <c r="PI6" s="31" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="31"/>
-      <c r="PK6" s="31"/>
-      <c r="PL6" s="31" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="31"/>
-      <c r="PN6" s="31"/>
-      <c r="PO6" s="31" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="31"/>
-      <c r="PQ6" s="31"/>
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3762,9 +3765,14 @@
       </c>
       <c r="AFW6" s="25"/>
       <c r="AFX6" s="26"/>
+      <c r="AFY6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AFZ6" s="25"/>
+      <c r="AGA6" s="26"/>
     </row>
-    <row r="7" spans="1:856" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:859" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6330,8 +6338,17 @@
       <c r="AFX7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AFY7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AFZ7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGA7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8900,8 +8917,17 @@
       <c r="AFX8" s="23">
         <v>115046</v>
       </c>
+      <c r="AFY8" s="21">
+        <v>81554</v>
+      </c>
+      <c r="AFZ8" s="22">
+        <v>35658</v>
+      </c>
+      <c r="AGA8" s="23">
+        <v>117212</v>
+      </c>
     </row>
-    <row r="9" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11470,8 +11496,17 @@
       <c r="AFX9" s="5">
         <v>385474</v>
       </c>
+      <c r="AFY9" s="3">
+        <v>225384</v>
+      </c>
+      <c r="AFZ9" s="4">
+        <v>162989</v>
+      </c>
+      <c r="AGA9" s="5">
+        <v>388373</v>
+      </c>
     </row>
-    <row r="10" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14040,8 +14075,17 @@
       <c r="AFX10" s="5">
         <v>140812</v>
       </c>
+      <c r="AFY10" s="3">
+        <v>120354</v>
+      </c>
+      <c r="AFZ10" s="4">
+        <v>21211</v>
+      </c>
+      <c r="AGA10" s="5">
+        <v>141565</v>
+      </c>
     </row>
-    <row r="11" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16610,8 +16654,17 @@
       <c r="AFX11" s="5">
         <v>9562</v>
       </c>
+      <c r="AFY11" s="3">
+        <v>7236</v>
+      </c>
+      <c r="AFZ11" s="4">
+        <v>2272</v>
+      </c>
+      <c r="AGA11" s="5">
+        <v>9508</v>
+      </c>
     </row>
-    <row r="12" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19180,8 +19233,17 @@
       <c r="AFX12" s="5">
         <v>480063</v>
       </c>
+      <c r="AFY12" s="3">
+        <v>289007</v>
+      </c>
+      <c r="AFZ12" s="4">
+        <v>192688</v>
+      </c>
+      <c r="AGA12" s="5">
+        <v>481695</v>
+      </c>
     </row>
-    <row r="13" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21750,8 +21812,17 @@
       <c r="AFX13" s="5">
         <v>2640</v>
       </c>
+      <c r="AFY13" s="3">
+        <v>2277</v>
+      </c>
+      <c r="AFZ13" s="4">
+        <v>343</v>
+      </c>
+      <c r="AGA13" s="5">
+        <v>2620</v>
+      </c>
     </row>
-    <row r="14" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24320,8 +24391,17 @@
       <c r="AFX14" s="5">
         <v>345852</v>
       </c>
+      <c r="AFY14" s="3">
+        <v>195520</v>
+      </c>
+      <c r="AFZ14" s="4">
+        <v>153652</v>
+      </c>
+      <c r="AGA14" s="5">
+        <v>349172</v>
+      </c>
     </row>
-    <row r="15" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26890,8 +26970,17 @@
       <c r="AFX15" s="5">
         <v>274007</v>
       </c>
+      <c r="AFY15" s="3">
+        <v>122523</v>
+      </c>
+      <c r="AFZ15" s="4">
+        <v>150509</v>
+      </c>
+      <c r="AGA15" s="5">
+        <v>273032</v>
+      </c>
     </row>
-    <row r="16" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29460,8 +29549,17 @@
       <c r="AFX16" s="5">
         <v>94275</v>
       </c>
+      <c r="AFY16" s="3">
+        <v>71760</v>
+      </c>
+      <c r="AFZ16" s="4">
+        <v>23298</v>
+      </c>
+      <c r="AGA16" s="5">
+        <v>95058</v>
+      </c>
     </row>
-    <row r="17" spans="1:856" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -32030,22 +32128,320 @@
       <c r="AFX17" s="16">
         <v>1847731</v>
       </c>
+      <c r="AFY17" s="14">
+        <v>1115615</v>
+      </c>
+      <c r="AFZ17" s="15">
+        <v>742620</v>
+      </c>
+      <c r="AGA17" s="16">
+        <v>1858235</v>
+      </c>
     </row>
-    <row r="19" spans="1:856" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:859" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:856" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:859" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="313">
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AEX5:AGA5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
     <mergeCell ref="AFJ6:AFL6"/>
@@ -32070,294 +32466,6 @@
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
     <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AEX5:AFX5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-octubre  2021</t>
+    <t>Enero 1998-noviembre  2021</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGA27"/>
+  <dimension ref="A1:AGD27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFU31" sqref="AFU31"/>
+      <selection pane="topRight" activeCell="AGD19" sqref="AGD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,15 +1402,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
-    <row r="2" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1426,9 +1426,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2305,41 +2305,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="33">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="33"/>
-      <c r="AEZ5" s="33"/>
-      <c r="AFA5" s="33"/>
-      <c r="AFB5" s="33"/>
-      <c r="AFC5" s="33"/>
-      <c r="AFD5" s="33"/>
-      <c r="AFE5" s="33"/>
-      <c r="AFF5" s="33"/>
-      <c r="AFG5" s="33"/>
-      <c r="AFH5" s="33"/>
-      <c r="AFI5" s="33"/>
-      <c r="AFJ5" s="33"/>
-      <c r="AFK5" s="33"/>
-      <c r="AFL5" s="33"/>
-      <c r="AFM5" s="33"/>
-      <c r="AFN5" s="33"/>
-      <c r="AFO5" s="33"/>
-      <c r="AFP5" s="33"/>
-      <c r="AFQ5" s="33"/>
-      <c r="AFR5" s="33"/>
-      <c r="AFS5" s="33"/>
-      <c r="AFT5" s="33"/>
-      <c r="AFU5" s="33"/>
-      <c r="AFV5" s="33"/>
-      <c r="AFW5" s="33"/>
-      <c r="AFX5" s="33"/>
-      <c r="AFY5" s="33"/>
-      <c r="AFZ5" s="33"/>
-      <c r="AGA5" s="33"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
     </row>
-    <row r="6" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="35" t="s">
+      <c r="BV6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="BW6" s="30"/>
@@ -2519,7 +2522,7 @@
         <v>18</v>
       </c>
       <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DE6" s="32"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>18</v>
       </c>
       <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EO6" s="32"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -2799,27 +2802,27 @@
         <v>14</v>
       </c>
       <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
+      <c r="JQ6" s="32"/>
       <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
       <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
+      <c r="JT6" s="32"/>
       <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
       <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
+      <c r="JW6" s="32"/>
       <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
+      <c r="JZ6" s="32"/>
       <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KC6" s="32"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3770,9 +3773,14 @@
       </c>
       <c r="AFZ6" s="25"/>
       <c r="AGA6" s="26"/>
+      <c r="AGB6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AGC6" s="25"/>
+      <c r="AGD6" s="26"/>
     </row>
-    <row r="7" spans="1:859" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:862" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6338,17 +6346,26 @@
       <c r="AFX7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AFY7" s="8" t="s">
+      <c r="AFY7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AFZ7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AGA7" s="10" t="s">
+      <c r="AGA7" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AGB7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGC7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGD7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8917,17 +8934,26 @@
       <c r="AFX8" s="23">
         <v>115046</v>
       </c>
-      <c r="AFY8" s="21">
+      <c r="AFY8" s="22">
         <v>81554</v>
       </c>
       <c r="AFZ8" s="22">
         <v>35658</v>
       </c>
-      <c r="AGA8" s="23">
+      <c r="AGA8" s="22">
         <v>117212</v>
       </c>
+      <c r="AGB8" s="21">
+        <v>82936</v>
+      </c>
+      <c r="AGC8" s="22">
+        <v>36284</v>
+      </c>
+      <c r="AGD8" s="23">
+        <v>119220</v>
+      </c>
     </row>
-    <row r="9" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11496,17 +11522,26 @@
       <c r="AFX9" s="5">
         <v>385474</v>
       </c>
-      <c r="AFY9" s="3">
+      <c r="AFY9" s="4">
         <v>225384</v>
       </c>
       <c r="AFZ9" s="4">
         <v>162989</v>
       </c>
-      <c r="AGA9" s="5">
+      <c r="AGA9" s="4">
         <v>388373</v>
       </c>
+      <c r="AGB9" s="3">
+        <v>226415</v>
+      </c>
+      <c r="AGC9" s="4">
+        <v>164819</v>
+      </c>
+      <c r="AGD9" s="5">
+        <v>391234</v>
+      </c>
     </row>
-    <row r="10" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14075,17 +14110,26 @@
       <c r="AFX10" s="5">
         <v>140812</v>
       </c>
-      <c r="AFY10" s="3">
+      <c r="AFY10" s="4">
         <v>120354</v>
       </c>
       <c r="AFZ10" s="4">
         <v>21211</v>
       </c>
-      <c r="AGA10" s="5">
+      <c r="AGA10" s="4">
         <v>141565</v>
       </c>
+      <c r="AGB10" s="3">
+        <v>120408</v>
+      </c>
+      <c r="AGC10" s="4">
+        <v>21415</v>
+      </c>
+      <c r="AGD10" s="5">
+        <v>141823</v>
+      </c>
     </row>
-    <row r="11" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16654,17 +16698,26 @@
       <c r="AFX11" s="5">
         <v>9562</v>
       </c>
-      <c r="AFY11" s="3">
+      <c r="AFY11" s="4">
         <v>7236</v>
       </c>
       <c r="AFZ11" s="4">
         <v>2272</v>
       </c>
-      <c r="AGA11" s="5">
+      <c r="AGA11" s="4">
         <v>9508</v>
       </c>
+      <c r="AGB11" s="3">
+        <v>7295</v>
+      </c>
+      <c r="AGC11" s="4">
+        <v>2275</v>
+      </c>
+      <c r="AGD11" s="5">
+        <v>9570</v>
+      </c>
     </row>
-    <row r="12" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19233,17 +19286,26 @@
       <c r="AFX12" s="5">
         <v>480063</v>
       </c>
-      <c r="AFY12" s="3">
+      <c r="AFY12" s="4">
         <v>289007</v>
       </c>
       <c r="AFZ12" s="4">
         <v>192688</v>
       </c>
-      <c r="AGA12" s="5">
+      <c r="AGA12" s="4">
         <v>481695</v>
       </c>
+      <c r="AGB12" s="3">
+        <v>290764</v>
+      </c>
+      <c r="AGC12" s="4">
+        <v>193884</v>
+      </c>
+      <c r="AGD12" s="5">
+        <v>484648</v>
+      </c>
     </row>
-    <row r="13" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21812,17 +21874,26 @@
       <c r="AFX13" s="5">
         <v>2640</v>
       </c>
-      <c r="AFY13" s="3">
+      <c r="AFY13" s="4">
         <v>2277</v>
       </c>
       <c r="AFZ13" s="4">
         <v>343</v>
       </c>
-      <c r="AGA13" s="5">
+      <c r="AGA13" s="4">
         <v>2620</v>
       </c>
+      <c r="AGB13" s="3">
+        <v>2301</v>
+      </c>
+      <c r="AGC13" s="4">
+        <v>345</v>
+      </c>
+      <c r="AGD13" s="5">
+        <v>2646</v>
+      </c>
     </row>
-    <row r="14" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24391,17 +24462,26 @@
       <c r="AFX14" s="5">
         <v>345852</v>
       </c>
-      <c r="AFY14" s="3">
+      <c r="AFY14" s="4">
         <v>195520</v>
       </c>
       <c r="AFZ14" s="4">
         <v>153652</v>
       </c>
-      <c r="AGA14" s="5">
+      <c r="AGA14" s="4">
         <v>349172</v>
       </c>
+      <c r="AGB14" s="3">
+        <v>196125</v>
+      </c>
+      <c r="AGC14" s="4">
+        <v>154568</v>
+      </c>
+      <c r="AGD14" s="5">
+        <v>350693</v>
+      </c>
     </row>
-    <row r="15" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -26970,17 +27050,26 @@
       <c r="AFX15" s="5">
         <v>274007</v>
       </c>
-      <c r="AFY15" s="3">
+      <c r="AFY15" s="4">
         <v>122523</v>
       </c>
       <c r="AFZ15" s="4">
         <v>150509</v>
       </c>
-      <c r="AGA15" s="5">
+      <c r="AGA15" s="4">
         <v>273032</v>
       </c>
+      <c r="AGB15" s="3">
+        <v>124322</v>
+      </c>
+      <c r="AGC15" s="4">
+        <v>151448</v>
+      </c>
+      <c r="AGD15" s="5">
+        <v>275770</v>
+      </c>
     </row>
-    <row r="16" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29549,17 +29638,26 @@
       <c r="AFX16" s="5">
         <v>94275</v>
       </c>
-      <c r="AFY16" s="3">
+      <c r="AFY16" s="4">
         <v>71760</v>
       </c>
       <c r="AFZ16" s="4">
         <v>23298</v>
       </c>
-      <c r="AGA16" s="5">
+      <c r="AGA16" s="4">
         <v>95058</v>
       </c>
+      <c r="AGB16" s="3">
+        <v>73770</v>
+      </c>
+      <c r="AGC16" s="4">
+        <v>24102</v>
+      </c>
+      <c r="AGD16" s="5">
+        <v>97872</v>
+      </c>
     </row>
-    <row r="17" spans="1:859" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -32128,320 +32226,41 @@
       <c r="AFX17" s="16">
         <v>1847731</v>
       </c>
-      <c r="AFY17" s="14">
+      <c r="AFY17" s="15">
         <v>1115615</v>
       </c>
       <c r="AFZ17" s="15">
         <v>742620</v>
       </c>
-      <c r="AGA17" s="16">
+      <c r="AGA17" s="15">
         <v>1858235</v>
       </c>
+      <c r="AGB17" s="14">
+        <v>1124336</v>
+      </c>
+      <c r="AGC17" s="15">
+        <v>749140</v>
+      </c>
+      <c r="AGD17" s="16">
+        <v>1873476</v>
+      </c>
     </row>
-    <row r="19" spans="1:859" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:862" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
-    <row r="27" spans="1:859" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:862" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="313">
-    <mergeCell ref="AFV6:AFX6"/>
+  <mergeCells count="314">
     <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AEX5:AGA5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
     <mergeCell ref="AFJ6:AFL6"/>
@@ -32466,6 +32285,295 @@
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
     <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AEX5:AGD5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="EV6:EX6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-noviembre  2021</t>
+    <t>Enero 1998-diciembre  2021</t>
   </si>
 </sst>
 </file>
@@ -892,16 +892,22 @@
     <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -910,14 +916,8 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGD27"/>
+  <dimension ref="A1:AGG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGD19" sqref="AGD19"/>
+      <selection pane="topRight" activeCell="AGD32" sqref="AGD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1402,15 +1402,15 @@
     <col min="848" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1426,885 +1426,885 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="26">
         <v>1998</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="24">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="26">
         <v>1999</v>
       </c>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="25"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="25"/>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="25"/>
-      <c r="BN5" s="25"/>
-      <c r="BO5" s="25"/>
-      <c r="BP5" s="25"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="24">
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="24"/>
+      <c r="BN5" s="24"/>
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="24"/>
+      <c r="BQ5" s="24"/>
+      <c r="BR5" s="24"/>
+      <c r="BS5" s="24"/>
+      <c r="BT5" s="24"/>
+      <c r="BU5" s="25"/>
+      <c r="BV5" s="26">
         <v>2000</v>
       </c>
-      <c r="BW5" s="25"/>
-      <c r="BX5" s="25"/>
-      <c r="BY5" s="25"/>
-      <c r="BZ5" s="25"/>
-      <c r="CA5" s="25"/>
-      <c r="CB5" s="25"/>
-      <c r="CC5" s="25"/>
-      <c r="CD5" s="25"/>
-      <c r="CE5" s="25"/>
-      <c r="CF5" s="25"/>
-      <c r="CG5" s="25"/>
-      <c r="CH5" s="25"/>
-      <c r="CI5" s="25"/>
-      <c r="CJ5" s="25"/>
-      <c r="CK5" s="25"/>
-      <c r="CL5" s="25"/>
-      <c r="CM5" s="25"/>
-      <c r="CN5" s="25"/>
-      <c r="CO5" s="25"/>
-      <c r="CP5" s="25"/>
-      <c r="CQ5" s="25"/>
-      <c r="CR5" s="25"/>
-      <c r="CS5" s="25"/>
-      <c r="CT5" s="25"/>
-      <c r="CU5" s="25"/>
-      <c r="CV5" s="25"/>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="25"/>
-      <c r="CY5" s="25"/>
-      <c r="CZ5" s="25"/>
-      <c r="DA5" s="25"/>
-      <c r="DB5" s="25"/>
-      <c r="DC5" s="25"/>
-      <c r="DD5" s="25"/>
-      <c r="DE5" s="26"/>
-      <c r="DF5" s="24">
+      <c r="BW5" s="24"/>
+      <c r="BX5" s="24"/>
+      <c r="BY5" s="24"/>
+      <c r="BZ5" s="24"/>
+      <c r="CA5" s="24"/>
+      <c r="CB5" s="24"/>
+      <c r="CC5" s="24"/>
+      <c r="CD5" s="24"/>
+      <c r="CE5" s="24"/>
+      <c r="CF5" s="24"/>
+      <c r="CG5" s="24"/>
+      <c r="CH5" s="24"/>
+      <c r="CI5" s="24"/>
+      <c r="CJ5" s="24"/>
+      <c r="CK5" s="24"/>
+      <c r="CL5" s="24"/>
+      <c r="CM5" s="24"/>
+      <c r="CN5" s="24"/>
+      <c r="CO5" s="24"/>
+      <c r="CP5" s="24"/>
+      <c r="CQ5" s="24"/>
+      <c r="CR5" s="24"/>
+      <c r="CS5" s="24"/>
+      <c r="CT5" s="24"/>
+      <c r="CU5" s="24"/>
+      <c r="CV5" s="24"/>
+      <c r="CW5" s="24"/>
+      <c r="CX5" s="24"/>
+      <c r="CY5" s="24"/>
+      <c r="CZ5" s="24"/>
+      <c r="DA5" s="24"/>
+      <c r="DB5" s="24"/>
+      <c r="DC5" s="24"/>
+      <c r="DD5" s="24"/>
+      <c r="DE5" s="25"/>
+      <c r="DF5" s="26">
         <v>2001</v>
       </c>
-      <c r="DG5" s="25"/>
-      <c r="DH5" s="25"/>
-      <c r="DI5" s="25"/>
-      <c r="DJ5" s="25"/>
-      <c r="DK5" s="25"/>
-      <c r="DL5" s="25"/>
-      <c r="DM5" s="25"/>
-      <c r="DN5" s="25"/>
-      <c r="DO5" s="25"/>
-      <c r="DP5" s="25"/>
-      <c r="DQ5" s="25"/>
-      <c r="DR5" s="25"/>
-      <c r="DS5" s="25"/>
-      <c r="DT5" s="25"/>
-      <c r="DU5" s="25"/>
-      <c r="DV5" s="25"/>
-      <c r="DW5" s="25"/>
-      <c r="DX5" s="25"/>
-      <c r="DY5" s="25"/>
-      <c r="DZ5" s="25"/>
-      <c r="EA5" s="25"/>
-      <c r="EB5" s="25"/>
-      <c r="EC5" s="25"/>
-      <c r="ED5" s="25"/>
-      <c r="EE5" s="25"/>
-      <c r="EF5" s="25"/>
-      <c r="EG5" s="25"/>
-      <c r="EH5" s="25"/>
-      <c r="EI5" s="25"/>
-      <c r="EJ5" s="25"/>
-      <c r="EK5" s="25"/>
-      <c r="EL5" s="25"/>
-      <c r="EM5" s="25"/>
-      <c r="EN5" s="25"/>
-      <c r="EO5" s="26"/>
-      <c r="EP5" s="24">
+      <c r="DG5" s="24"/>
+      <c r="DH5" s="24"/>
+      <c r="DI5" s="24"/>
+      <c r="DJ5" s="24"/>
+      <c r="DK5" s="24"/>
+      <c r="DL5" s="24"/>
+      <c r="DM5" s="24"/>
+      <c r="DN5" s="24"/>
+      <c r="DO5" s="24"/>
+      <c r="DP5" s="24"/>
+      <c r="DQ5" s="24"/>
+      <c r="DR5" s="24"/>
+      <c r="DS5" s="24"/>
+      <c r="DT5" s="24"/>
+      <c r="DU5" s="24"/>
+      <c r="DV5" s="24"/>
+      <c r="DW5" s="24"/>
+      <c r="DX5" s="24"/>
+      <c r="DY5" s="24"/>
+      <c r="DZ5" s="24"/>
+      <c r="EA5" s="24"/>
+      <c r="EB5" s="24"/>
+      <c r="EC5" s="24"/>
+      <c r="ED5" s="24"/>
+      <c r="EE5" s="24"/>
+      <c r="EF5" s="24"/>
+      <c r="EG5" s="24"/>
+      <c r="EH5" s="24"/>
+      <c r="EI5" s="24"/>
+      <c r="EJ5" s="24"/>
+      <c r="EK5" s="24"/>
+      <c r="EL5" s="24"/>
+      <c r="EM5" s="24"/>
+      <c r="EN5" s="24"/>
+      <c r="EO5" s="25"/>
+      <c r="EP5" s="26">
         <v>2002</v>
       </c>
-      <c r="EQ5" s="25"/>
-      <c r="ER5" s="25"/>
-      <c r="ES5" s="25"/>
-      <c r="ET5" s="25"/>
-      <c r="EU5" s="25"/>
-      <c r="EV5" s="25"/>
-      <c r="EW5" s="25"/>
-      <c r="EX5" s="25"/>
-      <c r="EY5" s="25"/>
-      <c r="EZ5" s="25"/>
-      <c r="FA5" s="25"/>
-      <c r="FB5" s="25"/>
-      <c r="FC5" s="25"/>
-      <c r="FD5" s="25"/>
-      <c r="FE5" s="25"/>
-      <c r="FF5" s="25"/>
-      <c r="FG5" s="25"/>
-      <c r="FH5" s="25"/>
-      <c r="FI5" s="25"/>
-      <c r="FJ5" s="25"/>
-      <c r="FK5" s="25"/>
-      <c r="FL5" s="25"/>
-      <c r="FM5" s="25"/>
-      <c r="FN5" s="25"/>
-      <c r="FO5" s="25"/>
-      <c r="FP5" s="25"/>
-      <c r="FQ5" s="25"/>
-      <c r="FR5" s="25"/>
-      <c r="FS5" s="25"/>
-      <c r="FT5" s="25"/>
-      <c r="FU5" s="25"/>
-      <c r="FV5" s="25"/>
-      <c r="FW5" s="25"/>
-      <c r="FX5" s="25"/>
-      <c r="FY5" s="26"/>
-      <c r="FZ5" s="24">
+      <c r="EQ5" s="24"/>
+      <c r="ER5" s="24"/>
+      <c r="ES5" s="24"/>
+      <c r="ET5" s="24"/>
+      <c r="EU5" s="24"/>
+      <c r="EV5" s="24"/>
+      <c r="EW5" s="24"/>
+      <c r="EX5" s="24"/>
+      <c r="EY5" s="24"/>
+      <c r="EZ5" s="24"/>
+      <c r="FA5" s="24"/>
+      <c r="FB5" s="24"/>
+      <c r="FC5" s="24"/>
+      <c r="FD5" s="24"/>
+      <c r="FE5" s="24"/>
+      <c r="FF5" s="24"/>
+      <c r="FG5" s="24"/>
+      <c r="FH5" s="24"/>
+      <c r="FI5" s="24"/>
+      <c r="FJ5" s="24"/>
+      <c r="FK5" s="24"/>
+      <c r="FL5" s="24"/>
+      <c r="FM5" s="24"/>
+      <c r="FN5" s="24"/>
+      <c r="FO5" s="24"/>
+      <c r="FP5" s="24"/>
+      <c r="FQ5" s="24"/>
+      <c r="FR5" s="24"/>
+      <c r="FS5" s="24"/>
+      <c r="FT5" s="24"/>
+      <c r="FU5" s="24"/>
+      <c r="FV5" s="24"/>
+      <c r="FW5" s="24"/>
+      <c r="FX5" s="24"/>
+      <c r="FY5" s="25"/>
+      <c r="FZ5" s="26">
         <v>2003</v>
       </c>
-      <c r="GA5" s="25"/>
-      <c r="GB5" s="25"/>
-      <c r="GC5" s="25"/>
-      <c r="GD5" s="25"/>
-      <c r="GE5" s="25"/>
-      <c r="GF5" s="25"/>
-      <c r="GG5" s="25"/>
-      <c r="GH5" s="25"/>
-      <c r="GI5" s="25"/>
-      <c r="GJ5" s="25"/>
-      <c r="GK5" s="25"/>
-      <c r="GL5" s="25"/>
-      <c r="GM5" s="25"/>
-      <c r="GN5" s="25"/>
-      <c r="GO5" s="25"/>
-      <c r="GP5" s="25"/>
-      <c r="GQ5" s="25"/>
-      <c r="GR5" s="25"/>
-      <c r="GS5" s="25"/>
-      <c r="GT5" s="25"/>
-      <c r="GU5" s="25"/>
-      <c r="GV5" s="25"/>
-      <c r="GW5" s="25"/>
-      <c r="GX5" s="25"/>
-      <c r="GY5" s="25"/>
-      <c r="GZ5" s="25"/>
-      <c r="HA5" s="25"/>
-      <c r="HB5" s="25"/>
-      <c r="HC5" s="25"/>
-      <c r="HD5" s="25"/>
-      <c r="HE5" s="25"/>
-      <c r="HF5" s="25"/>
-      <c r="HG5" s="25"/>
-      <c r="HH5" s="25"/>
-      <c r="HI5" s="26"/>
-      <c r="HJ5" s="24">
+      <c r="GA5" s="24"/>
+      <c r="GB5" s="24"/>
+      <c r="GC5" s="24"/>
+      <c r="GD5" s="24"/>
+      <c r="GE5" s="24"/>
+      <c r="GF5" s="24"/>
+      <c r="GG5" s="24"/>
+      <c r="GH5" s="24"/>
+      <c r="GI5" s="24"/>
+      <c r="GJ5" s="24"/>
+      <c r="GK5" s="24"/>
+      <c r="GL5" s="24"/>
+      <c r="GM5" s="24"/>
+      <c r="GN5" s="24"/>
+      <c r="GO5" s="24"/>
+      <c r="GP5" s="24"/>
+      <c r="GQ5" s="24"/>
+      <c r="GR5" s="24"/>
+      <c r="GS5" s="24"/>
+      <c r="GT5" s="24"/>
+      <c r="GU5" s="24"/>
+      <c r="GV5" s="24"/>
+      <c r="GW5" s="24"/>
+      <c r="GX5" s="24"/>
+      <c r="GY5" s="24"/>
+      <c r="GZ5" s="24"/>
+      <c r="HA5" s="24"/>
+      <c r="HB5" s="24"/>
+      <c r="HC5" s="24"/>
+      <c r="HD5" s="24"/>
+      <c r="HE5" s="24"/>
+      <c r="HF5" s="24"/>
+      <c r="HG5" s="24"/>
+      <c r="HH5" s="24"/>
+      <c r="HI5" s="25"/>
+      <c r="HJ5" s="26">
         <v>2004</v>
       </c>
-      <c r="HK5" s="25"/>
-      <c r="HL5" s="25"/>
-      <c r="HM5" s="25"/>
-      <c r="HN5" s="25"/>
-      <c r="HO5" s="25"/>
-      <c r="HP5" s="25"/>
-      <c r="HQ5" s="25"/>
-      <c r="HR5" s="25"/>
-      <c r="HS5" s="25"/>
-      <c r="HT5" s="25"/>
-      <c r="HU5" s="25"/>
-      <c r="HV5" s="25"/>
-      <c r="HW5" s="25"/>
-      <c r="HX5" s="25"/>
-      <c r="HY5" s="25"/>
-      <c r="HZ5" s="25"/>
-      <c r="IA5" s="25"/>
-      <c r="IB5" s="25"/>
-      <c r="IC5" s="25"/>
-      <c r="ID5" s="25"/>
-      <c r="IE5" s="25"/>
-      <c r="IF5" s="25"/>
-      <c r="IG5" s="25"/>
-      <c r="IH5" s="25"/>
-      <c r="II5" s="25"/>
-      <c r="IJ5" s="25"/>
-      <c r="IK5" s="25"/>
-      <c r="IL5" s="25"/>
-      <c r="IM5" s="25"/>
-      <c r="IN5" s="25"/>
-      <c r="IO5" s="25"/>
-      <c r="IP5" s="25"/>
-      <c r="IQ5" s="25"/>
-      <c r="IR5" s="25"/>
-      <c r="IS5" s="26"/>
-      <c r="IT5" s="24">
+      <c r="HK5" s="24"/>
+      <c r="HL5" s="24"/>
+      <c r="HM5" s="24"/>
+      <c r="HN5" s="24"/>
+      <c r="HO5" s="24"/>
+      <c r="HP5" s="24"/>
+      <c r="HQ5" s="24"/>
+      <c r="HR5" s="24"/>
+      <c r="HS5" s="24"/>
+      <c r="HT5" s="24"/>
+      <c r="HU5" s="24"/>
+      <c r="HV5" s="24"/>
+      <c r="HW5" s="24"/>
+      <c r="HX5" s="24"/>
+      <c r="HY5" s="24"/>
+      <c r="HZ5" s="24"/>
+      <c r="IA5" s="24"/>
+      <c r="IB5" s="24"/>
+      <c r="IC5" s="24"/>
+      <c r="ID5" s="24"/>
+      <c r="IE5" s="24"/>
+      <c r="IF5" s="24"/>
+      <c r="IG5" s="24"/>
+      <c r="IH5" s="24"/>
+      <c r="II5" s="24"/>
+      <c r="IJ5" s="24"/>
+      <c r="IK5" s="24"/>
+      <c r="IL5" s="24"/>
+      <c r="IM5" s="24"/>
+      <c r="IN5" s="24"/>
+      <c r="IO5" s="24"/>
+      <c r="IP5" s="24"/>
+      <c r="IQ5" s="24"/>
+      <c r="IR5" s="24"/>
+      <c r="IS5" s="25"/>
+      <c r="IT5" s="26">
         <v>2005</v>
       </c>
-      <c r="IU5" s="25"/>
-      <c r="IV5" s="25"/>
-      <c r="IW5" s="25"/>
-      <c r="IX5" s="25"/>
-      <c r="IY5" s="25"/>
-      <c r="IZ5" s="25"/>
-      <c r="JA5" s="25"/>
-      <c r="JB5" s="25"/>
-      <c r="JC5" s="25"/>
-      <c r="JD5" s="25"/>
-      <c r="JE5" s="25"/>
-      <c r="JF5" s="25"/>
-      <c r="JG5" s="25"/>
-      <c r="JH5" s="25"/>
-      <c r="JI5" s="25"/>
-      <c r="JJ5" s="25"/>
-      <c r="JK5" s="25"/>
-      <c r="JL5" s="25"/>
-      <c r="JM5" s="25"/>
-      <c r="JN5" s="25"/>
-      <c r="JO5" s="25"/>
-      <c r="JP5" s="25"/>
-      <c r="JQ5" s="25"/>
-      <c r="JR5" s="25"/>
-      <c r="JS5" s="25"/>
-      <c r="JT5" s="25"/>
-      <c r="JU5" s="25"/>
-      <c r="JV5" s="25"/>
-      <c r="JW5" s="25"/>
-      <c r="JX5" s="25"/>
-      <c r="JY5" s="25"/>
-      <c r="JZ5" s="25"/>
-      <c r="KA5" s="25"/>
-      <c r="KB5" s="25"/>
-      <c r="KC5" s="26"/>
-      <c r="KD5" s="24">
+      <c r="IU5" s="24"/>
+      <c r="IV5" s="24"/>
+      <c r="IW5" s="24"/>
+      <c r="IX5" s="24"/>
+      <c r="IY5" s="24"/>
+      <c r="IZ5" s="24"/>
+      <c r="JA5" s="24"/>
+      <c r="JB5" s="24"/>
+      <c r="JC5" s="24"/>
+      <c r="JD5" s="24"/>
+      <c r="JE5" s="24"/>
+      <c r="JF5" s="24"/>
+      <c r="JG5" s="24"/>
+      <c r="JH5" s="24"/>
+      <c r="JI5" s="24"/>
+      <c r="JJ5" s="24"/>
+      <c r="JK5" s="24"/>
+      <c r="JL5" s="24"/>
+      <c r="JM5" s="24"/>
+      <c r="JN5" s="24"/>
+      <c r="JO5" s="24"/>
+      <c r="JP5" s="24"/>
+      <c r="JQ5" s="24"/>
+      <c r="JR5" s="24"/>
+      <c r="JS5" s="24"/>
+      <c r="JT5" s="24"/>
+      <c r="JU5" s="24"/>
+      <c r="JV5" s="24"/>
+      <c r="JW5" s="24"/>
+      <c r="JX5" s="24"/>
+      <c r="JY5" s="24"/>
+      <c r="JZ5" s="24"/>
+      <c r="KA5" s="24"/>
+      <c r="KB5" s="24"/>
+      <c r="KC5" s="25"/>
+      <c r="KD5" s="26">
         <v>2006</v>
       </c>
-      <c r="KE5" s="25"/>
-      <c r="KF5" s="25"/>
-      <c r="KG5" s="25"/>
-      <c r="KH5" s="25"/>
-      <c r="KI5" s="25"/>
-      <c r="KJ5" s="25"/>
-      <c r="KK5" s="25"/>
-      <c r="KL5" s="25"/>
-      <c r="KM5" s="25"/>
-      <c r="KN5" s="25"/>
-      <c r="KO5" s="25"/>
-      <c r="KP5" s="25"/>
-      <c r="KQ5" s="25"/>
-      <c r="KR5" s="25"/>
-      <c r="KS5" s="25"/>
-      <c r="KT5" s="25"/>
-      <c r="KU5" s="25"/>
-      <c r="KV5" s="25"/>
-      <c r="KW5" s="25"/>
-      <c r="KX5" s="25"/>
-      <c r="KY5" s="25"/>
-      <c r="KZ5" s="25"/>
-      <c r="LA5" s="25"/>
-      <c r="LB5" s="25"/>
-      <c r="LC5" s="25"/>
-      <c r="LD5" s="25"/>
-      <c r="LE5" s="25"/>
-      <c r="LF5" s="25"/>
-      <c r="LG5" s="25"/>
-      <c r="LH5" s="25"/>
-      <c r="LI5" s="25"/>
-      <c r="LJ5" s="25"/>
-      <c r="LK5" s="25"/>
-      <c r="LL5" s="25"/>
-      <c r="LM5" s="26"/>
-      <c r="LN5" s="24">
+      <c r="KE5" s="24"/>
+      <c r="KF5" s="24"/>
+      <c r="KG5" s="24"/>
+      <c r="KH5" s="24"/>
+      <c r="KI5" s="24"/>
+      <c r="KJ5" s="24"/>
+      <c r="KK5" s="24"/>
+      <c r="KL5" s="24"/>
+      <c r="KM5" s="24"/>
+      <c r="KN5" s="24"/>
+      <c r="KO5" s="24"/>
+      <c r="KP5" s="24"/>
+      <c r="KQ5" s="24"/>
+      <c r="KR5" s="24"/>
+      <c r="KS5" s="24"/>
+      <c r="KT5" s="24"/>
+      <c r="KU5" s="24"/>
+      <c r="KV5" s="24"/>
+      <c r="KW5" s="24"/>
+      <c r="KX5" s="24"/>
+      <c r="KY5" s="24"/>
+      <c r="KZ5" s="24"/>
+      <c r="LA5" s="24"/>
+      <c r="LB5" s="24"/>
+      <c r="LC5" s="24"/>
+      <c r="LD5" s="24"/>
+      <c r="LE5" s="24"/>
+      <c r="LF5" s="24"/>
+      <c r="LG5" s="24"/>
+      <c r="LH5" s="24"/>
+      <c r="LI5" s="24"/>
+      <c r="LJ5" s="24"/>
+      <c r="LK5" s="24"/>
+      <c r="LL5" s="24"/>
+      <c r="LM5" s="25"/>
+      <c r="LN5" s="26">
         <v>2007</v>
       </c>
-      <c r="LO5" s="25"/>
-      <c r="LP5" s="25"/>
-      <c r="LQ5" s="25"/>
-      <c r="LR5" s="25"/>
-      <c r="LS5" s="25"/>
-      <c r="LT5" s="25"/>
-      <c r="LU5" s="25"/>
-      <c r="LV5" s="25"/>
-      <c r="LW5" s="25"/>
-      <c r="LX5" s="25"/>
-      <c r="LY5" s="25"/>
-      <c r="LZ5" s="25"/>
-      <c r="MA5" s="25"/>
-      <c r="MB5" s="25"/>
-      <c r="MC5" s="25"/>
-      <c r="MD5" s="25"/>
-      <c r="ME5" s="25"/>
-      <c r="MF5" s="25"/>
-      <c r="MG5" s="25"/>
-      <c r="MH5" s="25"/>
-      <c r="MI5" s="25"/>
-      <c r="MJ5" s="25"/>
-      <c r="MK5" s="25"/>
-      <c r="ML5" s="25"/>
-      <c r="MM5" s="25"/>
-      <c r="MN5" s="25"/>
-      <c r="MO5" s="25"/>
-      <c r="MP5" s="25"/>
-      <c r="MQ5" s="25"/>
-      <c r="MR5" s="25"/>
-      <c r="MS5" s="25"/>
-      <c r="MT5" s="25"/>
-      <c r="MU5" s="25"/>
-      <c r="MV5" s="25"/>
-      <c r="MW5" s="26"/>
-      <c r="MX5" s="24">
+      <c r="LO5" s="24"/>
+      <c r="LP5" s="24"/>
+      <c r="LQ5" s="24"/>
+      <c r="LR5" s="24"/>
+      <c r="LS5" s="24"/>
+      <c r="LT5" s="24"/>
+      <c r="LU5" s="24"/>
+      <c r="LV5" s="24"/>
+      <c r="LW5" s="24"/>
+      <c r="LX5" s="24"/>
+      <c r="LY5" s="24"/>
+      <c r="LZ5" s="24"/>
+      <c r="MA5" s="24"/>
+      <c r="MB5" s="24"/>
+      <c r="MC5" s="24"/>
+      <c r="MD5" s="24"/>
+      <c r="ME5" s="24"/>
+      <c r="MF5" s="24"/>
+      <c r="MG5" s="24"/>
+      <c r="MH5" s="24"/>
+      <c r="MI5" s="24"/>
+      <c r="MJ5" s="24"/>
+      <c r="MK5" s="24"/>
+      <c r="ML5" s="24"/>
+      <c r="MM5" s="24"/>
+      <c r="MN5" s="24"/>
+      <c r="MO5" s="24"/>
+      <c r="MP5" s="24"/>
+      <c r="MQ5" s="24"/>
+      <c r="MR5" s="24"/>
+      <c r="MS5" s="24"/>
+      <c r="MT5" s="24"/>
+      <c r="MU5" s="24"/>
+      <c r="MV5" s="24"/>
+      <c r="MW5" s="25"/>
+      <c r="MX5" s="26">
         <v>2008</v>
       </c>
-      <c r="MY5" s="25"/>
-      <c r="MZ5" s="25"/>
-      <c r="NA5" s="25"/>
-      <c r="NB5" s="25"/>
-      <c r="NC5" s="25"/>
-      <c r="ND5" s="25"/>
-      <c r="NE5" s="25"/>
-      <c r="NF5" s="25"/>
-      <c r="NG5" s="25"/>
-      <c r="NH5" s="25"/>
-      <c r="NI5" s="25"/>
-      <c r="NJ5" s="25"/>
-      <c r="NK5" s="25"/>
-      <c r="NL5" s="25"/>
-      <c r="NM5" s="25"/>
-      <c r="NN5" s="25"/>
-      <c r="NO5" s="25"/>
-      <c r="NP5" s="25"/>
-      <c r="NQ5" s="25"/>
-      <c r="NR5" s="25"/>
-      <c r="NS5" s="25"/>
-      <c r="NT5" s="25"/>
-      <c r="NU5" s="25"/>
-      <c r="NV5" s="25"/>
-      <c r="NW5" s="25"/>
-      <c r="NX5" s="25"/>
-      <c r="NY5" s="25"/>
-      <c r="NZ5" s="25"/>
-      <c r="OA5" s="25"/>
-      <c r="OB5" s="25"/>
-      <c r="OC5" s="25"/>
-      <c r="OD5" s="25"/>
-      <c r="OE5" s="25"/>
-      <c r="OF5" s="25"/>
-      <c r="OG5" s="26"/>
-      <c r="OH5" s="25">
+      <c r="MY5" s="24"/>
+      <c r="MZ5" s="24"/>
+      <c r="NA5" s="24"/>
+      <c r="NB5" s="24"/>
+      <c r="NC5" s="24"/>
+      <c r="ND5" s="24"/>
+      <c r="NE5" s="24"/>
+      <c r="NF5" s="24"/>
+      <c r="NG5" s="24"/>
+      <c r="NH5" s="24"/>
+      <c r="NI5" s="24"/>
+      <c r="NJ5" s="24"/>
+      <c r="NK5" s="24"/>
+      <c r="NL5" s="24"/>
+      <c r="NM5" s="24"/>
+      <c r="NN5" s="24"/>
+      <c r="NO5" s="24"/>
+      <c r="NP5" s="24"/>
+      <c r="NQ5" s="24"/>
+      <c r="NR5" s="24"/>
+      <c r="NS5" s="24"/>
+      <c r="NT5" s="24"/>
+      <c r="NU5" s="24"/>
+      <c r="NV5" s="24"/>
+      <c r="NW5" s="24"/>
+      <c r="NX5" s="24"/>
+      <c r="NY5" s="24"/>
+      <c r="NZ5" s="24"/>
+      <c r="OA5" s="24"/>
+      <c r="OB5" s="24"/>
+      <c r="OC5" s="24"/>
+      <c r="OD5" s="24"/>
+      <c r="OE5" s="24"/>
+      <c r="OF5" s="24"/>
+      <c r="OG5" s="25"/>
+      <c r="OH5" s="24">
         <v>2009</v>
       </c>
-      <c r="OI5" s="25"/>
-      <c r="OJ5" s="25"/>
-      <c r="OK5" s="25"/>
-      <c r="OL5" s="25"/>
-      <c r="OM5" s="25"/>
-      <c r="ON5" s="25"/>
-      <c r="OO5" s="25"/>
-      <c r="OP5" s="25"/>
-      <c r="OQ5" s="25"/>
-      <c r="OR5" s="25"/>
-      <c r="OS5" s="25"/>
-      <c r="OT5" s="25"/>
-      <c r="OU5" s="25"/>
-      <c r="OV5" s="25"/>
-      <c r="OW5" s="25"/>
-      <c r="OX5" s="25"/>
-      <c r="OY5" s="25"/>
-      <c r="OZ5" s="25"/>
-      <c r="PA5" s="25"/>
-      <c r="PB5" s="25"/>
-      <c r="PC5" s="25"/>
-      <c r="PD5" s="25"/>
-      <c r="PE5" s="25"/>
-      <c r="PF5" s="25"/>
-      <c r="PG5" s="25"/>
-      <c r="PH5" s="25"/>
-      <c r="PI5" s="25"/>
-      <c r="PJ5" s="25"/>
-      <c r="PK5" s="25"/>
-      <c r="PL5" s="25"/>
-      <c r="PM5" s="25"/>
-      <c r="PN5" s="25"/>
-      <c r="PO5" s="25"/>
-      <c r="PP5" s="25"/>
-      <c r="PQ5" s="25"/>
-      <c r="PR5" s="24">
+      <c r="OI5" s="24"/>
+      <c r="OJ5" s="24"/>
+      <c r="OK5" s="24"/>
+      <c r="OL5" s="24"/>
+      <c r="OM5" s="24"/>
+      <c r="ON5" s="24"/>
+      <c r="OO5" s="24"/>
+      <c r="OP5" s="24"/>
+      <c r="OQ5" s="24"/>
+      <c r="OR5" s="24"/>
+      <c r="OS5" s="24"/>
+      <c r="OT5" s="24"/>
+      <c r="OU5" s="24"/>
+      <c r="OV5" s="24"/>
+      <c r="OW5" s="24"/>
+      <c r="OX5" s="24"/>
+      <c r="OY5" s="24"/>
+      <c r="OZ5" s="24"/>
+      <c r="PA5" s="24"/>
+      <c r="PB5" s="24"/>
+      <c r="PC5" s="24"/>
+      <c r="PD5" s="24"/>
+      <c r="PE5" s="24"/>
+      <c r="PF5" s="24"/>
+      <c r="PG5" s="24"/>
+      <c r="PH5" s="24"/>
+      <c r="PI5" s="24"/>
+      <c r="PJ5" s="24"/>
+      <c r="PK5" s="24"/>
+      <c r="PL5" s="24"/>
+      <c r="PM5" s="24"/>
+      <c r="PN5" s="24"/>
+      <c r="PO5" s="24"/>
+      <c r="PP5" s="24"/>
+      <c r="PQ5" s="24"/>
+      <c r="PR5" s="26">
         <v>2010</v>
       </c>
-      <c r="PS5" s="25"/>
-      <c r="PT5" s="25"/>
-      <c r="PU5" s="25"/>
-      <c r="PV5" s="25"/>
-      <c r="PW5" s="25"/>
-      <c r="PX5" s="25"/>
-      <c r="PY5" s="25"/>
-      <c r="PZ5" s="25"/>
-      <c r="QA5" s="25"/>
-      <c r="QB5" s="25"/>
-      <c r="QC5" s="25"/>
-      <c r="QD5" s="25"/>
-      <c r="QE5" s="25"/>
-      <c r="QF5" s="25"/>
-      <c r="QG5" s="25"/>
-      <c r="QH5" s="25"/>
-      <c r="QI5" s="25"/>
-      <c r="QJ5" s="25"/>
-      <c r="QK5" s="25"/>
-      <c r="QL5" s="25"/>
-      <c r="QM5" s="25"/>
-      <c r="QN5" s="25"/>
-      <c r="QO5" s="25"/>
-      <c r="QP5" s="25"/>
-      <c r="QQ5" s="25"/>
-      <c r="QR5" s="25"/>
-      <c r="QS5" s="25"/>
-      <c r="QT5" s="25"/>
-      <c r="QU5" s="25"/>
-      <c r="QV5" s="25"/>
-      <c r="QW5" s="25"/>
-      <c r="QX5" s="25"/>
-      <c r="QY5" s="25"/>
-      <c r="QZ5" s="25"/>
-      <c r="RA5" s="26"/>
-      <c r="RB5" s="24">
+      <c r="PS5" s="24"/>
+      <c r="PT5" s="24"/>
+      <c r="PU5" s="24"/>
+      <c r="PV5" s="24"/>
+      <c r="PW5" s="24"/>
+      <c r="PX5" s="24"/>
+      <c r="PY5" s="24"/>
+      <c r="PZ5" s="24"/>
+      <c r="QA5" s="24"/>
+      <c r="QB5" s="24"/>
+      <c r="QC5" s="24"/>
+      <c r="QD5" s="24"/>
+      <c r="QE5" s="24"/>
+      <c r="QF5" s="24"/>
+      <c r="QG5" s="24"/>
+      <c r="QH5" s="24"/>
+      <c r="QI5" s="24"/>
+      <c r="QJ5" s="24"/>
+      <c r="QK5" s="24"/>
+      <c r="QL5" s="24"/>
+      <c r="QM5" s="24"/>
+      <c r="QN5" s="24"/>
+      <c r="QO5" s="24"/>
+      <c r="QP5" s="24"/>
+      <c r="QQ5" s="24"/>
+      <c r="QR5" s="24"/>
+      <c r="QS5" s="24"/>
+      <c r="QT5" s="24"/>
+      <c r="QU5" s="24"/>
+      <c r="QV5" s="24"/>
+      <c r="QW5" s="24"/>
+      <c r="QX5" s="24"/>
+      <c r="QY5" s="24"/>
+      <c r="QZ5" s="24"/>
+      <c r="RA5" s="25"/>
+      <c r="RB5" s="26">
         <v>2011</v>
       </c>
-      <c r="RC5" s="25"/>
-      <c r="RD5" s="25"/>
-      <c r="RE5" s="25"/>
-      <c r="RF5" s="25"/>
-      <c r="RG5" s="25"/>
-      <c r="RH5" s="25"/>
-      <c r="RI5" s="25"/>
-      <c r="RJ5" s="25"/>
-      <c r="RK5" s="25"/>
-      <c r="RL5" s="25"/>
-      <c r="RM5" s="25"/>
-      <c r="RN5" s="25"/>
-      <c r="RO5" s="25"/>
-      <c r="RP5" s="25"/>
-      <c r="RQ5" s="25"/>
-      <c r="RR5" s="25"/>
-      <c r="RS5" s="25"/>
-      <c r="RT5" s="25"/>
-      <c r="RU5" s="25"/>
-      <c r="RV5" s="25"/>
-      <c r="RW5" s="25"/>
-      <c r="RX5" s="25"/>
-      <c r="RY5" s="25"/>
-      <c r="RZ5" s="25"/>
-      <c r="SA5" s="25"/>
-      <c r="SB5" s="25"/>
-      <c r="SC5" s="25"/>
-      <c r="SD5" s="25"/>
-      <c r="SE5" s="25"/>
-      <c r="SF5" s="25"/>
-      <c r="SG5" s="25"/>
-      <c r="SH5" s="25"/>
-      <c r="SI5" s="25"/>
-      <c r="SJ5" s="25"/>
-      <c r="SK5" s="26"/>
-      <c r="SL5" s="24">
+      <c r="RC5" s="24"/>
+      <c r="RD5" s="24"/>
+      <c r="RE5" s="24"/>
+      <c r="RF5" s="24"/>
+      <c r="RG5" s="24"/>
+      <c r="RH5" s="24"/>
+      <c r="RI5" s="24"/>
+      <c r="RJ5" s="24"/>
+      <c r="RK5" s="24"/>
+      <c r="RL5" s="24"/>
+      <c r="RM5" s="24"/>
+      <c r="RN5" s="24"/>
+      <c r="RO5" s="24"/>
+      <c r="RP5" s="24"/>
+      <c r="RQ5" s="24"/>
+      <c r="RR5" s="24"/>
+      <c r="RS5" s="24"/>
+      <c r="RT5" s="24"/>
+      <c r="RU5" s="24"/>
+      <c r="RV5" s="24"/>
+      <c r="RW5" s="24"/>
+      <c r="RX5" s="24"/>
+      <c r="RY5" s="24"/>
+      <c r="RZ5" s="24"/>
+      <c r="SA5" s="24"/>
+      <c r="SB5" s="24"/>
+      <c r="SC5" s="24"/>
+      <c r="SD5" s="24"/>
+      <c r="SE5" s="24"/>
+      <c r="SF5" s="24"/>
+      <c r="SG5" s="24"/>
+      <c r="SH5" s="24"/>
+      <c r="SI5" s="24"/>
+      <c r="SJ5" s="24"/>
+      <c r="SK5" s="25"/>
+      <c r="SL5" s="26">
         <v>2012</v>
       </c>
-      <c r="SM5" s="25"/>
-      <c r="SN5" s="25"/>
-      <c r="SO5" s="25"/>
-      <c r="SP5" s="25"/>
-      <c r="SQ5" s="25"/>
-      <c r="SR5" s="25"/>
-      <c r="SS5" s="25"/>
-      <c r="ST5" s="25"/>
-      <c r="SU5" s="25"/>
-      <c r="SV5" s="25"/>
-      <c r="SW5" s="25"/>
-      <c r="SX5" s="25"/>
-      <c r="SY5" s="25"/>
-      <c r="SZ5" s="25"/>
-      <c r="TA5" s="25"/>
-      <c r="TB5" s="25"/>
-      <c r="TC5" s="25"/>
-      <c r="TD5" s="25"/>
-      <c r="TE5" s="25"/>
-      <c r="TF5" s="25"/>
-      <c r="TG5" s="25"/>
-      <c r="TH5" s="25"/>
-      <c r="TI5" s="25"/>
-      <c r="TJ5" s="25"/>
-      <c r="TK5" s="25"/>
-      <c r="TL5" s="25"/>
-      <c r="TM5" s="25"/>
-      <c r="TN5" s="25"/>
-      <c r="TO5" s="25"/>
-      <c r="TP5" s="25"/>
-      <c r="TQ5" s="25"/>
-      <c r="TR5" s="25"/>
-      <c r="TS5" s="25"/>
-      <c r="TT5" s="25"/>
-      <c r="TU5" s="26"/>
-      <c r="TV5" s="24">
+      <c r="SM5" s="24"/>
+      <c r="SN5" s="24"/>
+      <c r="SO5" s="24"/>
+      <c r="SP5" s="24"/>
+      <c r="SQ5" s="24"/>
+      <c r="SR5" s="24"/>
+      <c r="SS5" s="24"/>
+      <c r="ST5" s="24"/>
+      <c r="SU5" s="24"/>
+      <c r="SV5" s="24"/>
+      <c r="SW5" s="24"/>
+      <c r="SX5" s="24"/>
+      <c r="SY5" s="24"/>
+      <c r="SZ5" s="24"/>
+      <c r="TA5" s="24"/>
+      <c r="TB5" s="24"/>
+      <c r="TC5" s="24"/>
+      <c r="TD5" s="24"/>
+      <c r="TE5" s="24"/>
+      <c r="TF5" s="24"/>
+      <c r="TG5" s="24"/>
+      <c r="TH5" s="24"/>
+      <c r="TI5" s="24"/>
+      <c r="TJ5" s="24"/>
+      <c r="TK5" s="24"/>
+      <c r="TL5" s="24"/>
+      <c r="TM5" s="24"/>
+      <c r="TN5" s="24"/>
+      <c r="TO5" s="24"/>
+      <c r="TP5" s="24"/>
+      <c r="TQ5" s="24"/>
+      <c r="TR5" s="24"/>
+      <c r="TS5" s="24"/>
+      <c r="TT5" s="24"/>
+      <c r="TU5" s="25"/>
+      <c r="TV5" s="26">
         <v>2013</v>
       </c>
-      <c r="TW5" s="25"/>
-      <c r="TX5" s="25"/>
-      <c r="TY5" s="25"/>
-      <c r="TZ5" s="25"/>
-      <c r="UA5" s="25"/>
-      <c r="UB5" s="25"/>
-      <c r="UC5" s="25"/>
-      <c r="UD5" s="25"/>
-      <c r="UE5" s="25"/>
-      <c r="UF5" s="25"/>
-      <c r="UG5" s="25"/>
-      <c r="UH5" s="25"/>
-      <c r="UI5" s="25"/>
-      <c r="UJ5" s="25"/>
-      <c r="UK5" s="25"/>
-      <c r="UL5" s="25"/>
-      <c r="UM5" s="25"/>
-      <c r="UN5" s="25"/>
-      <c r="UO5" s="25"/>
-      <c r="UP5" s="25"/>
-      <c r="UQ5" s="25"/>
-      <c r="UR5" s="25"/>
-      <c r="US5" s="25"/>
-      <c r="UT5" s="25"/>
-      <c r="UU5" s="25"/>
-      <c r="UV5" s="25"/>
-      <c r="UW5" s="25"/>
-      <c r="UX5" s="25"/>
-      <c r="UY5" s="25"/>
-      <c r="UZ5" s="25"/>
-      <c r="VA5" s="25"/>
-      <c r="VB5" s="25"/>
-      <c r="VC5" s="25"/>
-      <c r="VD5" s="25"/>
-      <c r="VE5" s="26"/>
-      <c r="VF5" s="24">
+      <c r="TW5" s="24"/>
+      <c r="TX5" s="24"/>
+      <c r="TY5" s="24"/>
+      <c r="TZ5" s="24"/>
+      <c r="UA5" s="24"/>
+      <c r="UB5" s="24"/>
+      <c r="UC5" s="24"/>
+      <c r="UD5" s="24"/>
+      <c r="UE5" s="24"/>
+      <c r="UF5" s="24"/>
+      <c r="UG5" s="24"/>
+      <c r="UH5" s="24"/>
+      <c r="UI5" s="24"/>
+      <c r="UJ5" s="24"/>
+      <c r="UK5" s="24"/>
+      <c r="UL5" s="24"/>
+      <c r="UM5" s="24"/>
+      <c r="UN5" s="24"/>
+      <c r="UO5" s="24"/>
+      <c r="UP5" s="24"/>
+      <c r="UQ5" s="24"/>
+      <c r="UR5" s="24"/>
+      <c r="US5" s="24"/>
+      <c r="UT5" s="24"/>
+      <c r="UU5" s="24"/>
+      <c r="UV5" s="24"/>
+      <c r="UW5" s="24"/>
+      <c r="UX5" s="24"/>
+      <c r="UY5" s="24"/>
+      <c r="UZ5" s="24"/>
+      <c r="VA5" s="24"/>
+      <c r="VB5" s="24"/>
+      <c r="VC5" s="24"/>
+      <c r="VD5" s="24"/>
+      <c r="VE5" s="25"/>
+      <c r="VF5" s="26">
         <v>2014</v>
       </c>
-      <c r="VG5" s="25"/>
-      <c r="VH5" s="25"/>
-      <c r="VI5" s="25"/>
-      <c r="VJ5" s="25"/>
-      <c r="VK5" s="25"/>
-      <c r="VL5" s="25"/>
-      <c r="VM5" s="25"/>
-      <c r="VN5" s="25"/>
-      <c r="VO5" s="25"/>
-      <c r="VP5" s="25"/>
-      <c r="VQ5" s="25"/>
-      <c r="VR5" s="25"/>
-      <c r="VS5" s="25"/>
-      <c r="VT5" s="25"/>
-      <c r="VU5" s="25"/>
-      <c r="VV5" s="25"/>
-      <c r="VW5" s="25"/>
-      <c r="VX5" s="25"/>
-      <c r="VY5" s="25"/>
-      <c r="VZ5" s="25"/>
-      <c r="WA5" s="25"/>
-      <c r="WB5" s="25"/>
-      <c r="WC5" s="25"/>
-      <c r="WD5" s="25"/>
-      <c r="WE5" s="25"/>
-      <c r="WF5" s="25"/>
-      <c r="WG5" s="25"/>
-      <c r="WH5" s="25"/>
-      <c r="WI5" s="25"/>
-      <c r="WJ5" s="25"/>
-      <c r="WK5" s="25"/>
-      <c r="WL5" s="25"/>
-      <c r="WM5" s="25"/>
-      <c r="WN5" s="25"/>
-      <c r="WO5" s="26"/>
-      <c r="WP5" s="24">
+      <c r="VG5" s="24"/>
+      <c r="VH5" s="24"/>
+      <c r="VI5" s="24"/>
+      <c r="VJ5" s="24"/>
+      <c r="VK5" s="24"/>
+      <c r="VL5" s="24"/>
+      <c r="VM5" s="24"/>
+      <c r="VN5" s="24"/>
+      <c r="VO5" s="24"/>
+      <c r="VP5" s="24"/>
+      <c r="VQ5" s="24"/>
+      <c r="VR5" s="24"/>
+      <c r="VS5" s="24"/>
+      <c r="VT5" s="24"/>
+      <c r="VU5" s="24"/>
+      <c r="VV5" s="24"/>
+      <c r="VW5" s="24"/>
+      <c r="VX5" s="24"/>
+      <c r="VY5" s="24"/>
+      <c r="VZ5" s="24"/>
+      <c r="WA5" s="24"/>
+      <c r="WB5" s="24"/>
+      <c r="WC5" s="24"/>
+      <c r="WD5" s="24"/>
+      <c r="WE5" s="24"/>
+      <c r="WF5" s="24"/>
+      <c r="WG5" s="24"/>
+      <c r="WH5" s="24"/>
+      <c r="WI5" s="24"/>
+      <c r="WJ5" s="24"/>
+      <c r="WK5" s="24"/>
+      <c r="WL5" s="24"/>
+      <c r="WM5" s="24"/>
+      <c r="WN5" s="24"/>
+      <c r="WO5" s="25"/>
+      <c r="WP5" s="26">
         <v>2015</v>
       </c>
-      <c r="WQ5" s="25"/>
-      <c r="WR5" s="25"/>
-      <c r="WS5" s="25"/>
-      <c r="WT5" s="25"/>
-      <c r="WU5" s="25"/>
-      <c r="WV5" s="25"/>
-      <c r="WW5" s="25"/>
-      <c r="WX5" s="25"/>
-      <c r="WY5" s="25"/>
-      <c r="WZ5" s="25"/>
-      <c r="XA5" s="25"/>
-      <c r="XB5" s="25"/>
-      <c r="XC5" s="25"/>
-      <c r="XD5" s="25"/>
-      <c r="XE5" s="25"/>
-      <c r="XF5" s="25"/>
-      <c r="XG5" s="25"/>
-      <c r="XH5" s="25"/>
-      <c r="XI5" s="25"/>
-      <c r="XJ5" s="25"/>
-      <c r="XK5" s="25"/>
-      <c r="XL5" s="25"/>
-      <c r="XM5" s="25"/>
-      <c r="XN5" s="25"/>
-      <c r="XO5" s="25"/>
-      <c r="XP5" s="25"/>
-      <c r="XQ5" s="25"/>
-      <c r="XR5" s="25"/>
-      <c r="XS5" s="25"/>
-      <c r="XT5" s="25"/>
-      <c r="XU5" s="25"/>
-      <c r="XV5" s="25"/>
-      <c r="XW5" s="25"/>
-      <c r="XX5" s="25"/>
-      <c r="XY5" s="26"/>
-      <c r="XZ5" s="24">
+      <c r="WQ5" s="24"/>
+      <c r="WR5" s="24"/>
+      <c r="WS5" s="24"/>
+      <c r="WT5" s="24"/>
+      <c r="WU5" s="24"/>
+      <c r="WV5" s="24"/>
+      <c r="WW5" s="24"/>
+      <c r="WX5" s="24"/>
+      <c r="WY5" s="24"/>
+      <c r="WZ5" s="24"/>
+      <c r="XA5" s="24"/>
+      <c r="XB5" s="24"/>
+      <c r="XC5" s="24"/>
+      <c r="XD5" s="24"/>
+      <c r="XE5" s="24"/>
+      <c r="XF5" s="24"/>
+      <c r="XG5" s="24"/>
+      <c r="XH5" s="24"/>
+      <c r="XI5" s="24"/>
+      <c r="XJ5" s="24"/>
+      <c r="XK5" s="24"/>
+      <c r="XL5" s="24"/>
+      <c r="XM5" s="24"/>
+      <c r="XN5" s="24"/>
+      <c r="XO5" s="24"/>
+      <c r="XP5" s="24"/>
+      <c r="XQ5" s="24"/>
+      <c r="XR5" s="24"/>
+      <c r="XS5" s="24"/>
+      <c r="XT5" s="24"/>
+      <c r="XU5" s="24"/>
+      <c r="XV5" s="24"/>
+      <c r="XW5" s="24"/>
+      <c r="XX5" s="24"/>
+      <c r="XY5" s="25"/>
+      <c r="XZ5" s="26">
         <v>2016</v>
       </c>
-      <c r="YA5" s="25"/>
-      <c r="YB5" s="25"/>
-      <c r="YC5" s="25"/>
-      <c r="YD5" s="25"/>
-      <c r="YE5" s="25"/>
-      <c r="YF5" s="25"/>
-      <c r="YG5" s="25"/>
-      <c r="YH5" s="25"/>
-      <c r="YI5" s="25"/>
-      <c r="YJ5" s="25"/>
-      <c r="YK5" s="25"/>
-      <c r="YL5" s="25"/>
-      <c r="YM5" s="25"/>
-      <c r="YN5" s="25"/>
-      <c r="YO5" s="25"/>
-      <c r="YP5" s="25"/>
-      <c r="YQ5" s="25"/>
-      <c r="YR5" s="25"/>
-      <c r="YS5" s="25"/>
-      <c r="YT5" s="25"/>
-      <c r="YU5" s="25"/>
-      <c r="YV5" s="25"/>
-      <c r="YW5" s="25"/>
-      <c r="YX5" s="25"/>
-      <c r="YY5" s="25"/>
-      <c r="YZ5" s="25"/>
-      <c r="ZA5" s="25"/>
-      <c r="ZB5" s="25"/>
-      <c r="ZC5" s="25"/>
-      <c r="ZD5" s="25"/>
-      <c r="ZE5" s="25"/>
-      <c r="ZF5" s="25"/>
-      <c r="ZG5" s="25"/>
-      <c r="ZH5" s="25"/>
-      <c r="ZI5" s="26"/>
-      <c r="ZJ5" s="24">
+      <c r="YA5" s="24"/>
+      <c r="YB5" s="24"/>
+      <c r="YC5" s="24"/>
+      <c r="YD5" s="24"/>
+      <c r="YE5" s="24"/>
+      <c r="YF5" s="24"/>
+      <c r="YG5" s="24"/>
+      <c r="YH5" s="24"/>
+      <c r="YI5" s="24"/>
+      <c r="YJ5" s="24"/>
+      <c r="YK5" s="24"/>
+      <c r="YL5" s="24"/>
+      <c r="YM5" s="24"/>
+      <c r="YN5" s="24"/>
+      <c r="YO5" s="24"/>
+      <c r="YP5" s="24"/>
+      <c r="YQ5" s="24"/>
+      <c r="YR5" s="24"/>
+      <c r="YS5" s="24"/>
+      <c r="YT5" s="24"/>
+      <c r="YU5" s="24"/>
+      <c r="YV5" s="24"/>
+      <c r="YW5" s="24"/>
+      <c r="YX5" s="24"/>
+      <c r="YY5" s="24"/>
+      <c r="YZ5" s="24"/>
+      <c r="ZA5" s="24"/>
+      <c r="ZB5" s="24"/>
+      <c r="ZC5" s="24"/>
+      <c r="ZD5" s="24"/>
+      <c r="ZE5" s="24"/>
+      <c r="ZF5" s="24"/>
+      <c r="ZG5" s="24"/>
+      <c r="ZH5" s="24"/>
+      <c r="ZI5" s="25"/>
+      <c r="ZJ5" s="26">
         <v>2017</v>
       </c>
-      <c r="ZK5" s="25"/>
-      <c r="ZL5" s="25"/>
-      <c r="ZM5" s="25"/>
-      <c r="ZN5" s="25"/>
-      <c r="ZO5" s="25"/>
-      <c r="ZP5" s="25"/>
-      <c r="ZQ5" s="25"/>
-      <c r="ZR5" s="25"/>
-      <c r="ZS5" s="25"/>
-      <c r="ZT5" s="25"/>
-      <c r="ZU5" s="25"/>
-      <c r="ZV5" s="25"/>
-      <c r="ZW5" s="25"/>
-      <c r="ZX5" s="25"/>
-      <c r="ZY5" s="25"/>
-      <c r="ZZ5" s="25"/>
-      <c r="AAA5" s="25"/>
-      <c r="AAB5" s="25"/>
-      <c r="AAC5" s="25"/>
-      <c r="AAD5" s="25"/>
-      <c r="AAE5" s="25"/>
-      <c r="AAF5" s="25"/>
-      <c r="AAG5" s="25"/>
-      <c r="AAH5" s="25"/>
-      <c r="AAI5" s="25"/>
-      <c r="AAJ5" s="25"/>
-      <c r="AAK5" s="25"/>
-      <c r="AAL5" s="25"/>
-      <c r="AAM5" s="25"/>
-      <c r="AAN5" s="25"/>
-      <c r="AAO5" s="25"/>
-      <c r="AAP5" s="25"/>
-      <c r="AAQ5" s="25"/>
-      <c r="AAR5" s="25"/>
-      <c r="AAS5" s="26"/>
-      <c r="AAT5" s="24">
+      <c r="ZK5" s="24"/>
+      <c r="ZL5" s="24"/>
+      <c r="ZM5" s="24"/>
+      <c r="ZN5" s="24"/>
+      <c r="ZO5" s="24"/>
+      <c r="ZP5" s="24"/>
+      <c r="ZQ5" s="24"/>
+      <c r="ZR5" s="24"/>
+      <c r="ZS5" s="24"/>
+      <c r="ZT5" s="24"/>
+      <c r="ZU5" s="24"/>
+      <c r="ZV5" s="24"/>
+      <c r="ZW5" s="24"/>
+      <c r="ZX5" s="24"/>
+      <c r="ZY5" s="24"/>
+      <c r="ZZ5" s="24"/>
+      <c r="AAA5" s="24"/>
+      <c r="AAB5" s="24"/>
+      <c r="AAC5" s="24"/>
+      <c r="AAD5" s="24"/>
+      <c r="AAE5" s="24"/>
+      <c r="AAF5" s="24"/>
+      <c r="AAG5" s="24"/>
+      <c r="AAH5" s="24"/>
+      <c r="AAI5" s="24"/>
+      <c r="AAJ5" s="24"/>
+      <c r="AAK5" s="24"/>
+      <c r="AAL5" s="24"/>
+      <c r="AAM5" s="24"/>
+      <c r="AAN5" s="24"/>
+      <c r="AAO5" s="24"/>
+      <c r="AAP5" s="24"/>
+      <c r="AAQ5" s="24"/>
+      <c r="AAR5" s="24"/>
+      <c r="AAS5" s="25"/>
+      <c r="AAT5" s="26">
         <v>2018</v>
       </c>
-      <c r="AAU5" s="25"/>
-      <c r="AAV5" s="25"/>
-      <c r="AAW5" s="25"/>
-      <c r="AAX5" s="25"/>
-      <c r="AAY5" s="25"/>
-      <c r="AAZ5" s="25"/>
-      <c r="ABA5" s="25"/>
-      <c r="ABB5" s="25"/>
-      <c r="ABC5" s="25"/>
-      <c r="ABD5" s="25"/>
-      <c r="ABE5" s="25"/>
-      <c r="ABF5" s="25"/>
-      <c r="ABG5" s="25"/>
-      <c r="ABH5" s="25"/>
-      <c r="ABI5" s="25"/>
-      <c r="ABJ5" s="25"/>
-      <c r="ABK5" s="25"/>
-      <c r="ABL5" s="25"/>
-      <c r="ABM5" s="25"/>
-      <c r="ABN5" s="25"/>
-      <c r="ABO5" s="25"/>
-      <c r="ABP5" s="25"/>
-      <c r="ABQ5" s="25"/>
-      <c r="ABR5" s="25"/>
-      <c r="ABS5" s="25"/>
-      <c r="ABT5" s="25"/>
-      <c r="ABU5" s="25"/>
-      <c r="ABV5" s="25"/>
-      <c r="ABW5" s="25"/>
-      <c r="ABX5" s="25"/>
-      <c r="ABY5" s="25"/>
-      <c r="ABZ5" s="25"/>
-      <c r="ACA5" s="25"/>
-      <c r="ACB5" s="25"/>
-      <c r="ACC5" s="26"/>
-      <c r="ACD5" s="24">
+      <c r="AAU5" s="24"/>
+      <c r="AAV5" s="24"/>
+      <c r="AAW5" s="24"/>
+      <c r="AAX5" s="24"/>
+      <c r="AAY5" s="24"/>
+      <c r="AAZ5" s="24"/>
+      <c r="ABA5" s="24"/>
+      <c r="ABB5" s="24"/>
+      <c r="ABC5" s="24"/>
+      <c r="ABD5" s="24"/>
+      <c r="ABE5" s="24"/>
+      <c r="ABF5" s="24"/>
+      <c r="ABG5" s="24"/>
+      <c r="ABH5" s="24"/>
+      <c r="ABI5" s="24"/>
+      <c r="ABJ5" s="24"/>
+      <c r="ABK5" s="24"/>
+      <c r="ABL5" s="24"/>
+      <c r="ABM5" s="24"/>
+      <c r="ABN5" s="24"/>
+      <c r="ABO5" s="24"/>
+      <c r="ABP5" s="24"/>
+      <c r="ABQ5" s="24"/>
+      <c r="ABR5" s="24"/>
+      <c r="ABS5" s="24"/>
+      <c r="ABT5" s="24"/>
+      <c r="ABU5" s="24"/>
+      <c r="ABV5" s="24"/>
+      <c r="ABW5" s="24"/>
+      <c r="ABX5" s="24"/>
+      <c r="ABY5" s="24"/>
+      <c r="ABZ5" s="24"/>
+      <c r="ACA5" s="24"/>
+      <c r="ACB5" s="24"/>
+      <c r="ACC5" s="25"/>
+      <c r="ACD5" s="26">
         <v>2019</v>
       </c>
-      <c r="ACE5" s="25"/>
-      <c r="ACF5" s="25"/>
-      <c r="ACG5" s="25"/>
-      <c r="ACH5" s="25"/>
-      <c r="ACI5" s="25"/>
-      <c r="ACJ5" s="25"/>
-      <c r="ACK5" s="25"/>
-      <c r="ACL5" s="25"/>
-      <c r="ACM5" s="25"/>
-      <c r="ACN5" s="25"/>
-      <c r="ACO5" s="25"/>
-      <c r="ACP5" s="25"/>
-      <c r="ACQ5" s="25"/>
-      <c r="ACR5" s="25"/>
-      <c r="ACS5" s="25"/>
-      <c r="ACT5" s="25"/>
-      <c r="ACU5" s="25"/>
-      <c r="ACV5" s="25"/>
-      <c r="ACW5" s="25"/>
-      <c r="ACX5" s="25"/>
-      <c r="ACY5" s="25"/>
-      <c r="ACZ5" s="25"/>
-      <c r="ADA5" s="25"/>
-      <c r="ADB5" s="25"/>
-      <c r="ADC5" s="25"/>
-      <c r="ADD5" s="25"/>
-      <c r="ADE5" s="25"/>
-      <c r="ADF5" s="25"/>
-      <c r="ADG5" s="25"/>
-      <c r="ADH5" s="25"/>
-      <c r="ADI5" s="25"/>
-      <c r="ADJ5" s="25"/>
-      <c r="ADK5" s="25"/>
-      <c r="ADL5" s="25"/>
-      <c r="ADM5" s="26"/>
-      <c r="ADN5" s="24">
+      <c r="ACE5" s="24"/>
+      <c r="ACF5" s="24"/>
+      <c r="ACG5" s="24"/>
+      <c r="ACH5" s="24"/>
+      <c r="ACI5" s="24"/>
+      <c r="ACJ5" s="24"/>
+      <c r="ACK5" s="24"/>
+      <c r="ACL5" s="24"/>
+      <c r="ACM5" s="24"/>
+      <c r="ACN5" s="24"/>
+      <c r="ACO5" s="24"/>
+      <c r="ACP5" s="24"/>
+      <c r="ACQ5" s="24"/>
+      <c r="ACR5" s="24"/>
+      <c r="ACS5" s="24"/>
+      <c r="ACT5" s="24"/>
+      <c r="ACU5" s="24"/>
+      <c r="ACV5" s="24"/>
+      <c r="ACW5" s="24"/>
+      <c r="ACX5" s="24"/>
+      <c r="ACY5" s="24"/>
+      <c r="ACZ5" s="24"/>
+      <c r="ADA5" s="24"/>
+      <c r="ADB5" s="24"/>
+      <c r="ADC5" s="24"/>
+      <c r="ADD5" s="24"/>
+      <c r="ADE5" s="24"/>
+      <c r="ADF5" s="24"/>
+      <c r="ADG5" s="24"/>
+      <c r="ADH5" s="24"/>
+      <c r="ADI5" s="24"/>
+      <c r="ADJ5" s="24"/>
+      <c r="ADK5" s="24"/>
+      <c r="ADL5" s="24"/>
+      <c r="ADM5" s="25"/>
+      <c r="ADN5" s="26">
         <v>2020</v>
       </c>
-      <c r="ADO5" s="25"/>
-      <c r="ADP5" s="25"/>
-      <c r="ADQ5" s="25"/>
-      <c r="ADR5" s="25"/>
-      <c r="ADS5" s="25"/>
-      <c r="ADT5" s="25"/>
-      <c r="ADU5" s="25"/>
-      <c r="ADV5" s="25"/>
-      <c r="ADW5" s="25"/>
-      <c r="ADX5" s="25"/>
-      <c r="ADY5" s="25"/>
-      <c r="ADZ5" s="25"/>
-      <c r="AEA5" s="25"/>
-      <c r="AEB5" s="25"/>
-      <c r="AEC5" s="25"/>
-      <c r="AED5" s="25"/>
-      <c r="AEE5" s="25"/>
-      <c r="AEF5" s="25"/>
-      <c r="AEG5" s="25"/>
-      <c r="AEH5" s="25"/>
-      <c r="AEI5" s="25"/>
-      <c r="AEJ5" s="25"/>
-      <c r="AEK5" s="25"/>
-      <c r="AEL5" s="25"/>
-      <c r="AEM5" s="25"/>
-      <c r="AEN5" s="25"/>
-      <c r="AEO5" s="25"/>
-      <c r="AEP5" s="25"/>
-      <c r="AEQ5" s="25"/>
-      <c r="AER5" s="25"/>
-      <c r="AES5" s="25"/>
-      <c r="AET5" s="25"/>
-      <c r="AEU5" s="25"/>
-      <c r="AEV5" s="25"/>
-      <c r="AEW5" s="26"/>
+      <c r="ADO5" s="24"/>
+      <c r="ADP5" s="24"/>
+      <c r="ADQ5" s="24"/>
+      <c r="ADR5" s="24"/>
+      <c r="ADS5" s="24"/>
+      <c r="ADT5" s="24"/>
+      <c r="ADU5" s="24"/>
+      <c r="ADV5" s="24"/>
+      <c r="ADW5" s="24"/>
+      <c r="ADX5" s="24"/>
+      <c r="ADY5" s="24"/>
+      <c r="ADZ5" s="24"/>
+      <c r="AEA5" s="24"/>
+      <c r="AEB5" s="24"/>
+      <c r="AEC5" s="24"/>
+      <c r="AED5" s="24"/>
+      <c r="AEE5" s="24"/>
+      <c r="AEF5" s="24"/>
+      <c r="AEG5" s="24"/>
+      <c r="AEH5" s="24"/>
+      <c r="AEI5" s="24"/>
+      <c r="AEJ5" s="24"/>
+      <c r="AEK5" s="24"/>
+      <c r="AEL5" s="24"/>
+      <c r="AEM5" s="24"/>
+      <c r="AEN5" s="24"/>
+      <c r="AEO5" s="24"/>
+      <c r="AEP5" s="24"/>
+      <c r="AEQ5" s="24"/>
+      <c r="AER5" s="24"/>
+      <c r="AES5" s="24"/>
+      <c r="AET5" s="24"/>
+      <c r="AEU5" s="24"/>
+      <c r="AEV5" s="24"/>
+      <c r="AEW5" s="25"/>
       <c r="AEX5" s="27">
         <v>2021</v>
       </c>
@@ -2340,1446 +2340,1454 @@
       <c r="AGB5" s="27"/>
       <c r="AGC5" s="27"/>
       <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
     </row>
-    <row r="6" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="24" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24" t="s">
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="24" t="s">
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="24" t="s">
+      <c r="U6" s="24"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="24" t="s">
+      <c r="X6" s="24"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="24" t="s">
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="24" t="s">
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="24" t="s">
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="24" t="s">
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="24" t="s">
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="24" t="s">
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="24" t="s">
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="24" t="s">
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="24" t="s">
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="24" t="s">
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="25"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="24" t="s">
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="24" t="s">
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="25"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="24" t="s">
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="25"/>
+      <c r="BM6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="24" t="s">
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="29" t="s">
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
-      <c r="BY6" s="24" t="s">
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
+      <c r="BY6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BZ6" s="25"/>
-      <c r="CA6" s="26"/>
-      <c r="CB6" s="24" t="s">
+      <c r="BZ6" s="24"/>
+      <c r="CA6" s="25"/>
+      <c r="CB6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CC6" s="25"/>
-      <c r="CD6" s="26"/>
-      <c r="CE6" s="25" t="s">
+      <c r="CC6" s="24"/>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CF6" s="25"/>
-      <c r="CG6" s="26"/>
-      <c r="CH6" s="24" t="s">
+      <c r="CF6" s="24"/>
+      <c r="CG6" s="25"/>
+      <c r="CH6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="25"/>
-      <c r="CJ6" s="26"/>
-      <c r="CK6" s="24" t="s">
+      <c r="CI6" s="24"/>
+      <c r="CJ6" s="25"/>
+      <c r="CK6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="25"/>
-      <c r="CM6" s="26"/>
-      <c r="CN6" s="24" t="s">
+      <c r="CL6" s="24"/>
+      <c r="CM6" s="25"/>
+      <c r="CN6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="CO6" s="25"/>
-      <c r="CP6" s="26"/>
-      <c r="CQ6" s="24" t="s">
+      <c r="CO6" s="24"/>
+      <c r="CP6" s="25"/>
+      <c r="CQ6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="CR6" s="25"/>
-      <c r="CS6" s="26"/>
-      <c r="CT6" s="24" t="s">
+      <c r="CR6" s="24"/>
+      <c r="CS6" s="25"/>
+      <c r="CT6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="CU6" s="25"/>
-      <c r="CV6" s="26"/>
-      <c r="CW6" s="24" t="s">
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="25"/>
+      <c r="CW6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="CX6" s="25"/>
-      <c r="CY6" s="26"/>
-      <c r="CZ6" s="24" t="s">
+      <c r="CX6" s="24"/>
+      <c r="CY6" s="25"/>
+      <c r="CZ6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="DA6" s="25"/>
-      <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DA6" s="24"/>
+      <c r="DB6" s="25"/>
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="32"/>
-      <c r="DF6" s="24" t="s">
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
+      <c r="DF6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="DG6" s="25"/>
-      <c r="DH6" s="26"/>
-      <c r="DI6" s="24" t="s">
+      <c r="DG6" s="24"/>
+      <c r="DH6" s="25"/>
+      <c r="DI6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="DJ6" s="25"/>
-      <c r="DK6" s="26"/>
-      <c r="DL6" s="24" t="s">
+      <c r="DJ6" s="24"/>
+      <c r="DK6" s="25"/>
+      <c r="DL6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="DM6" s="25"/>
-      <c r="DN6" s="26"/>
-      <c r="DO6" s="24" t="s">
+      <c r="DM6" s="24"/>
+      <c r="DN6" s="25"/>
+      <c r="DO6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="DP6" s="25"/>
-      <c r="DQ6" s="26"/>
-      <c r="DR6" s="24" t="s">
+      <c r="DP6" s="24"/>
+      <c r="DQ6" s="25"/>
+      <c r="DR6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="DS6" s="25"/>
-      <c r="DT6" s="26"/>
-      <c r="DU6" s="24" t="s">
+      <c r="DS6" s="24"/>
+      <c r="DT6" s="25"/>
+      <c r="DU6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="DV6" s="25"/>
-      <c r="DW6" s="26"/>
-      <c r="DX6" s="25" t="s">
+      <c r="DV6" s="24"/>
+      <c r="DW6" s="25"/>
+      <c r="DX6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="DY6" s="25"/>
-      <c r="DZ6" s="26"/>
-      <c r="EA6" s="25" t="s">
+      <c r="DY6" s="24"/>
+      <c r="DZ6" s="25"/>
+      <c r="EA6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="EB6" s="25"/>
-      <c r="EC6" s="26"/>
-      <c r="ED6" s="25" t="s">
+      <c r="EB6" s="24"/>
+      <c r="EC6" s="25"/>
+      <c r="ED6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="EE6" s="25"/>
-      <c r="EF6" s="26"/>
-      <c r="EG6" s="25" t="s">
+      <c r="EE6" s="24"/>
+      <c r="EF6" s="25"/>
+      <c r="EG6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="EH6" s="25"/>
-      <c r="EI6" s="26"/>
-      <c r="EJ6" s="25" t="s">
+      <c r="EH6" s="24"/>
+      <c r="EI6" s="25"/>
+      <c r="EJ6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="EK6" s="25"/>
-      <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EK6" s="24"/>
+      <c r="EL6" s="25"/>
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="32"/>
-      <c r="EP6" s="25" t="s">
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
+      <c r="EP6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="EQ6" s="25"/>
-      <c r="ER6" s="26"/>
-      <c r="ES6" s="25" t="s">
+      <c r="EQ6" s="24"/>
+      <c r="ER6" s="25"/>
+      <c r="ES6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="ET6" s="25"/>
-      <c r="EU6" s="26"/>
-      <c r="EV6" s="25" t="s">
+      <c r="ET6" s="24"/>
+      <c r="EU6" s="25"/>
+      <c r="EV6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="EW6" s="25"/>
-      <c r="EX6" s="26"/>
-      <c r="EY6" s="25" t="s">
+      <c r="EW6" s="24"/>
+      <c r="EX6" s="25"/>
+      <c r="EY6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="EZ6" s="25"/>
-      <c r="FA6" s="26"/>
-      <c r="FB6" s="25" t="s">
+      <c r="EZ6" s="24"/>
+      <c r="FA6" s="25"/>
+      <c r="FB6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="FC6" s="25"/>
-      <c r="FD6" s="26"/>
-      <c r="FE6" s="25" t="s">
+      <c r="FC6" s="24"/>
+      <c r="FD6" s="25"/>
+      <c r="FE6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="FF6" s="25"/>
-      <c r="FG6" s="26"/>
-      <c r="FH6" s="25" t="s">
+      <c r="FF6" s="24"/>
+      <c r="FG6" s="25"/>
+      <c r="FH6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="FI6" s="25"/>
-      <c r="FJ6" s="26"/>
-      <c r="FK6" s="25" t="s">
+      <c r="FI6" s="24"/>
+      <c r="FJ6" s="25"/>
+      <c r="FK6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="FL6" s="25"/>
-      <c r="FM6" s="26"/>
-      <c r="FN6" s="25" t="s">
+      <c r="FL6" s="24"/>
+      <c r="FM6" s="25"/>
+      <c r="FN6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="FO6" s="25"/>
-      <c r="FP6" s="26"/>
-      <c r="FQ6" s="25" t="s">
+      <c r="FO6" s="24"/>
+      <c r="FP6" s="25"/>
+      <c r="FQ6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="FR6" s="25"/>
-      <c r="FS6" s="26"/>
-      <c r="FT6" s="25" t="s">
+      <c r="FR6" s="24"/>
+      <c r="FS6" s="25"/>
+      <c r="FT6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="FU6" s="25"/>
-      <c r="FV6" s="26"/>
-      <c r="FW6" s="25" t="s">
+      <c r="FU6" s="24"/>
+      <c r="FV6" s="25"/>
+      <c r="FW6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="FX6" s="25"/>
-      <c r="FY6" s="26"/>
-      <c r="FZ6" s="25" t="s">
+      <c r="FX6" s="24"/>
+      <c r="FY6" s="25"/>
+      <c r="FZ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="GA6" s="25"/>
-      <c r="GB6" s="26"/>
-      <c r="GC6" s="25" t="s">
+      <c r="GA6" s="24"/>
+      <c r="GB6" s="25"/>
+      <c r="GC6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="GD6" s="25"/>
-      <c r="GE6" s="26"/>
-      <c r="GF6" s="25" t="s">
+      <c r="GD6" s="24"/>
+      <c r="GE6" s="25"/>
+      <c r="GF6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="GG6" s="25"/>
-      <c r="GH6" s="26"/>
-      <c r="GI6" s="25" t="s">
+      <c r="GG6" s="24"/>
+      <c r="GH6" s="25"/>
+      <c r="GI6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="GJ6" s="25"/>
-      <c r="GK6" s="26"/>
-      <c r="GL6" s="25" t="s">
+      <c r="GJ6" s="24"/>
+      <c r="GK6" s="25"/>
+      <c r="GL6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="GM6" s="25"/>
-      <c r="GN6" s="26"/>
-      <c r="GO6" s="25" t="s">
+      <c r="GM6" s="24"/>
+      <c r="GN6" s="25"/>
+      <c r="GO6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="GP6" s="25"/>
-      <c r="GQ6" s="26"/>
-      <c r="GR6" s="25" t="s">
+      <c r="GP6" s="24"/>
+      <c r="GQ6" s="25"/>
+      <c r="GR6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="GS6" s="25"/>
-      <c r="GT6" s="26"/>
-      <c r="GU6" s="25" t="s">
+      <c r="GS6" s="24"/>
+      <c r="GT6" s="25"/>
+      <c r="GU6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="GV6" s="25"/>
-      <c r="GW6" s="26"/>
-      <c r="GX6" s="25" t="s">
+      <c r="GV6" s="24"/>
+      <c r="GW6" s="25"/>
+      <c r="GX6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="GY6" s="25"/>
-      <c r="GZ6" s="26"/>
-      <c r="HA6" s="25" t="s">
+      <c r="GY6" s="24"/>
+      <c r="GZ6" s="25"/>
+      <c r="HA6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="HB6" s="25"/>
-      <c r="HC6" s="26"/>
-      <c r="HD6" s="25" t="s">
+      <c r="HB6" s="24"/>
+      <c r="HC6" s="25"/>
+      <c r="HD6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="HE6" s="25"/>
-      <c r="HF6" s="26"/>
-      <c r="HG6" s="25" t="s">
+      <c r="HE6" s="24"/>
+      <c r="HF6" s="25"/>
+      <c r="HG6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="HH6" s="25"/>
-      <c r="HI6" s="25"/>
-      <c r="HJ6" s="24" t="s">
+      <c r="HH6" s="24"/>
+      <c r="HI6" s="24"/>
+      <c r="HJ6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="HK6" s="25"/>
-      <c r="HL6" s="26"/>
-      <c r="HM6" s="24" t="s">
+      <c r="HK6" s="24"/>
+      <c r="HL6" s="25"/>
+      <c r="HM6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="HN6" s="25"/>
-      <c r="HO6" s="26"/>
-      <c r="HP6" s="24" t="s">
+      <c r="HN6" s="24"/>
+      <c r="HO6" s="25"/>
+      <c r="HP6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="HQ6" s="25"/>
-      <c r="HR6" s="26"/>
-      <c r="HS6" s="24" t="s">
+      <c r="HQ6" s="24"/>
+      <c r="HR6" s="25"/>
+      <c r="HS6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="HT6" s="25"/>
-      <c r="HU6" s="26"/>
-      <c r="HV6" s="24" t="s">
+      <c r="HT6" s="24"/>
+      <c r="HU6" s="25"/>
+      <c r="HV6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="HW6" s="25"/>
-      <c r="HX6" s="26"/>
-      <c r="HY6" s="24" t="s">
+      <c r="HW6" s="24"/>
+      <c r="HX6" s="25"/>
+      <c r="HY6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="HZ6" s="25"/>
-      <c r="IA6" s="26"/>
-      <c r="IB6" s="24" t="s">
+      <c r="HZ6" s="24"/>
+      <c r="IA6" s="25"/>
+      <c r="IB6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="IC6" s="25"/>
-      <c r="ID6" s="26"/>
-      <c r="IE6" s="24" t="s">
+      <c r="IC6" s="24"/>
+      <c r="ID6" s="25"/>
+      <c r="IE6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="IF6" s="25"/>
-      <c r="IG6" s="26"/>
-      <c r="IH6" s="24" t="s">
+      <c r="IF6" s="24"/>
+      <c r="IG6" s="25"/>
+      <c r="IH6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="II6" s="25"/>
-      <c r="IJ6" s="26"/>
-      <c r="IK6" s="24" t="s">
+      <c r="II6" s="24"/>
+      <c r="IJ6" s="25"/>
+      <c r="IK6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="IL6" s="25"/>
-      <c r="IM6" s="26"/>
-      <c r="IN6" s="24" t="s">
+      <c r="IL6" s="24"/>
+      <c r="IM6" s="25"/>
+      <c r="IN6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="IO6" s="25"/>
-      <c r="IP6" s="26"/>
-      <c r="IQ6" s="24" t="s">
+      <c r="IO6" s="24"/>
+      <c r="IP6" s="25"/>
+      <c r="IQ6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="IR6" s="25"/>
-      <c r="IS6" s="25"/>
-      <c r="IT6" s="24" t="s">
+      <c r="IR6" s="24"/>
+      <c r="IS6" s="24"/>
+      <c r="IT6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="IU6" s="25"/>
-      <c r="IV6" s="26"/>
-      <c r="IW6" s="24" t="s">
+      <c r="IU6" s="24"/>
+      <c r="IV6" s="25"/>
+      <c r="IW6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="IX6" s="25"/>
-      <c r="IY6" s="26"/>
-      <c r="IZ6" s="25" t="s">
+      <c r="IX6" s="24"/>
+      <c r="IY6" s="25"/>
+      <c r="IZ6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="JA6" s="25"/>
-      <c r="JB6" s="26"/>
-      <c r="JC6" s="25" t="s">
+      <c r="JA6" s="24"/>
+      <c r="JB6" s="25"/>
+      <c r="JC6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="JD6" s="25"/>
-      <c r="JE6" s="26"/>
-      <c r="JF6" s="25" t="s">
+      <c r="JD6" s="24"/>
+      <c r="JE6" s="25"/>
+      <c r="JF6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="JG6" s="25"/>
-      <c r="JH6" s="26"/>
-      <c r="JI6" s="25" t="s">
+      <c r="JG6" s="24"/>
+      <c r="JH6" s="25"/>
+      <c r="JI6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="JJ6" s="25"/>
-      <c r="JK6" s="26"/>
-      <c r="JL6" s="25" t="s">
+      <c r="JJ6" s="24"/>
+      <c r="JK6" s="25"/>
+      <c r="JL6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="JM6" s="25"/>
-      <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JM6" s="24"/>
+      <c r="JN6" s="25"/>
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="32"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="32"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="32"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="32"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="32"/>
-      <c r="KD6" s="25" t="s">
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
+      <c r="KD6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="KE6" s="25"/>
-      <c r="KF6" s="26"/>
-      <c r="KG6" s="25" t="s">
+      <c r="KE6" s="24"/>
+      <c r="KF6" s="25"/>
+      <c r="KG6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="KH6" s="25"/>
-      <c r="KI6" s="26"/>
-      <c r="KJ6" s="25" t="s">
+      <c r="KH6" s="24"/>
+      <c r="KI6" s="25"/>
+      <c r="KJ6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="KK6" s="25"/>
-      <c r="KL6" s="26"/>
-      <c r="KM6" s="25" t="s">
+      <c r="KK6" s="24"/>
+      <c r="KL6" s="25"/>
+      <c r="KM6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="KN6" s="25"/>
-      <c r="KO6" s="26"/>
-      <c r="KP6" s="25" t="s">
+      <c r="KN6" s="24"/>
+      <c r="KO6" s="25"/>
+      <c r="KP6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="25"/>
-      <c r="KR6" s="26"/>
-      <c r="KS6" s="25" t="s">
+      <c r="KQ6" s="24"/>
+      <c r="KR6" s="25"/>
+      <c r="KS6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="KT6" s="25"/>
-      <c r="KU6" s="26"/>
-      <c r="KV6" s="25" t="s">
+      <c r="KT6" s="24"/>
+      <c r="KU6" s="25"/>
+      <c r="KV6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="25"/>
-      <c r="KX6" s="26"/>
-      <c r="KY6" s="25" t="s">
+      <c r="KW6" s="24"/>
+      <c r="KX6" s="25"/>
+      <c r="KY6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="KZ6" s="25"/>
-      <c r="LA6" s="26"/>
-      <c r="LB6" s="25" t="s">
+      <c r="KZ6" s="24"/>
+      <c r="LA6" s="25"/>
+      <c r="LB6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="LC6" s="25"/>
-      <c r="LD6" s="26"/>
-      <c r="LE6" s="25" t="s">
+      <c r="LC6" s="24"/>
+      <c r="LD6" s="25"/>
+      <c r="LE6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="LF6" s="25"/>
-      <c r="LG6" s="26"/>
-      <c r="LH6" s="25" t="s">
+      <c r="LF6" s="24"/>
+      <c r="LG6" s="25"/>
+      <c r="LH6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="LI6" s="25"/>
-      <c r="LJ6" s="26"/>
-      <c r="LK6" s="25" t="s">
+      <c r="LI6" s="24"/>
+      <c r="LJ6" s="25"/>
+      <c r="LK6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="LL6" s="25"/>
-      <c r="LM6" s="26"/>
-      <c r="LN6" s="24" t="s">
+      <c r="LL6" s="24"/>
+      <c r="LM6" s="25"/>
+      <c r="LN6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="LO6" s="25"/>
-      <c r="LP6" s="26"/>
-      <c r="LQ6" s="25" t="s">
+      <c r="LO6" s="24"/>
+      <c r="LP6" s="25"/>
+      <c r="LQ6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="LR6" s="25"/>
-      <c r="LS6" s="26"/>
-      <c r="LT6" s="25" t="s">
+      <c r="LR6" s="24"/>
+      <c r="LS6" s="25"/>
+      <c r="LT6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="LU6" s="25"/>
-      <c r="LV6" s="26"/>
-      <c r="LW6" s="25" t="s">
+      <c r="LU6" s="24"/>
+      <c r="LV6" s="25"/>
+      <c r="LW6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="LX6" s="25"/>
-      <c r="LY6" s="26"/>
-      <c r="LZ6" s="25" t="s">
+      <c r="LX6" s="24"/>
+      <c r="LY6" s="25"/>
+      <c r="LZ6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="MA6" s="25"/>
-      <c r="MB6" s="26"/>
-      <c r="MC6" s="25" t="s">
+      <c r="MA6" s="24"/>
+      <c r="MB6" s="25"/>
+      <c r="MC6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="MD6" s="25"/>
-      <c r="ME6" s="26"/>
-      <c r="MF6" s="25" t="s">
+      <c r="MD6" s="24"/>
+      <c r="ME6" s="25"/>
+      <c r="MF6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="MG6" s="25"/>
-      <c r="MH6" s="26"/>
-      <c r="MI6" s="25" t="s">
+      <c r="MG6" s="24"/>
+      <c r="MH6" s="25"/>
+      <c r="MI6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="MJ6" s="25"/>
-      <c r="MK6" s="26"/>
-      <c r="ML6" s="25" t="s">
+      <c r="MJ6" s="24"/>
+      <c r="MK6" s="25"/>
+      <c r="ML6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="MM6" s="25"/>
-      <c r="MN6" s="26"/>
-      <c r="MO6" s="25" t="s">
+      <c r="MM6" s="24"/>
+      <c r="MN6" s="25"/>
+      <c r="MO6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="MP6" s="25"/>
-      <c r="MQ6" s="26"/>
-      <c r="MR6" s="25" t="s">
+      <c r="MP6" s="24"/>
+      <c r="MQ6" s="25"/>
+      <c r="MR6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="MS6" s="25"/>
-      <c r="MT6" s="26"/>
-      <c r="MU6" s="25" t="s">
+      <c r="MS6" s="24"/>
+      <c r="MT6" s="25"/>
+      <c r="MU6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="MV6" s="25"/>
-      <c r="MW6" s="26"/>
-      <c r="MX6" s="25" t="s">
+      <c r="MV6" s="24"/>
+      <c r="MW6" s="25"/>
+      <c r="MX6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="MY6" s="25"/>
-      <c r="MZ6" s="26"/>
-      <c r="NA6" s="25" t="s">
+      <c r="MY6" s="24"/>
+      <c r="MZ6" s="25"/>
+      <c r="NA6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="NB6" s="25"/>
-      <c r="NC6" s="26"/>
-      <c r="ND6" s="25" t="s">
+      <c r="NB6" s="24"/>
+      <c r="NC6" s="25"/>
+      <c r="ND6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="NE6" s="25"/>
-      <c r="NF6" s="26"/>
-      <c r="NG6" s="25" t="s">
+      <c r="NE6" s="24"/>
+      <c r="NF6" s="25"/>
+      <c r="NG6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="NH6" s="25"/>
-      <c r="NI6" s="26"/>
-      <c r="NJ6" s="25" t="s">
+      <c r="NH6" s="24"/>
+      <c r="NI6" s="25"/>
+      <c r="NJ6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="NK6" s="25"/>
-      <c r="NL6" s="26"/>
-      <c r="NM6" s="25" t="s">
+      <c r="NK6" s="24"/>
+      <c r="NL6" s="25"/>
+      <c r="NM6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="NN6" s="25"/>
-      <c r="NO6" s="26"/>
-      <c r="NP6" s="25" t="s">
+      <c r="NN6" s="24"/>
+      <c r="NO6" s="25"/>
+      <c r="NP6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="NQ6" s="25"/>
-      <c r="NR6" s="26"/>
-      <c r="NS6" s="25" t="s">
+      <c r="NQ6" s="24"/>
+      <c r="NR6" s="25"/>
+      <c r="NS6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="NT6" s="25"/>
-      <c r="NU6" s="26"/>
-      <c r="NV6" s="25" t="s">
+      <c r="NT6" s="24"/>
+      <c r="NU6" s="25"/>
+      <c r="NV6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="NW6" s="25"/>
-      <c r="NX6" s="26"/>
-      <c r="NY6" s="25" t="s">
+      <c r="NW6" s="24"/>
+      <c r="NX6" s="25"/>
+      <c r="NY6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="NZ6" s="25"/>
-      <c r="OA6" s="26"/>
-      <c r="OB6" s="25" t="s">
+      <c r="NZ6" s="24"/>
+      <c r="OA6" s="25"/>
+      <c r="OB6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="OC6" s="25"/>
-      <c r="OD6" s="26"/>
-      <c r="OE6" s="25" t="s">
+      <c r="OC6" s="24"/>
+      <c r="OD6" s="25"/>
+      <c r="OE6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="OF6" s="25"/>
-      <c r="OG6" s="26"/>
-      <c r="OH6" s="25" t="s">
+      <c r="OF6" s="24"/>
+      <c r="OG6" s="25"/>
+      <c r="OH6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="OI6" s="25"/>
-      <c r="OJ6" s="26"/>
-      <c r="OK6" s="25" t="s">
+      <c r="OI6" s="24"/>
+      <c r="OJ6" s="25"/>
+      <c r="OK6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="OL6" s="25"/>
-      <c r="OM6" s="26"/>
-      <c r="ON6" s="25" t="s">
+      <c r="OL6" s="24"/>
+      <c r="OM6" s="25"/>
+      <c r="ON6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="OO6" s="25"/>
-      <c r="OP6" s="26"/>
-      <c r="OQ6" s="25" t="s">
+      <c r="OO6" s="24"/>
+      <c r="OP6" s="25"/>
+      <c r="OQ6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="OR6" s="25"/>
-      <c r="OS6" s="26"/>
-      <c r="OT6" s="25" t="s">
+      <c r="OR6" s="24"/>
+      <c r="OS6" s="25"/>
+      <c r="OT6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="OU6" s="25"/>
-      <c r="OV6" s="26"/>
-      <c r="OW6" s="25" t="s">
+      <c r="OU6" s="24"/>
+      <c r="OV6" s="25"/>
+      <c r="OW6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="OX6" s="25"/>
-      <c r="OY6" s="26"/>
-      <c r="OZ6" s="25" t="s">
+      <c r="OX6" s="24"/>
+      <c r="OY6" s="25"/>
+      <c r="OZ6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="PA6" s="25"/>
-      <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PA6" s="24"/>
+      <c r="PB6" s="25"/>
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
-      <c r="PR6" s="25" t="s">
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
+      <c r="PR6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="PS6" s="25"/>
-      <c r="PT6" s="26"/>
-      <c r="PU6" s="25" t="s">
+      <c r="PS6" s="24"/>
+      <c r="PT6" s="25"/>
+      <c r="PU6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="PV6" s="25"/>
-      <c r="PW6" s="26"/>
-      <c r="PX6" s="25" t="s">
+      <c r="PV6" s="24"/>
+      <c r="PW6" s="25"/>
+      <c r="PX6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="PY6" s="25"/>
-      <c r="PZ6" s="26"/>
-      <c r="QA6" s="25" t="s">
+      <c r="PY6" s="24"/>
+      <c r="PZ6" s="25"/>
+      <c r="QA6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="QB6" s="25"/>
-      <c r="QC6" s="26"/>
-      <c r="QD6" s="25" t="s">
+      <c r="QB6" s="24"/>
+      <c r="QC6" s="25"/>
+      <c r="QD6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="QE6" s="25"/>
-      <c r="QF6" s="26"/>
-      <c r="QG6" s="25" t="s">
+      <c r="QE6" s="24"/>
+      <c r="QF6" s="25"/>
+      <c r="QG6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="QH6" s="25"/>
-      <c r="QI6" s="26"/>
-      <c r="QJ6" s="25" t="s">
+      <c r="QH6" s="24"/>
+      <c r="QI6" s="25"/>
+      <c r="QJ6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="QK6" s="25"/>
-      <c r="QL6" s="26"/>
-      <c r="QM6" s="25" t="s">
+      <c r="QK6" s="24"/>
+      <c r="QL6" s="25"/>
+      <c r="QM6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="QN6" s="25"/>
-      <c r="QO6" s="26"/>
-      <c r="QP6" s="25" t="s">
+      <c r="QN6" s="24"/>
+      <c r="QO6" s="25"/>
+      <c r="QP6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="QQ6" s="25"/>
-      <c r="QR6" s="26"/>
-      <c r="QS6" s="25" t="s">
+      <c r="QQ6" s="24"/>
+      <c r="QR6" s="25"/>
+      <c r="QS6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="QT6" s="25"/>
-      <c r="QU6" s="26"/>
-      <c r="QV6" s="25" t="s">
+      <c r="QT6" s="24"/>
+      <c r="QU6" s="25"/>
+      <c r="QV6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="QW6" s="25"/>
-      <c r="QX6" s="26"/>
-      <c r="QY6" s="25" t="s">
+      <c r="QW6" s="24"/>
+      <c r="QX6" s="25"/>
+      <c r="QY6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="QZ6" s="25"/>
-      <c r="RA6" s="26"/>
-      <c r="RB6" s="25" t="s">
+      <c r="QZ6" s="24"/>
+      <c r="RA6" s="25"/>
+      <c r="RB6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="RC6" s="25"/>
-      <c r="RD6" s="26"/>
-      <c r="RE6" s="25" t="s">
+      <c r="RC6" s="24"/>
+      <c r="RD6" s="25"/>
+      <c r="RE6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="RF6" s="25"/>
-      <c r="RG6" s="26"/>
-      <c r="RH6" s="25" t="s">
+      <c r="RF6" s="24"/>
+      <c r="RG6" s="25"/>
+      <c r="RH6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="RI6" s="25"/>
-      <c r="RJ6" s="26"/>
-      <c r="RK6" s="25" t="s">
+      <c r="RI6" s="24"/>
+      <c r="RJ6" s="25"/>
+      <c r="RK6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="RL6" s="25"/>
-      <c r="RM6" s="26"/>
-      <c r="RN6" s="25" t="s">
+      <c r="RL6" s="24"/>
+      <c r="RM6" s="25"/>
+      <c r="RN6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="RO6" s="25"/>
-      <c r="RP6" s="26"/>
-      <c r="RQ6" s="25" t="s">
+      <c r="RO6" s="24"/>
+      <c r="RP6" s="25"/>
+      <c r="RQ6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="RR6" s="25"/>
-      <c r="RS6" s="26"/>
-      <c r="RT6" s="25" t="s">
+      <c r="RR6" s="24"/>
+      <c r="RS6" s="25"/>
+      <c r="RT6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="RU6" s="25"/>
-      <c r="RV6" s="26"/>
-      <c r="RW6" s="25" t="s">
+      <c r="RU6" s="24"/>
+      <c r="RV6" s="25"/>
+      <c r="RW6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="RX6" s="25"/>
-      <c r="RY6" s="26"/>
-      <c r="RZ6" s="25" t="s">
+      <c r="RX6" s="24"/>
+      <c r="RY6" s="25"/>
+      <c r="RZ6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="SA6" s="25"/>
-      <c r="SB6" s="26"/>
-      <c r="SC6" s="25" t="s">
+      <c r="SA6" s="24"/>
+      <c r="SB6" s="25"/>
+      <c r="SC6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="SD6" s="25"/>
-      <c r="SE6" s="26"/>
-      <c r="SF6" s="25" t="s">
+      <c r="SD6" s="24"/>
+      <c r="SE6" s="25"/>
+      <c r="SF6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="SG6" s="25"/>
-      <c r="SH6" s="26"/>
-      <c r="SI6" s="25" t="s">
+      <c r="SG6" s="24"/>
+      <c r="SH6" s="25"/>
+      <c r="SI6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="SJ6" s="25"/>
-      <c r="SK6" s="26"/>
-      <c r="SL6" s="25" t="s">
+      <c r="SJ6" s="24"/>
+      <c r="SK6" s="25"/>
+      <c r="SL6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="SM6" s="25"/>
-      <c r="SN6" s="26"/>
-      <c r="SO6" s="25" t="s">
+      <c r="SM6" s="24"/>
+      <c r="SN6" s="25"/>
+      <c r="SO6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="SP6" s="25"/>
-      <c r="SQ6" s="26"/>
-      <c r="SR6" s="25" t="s">
+      <c r="SP6" s="24"/>
+      <c r="SQ6" s="25"/>
+      <c r="SR6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="SS6" s="25"/>
-      <c r="ST6" s="26"/>
-      <c r="SU6" s="25" t="s">
+      <c r="SS6" s="24"/>
+      <c r="ST6" s="25"/>
+      <c r="SU6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="SV6" s="25"/>
-      <c r="SW6" s="26"/>
-      <c r="SX6" s="25" t="s">
+      <c r="SV6" s="24"/>
+      <c r="SW6" s="25"/>
+      <c r="SX6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="SY6" s="25"/>
-      <c r="SZ6" s="26"/>
-      <c r="TA6" s="25" t="s">
+      <c r="SY6" s="24"/>
+      <c r="SZ6" s="25"/>
+      <c r="TA6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="TB6" s="25"/>
-      <c r="TC6" s="26"/>
-      <c r="TD6" s="25" t="s">
+      <c r="TB6" s="24"/>
+      <c r="TC6" s="25"/>
+      <c r="TD6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="TE6" s="25"/>
-      <c r="TF6" s="26"/>
-      <c r="TG6" s="25" t="s">
+      <c r="TE6" s="24"/>
+      <c r="TF6" s="25"/>
+      <c r="TG6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="TH6" s="25"/>
-      <c r="TI6" s="26"/>
-      <c r="TJ6" s="25" t="s">
+      <c r="TH6" s="24"/>
+      <c r="TI6" s="25"/>
+      <c r="TJ6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="TK6" s="25"/>
-      <c r="TL6" s="26"/>
-      <c r="TM6" s="25" t="s">
+      <c r="TK6" s="24"/>
+      <c r="TL6" s="25"/>
+      <c r="TM6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="TN6" s="25"/>
-      <c r="TO6" s="26"/>
-      <c r="TP6" s="25" t="s">
+      <c r="TN6" s="24"/>
+      <c r="TO6" s="25"/>
+      <c r="TP6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="TQ6" s="25"/>
-      <c r="TR6" s="26"/>
-      <c r="TS6" s="25" t="s">
+      <c r="TQ6" s="24"/>
+      <c r="TR6" s="25"/>
+      <c r="TS6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="TT6" s="25"/>
-      <c r="TU6" s="26"/>
-      <c r="TV6" s="25" t="s">
+      <c r="TT6" s="24"/>
+      <c r="TU6" s="25"/>
+      <c r="TV6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="TW6" s="25"/>
-      <c r="TX6" s="26"/>
-      <c r="TY6" s="25" t="s">
+      <c r="TW6" s="24"/>
+      <c r="TX6" s="25"/>
+      <c r="TY6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="TZ6" s="25"/>
-      <c r="UA6" s="26"/>
-      <c r="UB6" s="25" t="s">
+      <c r="TZ6" s="24"/>
+      <c r="UA6" s="25"/>
+      <c r="UB6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="UC6" s="25"/>
-      <c r="UD6" s="26"/>
-      <c r="UE6" s="25" t="s">
+      <c r="UC6" s="24"/>
+      <c r="UD6" s="25"/>
+      <c r="UE6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="UF6" s="25"/>
-      <c r="UG6" s="26"/>
-      <c r="UH6" s="25" t="s">
+      <c r="UF6" s="24"/>
+      <c r="UG6" s="25"/>
+      <c r="UH6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="UI6" s="25"/>
-      <c r="UJ6" s="26"/>
-      <c r="UK6" s="25" t="s">
+      <c r="UI6" s="24"/>
+      <c r="UJ6" s="25"/>
+      <c r="UK6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="UL6" s="25"/>
-      <c r="UM6" s="26"/>
-      <c r="UN6" s="25" t="s">
+      <c r="UL6" s="24"/>
+      <c r="UM6" s="25"/>
+      <c r="UN6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="UO6" s="25"/>
-      <c r="UP6" s="26"/>
-      <c r="UQ6" s="25" t="s">
+      <c r="UO6" s="24"/>
+      <c r="UP6" s="25"/>
+      <c r="UQ6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="UR6" s="25"/>
-      <c r="US6" s="26"/>
-      <c r="UT6" s="25" t="s">
+      <c r="UR6" s="24"/>
+      <c r="US6" s="25"/>
+      <c r="UT6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="UU6" s="25"/>
-      <c r="UV6" s="26"/>
-      <c r="UW6" s="25" t="s">
+      <c r="UU6" s="24"/>
+      <c r="UV6" s="25"/>
+      <c r="UW6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="UX6" s="25"/>
-      <c r="UY6" s="26"/>
-      <c r="UZ6" s="25" t="s">
+      <c r="UX6" s="24"/>
+      <c r="UY6" s="25"/>
+      <c r="UZ6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="VA6" s="25"/>
-      <c r="VB6" s="26"/>
-      <c r="VC6" s="25" t="s">
+      <c r="VA6" s="24"/>
+      <c r="VB6" s="25"/>
+      <c r="VC6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="VD6" s="25"/>
-      <c r="VE6" s="26"/>
-      <c r="VF6" s="25" t="s">
+      <c r="VD6" s="24"/>
+      <c r="VE6" s="25"/>
+      <c r="VF6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="VG6" s="25"/>
-      <c r="VH6" s="26"/>
-      <c r="VI6" s="25" t="s">
+      <c r="VG6" s="24"/>
+      <c r="VH6" s="25"/>
+      <c r="VI6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="VJ6" s="25"/>
-      <c r="VK6" s="26"/>
-      <c r="VL6" s="25" t="s">
+      <c r="VJ6" s="24"/>
+      <c r="VK6" s="25"/>
+      <c r="VL6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="VM6" s="25"/>
-      <c r="VN6" s="26"/>
-      <c r="VO6" s="25" t="s">
+      <c r="VM6" s="24"/>
+      <c r="VN6" s="25"/>
+      <c r="VO6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="VP6" s="25"/>
-      <c r="VQ6" s="26"/>
-      <c r="VR6" s="25" t="s">
+      <c r="VP6" s="24"/>
+      <c r="VQ6" s="25"/>
+      <c r="VR6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="VS6" s="25"/>
-      <c r="VT6" s="26"/>
-      <c r="VU6" s="25" t="s">
+      <c r="VS6" s="24"/>
+      <c r="VT6" s="25"/>
+      <c r="VU6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="VV6" s="25"/>
-      <c r="VW6" s="26"/>
-      <c r="VX6" s="25" t="s">
+      <c r="VV6" s="24"/>
+      <c r="VW6" s="25"/>
+      <c r="VX6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="VY6" s="25"/>
-      <c r="VZ6" s="26"/>
-      <c r="WA6" s="25" t="s">
+      <c r="VY6" s="24"/>
+      <c r="VZ6" s="25"/>
+      <c r="WA6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="WB6" s="25"/>
-      <c r="WC6" s="26"/>
-      <c r="WD6" s="25" t="s">
+      <c r="WB6" s="24"/>
+      <c r="WC6" s="25"/>
+      <c r="WD6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="WE6" s="25"/>
-      <c r="WF6" s="26"/>
-      <c r="WG6" s="25" t="s">
+      <c r="WE6" s="24"/>
+      <c r="WF6" s="25"/>
+      <c r="WG6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="WH6" s="25"/>
-      <c r="WI6" s="26"/>
-      <c r="WJ6" s="25" t="s">
+      <c r="WH6" s="24"/>
+      <c r="WI6" s="25"/>
+      <c r="WJ6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="WK6" s="25"/>
-      <c r="WL6" s="26"/>
-      <c r="WM6" s="25" t="s">
+      <c r="WK6" s="24"/>
+      <c r="WL6" s="25"/>
+      <c r="WM6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="WN6" s="25"/>
-      <c r="WO6" s="26"/>
-      <c r="WP6" s="25" t="s">
+      <c r="WN6" s="24"/>
+      <c r="WO6" s="25"/>
+      <c r="WP6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="WQ6" s="25"/>
-      <c r="WR6" s="26"/>
-      <c r="WS6" s="25" t="s">
+      <c r="WQ6" s="24"/>
+      <c r="WR6" s="25"/>
+      <c r="WS6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="WT6" s="25"/>
-      <c r="WU6" s="26"/>
-      <c r="WV6" s="25" t="s">
+      <c r="WT6" s="24"/>
+      <c r="WU6" s="25"/>
+      <c r="WV6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="WW6" s="25"/>
-      <c r="WX6" s="26"/>
-      <c r="WY6" s="25" t="s">
+      <c r="WW6" s="24"/>
+      <c r="WX6" s="25"/>
+      <c r="WY6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="WZ6" s="25"/>
-      <c r="XA6" s="26"/>
-      <c r="XB6" s="25" t="s">
+      <c r="WZ6" s="24"/>
+      <c r="XA6" s="25"/>
+      <c r="XB6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="XC6" s="25"/>
-      <c r="XD6" s="26"/>
-      <c r="XE6" s="25" t="s">
+      <c r="XC6" s="24"/>
+      <c r="XD6" s="25"/>
+      <c r="XE6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="XF6" s="25"/>
-      <c r="XG6" s="26"/>
-      <c r="XH6" s="25" t="s">
+      <c r="XF6" s="24"/>
+      <c r="XG6" s="25"/>
+      <c r="XH6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="XI6" s="25"/>
-      <c r="XJ6" s="26"/>
-      <c r="XK6" s="25" t="s">
+      <c r="XI6" s="24"/>
+      <c r="XJ6" s="25"/>
+      <c r="XK6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="XL6" s="25"/>
-      <c r="XM6" s="26"/>
-      <c r="XN6" s="25" t="s">
+      <c r="XL6" s="24"/>
+      <c r="XM6" s="25"/>
+      <c r="XN6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="XO6" s="25"/>
-      <c r="XP6" s="26"/>
-      <c r="XQ6" s="25" t="s">
+      <c r="XO6" s="24"/>
+      <c r="XP6" s="25"/>
+      <c r="XQ6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="XR6" s="25"/>
-      <c r="XS6" s="26"/>
-      <c r="XT6" s="25" t="s">
+      <c r="XR6" s="24"/>
+      <c r="XS6" s="25"/>
+      <c r="XT6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="XU6" s="25"/>
-      <c r="XV6" s="26"/>
-      <c r="XW6" s="25" t="s">
+      <c r="XU6" s="24"/>
+      <c r="XV6" s="25"/>
+      <c r="XW6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="XX6" s="25"/>
-      <c r="XY6" s="26"/>
-      <c r="XZ6" s="25" t="s">
+      <c r="XX6" s="24"/>
+      <c r="XY6" s="25"/>
+      <c r="XZ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="YA6" s="25"/>
-      <c r="YB6" s="26"/>
-      <c r="YC6" s="25" t="s">
+      <c r="YA6" s="24"/>
+      <c r="YB6" s="25"/>
+      <c r="YC6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="YD6" s="25"/>
-      <c r="YE6" s="26"/>
-      <c r="YF6" s="25" t="s">
+      <c r="YD6" s="24"/>
+      <c r="YE6" s="25"/>
+      <c r="YF6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="YG6" s="25"/>
-      <c r="YH6" s="26"/>
-      <c r="YI6" s="25" t="s">
+      <c r="YG6" s="24"/>
+      <c r="YH6" s="25"/>
+      <c r="YI6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="YJ6" s="25"/>
-      <c r="YK6" s="26"/>
-      <c r="YL6" s="25" t="s">
+      <c r="YJ6" s="24"/>
+      <c r="YK6" s="25"/>
+      <c r="YL6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="YM6" s="25"/>
-      <c r="YN6" s="26"/>
-      <c r="YO6" s="25" t="s">
+      <c r="YM6" s="24"/>
+      <c r="YN6" s="25"/>
+      <c r="YO6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="YP6" s="25"/>
-      <c r="YQ6" s="26"/>
-      <c r="YR6" s="25" t="s">
+      <c r="YP6" s="24"/>
+      <c r="YQ6" s="25"/>
+      <c r="YR6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="YS6" s="25"/>
-      <c r="YT6" s="26"/>
-      <c r="YU6" s="25" t="s">
+      <c r="YS6" s="24"/>
+      <c r="YT6" s="25"/>
+      <c r="YU6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="YV6" s="25"/>
-      <c r="YW6" s="26"/>
-      <c r="YX6" s="25" t="s">
+      <c r="YV6" s="24"/>
+      <c r="YW6" s="25"/>
+      <c r="YX6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="YY6" s="25"/>
-      <c r="YZ6" s="26"/>
-      <c r="ZA6" s="25" t="s">
+      <c r="YY6" s="24"/>
+      <c r="YZ6" s="25"/>
+      <c r="ZA6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="ZB6" s="25"/>
-      <c r="ZC6" s="26"/>
-      <c r="ZD6" s="25" t="s">
+      <c r="ZB6" s="24"/>
+      <c r="ZC6" s="25"/>
+      <c r="ZD6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="ZE6" s="25"/>
-      <c r="ZF6" s="26"/>
-      <c r="ZG6" s="25" t="s">
+      <c r="ZE6" s="24"/>
+      <c r="ZF6" s="25"/>
+      <c r="ZG6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="ZH6" s="25"/>
-      <c r="ZI6" s="26"/>
-      <c r="ZJ6" s="25" t="s">
+      <c r="ZH6" s="24"/>
+      <c r="ZI6" s="25"/>
+      <c r="ZJ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="ZK6" s="25"/>
-      <c r="ZL6" s="26"/>
-      <c r="ZM6" s="25" t="s">
+      <c r="ZK6" s="24"/>
+      <c r="ZL6" s="25"/>
+      <c r="ZM6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="ZN6" s="25"/>
-      <c r="ZO6" s="26"/>
-      <c r="ZP6" s="25" t="s">
+      <c r="ZN6" s="24"/>
+      <c r="ZO6" s="25"/>
+      <c r="ZP6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="ZQ6" s="25"/>
-      <c r="ZR6" s="26"/>
-      <c r="ZS6" s="25" t="s">
+      <c r="ZQ6" s="24"/>
+      <c r="ZR6" s="25"/>
+      <c r="ZS6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="ZT6" s="25"/>
-      <c r="ZU6" s="26"/>
-      <c r="ZV6" s="25" t="s">
+      <c r="ZT6" s="24"/>
+      <c r="ZU6" s="25"/>
+      <c r="ZV6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="ZW6" s="25"/>
-      <c r="ZX6" s="26"/>
-      <c r="ZY6" s="25" t="s">
+      <c r="ZW6" s="24"/>
+      <c r="ZX6" s="25"/>
+      <c r="ZY6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="ZZ6" s="25"/>
-      <c r="AAA6" s="26"/>
-      <c r="AAB6" s="25" t="s">
+      <c r="ZZ6" s="24"/>
+      <c r="AAA6" s="25"/>
+      <c r="AAB6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AAC6" s="25"/>
-      <c r="AAD6" s="26"/>
-      <c r="AAE6" s="25" t="s">
+      <c r="AAC6" s="24"/>
+      <c r="AAD6" s="25"/>
+      <c r="AAE6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AAF6" s="25"/>
-      <c r="AAG6" s="26"/>
-      <c r="AAH6" s="25" t="s">
+      <c r="AAF6" s="24"/>
+      <c r="AAG6" s="25"/>
+      <c r="AAH6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AAI6" s="25"/>
-      <c r="AAJ6" s="26"/>
-      <c r="AAK6" s="25" t="s">
+      <c r="AAI6" s="24"/>
+      <c r="AAJ6" s="25"/>
+      <c r="AAK6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AAL6" s="25"/>
-      <c r="AAM6" s="26"/>
-      <c r="AAN6" s="25" t="s">
+      <c r="AAL6" s="24"/>
+      <c r="AAM6" s="25"/>
+      <c r="AAN6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AAO6" s="25"/>
-      <c r="AAP6" s="26"/>
-      <c r="AAQ6" s="25" t="s">
+      <c r="AAO6" s="24"/>
+      <c r="AAP6" s="25"/>
+      <c r="AAQ6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AAR6" s="25"/>
-      <c r="AAS6" s="26"/>
-      <c r="AAT6" s="25" t="s">
+      <c r="AAR6" s="24"/>
+      <c r="AAS6" s="25"/>
+      <c r="AAT6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AAU6" s="25"/>
-      <c r="AAV6" s="26"/>
-      <c r="AAW6" s="25" t="s">
+      <c r="AAU6" s="24"/>
+      <c r="AAV6" s="25"/>
+      <c r="AAW6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AAX6" s="25"/>
-      <c r="AAY6" s="26"/>
-      <c r="AAZ6" s="25" t="s">
+      <c r="AAX6" s="24"/>
+      <c r="AAY6" s="25"/>
+      <c r="AAZ6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="ABA6" s="25"/>
-      <c r="ABB6" s="26"/>
-      <c r="ABC6" s="25" t="s">
+      <c r="ABA6" s="24"/>
+      <c r="ABB6" s="25"/>
+      <c r="ABC6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="ABD6" s="25"/>
-      <c r="ABE6" s="26"/>
-      <c r="ABF6" s="25" t="s">
+      <c r="ABD6" s="24"/>
+      <c r="ABE6" s="25"/>
+      <c r="ABF6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="ABG6" s="25"/>
-      <c r="ABH6" s="26"/>
-      <c r="ABI6" s="25" t="s">
+      <c r="ABG6" s="24"/>
+      <c r="ABH6" s="25"/>
+      <c r="ABI6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="ABJ6" s="25"/>
-      <c r="ABK6" s="26"/>
-      <c r="ABL6" s="25" t="s">
+      <c r="ABJ6" s="24"/>
+      <c r="ABK6" s="25"/>
+      <c r="ABL6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="ABM6" s="25"/>
-      <c r="ABN6" s="26"/>
-      <c r="ABO6" s="25" t="s">
+      <c r="ABM6" s="24"/>
+      <c r="ABN6" s="25"/>
+      <c r="ABO6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="ABP6" s="25"/>
-      <c r="ABQ6" s="26"/>
-      <c r="ABR6" s="25" t="s">
+      <c r="ABP6" s="24"/>
+      <c r="ABQ6" s="25"/>
+      <c r="ABR6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="ABS6" s="25"/>
-      <c r="ABT6" s="26"/>
-      <c r="ABU6" s="25" t="s">
+      <c r="ABS6" s="24"/>
+      <c r="ABT6" s="25"/>
+      <c r="ABU6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="ABV6" s="25"/>
-      <c r="ABW6" s="26"/>
-      <c r="ABX6" s="25" t="s">
+      <c r="ABV6" s="24"/>
+      <c r="ABW6" s="25"/>
+      <c r="ABX6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="ABY6" s="25"/>
-      <c r="ABZ6" s="26"/>
-      <c r="ACA6" s="25" t="s">
+      <c r="ABY6" s="24"/>
+      <c r="ABZ6" s="25"/>
+      <c r="ACA6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="ACB6" s="25"/>
-      <c r="ACC6" s="26"/>
-      <c r="ACD6" s="25" t="s">
+      <c r="ACB6" s="24"/>
+      <c r="ACC6" s="25"/>
+      <c r="ACD6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="ACE6" s="25"/>
-      <c r="ACF6" s="26"/>
-      <c r="ACG6" s="25" t="s">
+      <c r="ACE6" s="24"/>
+      <c r="ACF6" s="25"/>
+      <c r="ACG6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="ACH6" s="25"/>
-      <c r="ACI6" s="26"/>
-      <c r="ACJ6" s="25" t="s">
+      <c r="ACH6" s="24"/>
+      <c r="ACI6" s="25"/>
+      <c r="ACJ6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="ACK6" s="25"/>
-      <c r="ACL6" s="26"/>
-      <c r="ACM6" s="25" t="s">
+      <c r="ACK6" s="24"/>
+      <c r="ACL6" s="25"/>
+      <c r="ACM6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="ACN6" s="25"/>
-      <c r="ACO6" s="26"/>
-      <c r="ACP6" s="25" t="s">
+      <c r="ACN6" s="24"/>
+      <c r="ACO6" s="25"/>
+      <c r="ACP6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="ACQ6" s="25"/>
-      <c r="ACR6" s="26"/>
-      <c r="ACS6" s="25" t="s">
+      <c r="ACQ6" s="24"/>
+      <c r="ACR6" s="25"/>
+      <c r="ACS6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="ACT6" s="25"/>
-      <c r="ACU6" s="26"/>
-      <c r="ACV6" s="25" t="s">
+      <c r="ACT6" s="24"/>
+      <c r="ACU6" s="25"/>
+      <c r="ACV6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="ACW6" s="25"/>
-      <c r="ACX6" s="26"/>
-      <c r="ACY6" s="25" t="s">
+      <c r="ACW6" s="24"/>
+      <c r="ACX6" s="25"/>
+      <c r="ACY6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="ACZ6" s="25"/>
-      <c r="ADA6" s="26"/>
-      <c r="ADB6" s="25" t="s">
+      <c r="ACZ6" s="24"/>
+      <c r="ADA6" s="25"/>
+      <c r="ADB6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="ADC6" s="25"/>
-      <c r="ADD6" s="26"/>
-      <c r="ADE6" s="25" t="s">
+      <c r="ADC6" s="24"/>
+      <c r="ADD6" s="25"/>
+      <c r="ADE6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="ADF6" s="25"/>
-      <c r="ADG6" s="26"/>
-      <c r="ADH6" s="25" t="s">
+      <c r="ADF6" s="24"/>
+      <c r="ADG6" s="25"/>
+      <c r="ADH6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="ADI6" s="25"/>
-      <c r="ADJ6" s="26"/>
-      <c r="ADK6" s="25" t="s">
+      <c r="ADI6" s="24"/>
+      <c r="ADJ6" s="25"/>
+      <c r="ADK6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="ADL6" s="25"/>
-      <c r="ADM6" s="26"/>
-      <c r="ADN6" s="25" t="s">
+      <c r="ADL6" s="24"/>
+      <c r="ADM6" s="25"/>
+      <c r="ADN6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="ADO6" s="25"/>
-      <c r="ADP6" s="26"/>
-      <c r="ADQ6" s="25" t="s">
+      <c r="ADO6" s="24"/>
+      <c r="ADP6" s="25"/>
+      <c r="ADQ6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="ADR6" s="25"/>
-      <c r="ADS6" s="26"/>
-      <c r="ADT6" s="25" t="s">
+      <c r="ADR6" s="24"/>
+      <c r="ADS6" s="25"/>
+      <c r="ADT6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="ADU6" s="25"/>
-      <c r="ADV6" s="26"/>
-      <c r="ADW6" s="25" t="s">
+      <c r="ADU6" s="24"/>
+      <c r="ADV6" s="25"/>
+      <c r="ADW6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="ADX6" s="25"/>
-      <c r="ADY6" s="26"/>
-      <c r="ADZ6" s="25" t="s">
+      <c r="ADX6" s="24"/>
+      <c r="ADY6" s="25"/>
+      <c r="ADZ6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AEA6" s="25"/>
-      <c r="AEB6" s="26"/>
-      <c r="AEC6" s="25" t="s">
+      <c r="AEA6" s="24"/>
+      <c r="AEB6" s="25"/>
+      <c r="AEC6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AED6" s="25"/>
-      <c r="AEE6" s="26"/>
-      <c r="AEF6" s="25" t="s">
+      <c r="AED6" s="24"/>
+      <c r="AEE6" s="25"/>
+      <c r="AEF6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AEG6" s="25"/>
-      <c r="AEH6" s="26"/>
-      <c r="AEI6" s="25" t="s">
+      <c r="AEG6" s="24"/>
+      <c r="AEH6" s="25"/>
+      <c r="AEI6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AEJ6" s="25"/>
-      <c r="AEK6" s="26"/>
-      <c r="AEL6" s="25" t="s">
+      <c r="AEJ6" s="24"/>
+      <c r="AEK6" s="25"/>
+      <c r="AEL6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AEM6" s="25"/>
-      <c r="AEN6" s="26"/>
-      <c r="AEO6" s="25" t="s">
+      <c r="AEM6" s="24"/>
+      <c r="AEN6" s="25"/>
+      <c r="AEO6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AEP6" s="25"/>
-      <c r="AEQ6" s="26"/>
-      <c r="AER6" s="25" t="s">
+      <c r="AEP6" s="24"/>
+      <c r="AEQ6" s="25"/>
+      <c r="AER6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AES6" s="25"/>
-      <c r="AET6" s="26"/>
-      <c r="AEU6" s="25" t="s">
+      <c r="AES6" s="24"/>
+      <c r="AET6" s="25"/>
+      <c r="AEU6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AEV6" s="25"/>
-      <c r="AEW6" s="26"/>
-      <c r="AEX6" s="24" t="s">
+      <c r="AEV6" s="24"/>
+      <c r="AEW6" s="25"/>
+      <c r="AEX6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AEY6" s="25"/>
-      <c r="AEZ6" s="26"/>
-      <c r="AFA6" s="24" t="s">
+      <c r="AEY6" s="24"/>
+      <c r="AEZ6" s="25"/>
+      <c r="AFA6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AFB6" s="25"/>
-      <c r="AFC6" s="26"/>
-      <c r="AFD6" s="24" t="s">
+      <c r="AFB6" s="24"/>
+      <c r="AFC6" s="25"/>
+      <c r="AFD6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AFE6" s="25"/>
-      <c r="AFF6" s="26"/>
-      <c r="AFG6" s="24" t="s">
+      <c r="AFE6" s="24"/>
+      <c r="AFF6" s="25"/>
+      <c r="AFG6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AFH6" s="25"/>
-      <c r="AFI6" s="26"/>
-      <c r="AFJ6" s="24" t="s">
+      <c r="AFH6" s="24"/>
+      <c r="AFI6" s="25"/>
+      <c r="AFJ6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AFK6" s="25"/>
-      <c r="AFL6" s="26"/>
-      <c r="AFM6" s="24" t="s">
+      <c r="AFK6" s="24"/>
+      <c r="AFL6" s="25"/>
+      <c r="AFM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AFN6" s="25"/>
-      <c r="AFO6" s="26"/>
-      <c r="AFP6" s="24" t="s">
+      <c r="AFN6" s="24"/>
+      <c r="AFO6" s="25"/>
+      <c r="AFP6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AFQ6" s="25"/>
-      <c r="AFR6" s="26"/>
-      <c r="AFS6" s="24" t="s">
+      <c r="AFQ6" s="24"/>
+      <c r="AFR6" s="25"/>
+      <c r="AFS6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AFT6" s="25"/>
-      <c r="AFU6" s="26"/>
-      <c r="AFV6" s="24" t="s">
+      <c r="AFT6" s="24"/>
+      <c r="AFU6" s="25"/>
+      <c r="AFV6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AFW6" s="25"/>
-      <c r="AFX6" s="26"/>
-      <c r="AFY6" s="24" t="s">
+      <c r="AFW6" s="24"/>
+      <c r="AFX6" s="25"/>
+      <c r="AFY6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AFZ6" s="25"/>
-      <c r="AGA6" s="26"/>
+      <c r="AFZ6" s="24"/>
+      <c r="AGA6" s="25"/>
       <c r="AGB6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AGC6" s="25"/>
-      <c r="AGD6" s="26"/>
+      <c r="AGC6" s="24"/>
+      <c r="AGD6" s="25"/>
+      <c r="AGE6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AGF6" s="24"/>
+      <c r="AGG6" s="25"/>
     </row>
-    <row r="7" spans="1:862" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:865" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -6346,26 +6354,35 @@
       <c r="AFX7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AFY7" s="9" t="s">
+      <c r="AFY7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AFZ7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AGA7" s="9" t="s">
+      <c r="AGA7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AGB7" s="8" t="s">
+      <c r="AGB7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AGC7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AGD7" s="10" t="s">
+      <c r="AGD7" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AGE7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGF7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGG7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8934,26 +8951,35 @@
       <c r="AFX8" s="23">
         <v>115046</v>
       </c>
-      <c r="AFY8" s="22">
+      <c r="AFY8" s="21">
         <v>81554</v>
       </c>
       <c r="AFZ8" s="22">
         <v>35658</v>
       </c>
-      <c r="AGA8" s="22">
+      <c r="AGA8" s="23">
         <v>117212</v>
       </c>
-      <c r="AGB8" s="21">
+      <c r="AGB8" s="22">
         <v>82936</v>
       </c>
       <c r="AGC8" s="22">
         <v>36284</v>
       </c>
-      <c r="AGD8" s="23">
+      <c r="AGD8" s="22">
         <v>119220</v>
       </c>
+      <c r="AGE8" s="21">
+        <v>81644</v>
+      </c>
+      <c r="AGF8" s="22">
+        <v>34607</v>
+      </c>
+      <c r="AGG8" s="23">
+        <v>116251</v>
+      </c>
     </row>
-    <row r="9" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11522,26 +11548,35 @@
       <c r="AFX9" s="5">
         <v>385474</v>
       </c>
-      <c r="AFY9" s="4">
+      <c r="AFY9" s="3">
         <v>225384</v>
       </c>
       <c r="AFZ9" s="4">
         <v>162989</v>
       </c>
-      <c r="AGA9" s="4">
+      <c r="AGA9" s="5">
         <v>388373</v>
       </c>
-      <c r="AGB9" s="3">
+      <c r="AGB9" s="4">
         <v>226415</v>
       </c>
       <c r="AGC9" s="4">
         <v>164819</v>
       </c>
-      <c r="AGD9" s="5">
+      <c r="AGD9" s="4">
         <v>391234</v>
       </c>
+      <c r="AGE9" s="3">
+        <v>225820</v>
+      </c>
+      <c r="AGF9" s="4">
+        <v>163129</v>
+      </c>
+      <c r="AGG9" s="5">
+        <v>388949</v>
+      </c>
     </row>
-    <row r="10" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14110,26 +14145,35 @@
       <c r="AFX10" s="5">
         <v>140812</v>
       </c>
-      <c r="AFY10" s="4">
+      <c r="AFY10" s="3">
         <v>120354</v>
       </c>
       <c r="AFZ10" s="4">
         <v>21211</v>
       </c>
-      <c r="AGA10" s="4">
+      <c r="AGA10" s="5">
         <v>141565</v>
       </c>
-      <c r="AGB10" s="3">
+      <c r="AGB10" s="4">
         <v>120408</v>
       </c>
       <c r="AGC10" s="4">
         <v>21415</v>
       </c>
-      <c r="AGD10" s="5">
+      <c r="AGD10" s="4">
         <v>141823</v>
       </c>
+      <c r="AGE10" s="3">
+        <v>113632</v>
+      </c>
+      <c r="AGF10" s="4">
+        <v>20915</v>
+      </c>
+      <c r="AGG10" s="5">
+        <v>134547</v>
+      </c>
     </row>
-    <row r="11" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16698,26 +16742,35 @@
       <c r="AFX11" s="5">
         <v>9562</v>
       </c>
-      <c r="AFY11" s="4">
+      <c r="AFY11" s="3">
         <v>7236</v>
       </c>
       <c r="AFZ11" s="4">
         <v>2272</v>
       </c>
-      <c r="AGA11" s="4">
+      <c r="AGA11" s="5">
         <v>9508</v>
       </c>
-      <c r="AGB11" s="3">
+      <c r="AGB11" s="4">
         <v>7295</v>
       </c>
       <c r="AGC11" s="4">
         <v>2275</v>
       </c>
-      <c r="AGD11" s="5">
+      <c r="AGD11" s="4">
         <v>9570</v>
       </c>
+      <c r="AGE11" s="3">
+        <v>7074</v>
+      </c>
+      <c r="AGF11" s="4">
+        <v>2319</v>
+      </c>
+      <c r="AGG11" s="5">
+        <v>9393</v>
+      </c>
     </row>
-    <row r="12" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19286,26 +19339,35 @@
       <c r="AFX12" s="5">
         <v>480063</v>
       </c>
-      <c r="AFY12" s="4">
+      <c r="AFY12" s="3">
         <v>289007</v>
       </c>
       <c r="AFZ12" s="4">
         <v>192688</v>
       </c>
-      <c r="AGA12" s="4">
+      <c r="AGA12" s="5">
         <v>481695</v>
       </c>
-      <c r="AGB12" s="3">
+      <c r="AGB12" s="4">
         <v>290764</v>
       </c>
       <c r="AGC12" s="4">
         <v>193884</v>
       </c>
-      <c r="AGD12" s="5">
+      <c r="AGD12" s="4">
         <v>484648</v>
       </c>
+      <c r="AGE12" s="3">
+        <v>288844</v>
+      </c>
+      <c r="AGF12" s="4">
+        <v>191816</v>
+      </c>
+      <c r="AGG12" s="5">
+        <v>480660</v>
+      </c>
     </row>
-    <row r="13" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21874,26 +21936,35 @@
       <c r="AFX13" s="5">
         <v>2640</v>
       </c>
-      <c r="AFY13" s="4">
+      <c r="AFY13" s="3">
         <v>2277</v>
       </c>
       <c r="AFZ13" s="4">
         <v>343</v>
       </c>
-      <c r="AGA13" s="4">
+      <c r="AGA13" s="5">
         <v>2620</v>
       </c>
-      <c r="AGB13" s="3">
+      <c r="AGB13" s="4">
         <v>2301</v>
       </c>
       <c r="AGC13" s="4">
         <v>345</v>
       </c>
-      <c r="AGD13" s="5">
+      <c r="AGD13" s="4">
         <v>2646</v>
       </c>
+      <c r="AGE13" s="3">
+        <v>2281</v>
+      </c>
+      <c r="AGF13" s="4">
+        <v>343</v>
+      </c>
+      <c r="AGG13" s="5">
+        <v>2624</v>
+      </c>
     </row>
-    <row r="14" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24462,26 +24533,35 @@
       <c r="AFX14" s="5">
         <v>345852</v>
       </c>
-      <c r="AFY14" s="4">
+      <c r="AFY14" s="3">
         <v>195520</v>
       </c>
       <c r="AFZ14" s="4">
         <v>153652</v>
       </c>
-      <c r="AGA14" s="4">
+      <c r="AGA14" s="5">
         <v>349172</v>
       </c>
-      <c r="AGB14" s="3">
+      <c r="AGB14" s="4">
         <v>196125</v>
       </c>
       <c r="AGC14" s="4">
         <v>154568</v>
       </c>
-      <c r="AGD14" s="5">
+      <c r="AGD14" s="4">
         <v>350693</v>
       </c>
+      <c r="AGE14" s="3">
+        <v>194916</v>
+      </c>
+      <c r="AGF14" s="4">
+        <v>153051</v>
+      </c>
+      <c r="AGG14" s="5">
+        <v>347967</v>
+      </c>
     </row>
-    <row r="15" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -27050,26 +27130,35 @@
       <c r="AFX15" s="5">
         <v>274007</v>
       </c>
-      <c r="AFY15" s="4">
+      <c r="AFY15" s="3">
         <v>122523</v>
       </c>
       <c r="AFZ15" s="4">
         <v>150509</v>
       </c>
-      <c r="AGA15" s="4">
+      <c r="AGA15" s="5">
         <v>273032</v>
       </c>
-      <c r="AGB15" s="3">
+      <c r="AGB15" s="4">
         <v>124322</v>
       </c>
       <c r="AGC15" s="4">
         <v>151448</v>
       </c>
-      <c r="AGD15" s="5">
+      <c r="AGD15" s="4">
         <v>275770</v>
       </c>
+      <c r="AGE15" s="3">
+        <v>122472</v>
+      </c>
+      <c r="AGF15" s="4">
+        <v>149881</v>
+      </c>
+      <c r="AGG15" s="5">
+        <v>272353</v>
+      </c>
     </row>
-    <row r="16" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29638,26 +29727,35 @@
       <c r="AFX16" s="5">
         <v>94275</v>
       </c>
-      <c r="AFY16" s="4">
+      <c r="AFY16" s="3">
         <v>71760</v>
       </c>
       <c r="AFZ16" s="4">
         <v>23298</v>
       </c>
-      <c r="AGA16" s="4">
+      <c r="AGA16" s="5">
         <v>95058</v>
       </c>
-      <c r="AGB16" s="3">
+      <c r="AGB16" s="4">
         <v>73770</v>
       </c>
       <c r="AGC16" s="4">
         <v>24102</v>
       </c>
-      <c r="AGD16" s="5">
+      <c r="AGD16" s="4">
         <v>97872</v>
       </c>
+      <c r="AGE16" s="3">
+        <v>73526</v>
+      </c>
+      <c r="AGF16" s="4">
+        <v>23729</v>
+      </c>
+      <c r="AGG16" s="5">
+        <v>97255</v>
+      </c>
     </row>
-    <row r="17" spans="1:862" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -32226,40 +32324,49 @@
       <c r="AFX17" s="16">
         <v>1847731</v>
       </c>
-      <c r="AFY17" s="15">
+      <c r="AFY17" s="14">
         <v>1115615</v>
       </c>
       <c r="AFZ17" s="15">
         <v>742620</v>
       </c>
-      <c r="AGA17" s="15">
+      <c r="AGA17" s="16">
         <v>1858235</v>
       </c>
-      <c r="AGB17" s="14">
+      <c r="AGB17" s="15">
         <v>1124336</v>
       </c>
       <c r="AGC17" s="15">
         <v>749140</v>
       </c>
-      <c r="AGD17" s="16">
+      <c r="AGD17" s="15">
         <v>1873476</v>
       </c>
+      <c r="AGE17" s="14">
+        <v>1110209</v>
+      </c>
+      <c r="AGF17" s="15">
+        <v>739790</v>
+      </c>
+      <c r="AGG17" s="16">
+        <v>1849999</v>
+      </c>
     </row>
-    <row r="19" spans="1:862" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:865" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:862" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:865" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="314">
+  <mergeCells count="315">
     <mergeCell ref="AFY6:AGA6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
@@ -32284,9 +32391,16 @@
     <mergeCell ref="LN5:MW5"/>
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="AEX6:AEZ6"/>
     <mergeCell ref="AFA6:AFC6"/>
     <mergeCell ref="AFD6:AFF6"/>
@@ -32298,16 +32412,6 @@
     <mergeCell ref="AEO6:AEQ6"/>
     <mergeCell ref="AER6:AET6"/>
     <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
     <mergeCell ref="ADH6:ADJ6"/>
     <mergeCell ref="ADK6:ADM6"/>
     <mergeCell ref="ACD6:ACF6"/>
@@ -32536,6 +32640,7 @@
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="EV6:EX6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="BV6:BX6"/>
     <mergeCell ref="BY6:CA6"/>
@@ -32550,9 +32655,13 @@
     <mergeCell ref="BP6:BR6"/>
     <mergeCell ref="BS6:BU6"/>
     <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
     <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AEX5:AGD5"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
@@ -32573,7 +32682,6 @@
     <mergeCell ref="DC6:DE6"/>
     <mergeCell ref="EP6:ER6"/>
     <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="EV6:EX6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-diciembre  2021</t>
+    <t>Enero 1998-enero 2022</t>
   </si>
 </sst>
 </file>
@@ -892,32 +892,14 @@
     <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,19 +1250,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGG27"/>
+  <dimension ref="A1:AGJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGD32" sqref="AGD32"/>
+      <selection pane="topRight" activeCell="AFY28" sqref="AFY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.85546875" style="1" customWidth="1"/>
-    <col min="2" max="25" width="7.85546875" style="1" customWidth="1"/>
-    <col min="26" max="334" width="9.140625" style="1" customWidth="1"/>
-    <col min="335" max="336" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="337" max="337" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="338" max="338" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="339" max="339" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1398,19 +1703,350 @@
     <col min="469" max="469" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="470" max="470" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="471" max="471" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="847" width="8.85546875" style="1" customWidth="1"/>
-    <col min="848" max="16384" width="11.42578125" style="1"/>
+    <col min="472" max="472" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="673" max="674" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="676" max="677" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="680" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="686" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="692" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="697" max="698" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="704" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="709" max="710" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="715" max="716" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="721" max="722" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="727" max="728" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="733" max="734" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="739" max="740" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="751" max="752" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="757" max="758" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="763" max="764" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="769" max="770" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="782" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="787" max="788" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="790" max="791" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="799" max="800" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="805" max="806" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="811" max="812" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="817" max="818" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="823" max="824" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="829" max="830" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="835" max="836" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="841" max="842" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="847" max="848" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="853" max="854" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="859" max="860" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="861" max="861" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="864" max="864" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="865" max="866" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="867" max="867" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="868" max="868" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="869" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +2054,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1426,2369 +2062,2379 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>1998</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="26">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="24">
         <v>1999</v>
       </c>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
-      <c r="BL5" s="24"/>
-      <c r="BM5" s="24"/>
-      <c r="BN5" s="24"/>
-      <c r="BO5" s="24"/>
-      <c r="BP5" s="24"/>
-      <c r="BQ5" s="24"/>
-      <c r="BR5" s="24"/>
-      <c r="BS5" s="24"/>
-      <c r="BT5" s="24"/>
-      <c r="BU5" s="25"/>
-      <c r="BV5" s="26">
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="25"/>
+      <c r="BG5" s="25"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="25"/>
+      <c r="BK5" s="25"/>
+      <c r="BL5" s="25"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="25"/>
+      <c r="BO5" s="25"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="25"/>
+      <c r="BS5" s="25"/>
+      <c r="BT5" s="25"/>
+      <c r="BU5" s="26"/>
+      <c r="BV5" s="24">
         <v>2000</v>
       </c>
-      <c r="BW5" s="24"/>
-      <c r="BX5" s="24"/>
-      <c r="BY5" s="24"/>
-      <c r="BZ5" s="24"/>
-      <c r="CA5" s="24"/>
-      <c r="CB5" s="24"/>
-      <c r="CC5" s="24"/>
-      <c r="CD5" s="24"/>
-      <c r="CE5" s="24"/>
-      <c r="CF5" s="24"/>
-      <c r="CG5" s="24"/>
-      <c r="CH5" s="24"/>
-      <c r="CI5" s="24"/>
-      <c r="CJ5" s="24"/>
-      <c r="CK5" s="24"/>
-      <c r="CL5" s="24"/>
-      <c r="CM5" s="24"/>
-      <c r="CN5" s="24"/>
-      <c r="CO5" s="24"/>
-      <c r="CP5" s="24"/>
-      <c r="CQ5" s="24"/>
-      <c r="CR5" s="24"/>
-      <c r="CS5" s="24"/>
-      <c r="CT5" s="24"/>
-      <c r="CU5" s="24"/>
-      <c r="CV5" s="24"/>
-      <c r="CW5" s="24"/>
-      <c r="CX5" s="24"/>
-      <c r="CY5" s="24"/>
-      <c r="CZ5" s="24"/>
-      <c r="DA5" s="24"/>
-      <c r="DB5" s="24"/>
-      <c r="DC5" s="24"/>
-      <c r="DD5" s="24"/>
-      <c r="DE5" s="25"/>
-      <c r="DF5" s="26">
+      <c r="BW5" s="25"/>
+      <c r="BX5" s="25"/>
+      <c r="BY5" s="25"/>
+      <c r="BZ5" s="25"/>
+      <c r="CA5" s="25"/>
+      <c r="CB5" s="25"/>
+      <c r="CC5" s="25"/>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25"/>
+      <c r="CF5" s="25"/>
+      <c r="CG5" s="25"/>
+      <c r="CH5" s="25"/>
+      <c r="CI5" s="25"/>
+      <c r="CJ5" s="25"/>
+      <c r="CK5" s="25"/>
+      <c r="CL5" s="25"/>
+      <c r="CM5" s="25"/>
+      <c r="CN5" s="25"/>
+      <c r="CO5" s="25"/>
+      <c r="CP5" s="25"/>
+      <c r="CQ5" s="25"/>
+      <c r="CR5" s="25"/>
+      <c r="CS5" s="25"/>
+      <c r="CT5" s="25"/>
+      <c r="CU5" s="25"/>
+      <c r="CV5" s="25"/>
+      <c r="CW5" s="25"/>
+      <c r="CX5" s="25"/>
+      <c r="CY5" s="25"/>
+      <c r="CZ5" s="25"/>
+      <c r="DA5" s="25"/>
+      <c r="DB5" s="25"/>
+      <c r="DC5" s="25"/>
+      <c r="DD5" s="25"/>
+      <c r="DE5" s="26"/>
+      <c r="DF5" s="24">
         <v>2001</v>
       </c>
-      <c r="DG5" s="24"/>
-      <c r="DH5" s="24"/>
-      <c r="DI5" s="24"/>
-      <c r="DJ5" s="24"/>
-      <c r="DK5" s="24"/>
-      <c r="DL5" s="24"/>
-      <c r="DM5" s="24"/>
-      <c r="DN5" s="24"/>
-      <c r="DO5" s="24"/>
-      <c r="DP5" s="24"/>
-      <c r="DQ5" s="24"/>
-      <c r="DR5" s="24"/>
-      <c r="DS5" s="24"/>
-      <c r="DT5" s="24"/>
-      <c r="DU5" s="24"/>
-      <c r="DV5" s="24"/>
-      <c r="DW5" s="24"/>
-      <c r="DX5" s="24"/>
-      <c r="DY5" s="24"/>
-      <c r="DZ5" s="24"/>
-      <c r="EA5" s="24"/>
-      <c r="EB5" s="24"/>
-      <c r="EC5" s="24"/>
-      <c r="ED5" s="24"/>
-      <c r="EE5" s="24"/>
-      <c r="EF5" s="24"/>
-      <c r="EG5" s="24"/>
-      <c r="EH5" s="24"/>
-      <c r="EI5" s="24"/>
-      <c r="EJ5" s="24"/>
-      <c r="EK5" s="24"/>
-      <c r="EL5" s="24"/>
-      <c r="EM5" s="24"/>
-      <c r="EN5" s="24"/>
-      <c r="EO5" s="25"/>
-      <c r="EP5" s="26">
+      <c r="DG5" s="25"/>
+      <c r="DH5" s="25"/>
+      <c r="DI5" s="25"/>
+      <c r="DJ5" s="25"/>
+      <c r="DK5" s="25"/>
+      <c r="DL5" s="25"/>
+      <c r="DM5" s="25"/>
+      <c r="DN5" s="25"/>
+      <c r="DO5" s="25"/>
+      <c r="DP5" s="25"/>
+      <c r="DQ5" s="25"/>
+      <c r="DR5" s="25"/>
+      <c r="DS5" s="25"/>
+      <c r="DT5" s="25"/>
+      <c r="DU5" s="25"/>
+      <c r="DV5" s="25"/>
+      <c r="DW5" s="25"/>
+      <c r="DX5" s="25"/>
+      <c r="DY5" s="25"/>
+      <c r="DZ5" s="25"/>
+      <c r="EA5" s="25"/>
+      <c r="EB5" s="25"/>
+      <c r="EC5" s="25"/>
+      <c r="ED5" s="25"/>
+      <c r="EE5" s="25"/>
+      <c r="EF5" s="25"/>
+      <c r="EG5" s="25"/>
+      <c r="EH5" s="25"/>
+      <c r="EI5" s="25"/>
+      <c r="EJ5" s="25"/>
+      <c r="EK5" s="25"/>
+      <c r="EL5" s="25"/>
+      <c r="EM5" s="25"/>
+      <c r="EN5" s="25"/>
+      <c r="EO5" s="26"/>
+      <c r="EP5" s="24">
         <v>2002</v>
       </c>
-      <c r="EQ5" s="24"/>
-      <c r="ER5" s="24"/>
-      <c r="ES5" s="24"/>
-      <c r="ET5" s="24"/>
-      <c r="EU5" s="24"/>
-      <c r="EV5" s="24"/>
-      <c r="EW5" s="24"/>
-      <c r="EX5" s="24"/>
-      <c r="EY5" s="24"/>
-      <c r="EZ5" s="24"/>
-      <c r="FA5" s="24"/>
-      <c r="FB5" s="24"/>
-      <c r="FC5" s="24"/>
-      <c r="FD5" s="24"/>
-      <c r="FE5" s="24"/>
-      <c r="FF5" s="24"/>
-      <c r="FG5" s="24"/>
-      <c r="FH5" s="24"/>
-      <c r="FI5" s="24"/>
-      <c r="FJ5" s="24"/>
-      <c r="FK5" s="24"/>
-      <c r="FL5" s="24"/>
-      <c r="FM5" s="24"/>
-      <c r="FN5" s="24"/>
-      <c r="FO5" s="24"/>
-      <c r="FP5" s="24"/>
-      <c r="FQ5" s="24"/>
-      <c r="FR5" s="24"/>
-      <c r="FS5" s="24"/>
-      <c r="FT5" s="24"/>
-      <c r="FU5" s="24"/>
-      <c r="FV5" s="24"/>
-      <c r="FW5" s="24"/>
-      <c r="FX5" s="24"/>
-      <c r="FY5" s="25"/>
-      <c r="FZ5" s="26">
+      <c r="EQ5" s="25"/>
+      <c r="ER5" s="25"/>
+      <c r="ES5" s="25"/>
+      <c r="ET5" s="25"/>
+      <c r="EU5" s="25"/>
+      <c r="EV5" s="25"/>
+      <c r="EW5" s="25"/>
+      <c r="EX5" s="25"/>
+      <c r="EY5" s="25"/>
+      <c r="EZ5" s="25"/>
+      <c r="FA5" s="25"/>
+      <c r="FB5" s="25"/>
+      <c r="FC5" s="25"/>
+      <c r="FD5" s="25"/>
+      <c r="FE5" s="25"/>
+      <c r="FF5" s="25"/>
+      <c r="FG5" s="25"/>
+      <c r="FH5" s="25"/>
+      <c r="FI5" s="25"/>
+      <c r="FJ5" s="25"/>
+      <c r="FK5" s="25"/>
+      <c r="FL5" s="25"/>
+      <c r="FM5" s="25"/>
+      <c r="FN5" s="25"/>
+      <c r="FO5" s="25"/>
+      <c r="FP5" s="25"/>
+      <c r="FQ5" s="25"/>
+      <c r="FR5" s="25"/>
+      <c r="FS5" s="25"/>
+      <c r="FT5" s="25"/>
+      <c r="FU5" s="25"/>
+      <c r="FV5" s="25"/>
+      <c r="FW5" s="25"/>
+      <c r="FX5" s="25"/>
+      <c r="FY5" s="26"/>
+      <c r="FZ5" s="24">
         <v>2003</v>
       </c>
-      <c r="GA5" s="24"/>
-      <c r="GB5" s="24"/>
-      <c r="GC5" s="24"/>
-      <c r="GD5" s="24"/>
-      <c r="GE5" s="24"/>
-      <c r="GF5" s="24"/>
-      <c r="GG5" s="24"/>
-      <c r="GH5" s="24"/>
-      <c r="GI5" s="24"/>
-      <c r="GJ5" s="24"/>
-      <c r="GK5" s="24"/>
-      <c r="GL5" s="24"/>
-      <c r="GM5" s="24"/>
-      <c r="GN5" s="24"/>
-      <c r="GO5" s="24"/>
-      <c r="GP5" s="24"/>
-      <c r="GQ5" s="24"/>
-      <c r="GR5" s="24"/>
-      <c r="GS5" s="24"/>
-      <c r="GT5" s="24"/>
-      <c r="GU5" s="24"/>
-      <c r="GV5" s="24"/>
-      <c r="GW5" s="24"/>
-      <c r="GX5" s="24"/>
-      <c r="GY5" s="24"/>
-      <c r="GZ5" s="24"/>
-      <c r="HA5" s="24"/>
-      <c r="HB5" s="24"/>
-      <c r="HC5" s="24"/>
-      <c r="HD5" s="24"/>
-      <c r="HE5" s="24"/>
-      <c r="HF5" s="24"/>
-      <c r="HG5" s="24"/>
-      <c r="HH5" s="24"/>
-      <c r="HI5" s="25"/>
-      <c r="HJ5" s="26">
+      <c r="GA5" s="25"/>
+      <c r="GB5" s="25"/>
+      <c r="GC5" s="25"/>
+      <c r="GD5" s="25"/>
+      <c r="GE5" s="25"/>
+      <c r="GF5" s="25"/>
+      <c r="GG5" s="25"/>
+      <c r="GH5" s="25"/>
+      <c r="GI5" s="25"/>
+      <c r="GJ5" s="25"/>
+      <c r="GK5" s="25"/>
+      <c r="GL5" s="25"/>
+      <c r="GM5" s="25"/>
+      <c r="GN5" s="25"/>
+      <c r="GO5" s="25"/>
+      <c r="GP5" s="25"/>
+      <c r="GQ5" s="25"/>
+      <c r="GR5" s="25"/>
+      <c r="GS5" s="25"/>
+      <c r="GT5" s="25"/>
+      <c r="GU5" s="25"/>
+      <c r="GV5" s="25"/>
+      <c r="GW5" s="25"/>
+      <c r="GX5" s="25"/>
+      <c r="GY5" s="25"/>
+      <c r="GZ5" s="25"/>
+      <c r="HA5" s="25"/>
+      <c r="HB5" s="25"/>
+      <c r="HC5" s="25"/>
+      <c r="HD5" s="25"/>
+      <c r="HE5" s="25"/>
+      <c r="HF5" s="25"/>
+      <c r="HG5" s="25"/>
+      <c r="HH5" s="25"/>
+      <c r="HI5" s="26"/>
+      <c r="HJ5" s="24">
         <v>2004</v>
       </c>
-      <c r="HK5" s="24"/>
-      <c r="HL5" s="24"/>
-      <c r="HM5" s="24"/>
-      <c r="HN5" s="24"/>
-      <c r="HO5" s="24"/>
-      <c r="HP5" s="24"/>
-      <c r="HQ5" s="24"/>
-      <c r="HR5" s="24"/>
-      <c r="HS5" s="24"/>
-      <c r="HT5" s="24"/>
-      <c r="HU5" s="24"/>
-      <c r="HV5" s="24"/>
-      <c r="HW5" s="24"/>
-      <c r="HX5" s="24"/>
-      <c r="HY5" s="24"/>
-      <c r="HZ5" s="24"/>
-      <c r="IA5" s="24"/>
-      <c r="IB5" s="24"/>
-      <c r="IC5" s="24"/>
-      <c r="ID5" s="24"/>
-      <c r="IE5" s="24"/>
-      <c r="IF5" s="24"/>
-      <c r="IG5" s="24"/>
-      <c r="IH5" s="24"/>
-      <c r="II5" s="24"/>
-      <c r="IJ5" s="24"/>
-      <c r="IK5" s="24"/>
-      <c r="IL5" s="24"/>
-      <c r="IM5" s="24"/>
-      <c r="IN5" s="24"/>
-      <c r="IO5" s="24"/>
-      <c r="IP5" s="24"/>
-      <c r="IQ5" s="24"/>
-      <c r="IR5" s="24"/>
-      <c r="IS5" s="25"/>
-      <c r="IT5" s="26">
+      <c r="HK5" s="25"/>
+      <c r="HL5" s="25"/>
+      <c r="HM5" s="25"/>
+      <c r="HN5" s="25"/>
+      <c r="HO5" s="25"/>
+      <c r="HP5" s="25"/>
+      <c r="HQ5" s="25"/>
+      <c r="HR5" s="25"/>
+      <c r="HS5" s="25"/>
+      <c r="HT5" s="25"/>
+      <c r="HU5" s="25"/>
+      <c r="HV5" s="25"/>
+      <c r="HW5" s="25"/>
+      <c r="HX5" s="25"/>
+      <c r="HY5" s="25"/>
+      <c r="HZ5" s="25"/>
+      <c r="IA5" s="25"/>
+      <c r="IB5" s="25"/>
+      <c r="IC5" s="25"/>
+      <c r="ID5" s="25"/>
+      <c r="IE5" s="25"/>
+      <c r="IF5" s="25"/>
+      <c r="IG5" s="25"/>
+      <c r="IH5" s="25"/>
+      <c r="II5" s="25"/>
+      <c r="IJ5" s="25"/>
+      <c r="IK5" s="25"/>
+      <c r="IL5" s="25"/>
+      <c r="IM5" s="25"/>
+      <c r="IN5" s="25"/>
+      <c r="IO5" s="25"/>
+      <c r="IP5" s="25"/>
+      <c r="IQ5" s="25"/>
+      <c r="IR5" s="25"/>
+      <c r="IS5" s="26"/>
+      <c r="IT5" s="24">
         <v>2005</v>
       </c>
-      <c r="IU5" s="24"/>
-      <c r="IV5" s="24"/>
-      <c r="IW5" s="24"/>
-      <c r="IX5" s="24"/>
-      <c r="IY5" s="24"/>
-      <c r="IZ5" s="24"/>
-      <c r="JA5" s="24"/>
-      <c r="JB5" s="24"/>
-      <c r="JC5" s="24"/>
-      <c r="JD5" s="24"/>
-      <c r="JE5" s="24"/>
-      <c r="JF5" s="24"/>
-      <c r="JG5" s="24"/>
-      <c r="JH5" s="24"/>
-      <c r="JI5" s="24"/>
-      <c r="JJ5" s="24"/>
-      <c r="JK5" s="24"/>
-      <c r="JL5" s="24"/>
-      <c r="JM5" s="24"/>
-      <c r="JN5" s="24"/>
-      <c r="JO5" s="24"/>
-      <c r="JP5" s="24"/>
-      <c r="JQ5" s="24"/>
-      <c r="JR5" s="24"/>
-      <c r="JS5" s="24"/>
-      <c r="JT5" s="24"/>
-      <c r="JU5" s="24"/>
-      <c r="JV5" s="24"/>
-      <c r="JW5" s="24"/>
-      <c r="JX5" s="24"/>
-      <c r="JY5" s="24"/>
-      <c r="JZ5" s="24"/>
-      <c r="KA5" s="24"/>
-      <c r="KB5" s="24"/>
-      <c r="KC5" s="25"/>
-      <c r="KD5" s="26">
+      <c r="IU5" s="25"/>
+      <c r="IV5" s="25"/>
+      <c r="IW5" s="25"/>
+      <c r="IX5" s="25"/>
+      <c r="IY5" s="25"/>
+      <c r="IZ5" s="25"/>
+      <c r="JA5" s="25"/>
+      <c r="JB5" s="25"/>
+      <c r="JC5" s="25"/>
+      <c r="JD5" s="25"/>
+      <c r="JE5" s="25"/>
+      <c r="JF5" s="25"/>
+      <c r="JG5" s="25"/>
+      <c r="JH5" s="25"/>
+      <c r="JI5" s="25"/>
+      <c r="JJ5" s="25"/>
+      <c r="JK5" s="25"/>
+      <c r="JL5" s="25"/>
+      <c r="JM5" s="25"/>
+      <c r="JN5" s="25"/>
+      <c r="JO5" s="25"/>
+      <c r="JP5" s="25"/>
+      <c r="JQ5" s="25"/>
+      <c r="JR5" s="25"/>
+      <c r="JS5" s="25"/>
+      <c r="JT5" s="25"/>
+      <c r="JU5" s="25"/>
+      <c r="JV5" s="25"/>
+      <c r="JW5" s="25"/>
+      <c r="JX5" s="25"/>
+      <c r="JY5" s="25"/>
+      <c r="JZ5" s="25"/>
+      <c r="KA5" s="25"/>
+      <c r="KB5" s="25"/>
+      <c r="KC5" s="26"/>
+      <c r="KD5" s="24">
         <v>2006</v>
       </c>
-      <c r="KE5" s="24"/>
-      <c r="KF5" s="24"/>
-      <c r="KG5" s="24"/>
-      <c r="KH5" s="24"/>
-      <c r="KI5" s="24"/>
-      <c r="KJ5" s="24"/>
-      <c r="KK5" s="24"/>
-      <c r="KL5" s="24"/>
-      <c r="KM5" s="24"/>
-      <c r="KN5" s="24"/>
-      <c r="KO5" s="24"/>
-      <c r="KP5" s="24"/>
-      <c r="KQ5" s="24"/>
-      <c r="KR5" s="24"/>
-      <c r="KS5" s="24"/>
-      <c r="KT5" s="24"/>
-      <c r="KU5" s="24"/>
-      <c r="KV5" s="24"/>
-      <c r="KW5" s="24"/>
-      <c r="KX5" s="24"/>
-      <c r="KY5" s="24"/>
-      <c r="KZ5" s="24"/>
-      <c r="LA5" s="24"/>
-      <c r="LB5" s="24"/>
-      <c r="LC5" s="24"/>
-      <c r="LD5" s="24"/>
-      <c r="LE5" s="24"/>
-      <c r="LF5" s="24"/>
-      <c r="LG5" s="24"/>
-      <c r="LH5" s="24"/>
-      <c r="LI5" s="24"/>
-      <c r="LJ5" s="24"/>
-      <c r="LK5" s="24"/>
-      <c r="LL5" s="24"/>
-      <c r="LM5" s="25"/>
-      <c r="LN5" s="26">
+      <c r="KE5" s="25"/>
+      <c r="KF5" s="25"/>
+      <c r="KG5" s="25"/>
+      <c r="KH5" s="25"/>
+      <c r="KI5" s="25"/>
+      <c r="KJ5" s="25"/>
+      <c r="KK5" s="25"/>
+      <c r="KL5" s="25"/>
+      <c r="KM5" s="25"/>
+      <c r="KN5" s="25"/>
+      <c r="KO5" s="25"/>
+      <c r="KP5" s="25"/>
+      <c r="KQ5" s="25"/>
+      <c r="KR5" s="25"/>
+      <c r="KS5" s="25"/>
+      <c r="KT5" s="25"/>
+      <c r="KU5" s="25"/>
+      <c r="KV5" s="25"/>
+      <c r="KW5" s="25"/>
+      <c r="KX5" s="25"/>
+      <c r="KY5" s="25"/>
+      <c r="KZ5" s="25"/>
+      <c r="LA5" s="25"/>
+      <c r="LB5" s="25"/>
+      <c r="LC5" s="25"/>
+      <c r="LD5" s="25"/>
+      <c r="LE5" s="25"/>
+      <c r="LF5" s="25"/>
+      <c r="LG5" s="25"/>
+      <c r="LH5" s="25"/>
+      <c r="LI5" s="25"/>
+      <c r="LJ5" s="25"/>
+      <c r="LK5" s="25"/>
+      <c r="LL5" s="25"/>
+      <c r="LM5" s="26"/>
+      <c r="LN5" s="24">
         <v>2007</v>
       </c>
-      <c r="LO5" s="24"/>
-      <c r="LP5" s="24"/>
-      <c r="LQ5" s="24"/>
-      <c r="LR5" s="24"/>
-      <c r="LS5" s="24"/>
-      <c r="LT5" s="24"/>
-      <c r="LU5" s="24"/>
-      <c r="LV5" s="24"/>
-      <c r="LW5" s="24"/>
-      <c r="LX5" s="24"/>
-      <c r="LY5" s="24"/>
-      <c r="LZ5" s="24"/>
-      <c r="MA5" s="24"/>
-      <c r="MB5" s="24"/>
-      <c r="MC5" s="24"/>
-      <c r="MD5" s="24"/>
-      <c r="ME5" s="24"/>
-      <c r="MF5" s="24"/>
-      <c r="MG5" s="24"/>
-      <c r="MH5" s="24"/>
-      <c r="MI5" s="24"/>
-      <c r="MJ5" s="24"/>
-      <c r="MK5" s="24"/>
-      <c r="ML5" s="24"/>
-      <c r="MM5" s="24"/>
-      <c r="MN5" s="24"/>
-      <c r="MO5" s="24"/>
-      <c r="MP5" s="24"/>
-      <c r="MQ5" s="24"/>
-      <c r="MR5" s="24"/>
-      <c r="MS5" s="24"/>
-      <c r="MT5" s="24"/>
-      <c r="MU5" s="24"/>
-      <c r="MV5" s="24"/>
-      <c r="MW5" s="25"/>
-      <c r="MX5" s="26">
+      <c r="LO5" s="25"/>
+      <c r="LP5" s="25"/>
+      <c r="LQ5" s="25"/>
+      <c r="LR5" s="25"/>
+      <c r="LS5" s="25"/>
+      <c r="LT5" s="25"/>
+      <c r="LU5" s="25"/>
+      <c r="LV5" s="25"/>
+      <c r="LW5" s="25"/>
+      <c r="LX5" s="25"/>
+      <c r="LY5" s="25"/>
+      <c r="LZ5" s="25"/>
+      <c r="MA5" s="25"/>
+      <c r="MB5" s="25"/>
+      <c r="MC5" s="25"/>
+      <c r="MD5" s="25"/>
+      <c r="ME5" s="25"/>
+      <c r="MF5" s="25"/>
+      <c r="MG5" s="25"/>
+      <c r="MH5" s="25"/>
+      <c r="MI5" s="25"/>
+      <c r="MJ5" s="25"/>
+      <c r="MK5" s="25"/>
+      <c r="ML5" s="25"/>
+      <c r="MM5" s="25"/>
+      <c r="MN5" s="25"/>
+      <c r="MO5" s="25"/>
+      <c r="MP5" s="25"/>
+      <c r="MQ5" s="25"/>
+      <c r="MR5" s="25"/>
+      <c r="MS5" s="25"/>
+      <c r="MT5" s="25"/>
+      <c r="MU5" s="25"/>
+      <c r="MV5" s="25"/>
+      <c r="MW5" s="26"/>
+      <c r="MX5" s="24">
         <v>2008</v>
       </c>
-      <c r="MY5" s="24"/>
-      <c r="MZ5" s="24"/>
-      <c r="NA5" s="24"/>
-      <c r="NB5" s="24"/>
-      <c r="NC5" s="24"/>
-      <c r="ND5" s="24"/>
-      <c r="NE5" s="24"/>
-      <c r="NF5" s="24"/>
-      <c r="NG5" s="24"/>
-      <c r="NH5" s="24"/>
-      <c r="NI5" s="24"/>
-      <c r="NJ5" s="24"/>
-      <c r="NK5" s="24"/>
-      <c r="NL5" s="24"/>
-      <c r="NM5" s="24"/>
-      <c r="NN5" s="24"/>
-      <c r="NO5" s="24"/>
-      <c r="NP5" s="24"/>
-      <c r="NQ5" s="24"/>
-      <c r="NR5" s="24"/>
-      <c r="NS5" s="24"/>
-      <c r="NT5" s="24"/>
-      <c r="NU5" s="24"/>
-      <c r="NV5" s="24"/>
-      <c r="NW5" s="24"/>
-      <c r="NX5" s="24"/>
-      <c r="NY5" s="24"/>
-      <c r="NZ5" s="24"/>
-      <c r="OA5" s="24"/>
-      <c r="OB5" s="24"/>
-      <c r="OC5" s="24"/>
-      <c r="OD5" s="24"/>
-      <c r="OE5" s="24"/>
-      <c r="OF5" s="24"/>
-      <c r="OG5" s="25"/>
-      <c r="OH5" s="24">
+      <c r="MY5" s="25"/>
+      <c r="MZ5" s="25"/>
+      <c r="NA5" s="25"/>
+      <c r="NB5" s="25"/>
+      <c r="NC5" s="25"/>
+      <c r="ND5" s="25"/>
+      <c r="NE5" s="25"/>
+      <c r="NF5" s="25"/>
+      <c r="NG5" s="25"/>
+      <c r="NH5" s="25"/>
+      <c r="NI5" s="25"/>
+      <c r="NJ5" s="25"/>
+      <c r="NK5" s="25"/>
+      <c r="NL5" s="25"/>
+      <c r="NM5" s="25"/>
+      <c r="NN5" s="25"/>
+      <c r="NO5" s="25"/>
+      <c r="NP5" s="25"/>
+      <c r="NQ5" s="25"/>
+      <c r="NR5" s="25"/>
+      <c r="NS5" s="25"/>
+      <c r="NT5" s="25"/>
+      <c r="NU5" s="25"/>
+      <c r="NV5" s="25"/>
+      <c r="NW5" s="25"/>
+      <c r="NX5" s="25"/>
+      <c r="NY5" s="25"/>
+      <c r="NZ5" s="25"/>
+      <c r="OA5" s="25"/>
+      <c r="OB5" s="25"/>
+      <c r="OC5" s="25"/>
+      <c r="OD5" s="25"/>
+      <c r="OE5" s="25"/>
+      <c r="OF5" s="25"/>
+      <c r="OG5" s="26"/>
+      <c r="OH5" s="25">
         <v>2009</v>
       </c>
-      <c r="OI5" s="24"/>
-      <c r="OJ5" s="24"/>
-      <c r="OK5" s="24"/>
-      <c r="OL5" s="24"/>
-      <c r="OM5" s="24"/>
-      <c r="ON5" s="24"/>
-      <c r="OO5" s="24"/>
-      <c r="OP5" s="24"/>
-      <c r="OQ5" s="24"/>
-      <c r="OR5" s="24"/>
-      <c r="OS5" s="24"/>
-      <c r="OT5" s="24"/>
-      <c r="OU5" s="24"/>
-      <c r="OV5" s="24"/>
-      <c r="OW5" s="24"/>
-      <c r="OX5" s="24"/>
-      <c r="OY5" s="24"/>
-      <c r="OZ5" s="24"/>
-      <c r="PA5" s="24"/>
-      <c r="PB5" s="24"/>
-      <c r="PC5" s="24"/>
-      <c r="PD5" s="24"/>
-      <c r="PE5" s="24"/>
-      <c r="PF5" s="24"/>
-      <c r="PG5" s="24"/>
-      <c r="PH5" s="24"/>
-      <c r="PI5" s="24"/>
-      <c r="PJ5" s="24"/>
-      <c r="PK5" s="24"/>
-      <c r="PL5" s="24"/>
-      <c r="PM5" s="24"/>
-      <c r="PN5" s="24"/>
-      <c r="PO5" s="24"/>
-      <c r="PP5" s="24"/>
-      <c r="PQ5" s="24"/>
-      <c r="PR5" s="26">
+      <c r="OI5" s="25"/>
+      <c r="OJ5" s="25"/>
+      <c r="OK5" s="25"/>
+      <c r="OL5" s="25"/>
+      <c r="OM5" s="25"/>
+      <c r="ON5" s="25"/>
+      <c r="OO5" s="25"/>
+      <c r="OP5" s="25"/>
+      <c r="OQ5" s="25"/>
+      <c r="OR5" s="25"/>
+      <c r="OS5" s="25"/>
+      <c r="OT5" s="25"/>
+      <c r="OU5" s="25"/>
+      <c r="OV5" s="25"/>
+      <c r="OW5" s="25"/>
+      <c r="OX5" s="25"/>
+      <c r="OY5" s="25"/>
+      <c r="OZ5" s="25"/>
+      <c r="PA5" s="25"/>
+      <c r="PB5" s="25"/>
+      <c r="PC5" s="25"/>
+      <c r="PD5" s="25"/>
+      <c r="PE5" s="25"/>
+      <c r="PF5" s="25"/>
+      <c r="PG5" s="25"/>
+      <c r="PH5" s="25"/>
+      <c r="PI5" s="25"/>
+      <c r="PJ5" s="25"/>
+      <c r="PK5" s="25"/>
+      <c r="PL5" s="25"/>
+      <c r="PM5" s="25"/>
+      <c r="PN5" s="25"/>
+      <c r="PO5" s="25"/>
+      <c r="PP5" s="25"/>
+      <c r="PQ5" s="25"/>
+      <c r="PR5" s="24">
         <v>2010</v>
       </c>
-      <c r="PS5" s="24"/>
-      <c r="PT5" s="24"/>
-      <c r="PU5" s="24"/>
-      <c r="PV5" s="24"/>
-      <c r="PW5" s="24"/>
-      <c r="PX5" s="24"/>
-      <c r="PY5" s="24"/>
-      <c r="PZ5" s="24"/>
-      <c r="QA5" s="24"/>
-      <c r="QB5" s="24"/>
-      <c r="QC5" s="24"/>
-      <c r="QD5" s="24"/>
-      <c r="QE5" s="24"/>
-      <c r="QF5" s="24"/>
-      <c r="QG5" s="24"/>
-      <c r="QH5" s="24"/>
-      <c r="QI5" s="24"/>
-      <c r="QJ5" s="24"/>
-      <c r="QK5" s="24"/>
-      <c r="QL5" s="24"/>
-      <c r="QM5" s="24"/>
-      <c r="QN5" s="24"/>
-      <c r="QO5" s="24"/>
-      <c r="QP5" s="24"/>
-      <c r="QQ5" s="24"/>
-      <c r="QR5" s="24"/>
-      <c r="QS5" s="24"/>
-      <c r="QT5" s="24"/>
-      <c r="QU5" s="24"/>
-      <c r="QV5" s="24"/>
-      <c r="QW5" s="24"/>
-      <c r="QX5" s="24"/>
-      <c r="QY5" s="24"/>
-      <c r="QZ5" s="24"/>
-      <c r="RA5" s="25"/>
-      <c r="RB5" s="26">
+      <c r="PS5" s="25"/>
+      <c r="PT5" s="25"/>
+      <c r="PU5" s="25"/>
+      <c r="PV5" s="25"/>
+      <c r="PW5" s="25"/>
+      <c r="PX5" s="25"/>
+      <c r="PY5" s="25"/>
+      <c r="PZ5" s="25"/>
+      <c r="QA5" s="25"/>
+      <c r="QB5" s="25"/>
+      <c r="QC5" s="25"/>
+      <c r="QD5" s="25"/>
+      <c r="QE5" s="25"/>
+      <c r="QF5" s="25"/>
+      <c r="QG5" s="25"/>
+      <c r="QH5" s="25"/>
+      <c r="QI5" s="25"/>
+      <c r="QJ5" s="25"/>
+      <c r="QK5" s="25"/>
+      <c r="QL5" s="25"/>
+      <c r="QM5" s="25"/>
+      <c r="QN5" s="25"/>
+      <c r="QO5" s="25"/>
+      <c r="QP5" s="25"/>
+      <c r="QQ5" s="25"/>
+      <c r="QR5" s="25"/>
+      <c r="QS5" s="25"/>
+      <c r="QT5" s="25"/>
+      <c r="QU5" s="25"/>
+      <c r="QV5" s="25"/>
+      <c r="QW5" s="25"/>
+      <c r="QX5" s="25"/>
+      <c r="QY5" s="25"/>
+      <c r="QZ5" s="25"/>
+      <c r="RA5" s="26"/>
+      <c r="RB5" s="24">
         <v>2011</v>
       </c>
-      <c r="RC5" s="24"/>
-      <c r="RD5" s="24"/>
-      <c r="RE5" s="24"/>
-      <c r="RF5" s="24"/>
-      <c r="RG5" s="24"/>
-      <c r="RH5" s="24"/>
-      <c r="RI5" s="24"/>
-      <c r="RJ5" s="24"/>
-      <c r="RK5" s="24"/>
-      <c r="RL5" s="24"/>
-      <c r="RM5" s="24"/>
-      <c r="RN5" s="24"/>
-      <c r="RO5" s="24"/>
-      <c r="RP5" s="24"/>
-      <c r="RQ5" s="24"/>
-      <c r="RR5" s="24"/>
-      <c r="RS5" s="24"/>
-      <c r="RT5" s="24"/>
-      <c r="RU5" s="24"/>
-      <c r="RV5" s="24"/>
-      <c r="RW5" s="24"/>
-      <c r="RX5" s="24"/>
-      <c r="RY5" s="24"/>
-      <c r="RZ5" s="24"/>
-      <c r="SA5" s="24"/>
-      <c r="SB5" s="24"/>
-      <c r="SC5" s="24"/>
-      <c r="SD5" s="24"/>
-      <c r="SE5" s="24"/>
-      <c r="SF5" s="24"/>
-      <c r="SG5" s="24"/>
-      <c r="SH5" s="24"/>
-      <c r="SI5" s="24"/>
-      <c r="SJ5" s="24"/>
-      <c r="SK5" s="25"/>
-      <c r="SL5" s="26">
+      <c r="RC5" s="25"/>
+      <c r="RD5" s="25"/>
+      <c r="RE5" s="25"/>
+      <c r="RF5" s="25"/>
+      <c r="RG5" s="25"/>
+      <c r="RH5" s="25"/>
+      <c r="RI5" s="25"/>
+      <c r="RJ5" s="25"/>
+      <c r="RK5" s="25"/>
+      <c r="RL5" s="25"/>
+      <c r="RM5" s="25"/>
+      <c r="RN5" s="25"/>
+      <c r="RO5" s="25"/>
+      <c r="RP5" s="25"/>
+      <c r="RQ5" s="25"/>
+      <c r="RR5" s="25"/>
+      <c r="RS5" s="25"/>
+      <c r="RT5" s="25"/>
+      <c r="RU5" s="25"/>
+      <c r="RV5" s="25"/>
+      <c r="RW5" s="25"/>
+      <c r="RX5" s="25"/>
+      <c r="RY5" s="25"/>
+      <c r="RZ5" s="25"/>
+      <c r="SA5" s="25"/>
+      <c r="SB5" s="25"/>
+      <c r="SC5" s="25"/>
+      <c r="SD5" s="25"/>
+      <c r="SE5" s="25"/>
+      <c r="SF5" s="25"/>
+      <c r="SG5" s="25"/>
+      <c r="SH5" s="25"/>
+      <c r="SI5" s="25"/>
+      <c r="SJ5" s="25"/>
+      <c r="SK5" s="26"/>
+      <c r="SL5" s="24">
         <v>2012</v>
       </c>
-      <c r="SM5" s="24"/>
-      <c r="SN5" s="24"/>
-      <c r="SO5" s="24"/>
-      <c r="SP5" s="24"/>
-      <c r="SQ5" s="24"/>
-      <c r="SR5" s="24"/>
-      <c r="SS5" s="24"/>
-      <c r="ST5" s="24"/>
-      <c r="SU5" s="24"/>
-      <c r="SV5" s="24"/>
-      <c r="SW5" s="24"/>
-      <c r="SX5" s="24"/>
-      <c r="SY5" s="24"/>
-      <c r="SZ5" s="24"/>
-      <c r="TA5" s="24"/>
-      <c r="TB5" s="24"/>
-      <c r="TC5" s="24"/>
-      <c r="TD5" s="24"/>
-      <c r="TE5" s="24"/>
-      <c r="TF5" s="24"/>
-      <c r="TG5" s="24"/>
-      <c r="TH5" s="24"/>
-      <c r="TI5" s="24"/>
-      <c r="TJ5" s="24"/>
-      <c r="TK5" s="24"/>
-      <c r="TL5" s="24"/>
-      <c r="TM5" s="24"/>
-      <c r="TN5" s="24"/>
-      <c r="TO5" s="24"/>
-      <c r="TP5" s="24"/>
-      <c r="TQ5" s="24"/>
-      <c r="TR5" s="24"/>
-      <c r="TS5" s="24"/>
-      <c r="TT5" s="24"/>
-      <c r="TU5" s="25"/>
-      <c r="TV5" s="26">
+      <c r="SM5" s="25"/>
+      <c r="SN5" s="25"/>
+      <c r="SO5" s="25"/>
+      <c r="SP5" s="25"/>
+      <c r="SQ5" s="25"/>
+      <c r="SR5" s="25"/>
+      <c r="SS5" s="25"/>
+      <c r="ST5" s="25"/>
+      <c r="SU5" s="25"/>
+      <c r="SV5" s="25"/>
+      <c r="SW5" s="25"/>
+      <c r="SX5" s="25"/>
+      <c r="SY5" s="25"/>
+      <c r="SZ5" s="25"/>
+      <c r="TA5" s="25"/>
+      <c r="TB5" s="25"/>
+      <c r="TC5" s="25"/>
+      <c r="TD5" s="25"/>
+      <c r="TE5" s="25"/>
+      <c r="TF5" s="25"/>
+      <c r="TG5" s="25"/>
+      <c r="TH5" s="25"/>
+      <c r="TI5" s="25"/>
+      <c r="TJ5" s="25"/>
+      <c r="TK5" s="25"/>
+      <c r="TL5" s="25"/>
+      <c r="TM5" s="25"/>
+      <c r="TN5" s="25"/>
+      <c r="TO5" s="25"/>
+      <c r="TP5" s="25"/>
+      <c r="TQ5" s="25"/>
+      <c r="TR5" s="25"/>
+      <c r="TS5" s="25"/>
+      <c r="TT5" s="25"/>
+      <c r="TU5" s="26"/>
+      <c r="TV5" s="24">
         <v>2013</v>
       </c>
-      <c r="TW5" s="24"/>
-      <c r="TX5" s="24"/>
-      <c r="TY5" s="24"/>
-      <c r="TZ5" s="24"/>
-      <c r="UA5" s="24"/>
-      <c r="UB5" s="24"/>
-      <c r="UC5" s="24"/>
-      <c r="UD5" s="24"/>
-      <c r="UE5" s="24"/>
-      <c r="UF5" s="24"/>
-      <c r="UG5" s="24"/>
-      <c r="UH5" s="24"/>
-      <c r="UI5" s="24"/>
-      <c r="UJ5" s="24"/>
-      <c r="UK5" s="24"/>
-      <c r="UL5" s="24"/>
-      <c r="UM5" s="24"/>
-      <c r="UN5" s="24"/>
-      <c r="UO5" s="24"/>
-      <c r="UP5" s="24"/>
-      <c r="UQ5" s="24"/>
-      <c r="UR5" s="24"/>
-      <c r="US5" s="24"/>
-      <c r="UT5" s="24"/>
-      <c r="UU5" s="24"/>
-      <c r="UV5" s="24"/>
-      <c r="UW5" s="24"/>
-      <c r="UX5" s="24"/>
-      <c r="UY5" s="24"/>
-      <c r="UZ5" s="24"/>
-      <c r="VA5" s="24"/>
-      <c r="VB5" s="24"/>
-      <c r="VC5" s="24"/>
-      <c r="VD5" s="24"/>
-      <c r="VE5" s="25"/>
-      <c r="VF5" s="26">
+      <c r="TW5" s="25"/>
+      <c r="TX5" s="25"/>
+      <c r="TY5" s="25"/>
+      <c r="TZ5" s="25"/>
+      <c r="UA5" s="25"/>
+      <c r="UB5" s="25"/>
+      <c r="UC5" s="25"/>
+      <c r="UD5" s="25"/>
+      <c r="UE5" s="25"/>
+      <c r="UF5" s="25"/>
+      <c r="UG5" s="25"/>
+      <c r="UH5" s="25"/>
+      <c r="UI5" s="25"/>
+      <c r="UJ5" s="25"/>
+      <c r="UK5" s="25"/>
+      <c r="UL5" s="25"/>
+      <c r="UM5" s="25"/>
+      <c r="UN5" s="25"/>
+      <c r="UO5" s="25"/>
+      <c r="UP5" s="25"/>
+      <c r="UQ5" s="25"/>
+      <c r="UR5" s="25"/>
+      <c r="US5" s="25"/>
+      <c r="UT5" s="25"/>
+      <c r="UU5" s="25"/>
+      <c r="UV5" s="25"/>
+      <c r="UW5" s="25"/>
+      <c r="UX5" s="25"/>
+      <c r="UY5" s="25"/>
+      <c r="UZ5" s="25"/>
+      <c r="VA5" s="25"/>
+      <c r="VB5" s="25"/>
+      <c r="VC5" s="25"/>
+      <c r="VD5" s="25"/>
+      <c r="VE5" s="26"/>
+      <c r="VF5" s="24">
         <v>2014</v>
       </c>
-      <c r="VG5" s="24"/>
-      <c r="VH5" s="24"/>
-      <c r="VI5" s="24"/>
-      <c r="VJ5" s="24"/>
-      <c r="VK5" s="24"/>
-      <c r="VL5" s="24"/>
-      <c r="VM5" s="24"/>
-      <c r="VN5" s="24"/>
-      <c r="VO5" s="24"/>
-      <c r="VP5" s="24"/>
-      <c r="VQ5" s="24"/>
-      <c r="VR5" s="24"/>
-      <c r="VS5" s="24"/>
-      <c r="VT5" s="24"/>
-      <c r="VU5" s="24"/>
-      <c r="VV5" s="24"/>
-      <c r="VW5" s="24"/>
-      <c r="VX5" s="24"/>
-      <c r="VY5" s="24"/>
-      <c r="VZ5" s="24"/>
-      <c r="WA5" s="24"/>
-      <c r="WB5" s="24"/>
-      <c r="WC5" s="24"/>
-      <c r="WD5" s="24"/>
-      <c r="WE5" s="24"/>
-      <c r="WF5" s="24"/>
-      <c r="WG5" s="24"/>
-      <c r="WH5" s="24"/>
-      <c r="WI5" s="24"/>
-      <c r="WJ5" s="24"/>
-      <c r="WK5" s="24"/>
-      <c r="WL5" s="24"/>
-      <c r="WM5" s="24"/>
-      <c r="WN5" s="24"/>
-      <c r="WO5" s="25"/>
-      <c r="WP5" s="26">
+      <c r="VG5" s="25"/>
+      <c r="VH5" s="25"/>
+      <c r="VI5" s="25"/>
+      <c r="VJ5" s="25"/>
+      <c r="VK5" s="25"/>
+      <c r="VL5" s="25"/>
+      <c r="VM5" s="25"/>
+      <c r="VN5" s="25"/>
+      <c r="VO5" s="25"/>
+      <c r="VP5" s="25"/>
+      <c r="VQ5" s="25"/>
+      <c r="VR5" s="25"/>
+      <c r="VS5" s="25"/>
+      <c r="VT5" s="25"/>
+      <c r="VU5" s="25"/>
+      <c r="VV5" s="25"/>
+      <c r="VW5" s="25"/>
+      <c r="VX5" s="25"/>
+      <c r="VY5" s="25"/>
+      <c r="VZ5" s="25"/>
+      <c r="WA5" s="25"/>
+      <c r="WB5" s="25"/>
+      <c r="WC5" s="25"/>
+      <c r="WD5" s="25"/>
+      <c r="WE5" s="25"/>
+      <c r="WF5" s="25"/>
+      <c r="WG5" s="25"/>
+      <c r="WH5" s="25"/>
+      <c r="WI5" s="25"/>
+      <c r="WJ5" s="25"/>
+      <c r="WK5" s="25"/>
+      <c r="WL5" s="25"/>
+      <c r="WM5" s="25"/>
+      <c r="WN5" s="25"/>
+      <c r="WO5" s="26"/>
+      <c r="WP5" s="24">
         <v>2015</v>
       </c>
-      <c r="WQ5" s="24"/>
-      <c r="WR5" s="24"/>
-      <c r="WS5" s="24"/>
-      <c r="WT5" s="24"/>
-      <c r="WU5" s="24"/>
-      <c r="WV5" s="24"/>
-      <c r="WW5" s="24"/>
-      <c r="WX5" s="24"/>
-      <c r="WY5" s="24"/>
-      <c r="WZ5" s="24"/>
-      <c r="XA5" s="24"/>
-      <c r="XB5" s="24"/>
-      <c r="XC5" s="24"/>
-      <c r="XD5" s="24"/>
-      <c r="XE5" s="24"/>
-      <c r="XF5" s="24"/>
-      <c r="XG5" s="24"/>
-      <c r="XH5" s="24"/>
-      <c r="XI5" s="24"/>
-      <c r="XJ5" s="24"/>
-      <c r="XK5" s="24"/>
-      <c r="XL5" s="24"/>
-      <c r="XM5" s="24"/>
-      <c r="XN5" s="24"/>
-      <c r="XO5" s="24"/>
-      <c r="XP5" s="24"/>
-      <c r="XQ5" s="24"/>
-      <c r="XR5" s="24"/>
-      <c r="XS5" s="24"/>
-      <c r="XT5" s="24"/>
-      <c r="XU5" s="24"/>
-      <c r="XV5" s="24"/>
-      <c r="XW5" s="24"/>
-      <c r="XX5" s="24"/>
-      <c r="XY5" s="25"/>
-      <c r="XZ5" s="26">
+      <c r="WQ5" s="25"/>
+      <c r="WR5" s="25"/>
+      <c r="WS5" s="25"/>
+      <c r="WT5" s="25"/>
+      <c r="WU5" s="25"/>
+      <c r="WV5" s="25"/>
+      <c r="WW5" s="25"/>
+      <c r="WX5" s="25"/>
+      <c r="WY5" s="25"/>
+      <c r="WZ5" s="25"/>
+      <c r="XA5" s="25"/>
+      <c r="XB5" s="25"/>
+      <c r="XC5" s="25"/>
+      <c r="XD5" s="25"/>
+      <c r="XE5" s="25"/>
+      <c r="XF5" s="25"/>
+      <c r="XG5" s="25"/>
+      <c r="XH5" s="25"/>
+      <c r="XI5" s="25"/>
+      <c r="XJ5" s="25"/>
+      <c r="XK5" s="25"/>
+      <c r="XL5" s="25"/>
+      <c r="XM5" s="25"/>
+      <c r="XN5" s="25"/>
+      <c r="XO5" s="25"/>
+      <c r="XP5" s="25"/>
+      <c r="XQ5" s="25"/>
+      <c r="XR5" s="25"/>
+      <c r="XS5" s="25"/>
+      <c r="XT5" s="25"/>
+      <c r="XU5" s="25"/>
+      <c r="XV5" s="25"/>
+      <c r="XW5" s="25"/>
+      <c r="XX5" s="25"/>
+      <c r="XY5" s="26"/>
+      <c r="XZ5" s="24">
         <v>2016</v>
       </c>
-      <c r="YA5" s="24"/>
-      <c r="YB5" s="24"/>
-      <c r="YC5" s="24"/>
-      <c r="YD5" s="24"/>
-      <c r="YE5" s="24"/>
-      <c r="YF5" s="24"/>
-      <c r="YG5" s="24"/>
-      <c r="YH5" s="24"/>
-      <c r="YI5" s="24"/>
-      <c r="YJ5" s="24"/>
-      <c r="YK5" s="24"/>
-      <c r="YL5" s="24"/>
-      <c r="YM5" s="24"/>
-      <c r="YN5" s="24"/>
-      <c r="YO5" s="24"/>
-      <c r="YP5" s="24"/>
-      <c r="YQ5" s="24"/>
-      <c r="YR5" s="24"/>
-      <c r="YS5" s="24"/>
-      <c r="YT5" s="24"/>
-      <c r="YU5" s="24"/>
-      <c r="YV5" s="24"/>
-      <c r="YW5" s="24"/>
-      <c r="YX5" s="24"/>
-      <c r="YY5" s="24"/>
-      <c r="YZ5" s="24"/>
-      <c r="ZA5" s="24"/>
-      <c r="ZB5" s="24"/>
-      <c r="ZC5" s="24"/>
-      <c r="ZD5" s="24"/>
-      <c r="ZE5" s="24"/>
-      <c r="ZF5" s="24"/>
-      <c r="ZG5" s="24"/>
-      <c r="ZH5" s="24"/>
-      <c r="ZI5" s="25"/>
-      <c r="ZJ5" s="26">
+      <c r="YA5" s="25"/>
+      <c r="YB5" s="25"/>
+      <c r="YC5" s="25"/>
+      <c r="YD5" s="25"/>
+      <c r="YE5" s="25"/>
+      <c r="YF5" s="25"/>
+      <c r="YG5" s="25"/>
+      <c r="YH5" s="25"/>
+      <c r="YI5" s="25"/>
+      <c r="YJ5" s="25"/>
+      <c r="YK5" s="25"/>
+      <c r="YL5" s="25"/>
+      <c r="YM5" s="25"/>
+      <c r="YN5" s="25"/>
+      <c r="YO5" s="25"/>
+      <c r="YP5" s="25"/>
+      <c r="YQ5" s="25"/>
+      <c r="YR5" s="25"/>
+      <c r="YS5" s="25"/>
+      <c r="YT5" s="25"/>
+      <c r="YU5" s="25"/>
+      <c r="YV5" s="25"/>
+      <c r="YW5" s="25"/>
+      <c r="YX5" s="25"/>
+      <c r="YY5" s="25"/>
+      <c r="YZ5" s="25"/>
+      <c r="ZA5" s="25"/>
+      <c r="ZB5" s="25"/>
+      <c r="ZC5" s="25"/>
+      <c r="ZD5" s="25"/>
+      <c r="ZE5" s="25"/>
+      <c r="ZF5" s="25"/>
+      <c r="ZG5" s="25"/>
+      <c r="ZH5" s="25"/>
+      <c r="ZI5" s="26"/>
+      <c r="ZJ5" s="24">
         <v>2017</v>
       </c>
-      <c r="ZK5" s="24"/>
-      <c r="ZL5" s="24"/>
-      <c r="ZM5" s="24"/>
-      <c r="ZN5" s="24"/>
-      <c r="ZO5" s="24"/>
-      <c r="ZP5" s="24"/>
-      <c r="ZQ5" s="24"/>
-      <c r="ZR5" s="24"/>
-      <c r="ZS5" s="24"/>
-      <c r="ZT5" s="24"/>
-      <c r="ZU5" s="24"/>
-      <c r="ZV5" s="24"/>
-      <c r="ZW5" s="24"/>
-      <c r="ZX5" s="24"/>
-      <c r="ZY5" s="24"/>
-      <c r="ZZ5" s="24"/>
-      <c r="AAA5" s="24"/>
-      <c r="AAB5" s="24"/>
-      <c r="AAC5" s="24"/>
-      <c r="AAD5" s="24"/>
-      <c r="AAE5" s="24"/>
-      <c r="AAF5" s="24"/>
-      <c r="AAG5" s="24"/>
-      <c r="AAH5" s="24"/>
-      <c r="AAI5" s="24"/>
-      <c r="AAJ5" s="24"/>
-      <c r="AAK5" s="24"/>
-      <c r="AAL5" s="24"/>
-      <c r="AAM5" s="24"/>
-      <c r="AAN5" s="24"/>
-      <c r="AAO5" s="24"/>
-      <c r="AAP5" s="24"/>
-      <c r="AAQ5" s="24"/>
-      <c r="AAR5" s="24"/>
-      <c r="AAS5" s="25"/>
-      <c r="AAT5" s="26">
+      <c r="ZK5" s="25"/>
+      <c r="ZL5" s="25"/>
+      <c r="ZM5" s="25"/>
+      <c r="ZN5" s="25"/>
+      <c r="ZO5" s="25"/>
+      <c r="ZP5" s="25"/>
+      <c r="ZQ5" s="25"/>
+      <c r="ZR5" s="25"/>
+      <c r="ZS5" s="25"/>
+      <c r="ZT5" s="25"/>
+      <c r="ZU5" s="25"/>
+      <c r="ZV5" s="25"/>
+      <c r="ZW5" s="25"/>
+      <c r="ZX5" s="25"/>
+      <c r="ZY5" s="25"/>
+      <c r="ZZ5" s="25"/>
+      <c r="AAA5" s="25"/>
+      <c r="AAB5" s="25"/>
+      <c r="AAC5" s="25"/>
+      <c r="AAD5" s="25"/>
+      <c r="AAE5" s="25"/>
+      <c r="AAF5" s="25"/>
+      <c r="AAG5" s="25"/>
+      <c r="AAH5" s="25"/>
+      <c r="AAI5" s="25"/>
+      <c r="AAJ5" s="25"/>
+      <c r="AAK5" s="25"/>
+      <c r="AAL5" s="25"/>
+      <c r="AAM5" s="25"/>
+      <c r="AAN5" s="25"/>
+      <c r="AAO5" s="25"/>
+      <c r="AAP5" s="25"/>
+      <c r="AAQ5" s="25"/>
+      <c r="AAR5" s="25"/>
+      <c r="AAS5" s="26"/>
+      <c r="AAT5" s="24">
         <v>2018</v>
       </c>
-      <c r="AAU5" s="24"/>
-      <c r="AAV5" s="24"/>
-      <c r="AAW5" s="24"/>
-      <c r="AAX5" s="24"/>
-      <c r="AAY5" s="24"/>
-      <c r="AAZ5" s="24"/>
-      <c r="ABA5" s="24"/>
-      <c r="ABB5" s="24"/>
-      <c r="ABC5" s="24"/>
-      <c r="ABD5" s="24"/>
-      <c r="ABE5" s="24"/>
-      <c r="ABF5" s="24"/>
-      <c r="ABG5" s="24"/>
-      <c r="ABH5" s="24"/>
-      <c r="ABI5" s="24"/>
-      <c r="ABJ5" s="24"/>
-      <c r="ABK5" s="24"/>
-      <c r="ABL5" s="24"/>
-      <c r="ABM5" s="24"/>
-      <c r="ABN5" s="24"/>
-      <c r="ABO5" s="24"/>
-      <c r="ABP5" s="24"/>
-      <c r="ABQ5" s="24"/>
-      <c r="ABR5" s="24"/>
-      <c r="ABS5" s="24"/>
-      <c r="ABT5" s="24"/>
-      <c r="ABU5" s="24"/>
-      <c r="ABV5" s="24"/>
-      <c r="ABW5" s="24"/>
-      <c r="ABX5" s="24"/>
-      <c r="ABY5" s="24"/>
-      <c r="ABZ5" s="24"/>
-      <c r="ACA5" s="24"/>
-      <c r="ACB5" s="24"/>
-      <c r="ACC5" s="25"/>
-      <c r="ACD5" s="26">
+      <c r="AAU5" s="25"/>
+      <c r="AAV5" s="25"/>
+      <c r="AAW5" s="25"/>
+      <c r="AAX5" s="25"/>
+      <c r="AAY5" s="25"/>
+      <c r="AAZ5" s="25"/>
+      <c r="ABA5" s="25"/>
+      <c r="ABB5" s="25"/>
+      <c r="ABC5" s="25"/>
+      <c r="ABD5" s="25"/>
+      <c r="ABE5" s="25"/>
+      <c r="ABF5" s="25"/>
+      <c r="ABG5" s="25"/>
+      <c r="ABH5" s="25"/>
+      <c r="ABI5" s="25"/>
+      <c r="ABJ5" s="25"/>
+      <c r="ABK5" s="25"/>
+      <c r="ABL5" s="25"/>
+      <c r="ABM5" s="25"/>
+      <c r="ABN5" s="25"/>
+      <c r="ABO5" s="25"/>
+      <c r="ABP5" s="25"/>
+      <c r="ABQ5" s="25"/>
+      <c r="ABR5" s="25"/>
+      <c r="ABS5" s="25"/>
+      <c r="ABT5" s="25"/>
+      <c r="ABU5" s="25"/>
+      <c r="ABV5" s="25"/>
+      <c r="ABW5" s="25"/>
+      <c r="ABX5" s="25"/>
+      <c r="ABY5" s="25"/>
+      <c r="ABZ5" s="25"/>
+      <c r="ACA5" s="25"/>
+      <c r="ACB5" s="25"/>
+      <c r="ACC5" s="26"/>
+      <c r="ACD5" s="24">
         <v>2019</v>
       </c>
-      <c r="ACE5" s="24"/>
-      <c r="ACF5" s="24"/>
-      <c r="ACG5" s="24"/>
-      <c r="ACH5" s="24"/>
-      <c r="ACI5" s="24"/>
-      <c r="ACJ5" s="24"/>
-      <c r="ACK5" s="24"/>
-      <c r="ACL5" s="24"/>
-      <c r="ACM5" s="24"/>
-      <c r="ACN5" s="24"/>
-      <c r="ACO5" s="24"/>
-      <c r="ACP5" s="24"/>
-      <c r="ACQ5" s="24"/>
-      <c r="ACR5" s="24"/>
-      <c r="ACS5" s="24"/>
-      <c r="ACT5" s="24"/>
-      <c r="ACU5" s="24"/>
-      <c r="ACV5" s="24"/>
-      <c r="ACW5" s="24"/>
-      <c r="ACX5" s="24"/>
-      <c r="ACY5" s="24"/>
-      <c r="ACZ5" s="24"/>
-      <c r="ADA5" s="24"/>
-      <c r="ADB5" s="24"/>
-      <c r="ADC5" s="24"/>
-      <c r="ADD5" s="24"/>
-      <c r="ADE5" s="24"/>
-      <c r="ADF5" s="24"/>
-      <c r="ADG5" s="24"/>
-      <c r="ADH5" s="24"/>
-      <c r="ADI5" s="24"/>
-      <c r="ADJ5" s="24"/>
-      <c r="ADK5" s="24"/>
-      <c r="ADL5" s="24"/>
-      <c r="ADM5" s="25"/>
-      <c r="ADN5" s="26">
+      <c r="ACE5" s="25"/>
+      <c r="ACF5" s="25"/>
+      <c r="ACG5" s="25"/>
+      <c r="ACH5" s="25"/>
+      <c r="ACI5" s="25"/>
+      <c r="ACJ5" s="25"/>
+      <c r="ACK5" s="25"/>
+      <c r="ACL5" s="25"/>
+      <c r="ACM5" s="25"/>
+      <c r="ACN5" s="25"/>
+      <c r="ACO5" s="25"/>
+      <c r="ACP5" s="25"/>
+      <c r="ACQ5" s="25"/>
+      <c r="ACR5" s="25"/>
+      <c r="ACS5" s="25"/>
+      <c r="ACT5" s="25"/>
+      <c r="ACU5" s="25"/>
+      <c r="ACV5" s="25"/>
+      <c r="ACW5" s="25"/>
+      <c r="ACX5" s="25"/>
+      <c r="ACY5" s="25"/>
+      <c r="ACZ5" s="25"/>
+      <c r="ADA5" s="25"/>
+      <c r="ADB5" s="25"/>
+      <c r="ADC5" s="25"/>
+      <c r="ADD5" s="25"/>
+      <c r="ADE5" s="25"/>
+      <c r="ADF5" s="25"/>
+      <c r="ADG5" s="25"/>
+      <c r="ADH5" s="25"/>
+      <c r="ADI5" s="25"/>
+      <c r="ADJ5" s="25"/>
+      <c r="ADK5" s="25"/>
+      <c r="ADL5" s="25"/>
+      <c r="ADM5" s="26"/>
+      <c r="ADN5" s="24">
         <v>2020</v>
       </c>
-      <c r="ADO5" s="24"/>
-      <c r="ADP5" s="24"/>
-      <c r="ADQ5" s="24"/>
-      <c r="ADR5" s="24"/>
-      <c r="ADS5" s="24"/>
-      <c r="ADT5" s="24"/>
-      <c r="ADU5" s="24"/>
-      <c r="ADV5" s="24"/>
-      <c r="ADW5" s="24"/>
-      <c r="ADX5" s="24"/>
-      <c r="ADY5" s="24"/>
-      <c r="ADZ5" s="24"/>
-      <c r="AEA5" s="24"/>
-      <c r="AEB5" s="24"/>
-      <c r="AEC5" s="24"/>
-      <c r="AED5" s="24"/>
-      <c r="AEE5" s="24"/>
-      <c r="AEF5" s="24"/>
-      <c r="AEG5" s="24"/>
-      <c r="AEH5" s="24"/>
-      <c r="AEI5" s="24"/>
-      <c r="AEJ5" s="24"/>
-      <c r="AEK5" s="24"/>
-      <c r="AEL5" s="24"/>
-      <c r="AEM5" s="24"/>
-      <c r="AEN5" s="24"/>
-      <c r="AEO5" s="24"/>
-      <c r="AEP5" s="24"/>
-      <c r="AEQ5" s="24"/>
-      <c r="AER5" s="24"/>
-      <c r="AES5" s="24"/>
-      <c r="AET5" s="24"/>
-      <c r="AEU5" s="24"/>
-      <c r="AEV5" s="24"/>
-      <c r="AEW5" s="25"/>
-      <c r="AEX5" s="27">
+      <c r="ADO5" s="25"/>
+      <c r="ADP5" s="25"/>
+      <c r="ADQ5" s="25"/>
+      <c r="ADR5" s="25"/>
+      <c r="ADS5" s="25"/>
+      <c r="ADT5" s="25"/>
+      <c r="ADU5" s="25"/>
+      <c r="ADV5" s="25"/>
+      <c r="ADW5" s="25"/>
+      <c r="ADX5" s="25"/>
+      <c r="ADY5" s="25"/>
+      <c r="ADZ5" s="25"/>
+      <c r="AEA5" s="25"/>
+      <c r="AEB5" s="25"/>
+      <c r="AEC5" s="25"/>
+      <c r="AED5" s="25"/>
+      <c r="AEE5" s="25"/>
+      <c r="AEF5" s="25"/>
+      <c r="AEG5" s="25"/>
+      <c r="AEH5" s="25"/>
+      <c r="AEI5" s="25"/>
+      <c r="AEJ5" s="25"/>
+      <c r="AEK5" s="25"/>
+      <c r="AEL5" s="25"/>
+      <c r="AEM5" s="25"/>
+      <c r="AEN5" s="25"/>
+      <c r="AEO5" s="25"/>
+      <c r="AEP5" s="25"/>
+      <c r="AEQ5" s="25"/>
+      <c r="AER5" s="25"/>
+      <c r="AES5" s="25"/>
+      <c r="AET5" s="25"/>
+      <c r="AEU5" s="25"/>
+      <c r="AEV5" s="25"/>
+      <c r="AEW5" s="26"/>
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
+      <c r="AGH5" s="24">
+        <v>2022</v>
+      </c>
+      <c r="AGI5" s="25"/>
+      <c r="AGJ5" s="26"/>
     </row>
-    <row r="6" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26" t="s">
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="26" t="s">
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="26" t="s">
+      <c r="U6" s="25"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26" t="s">
+      <c r="X6" s="25"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="26" t="s">
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="26" t="s">
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="26" t="s">
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="26" t="s">
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26" t="s">
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="26" t="s">
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="26" t="s">
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="25"/>
-      <c r="AX6" s="26" t="s">
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="25"/>
-      <c r="BA6" s="26" t="s">
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BB6" s="24"/>
-      <c r="BC6" s="25"/>
-      <c r="BD6" s="26" t="s">
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="26"/>
+      <c r="BD6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="24"/>
-      <c r="BF6" s="25"/>
-      <c r="BG6" s="26" t="s">
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="26"/>
+      <c r="BG6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="BH6" s="24"/>
-      <c r="BI6" s="25"/>
-      <c r="BJ6" s="26" t="s">
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="26"/>
+      <c r="BJ6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="25"/>
-      <c r="BM6" s="26" t="s">
+      <c r="BK6" s="25"/>
+      <c r="BL6" s="26"/>
+      <c r="BM6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="25"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="26"/>
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
-      <c r="BS6" s="26" t="s">
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="BT6" s="24"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="26"/>
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
-      <c r="BY6" s="26" t="s">
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="BZ6" s="24"/>
-      <c r="CA6" s="25"/>
-      <c r="CB6" s="26" t="s">
+      <c r="BZ6" s="25"/>
+      <c r="CA6" s="26"/>
+      <c r="CB6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CC6" s="24"/>
-      <c r="CD6" s="25"/>
-      <c r="CE6" s="24" t="s">
+      <c r="CC6" s="25"/>
+      <c r="CD6" s="26"/>
+      <c r="CE6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CF6" s="24"/>
-      <c r="CG6" s="25"/>
-      <c r="CH6" s="26" t="s">
+      <c r="CF6" s="25"/>
+      <c r="CG6" s="26"/>
+      <c r="CH6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="24"/>
-      <c r="CJ6" s="25"/>
-      <c r="CK6" s="26" t="s">
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="26"/>
+      <c r="CK6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="24"/>
-      <c r="CM6" s="25"/>
-      <c r="CN6" s="26" t="s">
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="26"/>
+      <c r="CN6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CO6" s="24"/>
-      <c r="CP6" s="25"/>
-      <c r="CQ6" s="26" t="s">
+      <c r="CO6" s="25"/>
+      <c r="CP6" s="26"/>
+      <c r="CQ6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="CR6" s="24"/>
-      <c r="CS6" s="25"/>
-      <c r="CT6" s="26" t="s">
+      <c r="CR6" s="25"/>
+      <c r="CS6" s="26"/>
+      <c r="CT6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="CU6" s="24"/>
-      <c r="CV6" s="25"/>
-      <c r="CW6" s="26" t="s">
+      <c r="CU6" s="25"/>
+      <c r="CV6" s="26"/>
+      <c r="CW6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="CX6" s="24"/>
-      <c r="CY6" s="25"/>
-      <c r="CZ6" s="26" t="s">
+      <c r="CX6" s="25"/>
+      <c r="CY6" s="26"/>
+      <c r="CZ6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="DA6" s="24"/>
-      <c r="DB6" s="25"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DA6" s="25"/>
+      <c r="DB6" s="26"/>
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
-      <c r="DF6" s="26" t="s">
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
+      <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="DG6" s="24"/>
-      <c r="DH6" s="25"/>
-      <c r="DI6" s="26" t="s">
+      <c r="DG6" s="25"/>
+      <c r="DH6" s="26"/>
+      <c r="DI6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="DJ6" s="24"/>
-      <c r="DK6" s="25"/>
-      <c r="DL6" s="26" t="s">
+      <c r="DJ6" s="25"/>
+      <c r="DK6" s="26"/>
+      <c r="DL6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="DM6" s="24"/>
-      <c r="DN6" s="25"/>
-      <c r="DO6" s="26" t="s">
+      <c r="DM6" s="25"/>
+      <c r="DN6" s="26"/>
+      <c r="DO6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="DP6" s="24"/>
-      <c r="DQ6" s="25"/>
-      <c r="DR6" s="26" t="s">
+      <c r="DP6" s="25"/>
+      <c r="DQ6" s="26"/>
+      <c r="DR6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="DS6" s="24"/>
-      <c r="DT6" s="25"/>
-      <c r="DU6" s="26" t="s">
+      <c r="DS6" s="25"/>
+      <c r="DT6" s="26"/>
+      <c r="DU6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="DV6" s="24"/>
-      <c r="DW6" s="25"/>
-      <c r="DX6" s="24" t="s">
+      <c r="DV6" s="25"/>
+      <c r="DW6" s="26"/>
+      <c r="DX6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="DY6" s="24"/>
-      <c r="DZ6" s="25"/>
-      <c r="EA6" s="24" t="s">
+      <c r="DY6" s="25"/>
+      <c r="DZ6" s="26"/>
+      <c r="EA6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="EB6" s="24"/>
-      <c r="EC6" s="25"/>
-      <c r="ED6" s="24" t="s">
+      <c r="EB6" s="25"/>
+      <c r="EC6" s="26"/>
+      <c r="ED6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="EE6" s="24"/>
-      <c r="EF6" s="25"/>
-      <c r="EG6" s="24" t="s">
+      <c r="EE6" s="25"/>
+      <c r="EF6" s="26"/>
+      <c r="EG6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="EH6" s="24"/>
-      <c r="EI6" s="25"/>
-      <c r="EJ6" s="24" t="s">
+      <c r="EH6" s="25"/>
+      <c r="EI6" s="26"/>
+      <c r="EJ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="EK6" s="24"/>
-      <c r="EL6" s="25"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EK6" s="25"/>
+      <c r="EL6" s="26"/>
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
-      <c r="EP6" s="24" t="s">
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
+      <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="EQ6" s="24"/>
-      <c r="ER6" s="25"/>
-      <c r="ES6" s="24" t="s">
+      <c r="EQ6" s="25"/>
+      <c r="ER6" s="26"/>
+      <c r="ES6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ET6" s="24"/>
-      <c r="EU6" s="25"/>
-      <c r="EV6" s="24" t="s">
+      <c r="ET6" s="25"/>
+      <c r="EU6" s="26"/>
+      <c r="EV6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="EW6" s="24"/>
-      <c r="EX6" s="25"/>
-      <c r="EY6" s="24" t="s">
+      <c r="EW6" s="25"/>
+      <c r="EX6" s="26"/>
+      <c r="EY6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="EZ6" s="24"/>
-      <c r="FA6" s="25"/>
-      <c r="FB6" s="24" t="s">
+      <c r="EZ6" s="25"/>
+      <c r="FA6" s="26"/>
+      <c r="FB6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="FC6" s="24"/>
-      <c r="FD6" s="25"/>
-      <c r="FE6" s="24" t="s">
+      <c r="FC6" s="25"/>
+      <c r="FD6" s="26"/>
+      <c r="FE6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="FF6" s="24"/>
-      <c r="FG6" s="25"/>
-      <c r="FH6" s="24" t="s">
+      <c r="FF6" s="25"/>
+      <c r="FG6" s="26"/>
+      <c r="FH6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="FI6" s="24"/>
-      <c r="FJ6" s="25"/>
-      <c r="FK6" s="24" t="s">
+      <c r="FI6" s="25"/>
+      <c r="FJ6" s="26"/>
+      <c r="FK6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FL6" s="24"/>
-      <c r="FM6" s="25"/>
-      <c r="FN6" s="24" t="s">
+      <c r="FL6" s="25"/>
+      <c r="FM6" s="26"/>
+      <c r="FN6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="FO6" s="24"/>
-      <c r="FP6" s="25"/>
-      <c r="FQ6" s="24" t="s">
+      <c r="FO6" s="25"/>
+      <c r="FP6" s="26"/>
+      <c r="FQ6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="FR6" s="24"/>
-      <c r="FS6" s="25"/>
-      <c r="FT6" s="24" t="s">
+      <c r="FR6" s="25"/>
+      <c r="FS6" s="26"/>
+      <c r="FT6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="FU6" s="24"/>
-      <c r="FV6" s="25"/>
-      <c r="FW6" s="24" t="s">
+      <c r="FU6" s="25"/>
+      <c r="FV6" s="26"/>
+      <c r="FW6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="FX6" s="24"/>
-      <c r="FY6" s="25"/>
-      <c r="FZ6" s="24" t="s">
+      <c r="FX6" s="25"/>
+      <c r="FY6" s="26"/>
+      <c r="FZ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="GA6" s="24"/>
-      <c r="GB6" s="25"/>
-      <c r="GC6" s="24" t="s">
+      <c r="GA6" s="25"/>
+      <c r="GB6" s="26"/>
+      <c r="GC6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="GD6" s="24"/>
-      <c r="GE6" s="25"/>
-      <c r="GF6" s="24" t="s">
+      <c r="GD6" s="25"/>
+      <c r="GE6" s="26"/>
+      <c r="GF6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="GG6" s="24"/>
-      <c r="GH6" s="25"/>
-      <c r="GI6" s="24" t="s">
+      <c r="GG6" s="25"/>
+      <c r="GH6" s="26"/>
+      <c r="GI6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="GJ6" s="24"/>
-      <c r="GK6" s="25"/>
-      <c r="GL6" s="24" t="s">
+      <c r="GJ6" s="25"/>
+      <c r="GK6" s="26"/>
+      <c r="GL6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="GM6" s="24"/>
-      <c r="GN6" s="25"/>
-      <c r="GO6" s="24" t="s">
+      <c r="GM6" s="25"/>
+      <c r="GN6" s="26"/>
+      <c r="GO6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="GP6" s="24"/>
-      <c r="GQ6" s="25"/>
-      <c r="GR6" s="24" t="s">
+      <c r="GP6" s="25"/>
+      <c r="GQ6" s="26"/>
+      <c r="GR6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="GS6" s="24"/>
-      <c r="GT6" s="25"/>
-      <c r="GU6" s="24" t="s">
+      <c r="GS6" s="25"/>
+      <c r="GT6" s="26"/>
+      <c r="GU6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="GV6" s="24"/>
-      <c r="GW6" s="25"/>
-      <c r="GX6" s="24" t="s">
+      <c r="GV6" s="25"/>
+      <c r="GW6" s="26"/>
+      <c r="GX6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="GY6" s="24"/>
-      <c r="GZ6" s="25"/>
-      <c r="HA6" s="24" t="s">
+      <c r="GY6" s="25"/>
+      <c r="GZ6" s="26"/>
+      <c r="HA6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="HB6" s="24"/>
-      <c r="HC6" s="25"/>
-      <c r="HD6" s="24" t="s">
+      <c r="HB6" s="25"/>
+      <c r="HC6" s="26"/>
+      <c r="HD6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="HE6" s="24"/>
-      <c r="HF6" s="25"/>
-      <c r="HG6" s="24" t="s">
+      <c r="HE6" s="25"/>
+      <c r="HF6" s="26"/>
+      <c r="HG6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="HH6" s="24"/>
-      <c r="HI6" s="24"/>
-      <c r="HJ6" s="26" t="s">
+      <c r="HH6" s="25"/>
+      <c r="HI6" s="25"/>
+      <c r="HJ6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="HK6" s="24"/>
-      <c r="HL6" s="25"/>
-      <c r="HM6" s="26" t="s">
+      <c r="HK6" s="25"/>
+      <c r="HL6" s="26"/>
+      <c r="HM6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="HN6" s="24"/>
-      <c r="HO6" s="25"/>
-      <c r="HP6" s="26" t="s">
+      <c r="HN6" s="25"/>
+      <c r="HO6" s="26"/>
+      <c r="HP6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="HQ6" s="24"/>
-      <c r="HR6" s="25"/>
-      <c r="HS6" s="26" t="s">
+      <c r="HQ6" s="25"/>
+      <c r="HR6" s="26"/>
+      <c r="HS6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="HT6" s="24"/>
-      <c r="HU6" s="25"/>
-      <c r="HV6" s="26" t="s">
+      <c r="HT6" s="25"/>
+      <c r="HU6" s="26"/>
+      <c r="HV6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="HW6" s="24"/>
-      <c r="HX6" s="25"/>
-      <c r="HY6" s="26" t="s">
+      <c r="HW6" s="25"/>
+      <c r="HX6" s="26"/>
+      <c r="HY6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="HZ6" s="24"/>
-      <c r="IA6" s="25"/>
-      <c r="IB6" s="26" t="s">
+      <c r="HZ6" s="25"/>
+      <c r="IA6" s="26"/>
+      <c r="IB6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="IC6" s="24"/>
-      <c r="ID6" s="25"/>
-      <c r="IE6" s="26" t="s">
+      <c r="IC6" s="25"/>
+      <c r="ID6" s="26"/>
+      <c r="IE6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="IF6" s="24"/>
-      <c r="IG6" s="25"/>
-      <c r="IH6" s="26" t="s">
+      <c r="IF6" s="25"/>
+      <c r="IG6" s="26"/>
+      <c r="IH6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="II6" s="24"/>
-      <c r="IJ6" s="25"/>
-      <c r="IK6" s="26" t="s">
+      <c r="II6" s="25"/>
+      <c r="IJ6" s="26"/>
+      <c r="IK6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="IL6" s="24"/>
-      <c r="IM6" s="25"/>
-      <c r="IN6" s="26" t="s">
+      <c r="IL6" s="25"/>
+      <c r="IM6" s="26"/>
+      <c r="IN6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="IO6" s="24"/>
-      <c r="IP6" s="25"/>
-      <c r="IQ6" s="26" t="s">
+      <c r="IO6" s="25"/>
+      <c r="IP6" s="26"/>
+      <c r="IQ6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="IR6" s="24"/>
-      <c r="IS6" s="24"/>
-      <c r="IT6" s="26" t="s">
+      <c r="IR6" s="25"/>
+      <c r="IS6" s="25"/>
+      <c r="IT6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="IU6" s="24"/>
-      <c r="IV6" s="25"/>
-      <c r="IW6" s="26" t="s">
+      <c r="IU6" s="25"/>
+      <c r="IV6" s="26"/>
+      <c r="IW6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="IX6" s="24"/>
-      <c r="IY6" s="25"/>
-      <c r="IZ6" s="24" t="s">
+      <c r="IX6" s="25"/>
+      <c r="IY6" s="26"/>
+      <c r="IZ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="JA6" s="24"/>
-      <c r="JB6" s="25"/>
-      <c r="JC6" s="24" t="s">
+      <c r="JA6" s="25"/>
+      <c r="JB6" s="26"/>
+      <c r="JC6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="JD6" s="24"/>
-      <c r="JE6" s="25"/>
-      <c r="JF6" s="24" t="s">
+      <c r="JD6" s="25"/>
+      <c r="JE6" s="26"/>
+      <c r="JF6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="JG6" s="24"/>
-      <c r="JH6" s="25"/>
-      <c r="JI6" s="24" t="s">
+      <c r="JG6" s="25"/>
+      <c r="JH6" s="26"/>
+      <c r="JI6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="JJ6" s="24"/>
-      <c r="JK6" s="25"/>
-      <c r="JL6" s="24" t="s">
+      <c r="JJ6" s="25"/>
+      <c r="JK6" s="26"/>
+      <c r="JL6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="JM6" s="24"/>
-      <c r="JN6" s="25"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JM6" s="25"/>
+      <c r="JN6" s="26"/>
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
-      <c r="KD6" s="24" t="s">
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
+      <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="KE6" s="24"/>
-      <c r="KF6" s="25"/>
-      <c r="KG6" s="24" t="s">
+      <c r="KE6" s="25"/>
+      <c r="KF6" s="26"/>
+      <c r="KG6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="KH6" s="24"/>
-      <c r="KI6" s="25"/>
-      <c r="KJ6" s="24" t="s">
+      <c r="KH6" s="25"/>
+      <c r="KI6" s="26"/>
+      <c r="KJ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="KK6" s="24"/>
-      <c r="KL6" s="25"/>
-      <c r="KM6" s="24" t="s">
+      <c r="KK6" s="25"/>
+      <c r="KL6" s="26"/>
+      <c r="KM6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="KN6" s="24"/>
-      <c r="KO6" s="25"/>
-      <c r="KP6" s="24" t="s">
+      <c r="KN6" s="25"/>
+      <c r="KO6" s="26"/>
+      <c r="KP6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="24"/>
-      <c r="KR6" s="25"/>
-      <c r="KS6" s="24" t="s">
+      <c r="KQ6" s="25"/>
+      <c r="KR6" s="26"/>
+      <c r="KS6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="KT6" s="24"/>
-      <c r="KU6" s="25"/>
-      <c r="KV6" s="24" t="s">
+      <c r="KT6" s="25"/>
+      <c r="KU6" s="26"/>
+      <c r="KV6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="24"/>
-      <c r="KX6" s="25"/>
-      <c r="KY6" s="24" t="s">
+      <c r="KW6" s="25"/>
+      <c r="KX6" s="26"/>
+      <c r="KY6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="KZ6" s="24"/>
-      <c r="LA6" s="25"/>
-      <c r="LB6" s="24" t="s">
+      <c r="KZ6" s="25"/>
+      <c r="LA6" s="26"/>
+      <c r="LB6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="LC6" s="24"/>
-      <c r="LD6" s="25"/>
-      <c r="LE6" s="24" t="s">
+      <c r="LC6" s="25"/>
+      <c r="LD6" s="26"/>
+      <c r="LE6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="LF6" s="24"/>
-      <c r="LG6" s="25"/>
-      <c r="LH6" s="24" t="s">
+      <c r="LF6" s="25"/>
+      <c r="LG6" s="26"/>
+      <c r="LH6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="LI6" s="24"/>
-      <c r="LJ6" s="25"/>
-      <c r="LK6" s="24" t="s">
+      <c r="LI6" s="25"/>
+      <c r="LJ6" s="26"/>
+      <c r="LK6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="LL6" s="24"/>
-      <c r="LM6" s="25"/>
-      <c r="LN6" s="26" t="s">
+      <c r="LL6" s="25"/>
+      <c r="LM6" s="26"/>
+      <c r="LN6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="LO6" s="24"/>
-      <c r="LP6" s="25"/>
-      <c r="LQ6" s="24" t="s">
+      <c r="LO6" s="25"/>
+      <c r="LP6" s="26"/>
+      <c r="LQ6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="LR6" s="24"/>
-      <c r="LS6" s="25"/>
-      <c r="LT6" s="24" t="s">
+      <c r="LR6" s="25"/>
+      <c r="LS6" s="26"/>
+      <c r="LT6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="LU6" s="24"/>
-      <c r="LV6" s="25"/>
-      <c r="LW6" s="24" t="s">
+      <c r="LU6" s="25"/>
+      <c r="LV6" s="26"/>
+      <c r="LW6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="LX6" s="24"/>
-      <c r="LY6" s="25"/>
-      <c r="LZ6" s="24" t="s">
+      <c r="LX6" s="25"/>
+      <c r="LY6" s="26"/>
+      <c r="LZ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="MA6" s="24"/>
-      <c r="MB6" s="25"/>
-      <c r="MC6" s="24" t="s">
+      <c r="MA6" s="25"/>
+      <c r="MB6" s="26"/>
+      <c r="MC6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="MD6" s="24"/>
-      <c r="ME6" s="25"/>
-      <c r="MF6" s="24" t="s">
+      <c r="MD6" s="25"/>
+      <c r="ME6" s="26"/>
+      <c r="MF6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="MG6" s="24"/>
-      <c r="MH6" s="25"/>
-      <c r="MI6" s="24" t="s">
+      <c r="MG6" s="25"/>
+      <c r="MH6" s="26"/>
+      <c r="MI6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="MJ6" s="24"/>
-      <c r="MK6" s="25"/>
-      <c r="ML6" s="24" t="s">
+      <c r="MJ6" s="25"/>
+      <c r="MK6" s="26"/>
+      <c r="ML6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="MM6" s="24"/>
-      <c r="MN6" s="25"/>
-      <c r="MO6" s="24" t="s">
+      <c r="MM6" s="25"/>
+      <c r="MN6" s="26"/>
+      <c r="MO6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="MP6" s="24"/>
-      <c r="MQ6" s="25"/>
-      <c r="MR6" s="24" t="s">
+      <c r="MP6" s="25"/>
+      <c r="MQ6" s="26"/>
+      <c r="MR6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="MS6" s="24"/>
-      <c r="MT6" s="25"/>
-      <c r="MU6" s="24" t="s">
+      <c r="MS6" s="25"/>
+      <c r="MT6" s="26"/>
+      <c r="MU6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="MV6" s="24"/>
-      <c r="MW6" s="25"/>
-      <c r="MX6" s="24" t="s">
+      <c r="MV6" s="25"/>
+      <c r="MW6" s="26"/>
+      <c r="MX6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="MY6" s="24"/>
-      <c r="MZ6" s="25"/>
-      <c r="NA6" s="24" t="s">
+      <c r="MY6" s="25"/>
+      <c r="MZ6" s="26"/>
+      <c r="NA6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="NB6" s="24"/>
-      <c r="NC6" s="25"/>
-      <c r="ND6" s="24" t="s">
+      <c r="NB6" s="25"/>
+      <c r="NC6" s="26"/>
+      <c r="ND6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="NE6" s="24"/>
-      <c r="NF6" s="25"/>
-      <c r="NG6" s="24" t="s">
+      <c r="NE6" s="25"/>
+      <c r="NF6" s="26"/>
+      <c r="NG6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="NH6" s="24"/>
-      <c r="NI6" s="25"/>
-      <c r="NJ6" s="24" t="s">
+      <c r="NH6" s="25"/>
+      <c r="NI6" s="26"/>
+      <c r="NJ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="NK6" s="24"/>
-      <c r="NL6" s="25"/>
-      <c r="NM6" s="24" t="s">
+      <c r="NK6" s="25"/>
+      <c r="NL6" s="26"/>
+      <c r="NM6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="NN6" s="24"/>
-      <c r="NO6" s="25"/>
-      <c r="NP6" s="24" t="s">
+      <c r="NN6" s="25"/>
+      <c r="NO6" s="26"/>
+      <c r="NP6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="NQ6" s="24"/>
-      <c r="NR6" s="25"/>
-      <c r="NS6" s="24" t="s">
+      <c r="NQ6" s="25"/>
+      <c r="NR6" s="26"/>
+      <c r="NS6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="NT6" s="24"/>
-      <c r="NU6" s="25"/>
-      <c r="NV6" s="24" t="s">
+      <c r="NT6" s="25"/>
+      <c r="NU6" s="26"/>
+      <c r="NV6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="NW6" s="24"/>
-      <c r="NX6" s="25"/>
-      <c r="NY6" s="24" t="s">
+      <c r="NW6" s="25"/>
+      <c r="NX6" s="26"/>
+      <c r="NY6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="NZ6" s="24"/>
-      <c r="OA6" s="25"/>
-      <c r="OB6" s="24" t="s">
+      <c r="NZ6" s="25"/>
+      <c r="OA6" s="26"/>
+      <c r="OB6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="OC6" s="24"/>
-      <c r="OD6" s="25"/>
-      <c r="OE6" s="24" t="s">
+      <c r="OC6" s="25"/>
+      <c r="OD6" s="26"/>
+      <c r="OE6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="OF6" s="24"/>
-      <c r="OG6" s="25"/>
-      <c r="OH6" s="24" t="s">
+      <c r="OF6" s="25"/>
+      <c r="OG6" s="26"/>
+      <c r="OH6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="OI6" s="24"/>
-      <c r="OJ6" s="25"/>
-      <c r="OK6" s="24" t="s">
+      <c r="OI6" s="25"/>
+      <c r="OJ6" s="26"/>
+      <c r="OK6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="OL6" s="24"/>
-      <c r="OM6" s="25"/>
-      <c r="ON6" s="24" t="s">
+      <c r="OL6" s="25"/>
+      <c r="OM6" s="26"/>
+      <c r="ON6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="OO6" s="24"/>
-      <c r="OP6" s="25"/>
-      <c r="OQ6" s="24" t="s">
+      <c r="OO6" s="25"/>
+      <c r="OP6" s="26"/>
+      <c r="OQ6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="OR6" s="24"/>
-      <c r="OS6" s="25"/>
-      <c r="OT6" s="24" t="s">
+      <c r="OR6" s="25"/>
+      <c r="OS6" s="26"/>
+      <c r="OT6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="OU6" s="24"/>
-      <c r="OV6" s="25"/>
-      <c r="OW6" s="24" t="s">
+      <c r="OU6" s="25"/>
+      <c r="OV6" s="26"/>
+      <c r="OW6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="OX6" s="24"/>
-      <c r="OY6" s="25"/>
-      <c r="OZ6" s="24" t="s">
+      <c r="OX6" s="25"/>
+      <c r="OY6" s="26"/>
+      <c r="OZ6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="PA6" s="24"/>
-      <c r="PB6" s="25"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PA6" s="25"/>
+      <c r="PB6" s="26"/>
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
-      <c r="PR6" s="24" t="s">
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
+      <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="PS6" s="24"/>
-      <c r="PT6" s="25"/>
-      <c r="PU6" s="24" t="s">
+      <c r="PS6" s="25"/>
+      <c r="PT6" s="26"/>
+      <c r="PU6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="PV6" s="24"/>
-      <c r="PW6" s="25"/>
-      <c r="PX6" s="24" t="s">
+      <c r="PV6" s="25"/>
+      <c r="PW6" s="26"/>
+      <c r="PX6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="PY6" s="24"/>
-      <c r="PZ6" s="25"/>
-      <c r="QA6" s="24" t="s">
+      <c r="PY6" s="25"/>
+      <c r="PZ6" s="26"/>
+      <c r="QA6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="QB6" s="24"/>
-      <c r="QC6" s="25"/>
-      <c r="QD6" s="24" t="s">
+      <c r="QB6" s="25"/>
+      <c r="QC6" s="26"/>
+      <c r="QD6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="QE6" s="24"/>
-      <c r="QF6" s="25"/>
-      <c r="QG6" s="24" t="s">
+      <c r="QE6" s="25"/>
+      <c r="QF6" s="26"/>
+      <c r="QG6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="QH6" s="24"/>
-      <c r="QI6" s="25"/>
-      <c r="QJ6" s="24" t="s">
+      <c r="QH6" s="25"/>
+      <c r="QI6" s="26"/>
+      <c r="QJ6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="QK6" s="24"/>
-      <c r="QL6" s="25"/>
-      <c r="QM6" s="24" t="s">
+      <c r="QK6" s="25"/>
+      <c r="QL6" s="26"/>
+      <c r="QM6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="QN6" s="24"/>
-      <c r="QO6" s="25"/>
-      <c r="QP6" s="24" t="s">
+      <c r="QN6" s="25"/>
+      <c r="QO6" s="26"/>
+      <c r="QP6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="QQ6" s="24"/>
-      <c r="QR6" s="25"/>
-      <c r="QS6" s="24" t="s">
+      <c r="QQ6" s="25"/>
+      <c r="QR6" s="26"/>
+      <c r="QS6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="QT6" s="24"/>
-      <c r="QU6" s="25"/>
-      <c r="QV6" s="24" t="s">
+      <c r="QT6" s="25"/>
+      <c r="QU6" s="26"/>
+      <c r="QV6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="QW6" s="24"/>
-      <c r="QX6" s="25"/>
-      <c r="QY6" s="24" t="s">
+      <c r="QW6" s="25"/>
+      <c r="QX6" s="26"/>
+      <c r="QY6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="QZ6" s="24"/>
-      <c r="RA6" s="25"/>
-      <c r="RB6" s="24" t="s">
+      <c r="QZ6" s="25"/>
+      <c r="RA6" s="26"/>
+      <c r="RB6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="RC6" s="24"/>
-      <c r="RD6" s="25"/>
-      <c r="RE6" s="24" t="s">
+      <c r="RC6" s="25"/>
+      <c r="RD6" s="26"/>
+      <c r="RE6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="RF6" s="24"/>
-      <c r="RG6" s="25"/>
-      <c r="RH6" s="24" t="s">
+      <c r="RF6" s="25"/>
+      <c r="RG6" s="26"/>
+      <c r="RH6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="RI6" s="24"/>
-      <c r="RJ6" s="25"/>
-      <c r="RK6" s="24" t="s">
+      <c r="RI6" s="25"/>
+      <c r="RJ6" s="26"/>
+      <c r="RK6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="RL6" s="24"/>
-      <c r="RM6" s="25"/>
-      <c r="RN6" s="24" t="s">
+      <c r="RL6" s="25"/>
+      <c r="RM6" s="26"/>
+      <c r="RN6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="RO6" s="24"/>
-      <c r="RP6" s="25"/>
-      <c r="RQ6" s="24" t="s">
+      <c r="RO6" s="25"/>
+      <c r="RP6" s="26"/>
+      <c r="RQ6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="RR6" s="24"/>
-      <c r="RS6" s="25"/>
-      <c r="RT6" s="24" t="s">
+      <c r="RR6" s="25"/>
+      <c r="RS6" s="26"/>
+      <c r="RT6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="RU6" s="24"/>
-      <c r="RV6" s="25"/>
-      <c r="RW6" s="24" t="s">
+      <c r="RU6" s="25"/>
+      <c r="RV6" s="26"/>
+      <c r="RW6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="RX6" s="24"/>
-      <c r="RY6" s="25"/>
-      <c r="RZ6" s="24" t="s">
+      <c r="RX6" s="25"/>
+      <c r="RY6" s="26"/>
+      <c r="RZ6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="SA6" s="24"/>
-      <c r="SB6" s="25"/>
-      <c r="SC6" s="24" t="s">
+      <c r="SA6" s="25"/>
+      <c r="SB6" s="26"/>
+      <c r="SC6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="SD6" s="24"/>
-      <c r="SE6" s="25"/>
-      <c r="SF6" s="24" t="s">
+      <c r="SD6" s="25"/>
+      <c r="SE6" s="26"/>
+      <c r="SF6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="SG6" s="24"/>
-      <c r="SH6" s="25"/>
-      <c r="SI6" s="24" t="s">
+      <c r="SG6" s="25"/>
+      <c r="SH6" s="26"/>
+      <c r="SI6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="SJ6" s="24"/>
-      <c r="SK6" s="25"/>
-      <c r="SL6" s="24" t="s">
+      <c r="SJ6" s="25"/>
+      <c r="SK6" s="26"/>
+      <c r="SL6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="SM6" s="24"/>
-      <c r="SN6" s="25"/>
-      <c r="SO6" s="24" t="s">
+      <c r="SM6" s="25"/>
+      <c r="SN6" s="26"/>
+      <c r="SO6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="SP6" s="24"/>
-      <c r="SQ6" s="25"/>
-      <c r="SR6" s="24" t="s">
+      <c r="SP6" s="25"/>
+      <c r="SQ6" s="26"/>
+      <c r="SR6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="SS6" s="24"/>
-      <c r="ST6" s="25"/>
-      <c r="SU6" s="24" t="s">
+      <c r="SS6" s="25"/>
+      <c r="ST6" s="26"/>
+      <c r="SU6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="SV6" s="24"/>
-      <c r="SW6" s="25"/>
-      <c r="SX6" s="24" t="s">
+      <c r="SV6" s="25"/>
+      <c r="SW6" s="26"/>
+      <c r="SX6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="SY6" s="24"/>
-      <c r="SZ6" s="25"/>
-      <c r="TA6" s="24" t="s">
+      <c r="SY6" s="25"/>
+      <c r="SZ6" s="26"/>
+      <c r="TA6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="TB6" s="24"/>
-      <c r="TC6" s="25"/>
-      <c r="TD6" s="24" t="s">
+      <c r="TB6" s="25"/>
+      <c r="TC6" s="26"/>
+      <c r="TD6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="TE6" s="24"/>
-      <c r="TF6" s="25"/>
-      <c r="TG6" s="24" t="s">
+      <c r="TE6" s="25"/>
+      <c r="TF6" s="26"/>
+      <c r="TG6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="TH6" s="24"/>
-      <c r="TI6" s="25"/>
-      <c r="TJ6" s="24" t="s">
+      <c r="TH6" s="25"/>
+      <c r="TI6" s="26"/>
+      <c r="TJ6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="TK6" s="24"/>
-      <c r="TL6" s="25"/>
-      <c r="TM6" s="24" t="s">
+      <c r="TK6" s="25"/>
+      <c r="TL6" s="26"/>
+      <c r="TM6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="TN6" s="24"/>
-      <c r="TO6" s="25"/>
-      <c r="TP6" s="24" t="s">
+      <c r="TN6" s="25"/>
+      <c r="TO6" s="26"/>
+      <c r="TP6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="TQ6" s="24"/>
-      <c r="TR6" s="25"/>
-      <c r="TS6" s="24" t="s">
+      <c r="TQ6" s="25"/>
+      <c r="TR6" s="26"/>
+      <c r="TS6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="TT6" s="24"/>
-      <c r="TU6" s="25"/>
-      <c r="TV6" s="24" t="s">
+      <c r="TT6" s="25"/>
+      <c r="TU6" s="26"/>
+      <c r="TV6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="TW6" s="24"/>
-      <c r="TX6" s="25"/>
-      <c r="TY6" s="24" t="s">
+      <c r="TW6" s="25"/>
+      <c r="TX6" s="26"/>
+      <c r="TY6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="TZ6" s="24"/>
-      <c r="UA6" s="25"/>
-      <c r="UB6" s="24" t="s">
+      <c r="TZ6" s="25"/>
+      <c r="UA6" s="26"/>
+      <c r="UB6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="UC6" s="24"/>
-      <c r="UD6" s="25"/>
-      <c r="UE6" s="24" t="s">
+      <c r="UC6" s="25"/>
+      <c r="UD6" s="26"/>
+      <c r="UE6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="UF6" s="24"/>
-      <c r="UG6" s="25"/>
-      <c r="UH6" s="24" t="s">
+      <c r="UF6" s="25"/>
+      <c r="UG6" s="26"/>
+      <c r="UH6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="UI6" s="24"/>
-      <c r="UJ6" s="25"/>
-      <c r="UK6" s="24" t="s">
+      <c r="UI6" s="25"/>
+      <c r="UJ6" s="26"/>
+      <c r="UK6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="UL6" s="24"/>
-      <c r="UM6" s="25"/>
-      <c r="UN6" s="24" t="s">
+      <c r="UL6" s="25"/>
+      <c r="UM6" s="26"/>
+      <c r="UN6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="UO6" s="24"/>
-      <c r="UP6" s="25"/>
-      <c r="UQ6" s="24" t="s">
+      <c r="UO6" s="25"/>
+      <c r="UP6" s="26"/>
+      <c r="UQ6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="UR6" s="24"/>
-      <c r="US6" s="25"/>
-      <c r="UT6" s="24" t="s">
+      <c r="UR6" s="25"/>
+      <c r="US6" s="26"/>
+      <c r="UT6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="UU6" s="24"/>
-      <c r="UV6" s="25"/>
-      <c r="UW6" s="24" t="s">
+      <c r="UU6" s="25"/>
+      <c r="UV6" s="26"/>
+      <c r="UW6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="UX6" s="24"/>
-      <c r="UY6" s="25"/>
-      <c r="UZ6" s="24" t="s">
+      <c r="UX6" s="25"/>
+      <c r="UY6" s="26"/>
+      <c r="UZ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="VA6" s="24"/>
-      <c r="VB6" s="25"/>
-      <c r="VC6" s="24" t="s">
+      <c r="VA6" s="25"/>
+      <c r="VB6" s="26"/>
+      <c r="VC6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="VD6" s="24"/>
-      <c r="VE6" s="25"/>
-      <c r="VF6" s="24" t="s">
+      <c r="VD6" s="25"/>
+      <c r="VE6" s="26"/>
+      <c r="VF6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="VG6" s="24"/>
-      <c r="VH6" s="25"/>
-      <c r="VI6" s="24" t="s">
+      <c r="VG6" s="25"/>
+      <c r="VH6" s="26"/>
+      <c r="VI6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="VJ6" s="24"/>
-      <c r="VK6" s="25"/>
-      <c r="VL6" s="24" t="s">
+      <c r="VJ6" s="25"/>
+      <c r="VK6" s="26"/>
+      <c r="VL6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="VM6" s="24"/>
-      <c r="VN6" s="25"/>
-      <c r="VO6" s="24" t="s">
+      <c r="VM6" s="25"/>
+      <c r="VN6" s="26"/>
+      <c r="VO6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="VP6" s="24"/>
-      <c r="VQ6" s="25"/>
-      <c r="VR6" s="24" t="s">
+      <c r="VP6" s="25"/>
+      <c r="VQ6" s="26"/>
+      <c r="VR6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="VS6" s="24"/>
-      <c r="VT6" s="25"/>
-      <c r="VU6" s="24" t="s">
+      <c r="VS6" s="25"/>
+      <c r="VT6" s="26"/>
+      <c r="VU6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="VV6" s="24"/>
-      <c r="VW6" s="25"/>
-      <c r="VX6" s="24" t="s">
+      <c r="VV6" s="25"/>
+      <c r="VW6" s="26"/>
+      <c r="VX6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="VY6" s="24"/>
-      <c r="VZ6" s="25"/>
-      <c r="WA6" s="24" t="s">
+      <c r="VY6" s="25"/>
+      <c r="VZ6" s="26"/>
+      <c r="WA6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="WB6" s="24"/>
-      <c r="WC6" s="25"/>
-      <c r="WD6" s="24" t="s">
+      <c r="WB6" s="25"/>
+      <c r="WC6" s="26"/>
+      <c r="WD6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="WE6" s="24"/>
-      <c r="WF6" s="25"/>
-      <c r="WG6" s="24" t="s">
+      <c r="WE6" s="25"/>
+      <c r="WF6" s="26"/>
+      <c r="WG6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="WH6" s="24"/>
-      <c r="WI6" s="25"/>
-      <c r="WJ6" s="24" t="s">
+      <c r="WH6" s="25"/>
+      <c r="WI6" s="26"/>
+      <c r="WJ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="WK6" s="24"/>
-      <c r="WL6" s="25"/>
-      <c r="WM6" s="24" t="s">
+      <c r="WK6" s="25"/>
+      <c r="WL6" s="26"/>
+      <c r="WM6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="WN6" s="24"/>
-      <c r="WO6" s="25"/>
-      <c r="WP6" s="24" t="s">
+      <c r="WN6" s="25"/>
+      <c r="WO6" s="26"/>
+      <c r="WP6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="WQ6" s="24"/>
-      <c r="WR6" s="25"/>
-      <c r="WS6" s="24" t="s">
+      <c r="WQ6" s="25"/>
+      <c r="WR6" s="26"/>
+      <c r="WS6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="WT6" s="24"/>
-      <c r="WU6" s="25"/>
-      <c r="WV6" s="24" t="s">
+      <c r="WT6" s="25"/>
+      <c r="WU6" s="26"/>
+      <c r="WV6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="WW6" s="24"/>
-      <c r="WX6" s="25"/>
-      <c r="WY6" s="24" t="s">
+      <c r="WW6" s="25"/>
+      <c r="WX6" s="26"/>
+      <c r="WY6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="WZ6" s="24"/>
-      <c r="XA6" s="25"/>
-      <c r="XB6" s="24" t="s">
+      <c r="WZ6" s="25"/>
+      <c r="XA6" s="26"/>
+      <c r="XB6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="XC6" s="24"/>
-      <c r="XD6" s="25"/>
-      <c r="XE6" s="24" t="s">
+      <c r="XC6" s="25"/>
+      <c r="XD6" s="26"/>
+      <c r="XE6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="XF6" s="24"/>
-      <c r="XG6" s="25"/>
-      <c r="XH6" s="24" t="s">
+      <c r="XF6" s="25"/>
+      <c r="XG6" s="26"/>
+      <c r="XH6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="XI6" s="24"/>
-      <c r="XJ6" s="25"/>
-      <c r="XK6" s="24" t="s">
+      <c r="XI6" s="25"/>
+      <c r="XJ6" s="26"/>
+      <c r="XK6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="XL6" s="24"/>
-      <c r="XM6" s="25"/>
-      <c r="XN6" s="24" t="s">
+      <c r="XL6" s="25"/>
+      <c r="XM6" s="26"/>
+      <c r="XN6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="XO6" s="24"/>
-      <c r="XP6" s="25"/>
-      <c r="XQ6" s="24" t="s">
+      <c r="XO6" s="25"/>
+      <c r="XP6" s="26"/>
+      <c r="XQ6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="XR6" s="24"/>
-      <c r="XS6" s="25"/>
-      <c r="XT6" s="24" t="s">
+      <c r="XR6" s="25"/>
+      <c r="XS6" s="26"/>
+      <c r="XT6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="XU6" s="24"/>
-      <c r="XV6" s="25"/>
-      <c r="XW6" s="24" t="s">
+      <c r="XU6" s="25"/>
+      <c r="XV6" s="26"/>
+      <c r="XW6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="XX6" s="24"/>
-      <c r="XY6" s="25"/>
-      <c r="XZ6" s="24" t="s">
+      <c r="XX6" s="25"/>
+      <c r="XY6" s="26"/>
+      <c r="XZ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="YA6" s="24"/>
-      <c r="YB6" s="25"/>
-      <c r="YC6" s="24" t="s">
+      <c r="YA6" s="25"/>
+      <c r="YB6" s="26"/>
+      <c r="YC6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="YD6" s="24"/>
-      <c r="YE6" s="25"/>
-      <c r="YF6" s="24" t="s">
+      <c r="YD6" s="25"/>
+      <c r="YE6" s="26"/>
+      <c r="YF6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="YG6" s="24"/>
-      <c r="YH6" s="25"/>
-      <c r="YI6" s="24" t="s">
+      <c r="YG6" s="25"/>
+      <c r="YH6" s="26"/>
+      <c r="YI6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="YJ6" s="24"/>
-      <c r="YK6" s="25"/>
-      <c r="YL6" s="24" t="s">
+      <c r="YJ6" s="25"/>
+      <c r="YK6" s="26"/>
+      <c r="YL6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="YM6" s="24"/>
-      <c r="YN6" s="25"/>
-      <c r="YO6" s="24" t="s">
+      <c r="YM6" s="25"/>
+      <c r="YN6" s="26"/>
+      <c r="YO6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="YP6" s="24"/>
-      <c r="YQ6" s="25"/>
-      <c r="YR6" s="24" t="s">
+      <c r="YP6" s="25"/>
+      <c r="YQ6" s="26"/>
+      <c r="YR6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="YS6" s="24"/>
-      <c r="YT6" s="25"/>
-      <c r="YU6" s="24" t="s">
+      <c r="YS6" s="25"/>
+      <c r="YT6" s="26"/>
+      <c r="YU6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="YV6" s="24"/>
-      <c r="YW6" s="25"/>
-      <c r="YX6" s="24" t="s">
+      <c r="YV6" s="25"/>
+      <c r="YW6" s="26"/>
+      <c r="YX6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="YY6" s="24"/>
-      <c r="YZ6" s="25"/>
-      <c r="ZA6" s="24" t="s">
+      <c r="YY6" s="25"/>
+      <c r="YZ6" s="26"/>
+      <c r="ZA6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ZB6" s="24"/>
-      <c r="ZC6" s="25"/>
-      <c r="ZD6" s="24" t="s">
+      <c r="ZB6" s="25"/>
+      <c r="ZC6" s="26"/>
+      <c r="ZD6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ZE6" s="24"/>
-      <c r="ZF6" s="25"/>
-      <c r="ZG6" s="24" t="s">
+      <c r="ZE6" s="25"/>
+      <c r="ZF6" s="26"/>
+      <c r="ZG6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ZH6" s="24"/>
-      <c r="ZI6" s="25"/>
-      <c r="ZJ6" s="24" t="s">
+      <c r="ZH6" s="25"/>
+      <c r="ZI6" s="26"/>
+      <c r="ZJ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ZK6" s="24"/>
-      <c r="ZL6" s="25"/>
-      <c r="ZM6" s="24" t="s">
+      <c r="ZK6" s="25"/>
+      <c r="ZL6" s="26"/>
+      <c r="ZM6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ZN6" s="24"/>
-      <c r="ZO6" s="25"/>
-      <c r="ZP6" s="24" t="s">
+      <c r="ZN6" s="25"/>
+      <c r="ZO6" s="26"/>
+      <c r="ZP6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ZQ6" s="24"/>
-      <c r="ZR6" s="25"/>
-      <c r="ZS6" s="24" t="s">
+      <c r="ZQ6" s="25"/>
+      <c r="ZR6" s="26"/>
+      <c r="ZS6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ZT6" s="24"/>
-      <c r="ZU6" s="25"/>
-      <c r="ZV6" s="24" t="s">
+      <c r="ZT6" s="25"/>
+      <c r="ZU6" s="26"/>
+      <c r="ZV6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ZW6" s="24"/>
-      <c r="ZX6" s="25"/>
-      <c r="ZY6" s="24" t="s">
+      <c r="ZW6" s="25"/>
+      <c r="ZX6" s="26"/>
+      <c r="ZY6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ZZ6" s="24"/>
-      <c r="AAA6" s="25"/>
-      <c r="AAB6" s="24" t="s">
+      <c r="ZZ6" s="25"/>
+      <c r="AAA6" s="26"/>
+      <c r="AAB6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AAC6" s="24"/>
-      <c r="AAD6" s="25"/>
-      <c r="AAE6" s="24" t="s">
+      <c r="AAC6" s="25"/>
+      <c r="AAD6" s="26"/>
+      <c r="AAE6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AAF6" s="24"/>
-      <c r="AAG6" s="25"/>
-      <c r="AAH6" s="24" t="s">
+      <c r="AAF6" s="25"/>
+      <c r="AAG6" s="26"/>
+      <c r="AAH6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AAI6" s="24"/>
-      <c r="AAJ6" s="25"/>
-      <c r="AAK6" s="24" t="s">
+      <c r="AAI6" s="25"/>
+      <c r="AAJ6" s="26"/>
+      <c r="AAK6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AAL6" s="24"/>
-      <c r="AAM6" s="25"/>
-      <c r="AAN6" s="24" t="s">
+      <c r="AAL6" s="25"/>
+      <c r="AAM6" s="26"/>
+      <c r="AAN6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AAO6" s="24"/>
-      <c r="AAP6" s="25"/>
-      <c r="AAQ6" s="24" t="s">
+      <c r="AAO6" s="25"/>
+      <c r="AAP6" s="26"/>
+      <c r="AAQ6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AAR6" s="24"/>
-      <c r="AAS6" s="25"/>
-      <c r="AAT6" s="24" t="s">
+      <c r="AAR6" s="25"/>
+      <c r="AAS6" s="26"/>
+      <c r="AAT6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AAU6" s="24"/>
-      <c r="AAV6" s="25"/>
-      <c r="AAW6" s="24" t="s">
+      <c r="AAU6" s="25"/>
+      <c r="AAV6" s="26"/>
+      <c r="AAW6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AAX6" s="24"/>
-      <c r="AAY6" s="25"/>
-      <c r="AAZ6" s="24" t="s">
+      <c r="AAX6" s="25"/>
+      <c r="AAY6" s="26"/>
+      <c r="AAZ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ABA6" s="24"/>
-      <c r="ABB6" s="25"/>
-      <c r="ABC6" s="24" t="s">
+      <c r="ABA6" s="25"/>
+      <c r="ABB6" s="26"/>
+      <c r="ABC6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ABD6" s="24"/>
-      <c r="ABE6" s="25"/>
-      <c r="ABF6" s="24" t="s">
+      <c r="ABD6" s="25"/>
+      <c r="ABE6" s="26"/>
+      <c r="ABF6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ABG6" s="24"/>
-      <c r="ABH6" s="25"/>
-      <c r="ABI6" s="24" t="s">
+      <c r="ABG6" s="25"/>
+      <c r="ABH6" s="26"/>
+      <c r="ABI6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ABJ6" s="24"/>
-      <c r="ABK6" s="25"/>
-      <c r="ABL6" s="24" t="s">
+      <c r="ABJ6" s="25"/>
+      <c r="ABK6" s="26"/>
+      <c r="ABL6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="ABM6" s="24"/>
-      <c r="ABN6" s="25"/>
-      <c r="ABO6" s="24" t="s">
+      <c r="ABM6" s="25"/>
+      <c r="ABN6" s="26"/>
+      <c r="ABO6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="ABP6" s="24"/>
-      <c r="ABQ6" s="25"/>
-      <c r="ABR6" s="24" t="s">
+      <c r="ABP6" s="25"/>
+      <c r="ABQ6" s="26"/>
+      <c r="ABR6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="ABS6" s="24"/>
-      <c r="ABT6" s="25"/>
-      <c r="ABU6" s="24" t="s">
+      <c r="ABS6" s="25"/>
+      <c r="ABT6" s="26"/>
+      <c r="ABU6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ABV6" s="24"/>
-      <c r="ABW6" s="25"/>
-      <c r="ABX6" s="24" t="s">
+      <c r="ABV6" s="25"/>
+      <c r="ABW6" s="26"/>
+      <c r="ABX6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ABY6" s="24"/>
-      <c r="ABZ6" s="25"/>
-      <c r="ACA6" s="24" t="s">
+      <c r="ABY6" s="25"/>
+      <c r="ABZ6" s="26"/>
+      <c r="ACA6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ACB6" s="24"/>
-      <c r="ACC6" s="25"/>
-      <c r="ACD6" s="24" t="s">
+      <c r="ACB6" s="25"/>
+      <c r="ACC6" s="26"/>
+      <c r="ACD6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ACE6" s="24"/>
-      <c r="ACF6" s="25"/>
-      <c r="ACG6" s="24" t="s">
+      <c r="ACE6" s="25"/>
+      <c r="ACF6" s="26"/>
+      <c r="ACG6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ACH6" s="24"/>
-      <c r="ACI6" s="25"/>
-      <c r="ACJ6" s="24" t="s">
+      <c r="ACH6" s="25"/>
+      <c r="ACI6" s="26"/>
+      <c r="ACJ6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ACK6" s="24"/>
-      <c r="ACL6" s="25"/>
-      <c r="ACM6" s="24" t="s">
+      <c r="ACK6" s="25"/>
+      <c r="ACL6" s="26"/>
+      <c r="ACM6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ACN6" s="24"/>
-      <c r="ACO6" s="25"/>
-      <c r="ACP6" s="24" t="s">
+      <c r="ACN6" s="25"/>
+      <c r="ACO6" s="26"/>
+      <c r="ACP6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="ACQ6" s="24"/>
-      <c r="ACR6" s="25"/>
-      <c r="ACS6" s="24" t="s">
+      <c r="ACQ6" s="25"/>
+      <c r="ACR6" s="26"/>
+      <c r="ACS6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="ACT6" s="24"/>
-      <c r="ACU6" s="25"/>
-      <c r="ACV6" s="24" t="s">
+      <c r="ACT6" s="25"/>
+      <c r="ACU6" s="26"/>
+      <c r="ACV6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="ACW6" s="24"/>
-      <c r="ACX6" s="25"/>
-      <c r="ACY6" s="24" t="s">
+      <c r="ACW6" s="25"/>
+      <c r="ACX6" s="26"/>
+      <c r="ACY6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="ACZ6" s="24"/>
-      <c r="ADA6" s="25"/>
-      <c r="ADB6" s="24" t="s">
+      <c r="ACZ6" s="25"/>
+      <c r="ADA6" s="26"/>
+      <c r="ADB6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="ADC6" s="24"/>
-      <c r="ADD6" s="25"/>
-      <c r="ADE6" s="24" t="s">
+      <c r="ADC6" s="25"/>
+      <c r="ADD6" s="26"/>
+      <c r="ADE6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="ADF6" s="24"/>
-      <c r="ADG6" s="25"/>
-      <c r="ADH6" s="24" t="s">
+      <c r="ADF6" s="25"/>
+      <c r="ADG6" s="26"/>
+      <c r="ADH6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="ADI6" s="24"/>
-      <c r="ADJ6" s="25"/>
-      <c r="ADK6" s="24" t="s">
+      <c r="ADI6" s="25"/>
+      <c r="ADJ6" s="26"/>
+      <c r="ADK6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="ADL6" s="24"/>
-      <c r="ADM6" s="25"/>
-      <c r="ADN6" s="24" t="s">
+      <c r="ADL6" s="25"/>
+      <c r="ADM6" s="26"/>
+      <c r="ADN6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="ADO6" s="24"/>
-      <c r="ADP6" s="25"/>
-      <c r="ADQ6" s="24" t="s">
+      <c r="ADO6" s="25"/>
+      <c r="ADP6" s="26"/>
+      <c r="ADQ6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="ADR6" s="24"/>
-      <c r="ADS6" s="25"/>
-      <c r="ADT6" s="24" t="s">
+      <c r="ADR6" s="25"/>
+      <c r="ADS6" s="26"/>
+      <c r="ADT6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="ADU6" s="24"/>
-      <c r="ADV6" s="25"/>
-      <c r="ADW6" s="24" t="s">
+      <c r="ADU6" s="25"/>
+      <c r="ADV6" s="26"/>
+      <c r="ADW6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="ADX6" s="24"/>
-      <c r="ADY6" s="25"/>
-      <c r="ADZ6" s="24" t="s">
+      <c r="ADX6" s="25"/>
+      <c r="ADY6" s="26"/>
+      <c r="ADZ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AEA6" s="24"/>
-      <c r="AEB6" s="25"/>
-      <c r="AEC6" s="24" t="s">
+      <c r="AEA6" s="25"/>
+      <c r="AEB6" s="26"/>
+      <c r="AEC6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AED6" s="24"/>
-      <c r="AEE6" s="25"/>
-      <c r="AEF6" s="24" t="s">
+      <c r="AED6" s="25"/>
+      <c r="AEE6" s="26"/>
+      <c r="AEF6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AEG6" s="24"/>
-      <c r="AEH6" s="25"/>
-      <c r="AEI6" s="24" t="s">
+      <c r="AEG6" s="25"/>
+      <c r="AEH6" s="26"/>
+      <c r="AEI6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AEJ6" s="24"/>
-      <c r="AEK6" s="25"/>
-      <c r="AEL6" s="24" t="s">
+      <c r="AEJ6" s="25"/>
+      <c r="AEK6" s="26"/>
+      <c r="AEL6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AEM6" s="24"/>
-      <c r="AEN6" s="25"/>
-      <c r="AEO6" s="24" t="s">
+      <c r="AEM6" s="25"/>
+      <c r="AEN6" s="26"/>
+      <c r="AEO6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AEP6" s="24"/>
-      <c r="AEQ6" s="25"/>
-      <c r="AER6" s="24" t="s">
+      <c r="AEP6" s="25"/>
+      <c r="AEQ6" s="26"/>
+      <c r="AER6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AES6" s="24"/>
-      <c r="AET6" s="25"/>
-      <c r="AEU6" s="24" t="s">
+      <c r="AES6" s="25"/>
+      <c r="AET6" s="26"/>
+      <c r="AEU6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AEV6" s="24"/>
-      <c r="AEW6" s="25"/>
-      <c r="AEX6" s="26" t="s">
+      <c r="AEV6" s="25"/>
+      <c r="AEW6" s="26"/>
+      <c r="AEX6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AEY6" s="24"/>
-      <c r="AEZ6" s="25"/>
-      <c r="AFA6" s="26" t="s">
+      <c r="AEY6" s="25"/>
+      <c r="AEZ6" s="26"/>
+      <c r="AFA6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AFB6" s="24"/>
-      <c r="AFC6" s="25"/>
-      <c r="AFD6" s="26" t="s">
+      <c r="AFB6" s="25"/>
+      <c r="AFC6" s="26"/>
+      <c r="AFD6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AFE6" s="24"/>
-      <c r="AFF6" s="25"/>
-      <c r="AFG6" s="26" t="s">
+      <c r="AFE6" s="25"/>
+      <c r="AFF6" s="26"/>
+      <c r="AFG6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AFH6" s="24"/>
-      <c r="AFI6" s="25"/>
-      <c r="AFJ6" s="26" t="s">
+      <c r="AFH6" s="25"/>
+      <c r="AFI6" s="26"/>
+      <c r="AFJ6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AFK6" s="24"/>
-      <c r="AFL6" s="25"/>
-      <c r="AFM6" s="26" t="s">
+      <c r="AFK6" s="25"/>
+      <c r="AFL6" s="26"/>
+      <c r="AFM6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AFN6" s="24"/>
-      <c r="AFO6" s="25"/>
-      <c r="AFP6" s="26" t="s">
+      <c r="AFN6" s="25"/>
+      <c r="AFO6" s="26"/>
+      <c r="AFP6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AFQ6" s="24"/>
-      <c r="AFR6" s="25"/>
-      <c r="AFS6" s="26" t="s">
+      <c r="AFQ6" s="25"/>
+      <c r="AFR6" s="26"/>
+      <c r="AFS6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AFT6" s="24"/>
-      <c r="AFU6" s="25"/>
-      <c r="AFV6" s="26" t="s">
+      <c r="AFT6" s="25"/>
+      <c r="AFU6" s="26"/>
+      <c r="AFV6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AFW6" s="24"/>
-      <c r="AFX6" s="25"/>
-      <c r="AFY6" s="26" t="s">
+      <c r="AFW6" s="25"/>
+      <c r="AFX6" s="26"/>
+      <c r="AFY6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AFZ6" s="24"/>
-      <c r="AGA6" s="25"/>
-      <c r="AGB6" s="24" t="s">
+      <c r="AFZ6" s="25"/>
+      <c r="AGA6" s="26"/>
+      <c r="AGB6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AGC6" s="24"/>
-      <c r="AGD6" s="25"/>
-      <c r="AGE6" s="26" t="s">
+      <c r="AGC6" s="25"/>
+      <c r="AGD6" s="26"/>
+      <c r="AGE6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AGF6" s="24"/>
-      <c r="AGG6" s="25"/>
+      <c r="AGF6" s="25"/>
+      <c r="AGG6" s="26"/>
+      <c r="AGH6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AGI6" s="25"/>
+      <c r="AGJ6" s="26"/>
     </row>
-    <row r="7" spans="1:865" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:868" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -6381,8 +7027,17 @@
       <c r="AGG7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGH7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGI7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGJ7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -8978,8 +9633,17 @@
       <c r="AGG8" s="23">
         <v>116251</v>
       </c>
+      <c r="AGH8" s="21">
+        <v>85574</v>
+      </c>
+      <c r="AGI8" s="22">
+        <v>36009</v>
+      </c>
+      <c r="AGJ8" s="23">
+        <v>121583</v>
+      </c>
     </row>
-    <row r="9" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -11575,8 +12239,17 @@
       <c r="AGG9" s="5">
         <v>388949</v>
       </c>
+      <c r="AGH9" s="3">
+        <v>225746</v>
+      </c>
+      <c r="AGI9" s="4">
+        <v>162476</v>
+      </c>
+      <c r="AGJ9" s="5">
+        <v>388222</v>
+      </c>
     </row>
-    <row r="10" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14172,8 +14845,17 @@
       <c r="AGG10" s="5">
         <v>134547</v>
       </c>
+      <c r="AGH10" s="3">
+        <v>114697</v>
+      </c>
+      <c r="AGI10" s="4">
+        <v>20991</v>
+      </c>
+      <c r="AGJ10" s="5">
+        <v>135688</v>
+      </c>
     </row>
-    <row r="11" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -16769,8 +17451,17 @@
       <c r="AGG11" s="5">
         <v>9393</v>
       </c>
+      <c r="AGH11" s="3">
+        <v>7107</v>
+      </c>
+      <c r="AGI11" s="4">
+        <v>2326</v>
+      </c>
+      <c r="AGJ11" s="5">
+        <v>9433</v>
+      </c>
     </row>
-    <row r="12" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -19366,8 +20057,17 @@
       <c r="AGG12" s="5">
         <v>480660</v>
       </c>
+      <c r="AGH12" s="3">
+        <v>289965</v>
+      </c>
+      <c r="AGI12" s="4">
+        <v>193082</v>
+      </c>
+      <c r="AGJ12" s="5">
+        <v>483047</v>
+      </c>
     </row>
-    <row r="13" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -21963,8 +22663,17 @@
       <c r="AGG13" s="5">
         <v>2624</v>
       </c>
+      <c r="AGH13" s="3">
+        <v>2289</v>
+      </c>
+      <c r="AGI13" s="4">
+        <v>353</v>
+      </c>
+      <c r="AGJ13" s="5">
+        <v>2642</v>
+      </c>
     </row>
-    <row r="14" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -24560,8 +25269,17 @@
       <c r="AGG14" s="5">
         <v>347967</v>
       </c>
+      <c r="AGH14" s="3">
+        <v>194872</v>
+      </c>
+      <c r="AGI14" s="4">
+        <v>153706</v>
+      </c>
+      <c r="AGJ14" s="5">
+        <v>348578</v>
+      </c>
     </row>
-    <row r="15" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -27157,8 +27875,17 @@
       <c r="AGG15" s="5">
         <v>272353</v>
       </c>
+      <c r="AGH15" s="3">
+        <v>123233</v>
+      </c>
+      <c r="AGI15" s="4">
+        <v>150390</v>
+      </c>
+      <c r="AGJ15" s="5">
+        <v>273623</v>
+      </c>
     </row>
-    <row r="16" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -29754,8 +30481,17 @@
       <c r="AGG16" s="5">
         <v>97255</v>
       </c>
+      <c r="AGH16" s="3">
+        <v>74384</v>
+      </c>
+      <c r="AGI16" s="4">
+        <v>23959</v>
+      </c>
+      <c r="AGJ16" s="5">
+        <v>98343</v>
+      </c>
     </row>
-    <row r="17" spans="1:865" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -32351,8 +33087,17 @@
       <c r="AGG17" s="16">
         <v>1849999</v>
       </c>
+      <c r="AGH17" s="14">
+        <v>1117867</v>
+      </c>
+      <c r="AGI17" s="15">
+        <v>743292</v>
+      </c>
+      <c r="AGJ17" s="16">
+        <v>1861159</v>
+      </c>
     </row>
-    <row r="19" spans="1:865" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:868" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -32362,11 +33107,304 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:865" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:868" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="315">
+  <mergeCells count="317">
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="AGH5:AGJ5"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
     <mergeCell ref="AFY6:AGA6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
@@ -32391,297 +33429,6 @@
     <mergeCell ref="LN5:MW5"/>
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-enero 2022</t>
+    <t>Enero 1998-febrero 2022</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGJ27"/>
+  <dimension ref="A1:AGM27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AFY28" sqref="AFY28"/>
+      <selection pane="topRight" activeCell="AGG33" sqref="AGG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,18 +2035,19 @@
     <col min="865" max="866" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="867" max="867" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="868" max="868" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="869" max="16384" width="11.42578125" style="1"/>
+    <col min="869" max="871" width="9.85546875" style="1" customWidth="1"/>
+    <col min="872" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2054,7 +2055,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2062,9 +2063,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2941,52 +2942,55 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
       <c r="AGI5" s="25"/>
-      <c r="AGJ5" s="26"/>
+      <c r="AGJ5" s="25"/>
+      <c r="AGK5" s="25"/>
+      <c r="AGL5" s="25"/>
+      <c r="AGM5" s="26"/>
     </row>
-    <row r="6" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3097,21 +3101,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3162,11 +3166,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3222,11 +3226,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3442,31 +3446,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3682,31 +3686,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4432,9 +4436,14 @@
       </c>
       <c r="AGI6" s="25"/>
       <c r="AGJ6" s="26"/>
+      <c r="AGK6" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AGL6" s="25"/>
+      <c r="AGM6" s="26"/>
     </row>
-    <row r="7" spans="1:868" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:871" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7036,8 +7045,17 @@
       <c r="AGJ7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGK7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGL7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGM7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9642,8 +9660,17 @@
       <c r="AGJ8" s="23">
         <v>121583</v>
       </c>
+      <c r="AGK8" s="21">
+        <v>86949</v>
+      </c>
+      <c r="AGL8" s="22">
+        <v>36353</v>
+      </c>
+      <c r="AGM8" s="23">
+        <v>123302</v>
+      </c>
     </row>
-    <row r="9" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12248,8 +12275,17 @@
       <c r="AGJ9" s="5">
         <v>388222</v>
       </c>
+      <c r="AGK9" s="3">
+        <v>225981</v>
+      </c>
+      <c r="AGL9" s="4">
+        <v>162765</v>
+      </c>
+      <c r="AGM9" s="5">
+        <v>388746</v>
+      </c>
     </row>
-    <row r="10" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14854,8 +14890,17 @@
       <c r="AGJ10" s="5">
         <v>135688</v>
       </c>
+      <c r="AGK10" s="3">
+        <v>115305</v>
+      </c>
+      <c r="AGL10" s="4">
+        <v>21083</v>
+      </c>
+      <c r="AGM10" s="5">
+        <v>136388</v>
+      </c>
     </row>
-    <row r="11" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17460,8 +17505,17 @@
       <c r="AGJ11" s="5">
         <v>9433</v>
       </c>
+      <c r="AGK11" s="3">
+        <v>7223</v>
+      </c>
+      <c r="AGL11" s="4">
+        <v>2327</v>
+      </c>
+      <c r="AGM11" s="5">
+        <v>9550</v>
+      </c>
     </row>
-    <row r="12" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20066,8 +20120,17 @@
       <c r="AGJ12" s="5">
         <v>483047</v>
       </c>
+      <c r="AGK12" s="3">
+        <v>292490</v>
+      </c>
+      <c r="AGL12" s="4">
+        <v>195328</v>
+      </c>
+      <c r="AGM12" s="5">
+        <v>487818</v>
+      </c>
     </row>
-    <row r="13" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -22672,8 +22735,17 @@
       <c r="AGJ13" s="5">
         <v>2642</v>
       </c>
+      <c r="AGK13" s="3">
+        <v>2283</v>
+      </c>
+      <c r="AGL13" s="4">
+        <v>360</v>
+      </c>
+      <c r="AGM13" s="5">
+        <v>2643</v>
+      </c>
     </row>
-    <row r="14" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25278,8 +25350,17 @@
       <c r="AGJ14" s="5">
         <v>348578</v>
       </c>
+      <c r="AGK14" s="3">
+        <v>195547</v>
+      </c>
+      <c r="AGL14" s="4">
+        <v>154544</v>
+      </c>
+      <c r="AGM14" s="5">
+        <v>350091</v>
+      </c>
     </row>
-    <row r="15" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -27884,8 +27965,17 @@
       <c r="AGJ15" s="5">
         <v>273623</v>
       </c>
+      <c r="AGK15" s="3">
+        <v>124486</v>
+      </c>
+      <c r="AGL15" s="4">
+        <v>152053</v>
+      </c>
+      <c r="AGM15" s="5">
+        <v>276539</v>
+      </c>
     </row>
-    <row r="16" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30490,8 +30580,17 @@
       <c r="AGJ16" s="5">
         <v>98343</v>
       </c>
+      <c r="AGK16" s="3">
+        <v>75217</v>
+      </c>
+      <c r="AGL16" s="4">
+        <v>24328</v>
+      </c>
+      <c r="AGM16" s="5">
+        <v>99545</v>
+      </c>
     </row>
-    <row r="17" spans="1:868" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33096,8 +33195,17 @@
       <c r="AGJ17" s="16">
         <v>1861159</v>
       </c>
+      <c r="AGK17" s="14">
+        <v>1125481</v>
+      </c>
+      <c r="AGL17" s="15">
+        <v>749141</v>
+      </c>
+      <c r="AGM17" s="16">
+        <v>1874622</v>
+      </c>
     </row>
-    <row r="19" spans="1:868" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:871" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33107,304 +33215,13 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:868" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:871" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="AGH5:AGJ5"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
+  <mergeCells count="318">
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH5:AGM5"/>
     <mergeCell ref="AFY6:AGA6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
@@ -33429,6 +33246,298 @@
     <mergeCell ref="LN5:MW5"/>
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-febrero 2022</t>
+    <t>Enero 1998-marzo 2022</t>
   </si>
 </sst>
 </file>
@@ -901,24 +901,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGM27"/>
+  <dimension ref="A1:AGP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGG33" sqref="AGG33"/>
+      <selection pane="topRight" activeCell="AGO27" sqref="AGO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2035,19 +2035,20 @@
     <col min="865" max="866" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="867" max="867" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="868" max="868" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="869" max="871" width="9.85546875" style="1" customWidth="1"/>
-    <col min="872" max="16384" width="11.42578125" style="1"/>
+    <col min="869" max="871" width="9.140625" style="1" customWidth="1"/>
+    <col min="872" max="874" width="9.85546875" style="1" customWidth="1"/>
+    <col min="875" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2063,9 +2064,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2942,44 +2943,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -2987,10 +2988,13 @@
       <c r="AGJ5" s="25"/>
       <c r="AGK5" s="25"/>
       <c r="AGL5" s="25"/>
-      <c r="AGM5" s="26"/>
+      <c r="AGM5" s="25"/>
+      <c r="AGN5" s="25"/>
+      <c r="AGO5" s="25"/>
+      <c r="AGP5" s="26"/>
     </row>
-    <row r="6" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3101,21 +3105,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3166,11 +3170,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3226,11 +3230,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3446,31 +3450,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3686,31 +3690,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4441,9 +4445,14 @@
       </c>
       <c r="AGL6" s="25"/>
       <c r="AGM6" s="26"/>
+      <c r="AGN6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AGO6" s="25"/>
+      <c r="AGP6" s="26"/>
     </row>
-    <row r="7" spans="1:871" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:874" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7045,17 +7054,26 @@
       <c r="AGJ7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AGK7" s="8" t="s">
+      <c r="AGK7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AGL7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AGM7" s="10" t="s">
+      <c r="AGM7" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AGN7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGO7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGP7" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9660,17 +9678,26 @@
       <c r="AGJ8" s="23">
         <v>121583</v>
       </c>
-      <c r="AGK8" s="21">
+      <c r="AGK8" s="22">
         <v>86949</v>
       </c>
       <c r="AGL8" s="22">
         <v>36353</v>
       </c>
-      <c r="AGM8" s="23">
+      <c r="AGM8" s="22">
         <v>123302</v>
       </c>
+      <c r="AGN8" s="21">
+        <v>87837</v>
+      </c>
+      <c r="AGO8" s="22">
+        <v>37080</v>
+      </c>
+      <c r="AGP8" s="23">
+        <v>124917</v>
+      </c>
     </row>
-    <row r="9" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12275,17 +12302,26 @@
       <c r="AGJ9" s="5">
         <v>388222</v>
       </c>
-      <c r="AGK9" s="3">
+      <c r="AGK9" s="4">
         <v>225981</v>
       </c>
       <c r="AGL9" s="4">
         <v>162765</v>
       </c>
-      <c r="AGM9" s="5">
+      <c r="AGM9" s="4">
         <v>388746</v>
       </c>
+      <c r="AGN9" s="3">
+        <v>226124</v>
+      </c>
+      <c r="AGO9" s="4">
+        <v>162912</v>
+      </c>
+      <c r="AGP9" s="5">
+        <v>389036</v>
+      </c>
     </row>
-    <row r="10" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14890,17 +14926,26 @@
       <c r="AGJ10" s="5">
         <v>135688</v>
       </c>
-      <c r="AGK10" s="3">
+      <c r="AGK10" s="4">
         <v>115305</v>
       </c>
       <c r="AGL10" s="4">
         <v>21083</v>
       </c>
-      <c r="AGM10" s="5">
+      <c r="AGM10" s="4">
         <v>136388</v>
       </c>
+      <c r="AGN10" s="3">
+        <v>116184</v>
+      </c>
+      <c r="AGO10" s="4">
+        <v>21160</v>
+      </c>
+      <c r="AGP10" s="5">
+        <v>137344</v>
+      </c>
     </row>
-    <row r="11" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17505,17 +17550,26 @@
       <c r="AGJ11" s="5">
         <v>9433</v>
       </c>
-      <c r="AGK11" s="3">
+      <c r="AGK11" s="4">
         <v>7223</v>
       </c>
       <c r="AGL11" s="4">
         <v>2327</v>
       </c>
-      <c r="AGM11" s="5">
+      <c r="AGM11" s="4">
         <v>9550</v>
       </c>
+      <c r="AGN11" s="3">
+        <v>7276</v>
+      </c>
+      <c r="AGO11" s="4">
+        <v>2343</v>
+      </c>
+      <c r="AGP11" s="5">
+        <v>9619</v>
+      </c>
     </row>
-    <row r="12" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20120,17 +20174,26 @@
       <c r="AGJ12" s="5">
         <v>483047</v>
       </c>
-      <c r="AGK12" s="3">
+      <c r="AGK12" s="4">
         <v>292490</v>
       </c>
       <c r="AGL12" s="4">
         <v>195328</v>
       </c>
-      <c r="AGM12" s="5">
+      <c r="AGM12" s="4">
         <v>487818</v>
       </c>
+      <c r="AGN12" s="3">
+        <v>294634</v>
+      </c>
+      <c r="AGO12" s="4">
+        <v>198779</v>
+      </c>
+      <c r="AGP12" s="5">
+        <v>493413</v>
+      </c>
     </row>
-    <row r="13" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -22735,17 +22798,26 @@
       <c r="AGJ13" s="5">
         <v>2642</v>
       </c>
-      <c r="AGK13" s="3">
+      <c r="AGK13" s="4">
         <v>2283</v>
       </c>
       <c r="AGL13" s="4">
         <v>360</v>
       </c>
-      <c r="AGM13" s="5">
+      <c r="AGM13" s="4">
         <v>2643</v>
       </c>
+      <c r="AGN13" s="3">
+        <v>2228</v>
+      </c>
+      <c r="AGO13" s="4">
+        <v>349</v>
+      </c>
+      <c r="AGP13" s="5">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="14" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25350,17 +25422,26 @@
       <c r="AGJ14" s="5">
         <v>348578</v>
       </c>
-      <c r="AGK14" s="3">
+      <c r="AGK14" s="4">
         <v>195547</v>
       </c>
       <c r="AGL14" s="4">
         <v>154544</v>
       </c>
-      <c r="AGM14" s="5">
+      <c r="AGM14" s="4">
         <v>350091</v>
       </c>
+      <c r="AGN14" s="3">
+        <v>197276</v>
+      </c>
+      <c r="AGO14" s="4">
+        <v>155490</v>
+      </c>
+      <c r="AGP14" s="5">
+        <v>352766</v>
+      </c>
     </row>
-    <row r="15" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -27965,17 +28046,26 @@
       <c r="AGJ15" s="5">
         <v>273623</v>
       </c>
-      <c r="AGK15" s="3">
+      <c r="AGK15" s="4">
         <v>124486</v>
       </c>
       <c r="AGL15" s="4">
         <v>152053</v>
       </c>
-      <c r="AGM15" s="5">
+      <c r="AGM15" s="4">
         <v>276539</v>
       </c>
+      <c r="AGN15" s="3">
+        <v>124848</v>
+      </c>
+      <c r="AGO15" s="4">
+        <v>152432</v>
+      </c>
+      <c r="AGP15" s="5">
+        <v>277280</v>
+      </c>
     </row>
-    <row r="16" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30580,17 +30670,26 @@
       <c r="AGJ16" s="5">
         <v>98343</v>
       </c>
-      <c r="AGK16" s="3">
+      <c r="AGK16" s="4">
         <v>75217</v>
       </c>
       <c r="AGL16" s="4">
         <v>24328</v>
       </c>
-      <c r="AGM16" s="5">
+      <c r="AGM16" s="4">
         <v>99545</v>
       </c>
+      <c r="AGN16" s="3">
+        <v>75332</v>
+      </c>
+      <c r="AGO16" s="4">
+        <v>24492</v>
+      </c>
+      <c r="AGP16" s="5">
+        <v>99824</v>
+      </c>
     </row>
-    <row r="17" spans="1:871" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33195,17 +33294,26 @@
       <c r="AGJ17" s="16">
         <v>1861159</v>
       </c>
-      <c r="AGK17" s="14">
+      <c r="AGK17" s="15">
         <v>1125481</v>
       </c>
       <c r="AGL17" s="15">
         <v>749141</v>
       </c>
-      <c r="AGM17" s="16">
+      <c r="AGM17" s="15">
         <v>1874622</v>
       </c>
+      <c r="AGN17" s="14">
+        <v>1131739</v>
+      </c>
+      <c r="AGO17" s="15">
+        <v>755037</v>
+      </c>
+      <c r="AGP17" s="16">
+        <v>1886776</v>
+      </c>
     </row>
-    <row r="19" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:874" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33215,306 +33323,12 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:871" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:874" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="318">
+  <mergeCells count="319">
     <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH5:AGM5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
     <mergeCell ref="AGH6:AGJ6"/>
     <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
@@ -33538,6 +33352,301 @@
     <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="CT6:CV6"/>
     <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AGH5:AGP5"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
     <sheet name="ta_jalisco_género" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-marzo 2022</t>
+    <t>Enero 1998-abril 2022</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,805 +1250,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGP27"/>
+  <dimension ref="A1:AGS27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGO27" sqref="AGO27"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="632" max="632" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="636" max="636" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="638" max="638" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="640" max="640" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="644" max="644" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="646" max="646" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="650" max="650" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="653" max="653" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="654" max="654" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="655" max="655" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="656" max="656" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="657" max="657" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="658" max="658" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="659" max="659" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="660" max="660" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="661" max="661" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="662" max="662" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="665" max="665" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="666" max="666" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="667" max="667" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="668" max="668" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="671" max="671" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="672" max="672" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="673" max="674" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="675" max="675" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="676" max="677" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="678" max="678" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="679" max="680" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="684" max="684" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="685" max="686" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="687" max="687" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="690" max="690" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="691" max="692" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="697" max="698" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="703" max="704" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="705" max="705" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="709" max="710" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="711" max="711" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="714" max="714" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="715" max="716" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="721" max="722" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="723" max="723" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="727" max="728" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="729" max="729" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="733" max="734" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="739" max="740" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="745" max="746" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="751" max="752" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="753" max="753" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="757" max="758" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="759" max="759" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="763" max="764" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="769" max="770" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="782" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="787" max="788" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="790" max="791" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="793" max="794" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="799" max="800" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="801" max="801" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="804" max="804" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="805" max="806" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="811" max="812" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="816" max="816" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="817" max="818" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="822" max="822" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="823" max="824" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="825" max="825" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="829" max="830" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="834" max="834" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="835" max="836" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="837" max="837" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="841" max="842" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="843" max="843" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="846" max="846" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="847" max="848" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="849" max="849" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="853" max="854" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="855" max="855" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="858" max="858" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="859" max="860" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="861" max="861" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="864" max="864" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="865" max="866" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="867" max="867" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="868" max="868" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="869" max="871" width="9.140625" style="1" customWidth="1"/>
-    <col min="872" max="874" width="9.85546875" style="1" customWidth="1"/>
-    <col min="875" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="51.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="673" max="674" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="676" max="677" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="680" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="686" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="692" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="697" max="698" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="704" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="709" max="710" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="715" max="716" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="721" max="722" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="727" max="728" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="733" max="734" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="739" max="740" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="751" max="752" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="757" max="758" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="763" max="764" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="769" max="770" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="782" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="787" max="788" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="790" max="791" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="799" max="800" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="805" max="806" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="811" max="812" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="817" max="818" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="823" max="824" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="829" max="830" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="835" max="836" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="841" max="842" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="847" max="848" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="853" max="854" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="859" max="860" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="861" max="861" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="864" max="864" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="865" max="866" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="867" max="867" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="868" max="868" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
+    <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
+    <col min="875" max="877" width="9.875" style="1" customWidth="1"/>
+    <col min="878" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2057,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2064,9 +2065,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2943,44 +2944,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -2991,10 +2992,13 @@
       <c r="AGM5" s="25"/>
       <c r="AGN5" s="25"/>
       <c r="AGO5" s="25"/>
-      <c r="AGP5" s="26"/>
+      <c r="AGP5" s="25"/>
+      <c r="AGQ5" s="25"/>
+      <c r="AGR5" s="25"/>
+      <c r="AGS5" s="26"/>
     </row>
-    <row r="6" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3105,21 +3109,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3170,11 +3174,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3230,11 +3234,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3450,31 +3454,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3690,31 +3694,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4450,9 +4454,14 @@
       </c>
       <c r="AGO6" s="25"/>
       <c r="AGP6" s="26"/>
+      <c r="AGQ6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AGR6" s="25"/>
+      <c r="AGS6" s="26"/>
     </row>
-    <row r="7" spans="1:874" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:877" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7063,17 +7072,26 @@
       <c r="AGM7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AGN7" s="9" t="s">
+      <c r="AGN7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AGO7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AGP7" s="9" t="s">
+      <c r="AGP7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGQ7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGR7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGS7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9696,8 +9714,17 @@
       <c r="AGP8" s="23">
         <v>124917</v>
       </c>
+      <c r="AGQ8" s="21">
+        <v>84514</v>
+      </c>
+      <c r="AGR8" s="22">
+        <v>36193</v>
+      </c>
+      <c r="AGS8" s="23">
+        <v>120707</v>
+      </c>
     </row>
-    <row r="9" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12320,8 +12347,17 @@
       <c r="AGP9" s="5">
         <v>389036</v>
       </c>
+      <c r="AGQ9" s="3">
+        <v>226193</v>
+      </c>
+      <c r="AGR9" s="4">
+        <v>163179</v>
+      </c>
+      <c r="AGS9" s="5">
+        <v>389372</v>
+      </c>
     </row>
-    <row r="10" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14944,8 +14980,17 @@
       <c r="AGP10" s="5">
         <v>137344</v>
       </c>
+      <c r="AGQ10" s="3">
+        <v>116198</v>
+      </c>
+      <c r="AGR10" s="4">
+        <v>20937</v>
+      </c>
+      <c r="AGS10" s="5">
+        <v>137135</v>
+      </c>
     </row>
-    <row r="11" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17568,8 +17613,17 @@
       <c r="AGP11" s="5">
         <v>9619</v>
       </c>
+      <c r="AGQ11" s="3">
+        <v>7208</v>
+      </c>
+      <c r="AGR11" s="4">
+        <v>2332</v>
+      </c>
+      <c r="AGS11" s="5">
+        <v>9540</v>
+      </c>
     </row>
-    <row r="12" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20192,8 +20246,17 @@
       <c r="AGP12" s="5">
         <v>493413</v>
       </c>
+      <c r="AGQ12" s="3">
+        <v>295172</v>
+      </c>
+      <c r="AGR12" s="4">
+        <v>199652</v>
+      </c>
+      <c r="AGS12" s="5">
+        <v>494824</v>
+      </c>
     </row>
-    <row r="13" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -22816,8 +22879,17 @@
       <c r="AGP13" s="5">
         <v>2577</v>
       </c>
+      <c r="AGQ13" s="3">
+        <v>2206</v>
+      </c>
+      <c r="AGR13" s="4">
+        <v>350</v>
+      </c>
+      <c r="AGS13" s="5">
+        <v>2556</v>
+      </c>
     </row>
-    <row r="14" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25440,8 +25512,17 @@
       <c r="AGP14" s="5">
         <v>352766</v>
       </c>
+      <c r="AGQ14" s="3">
+        <v>197648</v>
+      </c>
+      <c r="AGR14" s="4">
+        <v>155866</v>
+      </c>
+      <c r="AGS14" s="5">
+        <v>353514</v>
+      </c>
     </row>
-    <row r="15" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28064,8 +28145,17 @@
       <c r="AGP15" s="5">
         <v>277280</v>
       </c>
+      <c r="AGQ15" s="3">
+        <v>124588</v>
+      </c>
+      <c r="AGR15" s="4">
+        <v>152319</v>
+      </c>
+      <c r="AGS15" s="5">
+        <v>276907</v>
+      </c>
     </row>
-    <row r="16" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30688,8 +30778,17 @@
       <c r="AGP16" s="5">
         <v>99824</v>
       </c>
+      <c r="AGQ16" s="3">
+        <v>75549</v>
+      </c>
+      <c r="AGR16" s="4">
+        <v>24611</v>
+      </c>
+      <c r="AGS16" s="5">
+        <v>100160</v>
+      </c>
     </row>
-    <row r="17" spans="1:874" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33312,8 +33411,17 @@
       <c r="AGP17" s="16">
         <v>1886776</v>
       </c>
+      <c r="AGQ17" s="14">
+        <v>1129276</v>
+      </c>
+      <c r="AGR17" s="15">
+        <v>755439</v>
+      </c>
+      <c r="AGS17" s="16">
+        <v>1884715</v>
+      </c>
     </row>
-    <row r="19" spans="1:874" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:877" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33323,11 +33431,307 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:874" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:877" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="319">
+  <mergeCells count="320">
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGH5:AGS5"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
     <mergeCell ref="AGK6:AGM6"/>
     <mergeCell ref="AGH6:AGJ6"/>
     <mergeCell ref="DF5:EO5"/>
@@ -33352,301 +33756,6 @@
     <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="CT6:CV6"/>
     <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AGH5:AGP5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-abril 2022</t>
+    <t>Enero 1998-mayo 2022</t>
   </si>
 </sst>
 </file>
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGS27"/>
+  <dimension ref="A1:AGV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+      <selection pane="topRight" activeCell="AGU25" sqref="AGU25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2037,11 +2037,13 @@
     <col min="868" max="868" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
     <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
-    <col min="875" max="877" width="9.875" style="1" customWidth="1"/>
-    <col min="878" max="16384" width="11.375" style="1"/>
+    <col min="875" max="875" width="10.125" style="1" customWidth="1"/>
+    <col min="876" max="877" width="9.5" style="1" customWidth="1"/>
+    <col min="878" max="880" width="9.875" style="1" customWidth="1"/>
+    <col min="881" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
@@ -2049,7 +2051,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2057,7 +2059,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2065,8 +2067,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
@@ -2995,9 +2997,12 @@
       <c r="AGP5" s="25"/>
       <c r="AGQ5" s="25"/>
       <c r="AGR5" s="25"/>
-      <c r="AGS5" s="26"/>
+      <c r="AGS5" s="25"/>
+      <c r="AGT5" s="25"/>
+      <c r="AGU5" s="25"/>
+      <c r="AGV5" s="26"/>
     </row>
-    <row r="6" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
@@ -4459,8 +4464,13 @@
       </c>
       <c r="AGR6" s="25"/>
       <c r="AGS6" s="26"/>
+      <c r="AGT6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="AGU6" s="25"/>
+      <c r="AGV6" s="26"/>
     </row>
-    <row r="7" spans="1:877" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:880" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -7090,8 +7100,17 @@
       <c r="AGS7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGT7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGU7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGV7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9723,8 +9742,17 @@
       <c r="AGS8" s="23">
         <v>120707</v>
       </c>
+      <c r="AGT8" s="21">
+        <v>80425</v>
+      </c>
+      <c r="AGU8" s="22">
+        <v>36102</v>
+      </c>
+      <c r="AGV8" s="23">
+        <v>116527</v>
+      </c>
     </row>
-    <row r="9" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12356,8 +12384,17 @@
       <c r="AGS9" s="5">
         <v>389372</v>
       </c>
+      <c r="AGT9" s="3">
+        <v>226227</v>
+      </c>
+      <c r="AGU9" s="4">
+        <v>163930</v>
+      </c>
+      <c r="AGV9" s="5">
+        <v>390157</v>
+      </c>
     </row>
-    <row r="10" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -14989,8 +15026,17 @@
       <c r="AGS10" s="5">
         <v>137135</v>
       </c>
+      <c r="AGT10" s="3">
+        <v>118028</v>
+      </c>
+      <c r="AGU10" s="4">
+        <v>21434</v>
+      </c>
+      <c r="AGV10" s="5">
+        <v>139462</v>
+      </c>
     </row>
-    <row r="11" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17622,8 +17668,17 @@
       <c r="AGS11" s="5">
         <v>9540</v>
       </c>
+      <c r="AGT11" s="3">
+        <v>7254</v>
+      </c>
+      <c r="AGU11" s="4">
+        <v>2346</v>
+      </c>
+      <c r="AGV11" s="5">
+        <v>9600</v>
+      </c>
     </row>
-    <row r="12" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20255,8 +20310,17 @@
       <c r="AGS12" s="5">
         <v>494824</v>
       </c>
+      <c r="AGT12" s="3">
+        <v>295653</v>
+      </c>
+      <c r="AGU12" s="4">
+        <v>201029</v>
+      </c>
+      <c r="AGV12" s="5">
+        <v>496682</v>
+      </c>
     </row>
-    <row r="13" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -22888,8 +22952,17 @@
       <c r="AGS13" s="5">
         <v>2556</v>
       </c>
+      <c r="AGT13" s="3">
+        <v>2179</v>
+      </c>
+      <c r="AGU13" s="4">
+        <v>359</v>
+      </c>
+      <c r="AGV13" s="5">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="14" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25521,8 +25594,17 @@
       <c r="AGS14" s="5">
         <v>353514</v>
       </c>
+      <c r="AGT14" s="3">
+        <v>198985</v>
+      </c>
+      <c r="AGU14" s="4">
+        <v>156531</v>
+      </c>
+      <c r="AGV14" s="5">
+        <v>355516</v>
+      </c>
     </row>
-    <row r="15" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28154,8 +28236,17 @@
       <c r="AGS15" s="5">
         <v>276907</v>
       </c>
+      <c r="AGT15" s="3">
+        <v>124618</v>
+      </c>
+      <c r="AGU15" s="4">
+        <v>152476</v>
+      </c>
+      <c r="AGV15" s="5">
+        <v>277094</v>
+      </c>
     </row>
-    <row r="16" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30787,8 +30878,17 @@
       <c r="AGS16" s="5">
         <v>100160</v>
       </c>
+      <c r="AGT16" s="3">
+        <v>75894</v>
+      </c>
+      <c r="AGU16" s="4">
+        <v>24762</v>
+      </c>
+      <c r="AGV16" s="5">
+        <v>100656</v>
+      </c>
     </row>
-    <row r="17" spans="1:877" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33420,8 +33520,17 @@
       <c r="AGS17" s="16">
         <v>1884715</v>
       </c>
+      <c r="AGT17" s="14">
+        <v>1129263</v>
+      </c>
+      <c r="AGU17" s="15">
+        <v>758969</v>
+      </c>
+      <c r="AGV17" s="16">
+        <v>1888232</v>
+      </c>
     </row>
-    <row r="19" spans="1:877" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:880" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33431,14 +33540,14 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:877" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:880" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="321">
     <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGH5:AGS5"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGH5:AGV5"/>
     <mergeCell ref="AFY6:AGA6"/>
     <mergeCell ref="AFS6:AFU6"/>
     <mergeCell ref="AFP6:AFR6"/>
@@ -33690,18 +33799,6 @@
     <mergeCell ref="FQ6:FS6"/>
     <mergeCell ref="FT6:FV6"/>
     <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AO6:AQ6"/>
@@ -33715,8 +33812,6 @@
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="BV6:BX6"/>
     <mergeCell ref="BY6:CA6"/>
@@ -33732,14 +33827,6 @@
     <mergeCell ref="BS6:BU6"/>
     <mergeCell ref="BV5:DE5"/>
     <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
@@ -33749,13 +33836,36 @@
     <mergeCell ref="DF6:DH6"/>
     <mergeCell ref="DI6:DK6"/>
     <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
     <mergeCell ref="CN6:CP6"/>
     <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="CT6:CV6"/>
     <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-mayo 2022</t>
+    <t>Enero 1998-junio 2022</t>
   </si>
 </sst>
 </file>
@@ -901,24 +901,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGV27"/>
+  <dimension ref="A1:AGY27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGU25" sqref="AGU25"/>
+      <selection pane="topRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2038,20 +2038,20 @@
     <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
     <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
     <col min="875" max="875" width="10.125" style="1" customWidth="1"/>
-    <col min="876" max="877" width="9.5" style="1" customWidth="1"/>
-    <col min="878" max="880" width="9.875" style="1" customWidth="1"/>
-    <col min="881" max="16384" width="11.375" style="1"/>
+    <col min="876" max="880" width="9.5" style="1" customWidth="1"/>
+    <col min="881" max="883" width="9.875" style="1" customWidth="1"/>
+    <col min="884" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2067,9 +2067,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2946,44 +2946,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3000,10 +3000,13 @@
       <c r="AGS5" s="25"/>
       <c r="AGT5" s="25"/>
       <c r="AGU5" s="25"/>
-      <c r="AGV5" s="26"/>
+      <c r="AGV5" s="25"/>
+      <c r="AGW5" s="25"/>
+      <c r="AGX5" s="25"/>
+      <c r="AGY5" s="26"/>
     </row>
-    <row r="6" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3114,21 +3117,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3239,11 +3242,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3459,31 +3462,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3699,31 +3702,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4469,9 +4472,14 @@
       </c>
       <c r="AGU6" s="25"/>
       <c r="AGV6" s="26"/>
+      <c r="AGW6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AGX6" s="25"/>
+      <c r="AGY6" s="26"/>
     </row>
-    <row r="7" spans="1:880" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:883" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7109,8 +7117,17 @@
       <c r="AGV7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGW7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AGX7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AGY7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9751,8 +9768,17 @@
       <c r="AGV8" s="23">
         <v>116527</v>
       </c>
+      <c r="AGW8" s="21">
+        <v>78900</v>
+      </c>
+      <c r="AGX8" s="22">
+        <v>35865</v>
+      </c>
+      <c r="AGY8" s="23">
+        <v>114765</v>
+      </c>
     </row>
-    <row r="9" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12393,8 +12419,17 @@
       <c r="AGV9" s="5">
         <v>390157</v>
       </c>
+      <c r="AGW9" s="3">
+        <v>226884</v>
+      </c>
+      <c r="AGX9" s="4">
+        <v>166359</v>
+      </c>
+      <c r="AGY9" s="5">
+        <v>393243</v>
+      </c>
     </row>
-    <row r="10" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15035,8 +15070,17 @@
       <c r="AGV10" s="5">
         <v>139462</v>
       </c>
+      <c r="AGW10" s="3">
+        <v>118987</v>
+      </c>
+      <c r="AGX10" s="4">
+        <v>21600</v>
+      </c>
+      <c r="AGY10" s="5">
+        <v>140587</v>
+      </c>
     </row>
-    <row r="11" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17677,8 +17721,17 @@
       <c r="AGV11" s="5">
         <v>9600</v>
       </c>
+      <c r="AGW11" s="3">
+        <v>7347</v>
+      </c>
+      <c r="AGX11" s="4">
+        <v>2391</v>
+      </c>
+      <c r="AGY11" s="5">
+        <v>9738</v>
+      </c>
     </row>
-    <row r="12" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20319,8 +20372,17 @@
       <c r="AGV12" s="5">
         <v>496682</v>
       </c>
+      <c r="AGW12" s="3">
+        <v>296354</v>
+      </c>
+      <c r="AGX12" s="4">
+        <v>203187</v>
+      </c>
+      <c r="AGY12" s="5">
+        <v>499541</v>
+      </c>
     </row>
-    <row r="13" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -22961,8 +23023,17 @@
       <c r="AGV13" s="5">
         <v>2538</v>
       </c>
+      <c r="AGW13" s="3">
+        <v>2172</v>
+      </c>
+      <c r="AGX13" s="4">
+        <v>366</v>
+      </c>
+      <c r="AGY13" s="5">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="14" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25603,8 +25674,17 @@
       <c r="AGV14" s="5">
         <v>355516</v>
       </c>
+      <c r="AGW14" s="3">
+        <v>200151</v>
+      </c>
+      <c r="AGX14" s="4">
+        <v>157650</v>
+      </c>
+      <c r="AGY14" s="5">
+        <v>357801</v>
+      </c>
     </row>
-    <row r="15" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28245,8 +28325,17 @@
       <c r="AGV15" s="5">
         <v>277094</v>
       </c>
+      <c r="AGW15" s="3">
+        <v>124482</v>
+      </c>
+      <c r="AGX15" s="4">
+        <v>152481</v>
+      </c>
+      <c r="AGY15" s="5">
+        <v>276963</v>
+      </c>
     </row>
-    <row r="16" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30887,8 +30976,17 @@
       <c r="AGV16" s="5">
         <v>100656</v>
       </c>
+      <c r="AGW16" s="3">
+        <v>76505</v>
+      </c>
+      <c r="AGX16" s="4">
+        <v>25074</v>
+      </c>
+      <c r="AGY16" s="5">
+        <v>101579</v>
+      </c>
     </row>
-    <row r="17" spans="1:880" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33529,8 +33627,17 @@
       <c r="AGV17" s="16">
         <v>1888232</v>
       </c>
+      <c r="AGW17" s="14">
+        <v>1131782</v>
+      </c>
+      <c r="AGX17" s="15">
+        <v>764973</v>
+      </c>
+      <c r="AGY17" s="16">
+        <v>1896755</v>
+      </c>
     </row>
-    <row r="19" spans="1:880" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:883" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33540,35 +33647,285 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:880" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:883" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="321">
-    <mergeCell ref="AGN6:AGP6"/>
+  <mergeCells count="322">
     <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGH5:AGV5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
     <mergeCell ref="LN5:MW5"/>
     <mergeCell ref="MX5:OG5"/>
     <mergeCell ref="B5:AK5"/>
@@ -33593,279 +33950,30 @@
     <mergeCell ref="ABL6:ABN6"/>
     <mergeCell ref="ABO6:ABQ6"/>
     <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGH5:AGY5"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-junio 2022</t>
+    <t>Enero 1998-julio 2022</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AGY27"/>
+  <dimension ref="A1:AHB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L31" sqref="L31"/>
+      <selection pane="topRight" activeCell="AGZ21" sqref="AGZ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2038,20 +2038,20 @@
     <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
     <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
     <col min="875" max="875" width="10.125" style="1" customWidth="1"/>
-    <col min="876" max="880" width="9.5" style="1" customWidth="1"/>
-    <col min="881" max="883" width="9.875" style="1" customWidth="1"/>
-    <col min="884" max="16384" width="11.375" style="1"/>
+    <col min="876" max="883" width="9.5" style="1" customWidth="1"/>
+    <col min="884" max="886" width="9.875" style="1" customWidth="1"/>
+    <col min="887" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2067,9 +2067,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2946,44 +2946,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3003,10 +3003,13 @@
       <c r="AGV5" s="25"/>
       <c r="AGW5" s="25"/>
       <c r="AGX5" s="25"/>
-      <c r="AGY5" s="26"/>
+      <c r="AGY5" s="25"/>
+      <c r="AGZ5" s="25"/>
+      <c r="AHA5" s="25"/>
+      <c r="AHB5" s="26"/>
     </row>
-    <row r="6" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3117,21 +3120,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3182,11 +3185,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3242,11 +3245,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3462,31 +3465,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3702,31 +3705,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4477,9 +4480,14 @@
       </c>
       <c r="AGX6" s="25"/>
       <c r="AGY6" s="26"/>
+      <c r="AGZ6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="AHA6" s="25"/>
+      <c r="AHB6" s="26"/>
     </row>
-    <row r="7" spans="1:883" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:886" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7126,8 +7134,17 @@
       <c r="AGY7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AGZ7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHA7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHB7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9777,8 +9794,17 @@
       <c r="AGY8" s="23">
         <v>114765</v>
       </c>
+      <c r="AGZ8" s="21">
+        <v>77487</v>
+      </c>
+      <c r="AHA8" s="22">
+        <v>35378</v>
+      </c>
+      <c r="AHB8" s="23">
+        <v>112865</v>
+      </c>
     </row>
-    <row r="9" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12428,8 +12454,17 @@
       <c r="AGY9" s="5">
         <v>393243</v>
       </c>
+      <c r="AGZ9" s="3">
+        <v>227267</v>
+      </c>
+      <c r="AHA9" s="4">
+        <v>165314</v>
+      </c>
+      <c r="AHB9" s="5">
+        <v>392581</v>
+      </c>
     </row>
-    <row r="10" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15079,8 +15114,17 @@
       <c r="AGY10" s="5">
         <v>140587</v>
       </c>
+      <c r="AGZ10" s="3">
+        <v>120402</v>
+      </c>
+      <c r="AHA10" s="4">
+        <v>21940</v>
+      </c>
+      <c r="AHB10" s="5">
+        <v>142342</v>
+      </c>
     </row>
-    <row r="11" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17730,8 +17774,17 @@
       <c r="AGY11" s="5">
         <v>9738</v>
       </c>
+      <c r="AGZ11" s="3">
+        <v>7283</v>
+      </c>
+      <c r="AHA11" s="4">
+        <v>2399</v>
+      </c>
+      <c r="AHB11" s="5">
+        <v>9682</v>
+      </c>
     </row>
-    <row r="12" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20381,8 +20434,17 @@
       <c r="AGY12" s="5">
         <v>499541</v>
       </c>
+      <c r="AGZ12" s="3">
+        <v>297265</v>
+      </c>
+      <c r="AHA12" s="4">
+        <v>205084</v>
+      </c>
+      <c r="AHB12" s="5">
+        <v>502349</v>
+      </c>
     </row>
-    <row r="13" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23032,8 +23094,17 @@
       <c r="AGY13" s="5">
         <v>2538</v>
       </c>
+      <c r="AGZ13" s="3">
+        <v>2109</v>
+      </c>
+      <c r="AHA13" s="4">
+        <v>356</v>
+      </c>
+      <c r="AHB13" s="5">
+        <v>2465</v>
+      </c>
     </row>
-    <row r="14" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25683,8 +25754,17 @@
       <c r="AGY14" s="5">
         <v>357801</v>
       </c>
+      <c r="AGZ14" s="3">
+        <v>200303</v>
+      </c>
+      <c r="AHA14" s="4">
+        <v>158893</v>
+      </c>
+      <c r="AHB14" s="5">
+        <v>359196</v>
+      </c>
     </row>
-    <row r="15" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28334,8 +28414,17 @@
       <c r="AGY15" s="5">
         <v>276963</v>
       </c>
+      <c r="AGZ15" s="3">
+        <v>123111</v>
+      </c>
+      <c r="AHA15" s="4">
+        <v>150541</v>
+      </c>
+      <c r="AHB15" s="5">
+        <v>273652</v>
+      </c>
     </row>
-    <row r="16" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -30985,8 +31074,17 @@
       <c r="AGY16" s="5">
         <v>101579</v>
       </c>
+      <c r="AGZ16" s="3">
+        <v>76286</v>
+      </c>
+      <c r="AHA16" s="4">
+        <v>25099</v>
+      </c>
+      <c r="AHB16" s="5">
+        <v>101385</v>
+      </c>
     </row>
-    <row r="17" spans="1:883" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33636,8 +33734,17 @@
       <c r="AGY17" s="16">
         <v>1896755</v>
       </c>
+      <c r="AGZ17" s="14">
+        <v>1131513</v>
+      </c>
+      <c r="AHA17" s="15">
+        <v>765004</v>
+      </c>
+      <c r="AHB17" s="16">
+        <v>1896517</v>
+      </c>
     </row>
-    <row r="19" spans="1:883" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:886" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33647,11 +33754,310 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:883" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:886" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="323">
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGH5:AHB5"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
     <mergeCell ref="AGT6:AGV6"/>
     <mergeCell ref="AGQ6:AGS6"/>
     <mergeCell ref="AGK6:AGM6"/>
@@ -33676,304 +34082,6 @@
     <mergeCell ref="EM6:EO6"/>
     <mergeCell ref="EV6:EX6"/>
     <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGH5:AGY5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-julio 2022</t>
+    <t>Enero 1998-agosto 2022</t>
   </si>
 </sst>
 </file>
@@ -901,24 +901,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHB27"/>
+  <dimension ref="A1:AHE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AGZ21" sqref="AGZ21"/>
+      <selection pane="topRight" activeCell="AHD23" sqref="AHD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2038,20 +2038,20 @@
     <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
     <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
     <col min="875" max="875" width="10.125" style="1" customWidth="1"/>
-    <col min="876" max="883" width="9.5" style="1" customWidth="1"/>
-    <col min="884" max="886" width="9.875" style="1" customWidth="1"/>
-    <col min="887" max="16384" width="11.375" style="1"/>
+    <col min="876" max="886" width="9.5" style="1" customWidth="1"/>
+    <col min="887" max="889" width="9.875" style="1" customWidth="1"/>
+    <col min="890" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2067,9 +2067,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2946,44 +2946,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3006,10 +3006,13 @@
       <c r="AGY5" s="25"/>
       <c r="AGZ5" s="25"/>
       <c r="AHA5" s="25"/>
-      <c r="AHB5" s="26"/>
+      <c r="AHB5" s="25"/>
+      <c r="AHC5" s="25"/>
+      <c r="AHD5" s="25"/>
+      <c r="AHE5" s="26"/>
     </row>
-    <row r="6" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3120,21 +3123,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3465,31 +3468,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3705,31 +3708,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4485,9 +4488,14 @@
       </c>
       <c r="AHA6" s="25"/>
       <c r="AHB6" s="26"/>
+      <c r="AHC6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="AHD6" s="25"/>
+      <c r="AHE6" s="26"/>
     </row>
-    <row r="7" spans="1:886" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:889" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7134,17 +7142,26 @@
       <c r="AGY7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AGZ7" s="8" t="s">
+      <c r="AGZ7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="AHA7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AHB7" s="10" t="s">
+      <c r="AHB7" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="AHC7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHD7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHE7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9794,17 +9811,26 @@
       <c r="AGY8" s="23">
         <v>114765</v>
       </c>
-      <c r="AGZ8" s="21">
+      <c r="AGZ8" s="22">
         <v>77487</v>
       </c>
       <c r="AHA8" s="22">
         <v>35378</v>
       </c>
-      <c r="AHB8" s="23">
+      <c r="AHB8" s="22">
         <v>112865</v>
       </c>
+      <c r="AHC8" s="21">
+        <v>78960</v>
+      </c>
+      <c r="AHD8" s="22">
+        <v>36259</v>
+      </c>
+      <c r="AHE8" s="23">
+        <v>115219</v>
+      </c>
     </row>
-    <row r="9" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12454,17 +12480,26 @@
       <c r="AGY9" s="5">
         <v>393243</v>
       </c>
-      <c r="AGZ9" s="3">
+      <c r="AGZ9" s="4">
         <v>227267</v>
       </c>
       <c r="AHA9" s="4">
         <v>165314</v>
       </c>
-      <c r="AHB9" s="5">
+      <c r="AHB9" s="4">
         <v>392581</v>
       </c>
+      <c r="AHC9" s="3">
+        <v>227807</v>
+      </c>
+      <c r="AHD9" s="4">
+        <v>166653</v>
+      </c>
+      <c r="AHE9" s="5">
+        <v>394460</v>
+      </c>
     </row>
-    <row r="10" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15114,17 +15149,26 @@
       <c r="AGY10" s="5">
         <v>140587</v>
       </c>
-      <c r="AGZ10" s="3">
+      <c r="AGZ10" s="4">
         <v>120402</v>
       </c>
       <c r="AHA10" s="4">
         <v>21940</v>
       </c>
-      <c r="AHB10" s="5">
+      <c r="AHB10" s="4">
         <v>142342</v>
       </c>
+      <c r="AHC10" s="3">
+        <v>122364</v>
+      </c>
+      <c r="AHD10" s="4">
+        <v>22277</v>
+      </c>
+      <c r="AHE10" s="5">
+        <v>144641</v>
+      </c>
     </row>
-    <row r="11" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17774,17 +17818,26 @@
       <c r="AGY11" s="5">
         <v>9738</v>
       </c>
-      <c r="AGZ11" s="3">
+      <c r="AGZ11" s="4">
         <v>7283</v>
       </c>
       <c r="AHA11" s="4">
         <v>2399</v>
       </c>
-      <c r="AHB11" s="5">
+      <c r="AHB11" s="4">
         <v>9682</v>
       </c>
+      <c r="AHC11" s="3">
+        <v>7375</v>
+      </c>
+      <c r="AHD11" s="4">
+        <v>2388</v>
+      </c>
+      <c r="AHE11" s="5">
+        <v>9763</v>
+      </c>
     </row>
-    <row r="12" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20434,17 +20487,26 @@
       <c r="AGY12" s="5">
         <v>499541</v>
       </c>
-      <c r="AGZ12" s="3">
+      <c r="AGZ12" s="4">
         <v>297265</v>
       </c>
       <c r="AHA12" s="4">
         <v>205084</v>
       </c>
-      <c r="AHB12" s="5">
+      <c r="AHB12" s="4">
         <v>502349</v>
       </c>
+      <c r="AHC12" s="3">
+        <v>298287</v>
+      </c>
+      <c r="AHD12" s="4">
+        <v>207310</v>
+      </c>
+      <c r="AHE12" s="5">
+        <v>505597</v>
+      </c>
     </row>
-    <row r="13" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23094,17 +23156,26 @@
       <c r="AGY13" s="5">
         <v>2538</v>
       </c>
-      <c r="AGZ13" s="3">
+      <c r="AGZ13" s="4">
         <v>2109</v>
       </c>
       <c r="AHA13" s="4">
         <v>356</v>
       </c>
-      <c r="AHB13" s="5">
+      <c r="AHB13" s="4">
         <v>2465</v>
       </c>
+      <c r="AHC13" s="3">
+        <v>2115</v>
+      </c>
+      <c r="AHD13" s="4">
+        <v>362</v>
+      </c>
+      <c r="AHE13" s="5">
+        <v>2477</v>
+      </c>
     </row>
-    <row r="14" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25754,17 +25825,26 @@
       <c r="AGY14" s="5">
         <v>357801</v>
       </c>
-      <c r="AGZ14" s="3">
+      <c r="AGZ14" s="4">
         <v>200303</v>
       </c>
       <c r="AHA14" s="4">
         <v>158893</v>
       </c>
-      <c r="AHB14" s="5">
+      <c r="AHB14" s="4">
         <v>359196</v>
       </c>
+      <c r="AHC14" s="3">
+        <v>201051</v>
+      </c>
+      <c r="AHD14" s="4">
+        <v>159439</v>
+      </c>
+      <c r="AHE14" s="5">
+        <v>360490</v>
+      </c>
     </row>
-    <row r="15" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28414,17 +28494,26 @@
       <c r="AGY15" s="5">
         <v>276963</v>
       </c>
-      <c r="AGZ15" s="3">
+      <c r="AGZ15" s="4">
         <v>123111</v>
       </c>
       <c r="AHA15" s="4">
         <v>150541</v>
       </c>
-      <c r="AHB15" s="5">
+      <c r="AHB15" s="4">
         <v>273652</v>
       </c>
+      <c r="AHC15" s="3">
+        <v>124175</v>
+      </c>
+      <c r="AHD15" s="4">
+        <v>152197</v>
+      </c>
+      <c r="AHE15" s="5">
+        <v>276372</v>
+      </c>
     </row>
-    <row r="16" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31074,17 +31163,26 @@
       <c r="AGY16" s="5">
         <v>101579</v>
       </c>
-      <c r="AGZ16" s="3">
+      <c r="AGZ16" s="4">
         <v>76286</v>
       </c>
       <c r="AHA16" s="4">
         <v>25099</v>
       </c>
-      <c r="AHB16" s="5">
+      <c r="AHB16" s="4">
         <v>101385</v>
       </c>
+      <c r="AHC16" s="3">
+        <v>76191</v>
+      </c>
+      <c r="AHD16" s="4">
+        <v>25417</v>
+      </c>
+      <c r="AHE16" s="5">
+        <v>101608</v>
+      </c>
     </row>
-    <row r="17" spans="1:886" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33734,17 +33832,26 @@
       <c r="AGY17" s="16">
         <v>1896755</v>
       </c>
-      <c r="AGZ17" s="14">
+      <c r="AGZ17" s="15">
         <v>1131513</v>
       </c>
       <c r="AHA17" s="15">
         <v>765004</v>
       </c>
-      <c r="AHB17" s="16">
+      <c r="AHB17" s="15">
         <v>1896517</v>
       </c>
+      <c r="AHC17" s="14">
+        <v>1138325</v>
+      </c>
+      <c r="AHD17" s="15">
+        <v>772302</v>
+      </c>
+      <c r="AHE17" s="16">
+        <v>1910627</v>
+      </c>
     </row>
-    <row r="19" spans="1:886" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:889" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33754,308 +33861,14 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:886" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:889" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="323">
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
+  <mergeCells count="324">
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
     <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="AGH5:AHB5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="CW6:CY6"/>
     <mergeCell ref="CZ6:DB6"/>
     <mergeCell ref="DC6:DE6"/>
     <mergeCell ref="AGT6:AGV6"/>
@@ -34080,8 +33893,303 @@
     <mergeCell ref="EG6:EI6"/>
     <mergeCell ref="EJ6:EL6"/>
     <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AGH5:AHE5"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-agosto 2022</t>
+    <t>Enero 1998-septiembre 2022</t>
   </si>
 </sst>
 </file>
@@ -1250,800 +1250,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHE27"/>
+  <dimension ref="A1:AHH27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHD23" sqref="AHD23"/>
+      <pane xSplit="1" topLeftCell="AGN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHK32" sqref="AHK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="632" max="632" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="636" max="636" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="638" max="638" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="640" max="640" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="644" max="644" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="646" max="646" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="650" max="650" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="653" max="653" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="654" max="654" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="655" max="655" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="656" max="656" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="657" max="657" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="658" max="658" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="659" max="659" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="660" max="660" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="661" max="661" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="662" max="662" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="665" max="665" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="666" max="666" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="667" max="667" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="668" max="668" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="671" max="671" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="672" max="672" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="673" max="674" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="675" max="675" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="676" max="677" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="678" max="678" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="679" max="680" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="684" max="684" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="685" max="686" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="687" max="687" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="690" max="690" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="691" max="692" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="697" max="698" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="703" max="704" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="705" max="705" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="709" max="710" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="711" max="711" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="714" max="714" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="715" max="716" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="721" max="722" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="723" max="723" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="727" max="728" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="729" max="729" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="733" max="734" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="739" max="740" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="745" max="746" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="751" max="752" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="753" max="753" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="757" max="758" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="759" max="759" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="763" max="764" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="769" max="770" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="782" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="787" max="788" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="790" max="791" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="793" max="794" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="799" max="800" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="801" max="801" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="804" max="804" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="805" max="806" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="811" max="812" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="816" max="816" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="817" max="818" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="822" max="822" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="823" max="824" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="825" max="825" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="829" max="830" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="834" max="834" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="835" max="836" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="837" max="837" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="841" max="842" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="843" max="843" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="846" max="846" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="847" max="848" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="849" max="849" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="853" max="854" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="855" max="855" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="858" max="858" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="859" max="860" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="861" max="861" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="864" max="864" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="865" max="866" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="867" max="867" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="868" max="868" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="869" max="871" width="9.125" style="1" customWidth="1"/>
-    <col min="872" max="874" width="9.5" style="1" customWidth="1"/>
-    <col min="875" max="875" width="10.125" style="1" customWidth="1"/>
-    <col min="876" max="886" width="9.5" style="1" customWidth="1"/>
-    <col min="887" max="889" width="9.875" style="1" customWidth="1"/>
-    <col min="890" max="16384" width="11.375" style="1"/>
+    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="673" max="674" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="676" max="677" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="680" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="686" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="692" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="697" max="698" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="704" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="709" max="710" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="715" max="716" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="721" max="722" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="727" max="728" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="733" max="734" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="739" max="740" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="751" max="752" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="757" max="758" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="763" max="764" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="769" max="770" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="782" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="787" max="788" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="790" max="791" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="799" max="800" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="805" max="806" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="811" max="812" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="817" max="818" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="823" max="824" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="829" max="830" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="835" max="836" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="841" max="842" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="847" max="848" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="853" max="854" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="859" max="860" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="861" max="861" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="864" max="864" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="865" max="866" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="867" max="867" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="868" max="869" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="870" max="870" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="871" max="872" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="873" max="873" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="874" max="875" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="876" max="876" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="877" max="878" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="879" max="879" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="880" max="881" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="882" max="882" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="883" max="884" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="885" max="885" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="886" max="887" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="888" max="888" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="889" max="890" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="891" max="891" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="892" max="892" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="893" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
@@ -2051,7 +2062,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2059,7 +2070,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2067,8 +2078,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
@@ -3009,9 +3020,12 @@
       <c r="AHB5" s="25"/>
       <c r="AHC5" s="25"/>
       <c r="AHD5" s="25"/>
-      <c r="AHE5" s="26"/>
+      <c r="AHE5" s="25"/>
+      <c r="AHF5" s="25"/>
+      <c r="AHG5" s="25"/>
+      <c r="AHH5" s="26"/>
     </row>
-    <row r="6" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
@@ -4493,8 +4507,13 @@
       </c>
       <c r="AHD6" s="25"/>
       <c r="AHE6" s="26"/>
+      <c r="AHF6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AHG6" s="25"/>
+      <c r="AHH6" s="26"/>
     </row>
-    <row r="7" spans="1:889" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:892" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -7160,8 +7179,17 @@
       <c r="AHE7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHF7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHG7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHH7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9829,8 +9857,17 @@
       <c r="AHE8" s="23">
         <v>115219</v>
       </c>
+      <c r="AHF8" s="21">
+        <v>81822</v>
+      </c>
+      <c r="AHG8" s="22">
+        <v>37267</v>
+      </c>
+      <c r="AHH8" s="23">
+        <v>119089</v>
+      </c>
     </row>
-    <row r="9" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12498,8 +12535,17 @@
       <c r="AHE9" s="5">
         <v>394460</v>
       </c>
+      <c r="AHF9" s="3">
+        <v>228881</v>
+      </c>
+      <c r="AHG9" s="4">
+        <v>168131</v>
+      </c>
+      <c r="AHH9" s="5">
+        <v>397012</v>
+      </c>
     </row>
-    <row r="10" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15167,8 +15213,17 @@
       <c r="AHE10" s="5">
         <v>144641</v>
       </c>
+      <c r="AHF10" s="3">
+        <v>122570</v>
+      </c>
+      <c r="AHG10" s="4">
+        <v>22593</v>
+      </c>
+      <c r="AHH10" s="5">
+        <v>145163</v>
+      </c>
     </row>
-    <row r="11" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17836,8 +17891,17 @@
       <c r="AHE11" s="5">
         <v>9763</v>
       </c>
+      <c r="AHF11" s="3">
+        <v>7320</v>
+      </c>
+      <c r="AHG11" s="4">
+        <v>2366</v>
+      </c>
+      <c r="AHH11" s="5">
+        <v>9686</v>
+      </c>
     </row>
-    <row r="12" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20505,8 +20569,17 @@
       <c r="AHE12" s="5">
         <v>505597</v>
       </c>
+      <c r="AHF12" s="3">
+        <v>300039</v>
+      </c>
+      <c r="AHG12" s="4">
+        <v>209835</v>
+      </c>
+      <c r="AHH12" s="5">
+        <v>509874</v>
+      </c>
     </row>
-    <row r="13" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23174,8 +23247,17 @@
       <c r="AHE13" s="5">
         <v>2477</v>
       </c>
+      <c r="AHF13" s="3">
+        <v>2156</v>
+      </c>
+      <c r="AHG13" s="4">
+        <v>362</v>
+      </c>
+      <c r="AHH13" s="5">
+        <v>2518</v>
+      </c>
     </row>
-    <row r="14" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25843,8 +25925,17 @@
       <c r="AHE14" s="5">
         <v>360490</v>
       </c>
+      <c r="AHF14" s="3">
+        <v>201651</v>
+      </c>
+      <c r="AHG14" s="4">
+        <v>159908</v>
+      </c>
+      <c r="AHH14" s="5">
+        <v>361559</v>
+      </c>
     </row>
-    <row r="15" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28512,8 +28603,17 @@
       <c r="AHE15" s="5">
         <v>276372</v>
       </c>
+      <c r="AHF15" s="3">
+        <v>124952</v>
+      </c>
+      <c r="AHG15" s="4">
+        <v>153746</v>
+      </c>
+      <c r="AHH15" s="5">
+        <v>278698</v>
+      </c>
     </row>
-    <row r="16" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31181,8 +31281,17 @@
       <c r="AHE16" s="5">
         <v>101608</v>
       </c>
+      <c r="AHF16" s="3">
+        <v>77683</v>
+      </c>
+      <c r="AHG16" s="4">
+        <v>26365</v>
+      </c>
+      <c r="AHH16" s="5">
+        <v>104048</v>
+      </c>
     </row>
-    <row r="17" spans="1:889" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33850,8 +33959,17 @@
       <c r="AHE17" s="16">
         <v>1910627</v>
       </c>
+      <c r="AHF17" s="14">
+        <v>1147074</v>
+      </c>
+      <c r="AHG17" s="15">
+        <v>780573</v>
+      </c>
+      <c r="AHH17" s="16">
+        <v>1927647</v>
+      </c>
     </row>
-    <row r="19" spans="1:889" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:892" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33861,20 +33979,17 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:889" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:892" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="324">
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
+  <mergeCells count="325">
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
     <mergeCell ref="DF5:EO5"/>
     <mergeCell ref="EP5:FY5"/>
     <mergeCell ref="AGB6:AGD6"/>
@@ -33893,6 +34008,12 @@
     <mergeCell ref="EG6:EI6"/>
     <mergeCell ref="EJ6:EL6"/>
     <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="BV6:BX6"/>
     <mergeCell ref="BY6:CA6"/>
@@ -33917,12 +34038,6 @@
     <mergeCell ref="CN6:CP6"/>
     <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="AL6:AN6"/>
     <mergeCell ref="AO6:AQ6"/>
@@ -33936,10 +34051,6 @@
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
     <mergeCell ref="CW6:CY6"/>
     <mergeCell ref="GR6:GT6"/>
     <mergeCell ref="GU6:GW6"/>
@@ -33953,17 +34064,20 @@
     <mergeCell ref="GI6:GK6"/>
     <mergeCell ref="GL6:GN6"/>
     <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
     <mergeCell ref="HY6:IA6"/>
     <mergeCell ref="JL6:JN6"/>
     <mergeCell ref="JO6:JQ6"/>
@@ -33977,147 +34091,143 @@
     <mergeCell ref="JC6:JE6"/>
     <mergeCell ref="JF6:JH6"/>
     <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
     <mergeCell ref="KV6:KX6"/>
     <mergeCell ref="KY6:LA6"/>
     <mergeCell ref="LB6:LD6"/>
     <mergeCell ref="LE6:LG6"/>
     <mergeCell ref="LH6:LJ6"/>
     <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
     <mergeCell ref="MF6:MH6"/>
     <mergeCell ref="MI6:MK6"/>
     <mergeCell ref="ML6:MN6"/>
     <mergeCell ref="MO6:MQ6"/>
     <mergeCell ref="MR6:MT6"/>
     <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
     <mergeCell ref="NP6:NR6"/>
     <mergeCell ref="NS6:NU6"/>
     <mergeCell ref="NV6:NX6"/>
     <mergeCell ref="NY6:OA6"/>
     <mergeCell ref="OB6:OD6"/>
     <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
     <mergeCell ref="OZ6:PB6"/>
     <mergeCell ref="PC6:PE6"/>
     <mergeCell ref="PF6:PH6"/>
     <mergeCell ref="PI6:PK6"/>
     <mergeCell ref="PL6:PN6"/>
     <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
     <mergeCell ref="QJ6:QL6"/>
     <mergeCell ref="QM6:QO6"/>
     <mergeCell ref="QP6:QR6"/>
     <mergeCell ref="QS6:QU6"/>
     <mergeCell ref="QV6:QX6"/>
     <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
     <mergeCell ref="RT6:RV6"/>
     <mergeCell ref="RW6:RY6"/>
     <mergeCell ref="RZ6:SB6"/>
     <mergeCell ref="SC6:SE6"/>
     <mergeCell ref="SF6:SH6"/>
     <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
     <mergeCell ref="TD6:TF6"/>
     <mergeCell ref="TG6:TI6"/>
     <mergeCell ref="TJ6:TL6"/>
     <mergeCell ref="TM6:TO6"/>
     <mergeCell ref="TP6:TR6"/>
     <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
     <mergeCell ref="UN6:UP6"/>
     <mergeCell ref="UQ6:US6"/>
     <mergeCell ref="UT6:UV6"/>
     <mergeCell ref="UW6:UY6"/>
     <mergeCell ref="UZ6:VB6"/>
     <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
     <mergeCell ref="VX6:VZ6"/>
     <mergeCell ref="WA6:WC6"/>
     <mergeCell ref="WD6:WF6"/>
     <mergeCell ref="WG6:WI6"/>
     <mergeCell ref="WJ6:WL6"/>
     <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
     <mergeCell ref="XH6:XJ6"/>
     <mergeCell ref="XK6:XM6"/>
     <mergeCell ref="XN6:XP6"/>
     <mergeCell ref="XQ6:XS6"/>
     <mergeCell ref="XT6:XV6"/>
     <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
     <mergeCell ref="YR6:YT6"/>
     <mergeCell ref="YU6:YW6"/>
     <mergeCell ref="YX6:YZ6"/>
     <mergeCell ref="ZA6:ZC6"/>
     <mergeCell ref="ZD6:ZF6"/>
     <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
     <mergeCell ref="AEX6:AEZ6"/>
     <mergeCell ref="AFA6:AFC6"/>
     <mergeCell ref="AFD6:AFF6"/>
@@ -34129,6 +34239,9 @@
     <mergeCell ref="AEO6:AEQ6"/>
     <mergeCell ref="AER6:AET6"/>
     <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
     <mergeCell ref="AEC6:AEE6"/>
     <mergeCell ref="ACV6:ACX6"/>
     <mergeCell ref="ACY6:ADA6"/>
@@ -34142,14 +34255,9 @@
     <mergeCell ref="ACM6:ACO6"/>
     <mergeCell ref="ACP6:ACR6"/>
     <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
     <mergeCell ref="ADZ6:AEB6"/>
     <mergeCell ref="ABL6:ABN6"/>
     <mergeCell ref="ABO6:ABQ6"/>
@@ -34163,17 +34271,6 @@
     <mergeCell ref="ABC6:ABE6"/>
     <mergeCell ref="ABF6:ABH6"/>
     <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AHC6:AHE6"/>
-    <mergeCell ref="AGH5:AHE5"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="WP5:XY5"/>
     <mergeCell ref="XZ5:ZI5"/>
@@ -34190,6 +34287,28 @@
     <mergeCell ref="FZ5:HI5"/>
     <mergeCell ref="HJ5:IS5"/>
     <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGH5:AHH5"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-septiembre 2022</t>
+    <t>Enero 1998-octubre 2022</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHH27"/>
+  <dimension ref="A1:AHK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AGN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHK32" sqref="AHK32"/>
+      <pane xSplit="1" topLeftCell="AGT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHM20" sqref="AHL19:AHM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2050,19 +2050,21 @@
     <col min="888" max="888" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="889" max="890" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="891" max="891" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="892" max="892" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="893" max="16384" width="11.375" style="1"/>
+    <col min="892" max="893" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="894" max="894" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="895" max="895" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="896" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2070,7 +2072,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2078,9 +2080,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2957,44 +2959,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3023,10 +3025,13 @@
       <c r="AHE5" s="25"/>
       <c r="AHF5" s="25"/>
       <c r="AHG5" s="25"/>
-      <c r="AHH5" s="26"/>
+      <c r="AHH5" s="25"/>
+      <c r="AHI5" s="25"/>
+      <c r="AHJ5" s="25"/>
+      <c r="AHK5" s="26"/>
     </row>
-    <row r="6" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3137,21 +3142,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3202,11 +3207,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3262,11 +3267,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3482,31 +3487,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3722,31 +3727,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4512,9 +4517,14 @@
       </c>
       <c r="AHG6" s="25"/>
       <c r="AHH6" s="26"/>
+      <c r="AHI6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AHJ6" s="25"/>
+      <c r="AHK6" s="26"/>
     </row>
-    <row r="7" spans="1:892" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:895" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7188,8 +7198,17 @@
       <c r="AHH7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHI7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHJ7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHK7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9866,8 +9885,17 @@
       <c r="AHH8" s="23">
         <v>119089</v>
       </c>
+      <c r="AHI8" s="21">
+        <v>83263</v>
+      </c>
+      <c r="AHJ8" s="22">
+        <v>37992</v>
+      </c>
+      <c r="AHK8" s="23">
+        <v>121255</v>
+      </c>
     </row>
-    <row r="9" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12544,8 +12572,17 @@
       <c r="AHH9" s="5">
         <v>397012</v>
       </c>
+      <c r="AHI9" s="3">
+        <v>231215</v>
+      </c>
+      <c r="AHJ9" s="4">
+        <v>171653</v>
+      </c>
+      <c r="AHK9" s="5">
+        <v>402868</v>
+      </c>
     </row>
-    <row r="10" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15222,8 +15259,17 @@
       <c r="AHH10" s="5">
         <v>145163</v>
       </c>
+      <c r="AHI10" s="3">
+        <v>127424</v>
+      </c>
+      <c r="AHJ10" s="4">
+        <v>23157</v>
+      </c>
+      <c r="AHK10" s="5">
+        <v>150581</v>
+      </c>
     </row>
-    <row r="11" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17900,8 +17946,17 @@
       <c r="AHH11" s="5">
         <v>9686</v>
       </c>
+      <c r="AHI11" s="3">
+        <v>7346</v>
+      </c>
+      <c r="AHJ11" s="4">
+        <v>2399</v>
+      </c>
+      <c r="AHK11" s="5">
+        <v>9745</v>
+      </c>
     </row>
-    <row r="12" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20578,8 +20633,17 @@
       <c r="AHH12" s="5">
         <v>509874</v>
       </c>
+      <c r="AHI12" s="3">
+        <v>301833</v>
+      </c>
+      <c r="AHJ12" s="4">
+        <v>211901</v>
+      </c>
+      <c r="AHK12" s="5">
+        <v>513734</v>
+      </c>
     </row>
-    <row r="13" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23256,8 +23320,17 @@
       <c r="AHH13" s="5">
         <v>2518</v>
       </c>
+      <c r="AHI13" s="3">
+        <v>2140</v>
+      </c>
+      <c r="AHJ13" s="4">
+        <v>365</v>
+      </c>
+      <c r="AHK13" s="5">
+        <v>2505</v>
+      </c>
     </row>
-    <row r="14" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -25934,8 +26007,17 @@
       <c r="AHH14" s="5">
         <v>361559</v>
       </c>
+      <c r="AHI14" s="3">
+        <v>203469</v>
+      </c>
+      <c r="AHJ14" s="4">
+        <v>161439</v>
+      </c>
+      <c r="AHK14" s="5">
+        <v>364908</v>
+      </c>
     </row>
-    <row r="15" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28612,8 +28694,17 @@
       <c r="AHH15" s="5">
         <v>278698</v>
       </c>
+      <c r="AHI15" s="3">
+        <v>125488</v>
+      </c>
+      <c r="AHJ15" s="4">
+        <v>155013</v>
+      </c>
+      <c r="AHK15" s="5">
+        <v>280501</v>
+      </c>
     </row>
-    <row r="16" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31290,8 +31381,17 @@
       <c r="AHH16" s="5">
         <v>104048</v>
       </c>
+      <c r="AHI16" s="3">
+        <v>78263</v>
+      </c>
+      <c r="AHJ16" s="4">
+        <v>26581</v>
+      </c>
+      <c r="AHK16" s="5">
+        <v>104844</v>
+      </c>
     </row>
-    <row r="17" spans="1:892" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -33968,8 +34068,17 @@
       <c r="AHH17" s="16">
         <v>1927647</v>
       </c>
+      <c r="AHI17" s="14">
+        <v>1160441</v>
+      </c>
+      <c r="AHJ17" s="15">
+        <v>790500</v>
+      </c>
+      <c r="AHK17" s="16">
+        <v>1950941</v>
+      </c>
     </row>
-    <row r="19" spans="1:892" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:895" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -33979,41 +34088,265 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:892" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:895" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="325">
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
+  <mergeCells count="326">
+    <mergeCell ref="AHI6:AHK6"/>
+    <mergeCell ref="AGH5:AHK5"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="BV6:BX6"/>
     <mergeCell ref="BY6:CA6"/>
@@ -34038,44 +34371,40 @@
     <mergeCell ref="CN6:CP6"/>
     <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
     <mergeCell ref="KD6:KF6"/>
     <mergeCell ref="KG6:KI6"/>
     <mergeCell ref="KJ6:KL6"/>
     <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
     <mergeCell ref="KP6:KR6"/>
     <mergeCell ref="KS6:KU6"/>
     <mergeCell ref="HY6:IA6"/>
@@ -34090,225 +34419,6 @@
     <mergeCell ref="IZ6:JB6"/>
     <mergeCell ref="JC6:JE6"/>
     <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="AHF6:AHH6"/>
-    <mergeCell ref="AGH5:AHH5"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AHC6:AHE6"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998-octubre 2022</t>
+    <t>Enero 1998 - noviembre 2022</t>
   </si>
 </sst>
 </file>
@@ -901,24 +901,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,6 +909,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHK27"/>
+  <dimension ref="A1:AHN27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AGT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHM20" sqref="AHL19:AHM20"/>
+      <pane xSplit="1" topLeftCell="AGV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHL23" sqref="AHL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2053,18 +2053,21 @@
     <col min="892" max="893" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="894" max="894" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="895" max="895" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="896" max="16384" width="11.375" style="1"/>
+    <col min="896" max="896" width="8.75" style="1" customWidth="1"/>
+    <col min="897" max="897" width="8.5" style="1" customWidth="1"/>
+    <col min="898" max="898" width="9.25" style="1" customWidth="1"/>
+    <col min="899" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2072,7 +2075,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2080,9 +2083,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2959,44 +2962,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3028,10 +3031,13 @@
       <c r="AHH5" s="25"/>
       <c r="AHI5" s="25"/>
       <c r="AHJ5" s="25"/>
-      <c r="AHK5" s="26"/>
+      <c r="AHK5" s="25"/>
+      <c r="AHL5" s="25"/>
+      <c r="AHM5" s="25"/>
+      <c r="AHN5" s="26"/>
     </row>
-    <row r="6" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3142,21 +3148,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="28" t="s">
+      <c r="BP6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="28"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="28"/>
-      <c r="BX6" s="28"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3207,11 +3213,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="28" t="s">
+      <c r="DC6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="28"/>
-      <c r="DE6" s="29"/>
+      <c r="DD6" s="30"/>
+      <c r="DE6" s="31"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3267,11 +3273,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="28" t="s">
+      <c r="EM6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="28"/>
-      <c r="EO6" s="29"/>
+      <c r="EN6" s="30"/>
+      <c r="EO6" s="31"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3487,31 +3493,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="28" t="s">
+      <c r="JO6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="28"/>
-      <c r="JQ6" s="29"/>
-      <c r="JR6" s="28" t="s">
+      <c r="JP6" s="30"/>
+      <c r="JQ6" s="31"/>
+      <c r="JR6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="28"/>
-      <c r="JT6" s="29"/>
-      <c r="JU6" s="28" t="s">
+      <c r="JS6" s="30"/>
+      <c r="JT6" s="31"/>
+      <c r="JU6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="28"/>
-      <c r="JW6" s="29"/>
-      <c r="JX6" s="28" t="s">
+      <c r="JV6" s="30"/>
+      <c r="JW6" s="31"/>
+      <c r="JX6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="28"/>
-      <c r="JZ6" s="29"/>
-      <c r="KA6" s="28" t="s">
+      <c r="JY6" s="30"/>
+      <c r="JZ6" s="31"/>
+      <c r="KA6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="28"/>
-      <c r="KC6" s="29"/>
+      <c r="KB6" s="30"/>
+      <c r="KC6" s="31"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3727,31 +3733,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="28" t="s">
+      <c r="PC6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="28"/>
-      <c r="PE6" s="28"/>
-      <c r="PF6" s="28" t="s">
+      <c r="PD6" s="30"/>
+      <c r="PE6" s="30"/>
+      <c r="PF6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="28"/>
-      <c r="PH6" s="28"/>
-      <c r="PI6" s="28" t="s">
+      <c r="PG6" s="30"/>
+      <c r="PH6" s="30"/>
+      <c r="PI6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="28"/>
-      <c r="PK6" s="28"/>
-      <c r="PL6" s="28" t="s">
+      <c r="PJ6" s="30"/>
+      <c r="PK6" s="30"/>
+      <c r="PL6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="28"/>
-      <c r="PN6" s="28"/>
-      <c r="PO6" s="28" t="s">
+      <c r="PM6" s="30"/>
+      <c r="PN6" s="30"/>
+      <c r="PO6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="28"/>
-      <c r="PQ6" s="28"/>
+      <c r="PP6" s="30"/>
+      <c r="PQ6" s="30"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4522,9 +4528,14 @@
       </c>
       <c r="AHJ6" s="25"/>
       <c r="AHK6" s="26"/>
+      <c r="AHL6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AHM6" s="25"/>
+      <c r="AHN6" s="26"/>
     </row>
-    <row r="7" spans="1:895" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:898" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7207,8 +7218,17 @@
       <c r="AHK7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHL7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHM7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHN7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9894,8 +9914,17 @@
       <c r="AHK8" s="23">
         <v>121255</v>
       </c>
+      <c r="AHL8" s="21">
+        <v>83368</v>
+      </c>
+      <c r="AHM8" s="22">
+        <v>37549</v>
+      </c>
+      <c r="AHN8" s="23">
+        <v>120917</v>
+      </c>
     </row>
-    <row r="9" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12581,8 +12610,17 @@
       <c r="AHK9" s="5">
         <v>402868</v>
       </c>
+      <c r="AHL9" s="3">
+        <v>230616</v>
+      </c>
+      <c r="AHM9" s="4">
+        <v>173373</v>
+      </c>
+      <c r="AHN9" s="5">
+        <v>403989</v>
+      </c>
     </row>
-    <row r="10" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15268,8 +15306,17 @@
       <c r="AHK10" s="5">
         <v>150581</v>
       </c>
+      <c r="AHL10" s="3">
+        <v>128869</v>
+      </c>
+      <c r="AHM10" s="4">
+        <v>23259</v>
+      </c>
+      <c r="AHN10" s="5">
+        <v>152128</v>
+      </c>
     </row>
-    <row r="11" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -17955,8 +18002,17 @@
       <c r="AHK11" s="5">
         <v>9745</v>
       </c>
+      <c r="AHL11" s="3">
+        <v>7437</v>
+      </c>
+      <c r="AHM11" s="4">
+        <v>2410</v>
+      </c>
+      <c r="AHN11" s="5">
+        <v>9847</v>
+      </c>
     </row>
-    <row r="12" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20642,8 +20698,17 @@
       <c r="AHK12" s="5">
         <v>513734</v>
       </c>
+      <c r="AHL12" s="3">
+        <v>302369</v>
+      </c>
+      <c r="AHM12" s="4">
+        <v>212934</v>
+      </c>
+      <c r="AHN12" s="5">
+        <v>515303</v>
+      </c>
     </row>
-    <row r="13" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23329,8 +23394,17 @@
       <c r="AHK13" s="5">
         <v>2505</v>
       </c>
+      <c r="AHL13" s="3">
+        <v>2147</v>
+      </c>
+      <c r="AHM13" s="4">
+        <v>368</v>
+      </c>
+      <c r="AHN13" s="5">
+        <v>2515</v>
+      </c>
     </row>
-    <row r="14" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26016,8 +26090,17 @@
       <c r="AHK14" s="5">
         <v>364908</v>
       </c>
+      <c r="AHL14" s="3">
+        <v>205714</v>
+      </c>
+      <c r="AHM14" s="4">
+        <v>163344</v>
+      </c>
+      <c r="AHN14" s="5">
+        <v>369058</v>
+      </c>
     </row>
-    <row r="15" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28703,8 +28786,17 @@
       <c r="AHK15" s="5">
         <v>280501</v>
       </c>
+      <c r="AHL15" s="3">
+        <v>126057</v>
+      </c>
+      <c r="AHM15" s="4">
+        <v>155664</v>
+      </c>
+      <c r="AHN15" s="5">
+        <v>281721</v>
+      </c>
     </row>
-    <row r="16" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31390,8 +31482,17 @@
       <c r="AHK16" s="5">
         <v>104844</v>
       </c>
+      <c r="AHL16" s="3">
+        <v>78283</v>
+      </c>
+      <c r="AHM16" s="4">
+        <v>26749</v>
+      </c>
+      <c r="AHN16" s="5">
+        <v>105032</v>
+      </c>
     </row>
-    <row r="17" spans="1:895" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34077,8 +34178,17 @@
       <c r="AHK17" s="16">
         <v>1950941</v>
       </c>
+      <c r="AHL17" s="14">
+        <v>1164860</v>
+      </c>
+      <c r="AHM17" s="15">
+        <v>795650</v>
+      </c>
+      <c r="AHN17" s="16">
+        <v>1960510</v>
+      </c>
     </row>
-    <row r="19" spans="1:895" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:898" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -34088,228 +34198,97 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:895" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:898" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="326">
-    <mergeCell ref="AHI6:AHK6"/>
-    <mergeCell ref="AGH5:AHK5"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="AHF6:AHH6"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AHC6:AHE6"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
+  <mergeCells count="327">
+    <mergeCell ref="AHL6:AHN6"/>
+    <mergeCell ref="AGH5:AHN5"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
     <mergeCell ref="LN6:LP6"/>
     <mergeCell ref="LQ6:LS6"/>
     <mergeCell ref="LT6:LV6"/>
@@ -34334,91 +34313,223 @@
     <mergeCell ref="DF6:DH6"/>
     <mergeCell ref="DI6:DK6"/>
     <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
     <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="AHI6:AHK6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="30">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,7 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - noviembre 2022</t>
+    <t>Enero 1998 - diciembre 2022</t>
   </si>
 </sst>
 </file>
@@ -901,6 +901,24 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,24 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHN27"/>
+  <dimension ref="A1:AHQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AGV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHL23" sqref="AHL23"/>
+      <pane xSplit="1" topLeftCell="AGW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHH23" sqref="AHH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2053,21 +2053,22 @@
     <col min="892" max="893" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="894" max="894" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="895" max="895" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="896" max="896" width="8.75" style="1" customWidth="1"/>
-    <col min="897" max="897" width="8.5" style="1" customWidth="1"/>
-    <col min="898" max="898" width="9.25" style="1" customWidth="1"/>
-    <col min="899" max="16384" width="11.375" style="1"/>
+    <col min="896" max="898" width="8.875" style="1" customWidth="1"/>
+    <col min="899" max="899" width="8.75" style="1" customWidth="1"/>
+    <col min="900" max="900" width="8.5" style="1" customWidth="1"/>
+    <col min="901" max="901" width="9.25" style="1" customWidth="1"/>
+    <col min="902" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2075,7 +2076,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -2083,9 +2084,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+    <row r="4" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2962,44 +2963,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="29">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="29"/>
+      <c r="AEZ5" s="29"/>
+      <c r="AFA5" s="29"/>
+      <c r="AFB5" s="29"/>
+      <c r="AFC5" s="29"/>
+      <c r="AFD5" s="29"/>
+      <c r="AFE5" s="29"/>
+      <c r="AFF5" s="29"/>
+      <c r="AFG5" s="29"/>
+      <c r="AFH5" s="29"/>
+      <c r="AFI5" s="29"/>
+      <c r="AFJ5" s="29"/>
+      <c r="AFK5" s="29"/>
+      <c r="AFL5" s="29"/>
+      <c r="AFM5" s="29"/>
+      <c r="AFN5" s="29"/>
+      <c r="AFO5" s="29"/>
+      <c r="AFP5" s="29"/>
+      <c r="AFQ5" s="29"/>
+      <c r="AFR5" s="29"/>
+      <c r="AFS5" s="29"/>
+      <c r="AFT5" s="29"/>
+      <c r="AFU5" s="29"/>
+      <c r="AFV5" s="29"/>
+      <c r="AFW5" s="29"/>
+      <c r="AFX5" s="29"/>
+      <c r="AFY5" s="29"/>
+      <c r="AFZ5" s="29"/>
+      <c r="AGA5" s="29"/>
+      <c r="AGB5" s="29"/>
+      <c r="AGC5" s="29"/>
+      <c r="AGD5" s="29"/>
+      <c r="AGE5" s="29"/>
+      <c r="AGF5" s="29"/>
+      <c r="AGG5" s="29"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3034,10 +3035,13 @@
       <c r="AHK5" s="25"/>
       <c r="AHL5" s="25"/>
       <c r="AHM5" s="25"/>
-      <c r="AHN5" s="26"/>
+      <c r="AHN5" s="25"/>
+      <c r="AHO5" s="25"/>
+      <c r="AHP5" s="25"/>
+      <c r="AHQ5" s="26"/>
     </row>
-    <row r="6" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3148,21 +3152,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="30" t="s">
+      <c r="BP6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="27"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
+      <c r="BW6" s="27"/>
+      <c r="BX6" s="27"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3213,11 +3217,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="30" t="s">
+      <c r="DC6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="30"/>
-      <c r="DE6" s="31"/>
+      <c r="DD6" s="27"/>
+      <c r="DE6" s="28"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3273,11 +3277,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="30" t="s">
+      <c r="EM6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="30"/>
-      <c r="EO6" s="31"/>
+      <c r="EN6" s="27"/>
+      <c r="EO6" s="28"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3493,31 +3497,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="30" t="s">
+      <c r="JO6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="30"/>
-      <c r="JQ6" s="31"/>
-      <c r="JR6" s="30" t="s">
+      <c r="JP6" s="27"/>
+      <c r="JQ6" s="28"/>
+      <c r="JR6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="30"/>
-      <c r="JT6" s="31"/>
-      <c r="JU6" s="30" t="s">
+      <c r="JS6" s="27"/>
+      <c r="JT6" s="28"/>
+      <c r="JU6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="30"/>
-      <c r="JW6" s="31"/>
-      <c r="JX6" s="30" t="s">
+      <c r="JV6" s="27"/>
+      <c r="JW6" s="28"/>
+      <c r="JX6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="30"/>
-      <c r="JZ6" s="31"/>
-      <c r="KA6" s="30" t="s">
+      <c r="JY6" s="27"/>
+      <c r="JZ6" s="28"/>
+      <c r="KA6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="30"/>
-      <c r="KC6" s="31"/>
+      <c r="KB6" s="27"/>
+      <c r="KC6" s="28"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3733,31 +3737,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="30" t="s">
+      <c r="PC6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="30"/>
-      <c r="PE6" s="30"/>
-      <c r="PF6" s="30" t="s">
+      <c r="PD6" s="27"/>
+      <c r="PE6" s="27"/>
+      <c r="PF6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="30"/>
-      <c r="PH6" s="30"/>
-      <c r="PI6" s="30" t="s">
+      <c r="PG6" s="27"/>
+      <c r="PH6" s="27"/>
+      <c r="PI6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="30"/>
-      <c r="PK6" s="30"/>
-      <c r="PL6" s="30" t="s">
+      <c r="PJ6" s="27"/>
+      <c r="PK6" s="27"/>
+      <c r="PL6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="30"/>
-      <c r="PN6" s="30"/>
-      <c r="PO6" s="30" t="s">
+      <c r="PM6" s="27"/>
+      <c r="PN6" s="27"/>
+      <c r="PO6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="30"/>
-      <c r="PQ6" s="30"/>
+      <c r="PP6" s="27"/>
+      <c r="PQ6" s="27"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4533,9 +4537,14 @@
       </c>
       <c r="AHM6" s="25"/>
       <c r="AHN6" s="26"/>
+      <c r="AHO6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AHP6" s="25"/>
+      <c r="AHQ6" s="26"/>
     </row>
-    <row r="7" spans="1:898" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:901" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7227,8 +7236,17 @@
       <c r="AHN7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHO7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHP7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHQ7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9923,8 +9941,17 @@
       <c r="AHN8" s="23">
         <v>120917</v>
       </c>
+      <c r="AHO8" s="21">
+        <v>82241</v>
+      </c>
+      <c r="AHP8" s="22">
+        <v>36467</v>
+      </c>
+      <c r="AHQ8" s="23">
+        <v>118708</v>
+      </c>
     </row>
-    <row r="9" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12619,8 +12646,17 @@
       <c r="AHN9" s="5">
         <v>403989</v>
       </c>
+      <c r="AHO9" s="3">
+        <v>228971</v>
+      </c>
+      <c r="AHP9" s="4">
+        <v>170636</v>
+      </c>
+      <c r="AHQ9" s="5">
+        <v>399607</v>
+      </c>
     </row>
-    <row r="10" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15315,8 +15351,17 @@
       <c r="AHN10" s="5">
         <v>152128</v>
       </c>
+      <c r="AHO10" s="3">
+        <v>122446</v>
+      </c>
+      <c r="AHP10" s="4">
+        <v>22900</v>
+      </c>
+      <c r="AHQ10" s="5">
+        <v>145346</v>
+      </c>
     </row>
-    <row r="11" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -18011,8 +18056,17 @@
       <c r="AHN11" s="5">
         <v>9847</v>
       </c>
+      <c r="AHO11" s="3">
+        <v>7349</v>
+      </c>
+      <c r="AHP11" s="4">
+        <v>2465</v>
+      </c>
+      <c r="AHQ11" s="5">
+        <v>9814</v>
+      </c>
     </row>
-    <row r="12" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20707,8 +20761,17 @@
       <c r="AHN12" s="5">
         <v>515303</v>
       </c>
+      <c r="AHO12" s="3">
+        <v>298957</v>
+      </c>
+      <c r="AHP12" s="4">
+        <v>209189</v>
+      </c>
+      <c r="AHQ12" s="5">
+        <v>508146</v>
+      </c>
     </row>
-    <row r="13" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23403,8 +23466,17 @@
       <c r="AHN13" s="5">
         <v>2515</v>
       </c>
+      <c r="AHO13" s="3">
+        <v>2132</v>
+      </c>
+      <c r="AHP13" s="4">
+        <v>368</v>
+      </c>
+      <c r="AHQ13" s="5">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="14" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26099,8 +26171,17 @@
       <c r="AHN14" s="5">
         <v>369058</v>
       </c>
+      <c r="AHO14" s="3">
+        <v>204624</v>
+      </c>
+      <c r="AHP14" s="4">
+        <v>161783</v>
+      </c>
+      <c r="AHQ14" s="5">
+        <v>366407</v>
+      </c>
     </row>
-    <row r="15" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28795,8 +28876,17 @@
       <c r="AHN15" s="5">
         <v>281721</v>
       </c>
+      <c r="AHO15" s="3">
+        <v>123994</v>
+      </c>
+      <c r="AHP15" s="4">
+        <v>153996</v>
+      </c>
+      <c r="AHQ15" s="5">
+        <v>277990</v>
+      </c>
     </row>
-    <row r="16" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31491,8 +31581,17 @@
       <c r="AHN16" s="5">
         <v>105032</v>
       </c>
+      <c r="AHO16" s="3">
+        <v>77907</v>
+      </c>
+      <c r="AHP16" s="4">
+        <v>26537</v>
+      </c>
+      <c r="AHQ16" s="5">
+        <v>104444</v>
+      </c>
     </row>
-    <row r="17" spans="1:898" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34187,8 +34286,17 @@
       <c r="AHN17" s="16">
         <v>1960510</v>
       </c>
+      <c r="AHO17" s="14">
+        <v>1148621</v>
+      </c>
+      <c r="AHP17" s="15">
+        <v>784341</v>
+      </c>
+      <c r="AHQ17" s="16">
+        <v>1932962</v>
+      </c>
     </row>
-    <row r="19" spans="1:898" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:901" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
@@ -34198,35 +34306,291 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:898" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:901" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="328">
     <mergeCell ref="AHL6:AHN6"/>
-    <mergeCell ref="AGH5:AHN5"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="AHI6:AHK6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
     <mergeCell ref="JF6:JH6"/>
     <mergeCell ref="AGE6:AGG6"/>
     <mergeCell ref="AEX5:AGG5"/>
@@ -34251,285 +34615,30 @@
     <mergeCell ref="KD6:KF6"/>
     <mergeCell ref="KG6:KI6"/>
     <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="AHI6:AHK6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="AHF6:AHH6"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AHC6:AHE6"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="AHO6:AHQ6"/>
+    <mergeCell ref="AGH5:AHQ5"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="31">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -124,7 +124,10 @@
     </r>
   </si>
   <si>
-    <t>Enero 1998 - diciembre 2022</t>
+    <t xml:space="preserve">Enero </t>
+  </si>
+  <si>
+    <t>Enero 1998 - enero 2023</t>
   </si>
 </sst>
 </file>
@@ -907,15 +910,6 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -927,6 +921,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1250,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHQ27"/>
+  <dimension ref="A1:AHT27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AGW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHH23" sqref="AHH23"/>
+      <pane xSplit="1" topLeftCell="AHD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHL26" sqref="AHL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -2054,21 +2057,21 @@
     <col min="894" max="894" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="895" max="895" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="896" max="898" width="8.875" style="1" customWidth="1"/>
-    <col min="899" max="899" width="8.75" style="1" customWidth="1"/>
+    <col min="899" max="899" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="900" max="900" width="8.5" style="1" customWidth="1"/>
     <col min="901" max="901" width="9.25" style="1" customWidth="1"/>
     <col min="902" max="16384" width="11.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2076,17 +2079,17 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2963,44 +2966,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="29">
+      <c r="AEX5" s="35">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="29"/>
-      <c r="AEZ5" s="29"/>
-      <c r="AFA5" s="29"/>
-      <c r="AFB5" s="29"/>
-      <c r="AFC5" s="29"/>
-      <c r="AFD5" s="29"/>
-      <c r="AFE5" s="29"/>
-      <c r="AFF5" s="29"/>
-      <c r="AFG5" s="29"/>
-      <c r="AFH5" s="29"/>
-      <c r="AFI5" s="29"/>
-      <c r="AFJ5" s="29"/>
-      <c r="AFK5" s="29"/>
-      <c r="AFL5" s="29"/>
-      <c r="AFM5" s="29"/>
-      <c r="AFN5" s="29"/>
-      <c r="AFO5" s="29"/>
-      <c r="AFP5" s="29"/>
-      <c r="AFQ5" s="29"/>
-      <c r="AFR5" s="29"/>
-      <c r="AFS5" s="29"/>
-      <c r="AFT5" s="29"/>
-      <c r="AFU5" s="29"/>
-      <c r="AFV5" s="29"/>
-      <c r="AFW5" s="29"/>
-      <c r="AFX5" s="29"/>
-      <c r="AFY5" s="29"/>
-      <c r="AFZ5" s="29"/>
-      <c r="AGA5" s="29"/>
-      <c r="AGB5" s="29"/>
-      <c r="AGC5" s="29"/>
-      <c r="AGD5" s="29"/>
-      <c r="AGE5" s="29"/>
-      <c r="AGF5" s="29"/>
-      <c r="AGG5" s="29"/>
+      <c r="AEY5" s="35"/>
+      <c r="AEZ5" s="35"/>
+      <c r="AFA5" s="35"/>
+      <c r="AFB5" s="35"/>
+      <c r="AFC5" s="35"/>
+      <c r="AFD5" s="35"/>
+      <c r="AFE5" s="35"/>
+      <c r="AFF5" s="35"/>
+      <c r="AFG5" s="35"/>
+      <c r="AFH5" s="35"/>
+      <c r="AFI5" s="35"/>
+      <c r="AFJ5" s="35"/>
+      <c r="AFK5" s="35"/>
+      <c r="AFL5" s="35"/>
+      <c r="AFM5" s="35"/>
+      <c r="AFN5" s="35"/>
+      <c r="AFO5" s="35"/>
+      <c r="AFP5" s="35"/>
+      <c r="AFQ5" s="35"/>
+      <c r="AFR5" s="35"/>
+      <c r="AFS5" s="35"/>
+      <c r="AFT5" s="35"/>
+      <c r="AFU5" s="35"/>
+      <c r="AFV5" s="35"/>
+      <c r="AFW5" s="35"/>
+      <c r="AFX5" s="35"/>
+      <c r="AFY5" s="35"/>
+      <c r="AFZ5" s="35"/>
+      <c r="AGA5" s="35"/>
+      <c r="AGB5" s="35"/>
+      <c r="AGC5" s="35"/>
+      <c r="AGD5" s="35"/>
+      <c r="AGE5" s="35"/>
+      <c r="AGF5" s="35"/>
+      <c r="AGG5" s="35"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3039,9 +3042,14 @@
       <c r="AHO5" s="25"/>
       <c r="AHP5" s="25"/>
       <c r="AHQ5" s="26"/>
+      <c r="AHR5" s="35">
+        <v>2023</v>
+      </c>
+      <c r="AHS5" s="35"/>
+      <c r="AHT5" s="35"/>
     </row>
-    <row r="6" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3170,7 @@
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BV6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="BW6" s="27"/>
@@ -4542,9 +4550,14 @@
       </c>
       <c r="AHP6" s="25"/>
       <c r="AHQ6" s="26"/>
+      <c r="AHR6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AHS6" s="25"/>
+      <c r="AHT6" s="26"/>
     </row>
-    <row r="7" spans="1:901" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:904" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7245,8 +7258,17 @@
       <c r="AHQ7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHR7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHS7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHT7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9950,8 +9972,17 @@
       <c r="AHQ8" s="23">
         <v>118708</v>
       </c>
+      <c r="AHR8" s="21">
+        <v>87506</v>
+      </c>
+      <c r="AHS8" s="22">
+        <v>37905</v>
+      </c>
+      <c r="AHT8" s="23">
+        <v>125411</v>
+      </c>
     </row>
-    <row r="9" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12655,8 +12686,17 @@
       <c r="AHQ9" s="5">
         <v>399607</v>
       </c>
+      <c r="AHR9" s="3">
+        <v>228271</v>
+      </c>
+      <c r="AHS9" s="4">
+        <v>169134</v>
+      </c>
+      <c r="AHT9" s="5">
+        <v>397405</v>
+      </c>
     </row>
-    <row r="10" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15360,8 +15400,17 @@
       <c r="AHQ10" s="5">
         <v>145346</v>
       </c>
+      <c r="AHR10" s="3">
+        <v>125320</v>
+      </c>
+      <c r="AHS10" s="4">
+        <v>23507</v>
+      </c>
+      <c r="AHT10" s="5">
+        <v>148827</v>
+      </c>
     </row>
-    <row r="11" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -18065,8 +18114,17 @@
       <c r="AHQ11" s="5">
         <v>9814</v>
       </c>
+      <c r="AHR11" s="3">
+        <v>7415</v>
+      </c>
+      <c r="AHS11" s="4">
+        <v>2432</v>
+      </c>
+      <c r="AHT11" s="5">
+        <v>9847</v>
+      </c>
     </row>
-    <row r="12" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20770,8 +20828,17 @@
       <c r="AHQ12" s="5">
         <v>508146</v>
       </c>
+      <c r="AHR12" s="3">
+        <v>301514</v>
+      </c>
+      <c r="AHS12" s="4">
+        <v>211389</v>
+      </c>
+      <c r="AHT12" s="5">
+        <v>512903</v>
+      </c>
     </row>
-    <row r="13" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23475,8 +23542,17 @@
       <c r="AHQ13" s="5">
         <v>2500</v>
       </c>
+      <c r="AHR13" s="3">
+        <v>2206</v>
+      </c>
+      <c r="AHS13" s="4">
+        <v>374</v>
+      </c>
+      <c r="AHT13" s="5">
+        <v>2580</v>
+      </c>
     </row>
-    <row r="14" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26180,8 +26256,17 @@
       <c r="AHQ14" s="5">
         <v>366407</v>
       </c>
+      <c r="AHR14" s="3">
+        <v>206080</v>
+      </c>
+      <c r="AHS14" s="4">
+        <v>162826</v>
+      </c>
+      <c r="AHT14" s="5">
+        <v>368906</v>
+      </c>
     </row>
-    <row r="15" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28885,8 +28970,17 @@
       <c r="AHQ15" s="5">
         <v>277990</v>
       </c>
+      <c r="AHR15" s="3">
+        <v>125544</v>
+      </c>
+      <c r="AHS15" s="4">
+        <v>155328</v>
+      </c>
+      <c r="AHT15" s="5">
+        <v>280872</v>
+      </c>
     </row>
-    <row r="16" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31590,8 +31684,17 @@
       <c r="AHQ16" s="5">
         <v>104444</v>
       </c>
+      <c r="AHR16" s="3">
+        <v>78090</v>
+      </c>
+      <c r="AHS16" s="4">
+        <v>26415</v>
+      </c>
+      <c r="AHT16" s="5">
+        <v>104505</v>
+      </c>
     </row>
-    <row r="17" spans="1:901" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34295,22 +34398,337 @@
       <c r="AHQ17" s="16">
         <v>1932962</v>
       </c>
+      <c r="AHR17" s="14">
+        <v>1161946</v>
+      </c>
+      <c r="AHS17" s="15">
+        <v>789310</v>
+      </c>
+      <c r="AHT17" s="16">
+        <v>1951256</v>
+      </c>
     </row>
-    <row r="19" spans="1:901" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:904" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
-    <row r="27" spans="1:901" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:904" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="328">
+  <mergeCells count="330">
+    <mergeCell ref="AHR6:AHT6"/>
+    <mergeCell ref="AHR5:AHT5"/>
+    <mergeCell ref="AHO6:AHQ6"/>
+    <mergeCell ref="AGH5:AHQ5"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
     <mergeCell ref="AHL6:AHN6"/>
     <mergeCell ref="AHI6:AHK6"/>
     <mergeCell ref="ADN6:ADP6"/>
@@ -34335,310 +34753,6 @@
     <mergeCell ref="AEX6:AEZ6"/>
     <mergeCell ref="AFA6:AFC6"/>
     <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="AHO6:AHQ6"/>
-    <mergeCell ref="AGH5:AHQ5"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="ta_jalisco_género" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="32">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Enero 1998 - enero 2023</t>
+  </si>
+  <si>
+    <t>Febrerp</t>
   </si>
 </sst>
 </file>
@@ -904,10 +907,19 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -921,15 +933,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1253,825 +1256,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHT27"/>
+  <dimension ref="A1:AHW27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AHD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHL26" sqref="AHL26"/>
+      <pane xSplit="1" topLeftCell="AHH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHW27" sqref="AHW27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="632" max="632" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="636" max="636" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="638" max="638" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="640" max="640" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="644" max="644" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="646" max="646" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="650" max="650" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="653" max="653" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="654" max="654" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="655" max="655" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="656" max="656" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="657" max="657" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="658" max="658" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="659" max="659" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="660" max="660" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="661" max="661" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="662" max="662" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="665" max="665" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="666" max="666" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="667" max="667" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="668" max="668" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="671" max="671" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="672" max="672" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="673" max="674" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="675" max="675" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="676" max="677" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="678" max="678" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="679" max="680" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="684" max="684" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="685" max="686" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="687" max="687" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="690" max="690" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="691" max="692" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="697" max="698" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="703" max="704" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="705" max="705" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="709" max="710" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="711" max="711" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="714" max="714" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="715" max="716" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="721" max="722" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="723" max="723" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="727" max="728" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="729" max="729" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="733" max="734" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="739" max="740" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="745" max="746" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="751" max="752" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="753" max="753" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="757" max="758" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="759" max="759" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="763" max="764" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="769" max="770" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="782" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="787" max="788" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="790" max="791" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="793" max="794" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="799" max="800" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="801" max="801" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="804" max="804" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="805" max="806" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="811" max="812" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="816" max="816" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="817" max="818" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="822" max="822" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="823" max="824" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="825" max="825" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="829" max="830" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="834" max="834" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="835" max="836" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="837" max="837" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="841" max="842" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="843" max="843" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="846" max="846" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="847" max="848" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="849" max="849" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="853" max="854" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="855" max="855" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="858" max="858" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="859" max="860" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="861" max="861" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="864" max="864" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="865" max="866" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="867" max="867" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="868" max="869" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="870" max="870" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="871" max="872" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="873" max="873" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="874" max="875" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="876" max="876" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="877" max="878" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="879" max="879" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="880" max="881" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="882" max="882" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="883" max="884" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="885" max="885" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="886" max="887" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="888" max="888" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="889" max="890" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="891" max="891" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="892" max="893" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="894" max="894" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="895" max="895" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="896" max="898" width="8.875" style="1" customWidth="1"/>
-    <col min="899" max="899" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="900" max="900" width="8.5" style="1" customWidth="1"/>
-    <col min="901" max="901" width="9.25" style="1" customWidth="1"/>
-    <col min="902" max="16384" width="11.375" style="1"/>
+    <col min="1" max="1" width="51.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="673" max="674" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="676" max="677" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="680" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="686" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="692" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="697" max="698" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="704" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="709" max="710" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="715" max="716" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="721" max="722" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="727" max="728" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="733" max="734" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="739" max="740" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="751" max="752" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="757" max="758" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="763" max="764" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="769" max="770" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="782" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="787" max="788" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="790" max="791" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="799" max="800" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="805" max="806" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="811" max="812" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="817" max="818" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="823" max="824" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="829" max="830" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="835" max="836" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="841" max="842" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="847" max="848" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="853" max="854" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="859" max="860" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="861" max="861" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="864" max="864" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="865" max="866" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="867" max="867" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="868" max="869" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="870" max="870" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="871" max="872" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="873" max="873" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="874" max="875" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="876" max="876" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="877" max="878" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="879" max="879" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="880" max="881" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="882" max="882" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="883" max="884" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="885" max="885" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="886" max="887" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="888" max="888" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="889" max="890" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="891" max="891" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="892" max="893" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="894" max="894" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="895" max="895" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="896" max="898" width="8.85546875" style="1" customWidth="1"/>
+    <col min="899" max="899" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="900" max="900" width="8.42578125" style="1" customWidth="1"/>
+    <col min="901" max="901" width="9.28515625" style="1" customWidth="1"/>
+    <col min="902" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2082,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2087,9 +2090,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="4" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="24">
@@ -2966,44 +2969,44 @@
       <c r="AEU5" s="25"/>
       <c r="AEV5" s="25"/>
       <c r="AEW5" s="26"/>
-      <c r="AEX5" s="35">
+      <c r="AEX5" s="27">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="35"/>
-      <c r="AEZ5" s="35"/>
-      <c r="AFA5" s="35"/>
-      <c r="AFB5" s="35"/>
-      <c r="AFC5" s="35"/>
-      <c r="AFD5" s="35"/>
-      <c r="AFE5" s="35"/>
-      <c r="AFF5" s="35"/>
-      <c r="AFG5" s="35"/>
-      <c r="AFH5" s="35"/>
-      <c r="AFI5" s="35"/>
-      <c r="AFJ5" s="35"/>
-      <c r="AFK5" s="35"/>
-      <c r="AFL5" s="35"/>
-      <c r="AFM5" s="35"/>
-      <c r="AFN5" s="35"/>
-      <c r="AFO5" s="35"/>
-      <c r="AFP5" s="35"/>
-      <c r="AFQ5" s="35"/>
-      <c r="AFR5" s="35"/>
-      <c r="AFS5" s="35"/>
-      <c r="AFT5" s="35"/>
-      <c r="AFU5" s="35"/>
-      <c r="AFV5" s="35"/>
-      <c r="AFW5" s="35"/>
-      <c r="AFX5" s="35"/>
-      <c r="AFY5" s="35"/>
-      <c r="AFZ5" s="35"/>
-      <c r="AGA5" s="35"/>
-      <c r="AGB5" s="35"/>
-      <c r="AGC5" s="35"/>
-      <c r="AGD5" s="35"/>
-      <c r="AGE5" s="35"/>
-      <c r="AGF5" s="35"/>
-      <c r="AGG5" s="35"/>
+      <c r="AEY5" s="27"/>
+      <c r="AEZ5" s="27"/>
+      <c r="AFA5" s="27"/>
+      <c r="AFB5" s="27"/>
+      <c r="AFC5" s="27"/>
+      <c r="AFD5" s="27"/>
+      <c r="AFE5" s="27"/>
+      <c r="AFF5" s="27"/>
+      <c r="AFG5" s="27"/>
+      <c r="AFH5" s="27"/>
+      <c r="AFI5" s="27"/>
+      <c r="AFJ5" s="27"/>
+      <c r="AFK5" s="27"/>
+      <c r="AFL5" s="27"/>
+      <c r="AFM5" s="27"/>
+      <c r="AFN5" s="27"/>
+      <c r="AFO5" s="27"/>
+      <c r="AFP5" s="27"/>
+      <c r="AFQ5" s="27"/>
+      <c r="AFR5" s="27"/>
+      <c r="AFS5" s="27"/>
+      <c r="AFT5" s="27"/>
+      <c r="AFU5" s="27"/>
+      <c r="AFV5" s="27"/>
+      <c r="AFW5" s="27"/>
+      <c r="AFX5" s="27"/>
+      <c r="AFY5" s="27"/>
+      <c r="AFZ5" s="27"/>
+      <c r="AGA5" s="27"/>
+      <c r="AGB5" s="27"/>
+      <c r="AGC5" s="27"/>
+      <c r="AGD5" s="27"/>
+      <c r="AGE5" s="27"/>
+      <c r="AGF5" s="27"/>
+      <c r="AGG5" s="27"/>
       <c r="AGH5" s="24">
         <v>2022</v>
       </c>
@@ -3042,14 +3045,19 @@
       <c r="AHO5" s="25"/>
       <c r="AHP5" s="25"/>
       <c r="AHQ5" s="26"/>
-      <c r="AHR5" s="35">
+      <c r="AHR5" s="27">
         <v>2023</v>
       </c>
-      <c r="AHS5" s="35"/>
-      <c r="AHT5" s="35"/>
+      <c r="AHS5" s="27"/>
+      <c r="AHT5" s="27"/>
+      <c r="AHU5" s="27">
+        <v>2023</v>
+      </c>
+      <c r="AHV5" s="27"/>
+      <c r="AHW5" s="27"/>
     </row>
-    <row r="6" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3160,21 +3168,21 @@
       </c>
       <c r="BN6" s="25"/>
       <c r="BO6" s="26"/>
-      <c r="BP6" s="27" t="s">
+      <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
       <c r="BS6" s="24" t="s">
         <v>18</v>
       </c>
       <c r="BT6" s="25"/>
       <c r="BU6" s="26"/>
-      <c r="BV6" s="34" t="s">
+      <c r="BV6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
+      <c r="BW6" s="28"/>
+      <c r="BX6" s="28"/>
       <c r="BY6" s="24" t="s">
         <v>8</v>
       </c>
@@ -3225,11 +3233,11 @@
       </c>
       <c r="DA6" s="25"/>
       <c r="DB6" s="26"/>
-      <c r="DC6" s="27" t="s">
+      <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="DD6" s="27"/>
-      <c r="DE6" s="28"/>
+      <c r="DD6" s="28"/>
+      <c r="DE6" s="29"/>
       <c r="DF6" s="24" t="s">
         <v>7</v>
       </c>
@@ -3285,11 +3293,11 @@
       </c>
       <c r="EK6" s="25"/>
       <c r="EL6" s="26"/>
-      <c r="EM6" s="27" t="s">
+      <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="EN6" s="27"/>
-      <c r="EO6" s="28"/>
+      <c r="EN6" s="28"/>
+      <c r="EO6" s="29"/>
       <c r="EP6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3505,31 +3513,31 @@
       </c>
       <c r="JM6" s="25"/>
       <c r="JN6" s="26"/>
-      <c r="JO6" s="27" t="s">
+      <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="JP6" s="27"/>
-      <c r="JQ6" s="28"/>
-      <c r="JR6" s="27" t="s">
+      <c r="JP6" s="28"/>
+      <c r="JQ6" s="29"/>
+      <c r="JR6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="JS6" s="27"/>
-      <c r="JT6" s="28"/>
-      <c r="JU6" s="27" t="s">
+      <c r="JS6" s="28"/>
+      <c r="JT6" s="29"/>
+      <c r="JU6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="JV6" s="27"/>
-      <c r="JW6" s="28"/>
-      <c r="JX6" s="27" t="s">
+      <c r="JV6" s="28"/>
+      <c r="JW6" s="29"/>
+      <c r="JX6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="JY6" s="27"/>
-      <c r="JZ6" s="28"/>
-      <c r="KA6" s="27" t="s">
+      <c r="JY6" s="28"/>
+      <c r="JZ6" s="29"/>
+      <c r="KA6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="KB6" s="27"/>
-      <c r="KC6" s="28"/>
+      <c r="KB6" s="28"/>
+      <c r="KC6" s="29"/>
       <c r="KD6" s="25" t="s">
         <v>7</v>
       </c>
@@ -3745,31 +3753,31 @@
       </c>
       <c r="PA6" s="25"/>
       <c r="PB6" s="26"/>
-      <c r="PC6" s="27" t="s">
+      <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="PD6" s="27"/>
-      <c r="PE6" s="27"/>
-      <c r="PF6" s="27" t="s">
+      <c r="PD6" s="28"/>
+      <c r="PE6" s="28"/>
+      <c r="PF6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="PG6" s="27"/>
-      <c r="PH6" s="27"/>
-      <c r="PI6" s="27" t="s">
+      <c r="PG6" s="28"/>
+      <c r="PH6" s="28"/>
+      <c r="PI6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="PJ6" s="27"/>
-      <c r="PK6" s="27"/>
-      <c r="PL6" s="27" t="s">
+      <c r="PJ6" s="28"/>
+      <c r="PK6" s="28"/>
+      <c r="PL6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="PM6" s="27"/>
-      <c r="PN6" s="27"/>
-      <c r="PO6" s="27" t="s">
+      <c r="PM6" s="28"/>
+      <c r="PN6" s="28"/>
+      <c r="PO6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="PP6" s="27"/>
-      <c r="PQ6" s="27"/>
+      <c r="PP6" s="28"/>
+      <c r="PQ6" s="28"/>
       <c r="PR6" s="25" t="s">
         <v>7</v>
       </c>
@@ -4555,9 +4563,14 @@
       </c>
       <c r="AHS6" s="25"/>
       <c r="AHT6" s="26"/>
+      <c r="AHU6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AHV6" s="25"/>
+      <c r="AHW6" s="26"/>
     </row>
-    <row r="7" spans="1:904" s="7" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:907" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7267,8 +7280,17 @@
       <c r="AHT7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHU7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHV7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHW7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -9981,8 +10003,17 @@
       <c r="AHT8" s="23">
         <v>125411</v>
       </c>
+      <c r="AHU8" s="21">
+        <v>87922</v>
+      </c>
+      <c r="AHV8" s="22">
+        <v>38277</v>
+      </c>
+      <c r="AHW8" s="23">
+        <v>126199</v>
+      </c>
     </row>
-    <row r="9" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12695,8 +12726,17 @@
       <c r="AHT9" s="5">
         <v>397405</v>
       </c>
+      <c r="AHU9" s="3">
+        <v>229700</v>
+      </c>
+      <c r="AHV9" s="4">
+        <v>170112</v>
+      </c>
+      <c r="AHW9" s="5">
+        <v>399812</v>
+      </c>
     </row>
-    <row r="10" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15409,8 +15449,17 @@
       <c r="AHT10" s="5">
         <v>148827</v>
       </c>
+      <c r="AHU10" s="3">
+        <v>126902</v>
+      </c>
+      <c r="AHV10" s="4">
+        <v>23697</v>
+      </c>
+      <c r="AHW10" s="5">
+        <v>150599</v>
+      </c>
     </row>
-    <row r="11" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -18123,8 +18172,17 @@
       <c r="AHT11" s="5">
         <v>9847</v>
       </c>
+      <c r="AHU11" s="3">
+        <v>7505</v>
+      </c>
+      <c r="AHV11" s="4">
+        <v>2466</v>
+      </c>
+      <c r="AHW11" s="5">
+        <v>9971</v>
+      </c>
     </row>
-    <row r="12" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20837,8 +20895,17 @@
       <c r="AHT12" s="5">
         <v>512903</v>
       </c>
+      <c r="AHU12" s="3">
+        <v>303800</v>
+      </c>
+      <c r="AHV12" s="4">
+        <v>213852</v>
+      </c>
+      <c r="AHW12" s="5">
+        <v>517652</v>
+      </c>
     </row>
-    <row r="13" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23551,8 +23618,17 @@
       <c r="AHT13" s="5">
         <v>2580</v>
       </c>
+      <c r="AHU13" s="3">
+        <v>2248</v>
+      </c>
+      <c r="AHV13" s="4">
+        <v>385</v>
+      </c>
+      <c r="AHW13" s="5">
+        <v>2633</v>
+      </c>
     </row>
-    <row r="14" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26265,8 +26341,17 @@
       <c r="AHT14" s="5">
         <v>368906</v>
       </c>
+      <c r="AHU14" s="3">
+        <v>206507</v>
+      </c>
+      <c r="AHV14" s="4">
+        <v>164159</v>
+      </c>
+      <c r="AHW14" s="5">
+        <v>370666</v>
+      </c>
     </row>
-    <row r="15" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -28979,8 +29064,17 @@
       <c r="AHT15" s="5">
         <v>280872</v>
       </c>
+      <c r="AHU15" s="3">
+        <v>126283</v>
+      </c>
+      <c r="AHV15" s="4">
+        <v>156101</v>
+      </c>
+      <c r="AHW15" s="5">
+        <v>282384</v>
+      </c>
     </row>
-    <row r="16" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31693,8 +31787,17 @@
       <c r="AHT16" s="5">
         <v>104505</v>
       </c>
+      <c r="AHU16" s="3">
+        <v>78153</v>
+      </c>
+      <c r="AHV16" s="4">
+        <v>26450</v>
+      </c>
+      <c r="AHW16" s="5">
+        <v>104603</v>
+      </c>
     </row>
-    <row r="17" spans="1:904" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34407,22 +34510,342 @@
       <c r="AHT17" s="16">
         <v>1951256</v>
       </c>
+      <c r="AHU17" s="14">
+        <f>SUM(AHU8:AHU16)</f>
+        <v>1169020</v>
+      </c>
+      <c r="AHV17" s="14">
+        <f t="shared" ref="AHV17:AHW17" si="0">SUM(AHV8:AHV16)</f>
+        <v>795499</v>
+      </c>
+      <c r="AHW17" s="14">
+        <f t="shared" si="0"/>
+        <v>1964519</v>
+      </c>
     </row>
-    <row r="19" spans="1:904" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:907" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
     </row>
-    <row r="27" spans="1:904" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:907" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="330">
+  <mergeCells count="332">
+    <mergeCell ref="AHU5:AHW5"/>
+    <mergeCell ref="AHU6:AHW6"/>
+    <mergeCell ref="AHL6:AHN6"/>
+    <mergeCell ref="AHI6:AHK6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AEX6:AEZ6"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="AAB6:AAD6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
     <mergeCell ref="AHR6:AHT6"/>
     <mergeCell ref="AHR5:AHT5"/>
     <mergeCell ref="AHO6:AHQ6"/>
@@ -34447,312 +34870,6 @@
     <mergeCell ref="IE6:IG6"/>
     <mergeCell ref="IH6:IJ6"/>
     <mergeCell ref="IK6:IM6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="AHL6:AHN6"/>
-    <mergeCell ref="AHI6:AHK6"/>
-    <mergeCell ref="ADN6:ADP6"/>
-    <mergeCell ref="ADQ6:ADS6"/>
-    <mergeCell ref="ADT6:ADV6"/>
-    <mergeCell ref="ADW6:ADY6"/>
-    <mergeCell ref="AHF6:AHH6"/>
-    <mergeCell ref="AGW6:AGY6"/>
-    <mergeCell ref="AGN6:AGP6"/>
-    <mergeCell ref="AHC6:AHE6"/>
-    <mergeCell ref="AFY6:AGA6"/>
-    <mergeCell ref="AFS6:AFU6"/>
-    <mergeCell ref="AFP6:AFR6"/>
-    <mergeCell ref="AFJ6:AFL6"/>
-    <mergeCell ref="AGZ6:AHB6"/>
-    <mergeCell ref="AGT6:AGV6"/>
-    <mergeCell ref="AGQ6:AGS6"/>
-    <mergeCell ref="AGK6:AGM6"/>
-    <mergeCell ref="AGH6:AGJ6"/>
-    <mergeCell ref="AEC6:AEE6"/>
-    <mergeCell ref="ADZ6:AEB6"/>
-    <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="31">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Enero 1998 - enero 2023</t>
-  </si>
-  <si>
-    <t>Febrerp</t>
   </si>
 </sst>
 </file>
@@ -898,6 +895,9 @@
     <xf numFmtId="3" fontId="19" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -907,19 +907,10 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -933,6 +924,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1256,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHW27"/>
+  <dimension ref="A1:AHZ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AHH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHW27" sqref="AHW27"/>
+      <pane xSplit="1" topLeftCell="AHL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHU26" sqref="AHU26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,15 +2063,15 @@
     <col min="902" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
-    <row r="2" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2082,7 +2079,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2090,1429 +2087,1430 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+    <row r="4" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>1998</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="24">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="25">
         <v>1999</v>
       </c>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="25"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="25"/>
-      <c r="BE5" s="25"/>
-      <c r="BF5" s="25"/>
-      <c r="BG5" s="25"/>
-      <c r="BH5" s="25"/>
-      <c r="BI5" s="25"/>
-      <c r="BJ5" s="25"/>
-      <c r="BK5" s="25"/>
-      <c r="BL5" s="25"/>
-      <c r="BM5" s="25"/>
-      <c r="BN5" s="25"/>
-      <c r="BO5" s="25"/>
-      <c r="BP5" s="25"/>
-      <c r="BQ5" s="25"/>
-      <c r="BR5" s="25"/>
-      <c r="BS5" s="25"/>
-      <c r="BT5" s="25"/>
-      <c r="BU5" s="26"/>
-      <c r="BV5" s="24">
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
+      <c r="BJ5" s="26"/>
+      <c r="BK5" s="26"/>
+      <c r="BL5" s="26"/>
+      <c r="BM5" s="26"/>
+      <c r="BN5" s="26"/>
+      <c r="BO5" s="26"/>
+      <c r="BP5" s="26"/>
+      <c r="BQ5" s="26"/>
+      <c r="BR5" s="26"/>
+      <c r="BS5" s="26"/>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="27"/>
+      <c r="BV5" s="25">
         <v>2000</v>
       </c>
-      <c r="BW5" s="25"/>
-      <c r="BX5" s="25"/>
-      <c r="BY5" s="25"/>
-      <c r="BZ5" s="25"/>
-      <c r="CA5" s="25"/>
-      <c r="CB5" s="25"/>
-      <c r="CC5" s="25"/>
-      <c r="CD5" s="25"/>
-      <c r="CE5" s="25"/>
-      <c r="CF5" s="25"/>
-      <c r="CG5" s="25"/>
-      <c r="CH5" s="25"/>
-      <c r="CI5" s="25"/>
-      <c r="CJ5" s="25"/>
-      <c r="CK5" s="25"/>
-      <c r="CL5" s="25"/>
-      <c r="CM5" s="25"/>
-      <c r="CN5" s="25"/>
-      <c r="CO5" s="25"/>
-      <c r="CP5" s="25"/>
-      <c r="CQ5" s="25"/>
-      <c r="CR5" s="25"/>
-      <c r="CS5" s="25"/>
-      <c r="CT5" s="25"/>
-      <c r="CU5" s="25"/>
-      <c r="CV5" s="25"/>
-      <c r="CW5" s="25"/>
-      <c r="CX5" s="25"/>
-      <c r="CY5" s="25"/>
-      <c r="CZ5" s="25"/>
-      <c r="DA5" s="25"/>
-      <c r="DB5" s="25"/>
-      <c r="DC5" s="25"/>
-      <c r="DD5" s="25"/>
-      <c r="DE5" s="26"/>
-      <c r="DF5" s="24">
+      <c r="BW5" s="26"/>
+      <c r="BX5" s="26"/>
+      <c r="BY5" s="26"/>
+      <c r="BZ5" s="26"/>
+      <c r="CA5" s="26"/>
+      <c r="CB5" s="26"/>
+      <c r="CC5" s="26"/>
+      <c r="CD5" s="26"/>
+      <c r="CE5" s="26"/>
+      <c r="CF5" s="26"/>
+      <c r="CG5" s="26"/>
+      <c r="CH5" s="26"/>
+      <c r="CI5" s="26"/>
+      <c r="CJ5" s="26"/>
+      <c r="CK5" s="26"/>
+      <c r="CL5" s="26"/>
+      <c r="CM5" s="26"/>
+      <c r="CN5" s="26"/>
+      <c r="CO5" s="26"/>
+      <c r="CP5" s="26"/>
+      <c r="CQ5" s="26"/>
+      <c r="CR5" s="26"/>
+      <c r="CS5" s="26"/>
+      <c r="CT5" s="26"/>
+      <c r="CU5" s="26"/>
+      <c r="CV5" s="26"/>
+      <c r="CW5" s="26"/>
+      <c r="CX5" s="26"/>
+      <c r="CY5" s="26"/>
+      <c r="CZ5" s="26"/>
+      <c r="DA5" s="26"/>
+      <c r="DB5" s="26"/>
+      <c r="DC5" s="26"/>
+      <c r="DD5" s="26"/>
+      <c r="DE5" s="27"/>
+      <c r="DF5" s="25">
         <v>2001</v>
       </c>
-      <c r="DG5" s="25"/>
-      <c r="DH5" s="25"/>
-      <c r="DI5" s="25"/>
-      <c r="DJ5" s="25"/>
-      <c r="DK5" s="25"/>
-      <c r="DL5" s="25"/>
-      <c r="DM5" s="25"/>
-      <c r="DN5" s="25"/>
-      <c r="DO5" s="25"/>
-      <c r="DP5" s="25"/>
-      <c r="DQ5" s="25"/>
-      <c r="DR5" s="25"/>
-      <c r="DS5" s="25"/>
-      <c r="DT5" s="25"/>
-      <c r="DU5" s="25"/>
-      <c r="DV5" s="25"/>
-      <c r="DW5" s="25"/>
-      <c r="DX5" s="25"/>
-      <c r="DY5" s="25"/>
-      <c r="DZ5" s="25"/>
-      <c r="EA5" s="25"/>
-      <c r="EB5" s="25"/>
-      <c r="EC5" s="25"/>
-      <c r="ED5" s="25"/>
-      <c r="EE5" s="25"/>
-      <c r="EF5" s="25"/>
-      <c r="EG5" s="25"/>
-      <c r="EH5" s="25"/>
-      <c r="EI5" s="25"/>
-      <c r="EJ5" s="25"/>
-      <c r="EK5" s="25"/>
-      <c r="EL5" s="25"/>
-      <c r="EM5" s="25"/>
-      <c r="EN5" s="25"/>
-      <c r="EO5" s="26"/>
-      <c r="EP5" s="24">
+      <c r="DG5" s="26"/>
+      <c r="DH5" s="26"/>
+      <c r="DI5" s="26"/>
+      <c r="DJ5" s="26"/>
+      <c r="DK5" s="26"/>
+      <c r="DL5" s="26"/>
+      <c r="DM5" s="26"/>
+      <c r="DN5" s="26"/>
+      <c r="DO5" s="26"/>
+      <c r="DP5" s="26"/>
+      <c r="DQ5" s="26"/>
+      <c r="DR5" s="26"/>
+      <c r="DS5" s="26"/>
+      <c r="DT5" s="26"/>
+      <c r="DU5" s="26"/>
+      <c r="DV5" s="26"/>
+      <c r="DW5" s="26"/>
+      <c r="DX5" s="26"/>
+      <c r="DY5" s="26"/>
+      <c r="DZ5" s="26"/>
+      <c r="EA5" s="26"/>
+      <c r="EB5" s="26"/>
+      <c r="EC5" s="26"/>
+      <c r="ED5" s="26"/>
+      <c r="EE5" s="26"/>
+      <c r="EF5" s="26"/>
+      <c r="EG5" s="26"/>
+      <c r="EH5" s="26"/>
+      <c r="EI5" s="26"/>
+      <c r="EJ5" s="26"/>
+      <c r="EK5" s="26"/>
+      <c r="EL5" s="26"/>
+      <c r="EM5" s="26"/>
+      <c r="EN5" s="26"/>
+      <c r="EO5" s="27"/>
+      <c r="EP5" s="25">
         <v>2002</v>
       </c>
-      <c r="EQ5" s="25"/>
-      <c r="ER5" s="25"/>
-      <c r="ES5" s="25"/>
-      <c r="ET5" s="25"/>
-      <c r="EU5" s="25"/>
-      <c r="EV5" s="25"/>
-      <c r="EW5" s="25"/>
-      <c r="EX5" s="25"/>
-      <c r="EY5" s="25"/>
-      <c r="EZ5" s="25"/>
-      <c r="FA5" s="25"/>
-      <c r="FB5" s="25"/>
-      <c r="FC5" s="25"/>
-      <c r="FD5" s="25"/>
-      <c r="FE5" s="25"/>
-      <c r="FF5" s="25"/>
-      <c r="FG5" s="25"/>
-      <c r="FH5" s="25"/>
-      <c r="FI5" s="25"/>
-      <c r="FJ5" s="25"/>
-      <c r="FK5" s="25"/>
-      <c r="FL5" s="25"/>
-      <c r="FM5" s="25"/>
-      <c r="FN5" s="25"/>
-      <c r="FO5" s="25"/>
-      <c r="FP5" s="25"/>
-      <c r="FQ5" s="25"/>
-      <c r="FR5" s="25"/>
-      <c r="FS5" s="25"/>
-      <c r="FT5" s="25"/>
-      <c r="FU5" s="25"/>
-      <c r="FV5" s="25"/>
-      <c r="FW5" s="25"/>
-      <c r="FX5" s="25"/>
-      <c r="FY5" s="26"/>
-      <c r="FZ5" s="24">
+      <c r="EQ5" s="26"/>
+      <c r="ER5" s="26"/>
+      <c r="ES5" s="26"/>
+      <c r="ET5" s="26"/>
+      <c r="EU5" s="26"/>
+      <c r="EV5" s="26"/>
+      <c r="EW5" s="26"/>
+      <c r="EX5" s="26"/>
+      <c r="EY5" s="26"/>
+      <c r="EZ5" s="26"/>
+      <c r="FA5" s="26"/>
+      <c r="FB5" s="26"/>
+      <c r="FC5" s="26"/>
+      <c r="FD5" s="26"/>
+      <c r="FE5" s="26"/>
+      <c r="FF5" s="26"/>
+      <c r="FG5" s="26"/>
+      <c r="FH5" s="26"/>
+      <c r="FI5" s="26"/>
+      <c r="FJ5" s="26"/>
+      <c r="FK5" s="26"/>
+      <c r="FL5" s="26"/>
+      <c r="FM5" s="26"/>
+      <c r="FN5" s="26"/>
+      <c r="FO5" s="26"/>
+      <c r="FP5" s="26"/>
+      <c r="FQ5" s="26"/>
+      <c r="FR5" s="26"/>
+      <c r="FS5" s="26"/>
+      <c r="FT5" s="26"/>
+      <c r="FU5" s="26"/>
+      <c r="FV5" s="26"/>
+      <c r="FW5" s="26"/>
+      <c r="FX5" s="26"/>
+      <c r="FY5" s="27"/>
+      <c r="FZ5" s="25">
         <v>2003</v>
       </c>
-      <c r="GA5" s="25"/>
-      <c r="GB5" s="25"/>
-      <c r="GC5" s="25"/>
-      <c r="GD5" s="25"/>
-      <c r="GE5" s="25"/>
-      <c r="GF5" s="25"/>
-      <c r="GG5" s="25"/>
-      <c r="GH5" s="25"/>
-      <c r="GI5" s="25"/>
-      <c r="GJ5" s="25"/>
-      <c r="GK5" s="25"/>
-      <c r="GL5" s="25"/>
-      <c r="GM5" s="25"/>
-      <c r="GN5" s="25"/>
-      <c r="GO5" s="25"/>
-      <c r="GP5" s="25"/>
-      <c r="GQ5" s="25"/>
-      <c r="GR5" s="25"/>
-      <c r="GS5" s="25"/>
-      <c r="GT5" s="25"/>
-      <c r="GU5" s="25"/>
-      <c r="GV5" s="25"/>
-      <c r="GW5" s="25"/>
-      <c r="GX5" s="25"/>
-      <c r="GY5" s="25"/>
-      <c r="GZ5" s="25"/>
-      <c r="HA5" s="25"/>
-      <c r="HB5" s="25"/>
-      <c r="HC5" s="25"/>
-      <c r="HD5" s="25"/>
-      <c r="HE5" s="25"/>
-      <c r="HF5" s="25"/>
-      <c r="HG5" s="25"/>
-      <c r="HH5" s="25"/>
-      <c r="HI5" s="26"/>
-      <c r="HJ5" s="24">
+      <c r="GA5" s="26"/>
+      <c r="GB5" s="26"/>
+      <c r="GC5" s="26"/>
+      <c r="GD5" s="26"/>
+      <c r="GE5" s="26"/>
+      <c r="GF5" s="26"/>
+      <c r="GG5" s="26"/>
+      <c r="GH5" s="26"/>
+      <c r="GI5" s="26"/>
+      <c r="GJ5" s="26"/>
+      <c r="GK5" s="26"/>
+      <c r="GL5" s="26"/>
+      <c r="GM5" s="26"/>
+      <c r="GN5" s="26"/>
+      <c r="GO5" s="26"/>
+      <c r="GP5" s="26"/>
+      <c r="GQ5" s="26"/>
+      <c r="GR5" s="26"/>
+      <c r="GS5" s="26"/>
+      <c r="GT5" s="26"/>
+      <c r="GU5" s="26"/>
+      <c r="GV5" s="26"/>
+      <c r="GW5" s="26"/>
+      <c r="GX5" s="26"/>
+      <c r="GY5" s="26"/>
+      <c r="GZ5" s="26"/>
+      <c r="HA5" s="26"/>
+      <c r="HB5" s="26"/>
+      <c r="HC5" s="26"/>
+      <c r="HD5" s="26"/>
+      <c r="HE5" s="26"/>
+      <c r="HF5" s="26"/>
+      <c r="HG5" s="26"/>
+      <c r="HH5" s="26"/>
+      <c r="HI5" s="27"/>
+      <c r="HJ5" s="25">
         <v>2004</v>
       </c>
-      <c r="HK5" s="25"/>
-      <c r="HL5" s="25"/>
-      <c r="HM5" s="25"/>
-      <c r="HN5" s="25"/>
-      <c r="HO5" s="25"/>
-      <c r="HP5" s="25"/>
-      <c r="HQ5" s="25"/>
-      <c r="HR5" s="25"/>
-      <c r="HS5" s="25"/>
-      <c r="HT5" s="25"/>
-      <c r="HU5" s="25"/>
-      <c r="HV5" s="25"/>
-      <c r="HW5" s="25"/>
-      <c r="HX5" s="25"/>
-      <c r="HY5" s="25"/>
-      <c r="HZ5" s="25"/>
-      <c r="IA5" s="25"/>
-      <c r="IB5" s="25"/>
-      <c r="IC5" s="25"/>
-      <c r="ID5" s="25"/>
-      <c r="IE5" s="25"/>
-      <c r="IF5" s="25"/>
-      <c r="IG5" s="25"/>
-      <c r="IH5" s="25"/>
-      <c r="II5" s="25"/>
-      <c r="IJ5" s="25"/>
-      <c r="IK5" s="25"/>
-      <c r="IL5" s="25"/>
-      <c r="IM5" s="25"/>
-      <c r="IN5" s="25"/>
-      <c r="IO5" s="25"/>
-      <c r="IP5" s="25"/>
-      <c r="IQ5" s="25"/>
-      <c r="IR5" s="25"/>
-      <c r="IS5" s="26"/>
-      <c r="IT5" s="24">
+      <c r="HK5" s="26"/>
+      <c r="HL5" s="26"/>
+      <c r="HM5" s="26"/>
+      <c r="HN5" s="26"/>
+      <c r="HO5" s="26"/>
+      <c r="HP5" s="26"/>
+      <c r="HQ5" s="26"/>
+      <c r="HR5" s="26"/>
+      <c r="HS5" s="26"/>
+      <c r="HT5" s="26"/>
+      <c r="HU5" s="26"/>
+      <c r="HV5" s="26"/>
+      <c r="HW5" s="26"/>
+      <c r="HX5" s="26"/>
+      <c r="HY5" s="26"/>
+      <c r="HZ5" s="26"/>
+      <c r="IA5" s="26"/>
+      <c r="IB5" s="26"/>
+      <c r="IC5" s="26"/>
+      <c r="ID5" s="26"/>
+      <c r="IE5" s="26"/>
+      <c r="IF5" s="26"/>
+      <c r="IG5" s="26"/>
+      <c r="IH5" s="26"/>
+      <c r="II5" s="26"/>
+      <c r="IJ5" s="26"/>
+      <c r="IK5" s="26"/>
+      <c r="IL5" s="26"/>
+      <c r="IM5" s="26"/>
+      <c r="IN5" s="26"/>
+      <c r="IO5" s="26"/>
+      <c r="IP5" s="26"/>
+      <c r="IQ5" s="26"/>
+      <c r="IR5" s="26"/>
+      <c r="IS5" s="27"/>
+      <c r="IT5" s="25">
         <v>2005</v>
       </c>
-      <c r="IU5" s="25"/>
-      <c r="IV5" s="25"/>
-      <c r="IW5" s="25"/>
-      <c r="IX5" s="25"/>
-      <c r="IY5" s="25"/>
-      <c r="IZ5" s="25"/>
-      <c r="JA5" s="25"/>
-      <c r="JB5" s="25"/>
-      <c r="JC5" s="25"/>
-      <c r="JD5" s="25"/>
-      <c r="JE5" s="25"/>
-      <c r="JF5" s="25"/>
-      <c r="JG5" s="25"/>
-      <c r="JH5" s="25"/>
-      <c r="JI5" s="25"/>
-      <c r="JJ5" s="25"/>
-      <c r="JK5" s="25"/>
-      <c r="JL5" s="25"/>
-      <c r="JM5" s="25"/>
-      <c r="JN5" s="25"/>
-      <c r="JO5" s="25"/>
-      <c r="JP5" s="25"/>
-      <c r="JQ5" s="25"/>
-      <c r="JR5" s="25"/>
-      <c r="JS5" s="25"/>
-      <c r="JT5" s="25"/>
-      <c r="JU5" s="25"/>
-      <c r="JV5" s="25"/>
-      <c r="JW5" s="25"/>
-      <c r="JX5" s="25"/>
-      <c r="JY5" s="25"/>
-      <c r="JZ5" s="25"/>
-      <c r="KA5" s="25"/>
-      <c r="KB5" s="25"/>
-      <c r="KC5" s="26"/>
-      <c r="KD5" s="24">
+      <c r="IU5" s="26"/>
+      <c r="IV5" s="26"/>
+      <c r="IW5" s="26"/>
+      <c r="IX5" s="26"/>
+      <c r="IY5" s="26"/>
+      <c r="IZ5" s="26"/>
+      <c r="JA5" s="26"/>
+      <c r="JB5" s="26"/>
+      <c r="JC5" s="26"/>
+      <c r="JD5" s="26"/>
+      <c r="JE5" s="26"/>
+      <c r="JF5" s="26"/>
+      <c r="JG5" s="26"/>
+      <c r="JH5" s="26"/>
+      <c r="JI5" s="26"/>
+      <c r="JJ5" s="26"/>
+      <c r="JK5" s="26"/>
+      <c r="JL5" s="26"/>
+      <c r="JM5" s="26"/>
+      <c r="JN5" s="26"/>
+      <c r="JO5" s="26"/>
+      <c r="JP5" s="26"/>
+      <c r="JQ5" s="26"/>
+      <c r="JR5" s="26"/>
+      <c r="JS5" s="26"/>
+      <c r="JT5" s="26"/>
+      <c r="JU5" s="26"/>
+      <c r="JV5" s="26"/>
+      <c r="JW5" s="26"/>
+      <c r="JX5" s="26"/>
+      <c r="JY5" s="26"/>
+      <c r="JZ5" s="26"/>
+      <c r="KA5" s="26"/>
+      <c r="KB5" s="26"/>
+      <c r="KC5" s="27"/>
+      <c r="KD5" s="25">
         <v>2006</v>
       </c>
-      <c r="KE5" s="25"/>
-      <c r="KF5" s="25"/>
-      <c r="KG5" s="25"/>
-      <c r="KH5" s="25"/>
-      <c r="KI5" s="25"/>
-      <c r="KJ5" s="25"/>
-      <c r="KK5" s="25"/>
-      <c r="KL5" s="25"/>
-      <c r="KM5" s="25"/>
-      <c r="KN5" s="25"/>
-      <c r="KO5" s="25"/>
-      <c r="KP5" s="25"/>
-      <c r="KQ5" s="25"/>
-      <c r="KR5" s="25"/>
-      <c r="KS5" s="25"/>
-      <c r="KT5" s="25"/>
-      <c r="KU5" s="25"/>
-      <c r="KV5" s="25"/>
-      <c r="KW5" s="25"/>
-      <c r="KX5" s="25"/>
-      <c r="KY5" s="25"/>
-      <c r="KZ5" s="25"/>
-      <c r="LA5" s="25"/>
-      <c r="LB5" s="25"/>
-      <c r="LC5" s="25"/>
-      <c r="LD5" s="25"/>
-      <c r="LE5" s="25"/>
-      <c r="LF5" s="25"/>
-      <c r="LG5" s="25"/>
-      <c r="LH5" s="25"/>
-      <c r="LI5" s="25"/>
-      <c r="LJ5" s="25"/>
-      <c r="LK5" s="25"/>
-      <c r="LL5" s="25"/>
-      <c r="LM5" s="26"/>
-      <c r="LN5" s="24">
+      <c r="KE5" s="26"/>
+      <c r="KF5" s="26"/>
+      <c r="KG5" s="26"/>
+      <c r="KH5" s="26"/>
+      <c r="KI5" s="26"/>
+      <c r="KJ5" s="26"/>
+      <c r="KK5" s="26"/>
+      <c r="KL5" s="26"/>
+      <c r="KM5" s="26"/>
+      <c r="KN5" s="26"/>
+      <c r="KO5" s="26"/>
+      <c r="KP5" s="26"/>
+      <c r="KQ5" s="26"/>
+      <c r="KR5" s="26"/>
+      <c r="KS5" s="26"/>
+      <c r="KT5" s="26"/>
+      <c r="KU5" s="26"/>
+      <c r="KV5" s="26"/>
+      <c r="KW5" s="26"/>
+      <c r="KX5" s="26"/>
+      <c r="KY5" s="26"/>
+      <c r="KZ5" s="26"/>
+      <c r="LA5" s="26"/>
+      <c r="LB5" s="26"/>
+      <c r="LC5" s="26"/>
+      <c r="LD5" s="26"/>
+      <c r="LE5" s="26"/>
+      <c r="LF5" s="26"/>
+      <c r="LG5" s="26"/>
+      <c r="LH5" s="26"/>
+      <c r="LI5" s="26"/>
+      <c r="LJ5" s="26"/>
+      <c r="LK5" s="26"/>
+      <c r="LL5" s="26"/>
+      <c r="LM5" s="27"/>
+      <c r="LN5" s="25">
         <v>2007</v>
       </c>
-      <c r="LO5" s="25"/>
-      <c r="LP5" s="25"/>
-      <c r="LQ5" s="25"/>
-      <c r="LR5" s="25"/>
-      <c r="LS5" s="25"/>
-      <c r="LT5" s="25"/>
-      <c r="LU5" s="25"/>
-      <c r="LV5" s="25"/>
-      <c r="LW5" s="25"/>
-      <c r="LX5" s="25"/>
-      <c r="LY5" s="25"/>
-      <c r="LZ5" s="25"/>
-      <c r="MA5" s="25"/>
-      <c r="MB5" s="25"/>
-      <c r="MC5" s="25"/>
-      <c r="MD5" s="25"/>
-      <c r="ME5" s="25"/>
-      <c r="MF5" s="25"/>
-      <c r="MG5" s="25"/>
-      <c r="MH5" s="25"/>
-      <c r="MI5" s="25"/>
-      <c r="MJ5" s="25"/>
-      <c r="MK5" s="25"/>
-      <c r="ML5" s="25"/>
-      <c r="MM5" s="25"/>
-      <c r="MN5" s="25"/>
-      <c r="MO5" s="25"/>
-      <c r="MP5" s="25"/>
-      <c r="MQ5" s="25"/>
-      <c r="MR5" s="25"/>
-      <c r="MS5" s="25"/>
-      <c r="MT5" s="25"/>
-      <c r="MU5" s="25"/>
-      <c r="MV5" s="25"/>
-      <c r="MW5" s="26"/>
-      <c r="MX5" s="24">
+      <c r="LO5" s="26"/>
+      <c r="LP5" s="26"/>
+      <c r="LQ5" s="26"/>
+      <c r="LR5" s="26"/>
+      <c r="LS5" s="26"/>
+      <c r="LT5" s="26"/>
+      <c r="LU5" s="26"/>
+      <c r="LV5" s="26"/>
+      <c r="LW5" s="26"/>
+      <c r="LX5" s="26"/>
+      <c r="LY5" s="26"/>
+      <c r="LZ5" s="26"/>
+      <c r="MA5" s="26"/>
+      <c r="MB5" s="26"/>
+      <c r="MC5" s="26"/>
+      <c r="MD5" s="26"/>
+      <c r="ME5" s="26"/>
+      <c r="MF5" s="26"/>
+      <c r="MG5" s="26"/>
+      <c r="MH5" s="26"/>
+      <c r="MI5" s="26"/>
+      <c r="MJ5" s="26"/>
+      <c r="MK5" s="26"/>
+      <c r="ML5" s="26"/>
+      <c r="MM5" s="26"/>
+      <c r="MN5" s="26"/>
+      <c r="MO5" s="26"/>
+      <c r="MP5" s="26"/>
+      <c r="MQ5" s="26"/>
+      <c r="MR5" s="26"/>
+      <c r="MS5" s="26"/>
+      <c r="MT5" s="26"/>
+      <c r="MU5" s="26"/>
+      <c r="MV5" s="26"/>
+      <c r="MW5" s="27"/>
+      <c r="MX5" s="25">
         <v>2008</v>
       </c>
-      <c r="MY5" s="25"/>
-      <c r="MZ5" s="25"/>
-      <c r="NA5" s="25"/>
-      <c r="NB5" s="25"/>
-      <c r="NC5" s="25"/>
-      <c r="ND5" s="25"/>
-      <c r="NE5" s="25"/>
-      <c r="NF5" s="25"/>
-      <c r="NG5" s="25"/>
-      <c r="NH5" s="25"/>
-      <c r="NI5" s="25"/>
-      <c r="NJ5" s="25"/>
-      <c r="NK5" s="25"/>
-      <c r="NL5" s="25"/>
-      <c r="NM5" s="25"/>
-      <c r="NN5" s="25"/>
-      <c r="NO5" s="25"/>
-      <c r="NP5" s="25"/>
-      <c r="NQ5" s="25"/>
-      <c r="NR5" s="25"/>
-      <c r="NS5" s="25"/>
-      <c r="NT5" s="25"/>
-      <c r="NU5" s="25"/>
-      <c r="NV5" s="25"/>
-      <c r="NW5" s="25"/>
-      <c r="NX5" s="25"/>
-      <c r="NY5" s="25"/>
-      <c r="NZ5" s="25"/>
-      <c r="OA5" s="25"/>
-      <c r="OB5" s="25"/>
-      <c r="OC5" s="25"/>
-      <c r="OD5" s="25"/>
-      <c r="OE5" s="25"/>
-      <c r="OF5" s="25"/>
-      <c r="OG5" s="26"/>
-      <c r="OH5" s="25">
+      <c r="MY5" s="26"/>
+      <c r="MZ5" s="26"/>
+      <c r="NA5" s="26"/>
+      <c r="NB5" s="26"/>
+      <c r="NC5" s="26"/>
+      <c r="ND5" s="26"/>
+      <c r="NE5" s="26"/>
+      <c r="NF5" s="26"/>
+      <c r="NG5" s="26"/>
+      <c r="NH5" s="26"/>
+      <c r="NI5" s="26"/>
+      <c r="NJ5" s="26"/>
+      <c r="NK5" s="26"/>
+      <c r="NL5" s="26"/>
+      <c r="NM5" s="26"/>
+      <c r="NN5" s="26"/>
+      <c r="NO5" s="26"/>
+      <c r="NP5" s="26"/>
+      <c r="NQ5" s="26"/>
+      <c r="NR5" s="26"/>
+      <c r="NS5" s="26"/>
+      <c r="NT5" s="26"/>
+      <c r="NU5" s="26"/>
+      <c r="NV5" s="26"/>
+      <c r="NW5" s="26"/>
+      <c r="NX5" s="26"/>
+      <c r="NY5" s="26"/>
+      <c r="NZ5" s="26"/>
+      <c r="OA5" s="26"/>
+      <c r="OB5" s="26"/>
+      <c r="OC5" s="26"/>
+      <c r="OD5" s="26"/>
+      <c r="OE5" s="26"/>
+      <c r="OF5" s="26"/>
+      <c r="OG5" s="27"/>
+      <c r="OH5" s="26">
         <v>2009</v>
       </c>
-      <c r="OI5" s="25"/>
-      <c r="OJ5" s="25"/>
-      <c r="OK5" s="25"/>
-      <c r="OL5" s="25"/>
-      <c r="OM5" s="25"/>
-      <c r="ON5" s="25"/>
-      <c r="OO5" s="25"/>
-      <c r="OP5" s="25"/>
-      <c r="OQ5" s="25"/>
-      <c r="OR5" s="25"/>
-      <c r="OS5" s="25"/>
-      <c r="OT5" s="25"/>
-      <c r="OU5" s="25"/>
-      <c r="OV5" s="25"/>
-      <c r="OW5" s="25"/>
-      <c r="OX5" s="25"/>
-      <c r="OY5" s="25"/>
-      <c r="OZ5" s="25"/>
-      <c r="PA5" s="25"/>
-      <c r="PB5" s="25"/>
-      <c r="PC5" s="25"/>
-      <c r="PD5" s="25"/>
-      <c r="PE5" s="25"/>
-      <c r="PF5" s="25"/>
-      <c r="PG5" s="25"/>
-      <c r="PH5" s="25"/>
-      <c r="PI5" s="25"/>
-      <c r="PJ5" s="25"/>
-      <c r="PK5" s="25"/>
-      <c r="PL5" s="25"/>
-      <c r="PM5" s="25"/>
-      <c r="PN5" s="25"/>
-      <c r="PO5" s="25"/>
-      <c r="PP5" s="25"/>
-      <c r="PQ5" s="25"/>
-      <c r="PR5" s="24">
+      <c r="OI5" s="26"/>
+      <c r="OJ5" s="26"/>
+      <c r="OK5" s="26"/>
+      <c r="OL5" s="26"/>
+      <c r="OM5" s="26"/>
+      <c r="ON5" s="26"/>
+      <c r="OO5" s="26"/>
+      <c r="OP5" s="26"/>
+      <c r="OQ5" s="26"/>
+      <c r="OR5" s="26"/>
+      <c r="OS5" s="26"/>
+      <c r="OT5" s="26"/>
+      <c r="OU5" s="26"/>
+      <c r="OV5" s="26"/>
+      <c r="OW5" s="26"/>
+      <c r="OX5" s="26"/>
+      <c r="OY5" s="26"/>
+      <c r="OZ5" s="26"/>
+      <c r="PA5" s="26"/>
+      <c r="PB5" s="26"/>
+      <c r="PC5" s="26"/>
+      <c r="PD5" s="26"/>
+      <c r="PE5" s="26"/>
+      <c r="PF5" s="26"/>
+      <c r="PG5" s="26"/>
+      <c r="PH5" s="26"/>
+      <c r="PI5" s="26"/>
+      <c r="PJ5" s="26"/>
+      <c r="PK5" s="26"/>
+      <c r="PL5" s="26"/>
+      <c r="PM5" s="26"/>
+      <c r="PN5" s="26"/>
+      <c r="PO5" s="26"/>
+      <c r="PP5" s="26"/>
+      <c r="PQ5" s="26"/>
+      <c r="PR5" s="25">
         <v>2010</v>
       </c>
-      <c r="PS5" s="25"/>
-      <c r="PT5" s="25"/>
-      <c r="PU5" s="25"/>
-      <c r="PV5" s="25"/>
-      <c r="PW5" s="25"/>
-      <c r="PX5" s="25"/>
-      <c r="PY5" s="25"/>
-      <c r="PZ5" s="25"/>
-      <c r="QA5" s="25"/>
-      <c r="QB5" s="25"/>
-      <c r="QC5" s="25"/>
-      <c r="QD5" s="25"/>
-      <c r="QE5" s="25"/>
-      <c r="QF5" s="25"/>
-      <c r="QG5" s="25"/>
-      <c r="QH5" s="25"/>
-      <c r="QI5" s="25"/>
-      <c r="QJ5" s="25"/>
-      <c r="QK5" s="25"/>
-      <c r="QL5" s="25"/>
-      <c r="QM5" s="25"/>
-      <c r="QN5" s="25"/>
-      <c r="QO5" s="25"/>
-      <c r="QP5" s="25"/>
-      <c r="QQ5" s="25"/>
-      <c r="QR5" s="25"/>
-      <c r="QS5" s="25"/>
-      <c r="QT5" s="25"/>
-      <c r="QU5" s="25"/>
-      <c r="QV5" s="25"/>
-      <c r="QW5" s="25"/>
-      <c r="QX5" s="25"/>
-      <c r="QY5" s="25"/>
-      <c r="QZ5" s="25"/>
-      <c r="RA5" s="26"/>
-      <c r="RB5" s="24">
+      <c r="PS5" s="26"/>
+      <c r="PT5" s="26"/>
+      <c r="PU5" s="26"/>
+      <c r="PV5" s="26"/>
+      <c r="PW5" s="26"/>
+      <c r="PX5" s="26"/>
+      <c r="PY5" s="26"/>
+      <c r="PZ5" s="26"/>
+      <c r="QA5" s="26"/>
+      <c r="QB5" s="26"/>
+      <c r="QC5" s="26"/>
+      <c r="QD5" s="26"/>
+      <c r="QE5" s="26"/>
+      <c r="QF5" s="26"/>
+      <c r="QG5" s="26"/>
+      <c r="QH5" s="26"/>
+      <c r="QI5" s="26"/>
+      <c r="QJ5" s="26"/>
+      <c r="QK5" s="26"/>
+      <c r="QL5" s="26"/>
+      <c r="QM5" s="26"/>
+      <c r="QN5" s="26"/>
+      <c r="QO5" s="26"/>
+      <c r="QP5" s="26"/>
+      <c r="QQ5" s="26"/>
+      <c r="QR5" s="26"/>
+      <c r="QS5" s="26"/>
+      <c r="QT5" s="26"/>
+      <c r="QU5" s="26"/>
+      <c r="QV5" s="26"/>
+      <c r="QW5" s="26"/>
+      <c r="QX5" s="26"/>
+      <c r="QY5" s="26"/>
+      <c r="QZ5" s="26"/>
+      <c r="RA5" s="27"/>
+      <c r="RB5" s="25">
         <v>2011</v>
       </c>
-      <c r="RC5" s="25"/>
-      <c r="RD5" s="25"/>
-      <c r="RE5" s="25"/>
-      <c r="RF5" s="25"/>
-      <c r="RG5" s="25"/>
-      <c r="RH5" s="25"/>
-      <c r="RI5" s="25"/>
-      <c r="RJ5" s="25"/>
-      <c r="RK5" s="25"/>
-      <c r="RL5" s="25"/>
-      <c r="RM5" s="25"/>
-      <c r="RN5" s="25"/>
-      <c r="RO5" s="25"/>
-      <c r="RP5" s="25"/>
-      <c r="RQ5" s="25"/>
-      <c r="RR5" s="25"/>
-      <c r="RS5" s="25"/>
-      <c r="RT5" s="25"/>
-      <c r="RU5" s="25"/>
-      <c r="RV5" s="25"/>
-      <c r="RW5" s="25"/>
-      <c r="RX5" s="25"/>
-      <c r="RY5" s="25"/>
-      <c r="RZ5" s="25"/>
-      <c r="SA5" s="25"/>
-      <c r="SB5" s="25"/>
-      <c r="SC5" s="25"/>
-      <c r="SD5" s="25"/>
-      <c r="SE5" s="25"/>
-      <c r="SF5" s="25"/>
-      <c r="SG5" s="25"/>
-      <c r="SH5" s="25"/>
-      <c r="SI5" s="25"/>
-      <c r="SJ5" s="25"/>
-      <c r="SK5" s="26"/>
-      <c r="SL5" s="24">
+      <c r="RC5" s="26"/>
+      <c r="RD5" s="26"/>
+      <c r="RE5" s="26"/>
+      <c r="RF5" s="26"/>
+      <c r="RG5" s="26"/>
+      <c r="RH5" s="26"/>
+      <c r="RI5" s="26"/>
+      <c r="RJ5" s="26"/>
+      <c r="RK5" s="26"/>
+      <c r="RL5" s="26"/>
+      <c r="RM5" s="26"/>
+      <c r="RN5" s="26"/>
+      <c r="RO5" s="26"/>
+      <c r="RP5" s="26"/>
+      <c r="RQ5" s="26"/>
+      <c r="RR5" s="26"/>
+      <c r="RS5" s="26"/>
+      <c r="RT5" s="26"/>
+      <c r="RU5" s="26"/>
+      <c r="RV5" s="26"/>
+      <c r="RW5" s="26"/>
+      <c r="RX5" s="26"/>
+      <c r="RY5" s="26"/>
+      <c r="RZ5" s="26"/>
+      <c r="SA5" s="26"/>
+      <c r="SB5" s="26"/>
+      <c r="SC5" s="26"/>
+      <c r="SD5" s="26"/>
+      <c r="SE5" s="26"/>
+      <c r="SF5" s="26"/>
+      <c r="SG5" s="26"/>
+      <c r="SH5" s="26"/>
+      <c r="SI5" s="26"/>
+      <c r="SJ5" s="26"/>
+      <c r="SK5" s="27"/>
+      <c r="SL5" s="25">
         <v>2012</v>
       </c>
-      <c r="SM5" s="25"/>
-      <c r="SN5" s="25"/>
-      <c r="SO5" s="25"/>
-      <c r="SP5" s="25"/>
-      <c r="SQ5" s="25"/>
-      <c r="SR5" s="25"/>
-      <c r="SS5" s="25"/>
-      <c r="ST5" s="25"/>
-      <c r="SU5" s="25"/>
-      <c r="SV5" s="25"/>
-      <c r="SW5" s="25"/>
-      <c r="SX5" s="25"/>
-      <c r="SY5" s="25"/>
-      <c r="SZ5" s="25"/>
-      <c r="TA5" s="25"/>
-      <c r="TB5" s="25"/>
-      <c r="TC5" s="25"/>
-      <c r="TD5" s="25"/>
-      <c r="TE5" s="25"/>
-      <c r="TF5" s="25"/>
-      <c r="TG5" s="25"/>
-      <c r="TH5" s="25"/>
-      <c r="TI5" s="25"/>
-      <c r="TJ5" s="25"/>
-      <c r="TK5" s="25"/>
-      <c r="TL5" s="25"/>
-      <c r="TM5" s="25"/>
-      <c r="TN5" s="25"/>
-      <c r="TO5" s="25"/>
-      <c r="TP5" s="25"/>
-      <c r="TQ5" s="25"/>
-      <c r="TR5" s="25"/>
-      <c r="TS5" s="25"/>
-      <c r="TT5" s="25"/>
-      <c r="TU5" s="26"/>
-      <c r="TV5" s="24">
+      <c r="SM5" s="26"/>
+      <c r="SN5" s="26"/>
+      <c r="SO5" s="26"/>
+      <c r="SP5" s="26"/>
+      <c r="SQ5" s="26"/>
+      <c r="SR5" s="26"/>
+      <c r="SS5" s="26"/>
+      <c r="ST5" s="26"/>
+      <c r="SU5" s="26"/>
+      <c r="SV5" s="26"/>
+      <c r="SW5" s="26"/>
+      <c r="SX5" s="26"/>
+      <c r="SY5" s="26"/>
+      <c r="SZ5" s="26"/>
+      <c r="TA5" s="26"/>
+      <c r="TB5" s="26"/>
+      <c r="TC5" s="26"/>
+      <c r="TD5" s="26"/>
+      <c r="TE5" s="26"/>
+      <c r="TF5" s="26"/>
+      <c r="TG5" s="26"/>
+      <c r="TH5" s="26"/>
+      <c r="TI5" s="26"/>
+      <c r="TJ5" s="26"/>
+      <c r="TK5" s="26"/>
+      <c r="TL5" s="26"/>
+      <c r="TM5" s="26"/>
+      <c r="TN5" s="26"/>
+      <c r="TO5" s="26"/>
+      <c r="TP5" s="26"/>
+      <c r="TQ5" s="26"/>
+      <c r="TR5" s="26"/>
+      <c r="TS5" s="26"/>
+      <c r="TT5" s="26"/>
+      <c r="TU5" s="27"/>
+      <c r="TV5" s="25">
         <v>2013</v>
       </c>
-      <c r="TW5" s="25"/>
-      <c r="TX5" s="25"/>
-      <c r="TY5" s="25"/>
-      <c r="TZ5" s="25"/>
-      <c r="UA5" s="25"/>
-      <c r="UB5" s="25"/>
-      <c r="UC5" s="25"/>
-      <c r="UD5" s="25"/>
-      <c r="UE5" s="25"/>
-      <c r="UF5" s="25"/>
-      <c r="UG5" s="25"/>
-      <c r="UH5" s="25"/>
-      <c r="UI5" s="25"/>
-      <c r="UJ5" s="25"/>
-      <c r="UK5" s="25"/>
-      <c r="UL5" s="25"/>
-      <c r="UM5" s="25"/>
-      <c r="UN5" s="25"/>
-      <c r="UO5" s="25"/>
-      <c r="UP5" s="25"/>
-      <c r="UQ5" s="25"/>
-      <c r="UR5" s="25"/>
-      <c r="US5" s="25"/>
-      <c r="UT5" s="25"/>
-      <c r="UU5" s="25"/>
-      <c r="UV5" s="25"/>
-      <c r="UW5" s="25"/>
-      <c r="UX5" s="25"/>
-      <c r="UY5" s="25"/>
-      <c r="UZ5" s="25"/>
-      <c r="VA5" s="25"/>
-      <c r="VB5" s="25"/>
-      <c r="VC5" s="25"/>
-      <c r="VD5" s="25"/>
-      <c r="VE5" s="26"/>
-      <c r="VF5" s="24">
+      <c r="TW5" s="26"/>
+      <c r="TX5" s="26"/>
+      <c r="TY5" s="26"/>
+      <c r="TZ5" s="26"/>
+      <c r="UA5" s="26"/>
+      <c r="UB5" s="26"/>
+      <c r="UC5" s="26"/>
+      <c r="UD5" s="26"/>
+      <c r="UE5" s="26"/>
+      <c r="UF5" s="26"/>
+      <c r="UG5" s="26"/>
+      <c r="UH5" s="26"/>
+      <c r="UI5" s="26"/>
+      <c r="UJ5" s="26"/>
+      <c r="UK5" s="26"/>
+      <c r="UL5" s="26"/>
+      <c r="UM5" s="26"/>
+      <c r="UN5" s="26"/>
+      <c r="UO5" s="26"/>
+      <c r="UP5" s="26"/>
+      <c r="UQ5" s="26"/>
+      <c r="UR5" s="26"/>
+      <c r="US5" s="26"/>
+      <c r="UT5" s="26"/>
+      <c r="UU5" s="26"/>
+      <c r="UV5" s="26"/>
+      <c r="UW5" s="26"/>
+      <c r="UX5" s="26"/>
+      <c r="UY5" s="26"/>
+      <c r="UZ5" s="26"/>
+      <c r="VA5" s="26"/>
+      <c r="VB5" s="26"/>
+      <c r="VC5" s="26"/>
+      <c r="VD5" s="26"/>
+      <c r="VE5" s="27"/>
+      <c r="VF5" s="25">
         <v>2014</v>
       </c>
-      <c r="VG5" s="25"/>
-      <c r="VH5" s="25"/>
-      <c r="VI5" s="25"/>
-      <c r="VJ5" s="25"/>
-      <c r="VK5" s="25"/>
-      <c r="VL5" s="25"/>
-      <c r="VM5" s="25"/>
-      <c r="VN5" s="25"/>
-      <c r="VO5" s="25"/>
-      <c r="VP5" s="25"/>
-      <c r="VQ5" s="25"/>
-      <c r="VR5" s="25"/>
-      <c r="VS5" s="25"/>
-      <c r="VT5" s="25"/>
-      <c r="VU5" s="25"/>
-      <c r="VV5" s="25"/>
-      <c r="VW5" s="25"/>
-      <c r="VX5" s="25"/>
-      <c r="VY5" s="25"/>
-      <c r="VZ5" s="25"/>
-      <c r="WA5" s="25"/>
-      <c r="WB5" s="25"/>
-      <c r="WC5" s="25"/>
-      <c r="WD5" s="25"/>
-      <c r="WE5" s="25"/>
-      <c r="WF5" s="25"/>
-      <c r="WG5" s="25"/>
-      <c r="WH5" s="25"/>
-      <c r="WI5" s="25"/>
-      <c r="WJ5" s="25"/>
-      <c r="WK5" s="25"/>
-      <c r="WL5" s="25"/>
-      <c r="WM5" s="25"/>
-      <c r="WN5" s="25"/>
-      <c r="WO5" s="26"/>
-      <c r="WP5" s="24">
+      <c r="VG5" s="26"/>
+      <c r="VH5" s="26"/>
+      <c r="VI5" s="26"/>
+      <c r="VJ5" s="26"/>
+      <c r="VK5" s="26"/>
+      <c r="VL5" s="26"/>
+      <c r="VM5" s="26"/>
+      <c r="VN5" s="26"/>
+      <c r="VO5" s="26"/>
+      <c r="VP5" s="26"/>
+      <c r="VQ5" s="26"/>
+      <c r="VR5" s="26"/>
+      <c r="VS5" s="26"/>
+      <c r="VT5" s="26"/>
+      <c r="VU5" s="26"/>
+      <c r="VV5" s="26"/>
+      <c r="VW5" s="26"/>
+      <c r="VX5" s="26"/>
+      <c r="VY5" s="26"/>
+      <c r="VZ5" s="26"/>
+      <c r="WA5" s="26"/>
+      <c r="WB5" s="26"/>
+      <c r="WC5" s="26"/>
+      <c r="WD5" s="26"/>
+      <c r="WE5" s="26"/>
+      <c r="WF5" s="26"/>
+      <c r="WG5" s="26"/>
+      <c r="WH5" s="26"/>
+      <c r="WI5" s="26"/>
+      <c r="WJ5" s="26"/>
+      <c r="WK5" s="26"/>
+      <c r="WL5" s="26"/>
+      <c r="WM5" s="26"/>
+      <c r="WN5" s="26"/>
+      <c r="WO5" s="27"/>
+      <c r="WP5" s="25">
         <v>2015</v>
       </c>
-      <c r="WQ5" s="25"/>
-      <c r="WR5" s="25"/>
-      <c r="WS5" s="25"/>
-      <c r="WT5" s="25"/>
-      <c r="WU5" s="25"/>
-      <c r="WV5" s="25"/>
-      <c r="WW5" s="25"/>
-      <c r="WX5" s="25"/>
-      <c r="WY5" s="25"/>
-      <c r="WZ5" s="25"/>
-      <c r="XA5" s="25"/>
-      <c r="XB5" s="25"/>
-      <c r="XC5" s="25"/>
-      <c r="XD5" s="25"/>
-      <c r="XE5" s="25"/>
-      <c r="XF5" s="25"/>
-      <c r="XG5" s="25"/>
-      <c r="XH5" s="25"/>
-      <c r="XI5" s="25"/>
-      <c r="XJ5" s="25"/>
-      <c r="XK5" s="25"/>
-      <c r="XL5" s="25"/>
-      <c r="XM5" s="25"/>
-      <c r="XN5" s="25"/>
-      <c r="XO5" s="25"/>
-      <c r="XP5" s="25"/>
-      <c r="XQ5" s="25"/>
-      <c r="XR5" s="25"/>
-      <c r="XS5" s="25"/>
-      <c r="XT5" s="25"/>
-      <c r="XU5" s="25"/>
-      <c r="XV5" s="25"/>
-      <c r="XW5" s="25"/>
-      <c r="XX5" s="25"/>
-      <c r="XY5" s="26"/>
-      <c r="XZ5" s="24">
+      <c r="WQ5" s="26"/>
+      <c r="WR5" s="26"/>
+      <c r="WS5" s="26"/>
+      <c r="WT5" s="26"/>
+      <c r="WU5" s="26"/>
+      <c r="WV5" s="26"/>
+      <c r="WW5" s="26"/>
+      <c r="WX5" s="26"/>
+      <c r="WY5" s="26"/>
+      <c r="WZ5" s="26"/>
+      <c r="XA5" s="26"/>
+      <c r="XB5" s="26"/>
+      <c r="XC5" s="26"/>
+      <c r="XD5" s="26"/>
+      <c r="XE5" s="26"/>
+      <c r="XF5" s="26"/>
+      <c r="XG5" s="26"/>
+      <c r="XH5" s="26"/>
+      <c r="XI5" s="26"/>
+      <c r="XJ5" s="26"/>
+      <c r="XK5" s="26"/>
+      <c r="XL5" s="26"/>
+      <c r="XM5" s="26"/>
+      <c r="XN5" s="26"/>
+      <c r="XO5" s="26"/>
+      <c r="XP5" s="26"/>
+      <c r="XQ5" s="26"/>
+      <c r="XR5" s="26"/>
+      <c r="XS5" s="26"/>
+      <c r="XT5" s="26"/>
+      <c r="XU5" s="26"/>
+      <c r="XV5" s="26"/>
+      <c r="XW5" s="26"/>
+      <c r="XX5" s="26"/>
+      <c r="XY5" s="27"/>
+      <c r="XZ5" s="25">
         <v>2016</v>
       </c>
-      <c r="YA5" s="25"/>
-      <c r="YB5" s="25"/>
-      <c r="YC5" s="25"/>
-      <c r="YD5" s="25"/>
-      <c r="YE5" s="25"/>
-      <c r="YF5" s="25"/>
-      <c r="YG5" s="25"/>
-      <c r="YH5" s="25"/>
-      <c r="YI5" s="25"/>
-      <c r="YJ5" s="25"/>
-      <c r="YK5" s="25"/>
-      <c r="YL5" s="25"/>
-      <c r="YM5" s="25"/>
-      <c r="YN5" s="25"/>
-      <c r="YO5" s="25"/>
-      <c r="YP5" s="25"/>
-      <c r="YQ5" s="25"/>
-      <c r="YR5" s="25"/>
-      <c r="YS5" s="25"/>
-      <c r="YT5" s="25"/>
-      <c r="YU5" s="25"/>
-      <c r="YV5" s="25"/>
-      <c r="YW5" s="25"/>
-      <c r="YX5" s="25"/>
-      <c r="YY5" s="25"/>
-      <c r="YZ5" s="25"/>
-      <c r="ZA5" s="25"/>
-      <c r="ZB5" s="25"/>
-      <c r="ZC5" s="25"/>
-      <c r="ZD5" s="25"/>
-      <c r="ZE5" s="25"/>
-      <c r="ZF5" s="25"/>
-      <c r="ZG5" s="25"/>
-      <c r="ZH5" s="25"/>
-      <c r="ZI5" s="26"/>
-      <c r="ZJ5" s="24">
+      <c r="YA5" s="26"/>
+      <c r="YB5" s="26"/>
+      <c r="YC5" s="26"/>
+      <c r="YD5" s="26"/>
+      <c r="YE5" s="26"/>
+      <c r="YF5" s="26"/>
+      <c r="YG5" s="26"/>
+      <c r="YH5" s="26"/>
+      <c r="YI5" s="26"/>
+      <c r="YJ5" s="26"/>
+      <c r="YK5" s="26"/>
+      <c r="YL5" s="26"/>
+      <c r="YM5" s="26"/>
+      <c r="YN5" s="26"/>
+      <c r="YO5" s="26"/>
+      <c r="YP5" s="26"/>
+      <c r="YQ5" s="26"/>
+      <c r="YR5" s="26"/>
+      <c r="YS5" s="26"/>
+      <c r="YT5" s="26"/>
+      <c r="YU5" s="26"/>
+      <c r="YV5" s="26"/>
+      <c r="YW5" s="26"/>
+      <c r="YX5" s="26"/>
+      <c r="YY5" s="26"/>
+      <c r="YZ5" s="26"/>
+      <c r="ZA5" s="26"/>
+      <c r="ZB5" s="26"/>
+      <c r="ZC5" s="26"/>
+      <c r="ZD5" s="26"/>
+      <c r="ZE5" s="26"/>
+      <c r="ZF5" s="26"/>
+      <c r="ZG5" s="26"/>
+      <c r="ZH5" s="26"/>
+      <c r="ZI5" s="27"/>
+      <c r="ZJ5" s="25">
         <v>2017</v>
       </c>
-      <c r="ZK5" s="25"/>
-      <c r="ZL5" s="25"/>
-      <c r="ZM5" s="25"/>
-      <c r="ZN5" s="25"/>
-      <c r="ZO5" s="25"/>
-      <c r="ZP5" s="25"/>
-      <c r="ZQ5" s="25"/>
-      <c r="ZR5" s="25"/>
-      <c r="ZS5" s="25"/>
-      <c r="ZT5" s="25"/>
-      <c r="ZU5" s="25"/>
-      <c r="ZV5" s="25"/>
-      <c r="ZW5" s="25"/>
-      <c r="ZX5" s="25"/>
-      <c r="ZY5" s="25"/>
-      <c r="ZZ5" s="25"/>
-      <c r="AAA5" s="25"/>
-      <c r="AAB5" s="25"/>
-      <c r="AAC5" s="25"/>
-      <c r="AAD5" s="25"/>
-      <c r="AAE5" s="25"/>
-      <c r="AAF5" s="25"/>
-      <c r="AAG5" s="25"/>
-      <c r="AAH5" s="25"/>
-      <c r="AAI5" s="25"/>
-      <c r="AAJ5" s="25"/>
-      <c r="AAK5" s="25"/>
-      <c r="AAL5" s="25"/>
-      <c r="AAM5" s="25"/>
-      <c r="AAN5" s="25"/>
-      <c r="AAO5" s="25"/>
-      <c r="AAP5" s="25"/>
-      <c r="AAQ5" s="25"/>
-      <c r="AAR5" s="25"/>
-      <c r="AAS5" s="26"/>
-      <c r="AAT5" s="24">
+      <c r="ZK5" s="26"/>
+      <c r="ZL5" s="26"/>
+      <c r="ZM5" s="26"/>
+      <c r="ZN5" s="26"/>
+      <c r="ZO5" s="26"/>
+      <c r="ZP5" s="26"/>
+      <c r="ZQ5" s="26"/>
+      <c r="ZR5" s="26"/>
+      <c r="ZS5" s="26"/>
+      <c r="ZT5" s="26"/>
+      <c r="ZU5" s="26"/>
+      <c r="ZV5" s="26"/>
+      <c r="ZW5" s="26"/>
+      <c r="ZX5" s="26"/>
+      <c r="ZY5" s="26"/>
+      <c r="ZZ5" s="26"/>
+      <c r="AAA5" s="26"/>
+      <c r="AAB5" s="26"/>
+      <c r="AAC5" s="26"/>
+      <c r="AAD5" s="26"/>
+      <c r="AAE5" s="26"/>
+      <c r="AAF5" s="26"/>
+      <c r="AAG5" s="26"/>
+      <c r="AAH5" s="26"/>
+      <c r="AAI5" s="26"/>
+      <c r="AAJ5" s="26"/>
+      <c r="AAK5" s="26"/>
+      <c r="AAL5" s="26"/>
+      <c r="AAM5" s="26"/>
+      <c r="AAN5" s="26"/>
+      <c r="AAO5" s="26"/>
+      <c r="AAP5" s="26"/>
+      <c r="AAQ5" s="26"/>
+      <c r="AAR5" s="26"/>
+      <c r="AAS5" s="27"/>
+      <c r="AAT5" s="25">
         <v>2018</v>
       </c>
-      <c r="AAU5" s="25"/>
-      <c r="AAV5" s="25"/>
-      <c r="AAW5" s="25"/>
-      <c r="AAX5" s="25"/>
-      <c r="AAY5" s="25"/>
-      <c r="AAZ5" s="25"/>
-      <c r="ABA5" s="25"/>
-      <c r="ABB5" s="25"/>
-      <c r="ABC5" s="25"/>
-      <c r="ABD5" s="25"/>
-      <c r="ABE5" s="25"/>
-      <c r="ABF5" s="25"/>
-      <c r="ABG5" s="25"/>
-      <c r="ABH5" s="25"/>
-      <c r="ABI5" s="25"/>
-      <c r="ABJ5" s="25"/>
-      <c r="ABK5" s="25"/>
-      <c r="ABL5" s="25"/>
-      <c r="ABM5" s="25"/>
-      <c r="ABN5" s="25"/>
-      <c r="ABO5" s="25"/>
-      <c r="ABP5" s="25"/>
-      <c r="ABQ5" s="25"/>
-      <c r="ABR5" s="25"/>
-      <c r="ABS5" s="25"/>
-      <c r="ABT5" s="25"/>
-      <c r="ABU5" s="25"/>
-      <c r="ABV5" s="25"/>
-      <c r="ABW5" s="25"/>
-      <c r="ABX5" s="25"/>
-      <c r="ABY5" s="25"/>
-      <c r="ABZ5" s="25"/>
-      <c r="ACA5" s="25"/>
-      <c r="ACB5" s="25"/>
-      <c r="ACC5" s="26"/>
-      <c r="ACD5" s="24">
+      <c r="AAU5" s="26"/>
+      <c r="AAV5" s="26"/>
+      <c r="AAW5" s="26"/>
+      <c r="AAX5" s="26"/>
+      <c r="AAY5" s="26"/>
+      <c r="AAZ5" s="26"/>
+      <c r="ABA5" s="26"/>
+      <c r="ABB5" s="26"/>
+      <c r="ABC5" s="26"/>
+      <c r="ABD5" s="26"/>
+      <c r="ABE5" s="26"/>
+      <c r="ABF5" s="26"/>
+      <c r="ABG5" s="26"/>
+      <c r="ABH5" s="26"/>
+      <c r="ABI5" s="26"/>
+      <c r="ABJ5" s="26"/>
+      <c r="ABK5" s="26"/>
+      <c r="ABL5" s="26"/>
+      <c r="ABM5" s="26"/>
+      <c r="ABN5" s="26"/>
+      <c r="ABO5" s="26"/>
+      <c r="ABP5" s="26"/>
+      <c r="ABQ5" s="26"/>
+      <c r="ABR5" s="26"/>
+      <c r="ABS5" s="26"/>
+      <c r="ABT5" s="26"/>
+      <c r="ABU5" s="26"/>
+      <c r="ABV5" s="26"/>
+      <c r="ABW5" s="26"/>
+      <c r="ABX5" s="26"/>
+      <c r="ABY5" s="26"/>
+      <c r="ABZ5" s="26"/>
+      <c r="ACA5" s="26"/>
+      <c r="ACB5" s="26"/>
+      <c r="ACC5" s="27"/>
+      <c r="ACD5" s="25">
         <v>2019</v>
       </c>
-      <c r="ACE5" s="25"/>
-      <c r="ACF5" s="25"/>
-      <c r="ACG5" s="25"/>
-      <c r="ACH5" s="25"/>
-      <c r="ACI5" s="25"/>
-      <c r="ACJ5" s="25"/>
-      <c r="ACK5" s="25"/>
-      <c r="ACL5" s="25"/>
-      <c r="ACM5" s="25"/>
-      <c r="ACN5" s="25"/>
-      <c r="ACO5" s="25"/>
-      <c r="ACP5" s="25"/>
-      <c r="ACQ5" s="25"/>
-      <c r="ACR5" s="25"/>
-      <c r="ACS5" s="25"/>
-      <c r="ACT5" s="25"/>
-      <c r="ACU5" s="25"/>
-      <c r="ACV5" s="25"/>
-      <c r="ACW5" s="25"/>
-      <c r="ACX5" s="25"/>
-      <c r="ACY5" s="25"/>
-      <c r="ACZ5" s="25"/>
-      <c r="ADA5" s="25"/>
-      <c r="ADB5" s="25"/>
-      <c r="ADC5" s="25"/>
-      <c r="ADD5" s="25"/>
-      <c r="ADE5" s="25"/>
-      <c r="ADF5" s="25"/>
-      <c r="ADG5" s="25"/>
-      <c r="ADH5" s="25"/>
-      <c r="ADI5" s="25"/>
-      <c r="ADJ5" s="25"/>
-      <c r="ADK5" s="25"/>
-      <c r="ADL5" s="25"/>
-      <c r="ADM5" s="26"/>
-      <c r="ADN5" s="24">
+      <c r="ACE5" s="26"/>
+      <c r="ACF5" s="26"/>
+      <c r="ACG5" s="26"/>
+      <c r="ACH5" s="26"/>
+      <c r="ACI5" s="26"/>
+      <c r="ACJ5" s="26"/>
+      <c r="ACK5" s="26"/>
+      <c r="ACL5" s="26"/>
+      <c r="ACM5" s="26"/>
+      <c r="ACN5" s="26"/>
+      <c r="ACO5" s="26"/>
+      <c r="ACP5" s="26"/>
+      <c r="ACQ5" s="26"/>
+      <c r="ACR5" s="26"/>
+      <c r="ACS5" s="26"/>
+      <c r="ACT5" s="26"/>
+      <c r="ACU5" s="26"/>
+      <c r="ACV5" s="26"/>
+      <c r="ACW5" s="26"/>
+      <c r="ACX5" s="26"/>
+      <c r="ACY5" s="26"/>
+      <c r="ACZ5" s="26"/>
+      <c r="ADA5" s="26"/>
+      <c r="ADB5" s="26"/>
+      <c r="ADC5" s="26"/>
+      <c r="ADD5" s="26"/>
+      <c r="ADE5" s="26"/>
+      <c r="ADF5" s="26"/>
+      <c r="ADG5" s="26"/>
+      <c r="ADH5" s="26"/>
+      <c r="ADI5" s="26"/>
+      <c r="ADJ5" s="26"/>
+      <c r="ADK5" s="26"/>
+      <c r="ADL5" s="26"/>
+      <c r="ADM5" s="27"/>
+      <c r="ADN5" s="25">
         <v>2020</v>
       </c>
-      <c r="ADO5" s="25"/>
-      <c r="ADP5" s="25"/>
-      <c r="ADQ5" s="25"/>
-      <c r="ADR5" s="25"/>
-      <c r="ADS5" s="25"/>
-      <c r="ADT5" s="25"/>
-      <c r="ADU5" s="25"/>
-      <c r="ADV5" s="25"/>
-      <c r="ADW5" s="25"/>
-      <c r="ADX5" s="25"/>
-      <c r="ADY5" s="25"/>
-      <c r="ADZ5" s="25"/>
-      <c r="AEA5" s="25"/>
-      <c r="AEB5" s="25"/>
-      <c r="AEC5" s="25"/>
-      <c r="AED5" s="25"/>
-      <c r="AEE5" s="25"/>
-      <c r="AEF5" s="25"/>
-      <c r="AEG5" s="25"/>
-      <c r="AEH5" s="25"/>
-      <c r="AEI5" s="25"/>
-      <c r="AEJ5" s="25"/>
-      <c r="AEK5" s="25"/>
-      <c r="AEL5" s="25"/>
-      <c r="AEM5" s="25"/>
-      <c r="AEN5" s="25"/>
-      <c r="AEO5" s="25"/>
-      <c r="AEP5" s="25"/>
-      <c r="AEQ5" s="25"/>
-      <c r="AER5" s="25"/>
-      <c r="AES5" s="25"/>
-      <c r="AET5" s="25"/>
-      <c r="AEU5" s="25"/>
-      <c r="AEV5" s="25"/>
-      <c r="AEW5" s="26"/>
-      <c r="AEX5" s="27">
+      <c r="ADO5" s="26"/>
+      <c r="ADP5" s="26"/>
+      <c r="ADQ5" s="26"/>
+      <c r="ADR5" s="26"/>
+      <c r="ADS5" s="26"/>
+      <c r="ADT5" s="26"/>
+      <c r="ADU5" s="26"/>
+      <c r="ADV5" s="26"/>
+      <c r="ADW5" s="26"/>
+      <c r="ADX5" s="26"/>
+      <c r="ADY5" s="26"/>
+      <c r="ADZ5" s="26"/>
+      <c r="AEA5" s="26"/>
+      <c r="AEB5" s="26"/>
+      <c r="AEC5" s="26"/>
+      <c r="AED5" s="26"/>
+      <c r="AEE5" s="26"/>
+      <c r="AEF5" s="26"/>
+      <c r="AEG5" s="26"/>
+      <c r="AEH5" s="26"/>
+      <c r="AEI5" s="26"/>
+      <c r="AEJ5" s="26"/>
+      <c r="AEK5" s="26"/>
+      <c r="AEL5" s="26"/>
+      <c r="AEM5" s="26"/>
+      <c r="AEN5" s="26"/>
+      <c r="AEO5" s="26"/>
+      <c r="AEP5" s="26"/>
+      <c r="AEQ5" s="26"/>
+      <c r="AER5" s="26"/>
+      <c r="AES5" s="26"/>
+      <c r="AET5" s="26"/>
+      <c r="AEU5" s="26"/>
+      <c r="AEV5" s="26"/>
+      <c r="AEW5" s="27"/>
+      <c r="AEX5" s="24">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="27"/>
-      <c r="AEZ5" s="27"/>
-      <c r="AFA5" s="27"/>
-      <c r="AFB5" s="27"/>
-      <c r="AFC5" s="27"/>
-      <c r="AFD5" s="27"/>
-      <c r="AFE5" s="27"/>
-      <c r="AFF5" s="27"/>
-      <c r="AFG5" s="27"/>
-      <c r="AFH5" s="27"/>
-      <c r="AFI5" s="27"/>
-      <c r="AFJ5" s="27"/>
-      <c r="AFK5" s="27"/>
-      <c r="AFL5" s="27"/>
-      <c r="AFM5" s="27"/>
-      <c r="AFN5" s="27"/>
-      <c r="AFO5" s="27"/>
-      <c r="AFP5" s="27"/>
-      <c r="AFQ5" s="27"/>
-      <c r="AFR5" s="27"/>
-      <c r="AFS5" s="27"/>
-      <c r="AFT5" s="27"/>
-      <c r="AFU5" s="27"/>
-      <c r="AFV5" s="27"/>
-      <c r="AFW5" s="27"/>
-      <c r="AFX5" s="27"/>
-      <c r="AFY5" s="27"/>
-      <c r="AFZ5" s="27"/>
-      <c r="AGA5" s="27"/>
-      <c r="AGB5" s="27"/>
-      <c r="AGC5" s="27"/>
-      <c r="AGD5" s="27"/>
-      <c r="AGE5" s="27"/>
-      <c r="AGF5" s="27"/>
-      <c r="AGG5" s="27"/>
-      <c r="AGH5" s="24">
+      <c r="AEY5" s="24"/>
+      <c r="AEZ5" s="24"/>
+      <c r="AFA5" s="24"/>
+      <c r="AFB5" s="24"/>
+      <c r="AFC5" s="24"/>
+      <c r="AFD5" s="24"/>
+      <c r="AFE5" s="24"/>
+      <c r="AFF5" s="24"/>
+      <c r="AFG5" s="24"/>
+      <c r="AFH5" s="24"/>
+      <c r="AFI5" s="24"/>
+      <c r="AFJ5" s="24"/>
+      <c r="AFK5" s="24"/>
+      <c r="AFL5" s="24"/>
+      <c r="AFM5" s="24"/>
+      <c r="AFN5" s="24"/>
+      <c r="AFO5" s="24"/>
+      <c r="AFP5" s="24"/>
+      <c r="AFQ5" s="24"/>
+      <c r="AFR5" s="24"/>
+      <c r="AFS5" s="24"/>
+      <c r="AFT5" s="24"/>
+      <c r="AFU5" s="24"/>
+      <c r="AFV5" s="24"/>
+      <c r="AFW5" s="24"/>
+      <c r="AFX5" s="24"/>
+      <c r="AFY5" s="24"/>
+      <c r="AFZ5" s="24"/>
+      <c r="AGA5" s="24"/>
+      <c r="AGB5" s="24"/>
+      <c r="AGC5" s="24"/>
+      <c r="AGD5" s="24"/>
+      <c r="AGE5" s="24"/>
+      <c r="AGF5" s="24"/>
+      <c r="AGG5" s="24"/>
+      <c r="AGH5" s="25">
         <v>2022</v>
       </c>
-      <c r="AGI5" s="25"/>
-      <c r="AGJ5" s="25"/>
-      <c r="AGK5" s="25"/>
-      <c r="AGL5" s="25"/>
-      <c r="AGM5" s="25"/>
-      <c r="AGN5" s="25"/>
-      <c r="AGO5" s="25"/>
-      <c r="AGP5" s="25"/>
-      <c r="AGQ5" s="25"/>
-      <c r="AGR5" s="25"/>
-      <c r="AGS5" s="25"/>
-      <c r="AGT5" s="25"/>
-      <c r="AGU5" s="25"/>
-      <c r="AGV5" s="25"/>
-      <c r="AGW5" s="25"/>
-      <c r="AGX5" s="25"/>
-      <c r="AGY5" s="25"/>
-      <c r="AGZ5" s="25"/>
-      <c r="AHA5" s="25"/>
-      <c r="AHB5" s="25"/>
-      <c r="AHC5" s="25"/>
-      <c r="AHD5" s="25"/>
-      <c r="AHE5" s="25"/>
-      <c r="AHF5" s="25"/>
-      <c r="AHG5" s="25"/>
-      <c r="AHH5" s="25"/>
-      <c r="AHI5" s="25"/>
-      <c r="AHJ5" s="25"/>
-      <c r="AHK5" s="25"/>
-      <c r="AHL5" s="25"/>
-      <c r="AHM5" s="25"/>
-      <c r="AHN5" s="25"/>
-      <c r="AHO5" s="25"/>
-      <c r="AHP5" s="25"/>
-      <c r="AHQ5" s="26"/>
-      <c r="AHR5" s="27">
+      <c r="AGI5" s="26"/>
+      <c r="AGJ5" s="26"/>
+      <c r="AGK5" s="26"/>
+      <c r="AGL5" s="26"/>
+      <c r="AGM5" s="26"/>
+      <c r="AGN5" s="26"/>
+      <c r="AGO5" s="26"/>
+      <c r="AGP5" s="26"/>
+      <c r="AGQ5" s="26"/>
+      <c r="AGR5" s="26"/>
+      <c r="AGS5" s="26"/>
+      <c r="AGT5" s="26"/>
+      <c r="AGU5" s="26"/>
+      <c r="AGV5" s="26"/>
+      <c r="AGW5" s="26"/>
+      <c r="AGX5" s="26"/>
+      <c r="AGY5" s="26"/>
+      <c r="AGZ5" s="26"/>
+      <c r="AHA5" s="26"/>
+      <c r="AHB5" s="26"/>
+      <c r="AHC5" s="26"/>
+      <c r="AHD5" s="26"/>
+      <c r="AHE5" s="26"/>
+      <c r="AHF5" s="26"/>
+      <c r="AHG5" s="26"/>
+      <c r="AHH5" s="26"/>
+      <c r="AHI5" s="26"/>
+      <c r="AHJ5" s="26"/>
+      <c r="AHK5" s="26"/>
+      <c r="AHL5" s="26"/>
+      <c r="AHM5" s="26"/>
+      <c r="AHN5" s="26"/>
+      <c r="AHO5" s="26"/>
+      <c r="AHP5" s="26"/>
+      <c r="AHQ5" s="27"/>
+      <c r="AHR5" s="24">
         <v>2023</v>
       </c>
-      <c r="AHS5" s="27"/>
-      <c r="AHT5" s="27"/>
-      <c r="AHU5" s="27">
-        <v>2023</v>
-      </c>
-      <c r="AHV5" s="27"/>
-      <c r="AHW5" s="27"/>
+      <c r="AHS5" s="24"/>
+      <c r="AHT5" s="24"/>
+      <c r="AHU5" s="24"/>
+      <c r="AHV5" s="24"/>
+      <c r="AHW5" s="24"/>
+      <c r="AHX5" s="24"/>
+      <c r="AHY5" s="24"/>
+      <c r="AHZ5" s="24"/>
     </row>
-    <row r="6" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="24" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="24" t="s">
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="24" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="24" t="s">
+      <c r="U6" s="26"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="24" t="s">
+      <c r="X6" s="26"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="24" t="s">
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="24" t="s">
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="24" t="s">
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="26"/>
-      <c r="AL6" s="24" t="s">
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="24" t="s">
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="24" t="s">
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="24" t="s">
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="24" t="s">
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AY6" s="25"/>
-      <c r="AZ6" s="26"/>
-      <c r="BA6" s="24" t="s">
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BB6" s="25"/>
-      <c r="BC6" s="26"/>
-      <c r="BD6" s="24" t="s">
+      <c r="BB6" s="26"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BE6" s="25"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="24" t="s">
+      <c r="BE6" s="26"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="BH6" s="25"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="24" t="s">
+      <c r="BH6" s="26"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BK6" s="25"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="24" t="s">
+      <c r="BK6" s="26"/>
+      <c r="BL6" s="27"/>
+      <c r="BM6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="BN6" s="25"/>
-      <c r="BO6" s="26"/>
+      <c r="BN6" s="26"/>
+      <c r="BO6" s="27"/>
       <c r="BP6" s="28" t="s">
         <v>17</v>
       </c>
       <c r="BQ6" s="28"/>
       <c r="BR6" s="28"/>
-      <c r="BS6" s="24" t="s">
+      <c r="BS6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="26"/>
-      <c r="BV6" s="31" t="s">
+      <c r="BT6" s="26"/>
+      <c r="BU6" s="27"/>
+      <c r="BV6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="BW6" s="28"/>
       <c r="BX6" s="28"/>
-      <c r="BY6" s="24" t="s">
+      <c r="BY6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="BZ6" s="25"/>
-      <c r="CA6" s="26"/>
-      <c r="CB6" s="24" t="s">
+      <c r="BZ6" s="26"/>
+      <c r="CA6" s="27"/>
+      <c r="CB6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CC6" s="25"/>
-      <c r="CD6" s="26"/>
-      <c r="CE6" s="25" t="s">
+      <c r="CC6" s="26"/>
+      <c r="CD6" s="27"/>
+      <c r="CE6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CF6" s="25"/>
-      <c r="CG6" s="26"/>
-      <c r="CH6" s="24" t="s">
+      <c r="CF6" s="26"/>
+      <c r="CG6" s="27"/>
+      <c r="CH6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="CI6" s="25"/>
-      <c r="CJ6" s="26"/>
-      <c r="CK6" s="24" t="s">
+      <c r="CI6" s="26"/>
+      <c r="CJ6" s="27"/>
+      <c r="CK6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CL6" s="25"/>
-      <c r="CM6" s="26"/>
-      <c r="CN6" s="24" t="s">
+      <c r="CL6" s="26"/>
+      <c r="CM6" s="27"/>
+      <c r="CN6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CO6" s="25"/>
-      <c r="CP6" s="26"/>
-      <c r="CQ6" s="24" t="s">
+      <c r="CO6" s="26"/>
+      <c r="CP6" s="27"/>
+      <c r="CQ6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="CR6" s="25"/>
-      <c r="CS6" s="26"/>
-      <c r="CT6" s="24" t="s">
+      <c r="CR6" s="26"/>
+      <c r="CS6" s="27"/>
+      <c r="CT6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="CU6" s="25"/>
-      <c r="CV6" s="26"/>
-      <c r="CW6" s="24" t="s">
+      <c r="CU6" s="26"/>
+      <c r="CV6" s="27"/>
+      <c r="CW6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="CX6" s="25"/>
-      <c r="CY6" s="26"/>
-      <c r="CZ6" s="24" t="s">
+      <c r="CX6" s="26"/>
+      <c r="CY6" s="27"/>
+      <c r="CZ6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="DA6" s="25"/>
-      <c r="DB6" s="26"/>
+      <c r="DA6" s="26"/>
+      <c r="DB6" s="27"/>
       <c r="DC6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="DD6" s="28"/>
       <c r="DE6" s="29"/>
-      <c r="DF6" s="24" t="s">
+      <c r="DF6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="DG6" s="25"/>
-      <c r="DH6" s="26"/>
-      <c r="DI6" s="24" t="s">
+      <c r="DG6" s="26"/>
+      <c r="DH6" s="27"/>
+      <c r="DI6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="DJ6" s="25"/>
-      <c r="DK6" s="26"/>
-      <c r="DL6" s="24" t="s">
+      <c r="DJ6" s="26"/>
+      <c r="DK6" s="27"/>
+      <c r="DL6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="DM6" s="25"/>
-      <c r="DN6" s="26"/>
-      <c r="DO6" s="24" t="s">
+      <c r="DM6" s="26"/>
+      <c r="DN6" s="27"/>
+      <c r="DO6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="DP6" s="25"/>
-      <c r="DQ6" s="26"/>
-      <c r="DR6" s="24" t="s">
+      <c r="DP6" s="26"/>
+      <c r="DQ6" s="27"/>
+      <c r="DR6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="DS6" s="25"/>
-      <c r="DT6" s="26"/>
-      <c r="DU6" s="24" t="s">
+      <c r="DS6" s="26"/>
+      <c r="DT6" s="27"/>
+      <c r="DU6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="DV6" s="25"/>
-      <c r="DW6" s="26"/>
-      <c r="DX6" s="25" t="s">
+      <c r="DV6" s="26"/>
+      <c r="DW6" s="27"/>
+      <c r="DX6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="DY6" s="25"/>
-      <c r="DZ6" s="26"/>
-      <c r="EA6" s="25" t="s">
+      <c r="DY6" s="26"/>
+      <c r="DZ6" s="27"/>
+      <c r="EA6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="EB6" s="25"/>
-      <c r="EC6" s="26"/>
-      <c r="ED6" s="25" t="s">
+      <c r="EB6" s="26"/>
+      <c r="EC6" s="27"/>
+      <c r="ED6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="EE6" s="25"/>
-      <c r="EF6" s="26"/>
-      <c r="EG6" s="25" t="s">
+      <c r="EE6" s="26"/>
+      <c r="EF6" s="27"/>
+      <c r="EG6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="EH6" s="25"/>
-      <c r="EI6" s="26"/>
-      <c r="EJ6" s="25" t="s">
+      <c r="EH6" s="26"/>
+      <c r="EI6" s="27"/>
+      <c r="EJ6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="EK6" s="25"/>
-      <c r="EL6" s="26"/>
+      <c r="EK6" s="26"/>
+      <c r="EL6" s="27"/>
       <c r="EM6" s="28" t="s">
         <v>18</v>
       </c>
       <c r="EN6" s="28"/>
       <c r="EO6" s="29"/>
-      <c r="EP6" s="25" t="s">
+      <c r="EP6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="EQ6" s="25"/>
-      <c r="ER6" s="26"/>
-      <c r="ES6" s="25" t="s">
+      <c r="EQ6" s="26"/>
+      <c r="ER6" s="27"/>
+      <c r="ES6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="ET6" s="25"/>
-      <c r="EU6" s="26"/>
-      <c r="EV6" s="25" t="s">
+      <c r="ET6" s="26"/>
+      <c r="EU6" s="27"/>
+      <c r="EV6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="EW6" s="25"/>
-      <c r="EX6" s="26"/>
-      <c r="EY6" s="25" t="s">
+      <c r="EW6" s="26"/>
+      <c r="EX6" s="27"/>
+      <c r="EY6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="EZ6" s="25"/>
-      <c r="FA6" s="26"/>
-      <c r="FB6" s="25" t="s">
+      <c r="EZ6" s="26"/>
+      <c r="FA6" s="27"/>
+      <c r="FB6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="FC6" s="25"/>
-      <c r="FD6" s="26"/>
-      <c r="FE6" s="25" t="s">
+      <c r="FC6" s="26"/>
+      <c r="FD6" s="27"/>
+      <c r="FE6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="FF6" s="25"/>
-      <c r="FG6" s="26"/>
-      <c r="FH6" s="25" t="s">
+      <c r="FF6" s="26"/>
+      <c r="FG6" s="27"/>
+      <c r="FH6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="FI6" s="25"/>
-      <c r="FJ6" s="26"/>
-      <c r="FK6" s="25" t="s">
+      <c r="FI6" s="26"/>
+      <c r="FJ6" s="27"/>
+      <c r="FK6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="FL6" s="25"/>
-      <c r="FM6" s="26"/>
-      <c r="FN6" s="25" t="s">
+      <c r="FL6" s="26"/>
+      <c r="FM6" s="27"/>
+      <c r="FN6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="FO6" s="25"/>
-      <c r="FP6" s="26"/>
-      <c r="FQ6" s="25" t="s">
+      <c r="FO6" s="26"/>
+      <c r="FP6" s="27"/>
+      <c r="FQ6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="FR6" s="25"/>
-      <c r="FS6" s="26"/>
-      <c r="FT6" s="25" t="s">
+      <c r="FR6" s="26"/>
+      <c r="FS6" s="27"/>
+      <c r="FT6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="FU6" s="25"/>
-      <c r="FV6" s="26"/>
-      <c r="FW6" s="25" t="s">
+      <c r="FU6" s="26"/>
+      <c r="FV6" s="27"/>
+      <c r="FW6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="FX6" s="25"/>
-      <c r="FY6" s="26"/>
-      <c r="FZ6" s="25" t="s">
+      <c r="FX6" s="26"/>
+      <c r="FY6" s="27"/>
+      <c r="FZ6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="GA6" s="25"/>
-      <c r="GB6" s="26"/>
-      <c r="GC6" s="25" t="s">
+      <c r="GA6" s="26"/>
+      <c r="GB6" s="27"/>
+      <c r="GC6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="GD6" s="25"/>
-      <c r="GE6" s="26"/>
-      <c r="GF6" s="25" t="s">
+      <c r="GD6" s="26"/>
+      <c r="GE6" s="27"/>
+      <c r="GF6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="GG6" s="25"/>
-      <c r="GH6" s="26"/>
-      <c r="GI6" s="25" t="s">
+      <c r="GG6" s="26"/>
+      <c r="GH6" s="27"/>
+      <c r="GI6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="GJ6" s="25"/>
-      <c r="GK6" s="26"/>
-      <c r="GL6" s="25" t="s">
+      <c r="GJ6" s="26"/>
+      <c r="GK6" s="27"/>
+      <c r="GL6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="GM6" s="25"/>
-      <c r="GN6" s="26"/>
-      <c r="GO6" s="25" t="s">
+      <c r="GM6" s="26"/>
+      <c r="GN6" s="27"/>
+      <c r="GO6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="GP6" s="25"/>
-      <c r="GQ6" s="26"/>
-      <c r="GR6" s="25" t="s">
+      <c r="GP6" s="26"/>
+      <c r="GQ6" s="27"/>
+      <c r="GR6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="GS6" s="25"/>
-      <c r="GT6" s="26"/>
-      <c r="GU6" s="25" t="s">
+      <c r="GS6" s="26"/>
+      <c r="GT6" s="27"/>
+      <c r="GU6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="GV6" s="25"/>
-      <c r="GW6" s="26"/>
-      <c r="GX6" s="25" t="s">
+      <c r="GV6" s="26"/>
+      <c r="GW6" s="27"/>
+      <c r="GX6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="GY6" s="25"/>
-      <c r="GZ6" s="26"/>
-      <c r="HA6" s="25" t="s">
+      <c r="GY6" s="26"/>
+      <c r="GZ6" s="27"/>
+      <c r="HA6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="HB6" s="25"/>
-      <c r="HC6" s="26"/>
-      <c r="HD6" s="25" t="s">
+      <c r="HB6" s="26"/>
+      <c r="HC6" s="27"/>
+      <c r="HD6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="HE6" s="25"/>
-      <c r="HF6" s="26"/>
-      <c r="HG6" s="25" t="s">
+      <c r="HE6" s="26"/>
+      <c r="HF6" s="27"/>
+      <c r="HG6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="HH6" s="25"/>
-      <c r="HI6" s="25"/>
-      <c r="HJ6" s="24" t="s">
+      <c r="HH6" s="26"/>
+      <c r="HI6" s="26"/>
+      <c r="HJ6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="HK6" s="25"/>
-      <c r="HL6" s="26"/>
-      <c r="HM6" s="24" t="s">
+      <c r="HK6" s="26"/>
+      <c r="HL6" s="27"/>
+      <c r="HM6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="HN6" s="25"/>
-      <c r="HO6" s="26"/>
-      <c r="HP6" s="24" t="s">
+      <c r="HN6" s="26"/>
+      <c r="HO6" s="27"/>
+      <c r="HP6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="HQ6" s="25"/>
-      <c r="HR6" s="26"/>
-      <c r="HS6" s="24" t="s">
+      <c r="HQ6" s="26"/>
+      <c r="HR6" s="27"/>
+      <c r="HS6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="HT6" s="25"/>
-      <c r="HU6" s="26"/>
-      <c r="HV6" s="24" t="s">
+      <c r="HT6" s="26"/>
+      <c r="HU6" s="27"/>
+      <c r="HV6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="HW6" s="25"/>
-      <c r="HX6" s="26"/>
-      <c r="HY6" s="24" t="s">
+      <c r="HW6" s="26"/>
+      <c r="HX6" s="27"/>
+      <c r="HY6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="HZ6" s="25"/>
-      <c r="IA6" s="26"/>
-      <c r="IB6" s="24" t="s">
+      <c r="HZ6" s="26"/>
+      <c r="IA6" s="27"/>
+      <c r="IB6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="IC6" s="25"/>
-      <c r="ID6" s="26"/>
-      <c r="IE6" s="24" t="s">
+      <c r="IC6" s="26"/>
+      <c r="ID6" s="27"/>
+      <c r="IE6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="IF6" s="25"/>
-      <c r="IG6" s="26"/>
-      <c r="IH6" s="24" t="s">
+      <c r="IF6" s="26"/>
+      <c r="IG6" s="27"/>
+      <c r="IH6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="II6" s="25"/>
-      <c r="IJ6" s="26"/>
-      <c r="IK6" s="24" t="s">
+      <c r="II6" s="26"/>
+      <c r="IJ6" s="27"/>
+      <c r="IK6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="IL6" s="25"/>
-      <c r="IM6" s="26"/>
-      <c r="IN6" s="24" t="s">
+      <c r="IL6" s="26"/>
+      <c r="IM6" s="27"/>
+      <c r="IN6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="IO6" s="25"/>
-      <c r="IP6" s="26"/>
-      <c r="IQ6" s="24" t="s">
+      <c r="IO6" s="26"/>
+      <c r="IP6" s="27"/>
+      <c r="IQ6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="IR6" s="25"/>
-      <c r="IS6" s="25"/>
-      <c r="IT6" s="24" t="s">
+      <c r="IR6" s="26"/>
+      <c r="IS6" s="26"/>
+      <c r="IT6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="IU6" s="25"/>
-      <c r="IV6" s="26"/>
-      <c r="IW6" s="24" t="s">
+      <c r="IU6" s="26"/>
+      <c r="IV6" s="27"/>
+      <c r="IW6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="IX6" s="25"/>
-      <c r="IY6" s="26"/>
-      <c r="IZ6" s="25" t="s">
+      <c r="IX6" s="26"/>
+      <c r="IY6" s="27"/>
+      <c r="IZ6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="JA6" s="25"/>
-      <c r="JB6" s="26"/>
-      <c r="JC6" s="25" t="s">
+      <c r="JA6" s="26"/>
+      <c r="JB6" s="27"/>
+      <c r="JC6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="JD6" s="25"/>
-      <c r="JE6" s="26"/>
-      <c r="JF6" s="25" t="s">
+      <c r="JD6" s="26"/>
+      <c r="JE6" s="27"/>
+      <c r="JF6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="JG6" s="25"/>
-      <c r="JH6" s="26"/>
-      <c r="JI6" s="25" t="s">
+      <c r="JG6" s="26"/>
+      <c r="JH6" s="27"/>
+      <c r="JI6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="JJ6" s="25"/>
-      <c r="JK6" s="26"/>
-      <c r="JL6" s="25" t="s">
+      <c r="JJ6" s="26"/>
+      <c r="JK6" s="27"/>
+      <c r="JL6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="JM6" s="25"/>
-      <c r="JN6" s="26"/>
+      <c r="JM6" s="26"/>
+      <c r="JN6" s="27"/>
       <c r="JO6" s="28" t="s">
         <v>14</v>
       </c>
@@ -3538,221 +3536,221 @@
       </c>
       <c r="KB6" s="28"/>
       <c r="KC6" s="29"/>
-      <c r="KD6" s="25" t="s">
+      <c r="KD6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="KE6" s="25"/>
-      <c r="KF6" s="26"/>
-      <c r="KG6" s="25" t="s">
+      <c r="KE6" s="26"/>
+      <c r="KF6" s="27"/>
+      <c r="KG6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="KH6" s="25"/>
-      <c r="KI6" s="26"/>
-      <c r="KJ6" s="25" t="s">
+      <c r="KH6" s="26"/>
+      <c r="KI6" s="27"/>
+      <c r="KJ6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="KK6" s="25"/>
-      <c r="KL6" s="26"/>
-      <c r="KM6" s="25" t="s">
+      <c r="KK6" s="26"/>
+      <c r="KL6" s="27"/>
+      <c r="KM6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="KN6" s="25"/>
-      <c r="KO6" s="26"/>
-      <c r="KP6" s="25" t="s">
+      <c r="KN6" s="26"/>
+      <c r="KO6" s="27"/>
+      <c r="KP6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="KQ6" s="25"/>
-      <c r="KR6" s="26"/>
-      <c r="KS6" s="25" t="s">
+      <c r="KQ6" s="26"/>
+      <c r="KR6" s="27"/>
+      <c r="KS6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="KT6" s="25"/>
-      <c r="KU6" s="26"/>
-      <c r="KV6" s="25" t="s">
+      <c r="KT6" s="26"/>
+      <c r="KU6" s="27"/>
+      <c r="KV6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="KW6" s="25"/>
-      <c r="KX6" s="26"/>
-      <c r="KY6" s="25" t="s">
+      <c r="KW6" s="26"/>
+      <c r="KX6" s="27"/>
+      <c r="KY6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="KZ6" s="25"/>
-      <c r="LA6" s="26"/>
-      <c r="LB6" s="25" t="s">
+      <c r="KZ6" s="26"/>
+      <c r="LA6" s="27"/>
+      <c r="LB6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="LC6" s="25"/>
-      <c r="LD6" s="26"/>
-      <c r="LE6" s="25" t="s">
+      <c r="LC6" s="26"/>
+      <c r="LD6" s="27"/>
+      <c r="LE6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="LF6" s="25"/>
-      <c r="LG6" s="26"/>
-      <c r="LH6" s="25" t="s">
+      <c r="LF6" s="26"/>
+      <c r="LG6" s="27"/>
+      <c r="LH6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="LI6" s="25"/>
-      <c r="LJ6" s="26"/>
-      <c r="LK6" s="25" t="s">
+      <c r="LI6" s="26"/>
+      <c r="LJ6" s="27"/>
+      <c r="LK6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="LL6" s="25"/>
-      <c r="LM6" s="26"/>
-      <c r="LN6" s="24" t="s">
+      <c r="LL6" s="26"/>
+      <c r="LM6" s="27"/>
+      <c r="LN6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="LO6" s="25"/>
-      <c r="LP6" s="26"/>
-      <c r="LQ6" s="25" t="s">
+      <c r="LO6" s="26"/>
+      <c r="LP6" s="27"/>
+      <c r="LQ6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="LR6" s="25"/>
-      <c r="LS6" s="26"/>
-      <c r="LT6" s="25" t="s">
+      <c r="LR6" s="26"/>
+      <c r="LS6" s="27"/>
+      <c r="LT6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="LU6" s="25"/>
-      <c r="LV6" s="26"/>
-      <c r="LW6" s="25" t="s">
+      <c r="LU6" s="26"/>
+      <c r="LV6" s="27"/>
+      <c r="LW6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="LX6" s="25"/>
-      <c r="LY6" s="26"/>
-      <c r="LZ6" s="25" t="s">
+      <c r="LX6" s="26"/>
+      <c r="LY6" s="27"/>
+      <c r="LZ6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="MA6" s="25"/>
-      <c r="MB6" s="26"/>
-      <c r="MC6" s="25" t="s">
+      <c r="MA6" s="26"/>
+      <c r="MB6" s="27"/>
+      <c r="MC6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="MD6" s="25"/>
-      <c r="ME6" s="26"/>
-      <c r="MF6" s="25" t="s">
+      <c r="MD6" s="26"/>
+      <c r="ME6" s="27"/>
+      <c r="MF6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="MG6" s="25"/>
-      <c r="MH6" s="26"/>
-      <c r="MI6" s="25" t="s">
+      <c r="MG6" s="26"/>
+      <c r="MH6" s="27"/>
+      <c r="MI6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="MJ6" s="25"/>
-      <c r="MK6" s="26"/>
-      <c r="ML6" s="25" t="s">
+      <c r="MJ6" s="26"/>
+      <c r="MK6" s="27"/>
+      <c r="ML6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="MM6" s="25"/>
-      <c r="MN6" s="26"/>
-      <c r="MO6" s="25" t="s">
+      <c r="MM6" s="26"/>
+      <c r="MN6" s="27"/>
+      <c r="MO6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="MP6" s="25"/>
-      <c r="MQ6" s="26"/>
-      <c r="MR6" s="25" t="s">
+      <c r="MP6" s="26"/>
+      <c r="MQ6" s="27"/>
+      <c r="MR6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="MS6" s="25"/>
-      <c r="MT6" s="26"/>
-      <c r="MU6" s="25" t="s">
+      <c r="MS6" s="26"/>
+      <c r="MT6" s="27"/>
+      <c r="MU6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="MV6" s="25"/>
-      <c r="MW6" s="26"/>
-      <c r="MX6" s="25" t="s">
+      <c r="MV6" s="26"/>
+      <c r="MW6" s="27"/>
+      <c r="MX6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="MY6" s="25"/>
-      <c r="MZ6" s="26"/>
-      <c r="NA6" s="25" t="s">
+      <c r="MY6" s="26"/>
+      <c r="MZ6" s="27"/>
+      <c r="NA6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="NB6" s="25"/>
-      <c r="NC6" s="26"/>
-      <c r="ND6" s="25" t="s">
+      <c r="NB6" s="26"/>
+      <c r="NC6" s="27"/>
+      <c r="ND6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="NE6" s="25"/>
-      <c r="NF6" s="26"/>
-      <c r="NG6" s="25" t="s">
+      <c r="NE6" s="26"/>
+      <c r="NF6" s="27"/>
+      <c r="NG6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="NH6" s="25"/>
-      <c r="NI6" s="26"/>
-      <c r="NJ6" s="25" t="s">
+      <c r="NH6" s="26"/>
+      <c r="NI6" s="27"/>
+      <c r="NJ6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="NK6" s="25"/>
-      <c r="NL6" s="26"/>
-      <c r="NM6" s="25" t="s">
+      <c r="NK6" s="26"/>
+      <c r="NL6" s="27"/>
+      <c r="NM6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="NN6" s="25"/>
-      <c r="NO6" s="26"/>
-      <c r="NP6" s="25" t="s">
+      <c r="NN6" s="26"/>
+      <c r="NO6" s="27"/>
+      <c r="NP6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="NQ6" s="25"/>
-      <c r="NR6" s="26"/>
-      <c r="NS6" s="25" t="s">
+      <c r="NQ6" s="26"/>
+      <c r="NR6" s="27"/>
+      <c r="NS6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="NT6" s="25"/>
-      <c r="NU6" s="26"/>
-      <c r="NV6" s="25" t="s">
+      <c r="NT6" s="26"/>
+      <c r="NU6" s="27"/>
+      <c r="NV6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="NW6" s="25"/>
-      <c r="NX6" s="26"/>
-      <c r="NY6" s="25" t="s">
+      <c r="NW6" s="26"/>
+      <c r="NX6" s="27"/>
+      <c r="NY6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="NZ6" s="25"/>
-      <c r="OA6" s="26"/>
-      <c r="OB6" s="25" t="s">
+      <c r="NZ6" s="26"/>
+      <c r="OA6" s="27"/>
+      <c r="OB6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="OC6" s="25"/>
-      <c r="OD6" s="26"/>
-      <c r="OE6" s="25" t="s">
+      <c r="OC6" s="26"/>
+      <c r="OD6" s="27"/>
+      <c r="OE6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="OF6" s="25"/>
-      <c r="OG6" s="26"/>
-      <c r="OH6" s="25" t="s">
+      <c r="OF6" s="26"/>
+      <c r="OG6" s="27"/>
+      <c r="OH6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="OI6" s="25"/>
-      <c r="OJ6" s="26"/>
-      <c r="OK6" s="25" t="s">
+      <c r="OI6" s="26"/>
+      <c r="OJ6" s="27"/>
+      <c r="OK6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="OL6" s="25"/>
-      <c r="OM6" s="26"/>
-      <c r="ON6" s="25" t="s">
+      <c r="OL6" s="26"/>
+      <c r="OM6" s="27"/>
+      <c r="ON6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="OO6" s="25"/>
-      <c r="OP6" s="26"/>
-      <c r="OQ6" s="25" t="s">
+      <c r="OO6" s="26"/>
+      <c r="OP6" s="27"/>
+      <c r="OQ6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="OR6" s="25"/>
-      <c r="OS6" s="26"/>
-      <c r="OT6" s="25" t="s">
+      <c r="OR6" s="26"/>
+      <c r="OS6" s="27"/>
+      <c r="OT6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="OU6" s="25"/>
-      <c r="OV6" s="26"/>
-      <c r="OW6" s="25" t="s">
+      <c r="OU6" s="26"/>
+      <c r="OV6" s="27"/>
+      <c r="OW6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="OX6" s="25"/>
-      <c r="OY6" s="26"/>
-      <c r="OZ6" s="25" t="s">
+      <c r="OX6" s="26"/>
+      <c r="OY6" s="27"/>
+      <c r="OZ6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="PA6" s="25"/>
-      <c r="PB6" s="26"/>
+      <c r="PA6" s="26"/>
+      <c r="PB6" s="27"/>
       <c r="PC6" s="28" t="s">
         <v>14</v>
       </c>
@@ -3778,799 +3776,804 @@
       </c>
       <c r="PP6" s="28"/>
       <c r="PQ6" s="28"/>
-      <c r="PR6" s="25" t="s">
+      <c r="PR6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="PS6" s="25"/>
-      <c r="PT6" s="26"/>
-      <c r="PU6" s="25" t="s">
+      <c r="PS6" s="26"/>
+      <c r="PT6" s="27"/>
+      <c r="PU6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="PV6" s="25"/>
-      <c r="PW6" s="26"/>
-      <c r="PX6" s="25" t="s">
+      <c r="PV6" s="26"/>
+      <c r="PW6" s="27"/>
+      <c r="PX6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="PY6" s="25"/>
-      <c r="PZ6" s="26"/>
-      <c r="QA6" s="25" t="s">
+      <c r="PY6" s="26"/>
+      <c r="PZ6" s="27"/>
+      <c r="QA6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="QB6" s="25"/>
-      <c r="QC6" s="26"/>
-      <c r="QD6" s="25" t="s">
+      <c r="QB6" s="26"/>
+      <c r="QC6" s="27"/>
+      <c r="QD6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="QE6" s="25"/>
-      <c r="QF6" s="26"/>
-      <c r="QG6" s="25" t="s">
+      <c r="QE6" s="26"/>
+      <c r="QF6" s="27"/>
+      <c r="QG6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="QH6" s="25"/>
-      <c r="QI6" s="26"/>
-      <c r="QJ6" s="25" t="s">
+      <c r="QH6" s="26"/>
+      <c r="QI6" s="27"/>
+      <c r="QJ6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="QK6" s="25"/>
-      <c r="QL6" s="26"/>
-      <c r="QM6" s="25" t="s">
+      <c r="QK6" s="26"/>
+      <c r="QL6" s="27"/>
+      <c r="QM6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="QN6" s="25"/>
-      <c r="QO6" s="26"/>
-      <c r="QP6" s="25" t="s">
+      <c r="QN6" s="26"/>
+      <c r="QO6" s="27"/>
+      <c r="QP6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="QQ6" s="25"/>
-      <c r="QR6" s="26"/>
-      <c r="QS6" s="25" t="s">
+      <c r="QQ6" s="26"/>
+      <c r="QR6" s="27"/>
+      <c r="QS6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="QT6" s="25"/>
-      <c r="QU6" s="26"/>
-      <c r="QV6" s="25" t="s">
+      <c r="QT6" s="26"/>
+      <c r="QU6" s="27"/>
+      <c r="QV6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="QW6" s="25"/>
-      <c r="QX6" s="26"/>
-      <c r="QY6" s="25" t="s">
+      <c r="QW6" s="26"/>
+      <c r="QX6" s="27"/>
+      <c r="QY6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="QZ6" s="25"/>
-      <c r="RA6" s="26"/>
-      <c r="RB6" s="25" t="s">
+      <c r="QZ6" s="26"/>
+      <c r="RA6" s="27"/>
+      <c r="RB6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="RC6" s="25"/>
-      <c r="RD6" s="26"/>
-      <c r="RE6" s="25" t="s">
+      <c r="RC6" s="26"/>
+      <c r="RD6" s="27"/>
+      <c r="RE6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="RF6" s="25"/>
-      <c r="RG6" s="26"/>
-      <c r="RH6" s="25" t="s">
+      <c r="RF6" s="26"/>
+      <c r="RG6" s="27"/>
+      <c r="RH6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="RI6" s="25"/>
-      <c r="RJ6" s="26"/>
-      <c r="RK6" s="25" t="s">
+      <c r="RI6" s="26"/>
+      <c r="RJ6" s="27"/>
+      <c r="RK6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="RL6" s="25"/>
-      <c r="RM6" s="26"/>
-      <c r="RN6" s="25" t="s">
+      <c r="RL6" s="26"/>
+      <c r="RM6" s="27"/>
+      <c r="RN6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="RO6" s="25"/>
-      <c r="RP6" s="26"/>
-      <c r="RQ6" s="25" t="s">
+      <c r="RO6" s="26"/>
+      <c r="RP6" s="27"/>
+      <c r="RQ6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="RR6" s="25"/>
-      <c r="RS6" s="26"/>
-      <c r="RT6" s="25" t="s">
+      <c r="RR6" s="26"/>
+      <c r="RS6" s="27"/>
+      <c r="RT6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="RU6" s="25"/>
-      <c r="RV6" s="26"/>
-      <c r="RW6" s="25" t="s">
+      <c r="RU6" s="26"/>
+      <c r="RV6" s="27"/>
+      <c r="RW6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="RX6" s="25"/>
-      <c r="RY6" s="26"/>
-      <c r="RZ6" s="25" t="s">
+      <c r="RX6" s="26"/>
+      <c r="RY6" s="27"/>
+      <c r="RZ6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="SA6" s="25"/>
-      <c r="SB6" s="26"/>
-      <c r="SC6" s="25" t="s">
+      <c r="SA6" s="26"/>
+      <c r="SB6" s="27"/>
+      <c r="SC6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="SD6" s="25"/>
-      <c r="SE6" s="26"/>
-      <c r="SF6" s="25" t="s">
+      <c r="SD6" s="26"/>
+      <c r="SE6" s="27"/>
+      <c r="SF6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="SG6" s="25"/>
-      <c r="SH6" s="26"/>
-      <c r="SI6" s="25" t="s">
+      <c r="SG6" s="26"/>
+      <c r="SH6" s="27"/>
+      <c r="SI6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="SJ6" s="25"/>
-      <c r="SK6" s="26"/>
-      <c r="SL6" s="25" t="s">
+      <c r="SJ6" s="26"/>
+      <c r="SK6" s="27"/>
+      <c r="SL6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="SM6" s="25"/>
-      <c r="SN6" s="26"/>
-      <c r="SO6" s="25" t="s">
+      <c r="SM6" s="26"/>
+      <c r="SN6" s="27"/>
+      <c r="SO6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="SP6" s="25"/>
-      <c r="SQ6" s="26"/>
-      <c r="SR6" s="25" t="s">
+      <c r="SP6" s="26"/>
+      <c r="SQ6" s="27"/>
+      <c r="SR6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="SS6" s="25"/>
-      <c r="ST6" s="26"/>
-      <c r="SU6" s="25" t="s">
+      <c r="SS6" s="26"/>
+      <c r="ST6" s="27"/>
+      <c r="SU6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="SV6" s="25"/>
-      <c r="SW6" s="26"/>
-      <c r="SX6" s="25" t="s">
+      <c r="SV6" s="26"/>
+      <c r="SW6" s="27"/>
+      <c r="SX6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="SY6" s="25"/>
-      <c r="SZ6" s="26"/>
-      <c r="TA6" s="25" t="s">
+      <c r="SY6" s="26"/>
+      <c r="SZ6" s="27"/>
+      <c r="TA6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="TB6" s="25"/>
-      <c r="TC6" s="26"/>
-      <c r="TD6" s="25" t="s">
+      <c r="TB6" s="26"/>
+      <c r="TC6" s="27"/>
+      <c r="TD6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="TE6" s="25"/>
-      <c r="TF6" s="26"/>
-      <c r="TG6" s="25" t="s">
+      <c r="TE6" s="26"/>
+      <c r="TF6" s="27"/>
+      <c r="TG6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="TH6" s="25"/>
-      <c r="TI6" s="26"/>
-      <c r="TJ6" s="25" t="s">
+      <c r="TH6" s="26"/>
+      <c r="TI6" s="27"/>
+      <c r="TJ6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="TK6" s="25"/>
-      <c r="TL6" s="26"/>
-      <c r="TM6" s="25" t="s">
+      <c r="TK6" s="26"/>
+      <c r="TL6" s="27"/>
+      <c r="TM6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="TN6" s="25"/>
-      <c r="TO6" s="26"/>
-      <c r="TP6" s="25" t="s">
+      <c r="TN6" s="26"/>
+      <c r="TO6" s="27"/>
+      <c r="TP6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="TQ6" s="25"/>
-      <c r="TR6" s="26"/>
-      <c r="TS6" s="25" t="s">
+      <c r="TQ6" s="26"/>
+      <c r="TR6" s="27"/>
+      <c r="TS6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="TT6" s="25"/>
-      <c r="TU6" s="26"/>
-      <c r="TV6" s="25" t="s">
+      <c r="TT6" s="26"/>
+      <c r="TU6" s="27"/>
+      <c r="TV6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="TW6" s="25"/>
-      <c r="TX6" s="26"/>
-      <c r="TY6" s="25" t="s">
+      <c r="TW6" s="26"/>
+      <c r="TX6" s="27"/>
+      <c r="TY6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="TZ6" s="25"/>
-      <c r="UA6" s="26"/>
-      <c r="UB6" s="25" t="s">
+      <c r="TZ6" s="26"/>
+      <c r="UA6" s="27"/>
+      <c r="UB6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="UC6" s="25"/>
-      <c r="UD6" s="26"/>
-      <c r="UE6" s="25" t="s">
+      <c r="UC6" s="26"/>
+      <c r="UD6" s="27"/>
+      <c r="UE6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="UF6" s="25"/>
-      <c r="UG6" s="26"/>
-      <c r="UH6" s="25" t="s">
+      <c r="UF6" s="26"/>
+      <c r="UG6" s="27"/>
+      <c r="UH6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="UI6" s="25"/>
-      <c r="UJ6" s="26"/>
-      <c r="UK6" s="25" t="s">
+      <c r="UI6" s="26"/>
+      <c r="UJ6" s="27"/>
+      <c r="UK6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="UL6" s="25"/>
-      <c r="UM6" s="26"/>
-      <c r="UN6" s="25" t="s">
+      <c r="UL6" s="26"/>
+      <c r="UM6" s="27"/>
+      <c r="UN6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="UO6" s="25"/>
-      <c r="UP6" s="26"/>
-      <c r="UQ6" s="25" t="s">
+      <c r="UO6" s="26"/>
+      <c r="UP6" s="27"/>
+      <c r="UQ6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="UR6" s="25"/>
-      <c r="US6" s="26"/>
-      <c r="UT6" s="25" t="s">
+      <c r="UR6" s="26"/>
+      <c r="US6" s="27"/>
+      <c r="UT6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="UU6" s="25"/>
-      <c r="UV6" s="26"/>
-      <c r="UW6" s="25" t="s">
+      <c r="UU6" s="26"/>
+      <c r="UV6" s="27"/>
+      <c r="UW6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="UX6" s="25"/>
-      <c r="UY6" s="26"/>
-      <c r="UZ6" s="25" t="s">
+      <c r="UX6" s="26"/>
+      <c r="UY6" s="27"/>
+      <c r="UZ6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="VA6" s="25"/>
-      <c r="VB6" s="26"/>
-      <c r="VC6" s="25" t="s">
+      <c r="VA6" s="26"/>
+      <c r="VB6" s="27"/>
+      <c r="VC6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="VD6" s="25"/>
-      <c r="VE6" s="26"/>
-      <c r="VF6" s="25" t="s">
+      <c r="VD6" s="26"/>
+      <c r="VE6" s="27"/>
+      <c r="VF6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="VG6" s="25"/>
-      <c r="VH6" s="26"/>
-      <c r="VI6" s="25" t="s">
+      <c r="VG6" s="26"/>
+      <c r="VH6" s="27"/>
+      <c r="VI6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="VJ6" s="25"/>
-      <c r="VK6" s="26"/>
-      <c r="VL6" s="25" t="s">
+      <c r="VJ6" s="26"/>
+      <c r="VK6" s="27"/>
+      <c r="VL6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="VM6" s="25"/>
-      <c r="VN6" s="26"/>
-      <c r="VO6" s="25" t="s">
+      <c r="VM6" s="26"/>
+      <c r="VN6" s="27"/>
+      <c r="VO6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="VP6" s="25"/>
-      <c r="VQ6" s="26"/>
-      <c r="VR6" s="25" t="s">
+      <c r="VP6" s="26"/>
+      <c r="VQ6" s="27"/>
+      <c r="VR6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="VS6" s="25"/>
-      <c r="VT6" s="26"/>
-      <c r="VU6" s="25" t="s">
+      <c r="VS6" s="26"/>
+      <c r="VT6" s="27"/>
+      <c r="VU6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="VV6" s="25"/>
-      <c r="VW6" s="26"/>
-      <c r="VX6" s="25" t="s">
+      <c r="VV6" s="26"/>
+      <c r="VW6" s="27"/>
+      <c r="VX6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="VY6" s="25"/>
-      <c r="VZ6" s="26"/>
-      <c r="WA6" s="25" t="s">
+      <c r="VY6" s="26"/>
+      <c r="VZ6" s="27"/>
+      <c r="WA6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="WB6" s="25"/>
-      <c r="WC6" s="26"/>
-      <c r="WD6" s="25" t="s">
+      <c r="WB6" s="26"/>
+      <c r="WC6" s="27"/>
+      <c r="WD6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="WE6" s="25"/>
-      <c r="WF6" s="26"/>
-      <c r="WG6" s="25" t="s">
+      <c r="WE6" s="26"/>
+      <c r="WF6" s="27"/>
+      <c r="WG6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="WH6" s="25"/>
-      <c r="WI6" s="26"/>
-      <c r="WJ6" s="25" t="s">
+      <c r="WH6" s="26"/>
+      <c r="WI6" s="27"/>
+      <c r="WJ6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="WK6" s="25"/>
-      <c r="WL6" s="26"/>
-      <c r="WM6" s="25" t="s">
+      <c r="WK6" s="26"/>
+      <c r="WL6" s="27"/>
+      <c r="WM6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="WN6" s="25"/>
-      <c r="WO6" s="26"/>
-      <c r="WP6" s="25" t="s">
+      <c r="WN6" s="26"/>
+      <c r="WO6" s="27"/>
+      <c r="WP6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="WQ6" s="25"/>
-      <c r="WR6" s="26"/>
-      <c r="WS6" s="25" t="s">
+      <c r="WQ6" s="26"/>
+      <c r="WR6" s="27"/>
+      <c r="WS6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="WT6" s="25"/>
-      <c r="WU6" s="26"/>
-      <c r="WV6" s="25" t="s">
+      <c r="WT6" s="26"/>
+      <c r="WU6" s="27"/>
+      <c r="WV6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="WW6" s="25"/>
-      <c r="WX6" s="26"/>
-      <c r="WY6" s="25" t="s">
+      <c r="WW6" s="26"/>
+      <c r="WX6" s="27"/>
+      <c r="WY6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="WZ6" s="25"/>
-      <c r="XA6" s="26"/>
-      <c r="XB6" s="25" t="s">
+      <c r="WZ6" s="26"/>
+      <c r="XA6" s="27"/>
+      <c r="XB6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="XC6" s="25"/>
-      <c r="XD6" s="26"/>
-      <c r="XE6" s="25" t="s">
+      <c r="XC6" s="26"/>
+      <c r="XD6" s="27"/>
+      <c r="XE6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="XF6" s="25"/>
-      <c r="XG6" s="26"/>
-      <c r="XH6" s="25" t="s">
+      <c r="XF6" s="26"/>
+      <c r="XG6" s="27"/>
+      <c r="XH6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="XI6" s="25"/>
-      <c r="XJ6" s="26"/>
-      <c r="XK6" s="25" t="s">
+      <c r="XI6" s="26"/>
+      <c r="XJ6" s="27"/>
+      <c r="XK6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="XL6" s="25"/>
-      <c r="XM6" s="26"/>
-      <c r="XN6" s="25" t="s">
+      <c r="XL6" s="26"/>
+      <c r="XM6" s="27"/>
+      <c r="XN6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="XO6" s="25"/>
-      <c r="XP6" s="26"/>
-      <c r="XQ6" s="25" t="s">
+      <c r="XO6" s="26"/>
+      <c r="XP6" s="27"/>
+      <c r="XQ6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="XR6" s="25"/>
-      <c r="XS6" s="26"/>
-      <c r="XT6" s="25" t="s">
+      <c r="XR6" s="26"/>
+      <c r="XS6" s="27"/>
+      <c r="XT6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="XU6" s="25"/>
-      <c r="XV6" s="26"/>
-      <c r="XW6" s="25" t="s">
+      <c r="XU6" s="26"/>
+      <c r="XV6" s="27"/>
+      <c r="XW6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="XX6" s="25"/>
-      <c r="XY6" s="26"/>
-      <c r="XZ6" s="25" t="s">
+      <c r="XX6" s="26"/>
+      <c r="XY6" s="27"/>
+      <c r="XZ6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="YA6" s="25"/>
-      <c r="YB6" s="26"/>
-      <c r="YC6" s="25" t="s">
+      <c r="YA6" s="26"/>
+      <c r="YB6" s="27"/>
+      <c r="YC6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="YD6" s="25"/>
-      <c r="YE6" s="26"/>
-      <c r="YF6" s="25" t="s">
+      <c r="YD6" s="26"/>
+      <c r="YE6" s="27"/>
+      <c r="YF6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="YG6" s="25"/>
-      <c r="YH6" s="26"/>
-      <c r="YI6" s="25" t="s">
+      <c r="YG6" s="26"/>
+      <c r="YH6" s="27"/>
+      <c r="YI6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="YJ6" s="25"/>
-      <c r="YK6" s="26"/>
-      <c r="YL6" s="25" t="s">
+      <c r="YJ6" s="26"/>
+      <c r="YK6" s="27"/>
+      <c r="YL6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="YM6" s="25"/>
-      <c r="YN6" s="26"/>
-      <c r="YO6" s="25" t="s">
+      <c r="YM6" s="26"/>
+      <c r="YN6" s="27"/>
+      <c r="YO6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="YP6" s="25"/>
-      <c r="YQ6" s="26"/>
-      <c r="YR6" s="25" t="s">
+      <c r="YP6" s="26"/>
+      <c r="YQ6" s="27"/>
+      <c r="YR6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="YS6" s="25"/>
-      <c r="YT6" s="26"/>
-      <c r="YU6" s="25" t="s">
+      <c r="YS6" s="26"/>
+      <c r="YT6" s="27"/>
+      <c r="YU6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="YV6" s="25"/>
-      <c r="YW6" s="26"/>
-      <c r="YX6" s="25" t="s">
+      <c r="YV6" s="26"/>
+      <c r="YW6" s="27"/>
+      <c r="YX6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="YY6" s="25"/>
-      <c r="YZ6" s="26"/>
-      <c r="ZA6" s="25" t="s">
+      <c r="YY6" s="26"/>
+      <c r="YZ6" s="27"/>
+      <c r="ZA6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="ZB6" s="25"/>
-      <c r="ZC6" s="26"/>
-      <c r="ZD6" s="25" t="s">
+      <c r="ZB6" s="26"/>
+      <c r="ZC6" s="27"/>
+      <c r="ZD6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="ZE6" s="25"/>
-      <c r="ZF6" s="26"/>
-      <c r="ZG6" s="25" t="s">
+      <c r="ZE6" s="26"/>
+      <c r="ZF6" s="27"/>
+      <c r="ZG6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="ZH6" s="25"/>
-      <c r="ZI6" s="26"/>
-      <c r="ZJ6" s="25" t="s">
+      <c r="ZH6" s="26"/>
+      <c r="ZI6" s="27"/>
+      <c r="ZJ6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="ZK6" s="25"/>
-      <c r="ZL6" s="26"/>
-      <c r="ZM6" s="25" t="s">
+      <c r="ZK6" s="26"/>
+      <c r="ZL6" s="27"/>
+      <c r="ZM6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="ZN6" s="25"/>
-      <c r="ZO6" s="26"/>
-      <c r="ZP6" s="25" t="s">
+      <c r="ZN6" s="26"/>
+      <c r="ZO6" s="27"/>
+      <c r="ZP6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="ZQ6" s="25"/>
-      <c r="ZR6" s="26"/>
-      <c r="ZS6" s="25" t="s">
+      <c r="ZQ6" s="26"/>
+      <c r="ZR6" s="27"/>
+      <c r="ZS6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="ZT6" s="25"/>
-      <c r="ZU6" s="26"/>
-      <c r="ZV6" s="25" t="s">
+      <c r="ZT6" s="26"/>
+      <c r="ZU6" s="27"/>
+      <c r="ZV6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="ZW6" s="25"/>
-      <c r="ZX6" s="26"/>
-      <c r="ZY6" s="25" t="s">
+      <c r="ZW6" s="26"/>
+      <c r="ZX6" s="27"/>
+      <c r="ZY6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="ZZ6" s="25"/>
-      <c r="AAA6" s="26"/>
-      <c r="AAB6" s="25" t="s">
+      <c r="ZZ6" s="26"/>
+      <c r="AAA6" s="27"/>
+      <c r="AAB6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AAC6" s="25"/>
-      <c r="AAD6" s="26"/>
-      <c r="AAE6" s="25" t="s">
+      <c r="AAC6" s="26"/>
+      <c r="AAD6" s="27"/>
+      <c r="AAE6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AAF6" s="25"/>
-      <c r="AAG6" s="26"/>
-      <c r="AAH6" s="25" t="s">
+      <c r="AAF6" s="26"/>
+      <c r="AAG6" s="27"/>
+      <c r="AAH6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AAI6" s="25"/>
-      <c r="AAJ6" s="26"/>
-      <c r="AAK6" s="25" t="s">
+      <c r="AAI6" s="26"/>
+      <c r="AAJ6" s="27"/>
+      <c r="AAK6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AAL6" s="25"/>
-      <c r="AAM6" s="26"/>
-      <c r="AAN6" s="25" t="s">
+      <c r="AAL6" s="26"/>
+      <c r="AAM6" s="27"/>
+      <c r="AAN6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AAO6" s="25"/>
-      <c r="AAP6" s="26"/>
-      <c r="AAQ6" s="25" t="s">
+      <c r="AAO6" s="26"/>
+      <c r="AAP6" s="27"/>
+      <c r="AAQ6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AAR6" s="25"/>
-      <c r="AAS6" s="26"/>
-      <c r="AAT6" s="25" t="s">
+      <c r="AAR6" s="26"/>
+      <c r="AAS6" s="27"/>
+      <c r="AAT6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AAU6" s="25"/>
-      <c r="AAV6" s="26"/>
-      <c r="AAW6" s="25" t="s">
+      <c r="AAU6" s="26"/>
+      <c r="AAV6" s="27"/>
+      <c r="AAW6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AAX6" s="25"/>
-      <c r="AAY6" s="26"/>
-      <c r="AAZ6" s="25" t="s">
+      <c r="AAX6" s="26"/>
+      <c r="AAY6" s="27"/>
+      <c r="AAZ6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="ABA6" s="25"/>
-      <c r="ABB6" s="26"/>
-      <c r="ABC6" s="25" t="s">
+      <c r="ABA6" s="26"/>
+      <c r="ABB6" s="27"/>
+      <c r="ABC6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="ABD6" s="25"/>
-      <c r="ABE6" s="26"/>
-      <c r="ABF6" s="25" t="s">
+      <c r="ABD6" s="26"/>
+      <c r="ABE6" s="27"/>
+      <c r="ABF6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="ABG6" s="25"/>
-      <c r="ABH6" s="26"/>
-      <c r="ABI6" s="25" t="s">
+      <c r="ABG6" s="26"/>
+      <c r="ABH6" s="27"/>
+      <c r="ABI6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="ABJ6" s="25"/>
-      <c r="ABK6" s="26"/>
-      <c r="ABL6" s="25" t="s">
+      <c r="ABJ6" s="26"/>
+      <c r="ABK6" s="27"/>
+      <c r="ABL6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="ABM6" s="25"/>
-      <c r="ABN6" s="26"/>
-      <c r="ABO6" s="25" t="s">
+      <c r="ABM6" s="26"/>
+      <c r="ABN6" s="27"/>
+      <c r="ABO6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="ABP6" s="25"/>
-      <c r="ABQ6" s="26"/>
-      <c r="ABR6" s="25" t="s">
+      <c r="ABP6" s="26"/>
+      <c r="ABQ6" s="27"/>
+      <c r="ABR6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="ABS6" s="25"/>
-      <c r="ABT6" s="26"/>
-      <c r="ABU6" s="25" t="s">
+      <c r="ABS6" s="26"/>
+      <c r="ABT6" s="27"/>
+      <c r="ABU6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="ABV6" s="25"/>
-      <c r="ABW6" s="26"/>
-      <c r="ABX6" s="25" t="s">
+      <c r="ABV6" s="26"/>
+      <c r="ABW6" s="27"/>
+      <c r="ABX6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="ABY6" s="25"/>
-      <c r="ABZ6" s="26"/>
-      <c r="ACA6" s="25" t="s">
+      <c r="ABY6" s="26"/>
+      <c r="ABZ6" s="27"/>
+      <c r="ACA6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="ACB6" s="25"/>
-      <c r="ACC6" s="26"/>
-      <c r="ACD6" s="25" t="s">
+      <c r="ACB6" s="26"/>
+      <c r="ACC6" s="27"/>
+      <c r="ACD6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="ACE6" s="25"/>
-      <c r="ACF6" s="26"/>
-      <c r="ACG6" s="25" t="s">
+      <c r="ACE6" s="26"/>
+      <c r="ACF6" s="27"/>
+      <c r="ACG6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="ACH6" s="25"/>
-      <c r="ACI6" s="26"/>
-      <c r="ACJ6" s="25" t="s">
+      <c r="ACH6" s="26"/>
+      <c r="ACI6" s="27"/>
+      <c r="ACJ6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="ACK6" s="25"/>
-      <c r="ACL6" s="26"/>
-      <c r="ACM6" s="25" t="s">
+      <c r="ACK6" s="26"/>
+      <c r="ACL6" s="27"/>
+      <c r="ACM6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="ACN6" s="25"/>
-      <c r="ACO6" s="26"/>
-      <c r="ACP6" s="25" t="s">
+      <c r="ACN6" s="26"/>
+      <c r="ACO6" s="27"/>
+      <c r="ACP6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="ACQ6" s="25"/>
-      <c r="ACR6" s="26"/>
-      <c r="ACS6" s="25" t="s">
+      <c r="ACQ6" s="26"/>
+      <c r="ACR6" s="27"/>
+      <c r="ACS6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="ACT6" s="25"/>
-      <c r="ACU6" s="26"/>
-      <c r="ACV6" s="25" t="s">
+      <c r="ACT6" s="26"/>
+      <c r="ACU6" s="27"/>
+      <c r="ACV6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="ACW6" s="25"/>
-      <c r="ACX6" s="26"/>
-      <c r="ACY6" s="25" t="s">
+      <c r="ACW6" s="26"/>
+      <c r="ACX6" s="27"/>
+      <c r="ACY6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="ACZ6" s="25"/>
-      <c r="ADA6" s="26"/>
-      <c r="ADB6" s="25" t="s">
+      <c r="ACZ6" s="26"/>
+      <c r="ADA6" s="27"/>
+      <c r="ADB6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="ADC6" s="25"/>
-      <c r="ADD6" s="26"/>
-      <c r="ADE6" s="25" t="s">
+      <c r="ADC6" s="26"/>
+      <c r="ADD6" s="27"/>
+      <c r="ADE6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="ADF6" s="25"/>
-      <c r="ADG6" s="26"/>
-      <c r="ADH6" s="25" t="s">
+      <c r="ADF6" s="26"/>
+      <c r="ADG6" s="27"/>
+      <c r="ADH6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="ADI6" s="25"/>
-      <c r="ADJ6" s="26"/>
-      <c r="ADK6" s="25" t="s">
+      <c r="ADI6" s="26"/>
+      <c r="ADJ6" s="27"/>
+      <c r="ADK6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="ADL6" s="25"/>
-      <c r="ADM6" s="26"/>
-      <c r="ADN6" s="25" t="s">
+      <c r="ADL6" s="26"/>
+      <c r="ADM6" s="27"/>
+      <c r="ADN6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="ADO6" s="25"/>
-      <c r="ADP6" s="26"/>
-      <c r="ADQ6" s="25" t="s">
+      <c r="ADO6" s="26"/>
+      <c r="ADP6" s="27"/>
+      <c r="ADQ6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="ADR6" s="25"/>
-      <c r="ADS6" s="26"/>
-      <c r="ADT6" s="25" t="s">
+      <c r="ADR6" s="26"/>
+      <c r="ADS6" s="27"/>
+      <c r="ADT6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="ADU6" s="25"/>
-      <c r="ADV6" s="26"/>
-      <c r="ADW6" s="25" t="s">
+      <c r="ADU6" s="26"/>
+      <c r="ADV6" s="27"/>
+      <c r="ADW6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="ADX6" s="25"/>
-      <c r="ADY6" s="26"/>
-      <c r="ADZ6" s="25" t="s">
+      <c r="ADX6" s="26"/>
+      <c r="ADY6" s="27"/>
+      <c r="ADZ6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AEA6" s="25"/>
-      <c r="AEB6" s="26"/>
-      <c r="AEC6" s="25" t="s">
+      <c r="AEA6" s="26"/>
+      <c r="AEB6" s="27"/>
+      <c r="AEC6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AED6" s="25"/>
-      <c r="AEE6" s="26"/>
-      <c r="AEF6" s="25" t="s">
+      <c r="AED6" s="26"/>
+      <c r="AEE6" s="27"/>
+      <c r="AEF6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AEG6" s="25"/>
-      <c r="AEH6" s="26"/>
-      <c r="AEI6" s="25" t="s">
+      <c r="AEG6" s="26"/>
+      <c r="AEH6" s="27"/>
+      <c r="AEI6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AEJ6" s="25"/>
-      <c r="AEK6" s="26"/>
-      <c r="AEL6" s="25" t="s">
+      <c r="AEJ6" s="26"/>
+      <c r="AEK6" s="27"/>
+      <c r="AEL6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AEM6" s="25"/>
-      <c r="AEN6" s="26"/>
-      <c r="AEO6" s="25" t="s">
+      <c r="AEM6" s="26"/>
+      <c r="AEN6" s="27"/>
+      <c r="AEO6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AEP6" s="25"/>
-      <c r="AEQ6" s="26"/>
-      <c r="AER6" s="25" t="s">
+      <c r="AEP6" s="26"/>
+      <c r="AEQ6" s="27"/>
+      <c r="AER6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AES6" s="25"/>
-      <c r="AET6" s="26"/>
-      <c r="AEU6" s="25" t="s">
+      <c r="AES6" s="26"/>
+      <c r="AET6" s="27"/>
+      <c r="AEU6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AEV6" s="25"/>
-      <c r="AEW6" s="26"/>
-      <c r="AEX6" s="24" t="s">
+      <c r="AEV6" s="26"/>
+      <c r="AEW6" s="27"/>
+      <c r="AEX6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AEY6" s="25"/>
-      <c r="AEZ6" s="26"/>
-      <c r="AFA6" s="24" t="s">
+      <c r="AEY6" s="26"/>
+      <c r="AEZ6" s="27"/>
+      <c r="AFA6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AFB6" s="25"/>
-      <c r="AFC6" s="26"/>
-      <c r="AFD6" s="24" t="s">
+      <c r="AFB6" s="26"/>
+      <c r="AFC6" s="27"/>
+      <c r="AFD6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AFE6" s="25"/>
-      <c r="AFF6" s="26"/>
-      <c r="AFG6" s="24" t="s">
+      <c r="AFE6" s="26"/>
+      <c r="AFF6" s="27"/>
+      <c r="AFG6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AFH6" s="25"/>
-      <c r="AFI6" s="26"/>
-      <c r="AFJ6" s="24" t="s">
+      <c r="AFH6" s="26"/>
+      <c r="AFI6" s="27"/>
+      <c r="AFJ6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AFK6" s="25"/>
-      <c r="AFL6" s="26"/>
-      <c r="AFM6" s="24" t="s">
+      <c r="AFK6" s="26"/>
+      <c r="AFL6" s="27"/>
+      <c r="AFM6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AFN6" s="25"/>
-      <c r="AFO6" s="26"/>
-      <c r="AFP6" s="24" t="s">
+      <c r="AFN6" s="26"/>
+      <c r="AFO6" s="27"/>
+      <c r="AFP6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AFQ6" s="25"/>
-      <c r="AFR6" s="26"/>
-      <c r="AFS6" s="24" t="s">
+      <c r="AFQ6" s="26"/>
+      <c r="AFR6" s="27"/>
+      <c r="AFS6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AFT6" s="25"/>
-      <c r="AFU6" s="26"/>
-      <c r="AFV6" s="24" t="s">
+      <c r="AFT6" s="26"/>
+      <c r="AFU6" s="27"/>
+      <c r="AFV6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AFW6" s="25"/>
-      <c r="AFX6" s="26"/>
-      <c r="AFY6" s="24" t="s">
+      <c r="AFW6" s="26"/>
+      <c r="AFX6" s="27"/>
+      <c r="AFY6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AFZ6" s="25"/>
-      <c r="AGA6" s="26"/>
-      <c r="AGB6" s="25" t="s">
+      <c r="AFZ6" s="26"/>
+      <c r="AGA6" s="27"/>
+      <c r="AGB6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AGC6" s="25"/>
-      <c r="AGD6" s="26"/>
-      <c r="AGE6" s="24" t="s">
+      <c r="AGC6" s="26"/>
+      <c r="AGD6" s="27"/>
+      <c r="AGE6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AGF6" s="25"/>
-      <c r="AGG6" s="26"/>
-      <c r="AGH6" s="24" t="s">
+      <c r="AGF6" s="26"/>
+      <c r="AGG6" s="27"/>
+      <c r="AGH6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AGI6" s="25"/>
-      <c r="AGJ6" s="26"/>
-      <c r="AGK6" s="24" t="s">
+      <c r="AGI6" s="26"/>
+      <c r="AGJ6" s="27"/>
+      <c r="AGK6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AGL6" s="25"/>
-      <c r="AGM6" s="26"/>
-      <c r="AGN6" s="24" t="s">
+      <c r="AGL6" s="26"/>
+      <c r="AGM6" s="27"/>
+      <c r="AGN6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AGO6" s="25"/>
-      <c r="AGP6" s="26"/>
-      <c r="AGQ6" s="24" t="s">
+      <c r="AGO6" s="26"/>
+      <c r="AGP6" s="27"/>
+      <c r="AGQ6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AGR6" s="25"/>
-      <c r="AGS6" s="26"/>
-      <c r="AGT6" s="24" t="s">
+      <c r="AGR6" s="26"/>
+      <c r="AGS6" s="27"/>
+      <c r="AGT6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AGU6" s="25"/>
-      <c r="AGV6" s="26"/>
-      <c r="AGW6" s="24" t="s">
+      <c r="AGU6" s="26"/>
+      <c r="AGV6" s="27"/>
+      <c r="AGW6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AGX6" s="25"/>
-      <c r="AGY6" s="26"/>
-      <c r="AGZ6" s="24" t="s">
+      <c r="AGX6" s="26"/>
+      <c r="AGY6" s="27"/>
+      <c r="AGZ6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AHA6" s="25"/>
-      <c r="AHB6" s="26"/>
-      <c r="AHC6" s="24" t="s">
+      <c r="AHA6" s="26"/>
+      <c r="AHB6" s="27"/>
+      <c r="AHC6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AHD6" s="25"/>
-      <c r="AHE6" s="26"/>
-      <c r="AHF6" s="24" t="s">
+      <c r="AHD6" s="26"/>
+      <c r="AHE6" s="27"/>
+      <c r="AHF6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AHG6" s="25"/>
-      <c r="AHH6" s="26"/>
-      <c r="AHI6" s="24" t="s">
+      <c r="AHG6" s="26"/>
+      <c r="AHH6" s="27"/>
+      <c r="AHI6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AHJ6" s="25"/>
-      <c r="AHK6" s="26"/>
-      <c r="AHL6" s="24" t="s">
+      <c r="AHJ6" s="26"/>
+      <c r="AHK6" s="27"/>
+      <c r="AHL6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="AHM6" s="25"/>
-      <c r="AHN6" s="26"/>
-      <c r="AHO6" s="24" t="s">
+      <c r="AHM6" s="26"/>
+      <c r="AHN6" s="27"/>
+      <c r="AHO6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AHP6" s="25"/>
-      <c r="AHQ6" s="26"/>
-      <c r="AHR6" s="24" t="s">
+      <c r="AHP6" s="26"/>
+      <c r="AHQ6" s="27"/>
+      <c r="AHR6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AHS6" s="25"/>
-      <c r="AHT6" s="26"/>
-      <c r="AHU6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="AHV6" s="25"/>
-      <c r="AHW6" s="26"/>
+      <c r="AHS6" s="26"/>
+      <c r="AHT6" s="27"/>
+      <c r="AHU6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="AHV6" s="26"/>
+      <c r="AHW6" s="27"/>
+      <c r="AHX6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AHY6" s="26"/>
+      <c r="AHZ6" s="27"/>
     </row>
-    <row r="7" spans="1:907" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
+    <row r="7" spans="1:910" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
@@ -7289,8 +7292,17 @@
       <c r="AHW7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AHX7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AHY7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AHZ7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -10012,8 +10024,17 @@
       <c r="AHW8" s="23">
         <v>126199</v>
       </c>
+      <c r="AHX8" s="21">
+        <v>88139</v>
+      </c>
+      <c r="AHY8" s="22">
+        <v>38432</v>
+      </c>
+      <c r="AHZ8" s="23">
+        <v>126571</v>
+      </c>
     </row>
-    <row r="9" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12735,8 +12756,17 @@
       <c r="AHW9" s="5">
         <v>399812</v>
       </c>
+      <c r="AHX9" s="3">
+        <v>230934</v>
+      </c>
+      <c r="AHY9" s="4">
+        <v>171241</v>
+      </c>
+      <c r="AHZ9" s="5">
+        <v>402175</v>
+      </c>
     </row>
-    <row r="10" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15458,8 +15488,17 @@
       <c r="AHW10" s="5">
         <v>150599</v>
       </c>
+      <c r="AHX10" s="3">
+        <v>125934</v>
+      </c>
+      <c r="AHY10" s="4">
+        <v>24075</v>
+      </c>
+      <c r="AHZ10" s="5">
+        <v>150009</v>
+      </c>
     </row>
-    <row r="11" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -18181,8 +18220,17 @@
       <c r="AHW11" s="5">
         <v>9971</v>
       </c>
+      <c r="AHX11" s="3">
+        <v>7533</v>
+      </c>
+      <c r="AHY11" s="4">
+        <v>2485</v>
+      </c>
+      <c r="AHZ11" s="5">
+        <v>10018</v>
+      </c>
     </row>
-    <row r="12" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20904,8 +20952,17 @@
       <c r="AHW12" s="5">
         <v>517652</v>
       </c>
+      <c r="AHX12" s="3">
+        <v>304225</v>
+      </c>
+      <c r="AHY12" s="4">
+        <v>215644</v>
+      </c>
+      <c r="AHZ12" s="5">
+        <v>519869</v>
+      </c>
     </row>
-    <row r="13" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23627,8 +23684,17 @@
       <c r="AHW13" s="5">
         <v>2633</v>
       </c>
+      <c r="AHX13" s="3">
+        <v>2109</v>
+      </c>
+      <c r="AHY13" s="4">
+        <v>367</v>
+      </c>
+      <c r="AHZ13" s="5">
+        <v>2476</v>
+      </c>
     </row>
-    <row r="14" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26350,8 +26416,17 @@
       <c r="AHW14" s="5">
         <v>370666</v>
       </c>
+      <c r="AHX14" s="3">
+        <v>207291</v>
+      </c>
+      <c r="AHY14" s="4">
+        <v>165314</v>
+      </c>
+      <c r="AHZ14" s="5">
+        <v>372605</v>
+      </c>
     </row>
-    <row r="15" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -29073,8 +29148,17 @@
       <c r="AHW15" s="5">
         <v>282384</v>
       </c>
+      <c r="AHX15" s="3">
+        <v>126912</v>
+      </c>
+      <c r="AHY15" s="4">
+        <v>157088</v>
+      </c>
+      <c r="AHZ15" s="5">
+        <v>284000</v>
+      </c>
     </row>
-    <row r="16" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31796,8 +31880,17 @@
       <c r="AHW16" s="5">
         <v>104603</v>
       </c>
+      <c r="AHX16" s="3">
+        <v>78399</v>
+      </c>
+      <c r="AHY16" s="4">
+        <v>26593</v>
+      </c>
+      <c r="AHZ16" s="5">
+        <v>104992</v>
+      </c>
     </row>
-    <row r="17" spans="1:907" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34515,29 +34608,351 @@
         <v>1169020</v>
       </c>
       <c r="AHV17" s="14">
-        <f t="shared" ref="AHV17:AHW17" si="0">SUM(AHV8:AHV16)</f>
+        <f t="shared" ref="AHV17:AHZ17" si="0">SUM(AHV8:AHV16)</f>
         <v>795499</v>
       </c>
       <c r="AHW17" s="14">
         <f t="shared" si="0"/>
         <v>1964519</v>
       </c>
+      <c r="AHX17" s="14">
+        <f t="shared" si="0"/>
+        <v>1171476</v>
+      </c>
+      <c r="AHY17" s="14">
+        <f t="shared" si="0"/>
+        <v>801239</v>
+      </c>
+      <c r="AHZ17" s="14">
+        <f t="shared" si="0"/>
+        <v>1972715</v>
+      </c>
     </row>
-    <row r="19" spans="1:907" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:910" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
-    <row r="27" spans="1:907" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:910" x14ac:dyDescent="0.2">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="334">
+    <mergeCell ref="AHX5:AHZ5"/>
+    <mergeCell ref="AHX6:AHZ6"/>
+    <mergeCell ref="AHR6:AHT6"/>
+    <mergeCell ref="AHR5:AHT5"/>
+    <mergeCell ref="AHO6:AHQ6"/>
+    <mergeCell ref="AGH5:AHQ5"/>
+    <mergeCell ref="HJ6:HL6"/>
+    <mergeCell ref="HM6:HO6"/>
+    <mergeCell ref="HP6:HR6"/>
+    <mergeCell ref="HS6:HU6"/>
+    <mergeCell ref="HV6:HX6"/>
+    <mergeCell ref="AGE6:AGG6"/>
+    <mergeCell ref="LN6:LP6"/>
+    <mergeCell ref="LQ6:LS6"/>
+    <mergeCell ref="LT6:LV6"/>
+    <mergeCell ref="KV6:KX6"/>
+    <mergeCell ref="KY6:LA6"/>
+    <mergeCell ref="LB6:LD6"/>
+    <mergeCell ref="LE6:LG6"/>
+    <mergeCell ref="LH6:LJ6"/>
+    <mergeCell ref="LK6:LM6"/>
+    <mergeCell ref="JI6:JK6"/>
+    <mergeCell ref="IB6:ID6"/>
+    <mergeCell ref="IE6:IG6"/>
+    <mergeCell ref="IH6:IJ6"/>
+    <mergeCell ref="IK6:IM6"/>
+    <mergeCell ref="DF5:EO5"/>
+    <mergeCell ref="EP5:FY5"/>
+    <mergeCell ref="AGB6:AGD6"/>
+    <mergeCell ref="AFV6:AFX6"/>
+    <mergeCell ref="KP6:KR6"/>
+    <mergeCell ref="KS6:KU6"/>
+    <mergeCell ref="HY6:IA6"/>
+    <mergeCell ref="JL6:JN6"/>
+    <mergeCell ref="JO6:JQ6"/>
+    <mergeCell ref="JR6:JT6"/>
+    <mergeCell ref="JU6:JW6"/>
+    <mergeCell ref="JX6:JZ6"/>
+    <mergeCell ref="KA6:KC6"/>
+    <mergeCell ref="IT6:IV6"/>
+    <mergeCell ref="IW6:IY6"/>
+    <mergeCell ref="IZ6:JB6"/>
+    <mergeCell ref="JC6:JE6"/>
+    <mergeCell ref="AEX5:AGG5"/>
+    <mergeCell ref="DO6:DQ6"/>
+    <mergeCell ref="DR6:DT6"/>
+    <mergeCell ref="DU6:DW6"/>
+    <mergeCell ref="EY6:FA6"/>
+    <mergeCell ref="FB6:FD6"/>
+    <mergeCell ref="FE6:FG6"/>
+    <mergeCell ref="DX6:DZ6"/>
+    <mergeCell ref="EA6:EC6"/>
+    <mergeCell ref="ED6:EF6"/>
+    <mergeCell ref="EG6:EI6"/>
+    <mergeCell ref="EJ6:EL6"/>
+    <mergeCell ref="EM6:EO6"/>
+    <mergeCell ref="FH6:FJ6"/>
+    <mergeCell ref="FK6:FM6"/>
+    <mergeCell ref="FN6:FP6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="BV6:BX6"/>
+    <mergeCell ref="BY6:CA6"/>
+    <mergeCell ref="CB6:CD6"/>
+    <mergeCell ref="CE6:CG6"/>
+    <mergeCell ref="CH6:CJ6"/>
+    <mergeCell ref="CK6:CM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="BM6:BO6"/>
+    <mergeCell ref="BP6:BR6"/>
+    <mergeCell ref="BS6:BU6"/>
+    <mergeCell ref="BV5:DE5"/>
+    <mergeCell ref="AL5:BU5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="CN6:CP6"/>
+    <mergeCell ref="CQ6:CS6"/>
+    <mergeCell ref="CT6:CV6"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:AK5"/>
+    <mergeCell ref="CW6:CY6"/>
+    <mergeCell ref="GR6:GT6"/>
+    <mergeCell ref="GU6:GW6"/>
+    <mergeCell ref="GX6:GZ6"/>
+    <mergeCell ref="HA6:HC6"/>
+    <mergeCell ref="HD6:HF6"/>
+    <mergeCell ref="HG6:HI6"/>
+    <mergeCell ref="FZ6:GB6"/>
+    <mergeCell ref="GC6:GE6"/>
+    <mergeCell ref="GF6:GH6"/>
+    <mergeCell ref="GI6:GK6"/>
+    <mergeCell ref="GL6:GN6"/>
+    <mergeCell ref="GO6:GQ6"/>
+    <mergeCell ref="EV6:EX6"/>
+    <mergeCell ref="EP6:ER6"/>
+    <mergeCell ref="CZ6:DB6"/>
+    <mergeCell ref="DC6:DE6"/>
+    <mergeCell ref="ES6:EU6"/>
+    <mergeCell ref="DF6:DH6"/>
+    <mergeCell ref="DI6:DK6"/>
+    <mergeCell ref="DL6:DN6"/>
+    <mergeCell ref="FQ6:FS6"/>
+    <mergeCell ref="FT6:FV6"/>
+    <mergeCell ref="FW6:FY6"/>
+    <mergeCell ref="IN6:IP6"/>
+    <mergeCell ref="IQ6:IS6"/>
+    <mergeCell ref="KM6:KO6"/>
+    <mergeCell ref="JF6:JH6"/>
+    <mergeCell ref="MF6:MH6"/>
+    <mergeCell ref="MI6:MK6"/>
+    <mergeCell ref="ML6:MN6"/>
+    <mergeCell ref="MO6:MQ6"/>
+    <mergeCell ref="MR6:MT6"/>
+    <mergeCell ref="KD6:KF6"/>
+    <mergeCell ref="KG6:KI6"/>
+    <mergeCell ref="KJ6:KL6"/>
+    <mergeCell ref="OZ6:PB6"/>
+    <mergeCell ref="PC6:PE6"/>
+    <mergeCell ref="MU6:MW6"/>
+    <mergeCell ref="LW6:LY6"/>
+    <mergeCell ref="LZ6:MB6"/>
+    <mergeCell ref="MC6:ME6"/>
+    <mergeCell ref="NP6:NR6"/>
+    <mergeCell ref="NS6:NU6"/>
+    <mergeCell ref="NV6:NX6"/>
+    <mergeCell ref="NY6:OA6"/>
+    <mergeCell ref="OB6:OD6"/>
+    <mergeCell ref="OH6:OJ6"/>
+    <mergeCell ref="OK6:OM6"/>
+    <mergeCell ref="ON6:OP6"/>
+    <mergeCell ref="OQ6:OS6"/>
+    <mergeCell ref="OT6:OV6"/>
+    <mergeCell ref="OW6:OY6"/>
+    <mergeCell ref="OE6:OG6"/>
+    <mergeCell ref="MX6:MZ6"/>
+    <mergeCell ref="NA6:NC6"/>
+    <mergeCell ref="ND6:NF6"/>
+    <mergeCell ref="NG6:NI6"/>
+    <mergeCell ref="NJ6:NL6"/>
+    <mergeCell ref="NM6:NO6"/>
+    <mergeCell ref="PR6:PT6"/>
+    <mergeCell ref="PU6:PW6"/>
+    <mergeCell ref="PX6:PZ6"/>
+    <mergeCell ref="QA6:QC6"/>
+    <mergeCell ref="QD6:QF6"/>
+    <mergeCell ref="QG6:QI6"/>
+    <mergeCell ref="PF6:PH6"/>
+    <mergeCell ref="PI6:PK6"/>
+    <mergeCell ref="PL6:PN6"/>
+    <mergeCell ref="PO6:PQ6"/>
+    <mergeCell ref="RB6:RD6"/>
+    <mergeCell ref="RE6:RG6"/>
+    <mergeCell ref="RH6:RJ6"/>
+    <mergeCell ref="RK6:RM6"/>
+    <mergeCell ref="RN6:RP6"/>
+    <mergeCell ref="RQ6:RS6"/>
+    <mergeCell ref="QJ6:QL6"/>
+    <mergeCell ref="QM6:QO6"/>
+    <mergeCell ref="QP6:QR6"/>
+    <mergeCell ref="QS6:QU6"/>
+    <mergeCell ref="QV6:QX6"/>
+    <mergeCell ref="QY6:RA6"/>
+    <mergeCell ref="SL6:SN6"/>
+    <mergeCell ref="SO6:SQ6"/>
+    <mergeCell ref="SR6:ST6"/>
+    <mergeCell ref="SU6:SW6"/>
+    <mergeCell ref="SX6:SZ6"/>
+    <mergeCell ref="TA6:TC6"/>
+    <mergeCell ref="RT6:RV6"/>
+    <mergeCell ref="RW6:RY6"/>
+    <mergeCell ref="RZ6:SB6"/>
+    <mergeCell ref="SC6:SE6"/>
+    <mergeCell ref="SF6:SH6"/>
+    <mergeCell ref="SI6:SK6"/>
+    <mergeCell ref="TV6:TX6"/>
+    <mergeCell ref="TY6:UA6"/>
+    <mergeCell ref="UB6:UD6"/>
+    <mergeCell ref="UE6:UG6"/>
+    <mergeCell ref="UH6:UJ6"/>
+    <mergeCell ref="UK6:UM6"/>
+    <mergeCell ref="TD6:TF6"/>
+    <mergeCell ref="TG6:TI6"/>
+    <mergeCell ref="TJ6:TL6"/>
+    <mergeCell ref="TM6:TO6"/>
+    <mergeCell ref="TP6:TR6"/>
+    <mergeCell ref="TS6:TU6"/>
+    <mergeCell ref="VF6:VH6"/>
+    <mergeCell ref="VI6:VK6"/>
+    <mergeCell ref="VL6:VN6"/>
+    <mergeCell ref="VO6:VQ6"/>
+    <mergeCell ref="VR6:VT6"/>
+    <mergeCell ref="VU6:VW6"/>
+    <mergeCell ref="UN6:UP6"/>
+    <mergeCell ref="UQ6:US6"/>
+    <mergeCell ref="UT6:UV6"/>
+    <mergeCell ref="UW6:UY6"/>
+    <mergeCell ref="UZ6:VB6"/>
+    <mergeCell ref="VC6:VE6"/>
+    <mergeCell ref="WP6:WR6"/>
+    <mergeCell ref="WS6:WU6"/>
+    <mergeCell ref="WV6:WX6"/>
+    <mergeCell ref="WY6:XA6"/>
+    <mergeCell ref="XB6:XD6"/>
+    <mergeCell ref="XE6:XG6"/>
+    <mergeCell ref="VX6:VZ6"/>
+    <mergeCell ref="WA6:WC6"/>
+    <mergeCell ref="WD6:WF6"/>
+    <mergeCell ref="WG6:WI6"/>
+    <mergeCell ref="WJ6:WL6"/>
+    <mergeCell ref="WM6:WO6"/>
+    <mergeCell ref="AFG6:AFI6"/>
+    <mergeCell ref="AFM6:AFO6"/>
+    <mergeCell ref="AEF6:AEH6"/>
+    <mergeCell ref="AEI6:AEK6"/>
+    <mergeCell ref="AEL6:AEN6"/>
+    <mergeCell ref="AEO6:AEQ6"/>
+    <mergeCell ref="AER6:AET6"/>
+    <mergeCell ref="AEU6:AEW6"/>
+    <mergeCell ref="ZJ6:ZL6"/>
+    <mergeCell ref="ZM6:ZO6"/>
+    <mergeCell ref="ZP6:ZR6"/>
+    <mergeCell ref="ZS6:ZU6"/>
+    <mergeCell ref="ZV6:ZX6"/>
+    <mergeCell ref="ZY6:AAA6"/>
+    <mergeCell ref="ACV6:ACX6"/>
+    <mergeCell ref="ACY6:ADA6"/>
+    <mergeCell ref="ADB6:ADD6"/>
+    <mergeCell ref="ADE6:ADG6"/>
+    <mergeCell ref="ADH6:ADJ6"/>
+    <mergeCell ref="ADK6:ADM6"/>
+    <mergeCell ref="ACD6:ACF6"/>
+    <mergeCell ref="ACG6:ACI6"/>
+    <mergeCell ref="ACJ6:ACL6"/>
+    <mergeCell ref="ACM6:ACO6"/>
+    <mergeCell ref="ABR6:ABT6"/>
+    <mergeCell ref="ABU6:ABW6"/>
+    <mergeCell ref="ACP6:ACR6"/>
+    <mergeCell ref="ACS6:ACU6"/>
+    <mergeCell ref="ABX6:ABZ6"/>
+    <mergeCell ref="ACA6:ACC6"/>
+    <mergeCell ref="AAT6:AAV6"/>
+    <mergeCell ref="AAW6:AAY6"/>
+    <mergeCell ref="AAZ6:ABB6"/>
+    <mergeCell ref="ABC6:ABE6"/>
+    <mergeCell ref="ABF6:ABH6"/>
+    <mergeCell ref="ABI6:ABK6"/>
+    <mergeCell ref="AAE6:AAG6"/>
+    <mergeCell ref="AAH6:AAJ6"/>
+    <mergeCell ref="AAK6:AAM6"/>
+    <mergeCell ref="AAN6:AAP6"/>
+    <mergeCell ref="AAQ6:AAS6"/>
+    <mergeCell ref="ABL6:ABN6"/>
+    <mergeCell ref="ABO6:ABQ6"/>
+    <mergeCell ref="YR6:YT6"/>
+    <mergeCell ref="YU6:YW6"/>
+    <mergeCell ref="YX6:YZ6"/>
+    <mergeCell ref="ZA6:ZC6"/>
+    <mergeCell ref="ZD6:ZF6"/>
+    <mergeCell ref="ZG6:ZI6"/>
+    <mergeCell ref="FZ5:HI5"/>
+    <mergeCell ref="HJ5:IS5"/>
+    <mergeCell ref="IT5:KC5"/>
+    <mergeCell ref="KD5:LM5"/>
+    <mergeCell ref="LN5:MW5"/>
+    <mergeCell ref="MX5:OG5"/>
+    <mergeCell ref="WP5:XY5"/>
+    <mergeCell ref="XZ5:ZI5"/>
+    <mergeCell ref="ZJ5:AAS5"/>
+    <mergeCell ref="AFA6:AFC6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <mergeCell ref="XH6:XJ6"/>
+    <mergeCell ref="XK6:XM6"/>
+    <mergeCell ref="XN6:XP6"/>
+    <mergeCell ref="XQ6:XS6"/>
+    <mergeCell ref="XT6:XV6"/>
+    <mergeCell ref="XW6:XY6"/>
+    <mergeCell ref="AAB6:AAD6"/>
     <mergeCell ref="AHU5:AHW5"/>
     <mergeCell ref="AHU6:AHW6"/>
     <mergeCell ref="AHL6:AHN6"/>
@@ -34562,314 +34977,6 @@
     <mergeCell ref="AEC6:AEE6"/>
     <mergeCell ref="ADZ6:AEB6"/>
     <mergeCell ref="AEX6:AEZ6"/>
-    <mergeCell ref="AFA6:AFC6"/>
-    <mergeCell ref="AFD6:AFF6"/>
-    <mergeCell ref="ACD5:ADM5"/>
-    <mergeCell ref="ADN5:AEW5"/>
-    <mergeCell ref="OH5:PQ5"/>
-    <mergeCell ref="PR5:RA5"/>
-    <mergeCell ref="RB5:SK5"/>
-    <mergeCell ref="SL5:TU5"/>
-    <mergeCell ref="TV5:VE5"/>
-    <mergeCell ref="VF5:WO5"/>
-    <mergeCell ref="FZ5:HI5"/>
-    <mergeCell ref="HJ5:IS5"/>
-    <mergeCell ref="IT5:KC5"/>
-    <mergeCell ref="KD5:LM5"/>
-    <mergeCell ref="LN5:MW5"/>
-    <mergeCell ref="MX5:OG5"/>
-    <mergeCell ref="WP5:XY5"/>
-    <mergeCell ref="XZ5:ZI5"/>
-    <mergeCell ref="ZJ5:AAS5"/>
-    <mergeCell ref="AAT5:ACC5"/>
-    <mergeCell ref="XZ6:YB6"/>
-    <mergeCell ref="YC6:YE6"/>
-    <mergeCell ref="YF6:YH6"/>
-    <mergeCell ref="YI6:YK6"/>
-    <mergeCell ref="YL6:YN6"/>
-    <mergeCell ref="YO6:YQ6"/>
-    <mergeCell ref="XH6:XJ6"/>
-    <mergeCell ref="XK6:XM6"/>
-    <mergeCell ref="XN6:XP6"/>
-    <mergeCell ref="XQ6:XS6"/>
-    <mergeCell ref="XT6:XV6"/>
-    <mergeCell ref="XW6:XY6"/>
-    <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AAE6:AAG6"/>
-    <mergeCell ref="AAH6:AAJ6"/>
-    <mergeCell ref="AAK6:AAM6"/>
-    <mergeCell ref="AAN6:AAP6"/>
-    <mergeCell ref="AAQ6:AAS6"/>
-    <mergeCell ref="ABL6:ABN6"/>
-    <mergeCell ref="ABO6:ABQ6"/>
-    <mergeCell ref="YR6:YT6"/>
-    <mergeCell ref="YU6:YW6"/>
-    <mergeCell ref="YX6:YZ6"/>
-    <mergeCell ref="ZA6:ZC6"/>
-    <mergeCell ref="ZD6:ZF6"/>
-    <mergeCell ref="ZG6:ZI6"/>
-    <mergeCell ref="ABR6:ABT6"/>
-    <mergeCell ref="ABU6:ABW6"/>
-    <mergeCell ref="ACP6:ACR6"/>
-    <mergeCell ref="ACS6:ACU6"/>
-    <mergeCell ref="ABX6:ABZ6"/>
-    <mergeCell ref="ACA6:ACC6"/>
-    <mergeCell ref="AAT6:AAV6"/>
-    <mergeCell ref="AAW6:AAY6"/>
-    <mergeCell ref="AAZ6:ABB6"/>
-    <mergeCell ref="ABC6:ABE6"/>
-    <mergeCell ref="ABF6:ABH6"/>
-    <mergeCell ref="ABI6:ABK6"/>
-    <mergeCell ref="AFG6:AFI6"/>
-    <mergeCell ref="AFM6:AFO6"/>
-    <mergeCell ref="AEF6:AEH6"/>
-    <mergeCell ref="AEI6:AEK6"/>
-    <mergeCell ref="AEL6:AEN6"/>
-    <mergeCell ref="AEO6:AEQ6"/>
-    <mergeCell ref="AER6:AET6"/>
-    <mergeCell ref="AEU6:AEW6"/>
-    <mergeCell ref="ZJ6:ZL6"/>
-    <mergeCell ref="ZM6:ZO6"/>
-    <mergeCell ref="ZP6:ZR6"/>
-    <mergeCell ref="ZS6:ZU6"/>
-    <mergeCell ref="ZV6:ZX6"/>
-    <mergeCell ref="ZY6:AAA6"/>
-    <mergeCell ref="ACV6:ACX6"/>
-    <mergeCell ref="ACY6:ADA6"/>
-    <mergeCell ref="ADB6:ADD6"/>
-    <mergeCell ref="ADE6:ADG6"/>
-    <mergeCell ref="ADH6:ADJ6"/>
-    <mergeCell ref="ADK6:ADM6"/>
-    <mergeCell ref="ACD6:ACF6"/>
-    <mergeCell ref="ACG6:ACI6"/>
-    <mergeCell ref="ACJ6:ACL6"/>
-    <mergeCell ref="ACM6:ACO6"/>
-    <mergeCell ref="WP6:WR6"/>
-    <mergeCell ref="WS6:WU6"/>
-    <mergeCell ref="WV6:WX6"/>
-    <mergeCell ref="WY6:XA6"/>
-    <mergeCell ref="XB6:XD6"/>
-    <mergeCell ref="XE6:XG6"/>
-    <mergeCell ref="VX6:VZ6"/>
-    <mergeCell ref="WA6:WC6"/>
-    <mergeCell ref="WD6:WF6"/>
-    <mergeCell ref="WG6:WI6"/>
-    <mergeCell ref="WJ6:WL6"/>
-    <mergeCell ref="WM6:WO6"/>
-    <mergeCell ref="VF6:VH6"/>
-    <mergeCell ref="VI6:VK6"/>
-    <mergeCell ref="VL6:VN6"/>
-    <mergeCell ref="VO6:VQ6"/>
-    <mergeCell ref="VR6:VT6"/>
-    <mergeCell ref="VU6:VW6"/>
-    <mergeCell ref="UN6:UP6"/>
-    <mergeCell ref="UQ6:US6"/>
-    <mergeCell ref="UT6:UV6"/>
-    <mergeCell ref="UW6:UY6"/>
-    <mergeCell ref="UZ6:VB6"/>
-    <mergeCell ref="VC6:VE6"/>
-    <mergeCell ref="TV6:TX6"/>
-    <mergeCell ref="TY6:UA6"/>
-    <mergeCell ref="UB6:UD6"/>
-    <mergeCell ref="UE6:UG6"/>
-    <mergeCell ref="UH6:UJ6"/>
-    <mergeCell ref="UK6:UM6"/>
-    <mergeCell ref="TD6:TF6"/>
-    <mergeCell ref="TG6:TI6"/>
-    <mergeCell ref="TJ6:TL6"/>
-    <mergeCell ref="TM6:TO6"/>
-    <mergeCell ref="TP6:TR6"/>
-    <mergeCell ref="TS6:TU6"/>
-    <mergeCell ref="SL6:SN6"/>
-    <mergeCell ref="SO6:SQ6"/>
-    <mergeCell ref="SR6:ST6"/>
-    <mergeCell ref="SU6:SW6"/>
-    <mergeCell ref="SX6:SZ6"/>
-    <mergeCell ref="TA6:TC6"/>
-    <mergeCell ref="RT6:RV6"/>
-    <mergeCell ref="RW6:RY6"/>
-    <mergeCell ref="RZ6:SB6"/>
-    <mergeCell ref="SC6:SE6"/>
-    <mergeCell ref="SF6:SH6"/>
-    <mergeCell ref="SI6:SK6"/>
-    <mergeCell ref="RB6:RD6"/>
-    <mergeCell ref="RE6:RG6"/>
-    <mergeCell ref="RH6:RJ6"/>
-    <mergeCell ref="RK6:RM6"/>
-    <mergeCell ref="RN6:RP6"/>
-    <mergeCell ref="RQ6:RS6"/>
-    <mergeCell ref="QJ6:QL6"/>
-    <mergeCell ref="QM6:QO6"/>
-    <mergeCell ref="QP6:QR6"/>
-    <mergeCell ref="QS6:QU6"/>
-    <mergeCell ref="QV6:QX6"/>
-    <mergeCell ref="QY6:RA6"/>
-    <mergeCell ref="PR6:PT6"/>
-    <mergeCell ref="PU6:PW6"/>
-    <mergeCell ref="PX6:PZ6"/>
-    <mergeCell ref="QA6:QC6"/>
-    <mergeCell ref="QD6:QF6"/>
-    <mergeCell ref="QG6:QI6"/>
-    <mergeCell ref="PF6:PH6"/>
-    <mergeCell ref="PI6:PK6"/>
-    <mergeCell ref="PL6:PN6"/>
-    <mergeCell ref="PO6:PQ6"/>
-    <mergeCell ref="OZ6:PB6"/>
-    <mergeCell ref="PC6:PE6"/>
-    <mergeCell ref="MU6:MW6"/>
-    <mergeCell ref="LW6:LY6"/>
-    <mergeCell ref="LZ6:MB6"/>
-    <mergeCell ref="MC6:ME6"/>
-    <mergeCell ref="NP6:NR6"/>
-    <mergeCell ref="NS6:NU6"/>
-    <mergeCell ref="NV6:NX6"/>
-    <mergeCell ref="NY6:OA6"/>
-    <mergeCell ref="OB6:OD6"/>
-    <mergeCell ref="OH6:OJ6"/>
-    <mergeCell ref="OK6:OM6"/>
-    <mergeCell ref="ON6:OP6"/>
-    <mergeCell ref="OQ6:OS6"/>
-    <mergeCell ref="OT6:OV6"/>
-    <mergeCell ref="OW6:OY6"/>
-    <mergeCell ref="OE6:OG6"/>
-    <mergeCell ref="MX6:MZ6"/>
-    <mergeCell ref="NA6:NC6"/>
-    <mergeCell ref="ND6:NF6"/>
-    <mergeCell ref="NG6:NI6"/>
-    <mergeCell ref="NJ6:NL6"/>
-    <mergeCell ref="NM6:NO6"/>
-    <mergeCell ref="IN6:IP6"/>
-    <mergeCell ref="IQ6:IS6"/>
-    <mergeCell ref="KM6:KO6"/>
-    <mergeCell ref="JF6:JH6"/>
-    <mergeCell ref="MF6:MH6"/>
-    <mergeCell ref="MI6:MK6"/>
-    <mergeCell ref="ML6:MN6"/>
-    <mergeCell ref="MO6:MQ6"/>
-    <mergeCell ref="MR6:MT6"/>
-    <mergeCell ref="KD6:KF6"/>
-    <mergeCell ref="KG6:KI6"/>
-    <mergeCell ref="KJ6:KL6"/>
-    <mergeCell ref="CW6:CY6"/>
-    <mergeCell ref="GR6:GT6"/>
-    <mergeCell ref="GU6:GW6"/>
-    <mergeCell ref="GX6:GZ6"/>
-    <mergeCell ref="HA6:HC6"/>
-    <mergeCell ref="HD6:HF6"/>
-    <mergeCell ref="HG6:HI6"/>
-    <mergeCell ref="FZ6:GB6"/>
-    <mergeCell ref="GC6:GE6"/>
-    <mergeCell ref="GF6:GH6"/>
-    <mergeCell ref="GI6:GK6"/>
-    <mergeCell ref="GL6:GN6"/>
-    <mergeCell ref="GO6:GQ6"/>
-    <mergeCell ref="EV6:EX6"/>
-    <mergeCell ref="EP6:ER6"/>
-    <mergeCell ref="CZ6:DB6"/>
-    <mergeCell ref="DC6:DE6"/>
-    <mergeCell ref="ES6:EU6"/>
-    <mergeCell ref="DF6:DH6"/>
-    <mergeCell ref="DI6:DK6"/>
-    <mergeCell ref="DL6:DN6"/>
-    <mergeCell ref="FQ6:FS6"/>
-    <mergeCell ref="FT6:FV6"/>
-    <mergeCell ref="FW6:FY6"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:AK5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="BV6:BX6"/>
-    <mergeCell ref="BY6:CA6"/>
-    <mergeCell ref="CB6:CD6"/>
-    <mergeCell ref="CE6:CG6"/>
-    <mergeCell ref="CH6:CJ6"/>
-    <mergeCell ref="CK6:CM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="BM6:BO6"/>
-    <mergeCell ref="BP6:BR6"/>
-    <mergeCell ref="BS6:BU6"/>
-    <mergeCell ref="BV5:DE5"/>
-    <mergeCell ref="AL5:BU5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="CN6:CP6"/>
-    <mergeCell ref="CQ6:CS6"/>
-    <mergeCell ref="CT6:CV6"/>
-    <mergeCell ref="DX6:DZ6"/>
-    <mergeCell ref="EA6:EC6"/>
-    <mergeCell ref="ED6:EF6"/>
-    <mergeCell ref="EG6:EI6"/>
-    <mergeCell ref="EJ6:EL6"/>
-    <mergeCell ref="EM6:EO6"/>
-    <mergeCell ref="FH6:FJ6"/>
-    <mergeCell ref="FK6:FM6"/>
-    <mergeCell ref="FN6:FP6"/>
-    <mergeCell ref="DF5:EO5"/>
-    <mergeCell ref="EP5:FY5"/>
-    <mergeCell ref="AGB6:AGD6"/>
-    <mergeCell ref="AFV6:AFX6"/>
-    <mergeCell ref="KP6:KR6"/>
-    <mergeCell ref="KS6:KU6"/>
-    <mergeCell ref="HY6:IA6"/>
-    <mergeCell ref="JL6:JN6"/>
-    <mergeCell ref="JO6:JQ6"/>
-    <mergeCell ref="JR6:JT6"/>
-    <mergeCell ref="JU6:JW6"/>
-    <mergeCell ref="JX6:JZ6"/>
-    <mergeCell ref="KA6:KC6"/>
-    <mergeCell ref="IT6:IV6"/>
-    <mergeCell ref="IW6:IY6"/>
-    <mergeCell ref="IZ6:JB6"/>
-    <mergeCell ref="JC6:JE6"/>
-    <mergeCell ref="AEX5:AGG5"/>
-    <mergeCell ref="DO6:DQ6"/>
-    <mergeCell ref="DR6:DT6"/>
-    <mergeCell ref="DU6:DW6"/>
-    <mergeCell ref="EY6:FA6"/>
-    <mergeCell ref="FB6:FD6"/>
-    <mergeCell ref="FE6:FG6"/>
-    <mergeCell ref="AHR6:AHT6"/>
-    <mergeCell ref="AHR5:AHT5"/>
-    <mergeCell ref="AHO6:AHQ6"/>
-    <mergeCell ref="AGH5:AHQ5"/>
-    <mergeCell ref="HJ6:HL6"/>
-    <mergeCell ref="HM6:HO6"/>
-    <mergeCell ref="HP6:HR6"/>
-    <mergeCell ref="HS6:HU6"/>
-    <mergeCell ref="HV6:HX6"/>
-    <mergeCell ref="AGE6:AGG6"/>
-    <mergeCell ref="LN6:LP6"/>
-    <mergeCell ref="LQ6:LS6"/>
-    <mergeCell ref="LT6:LV6"/>
-    <mergeCell ref="KV6:KX6"/>
-    <mergeCell ref="KY6:LA6"/>
-    <mergeCell ref="LB6:LD6"/>
-    <mergeCell ref="LE6:LG6"/>
-    <mergeCell ref="LH6:LJ6"/>
-    <mergeCell ref="LK6:LM6"/>
-    <mergeCell ref="JI6:JK6"/>
-    <mergeCell ref="IB6:ID6"/>
-    <mergeCell ref="IE6:IG6"/>
-    <mergeCell ref="IH6:IJ6"/>
-    <mergeCell ref="IK6:IM6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabluados_imss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="ta_jalisco_género" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="31">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Enero </t>
   </si>
   <si>
-    <t>Enero 1998 - enero 2023</t>
+    <t>Enero 1998 - abril 2023</t>
   </si>
 </sst>
 </file>
@@ -1253,817 +1253,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AHZ27"/>
+  <dimension ref="A1:AIC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AHL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AHU26" sqref="AHU26"/>
+      <pane xSplit="1" topLeftCell="AHO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AHS23" sqref="AHS23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="246" max="246" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="253" max="253" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="255" max="255" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="270" max="270" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="271" max="271" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="272" max="272" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="278" max="278" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="279" max="279" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="280" max="280" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="281" max="281" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="282" max="282" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="283" max="283" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="284" max="284" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="286" max="286" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="287" max="287" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="288" max="288" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="289" max="289" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="290" max="290" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="291" max="291" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="294" max="294" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="295" max="295" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="296" max="296" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="297" max="297" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="301" max="301" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="305" max="305" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="318" max="318" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="319" max="319" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="320" max="320" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="321" max="321" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="322" max="322" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="323" max="323" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="326" max="326" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="327" max="327" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="328" max="328" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="329" max="329" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="330" max="330" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="331" max="331" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="332" max="332" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="333" max="333" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="334" max="334" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="335" max="335" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="336" max="336" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="337" max="337" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="338" max="338" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="339" max="339" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="340" max="340" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="341" max="341" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="342" max="342" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="343" max="343" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="344" max="344" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="345" max="345" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="346" max="346" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="347" max="347" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="348" max="348" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="349" max="349" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="350" max="350" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="351" max="351" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="352" max="352" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="353" max="353" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="356" max="356" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="357" max="357" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="358" max="358" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="359" max="359" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="360" max="360" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="361" max="361" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="362" max="362" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="363" max="363" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="364" max="364" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="365" max="365" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="366" max="366" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="367" max="367" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="368" max="368" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="369" max="369" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="370" max="370" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="372" max="372" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="373" max="373" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="374" max="374" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="375" max="375" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="376" max="376" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="377" max="377" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="378" max="378" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="379" max="379" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="380" max="380" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="381" max="381" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="382" max="382" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="383" max="383" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="384" max="384" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="385" max="385" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="386" max="386" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="387" max="387" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="388" max="388" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="389" max="389" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="390" max="390" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="394" max="394" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="395" max="395" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="396" max="396" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="397" max="397" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="398" max="398" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="399" max="399" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="400" max="400" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="401" max="401" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="402" max="402" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="403" max="403" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="404" max="404" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="405" max="405" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="406" max="406" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="407" max="407" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="408" max="408" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="409" max="409" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="410" max="410" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="411" max="411" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="412" max="412" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="413" max="413" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="414" max="414" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="415" max="415" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="416" max="416" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="417" max="417" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="418" max="418" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="419" max="419" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="422" max="422" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="423" max="423" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="424" max="424" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="425" max="425" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="428" max="428" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="429" max="429" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="430" max="430" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="431" max="431" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="432" max="432" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="433" max="433" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="434" max="434" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="436" max="436" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="437" max="437" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="438" max="438" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="439" max="439" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="441" max="441" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="442" max="442" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="443" max="443" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="444" max="444" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="445" max="445" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="446" max="446" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="447" max="447" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="448" max="448" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="449" max="449" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="450" max="450" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="451" max="451" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="452" max="452" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="453" max="453" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="454" max="454" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="455" max="455" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="456" max="456" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="457" max="457" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="460" max="460" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="461" max="461" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="462" max="462" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="464" max="464" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="465" max="465" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="466" max="466" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="467" max="467" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="468" max="468" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="469" max="469" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="470" max="470" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="471" max="471" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="472" max="472" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="473" max="473" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="476" max="476" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="477" max="477" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="478" max="478" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="479" max="479" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="480" max="480" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="481" max="481" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="482" max="482" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="483" max="483" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="484" max="484" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="485" max="485" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="486" max="486" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="487" max="487" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="488" max="488" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="489" max="489" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="491" max="491" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="492" max="492" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="493" max="493" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="494" max="494" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="496" max="496" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="497" max="497" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="498" max="498" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="499" max="499" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="500" max="500" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="502" max="502" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="503" max="503" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="504" max="504" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="505" max="505" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="506" max="506" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="508" max="508" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="509" max="509" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="512" max="512" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="524" max="524" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="526" max="526" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="527" max="527" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="528" max="528" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="534" max="534" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="535" max="535" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="536" max="536" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="537" max="537" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="538" max="538" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="539" max="539" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="540" max="540" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="541" max="541" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="542" max="542" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="543" max="543" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="544" max="544" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="545" max="545" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="546" max="546" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="547" max="547" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="548" max="548" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="549" max="549" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="550" max="550" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="551" max="551" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="552" max="552" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="553" max="553" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="554" max="554" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="555" max="555" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="556" max="556" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="557" max="557" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="558" max="558" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="559" max="559" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="560" max="560" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="561" max="561" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="562" max="562" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="563" max="563" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="564" max="564" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="565" max="565" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="566" max="566" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="567" max="567" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="568" max="568" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="569" max="569" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="570" max="570" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="571" max="571" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="572" max="572" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="573" max="573" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="574" max="574" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="575" max="575" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="576" max="576" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="577" max="577" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="578" max="578" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="579" max="579" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="580" max="580" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="581" max="581" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="582" max="582" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="583" max="583" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="585" max="585" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="586" max="586" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="587" max="587" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="590" max="590" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="591" max="591" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="592" max="592" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="593" max="593" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="594" max="594" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="595" max="595" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="596" max="596" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="597" max="597" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="598" max="598" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="599" max="599" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="600" max="600" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="601" max="601" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="602" max="602" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="603" max="603" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="604" max="604" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="605" max="605" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="608" max="608" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="609" max="609" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="610" max="610" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="611" max="611" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="612" max="612" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="613" max="613" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="614" max="614" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="615" max="615" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="616" max="616" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="617" max="617" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="618" max="618" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="619" max="619" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="620" max="620" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="621" max="621" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="622" max="622" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="623" max="623" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="624" max="624" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="628" max="628" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="629" max="629" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="630" max="630" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="631" max="631" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="632" max="632" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="633" max="633" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="636" max="636" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="637" max="637" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="638" max="638" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="639" max="639" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="640" max="640" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="641" max="641" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="644" max="644" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="645" max="645" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="646" max="646" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="647" max="647" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="649" max="649" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="650" max="650" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="651" max="651" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="652" max="652" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="653" max="653" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="654" max="654" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="655" max="655" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="656" max="656" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="657" max="657" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="658" max="658" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="659" max="659" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="660" max="660" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="661" max="661" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="662" max="662" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="663" max="663" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="664" max="664" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="665" max="665" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="666" max="666" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="667" max="667" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="668" max="668" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="669" max="669" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="670" max="670" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="671" max="671" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="672" max="672" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="673" max="674" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="675" max="675" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="676" max="677" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="678" max="678" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="679" max="680" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="681" max="681" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="684" max="684" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="685" max="686" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="687" max="687" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="690" max="690" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="691" max="692" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="693" max="693" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="697" max="698" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="699" max="699" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="702" max="702" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="703" max="704" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="705" max="705" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="709" max="710" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="711" max="711" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="714" max="714" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="715" max="716" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="717" max="717" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="721" max="722" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="723" max="723" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="726" max="726" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="727" max="728" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="729" max="729" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="733" max="734" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="735" max="735" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="738" max="738" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="739" max="740" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="741" max="741" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="745" max="746" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="747" max="747" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="750" max="750" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="751" max="752" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="753" max="753" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="756" max="756" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="757" max="758" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="763" max="764" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="765" max="765" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="768" max="768" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="769" max="770" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="781" max="782" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="783" max="783" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="787" max="788" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="790" max="791" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="793" max="794" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="795" max="795" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="798" max="798" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="799" max="800" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="801" max="801" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="804" max="804" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="805" max="806" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="807" max="807" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="810" max="810" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="811" max="812" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="813" max="813" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="816" max="816" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="817" max="818" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="819" max="819" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="822" max="822" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="823" max="824" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="825" max="825" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="829" max="830" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="831" max="831" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="834" max="834" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="835" max="836" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="837" max="837" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="841" max="842" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="843" max="843" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="846" max="846" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="847" max="848" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="849" max="849" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="853" max="854" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="855" max="855" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="858" max="858" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="859" max="860" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="861" max="861" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="864" max="864" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="865" max="866" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="867" max="867" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="868" max="869" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="870" max="870" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="871" max="872" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="873" max="873" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="874" max="875" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="876" max="876" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="877" max="878" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="879" max="879" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="880" max="881" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="882" max="882" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="883" max="884" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="885" max="885" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="886" max="887" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="888" max="888" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="889" max="890" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="891" max="891" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="892" max="893" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="894" max="894" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="895" max="895" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="896" max="898" width="8.85546875" style="1" customWidth="1"/>
-    <col min="899" max="899" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="900" max="900" width="8.42578125" style="1" customWidth="1"/>
-    <col min="901" max="901" width="9.28515625" style="1" customWidth="1"/>
-    <col min="902" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="51.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="253" max="253" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="270" max="270" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="271" max="271" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="272" max="272" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="273" max="273" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="278" max="278" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="279" max="279" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="280" max="280" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="281" max="281" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="282" max="282" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="283" max="283" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="284" max="284" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="286" max="286" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="287" max="287" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="288" max="288" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="289" max="289" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="290" max="290" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="291" max="291" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="294" max="294" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="295" max="295" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="296" max="296" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="297" max="297" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="301" max="301" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="305" max="305" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="318" max="318" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="319" max="319" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="320" max="320" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="321" max="321" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="322" max="322" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="323" max="323" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="326" max="326" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="327" max="327" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="328" max="328" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="329" max="329" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="330" max="330" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="331" max="331" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="332" max="332" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="333" max="333" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="334" max="334" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="335" max="335" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="336" max="336" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="337" max="337" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="338" max="338" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="339" max="339" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="340" max="340" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="341" max="341" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="342" max="342" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="343" max="343" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="344" max="344" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="345" max="345" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="346" max="346" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="347" max="347" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="348" max="348" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="349" max="349" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="350" max="350" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="351" max="351" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="352" max="352" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="353" max="353" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="356" max="356" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="357" max="357" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="358" max="358" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="359" max="359" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="360" max="360" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="361" max="361" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="362" max="362" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="363" max="363" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="364" max="364" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="365" max="365" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="366" max="366" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="367" max="367" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="368" max="368" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="369" max="369" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="370" max="370" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="372" max="372" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="373" max="373" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="374" max="374" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="375" max="375" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="376" max="376" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="377" max="377" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="378" max="378" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="379" max="379" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="380" max="380" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="381" max="381" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="382" max="382" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="383" max="383" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="384" max="384" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="385" max="385" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="386" max="386" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="387" max="387" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="388" max="388" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="389" max="389" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="390" max="390" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="391" max="391" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="392" max="392" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="393" max="393" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="394" max="394" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="395" max="395" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="396" max="396" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="397" max="397" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="398" max="398" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="399" max="399" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="400" max="400" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="401" max="401" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="402" max="402" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="403" max="403" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="404" max="404" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="405" max="405" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="406" max="406" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="407" max="407" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="408" max="408" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="409" max="409" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="410" max="410" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="411" max="411" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="412" max="412" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="413" max="413" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="414" max="414" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="415" max="415" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="416" max="416" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="417" max="417" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="418" max="418" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="419" max="419" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="422" max="422" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="423" max="423" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="424" max="424" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="425" max="425" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="428" max="428" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="429" max="429" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="430" max="430" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="431" max="431" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="432" max="432" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="433" max="433" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="434" max="434" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="436" max="436" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="437" max="437" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="438" max="438" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="439" max="439" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="441" max="441" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="442" max="442" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="443" max="443" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="444" max="444" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="445" max="445" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="446" max="446" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="447" max="447" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="448" max="448" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="449" max="449" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="450" max="450" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="451" max="451" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="452" max="452" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="453" max="453" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="454" max="454" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="455" max="455" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="456" max="456" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="457" max="457" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="460" max="460" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="461" max="461" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="462" max="462" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="464" max="464" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="465" max="465" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="466" max="466" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="467" max="467" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="468" max="468" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="469" max="469" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="470" max="470" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="471" max="471" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="472" max="472" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="473" max="473" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="476" max="476" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="477" max="477" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="478" max="478" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="479" max="479" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="480" max="480" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="481" max="481" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="482" max="482" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="483" max="483" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="484" max="484" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="485" max="485" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="486" max="486" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="487" max="487" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="488" max="488" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="489" max="489" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="491" max="491" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="492" max="492" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="493" max="493" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="494" max="494" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="496" max="496" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="497" max="497" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="498" max="498" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="499" max="499" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="502" max="502" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="503" max="503" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="504" max="504" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="505" max="505" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="508" max="508" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="509" max="509" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="526" max="526" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="527" max="527" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="528" max="528" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="529" max="529" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="534" max="534" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="535" max="535" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="536" max="536" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="537" max="537" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="538" max="538" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="539" max="539" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="540" max="540" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="541" max="541" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="542" max="542" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="543" max="543" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="544" max="544" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="545" max="545" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="546" max="546" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="547" max="547" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="548" max="548" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="549" max="549" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="550" max="550" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="551" max="551" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="552" max="552" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="553" max="553" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="554" max="554" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="555" max="555" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="556" max="556" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="557" max="557" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="558" max="558" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="559" max="559" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="560" max="560" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="561" max="561" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="562" max="562" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="563" max="563" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="564" max="564" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="565" max="565" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="566" max="566" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="567" max="567" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="568" max="568" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="569" max="569" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="570" max="570" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="571" max="571" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="572" max="572" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="573" max="573" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="574" max="574" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="575" max="575" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="576" max="576" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="577" max="577" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="578" max="578" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="579" max="579" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="580" max="580" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="581" max="581" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="582" max="582" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="583" max="583" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="585" max="585" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="586" max="586" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="587" max="587" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="590" max="590" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="591" max="591" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="592" max="592" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="593" max="593" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="594" max="594" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="595" max="595" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="596" max="596" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="597" max="597" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="598" max="598" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="599" max="599" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="600" max="600" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="601" max="601" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="602" max="602" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="603" max="603" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="604" max="604" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="605" max="605" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="608" max="608" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="609" max="609" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="610" max="610" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="611" max="611" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="612" max="612" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="613" max="613" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="614" max="614" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="615" max="615" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="616" max="616" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="617" max="617" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="618" max="618" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="619" max="619" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="620" max="620" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="621" max="621" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="622" max="622" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="623" max="623" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="624" max="624" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="628" max="628" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="629" max="629" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="630" max="630" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="631" max="631" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="632" max="632" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="633" max="633" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="636" max="636" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="637" max="637" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="638" max="638" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="639" max="639" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="640" max="640" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="641" max="641" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="644" max="644" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="645" max="645" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="646" max="646" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="647" max="647" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="649" max="649" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="650" max="650" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="651" max="651" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="652" max="652" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="653" max="653" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="654" max="654" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="655" max="655" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="656" max="656" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="657" max="657" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="658" max="658" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="659" max="659" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="660" max="660" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="661" max="661" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="662" max="662" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="663" max="663" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="664" max="664" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="665" max="665" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="666" max="666" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="667" max="667" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="668" max="668" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="669" max="669" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="670" max="670" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="671" max="671" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="672" max="672" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="673" max="674" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="675" max="675" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="676" max="677" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="678" max="678" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="679" max="680" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="681" max="681" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="684" max="684" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="685" max="686" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="687" max="687" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="690" max="690" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="691" max="692" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="693" max="693" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="697" max="698" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="699" max="699" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="702" max="702" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="703" max="704" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="705" max="705" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="709" max="710" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="711" max="711" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="714" max="714" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="715" max="716" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="717" max="717" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="721" max="722" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="723" max="723" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="726" max="726" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="727" max="728" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="729" max="729" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="733" max="734" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="735" max="735" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="738" max="738" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="739" max="740" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="741" max="741" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="745" max="746" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="747" max="747" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="750" max="750" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="751" max="752" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="753" max="753" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="756" max="756" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="757" max="758" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="759" max="759" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="763" max="764" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="765" max="765" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="769" max="770" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="782" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="783" max="783" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="787" max="788" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="790" max="791" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="793" max="794" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="795" max="795" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="798" max="798" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="799" max="800" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="801" max="801" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="804" max="804" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="805" max="806" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="807" max="807" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="810" max="810" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="811" max="812" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="813" max="813" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="816" max="816" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="817" max="818" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="819" max="819" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="822" max="822" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="823" max="824" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="825" max="825" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="829" max="830" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="831" max="831" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="834" max="834" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="835" max="836" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="837" max="837" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="841" max="842" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="843" max="843" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="846" max="846" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="847" max="848" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="849" max="849" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="853" max="854" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="855" max="855" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="859" max="860" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="861" max="861" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="864" max="864" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="865" max="866" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="867" max="867" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="868" max="869" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="870" max="870" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="871" max="872" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="873" max="873" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="874" max="875" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="876" max="876" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="877" max="878" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="879" max="879" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="880" max="881" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="882" max="882" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="883" max="884" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="885" max="885" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="886" max="887" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="888" max="888" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="889" max="890" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="891" max="891" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="892" max="893" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="894" max="894" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="895" max="896" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="897" max="897" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="898" max="899" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="900" max="900" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="901" max="902" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="903" max="903" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="904" max="905" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="906" max="906" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="907" max="908" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="909" max="909" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="910" max="911" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="912" max="912" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="913" max="913" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="914" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2079,7 @@
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
     </row>
-    <row r="2" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2079,7 +2087,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2087,8 +2095,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
@@ -3042,19 +3050,22 @@
       <c r="AHO5" s="26"/>
       <c r="AHP5" s="26"/>
       <c r="AHQ5" s="27"/>
-      <c r="AHR5" s="24">
+      <c r="AHR5" s="25">
         <v>2023</v>
       </c>
-      <c r="AHS5" s="24"/>
-      <c r="AHT5" s="24"/>
-      <c r="AHU5" s="24"/>
-      <c r="AHV5" s="24"/>
-      <c r="AHW5" s="24"/>
-      <c r="AHX5" s="24"/>
-      <c r="AHY5" s="24"/>
-      <c r="AHZ5" s="24"/>
+      <c r="AHS5" s="26"/>
+      <c r="AHT5" s="26"/>
+      <c r="AHU5" s="26"/>
+      <c r="AHV5" s="26"/>
+      <c r="AHW5" s="26"/>
+      <c r="AHX5" s="26"/>
+      <c r="AHY5" s="26"/>
+      <c r="AHZ5" s="26"/>
+      <c r="AIA5" s="26"/>
+      <c r="AIB5" s="26"/>
+      <c r="AIC5" s="27"/>
     </row>
-    <row r="6" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="25" t="s">
         <v>7</v>
@@ -4571,8 +4582,13 @@
       </c>
       <c r="AHY6" s="26"/>
       <c r="AHZ6" s="27"/>
+      <c r="AIA6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="AIB6" s="26"/>
+      <c r="AIC6" s="27"/>
     </row>
-    <row r="7" spans="1:910" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:913" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>22</v>
@@ -7301,8 +7317,17 @@
       <c r="AHZ7" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AIA7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AIB7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AIC7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -10033,8 +10058,17 @@
       <c r="AHZ8" s="23">
         <v>126571</v>
       </c>
+      <c r="AIA8" s="21">
+        <v>85082</v>
+      </c>
+      <c r="AIB8" s="22">
+        <v>38077</v>
+      </c>
+      <c r="AIC8" s="23">
+        <v>123159</v>
+      </c>
     </row>
-    <row r="9" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>1</v>
       </c>
@@ -12765,8 +12799,17 @@
       <c r="AHZ9" s="5">
         <v>402175</v>
       </c>
+      <c r="AIA9" s="3">
+        <v>231833</v>
+      </c>
+      <c r="AIB9" s="4">
+        <v>172946</v>
+      </c>
+      <c r="AIC9" s="5">
+        <v>404779</v>
+      </c>
     </row>
-    <row r="10" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
@@ -15497,8 +15540,17 @@
       <c r="AHZ10" s="5">
         <v>150009</v>
       </c>
+      <c r="AIA10" s="3">
+        <v>125678</v>
+      </c>
+      <c r="AIB10" s="4">
+        <v>23909</v>
+      </c>
+      <c r="AIC10" s="5">
+        <v>149587</v>
+      </c>
     </row>
-    <row r="11" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
@@ -18229,8 +18281,17 @@
       <c r="AHZ11" s="5">
         <v>10018</v>
       </c>
+      <c r="AIA11" s="3">
+        <v>7526</v>
+      </c>
+      <c r="AIB11" s="4">
+        <v>2466</v>
+      </c>
+      <c r="AIC11" s="5">
+        <v>9992</v>
+      </c>
     </row>
-    <row r="12" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
@@ -20961,8 +21022,17 @@
       <c r="AHZ12" s="5">
         <v>519869</v>
       </c>
+      <c r="AIA12" s="3">
+        <v>303448</v>
+      </c>
+      <c r="AIB12" s="4">
+        <v>215334</v>
+      </c>
+      <c r="AIC12" s="5">
+        <v>518782</v>
+      </c>
     </row>
-    <row r="13" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
@@ -23693,8 +23763,17 @@
       <c r="AHZ13" s="5">
         <v>2476</v>
       </c>
+      <c r="AIA13" s="3">
+        <v>2153</v>
+      </c>
+      <c r="AIB13" s="4">
+        <v>392</v>
+      </c>
+      <c r="AIC13" s="5">
+        <v>2545</v>
+      </c>
     </row>
-    <row r="14" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -26425,8 +26504,17 @@
       <c r="AHZ14" s="5">
         <v>372605</v>
       </c>
+      <c r="AIA14" s="3">
+        <v>208893</v>
+      </c>
+      <c r="AIB14" s="4">
+        <v>166434</v>
+      </c>
+      <c r="AIC14" s="5">
+        <v>375327</v>
+      </c>
     </row>
-    <row r="15" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
@@ -29157,8 +29245,17 @@
       <c r="AHZ15" s="5">
         <v>284000</v>
       </c>
+      <c r="AIA15" s="3">
+        <v>126787</v>
+      </c>
+      <c r="AIB15" s="4">
+        <v>157031</v>
+      </c>
+      <c r="AIC15" s="5">
+        <v>283818</v>
+      </c>
     </row>
-    <row r="16" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -31889,8 +31986,17 @@
       <c r="AHZ16" s="5">
         <v>104992</v>
       </c>
+      <c r="AIA16" s="3">
+        <v>78550</v>
+      </c>
+      <c r="AIB16" s="4">
+        <v>26663</v>
+      </c>
+      <c r="AIC16" s="5">
+        <v>105213</v>
+      </c>
     </row>
-    <row r="17" spans="1:910" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:913" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
@@ -34627,8 +34733,20 @@
         <f t="shared" si="0"/>
         <v>1972715</v>
       </c>
+      <c r="AIA17" s="14">
+        <f t="shared" ref="AIA17:AIC17" si="1">SUM(AIA8:AIA16)</f>
+        <v>1169950</v>
+      </c>
+      <c r="AIB17" s="14">
+        <f t="shared" si="1"/>
+        <v>803252</v>
+      </c>
+      <c r="AIC17" s="14">
+        <f t="shared" si="1"/>
+        <v>1973202</v>
+      </c>
     </row>
-    <row r="19" spans="1:910" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:913" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
@@ -34638,15 +34756,15 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="27" spans="1:910" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:913" x14ac:dyDescent="0.25">
       <c r="IY27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="334">
-    <mergeCell ref="AHX5:AHZ5"/>
+  <mergeCells count="333">
+    <mergeCell ref="AIA6:AIC6"/>
+    <mergeCell ref="AHR5:AIC5"/>
     <mergeCell ref="AHX6:AHZ6"/>
     <mergeCell ref="AHR6:AHT6"/>
-    <mergeCell ref="AHR5:AHT5"/>
     <mergeCell ref="AHO6:AHQ6"/>
     <mergeCell ref="AGH5:AHQ5"/>
     <mergeCell ref="HJ6:HL6"/>
@@ -34953,7 +35071,6 @@
     <mergeCell ref="XT6:XV6"/>
     <mergeCell ref="XW6:XY6"/>
     <mergeCell ref="AAB6:AAD6"/>
-    <mergeCell ref="AHU5:AHW5"/>
     <mergeCell ref="AHU6:AHW6"/>
     <mergeCell ref="AHL6:AHN6"/>
     <mergeCell ref="AHI6:AHK6"/>

--- a/Tabluados_imss/ta_jalisco_división_género.xlsx
+++ b/Tabluados_imss/ta_jalisco_división_género.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabluados_imss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F6FE43-FB0E-4E08-9C4D-F795D157BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AD3638-3C29-43EA-A8D6-22BE5343DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="31">
   <si>
     <t>Agricultura, ganadería, silvicultura, pesca y caza</t>
   </si>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Enero </t>
   </si>
   <si>
-    <t>Enero 1998 - junio 2023</t>
+    <t>Enero 1998 - julio 2023</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -919,6 +919,15 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -931,14 +940,8 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1266,11 +1269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AII27"/>
+  <dimension ref="A1:AIL27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AHS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AIH25" sqref="AIH25"/>
+      <pane xSplit="1" topLeftCell="AHX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AIL21" sqref="AIL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2081,22 +2084,22 @@
     <col min="910" max="911" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="912" max="912" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="913" max="913" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="914" max="916" width="9.109375" style="1" customWidth="1"/>
-    <col min="917" max="917" width="10.109375" style="1" customWidth="1"/>
-    <col min="918" max="918" width="8" style="1" customWidth="1"/>
-    <col min="919" max="919" width="9.77734375" style="1" customWidth="1"/>
-    <col min="920" max="16384" width="11.44140625" style="1"/>
+    <col min="914" max="919" width="9.109375" style="1" customWidth="1"/>
+    <col min="920" max="920" width="10.109375" style="1" customWidth="1"/>
+    <col min="921" max="921" width="8" style="1" customWidth="1"/>
+    <col min="922" max="922" width="9.77734375" style="1" customWidth="1"/>
+    <col min="923" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2104,7 +2107,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2112,9 +2115,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="4" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="23">
@@ -2991,44 +2994,44 @@
       <c r="AEU5" s="24"/>
       <c r="AEV5" s="24"/>
       <c r="AEW5" s="25"/>
-      <c r="AEX5" s="34">
+      <c r="AEX5" s="28">
         <v>2021</v>
       </c>
-      <c r="AEY5" s="34"/>
-      <c r="AEZ5" s="34"/>
-      <c r="AFA5" s="34"/>
-      <c r="AFB5" s="34"/>
-      <c r="AFC5" s="34"/>
-      <c r="AFD5" s="34"/>
-      <c r="AFE5" s="34"/>
-      <c r="AFF5" s="34"/>
-      <c r="AFG5" s="34"/>
-      <c r="AFH5" s="34"/>
-      <c r="AFI5" s="34"/>
-      <c r="AFJ5" s="34"/>
-      <c r="AFK5" s="34"/>
-      <c r="AFL5" s="34"/>
-      <c r="AFM5" s="34"/>
-      <c r="AFN5" s="34"/>
-      <c r="AFO5" s="34"/>
-      <c r="AFP5" s="34"/>
-      <c r="AFQ5" s="34"/>
-      <c r="AFR5" s="34"/>
-      <c r="AFS5" s="34"/>
-      <c r="AFT5" s="34"/>
-      <c r="AFU5" s="34"/>
-      <c r="AFV5" s="34"/>
-      <c r="AFW5" s="34"/>
-      <c r="AFX5" s="34"/>
-      <c r="AFY5" s="34"/>
-      <c r="AFZ5" s="34"/>
-      <c r="AGA5" s="34"/>
-      <c r="AGB5" s="34"/>
-      <c r="AGC5" s="34"/>
-      <c r="AGD5" s="34"/>
-      <c r="AGE5" s="34"/>
-      <c r="AGF5" s="34"/>
-      <c r="AGG5" s="34"/>
+      <c r="AEY5" s="28"/>
+      <c r="AEZ5" s="28"/>
+      <c r="AFA5" s="28"/>
+      <c r="AFB5" s="28"/>
+      <c r="AFC5" s="28"/>
+      <c r="AFD5" s="28"/>
+      <c r="AFE5" s="28"/>
+      <c r="AFF5" s="28"/>
+      <c r="AFG5" s="28"/>
+      <c r="AFH5" s="28"/>
+      <c r="AFI5" s="28"/>
+      <c r="AFJ5" s="28"/>
+      <c r="AFK5" s="28"/>
+      <c r="AFL5" s="28"/>
+      <c r="AFM5" s="28"/>
+      <c r="AFN5" s="28"/>
+      <c r="AFO5" s="28"/>
+      <c r="AFP5" s="28"/>
+      <c r="AFQ5" s="28"/>
+      <c r="AFR5" s="28"/>
+      <c r="AFS5" s="28"/>
+      <c r="AFT5" s="28"/>
+      <c r="AFU5" s="28"/>
+      <c r="AFV5" s="28"/>
+      <c r="AFW5" s="28"/>
+      <c r="AFX5" s="28"/>
+      <c r="AFY5" s="28"/>
+      <c r="AFZ5" s="28"/>
+      <c r="AGA5" s="28"/>
+      <c r="AGB5" s="28"/>
+      <c r="AGC5" s="28"/>
+      <c r="AGD5" s="28"/>
+      <c r="AGE5" s="28"/>
+      <c r="AGF5" s="28"/>
+      <c r="AGG5" s="28"/>
       <c r="AGH5" s="23">
         <v>2022</v>
       </c>
@@ -3086,10 +3089,13 @@
       <c r="AIF5" s="24"/>
       <c r="AIG5" s="24"/>
       <c r="AIH5" s="24"/>
-      <c r="AII5" s="25"/>
+      <c r="AII5" s="24"/>
+      <c r="AIJ5" s="24"/>
+      <c r="AIK5" s="24"/>
+      <c r="AIL5" s="25"/>
     </row>
-    <row r="6" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
@@ -3210,7 +3216,7 @@
       </c>
       <c r="BT6" s="24"/>
       <c r="BU6" s="25"/>
-      <c r="BV6" s="33" t="s">
+      <c r="BV6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="BW6" s="26"/>
@@ -4620,9 +4626,14 @@
       </c>
       <c r="AIH6" s="24"/>
       <c r="AII6" s="25"/>
+      <c r="AIJ6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AIK6" s="24"/>
+      <c r="AIL6" s="25"/>
     </row>
-    <row r="7" spans="1:919" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:922" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
@@ -7368,17 +7379,26 @@
       <c r="AIF7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AIG7" s="7" t="s">
+      <c r="AIG7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AIH7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AII7" s="9" t="s">
+      <c r="AII7" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="AIJ7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AIK7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AIL7" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -10127,17 +10147,26 @@
       <c r="AIF8" s="22">
         <v>120101</v>
       </c>
-      <c r="AIG8" s="20">
+      <c r="AIG8" s="21">
         <v>81269</v>
       </c>
       <c r="AIH8" s="21">
         <v>37585</v>
       </c>
-      <c r="AII8" s="22">
+      <c r="AII8" s="21">
         <v>118854</v>
       </c>
+      <c r="AIJ8" s="20">
+        <v>79507</v>
+      </c>
+      <c r="AIK8" s="21">
+        <v>36757</v>
+      </c>
+      <c r="AIL8" s="22">
+        <v>116264</v>
+      </c>
     </row>
-    <row r="9" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
@@ -12886,17 +12915,26 @@
       <c r="AIF9" s="5">
         <v>405961</v>
       </c>
-      <c r="AIG9" s="3">
+      <c r="AIG9" s="35">
         <v>234049</v>
       </c>
-      <c r="AIH9" s="4">
+      <c r="AIH9" s="35">
         <v>175148</v>
       </c>
-      <c r="AII9" s="5">
+      <c r="AII9" s="35">
         <v>409197</v>
       </c>
+      <c r="AIJ9" s="3">
+        <v>235029</v>
+      </c>
+      <c r="AIK9" s="4">
+        <v>176599</v>
+      </c>
+      <c r="AIL9" s="5">
+        <v>411628</v>
+      </c>
     </row>
-    <row r="10" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -15645,17 +15683,26 @@
       <c r="AIF10" s="5">
         <v>151152</v>
       </c>
-      <c r="AIG10" s="3">
+      <c r="AIG10" s="35">
         <v>128441</v>
       </c>
-      <c r="AIH10" s="4">
+      <c r="AIH10" s="35">
         <v>24408</v>
       </c>
-      <c r="AII10" s="5">
+      <c r="AII10" s="35">
         <v>152849</v>
       </c>
+      <c r="AIJ10" s="3">
+        <v>128694</v>
+      </c>
+      <c r="AIK10" s="4">
+        <v>24561</v>
+      </c>
+      <c r="AIL10" s="5">
+        <v>153255</v>
+      </c>
     </row>
-    <row r="11" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -18404,17 +18451,26 @@
       <c r="AIF11" s="5">
         <v>10020</v>
       </c>
-      <c r="AIG11" s="3">
+      <c r="AIG11" s="35">
         <v>7545</v>
       </c>
-      <c r="AIH11" s="4">
+      <c r="AIH11" s="35">
         <v>2515</v>
       </c>
-      <c r="AII11" s="5">
+      <c r="AII11" s="35">
         <v>10060</v>
       </c>
+      <c r="AIJ11" s="3">
+        <v>7560</v>
+      </c>
+      <c r="AIK11" s="4">
+        <v>2528</v>
+      </c>
+      <c r="AIL11" s="5">
+        <v>10088</v>
+      </c>
     </row>
-    <row r="12" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
@@ -21163,17 +21219,26 @@
       <c r="AIF12" s="5">
         <v>519348</v>
       </c>
-      <c r="AIG12" s="3">
+      <c r="AIG12" s="35">
         <v>303764</v>
       </c>
-      <c r="AIH12" s="4">
+      <c r="AIH12" s="35">
         <v>216442</v>
       </c>
-      <c r="AII12" s="5">
+      <c r="AII12" s="35">
         <v>520206</v>
       </c>
+      <c r="AIJ12" s="3">
+        <v>303402</v>
+      </c>
+      <c r="AIK12" s="4">
+        <v>216784</v>
+      </c>
+      <c r="AIL12" s="5">
+        <v>520186</v>
+      </c>
     </row>
-    <row r="13" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -23922,17 +23987,26 @@
       <c r="AIF13" s="5">
         <v>2538</v>
       </c>
-      <c r="AIG13" s="3">
+      <c r="AIG13" s="35">
         <v>2186</v>
       </c>
-      <c r="AIH13" s="4">
+      <c r="AIH13" s="35">
         <v>407</v>
       </c>
-      <c r="AII13" s="5">
+      <c r="AII13" s="35">
         <v>2593</v>
       </c>
+      <c r="AIJ13" s="3">
+        <v>2190</v>
+      </c>
+      <c r="AIK13" s="4">
+        <v>412</v>
+      </c>
+      <c r="AIL13" s="5">
+        <v>2602</v>
+      </c>
     </row>
-    <row r="14" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
@@ -26681,17 +26755,26 @@
       <c r="AIF14" s="5">
         <v>375770</v>
       </c>
-      <c r="AIG14" s="3">
+      <c r="AIG14" s="35">
         <v>208864</v>
       </c>
-      <c r="AIH14" s="4">
+      <c r="AIH14" s="35">
         <v>168060</v>
       </c>
-      <c r="AII14" s="5">
+      <c r="AII14" s="35">
         <v>376924</v>
       </c>
+      <c r="AIJ14" s="3">
+        <v>210496</v>
+      </c>
+      <c r="AIK14" s="4">
+        <v>169588</v>
+      </c>
+      <c r="AIL14" s="5">
+        <v>380084</v>
+      </c>
     </row>
-    <row r="15" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
@@ -29440,17 +29523,26 @@
       <c r="AIF15" s="5">
         <v>283923</v>
       </c>
-      <c r="AIG15" s="3">
+      <c r="AIG15" s="35">
         <v>126335</v>
       </c>
-      <c r="AIH15" s="4">
+      <c r="AIH15" s="35">
         <v>157369</v>
       </c>
-      <c r="AII15" s="5">
+      <c r="AII15" s="35">
         <v>283704</v>
       </c>
+      <c r="AIJ15" s="3">
+        <v>125145</v>
+      </c>
+      <c r="AIK15" s="4">
+        <v>155444</v>
+      </c>
+      <c r="AIL15" s="5">
+        <v>280589</v>
+      </c>
     </row>
-    <row r="16" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
@@ -32199,17 +32291,26 @@
       <c r="AIF16" s="5">
         <v>105752</v>
       </c>
-      <c r="AIG16" s="3">
+      <c r="AIG16" s="35">
         <v>79228</v>
       </c>
-      <c r="AIH16" s="4">
+      <c r="AIH16" s="35">
         <v>27175</v>
       </c>
-      <c r="AII16" s="5">
+      <c r="AII16" s="35">
         <v>106403</v>
       </c>
+      <c r="AIJ16" s="3">
+        <v>79125</v>
+      </c>
+      <c r="AIK16" s="4">
+        <v>27325</v>
+      </c>
+      <c r="AIL16" s="5">
+        <v>106450</v>
+      </c>
     </row>
-    <row r="17" spans="1:919" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:922" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -34971,33 +35072,357 @@
         <v>1974565</v>
       </c>
       <c r="AIG17" s="13">
-        <f t="shared" ref="AIG17:AII17" si="2">SUM(AIG8:AIG16)</f>
+        <f>SUM(AIG8:AIG16)</f>
         <v>1171681</v>
       </c>
       <c r="AIH17" s="13">
+        <f>SUM(AIH8:AIH16)</f>
+        <v>809109</v>
+      </c>
+      <c r="AII17" s="13">
+        <f>SUM(AII8:AII16)</f>
+        <v>1980790</v>
+      </c>
+      <c r="AIJ17" s="13">
+        <f t="shared" ref="AIJ17:AIL17" si="2">SUM(AIJ8:AIJ16)</f>
+        <v>1171148</v>
+      </c>
+      <c r="AIK17" s="13">
         <f t="shared" si="2"/>
-        <v>809109</v>
-      </c>
-      <c r="AII17" s="13">
+        <v>809998</v>
+      </c>
+      <c r="AIL17" s="13">
         <f t="shared" si="2"/>
-        <v>1980790</v>
+        <v>1981146</v>
       </c>
     </row>
-    <row r="19" spans="1:919" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:922" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
     </row>
-    <row r="27" spans="1:919" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:922" x14ac:dyDescent="0.25">
       <c r="IY27" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="335">
+  <mergeCells count="336">
+    <mergeCell ref="AIG6:AII6"/>
+    <mergeCell ref="AID6:AIF6"/>
+    <mergeCell ref="AIJ6:AIL6"/>
+    <mergeCell ref="AHR5:AIL5"/>
+    <mergeCell ref="AHU6:AHW6"/>
+    <mergeCell ref="AHL6:AHN6"/>
+    <mergeCell ref="AHI6:AHK6"/>
+    <mergeCell ref="ADN6:ADP6"/>
+    <mergeCell ref="ADQ6:ADS6"/>
+    <mergeCell ref="ADT6:ADV6"/>
+    <mergeCell ref="ADW6:ADY6"/>
+    <mergeCell ref="AHF6:AHH6"/>
+    <mergeCell ref="AGW6:AGY6"/>
+    <mergeCell ref="AGN6:AGP6"/>
+    <mergeCell ref="AHC6:AHE6"/>
+    <mergeCell ref="AFY6:AGA6"/>
+    <mergeCell ref="AFS6:AFU6"/>
+    <mergeCell ref="AFP6:AFR6"/>
+    <mergeCell ref="AFJ6:AFL6"/>
+    <mergeCell ref="AGZ6:AHB6"/>
+    <mergeCell ref="AGT6:AGV6"/>
+    <mergeCell ref="AGQ6:AGS6"/>
+    <mergeCell ref="AGK6:AGM6"/>
+    <mergeCell ref="AGH6:AGJ6"/>
+    <mergeCell ref="AEC6:AEE6"/>
+    <mergeCell ref="ADZ6:AEB6"/>
+    <mergeCell ref="AFD6:AFF6"/>
+    <mergeCell ref="ACD5:ADM5"/>
+    <mergeCell ref="ADN5:AEW5"/>
+    <mergeCell ref="OH5:PQ5"/>
+    <mergeCell ref="PR5:RA5"/>
+    <mergeCell ref="RB5:SK5"/>
+    <mergeCell ref="SL5:TU5"/>
+    <mergeCell ref="TV5:VE5"/>
+    <mergeCell ref="VF5:WO5"/>
+    <mergeCell ref="AAT5:ACC5"/>
+    <mergeCell ref="XZ6:YB6"/>
+    <mergeCell ref="YC6:YE6"/>
+    <mergeCell ref="YF6:YH6"/>
+    <mergeCell ref="YI6:YK6"/>
+    <mergeCell ref="YL6:YN6"/>
+    <mergeCell ref="YO6:YQ6"/>
+    <m